--- a/data/02_intermediate/cleaned_Grand_Corps_Malade_songs.xlsx
+++ b/data/02_intermediate/cleaned_Grand_Corps_Malade_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Si je ne pouvais écrire je serais muet Condamné à la violence dans la dictature du secret Submergé par tout ces sentiments sans mots Je m'effacerais comme une mer sans eau Ma vie ne serait pas la même Aussi vrai que j'aurais pu prendre la tienne Mon talent s'est corrompu dans l'illicite Où les instants de bonheur sont des éclipses lorsqu'ils ne sont pas des ellipses Alors j'ai écrit dans l'urgence Comme si ma vie en dépendait sous les sirènes des ambulances J'ai écrit, par instinct, par survie Je me suis surpris à écrire afin de supporter la vie Trop de moi dans mes écrits Peut-être que je n'écris plus, je m'écris J'abandonne mon être à mes lettres Car l'écriture sans âme n'est que lettres Je n'écris pas que pour m'oublier Parfois j'écris pour qu'ils ne puissent jamais oublier Pour qu'ils ne puissent jamais nier le martyre des braves Soudain j'écris des volcans que je grave à l'encre de lave Je ne fais que de la musique pour vibrer Faire vibrer les curs criblés, je n'écris que pour dire vrai Si je n'avais eu les mots, que serais-je ? Sur le banc des mélancoliques, ma poésie siège You might also like Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris Comme une dédicace au slam, ça commence a capella Toutes ces voix qui décrassent l'âme, toutes ces voix qui m'ont amené là Si tout à coup mes mots s'envolent, c'est parce que le beat atterrit Moi j'ai pris ma plus belle plume, pour pouvoir répondre à Kery Et quand le piano redémarre, c'est pour souligner nos errances Si j'écris c'est pour mettre face à face mes regrets, mes espérances Seul sur scène, face à la salle, ne crois jamais que je me sens supérieur Et si tu ne vois jamais mes larmes, c'est parce qu'elles coulent à l'intérieur C'est vrai, y'a très peu de certitude dans mes écrits Mais si je gratte autant de textes, c'est que mon envie n'a pas maigri Envie de croire qu'à notre époque, les gens peuvent encore s'écouter Là où j'habite y'a trop de gamins que la vie a déjà dégoûté J'écris j'écris parce que les épreuves m'ont inspiré J'écris comme tout ces mômes que le bitume a fait transpirer Si y a tant de jeune dans nos banlieues qui décident de remplir toutes ces pages C'est peut-être que la vie ici mérite bien quelques témoignages J'écris, parce qu'il suffit d'une feuille et d'un stylo Comme les derniers des cancres peut s'exprimer pas besoin de diplôme de philo J'écris surtout pour transmettre et parce que je crois encore au partage A l'échange des émotions, un sourire sur un visage Alors non on changera pas le monde on est juste des chroniqueurs D'un quotidien en noir et blanc qu'on essaye de mettre en couleurs Mais si on ne change pas le monde, le monde ne nous changera pas non plus On a du cur dans nos stylos et la sincérité comme vertu Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris4</t>
+          <t>Si je ne pouvais écrire je serais muet Condamné à la violence dans la dictature du secret Submergé par tout ces sentiments sans mots Je m'effacerais comme une mer sans eau Ma vie ne serait pas la même Aussi vrai que j'aurais pu prendre la tienne Mon talent s'est corrompu dans l'illicite Où les instants de bonheur sont des éclipses lorsqu'ils ne sont pas des ellipses Alors j'ai écrit dans l'urgence Comme si ma vie en dépendait sous les sirènes des ambulances J'ai écrit, par instinct, par survie Je me suis surpris à écrire afin de supporter la vie Trop de moi dans mes écrits Peut-être que je n'écris plus, je m'écris J'abandonne mon être à mes lettres Car l'écriture sans âme n'est que lettres Je n'écris pas que pour m'oublier Parfois j'écris pour qu'ils ne puissent jamais oublier Pour qu'ils ne puissent jamais nier le martyre des braves Soudain j'écris des volcans que je grave à l'encre de lave Je ne fais que de la musique pour vibrer Faire vibrer les curs criblés, je n'écris que pour dire vrai Si je n'avais eu les mots, que serais-je ? Sur le banc des mélancoliques, ma poésie siège Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris Comme une dédicace au slam, ça commence a capella Toutes ces voix qui décrassent l'âme, toutes ces voix qui m'ont amené là Si tout à coup mes mots s'envolent, c'est parce que le beat atterrit Moi j'ai pris ma plus belle plume, pour pouvoir répondre à Kery Et quand le piano redémarre, c'est pour souligner nos errances Si j'écris c'est pour mettre face à face mes regrets, mes espérances Seul sur scène, face à la salle, ne crois jamais que je me sens supérieur Et si tu ne vois jamais mes larmes, c'est parce qu'elles coulent à l'intérieur C'est vrai, y'a très peu de certitude dans mes écrits Mais si je gratte autant de textes, c'est que mon envie n'a pas maigri Envie de croire qu'à notre époque, les gens peuvent encore s'écouter Là où j'habite y'a trop de gamins que la vie a déjà dégoûté J'écris j'écris parce que les épreuves m'ont inspiré J'écris comme tout ces mômes que le bitume a fait transpirer Si y a tant de jeune dans nos banlieues qui décident de remplir toutes ces pages C'est peut-être que la vie ici mérite bien quelques témoignages J'écris, parce qu'il suffit d'une feuille et d'un stylo Comme les derniers des cancres peut s'exprimer pas besoin de diplôme de philo J'écris surtout pour transmettre et parce que je crois encore au partage A l'échange des émotions, un sourire sur un visage Alors non on changera pas le monde on est juste des chroniqueurs D'un quotidien en noir et blanc qu'on essaye de mettre en couleurs Mais si on ne change pas le monde, le monde ne nous changera pas non plus On a du cur dans nos stylos et la sincérité comme vertu Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris Entre le marteau et l'enclume J'ai dû aiguiser ma plume Quand je suis perdue dans la brume Je fais chanter mon amertume Alors j'écris, je crie, j'écris J'ai pas le choix j'écris, je crie, j'écris4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Roméo habite au rez-de-chaussée du bâtiment trois Juliette dans l'immeuble d'en face au dernier étage Ils ont 16 ans tous les deux et chaque jour quand ils se voient Grandit dans leur regard une envie de partage C'est au premier rendez-vous qu'ils franchissent le pas Sous un triste ciel d'automne où il pleut sur leurs corps Ils s'embrassent comme des fous sans peur du vent et du froid Car l'amour a ses saisons que la raison ignore Roméo kiffe Juliette et Juliette kiffe Roméo Et si le ciel n'est pas clément tant pis pour la météo Un amour dans l'orage, celui des dieux, celui des hommes Un amour, du courage et deux enfants hors des normes Juliette et Roméo se voient souvent en cachette Ce n'est pas qu'autour d'eux les gens pourraient se moquer C'est que le père de Juliette a une kippa sur la tête Et celui de Roméo va tous les jours à la mosquée Alors ils mentent à leurs familles, ils s'organisent comme des pros S'il n'y a pas de lieux pour leur amour, ils se fabriquent un décor Ils s'aiment au cinéma, chez des amis, dans le métro Car l'amour a ses maisons que les darons ignorent You might also like Le père de Roméo est vénèr, il a des soupçons La famille de Juliette est juive, tu ne dois pas t'approcher d'elle Mais Roméo argumente et résiste au coup de pression On s'en fout papa qu'elle soit juive, regarde comme elle est belle Alors l'amour reste clandé dès que son père tourne le dos Il lui fait vivre la grande vie avec les moyens du bord Pour elle c'est sandwich au grec et cheese au McDo Car l'amour a ses liaisons que les biftons ignorent Mais l'histoire se complique quand le père de Juliette Tombe sur des messages qu'il n'aurait pas dû lire Un texto sur l'iPhone et un chat Internet La sanction est tombée, elle ne peut plus sortir Roméo galère dans le hall du bâtiment trois Malgré son pote Mercutio, sa joie s'évapore Sa princesse est tout prêt mais retenue sous son toit Car l'amour a ses prisons que la raison déshonore Mais Juliette et Roméo changent l'histoire et se tirent A croire qu'ils s'aiment plus à la vie qu'à la mort Pas de fiole de cyanure, n'en déplaise à Shakespeare Car l'amour a ses horizons que les poisons ignorent Roméo kiffe Juliette et Juliette kiffe Roméo Et si le ciel n'est pas clément tant pis pour la météo Un amour dans un orage réactionnaire et insultant Un amour et deux enfants en avance sur leur temps</t>
+          <t>Roméo habite au rez-de-chaussée du bâtiment trois Juliette dans l'immeuble d'en face au dernier étage Ils ont 16 ans tous les deux et chaque jour quand ils se voient Grandit dans leur regard une envie de partage C'est au premier rendez-vous qu'ils franchissent le pas Sous un triste ciel d'automne où il pleut sur leurs corps Ils s'embrassent comme des fous sans peur du vent et du froid Car l'amour a ses saisons que la raison ignore Roméo kiffe Juliette et Juliette kiffe Roméo Et si le ciel n'est pas clément tant pis pour la météo Un amour dans l'orage, celui des dieux, celui des hommes Un amour, du courage et deux enfants hors des normes Juliette et Roméo se voient souvent en cachette Ce n'est pas qu'autour d'eux les gens pourraient se moquer C'est que le père de Juliette a une kippa sur la tête Et celui de Roméo va tous les jours à la mosquée Alors ils mentent à leurs familles, ils s'organisent comme des pros S'il n'y a pas de lieux pour leur amour, ils se fabriquent un décor Ils s'aiment au cinéma, chez des amis, dans le métro Car l'amour a ses maisons que les darons ignorent Le père de Roméo est vénèr, il a des soupçons La famille de Juliette est juive, tu ne dois pas t'approcher d'elle Mais Roméo argumente et résiste au coup de pression On s'en fout papa qu'elle soit juive, regarde comme elle est belle Alors l'amour reste clandé dès que son père tourne le dos Il lui fait vivre la grande vie avec les moyens du bord Pour elle c'est sandwich au grec et cheese au McDo Car l'amour a ses liaisons que les biftons ignorent Mais l'histoire se complique quand le père de Juliette Tombe sur des messages qu'il n'aurait pas dû lire Un texto sur l'iPhone et un chat Internet La sanction est tombée, elle ne peut plus sortir Roméo galère dans le hall du bâtiment trois Malgré son pote Mercutio, sa joie s'évapore Sa princesse est tout prêt mais retenue sous son toit Car l'amour a ses prisons que la raison déshonore Mais Juliette et Roméo changent l'histoire et se tirent A croire qu'ils s'aiment plus à la vie qu'à la mort Pas de fiole de cyanure, n'en déplaise à Shakespeare Car l'amour a ses horizons que les poisons ignorent Roméo kiffe Juliette et Juliette kiffe Roméo Et si le ciel n'est pas clément tant pis pour la météo Un amour dans un orage réactionnaire et insultant Un amour et deux enfants en avance sur leur temps</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ne me raconte pas d'histoires Tu sais bien, ce qui ne tourne pas rond Chez moi, ne m'en demande pas trop Tu sais bien, que les fêlures sont profondes En moi, ne taccroche pas si fort Si tu doutes, ne t'accroche pas si fort Si ça te coûte, ne me laisse pas te quitter Alors que je suis sûre de moi Je te donne tout ce que j'ai alors essaie de voir en moi que Je t'aime Mais je t'aime Je t'aime, je t'aime, je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieux On m'avait dit Attends tu vas voir, l'amour c'est un grand feu. Ça crépite, ça illumine, ça brille, ça réchauffe, ça pique les yeux. Ça envoie des centaines de lucioles tout là-haut, au firmament. Ça s'allume d'un coup et ça éclaire le monde et la vie différemment Nous on a craqué l'allumette pour l'étincelle de nos débuts On a alimenté c'foyer de tous nos excès, de nos abus On s'est aimé plus que tout, seul au monde dans notre bulle Ces flammes nous ont rendus fous, on a oublié qu'au final, le feu ça brûle You might also like Mais je t'aime, je t'aime, je t'aime, je t'aime Mais je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieux Je m'approche tout près de notre feu et je transpire d'amertume Je vois danser ces flammes jaunes et bleues, et la passion qui se consume Pourquoi lorsque l'amour est fort il nous rend vulnérables et fragiles ? Je pense à nous et je vacille, pourquoi depuis rien n'est facile Je t'aime en feu, je t'aime en or Je t'aime soucieux, je t'aime trop fort Je t'aime pour deux, je t'aime à tort C'est périlleux, je t'aime encore Alors c'est vrai ça me perfore Je t'aime pesant, je t'aime bancale Évidemment ça me dévore Je sais tellement que je t'aime, mal Si j'avance, avec toi C'est que je me vois faire cette danse, dans tes bras Des attentes, j'en ai pas Tu me donnes tant d'amour, tant de force Que je n'peux plus, me passer d'toi Si mes mots te blessent, c'est pas d'ta faute Mes blessures sont d'hier Il y a des jours plus durs que d'autres Si mes mots te pèsent J'y suis pour rien J'y suis pour rien, rien Mais je t'aime, je t'aime, je t'aime, je t'aime Je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieuxTu m'aimes, et tu fais de ton mieux Mais, je t'aime7</t>
+          <t>Ne me raconte pas d'histoires Tu sais bien, ce qui ne tourne pas rond Chez moi, ne m'en demande pas trop Tu sais bien, que les fêlures sont profondes En moi, ne taccroche pas si fort Si tu doutes, ne t'accroche pas si fort Si ça te coûte, ne me laisse pas te quitter Alors que je suis sûre de moi Je te donne tout ce que j'ai alors essaie de voir en moi que Je t'aime Mais je t'aime Je t'aime, je t'aime, je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieux On m'avait dit Attends tu vas voir, l'amour c'est un grand feu. Ça crépite, ça illumine, ça brille, ça réchauffe, ça pique les yeux. Ça envoie des centaines de lucioles tout là-haut, au firmament. Ça s'allume d'un coup et ça éclaire le monde et la vie différemment Nous on a craqué l'allumette pour l'étincelle de nos débuts On a alimenté c'foyer de tous nos excès, de nos abus On s'est aimé plus que tout, seul au monde dans notre bulle Ces flammes nous ont rendus fous, on a oublié qu'au final, le feu ça brûle Mais je t'aime, je t'aime, je t'aime, je t'aime Mais je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieux Je m'approche tout près de notre feu et je transpire d'amertume Je vois danser ces flammes jaunes et bleues, et la passion qui se consume Pourquoi lorsque l'amour est fort il nous rend vulnérables et fragiles ? Je pense à nous et je vacille, pourquoi depuis rien n'est facile Je t'aime en feu, je t'aime en or Je t'aime soucieux, je t'aime trop fort Je t'aime pour deux, je t'aime à tort C'est périlleux, je t'aime encore Alors c'est vrai ça me perfore Je t'aime pesant, je t'aime bancale Évidemment ça me dévore Je sais tellement que je t'aime, mal Si j'avance, avec toi C'est que je me vois faire cette danse, dans tes bras Des attentes, j'en ai pas Tu me donnes tant d'amour, tant de force Que je n'peux plus, me passer d'toi Si mes mots te blessent, c'est pas d'ta faute Mes blessures sont d'hier Il y a des jours plus durs que d'autres Si mes mots te pèsent J'y suis pour rien J'y suis pour rien, rien Mais je t'aime, je t'aime, je t'aime, je t'aime Je t'aime, je t'aime Je t'aime, du plus fort que je peux Je t'aime, et je fais de mon mieuxTu m'aimes, et tu fais de ton mieux Mais, je t'aime7</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J'crois qu'les histoires d'amour, c'est comme les voyages en train Et quand j'vois tous ces voyageurs, parfois, j'aimerais en être un Pourquoi tu crois qu'tant d'gens attendent sur le quai d'la gare ? Pourquoi tu crois qu'on flippe autant d'arriver en retard ? Les trains démarrent souvent au moment où on s'y attend le moins Et l'histoire d'amour t'emporte sous l'il impuissant des témoins Les témoins c'est tes potes, qui t'disent au revoir sur le quai Et regardent le train s'éloigner avec un sourire inquiet Toi aussi, tu leur fais signe, et t'imagines leurs commentaires Certains pensent que tu t'plantes et qu't'as pas les pieds sur terre Chacun y va d'son pronostic sur la durée du voyage Pour la plupart, le train va dérailler dès l'premier orage Le grand amour change forcément ton comportement Dès l'premier jour, faut bien choisir ton compartiment Siège couloir ou contre la vitre, il faut trouver la bonne place Tu choisis quoi ? Une love story d'première ou d'seconde classe ? Dans les premiers kilomètres, tu n'as d'yeux qu'pour son visage Tu calcules pas derrière la fenêtre le défilé des paysages Tu t'sens vivant, tu t'sens léger, et tu n'vois pas passer l'heure T'es tellement bien qu't'as presque envie d'embrasser le contrôleur Mais la magie ne dure qu'un temps, et ton histoire bat d'l'aile Toi tu dis qu'tu n'y es pour rien et qu'c'est sa faute à elle Le ronronnement du train te saoule et chaque virage t'écure Faut qu'tu t'lèves, que tu marches, tu vas t'dégourdir le cur You might also likeEt le train ralentit, c'est déjà la fin d'ton histoire En plus t'es comme un con, tes potes sont restés à l'autre gare Tu dis au revoir à celle que t'appelleras désormais ton ex Dans son agenda, sur ton nom, elle va passer un coup d'Tipp-ex C'est vrai qu'les histoires d'amour, c'est comme les voyages en train Et quand j'vois tous ces voyageurs, parfois, j'aimerais en être un Pourquoi tu crois qu'tant d'gens attendent sur le quai d'la gare ? Pourquoi tu crois qu'on flippe autant d'arriver en retard ? Pour beaucoup, la vie s'résume à essayer d'monter dans l'train À connaître ce qu'est l'amour et s'découvrir plein d'entrain Pour beaucoup, l'objectif est d'arriver à la bonne heure Pour réussir son voyage et avoir accès au bonheur Il est facile de prendre un train, encore faut-il prendre le bon Moi j'suis monté dans deux-trois rames, mais c'était pas l'bon wagon Car les trains sont capricieux et certains sont inaccessibles Et je n'crois pas tout l'temps qu'avec la SNCF c'est possible Il y a ceux pour qui les trains sont toujours en grève Et leurs histoires d'amour n'existent que dans leurs rêves Et y'a ceux qui foncent dans l'premier train sans faire attention Et forcément ils descendront déçus à la prochaine station Y'a celles qui flippent de s'engager parce qu'elles sont trop émotives Pour elles, c'est trop risqué d's'accrocher à la locomotive Et y'a les aventuriers qu'enchaînent voyage sur voyage Dès qu'une histoire est terminée, ils attaquent une autre page Moi après mon seul vrai voyage, j'ai souffert pendant des mois On s'est quittés d'un commun accord, mais elle était plus d'accord que moi Depuis j'traîne sur le quai, j'regarde les trains au départ Y'a des portes qui s'ouvrent, mais dans une gare j'me sens à part Il paraît qu'les voyages en train finissent mal en général Si pour toi c'est l'cas, accroche-toi et garde le moral Car une chose est certaine y'aura toujours un terminus Maintenant tu es prévenu, la prochaine fois tu prendras l'bus1</t>
+          <t>J'crois qu'les histoires d'amour, c'est comme les voyages en train Et quand j'vois tous ces voyageurs, parfois, j'aimerais en être un Pourquoi tu crois qu'tant d'gens attendent sur le quai d'la gare ? Pourquoi tu crois qu'on flippe autant d'arriver en retard ? Les trains démarrent souvent au moment où on s'y attend le moins Et l'histoire d'amour t'emporte sous l'il impuissant des témoins Les témoins c'est tes potes, qui t'disent au revoir sur le quai Et regardent le train s'éloigner avec un sourire inquiet Toi aussi, tu leur fais signe, et t'imagines leurs commentaires Certains pensent que tu t'plantes et qu't'as pas les pieds sur terre Chacun y va d'son pronostic sur la durée du voyage Pour la plupart, le train va dérailler dès l'premier orage Le grand amour change forcément ton comportement Dès l'premier jour, faut bien choisir ton compartiment Siège couloir ou contre la vitre, il faut trouver la bonne place Tu choisis quoi ? Une love story d'première ou d'seconde classe ? Dans les premiers kilomètres, tu n'as d'yeux qu'pour son visage Tu calcules pas derrière la fenêtre le défilé des paysages Tu t'sens vivant, tu t'sens léger, et tu n'vois pas passer l'heure T'es tellement bien qu't'as presque envie d'embrasser le contrôleur Mais la magie ne dure qu'un temps, et ton histoire bat d'l'aile Toi tu dis qu'tu n'y es pour rien et qu'c'est sa faute à elle Le ronronnement du train te saoule et chaque virage t'écure Faut qu'tu t'lèves, que tu marches, tu vas t'dégourdir le cur Et le train ralentit, c'est déjà la fin d'ton histoire En plus t'es comme un con, tes potes sont restés à l'autre gare Tu dis au revoir à celle que t'appelleras désormais ton ex Dans son agenda, sur ton nom, elle va passer un coup d'Tipp-ex C'est vrai qu'les histoires d'amour, c'est comme les voyages en train Et quand j'vois tous ces voyageurs, parfois, j'aimerais en être un Pourquoi tu crois qu'tant d'gens attendent sur le quai d'la gare ? Pourquoi tu crois qu'on flippe autant d'arriver en retard ? Pour beaucoup, la vie s'résume à essayer d'monter dans l'train À connaître ce qu'est l'amour et s'découvrir plein d'entrain Pour beaucoup, l'objectif est d'arriver à la bonne heure Pour réussir son voyage et avoir accès au bonheur Il est facile de prendre un train, encore faut-il prendre le bon Moi j'suis monté dans deux-trois rames, mais c'était pas l'bon wagon Car les trains sont capricieux et certains sont inaccessibles Et je n'crois pas tout l'temps qu'avec la SNCF c'est possible Il y a ceux pour qui les trains sont toujours en grève Et leurs histoires d'amour n'existent que dans leurs rêves Et y'a ceux qui foncent dans l'premier train sans faire attention Et forcément ils descendront déçus à la prochaine station Y'a celles qui flippent de s'engager parce qu'elles sont trop émotives Pour elles, c'est trop risqué d's'accrocher à la locomotive Et y'a les aventuriers qu'enchaînent voyage sur voyage Dès qu'une histoire est terminée, ils attaquent une autre page Moi après mon seul vrai voyage, j'ai souffert pendant des mois On s'est quittés d'un commun accord, mais elle était plus d'accord que moi Depuis j'traîne sur le quai, j'regarde les trains au départ Y'a des portes qui s'ouvrent, mais dans une gare j'me sens à part Il paraît qu'les voyages en train finissent mal en général Si pour toi c'est l'cas, accroche-toi et garde le moral Car une chose est certaine y'aura toujours un terminus Maintenant tu es prévenu, la prochaine fois tu prendras l'bus1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>On peut pas vraiment dire qu'on choisit son lieu de naissance Ce que vont découvrir petit à petit les cinq sens Moi, un jour mes parents ont posé leurs valises, alors voilà Ce sont ces trottoirs qu'ont vu mes premiers pas Je viens de là où les mecs traînent en bande pour tromper l'ennui Je viens de là où, en bas, ça joue au foot au milieu de la nuit Je viens de là où on fait attention à la marque de ses textiles Et même si on les achète au marché, on plaisante pas avec le style Je viens de là où le langage est en permanente évolution Verlan, rebeu, argot, gros processus de création Chez nous, les chercheurs, les linguistes viennent prendre des rendez-vous On n'a pas tout le temps le même dictionnaire mais on a plus de mots que vous Je viens de là où les jeunes ont tous une maîtrise de vannes Un D.E.A. de chambrettes, une répartie jamais en panne Intelligence de la rue, de la démerde ou du quotidien Appelle ça comme tu veux mais pour nous carotter, tiens-toi bien On jure sur la tête de sa mère à l'âge de neuf ans On a l'insulte facile mais un vocabulaire innovant Je viens de là où, dans les premières soirées, ça danse déjà le break Je viens de là où nos premiers rendez-vous se passent autour d'un grec Je viens de là où on aime le rap, cette musique qui transpire Qui sent le vrai, qui transmet, qui témoigne, qui respire Je viens de là où y a du gros son et pas mal de rimes amères Je viens de là où ça choque personne qu'un groupe s'appelle Nique Ta Mère You might also like x2 Je viens de là et je kiffe ça, malgré tout ce qu'on en pense A chacun son territoire, à chacun sa France Si j'rends hommage à ces lieux, à chaque expiration C'est que c'est ici que j'ai puisé toute mon inspiration Je viens de là où, dès douze ans, la tentation t'fait des appels Du business illicite et des magouilles à la pelle Je viens de là où il est trop facile de prendre la mauvaise route Et pour choisir son chemin, faut écarter pas mal de doutes Je viens de là où la violence est une voisine bien familière Un mec qui saigne dans la cour d'école, c'est une image hebdomadaire Je viens de là où trop souvent un paquet de sales gamins Trouvent leur argent de poche en arrachant des sacs à main Je viens de là où on devient sportif, artiste, chanteur Mais aussi avocat, fonctionnaire ou cadre supérieur Surtout te trompe pas, j'ai encore plein de métiers sur ma liste Évite les idées toutes faites et les clichés de journalistes Je viens de là où on échange, je viens de là où on s'mélange Moi, c'est l'absence de bruits et d'odeurs qui me dérange Je viens de là où l'arc-en-ciel n'a pas six couleurs mais dix-huit Je viens de là où la France est un pays cosmopolite Je viens de là où, plus qu'ailleurs, il existe une vraie énergie J'ressens vraiment c'truc-là, c'est pas d'la démagogie On n'a pas le monopole du mérite ni le monopole de l'envie Mais de là où je viens c'est certain, c'est une bonne école de la vie Je viens de là où on est un peu méfiant et trop souvent parano On croit souvent qu'on nous aime pas mais c'est p't-être pas complètement faux Il faut voir à la télé comment on parle de là où je viens Si jamais j'connaissais pas, j'y emmènerais même pas mon chien x2 Je viens de là où comme partout, quand on dort, on fait des rêves Je viens de là où des gens naissent, des gens s'aiment, des gens crèvent Tu vois bien, de là où je viens, c'est comme tout endroit sur Terre C'est juste une p'tite région qu'a un sacré caractère Je viens de là où on est fier de raconter d'où l'on vient J'sais pas pourquoi mais c'est comme ça, on est tous un peu chauvin J'aurais pu vivre autre chose ailleurs, c'est tant pis ou c'est tant mieux C'est ici que j'ai grandi et que je me suis construit Je viens de la banlieue1</t>
+          <t>On peut pas vraiment dire qu'on choisit son lieu de naissance Ce que vont découvrir petit à petit les cinq sens Moi, un jour mes parents ont posé leurs valises, alors voilà Ce sont ces trottoirs qu'ont vu mes premiers pas Je viens de là où les mecs traînent en bande pour tromper l'ennui Je viens de là où, en bas, ça joue au foot au milieu de la nuit Je viens de là où on fait attention à la marque de ses textiles Et même si on les achète au marché, on plaisante pas avec le style Je viens de là où le langage est en permanente évolution Verlan, rebeu, argot, gros processus de création Chez nous, les chercheurs, les linguistes viennent prendre des rendez-vous On n'a pas tout le temps le même dictionnaire mais on a plus de mots que vous Je viens de là où les jeunes ont tous une maîtrise de vannes Un D.E.A. de chambrettes, une répartie jamais en panne Intelligence de la rue, de la démerde ou du quotidien Appelle ça comme tu veux mais pour nous carotter, tiens-toi bien On jure sur la tête de sa mère à l'âge de neuf ans On a l'insulte facile mais un vocabulaire innovant Je viens de là où, dans les premières soirées, ça danse déjà le break Je viens de là où nos premiers rendez-vous se passent autour d'un grec Je viens de là où on aime le rap, cette musique qui transpire Qui sent le vrai, qui transmet, qui témoigne, qui respire Je viens de là où y a du gros son et pas mal de rimes amères Je viens de là où ça choque personne qu'un groupe s'appelle Nique Ta Mère x2 Je viens de là et je kiffe ça, malgré tout ce qu'on en pense A chacun son territoire, à chacun sa France Si j'rends hommage à ces lieux, à chaque expiration C'est que c'est ici que j'ai puisé toute mon inspiration Je viens de là où, dès douze ans, la tentation t'fait des appels Du business illicite et des magouilles à la pelle Je viens de là où il est trop facile de prendre la mauvaise route Et pour choisir son chemin, faut écarter pas mal de doutes Je viens de là où la violence est une voisine bien familière Un mec qui saigne dans la cour d'école, c'est une image hebdomadaire Je viens de là où trop souvent un paquet de sales gamins Trouvent leur argent de poche en arrachant des sacs à main Je viens de là où on devient sportif, artiste, chanteur Mais aussi avocat, fonctionnaire ou cadre supérieur Surtout te trompe pas, j'ai encore plein de métiers sur ma liste Évite les idées toutes faites et les clichés de journalistes Je viens de là où on échange, je viens de là où on s'mélange Moi, c'est l'absence de bruits et d'odeurs qui me dérange Je viens de là où l'arc-en-ciel n'a pas six couleurs mais dix-huit Je viens de là où la France est un pays cosmopolite Je viens de là où, plus qu'ailleurs, il existe une vraie énergie J'ressens vraiment c'truc-là, c'est pas d'la démagogie On n'a pas le monopole du mérite ni le monopole de l'envie Mais de là où je viens c'est certain, c'est une bonne école de la vie Je viens de là où on est un peu méfiant et trop souvent parano On croit souvent qu'on nous aime pas mais c'est p't-être pas complètement faux Il faut voir à la télé comment on parle de là où je viens Si jamais j'connaissais pas, j'y emmènerais même pas mon chien x2 Je viens de là où comme partout, quand on dort, on fait des rêves Je viens de là où des gens naissent, des gens s'aiment, des gens crèvent Tu vois bien, de là où je viens, c'est comme tout endroit sur Terre C'est juste une p'tite région qu'a un sacré caractère Je viens de là où on est fier de raconter d'où l'on vient J'sais pas pourquoi mais c'est comme ça, on est tous un peu chauvin J'aurais pu vivre autre chose ailleurs, c'est tant pis ou c'est tant mieux C'est ici que j'ai grandi et que je me suis construit Je viens de la banlieue1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Je suis né tôt ce matin, juste avant que le soleil comprenne Quil va falloir quil se lève et quil prenne son petit crème Je suis né tôt ce matin, entouré de plein de gens bien Qui me regardent un peu chelou et qui mappellent Fabien Quand le soleil apparaît jessaie de réaliser ce quil se passe Je tente de comprendre le temps et janalyse mon espace Il est 7 heures du mat sur lhorloge de mon existence Je regarde la petite aiguille et jimagine son importance Pas de temps à perdre ce matin, je commence par lalphabet Ya plein de choses à apprendre si tu veux pas finir tebê Cest sûr, je serais pas un génie mais ça va ya pire Sur les coups de 7 heures et demie jai appris à lire et à écrire La journée commence bien, il fait beau et je suis content Je reçois plein daffection et je comprends que cest important Il est bientôt 9 heures et demie et jaborde ladolescence En pleine forme, plein denvie et juste ce quil faut dinsouciance Je commence à me la raconter, jai plein de potes et je me sens fort Je garde un peu de temps pour les meufs quand je suis pas en train de faire du sport Emploi du temps bien rempli, et je suis à la bourre pour mes rencards Putain la vie passe trop vite, il est déjà 11 heures moins le quart Celui qui veut me viser, je lui conseille de changer de cible Me toucher est impossible, à 11 heures je me sens invincible Il fait chaud, tout me sourit, il manquait plus que je sois amoureux Cest arrivé sans prévenir sur les coups d11 heures moins 2 Mais tout à coup, alors que dans le ciel, yavait pas un seul nuage A éclaté au-dessus de moi un intolérable orage Il est 11 heures 08 quand ma journée prend un virage Pour le moins inattendu alors je tourne mais jai la rage Je me suis pris un éclair comme un coup délectricité Je me suis relevé mais jai laissé un peu de mobilité Mes tablettes de chocolat sont devenues de la marmelade Je me suis fait à tout ça, appelez moi Grand Corps Malade Cette fin de matinée est tout sauf une récréation A 11 heures 20 je dois faire preuve dune bonne dose dadaptation Je passe beaucoup moins de temps à me balader rue de la Rép Et japprends à remplir les papiers de la Cotorep Jai pas que des séquelles physiques, je vais pas faire le tho-my Mais ya des cicatrices plus profondes quune trachéotomie Jai eu de la chance je suis pas passé très loin de léchec et mat Mais javoue que jai encore souvent la nostalgie de 10 heures du mat You might also like A midi moins le quart, jai pris mon stylo bleu foncé Jai compris que lui et ma béquille pouvaient me faire avancer Jai posé des mots sur tout ce que javais dans le bide Jai posé des mots et jai fait plus que combler le vide Jai été bien accueilli dans le cercle des poètes du bitume Et dans lobscurité, javance au clair de ma plume Jai assommé ma pudeur, jai assumé mes ardeurs Et jai slamé mes joies, mes peines, mes envies et mes erreurs Il est midi 19 à lheure où jécris ce con dtexte Je vous ai décrit ma matinée pour que vous sachiez le contexte Car si la journée finit à minuit, il me reste quand même pas mal de temps Jai encore tout laprès-midi pour faire des trucs importants Cest vrai que la vie est rarement un roman en 18 tomes Toutes les bonnes choses ont une fin, on ne repousse pas lultimatum Alors je vais profiter de tous les moments qui me séparent de la chute Je vais croquer dans chaque instant, je ne dois pas perdre une minute Il me reste tellement de choses à faire que jen ai presque le vertige Je voudrais être encore un enfant mais jai déjà 28 pijes Alors je vais faire ce quil faut pour que mes espoirs ne restent pas vains Dailleurs je vous laisse, là cest chaud, il est déjà midi 20</t>
+          <t>Je suis né tôt ce matin, juste avant que le soleil comprenne Quil va falloir quil se lève et quil prenne son petit crème Je suis né tôt ce matin, entouré de plein de gens bien Qui me regardent un peu chelou et qui mappellent Fabien Quand le soleil apparaît jessaie de réaliser ce quil se passe Je tente de comprendre le temps et janalyse mon espace Il est 7 heures du mat sur lhorloge de mon existence Je regarde la petite aiguille et jimagine son importance Pas de temps à perdre ce matin, je commence par lalphabet Ya plein de choses à apprendre si tu veux pas finir tebê Cest sûr, je serais pas un génie mais ça va ya pire Sur les coups de 7 heures et demie jai appris à lire et à écrire La journée commence bien, il fait beau et je suis content Je reçois plein daffection et je comprends que cest important Il est bientôt 9 heures et demie et jaborde ladolescence En pleine forme, plein denvie et juste ce quil faut dinsouciance Je commence à me la raconter, jai plein de potes et je me sens fort Je garde un peu de temps pour les meufs quand je suis pas en train de faire du sport Emploi du temps bien rempli, et je suis à la bourre pour mes rencards Putain la vie passe trop vite, il est déjà 11 heures moins le quart Celui qui veut me viser, je lui conseille de changer de cible Me toucher est impossible, à 11 heures je me sens invincible Il fait chaud, tout me sourit, il manquait plus que je sois amoureux Cest arrivé sans prévenir sur les coups d11 heures moins 2 Mais tout à coup, alors que dans le ciel, yavait pas un seul nuage A éclaté au-dessus de moi un intolérable orage Il est 11 heures 08 quand ma journée prend un virage Pour le moins inattendu alors je tourne mais jai la rage Je me suis pris un éclair comme un coup délectricité Je me suis relevé mais jai laissé un peu de mobilité Mes tablettes de chocolat sont devenues de la marmelade Je me suis fait à tout ça, appelez moi Grand Corps Malade Cette fin de matinée est tout sauf une récréation A 11 heures 20 je dois faire preuve dune bonne dose dadaptation Je passe beaucoup moins de temps à me balader rue de la Rép Et japprends à remplir les papiers de la Cotorep Jai pas que des séquelles physiques, je vais pas faire le tho-my Mais ya des cicatrices plus profondes quune trachéotomie Jai eu de la chance je suis pas passé très loin de léchec et mat Mais javoue que jai encore souvent la nostalgie de 10 heures du mat A midi moins le quart, jai pris mon stylo bleu foncé Jai compris que lui et ma béquille pouvaient me faire avancer Jai posé des mots sur tout ce que javais dans le bide Jai posé des mots et jai fait plus que combler le vide Jai été bien accueilli dans le cercle des poètes du bitume Et dans lobscurité, javance au clair de ma plume Jai assommé ma pudeur, jai assumé mes ardeurs Et jai slamé mes joies, mes peines, mes envies et mes erreurs Il est midi 19 à lheure où jécris ce con dtexte Je vous ai décrit ma matinée pour que vous sachiez le contexte Car si la journée finit à minuit, il me reste quand même pas mal de temps Jai encore tout laprès-midi pour faire des trucs importants Cest vrai que la vie est rarement un roman en 18 tomes Toutes les bonnes choses ont une fin, on ne repousse pas lultimatum Alors je vais profiter de tous les moments qui me séparent de la chute Je vais croquer dans chaque instant, je ne dois pas perdre une minute Il me reste tellement de choses à faire que jen ai presque le vertige Je voudrais être encore un enfant mais jai déjà 28 pijes Alors je vais faire ce quil faut pour que mes espoirs ne restent pas vains Dailleurs je vous laisse, là cest chaud, il est déjà midi 20</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parce qu'avec toi le temps a pris de nouvelles dimensions Que ma routine s'est égarée dans ces changements de direction Parce que les jours de la semaine se mélangent dans ce bazar Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Parce que ça arrive tellement souvent que je sois en pic de sentiments Et que ma pudeur accepte quand même de te le faire comprendre gentiment Parce qu'il paraît que l'homme s'habitue vite, s'habitue trop Et qu'moi je sais que mes deux mains ne se lasseront jamais de ta peau Quand je vois tout ce qu'on a construit, je me dis que 10 ans c'est tellement long Et puis je me dis que c'est tellement court à chaque fois que saffiche ton prénom Parce que le temps n'a pas d'emprise sur la couleur de tes yeux Parce que le vent éteint une petite flamme mais attise un grand feu Parce qu'on s'est tant rapprochés que nos souvenirs se ressemblent Parce que quand la vie n'est pas simple, c'est tellement mieux d'être ensemble Parce que je sais que le lundi, je vais te parler et te voir Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Je l'ai dans la tête comme une mélodie alors mes envies dansent Dans notre histoire rien n'est écrit mais tout sonne comme une évidence Parfois elle aime mes mots mais cette fois c'est elle que mes mots aiment Et sur ce coup la c'est elle qui a trouvé le plus beau thème Parce que je te chambre sur tes manies mais que je pourrai plus me passer d'elles Parce que je me moque de tes défauts mais qu'ils me sont devenus essentiels Parce quavant de te regarder partir, je te vois te maquiller dans le miroir Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Parce qu'on est libres quand on est forts et plus forts quand nos liens se soudent Qu'une mauvaise passe devient alors moins profonde que le creux du coude Parce que tous les nuages du monde n'empêchent pas les pleines lunes Et que chaque fois quelles brillent, cest nos débuts qui se rallument Parce que tu sais ce que j'aime, parce que je sais ce que tu veux Et que c'est quand même une première fois dès qu'on est seuls tous les deux Parce que 120 mois plus tard, je viens encore juste de te rencontrer Parce que tu es mon plan A et que tu seras aussi mon plan B Après 10 ans d'un beau voyage où je me rappelle de chaque seconde Après 10 ans qui ont vu naître les quatre plus beaux yeux du monde C'est toi qui as trouvé le plus beau thème de notre histoire Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir You might also like Je l'ai dans la tête comme une mélodie alors mes envies dansent Dans notre histoire rien n'est écrit mais tout sonne comme une évidence Parfois elle aime mes mots mais cette fois c'est elle que mes mots aiment Et sur ce coup la c'est elle qui a trouvé le plus beau thème Je n'ai plus peur du dimanche soir2</t>
+          <t>Parce qu'avec toi le temps a pris de nouvelles dimensions Que ma routine s'est égarée dans ces changements de direction Parce que les jours de la semaine se mélangent dans ce bazar Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Parce que ça arrive tellement souvent que je sois en pic de sentiments Et que ma pudeur accepte quand même de te le faire comprendre gentiment Parce qu'il paraît que l'homme s'habitue vite, s'habitue trop Et qu'moi je sais que mes deux mains ne se lasseront jamais de ta peau Quand je vois tout ce qu'on a construit, je me dis que 10 ans c'est tellement long Et puis je me dis que c'est tellement court à chaque fois que saffiche ton prénom Parce que le temps n'a pas d'emprise sur la couleur de tes yeux Parce que le vent éteint une petite flamme mais attise un grand feu Parce qu'on s'est tant rapprochés que nos souvenirs se ressemblent Parce que quand la vie n'est pas simple, c'est tellement mieux d'être ensemble Parce que je sais que le lundi, je vais te parler et te voir Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Je l'ai dans la tête comme une mélodie alors mes envies dansent Dans notre histoire rien n'est écrit mais tout sonne comme une évidence Parfois elle aime mes mots mais cette fois c'est elle que mes mots aiment Et sur ce coup la c'est elle qui a trouvé le plus beau thème Parce que je te chambre sur tes manies mais que je pourrai plus me passer d'elles Parce que je me moque de tes défauts mais qu'ils me sont devenus essentiels Parce quavant de te regarder partir, je te vois te maquiller dans le miroir Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Parce qu'on est libres quand on est forts et plus forts quand nos liens se soudent Qu'une mauvaise passe devient alors moins profonde que le creux du coude Parce que tous les nuages du monde n'empêchent pas les pleines lunes Et que chaque fois quelles brillent, cest nos débuts qui se rallument Parce que tu sais ce que j'aime, parce que je sais ce que tu veux Et que c'est quand même une première fois dès qu'on est seuls tous les deux Parce que 120 mois plus tard, je viens encore juste de te rencontrer Parce que tu es mon plan A et que tu seras aussi mon plan B Après 10 ans d'un beau voyage où je me rappelle de chaque seconde Après 10 ans qui ont vu naître les quatre plus beaux yeux du monde C'est toi qui as trouvé le plus beau thème de notre histoire Parce que c'est toi, parce que t'es là, je n'ai plus peur du dimanche soir Je l'ai dans la tête comme une mélodie alors mes envies dansent Dans notre histoire rien n'est écrit mais tout sonne comme une évidence Parfois elle aime mes mots mais cette fois c'est elle que mes mots aiment Et sur ce coup la c'est elle qui a trouvé le plus beau thème Je n'ai plus peur du dimanche soir2</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Veuillez accepter, mesdames, ces quelques mots comme un hommage À votre gente que j'admire, qui crée en chaque homme un orage Au cinéma ou dans la vie, vous êtes les plus beaux personnages Et sans l'vouloir, vous tenez nos curs et nos pensées en otages Veuillez accepter, mesdames, cette déclaration Comme une tentative honnête de réparation Face au profond machisme de nos coutumes, de nos cultures Dans le Grand Livre des humains, place au chapitre de la rupture Vous êtes infiniment plus subtiles, plus élégantes et plus classes Que la gente masculine qui parle fort, prend toute la place Et si j'apprécie des deux yeux quand tu balances ton corps J'applaudis aussi des deux mains quand tu balances ton porc Derrière chaque homme important se cache une femme qui l'inspire Derrière chaque grand être humain précède une mère qui respire La femme est l'avenir de l'homme écrivait l'poète Eh bien, l'avenir s'est installé et depuis belle lurette Vous êtes nos muses, nos influences, notre motivation et nos vices Vous êtes Simone Veil, Marie Curie, Rosa Parks, Angela Davis Vous êtes nos mères, vous êtes nos surs, vous êtes caissières, vous êtes docteurs Vous êtes nos filles et puis nos femmes, nous, on vacille pour votre flamme You might also like Comment ne pas être en admiration et sans commune mesure Pour celles qui portent et fabriquent pendant neuf mois notre futur Pour celles qui cumulent plusieurs emplois et ce, sans sourciller Celui qu'elles ont dans la journée et le plus grand mère au foyer Veuillez accepter, mesdames, cette réelle admiration De votre force, votre courage et votre détermination Veuillez accepter, mesdames, mon aimable faiblesse Face à votre fragilité, votre empathie, votre tendresse Veuillez accepter, mesdames, cette petite intro Car l'avenir appartient à celles qu'on aime trop Et pour ne pas être taxé de premier degré d'anthologie Veuillez accepter mesdames cette délicate démagogie You are the only one, you are the only You are the only one, the only You are the only one, you are the only one You are, yes, you are Vous êtes nos muses, nos influences, notre motivation et nos vices Vous êtes Simone Veil, Marie Curie, Rosa Parks, Angela Davis Vous êtes nos mères, vous êtes nos surs, vous êtes caissières, vous êtes docteurs Vous êtes nos filles et puis nos femmes, nous, on vacille pour votre flamme Ah, ah-ah-ah, ah-ah</t>
+          <t>Veuillez accepter, mesdames, ces quelques mots comme un hommage À votre gente que j'admire, qui crée en chaque homme un orage Au cinéma ou dans la vie, vous êtes les plus beaux personnages Et sans l'vouloir, vous tenez nos curs et nos pensées en otages Veuillez accepter, mesdames, cette déclaration Comme une tentative honnête de réparation Face au profond machisme de nos coutumes, de nos cultures Dans le Grand Livre des humains, place au chapitre de la rupture Vous êtes infiniment plus subtiles, plus élégantes et plus classes Que la gente masculine qui parle fort, prend toute la place Et si j'apprécie des deux yeux quand tu balances ton corps J'applaudis aussi des deux mains quand tu balances ton porc Derrière chaque homme important se cache une femme qui l'inspire Derrière chaque grand être humain précède une mère qui respire La femme est l'avenir de l'homme écrivait l'poète Eh bien, l'avenir s'est installé et depuis belle lurette Vous êtes nos muses, nos influences, notre motivation et nos vices Vous êtes Simone Veil, Marie Curie, Rosa Parks, Angela Davis Vous êtes nos mères, vous êtes nos surs, vous êtes caissières, vous êtes docteurs Vous êtes nos filles et puis nos femmes, nous, on vacille pour votre flamme Comment ne pas être en admiration et sans commune mesure Pour celles qui portent et fabriquent pendant neuf mois notre futur Pour celles qui cumulent plusieurs emplois et ce, sans sourciller Celui qu'elles ont dans la journée et le plus grand mère au foyer Veuillez accepter, mesdames, cette réelle admiration De votre force, votre courage et votre détermination Veuillez accepter, mesdames, mon aimable faiblesse Face à votre fragilité, votre empathie, votre tendresse Veuillez accepter, mesdames, cette petite intro Car l'avenir appartient à celles qu'on aime trop Et pour ne pas être taxé de premier degré d'anthologie Veuillez accepter mesdames cette délicate démagogie You are the only one, you are the only You are the only one, the only You are the only one, you are the only one You are, yes, you are Vous êtes nos muses, nos influences, notre motivation et nos vices Vous êtes Simone Veil, Marie Curie, Rosa Parks, Angela Davis Vous êtes nos mères, vous êtes nos surs, vous êtes caissières, vous êtes docteurs Vous êtes nos filles et puis nos femmes, nous, on vacille pour votre flamme Ah, ah-ah-ah, ah-ah</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>On s'est évité une rupture déchirante et violente Pas besoin de se haïr pour passer à la page suivante Les belles histoires font des souvenirs et on a les nôtres Mais, aujourd'hui, faut se le dire, on est défait l'un pour l'autre L'amour est parti, on ne fait pas semblant Tout n'est que nostalgie, je t'aime en noir et blanc Plus besoin d'entendre ta voix, je dis pas ça pour provoquer Mais, pourtant, au fond de moi, je veux juste te manquer Now the curtains is down I've got my knees on the ground I'm begging for your love Sadness is gone People are looking ahead Far away from my bed My tears no longer flow But I want you to know I just want you to miss me Just want you to miss me So you can feel my pain I just want you to miss me Just want you to miss me So I won't bleed again You might also like Quand les plaisirs se glacent et effacent les encore Quand tous nos face à face deviennent des torts à torts Faut savoir arrêter, je te souhaite même du bonheur Pas envie d'pleurer, j'ai juste un chagrin d'humeur On s'fait une double peine, l'amour était en sursis Et la sentence est ferme, j'ai pris un an avec soucis Il nous fallait un terme, l'avenir ensemble était bloqué Mais, au fond de moi, quand même, je veux juste te manquer We say goodbye for the last time I couldn't stand for more time Storm is blowing in the deepest me And is in my soul Keep on walking my way Far away from you My heart is breathing again But I want you to know I just want you to miss me Just want you to miss me So you can feel my pain I just want you to miss me Just want you to miss me So I won't bleed again C'est... c'est un drôle de sentiment, je suis pas sûr que ce soit bien Mais je veux être un peu plus qu'un souvenir dans ton futur quotidien En fait, j'aimerais te pincer le coeur à chaque fois que tu me revois à tes côtés Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer La seule chose I just want you to miss me Just want yo to miss me Juste te manquer, juste te manquer I just want you to miss me Just want you to miss me Juste te manquer Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me So I won't bleed again2</t>
+          <t>On s'est évité une rupture déchirante et violente Pas besoin de se haïr pour passer à la page suivante Les belles histoires font des souvenirs et on a les nôtres Mais, aujourd'hui, faut se le dire, on est défait l'un pour l'autre L'amour est parti, on ne fait pas semblant Tout n'est que nostalgie, je t'aime en noir et blanc Plus besoin d'entendre ta voix, je dis pas ça pour provoquer Mais, pourtant, au fond de moi, je veux juste te manquer Now the curtains is down I've got my knees on the ground I'm begging for your love Sadness is gone People are looking ahead Far away from my bed My tears no longer flow But I want you to know I just want you to miss me Just want you to miss me So you can feel my pain I just want you to miss me Just want you to miss me So I won't bleed again Quand les plaisirs se glacent et effacent les encore Quand tous nos face à face deviennent des torts à torts Faut savoir arrêter, je te souhaite même du bonheur Pas envie d'pleurer, j'ai juste un chagrin d'humeur On s'fait une double peine, l'amour était en sursis Et la sentence est ferme, j'ai pris un an avec soucis Il nous fallait un terme, l'avenir ensemble était bloqué Mais, au fond de moi, quand même, je veux juste te manquer We say goodbye for the last time I couldn't stand for more time Storm is blowing in the deepest me And is in my soul Keep on walking my way Far away from you My heart is breathing again But I want you to know I just want you to miss me Just want you to miss me So you can feel my pain I just want you to miss me Just want you to miss me So I won't bleed again C'est... c'est un drôle de sentiment, je suis pas sûr que ce soit bien Mais je veux être un peu plus qu'un souvenir dans ton futur quotidien En fait, j'aimerais te pincer le coeur à chaque fois que tu me revois à tes côtés Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer La seule chose I just want you to miss me Just want yo to miss me Juste te manquer, juste te manquer I just want you to miss me Just want you to miss me Juste te manquer Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me Je veux juste te manquer I just want you to miss me Just want you to miss me So I won't bleed again2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A chaque époque on se cherche un peu et on s'demande si on s'connaît On est nous même on fait ce qu'on peut on changera pas c'est c'qu'on s'promet Entre bitume et tapis rouge j'ai slalomé de part en part J'cotoie la dèche et l'opulence japprends à faire le grand écart La vie propose tellement de thèmes parfois je fonce parfois je freine J'vois les deux côtés du système pourtant j'me sens pas schizophrène J'essaie de pas trop faire d'erreurs et dans mes choix je me sens libre Je prends c'truc du fond du cur tout est une question d'équilibre C'est pour ce besoin d'équilibre que j'ai dû prendre un peu de risques Après un mauvais coup du sort ma vie partait pour être triste Écarté des terrain de sport comme un sursaut j'ai compensé J'avais besoin d'un autre support dans l'écriture j'me suis lancé C'est pour ce besoin d'équilibre qu'il me fallait de l'aventure Toute mon histoire se refermait fallait trouver une ouverture J'ai touché laccélérateur pour retrouver des sensations Car comme je marche à deux à l'heure il m'fallait une compensation Je suis un funambule, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude Alors j'ai croisé le show-biz, j'ai vu le royaume des égos Qui pourra faire le plus d'entrées ? Qui provoquera le plus d'écho ? J'ne cracherai pas dans la soupe, là où je suis je me sens bien Mais pour garder mon équilibre je n'oublierai pas d'où je viens C'est pour ce besoin d'équilibre que je garde un peu de hors-piste Car j'aime aussi la vie d'humain quand sinterrompt la vie d'artiste Entre la lumière de la lune et celle des spots, maintenant je sais Que j'ai ma place à l'Olympia, mais aussi dans les M.J.C Je prends du recul, je prends des gants quand j'vois le strass et les paillettes Les gens qui se sentent importants, moi ils me stressent, ils sont pas nets J'ne cracherai pas dans la soupe, j'ai rencontré des gens très bien Mais j'me reconnaîtrai toujours plus dans ceux qui viennent là d'où je viens C'est pour ce besoin d'équilibre qu'on a joué dans des cathédrales Et après yeux dans les yeux avec un public carcéral C'est pour ce besoin d'équilibre que tous mes sentiments se touchent Quand je vois le public se lever, je pense à mon fils qui se couche You might also like Si j'aime la nuit c'est grâce au jour et j'aime le jour grâce à la nuit J'aime être tout seul grâce à la foule et grâce au silence j'aime le bruit Besoin d'tout ça pour que ça vibre j'me sentir fort et avoir peur Tout est une question d'équilibre je prend c'truc du fond du cur Si dans une vie ça part en vrille c'est qu'l'équilibre à vrillé Pour le garder c'est capital de pas dormir sur ses lauriers Alors je reste vigilant quitte à recréer du désordre Entre le glacé et le brûlant j'aime la douceur j'aime que ça morde L'équilibre est dans la nature j'invente rien ça va sans dire Il faut d'la pluie et du soleil pour que la fleur puisse s'épanouir Faut lexception dans la règle pour que la vie ai plus de goût Il faut d'la force et de l'adresse pour que l'enfant se mette debout J'met d'la lumière pour voir l'avenir mais parfois j'aime autant l'éteindre Dans la vie on se fout de l'objectif c'qui compte c'est la route pour l'atteindre Alors j'avance sur un fil parmi les chemins qui s'éparpillent En équilibre mal habile, je suis un funambule à béquilles 1</t>
+          <t>A chaque époque on se cherche un peu et on s'demande si on s'connaît On est nous même on fait ce qu'on peut on changera pas c'est c'qu'on s'promet Entre bitume et tapis rouge j'ai slalomé de part en part J'cotoie la dèche et l'opulence japprends à faire le grand écart La vie propose tellement de thèmes parfois je fonce parfois je freine J'vois les deux côtés du système pourtant j'me sens pas schizophrène J'essaie de pas trop faire d'erreurs et dans mes choix je me sens libre Je prends c'truc du fond du cur tout est une question d'équilibre C'est pour ce besoin d'équilibre que j'ai dû prendre un peu de risques Après un mauvais coup du sort ma vie partait pour être triste Écarté des terrain de sport comme un sursaut j'ai compensé J'avais besoin d'un autre support dans l'écriture j'me suis lancé C'est pour ce besoin d'équilibre qu'il me fallait de l'aventure Toute mon histoire se refermait fallait trouver une ouverture J'ai touché laccélérateur pour retrouver des sensations Car comme je marche à deux à l'heure il m'fallait une compensation Je suis un funambule, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude Alors j'ai croisé le show-biz, j'ai vu le royaume des égos Qui pourra faire le plus d'entrées ? Qui provoquera le plus d'écho ? J'ne cracherai pas dans la soupe, là où je suis je me sens bien Mais pour garder mon équilibre je n'oublierai pas d'où je viens C'est pour ce besoin d'équilibre que je garde un peu de hors-piste Car j'aime aussi la vie d'humain quand sinterrompt la vie d'artiste Entre la lumière de la lune et celle des spots, maintenant je sais Que j'ai ma place à l'Olympia, mais aussi dans les M.J.C Je prends du recul, je prends des gants quand j'vois le strass et les paillettes Les gens qui se sentent importants, moi ils me stressent, ils sont pas nets J'ne cracherai pas dans la soupe, j'ai rencontré des gens très bien Mais j'me reconnaîtrai toujours plus dans ceux qui viennent là d'où je viens C'est pour ce besoin d'équilibre qu'on a joué dans des cathédrales Et après yeux dans les yeux avec un public carcéral C'est pour ce besoin d'équilibre que tous mes sentiments se touchent Quand je vois le public se lever, je pense à mon fils qui se couche Si j'aime la nuit c'est grâce au jour et j'aime le jour grâce à la nuit J'aime être tout seul grâce à la foule et grâce au silence j'aime le bruit Besoin d'tout ça pour que ça vibre j'me sentir fort et avoir peur Tout est une question d'équilibre je prend c'truc du fond du cur Si dans une vie ça part en vrille c'est qu'l'équilibre à vrillé Pour le garder c'est capital de pas dormir sur ses lauriers Alors je reste vigilant quitte à recréer du désordre Entre le glacé et le brûlant j'aime la douceur j'aime que ça morde L'équilibre est dans la nature j'invente rien ça va sans dire Il faut d'la pluie et du soleil pour que la fleur puisse s'épanouir Faut lexception dans la règle pour que la vie ai plus de goût Il faut d'la force et de l'adresse pour que l'enfant se mette debout J'met d'la lumière pour voir l'avenir mais parfois j'aime autant l'éteindre Dans la vie on se fout de l'objectif c'qui compte c'est la route pour l'atteindre Alors j'avance sur un fil parmi les chemins qui s'éparpillent En équilibre mal habile, je suis un funambule à béquilles 1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage Y a pas d'recette pour supporter les épreuves Remonter l'cours des fleuves, quand les tragédies pleuvent Y a pas d'recette pour encaisser les drames Franchir les mers à la rame quand l'horreur te fait du charme Y a pas d'recette quand t'en avais pas non plus Personne t'avait prévenu, tu t'es battu comme t'as pu Y a pas d'recette quand l'enfer te serre la main Abandonner, c'est humain l'avenir, c'est loin Mais tu t'es mise à chanter, même pas par choix Comme à chaque chute, à chaque fois, ça s'est imposé à toi Chanter comme un enfant surpris, comme un instinct d'survie, comme un instant d'furie Chanter pour accepter, exprimer, résister, avancer, progresser, exister Chanter comme une résilience, une délivrance Chanter comme une évidence Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage You might also like À quel moment tu comprends qu'c'est ton truc ? Que la musique revient pour t'relever de chaque chute À quel moment tu sais qu'elle est ta boussole ? Quand la vie te punit, la musique te console À quel moment ce piano a chanté ? Ses accords t'ont hanté, ont choyé ta santé À quel moment il est ta respiration ? Et à quel moment on en fait une chanson ? Si je me sens comme une enfant, j'ai déjà eu plusieurs vies Je peux regarder devant, en chantant ce qu'on m'a pris Moi aussi, j'ai connu une sorte de brouillard et j'ai entendu c'piano au loin Et moi aussi, sans vraiment l'prévoir, naturellement, ma voix la rejoint On n'a pas du tout les mêmes histoires mais finalement, quelques points communs Comme un air de force oratoire, j'écris, tu chantes, le brouillard est bien loin Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage1</t>
+          <t>Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage Y a pas d'recette pour supporter les épreuves Remonter l'cours des fleuves, quand les tragédies pleuvent Y a pas d'recette pour encaisser les drames Franchir les mers à la rame quand l'horreur te fait du charme Y a pas d'recette quand t'en avais pas non plus Personne t'avait prévenu, tu t'es battu comme t'as pu Y a pas d'recette quand l'enfer te serre la main Abandonner, c'est humain l'avenir, c'est loin Mais tu t'es mise à chanter, même pas par choix Comme à chaque chute, à chaque fois, ça s'est imposé à toi Chanter comme un enfant surpris, comme un instinct d'survie, comme un instant d'furie Chanter pour accepter, exprimer, résister, avancer, progresser, exister Chanter comme une résilience, une délivrance Chanter comme une évidence Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage À quel moment tu comprends qu'c'est ton truc ? Que la musique revient pour t'relever de chaque chute À quel moment tu sais qu'elle est ta boussole ? Quand la vie te punit, la musique te console À quel moment ce piano a chanté ? Ses accords t'ont hanté, ont choyé ta santé À quel moment il est ta respiration ? Et à quel moment on en fait une chanson ? Si je me sens comme une enfant, j'ai déjà eu plusieurs vies Je peux regarder devant, en chantant ce qu'on m'a pris Moi aussi, j'ai connu une sorte de brouillard et j'ai entendu c'piano au loin Et moi aussi, sans vraiment l'prévoir, naturellement, ma voix la rejoint On n'a pas du tout les mêmes histoires mais finalement, quelques points communs Comme un air de force oratoire, j'écris, tu chantes, le brouillard est bien loin Et dans le noir, derrière le brouillard, j'entends ce piano chanter Chanter l'espoir, l'envie de croire qu'on peut tout réinventer Alors, je joins ma voix encore une fois pour tenir dans l'orage Je joins ma voix encore une fois pour trouver le courage1</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>En fait, ça fait un moment que se croisent dans ma tête Des mots et des douceurs qui pourraient faire un texte Un truc un peu différent, je crois que ça parlerait d'elle Faut avouer que dans mon quotidien, elle a mis un beau bordel Mais j'ai un gros souci, j'ai peur que mes potes se marrent Qu'ils me disent que je m'affiche, qu'ils me traitent de canard C'est cette pudeur misogyne, croire que la fierté part en fumée Quand t'ouvres un peu ton coeur, mais moi cette fois je veux assumer J'ai un autre problème, il est peut-être encore plus lourd C'est que t'as pas droit à l'erreur quand t'écris un texte d'amour Moi, les trois prochains couplets, je voudraient que ça soit des bombes Si j'écris un texte sur elle, je voudrais que ça soit le plus beau du monde Elle mérite pas un texte moyen, j'ai la pression, ça craint Fini de faire l'intéressant, avec mes voyages en train Là c'est loin d'être évident, moi je sais pas comment on fait Pour décrire ses sentiments, quand on vit avec une fée Il faut avouer qu'elle a des yeux, ils sont même pas homologués Des fois ils sont verts, des fois jaunes, je crois même que la nuit ils sont violets Quand je m'enfonce dans son regard, je perds le la je n'touche plus le sol Je me perds profondément, et j'oublie exprès ma boussole You might also likeDepuis que je la connais, je ressens des trucs hallucinants Je me dis souvent que j'ai eu de la chance de lui avoir plu, sinon J'aurais jamais su qu'un rire pouvait arrêter la Terre de tourner J'aurais jamais su qu'un regard pouvait habiller mes journées Je comprends pas tout ce qui se passe, y a pleins de trucs incohérents Depuis qu'elle est là rien n'a changé, mais tout est différent Elle m'apporte trop de désordre, et tellement de stabilité Ce que je préfère c'est sa force, mais le mieux c'est sa fragilité Ce n'est pas un texte de plus, ce n'est pas juste un poème Parfois elle aime mes mots, mais cette fois c'est elle que mes mots aiment Je l'ai dans la tête comme une mélodie, alors mes envies dansent Dans notre histoire rien n'est écrit, mais tout sonne comme une évidence J'ai redécouvert comme ça réchauffe d'avoir des sentiments Mais si tu me dis que c'est beaucoup mieux de vivre sans, tu mens Alors je les mets en mots et tant pis si mes potes me chambrent Moi je m'en fous, chez moi y a une sirène qui dort dans ma chambre J'avais une vie de chat sauvage, elle l'a réduite en cendres J'ai découvert un bonheur tout simple, c'est juste qu'on aime être ensemble On ne calcule pas les démons du passé, on n'a pas peur d'eux Moi si un jour j'suis un couple, je voudrais être nous deux Y a des sourires et des soupires, y a des fou rires à en mourir On peut s'ouvrir et sans rougir, déjà se nourrir de nos souvenirs Les pièges de l'avenir nous attendent, mais on n'a pas peur d'eux Moi si un jour j'suis un couple, je voudrais être nous deux Et si c'est vrai que les mots sont la voix de l'émotion Les miens prennent la parole pour nous montrer sa direction J'ai quitté le quai pour un train spécial, un TGV palace On roule à 1000kmh, au dessus de la mer, en première classe Et si c'est vrai que les mots sont la voix de l'émotion Les miens prennent la parole pour nous montrer sa direction J'ai quitté le quai pour un train spécial, un TGV palace On roule à 1000kmh, au dessus de la mer, en première classe</t>
+          <t>En fait, ça fait un moment que se croisent dans ma tête Des mots et des douceurs qui pourraient faire un texte Un truc un peu différent, je crois que ça parlerait d'elle Faut avouer que dans mon quotidien, elle a mis un beau bordel Mais j'ai un gros souci, j'ai peur que mes potes se marrent Qu'ils me disent que je m'affiche, qu'ils me traitent de canard C'est cette pudeur misogyne, croire que la fierté part en fumée Quand t'ouvres un peu ton coeur, mais moi cette fois je veux assumer J'ai un autre problème, il est peut-être encore plus lourd C'est que t'as pas droit à l'erreur quand t'écris un texte d'amour Moi, les trois prochains couplets, je voudraient que ça soit des bombes Si j'écris un texte sur elle, je voudrais que ça soit le plus beau du monde Elle mérite pas un texte moyen, j'ai la pression, ça craint Fini de faire l'intéressant, avec mes voyages en train Là c'est loin d'être évident, moi je sais pas comment on fait Pour décrire ses sentiments, quand on vit avec une fée Il faut avouer qu'elle a des yeux, ils sont même pas homologués Des fois ils sont verts, des fois jaunes, je crois même que la nuit ils sont violets Quand je m'enfonce dans son regard, je perds le la je n'touche plus le sol Je me perds profondément, et j'oublie exprès ma boussole Depuis que je la connais, je ressens des trucs hallucinants Je me dis souvent que j'ai eu de la chance de lui avoir plu, sinon J'aurais jamais su qu'un rire pouvait arrêter la Terre de tourner J'aurais jamais su qu'un regard pouvait habiller mes journées Je comprends pas tout ce qui se passe, y a pleins de trucs incohérents Depuis qu'elle est là rien n'a changé, mais tout est différent Elle m'apporte trop de désordre, et tellement de stabilité Ce que je préfère c'est sa force, mais le mieux c'est sa fragilité Ce n'est pas un texte de plus, ce n'est pas juste un poème Parfois elle aime mes mots, mais cette fois c'est elle que mes mots aiment Je l'ai dans la tête comme une mélodie, alors mes envies dansent Dans notre histoire rien n'est écrit, mais tout sonne comme une évidence J'ai redécouvert comme ça réchauffe d'avoir des sentiments Mais si tu me dis que c'est beaucoup mieux de vivre sans, tu mens Alors je les mets en mots et tant pis si mes potes me chambrent Moi je m'en fous, chez moi y a une sirène qui dort dans ma chambre J'avais une vie de chat sauvage, elle l'a réduite en cendres J'ai découvert un bonheur tout simple, c'est juste qu'on aime être ensemble On ne calcule pas les démons du passé, on n'a pas peur d'eux Moi si un jour j'suis un couple, je voudrais être nous deux Y a des sourires et des soupires, y a des fou rires à en mourir On peut s'ouvrir et sans rougir, déjà se nourrir de nos souvenirs Les pièges de l'avenir nous attendent, mais on n'a pas peur d'eux Moi si un jour j'suis un couple, je voudrais être nous deux Et si c'est vrai que les mots sont la voix de l'émotion Les miens prennent la parole pour nous montrer sa direction J'ai quitté le quai pour un train spécial, un TGV palace On roule à 1000kmh, au dessus de la mer, en première classe Et si c'est vrai que les mots sont la voix de l'émotion Les miens prennent la parole pour nous montrer sa direction J'ai quitté le quai pour un train spécial, un TGV palace On roule à 1000kmh, au dessus de la mer, en première classe</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'voudrais faire un slam pour une grande dame que j'connais depuis tout petit J'voudrais faire un slam pour celle qui voit ma vieille canne du lundi au samedi J'voudrais faire un slam pour une vieille femme dans laquelle j'ai grandi J'voudrais faire un slam pour cette banlieue nord de Paname qu'on appelle Saint-Denis Prends la ligne D du RER Et erre dans les rues sévères D'une ville pleine de caractère Prends la ligne 13 du métro Et va bouffer au McDo ou dans les bistrots D'une ville pleine de bonnes gos Et de gros clandos Si t'aimes voyager, prends le tramway et va au marché En une heure tu traverseras Alger et Tanger Tu verras des Yougos et des Roms Et puis j'temmènerai à Lisbonne Et à deux pas de New Delhi et de Karachi T'as vu, j'ai révisé ma géographie J't'emmènerai bouffer du Mafé à Bamako et à Yamoussoukro Et si tu préfères, on ira juste derrière Manger une crêpe là où ça sent Quimper Et où ça a un petit air du Finistère Et puis en repassant par Tizi-Ouzou, On finira aux Antilles Là où il y a des grosses re-noi qui font Pchit, toi aussi kaou ka fé la ma fille! You might also likeAu marché de Saint Denis, il faudra rester zik-phy Mais si t'aimes pas être bousculer, il faudra rester zen Alors tu prendras des accents plein les tympans et des odeurs plein le zen Après le marché on ira che-mar rue de la République Le sanctuaire des affaires et des magasins pas chers La rue préférée des petites rebeues bien sapées Aux petits talons et aux cheveux blonds péroxydés Devant les magasins de zouk, je t'apprendrai la danse Les après-midis de galère, tu connaîtras l'errance Si on va à la poste, je t'enseignerai la patience La rue de la République mène à la basilique Où sont enterrés tous les rois de France, tu dois le savoir Après géographie, petite leçon d'histoire Derrière ce bâtiment monumental, j't'emmène au bout de la ruelle Dans un p'tit lieu plus convivial, bienvenue au café culturel On y va pour discuter, pour boire ou jouer aux dames Certains vendredis soirs, y a même des soirées Slam Si tu veux manger pour trois fois rien Je connais bien tous les petits coins un peu poisseux On y retrouvera tous les vauriens, toute la jet-set des aristos crasseux Le soir, y a pas grand chose à faire Y a pas grand chose d'ouvert À part le cinéma du stade où les mecs viennent en bande Bienvenue à caille-ra land! Ceux qui sont là rêvent de dire un jour je pèse! Et connaissent mieux Kool Shen sous le nom de Bruno Lopez C'est pas une ville toute rose mais c'est une ville vivante Il s'y passe toujours quelque chose, pour moi, elle est kiffante J'connais bien ses rouages, j'connais bien ses virages Y a tout le temps du passage, y a plein d'enfants pas sages J'veux écrire une belle page, ville aux mille visages Saint Denis centre, mon village J'ai 93200 raisons de te faire connaître cette agglomération T'as 93200 façons de découvrir ses attractions À cette putain de cité, je suis plus qu'attaché Même si j'ai envie de mettre des taquets Aux arracheurs de portable d'la place du Caquet Saint Denis, ville sans égale Saint Denis, ma capitale Saint Denis ville peu banale Où à Carrefour, tu peux même acheter de la choucroute Hallal Là-bas, on est fier d'être Dieunisiens, j'espère qu't'es convaincu Et si tu me traites de Parisien, j't'enfonce ma béquille dans l'c... non! J'voudrais faire un slam pour une grande dame que j'connais depuis tout petit J'voudrais faire un slam pour celle qui voit ma vieille canne du lundi au samedi J'voudrais faire un slam pour une vieille femme dans laquelle j'ai grandi J'voudrais faire un slam pour cette banlieue nord de Paname qu'on appelle Saint-Denis</t>
+          <t>J'voudrais faire un slam pour une grande dame que j'connais depuis tout petit J'voudrais faire un slam pour celle qui voit ma vieille canne du lundi au samedi J'voudrais faire un slam pour une vieille femme dans laquelle j'ai grandi J'voudrais faire un slam pour cette banlieue nord de Paname qu'on appelle Saint-Denis Prends la ligne D du RER Et erre dans les rues sévères D'une ville pleine de caractère Prends la ligne 13 du métro Et va bouffer au McDo ou dans les bistrots D'une ville pleine de bonnes gos Et de gros clandos Si t'aimes voyager, prends le tramway et va au marché En une heure tu traverseras Alger et Tanger Tu verras des Yougos et des Roms Et puis j'temmènerai à Lisbonne Et à deux pas de New Delhi et de Karachi T'as vu, j'ai révisé ma géographie J't'emmènerai bouffer du Mafé à Bamako et à Yamoussoukro Et si tu préfères, on ira juste derrière Manger une crêpe là où ça sent Quimper Et où ça a un petit air du Finistère Et puis en repassant par Tizi-Ouzou, On finira aux Antilles Là où il y a des grosses re-noi qui font Pchit, toi aussi kaou ka fé la ma fille! Au marché de Saint Denis, il faudra rester zik-phy Mais si t'aimes pas être bousculer, il faudra rester zen Alors tu prendras des accents plein les tympans et des odeurs plein le zen Après le marché on ira che-mar rue de la République Le sanctuaire des affaires et des magasins pas chers La rue préférée des petites rebeues bien sapées Aux petits talons et aux cheveux blonds péroxydés Devant les magasins de zouk, je t'apprendrai la danse Les après-midis de galère, tu connaîtras l'errance Si on va à la poste, je t'enseignerai la patience La rue de la République mène à la basilique Où sont enterrés tous les rois de France, tu dois le savoir Après géographie, petite leçon d'histoire Derrière ce bâtiment monumental, j't'emmène au bout de la ruelle Dans un p'tit lieu plus convivial, bienvenue au café culturel On y va pour discuter, pour boire ou jouer aux dames Certains vendredis soirs, y a même des soirées Slam Si tu veux manger pour trois fois rien Je connais bien tous les petits coins un peu poisseux On y retrouvera tous les vauriens, toute la jet-set des aristos crasseux Le soir, y a pas grand chose à faire Y a pas grand chose d'ouvert À part le cinéma du stade où les mecs viennent en bande Bienvenue à caille-ra land! Ceux qui sont là rêvent de dire un jour je pèse! Et connaissent mieux Kool Shen sous le nom de Bruno Lopez C'est pas une ville toute rose mais c'est une ville vivante Il s'y passe toujours quelque chose, pour moi, elle est kiffante J'connais bien ses rouages, j'connais bien ses virages Y a tout le temps du passage, y a plein d'enfants pas sages J'veux écrire une belle page, ville aux mille visages Saint Denis centre, mon village J'ai 93200 raisons de te faire connaître cette agglomération T'as 93200 façons de découvrir ses attractions À cette putain de cité, je suis plus qu'attaché Même si j'ai envie de mettre des taquets Aux arracheurs de portable d'la place du Caquet Saint Denis, ville sans égale Saint Denis, ma capitale Saint Denis ville peu banale Où à Carrefour, tu peux même acheter de la choucroute Hallal Là-bas, on est fier d'être Dieunisiens, j'espère qu't'es convaincu Et si tu me traites de Parisien, j't'enfonce ma béquille dans l'c... non! J'voudrais faire un slam pour une grande dame que j'connais depuis tout petit J'voudrais faire un slam pour celle qui voit ma vieille canne du lundi au samedi J'voudrais faire un slam pour une vieille femme dans laquelle j'ai grandi J'voudrais faire un slam pour cette banlieue nord de Paname qu'on appelle Saint-Denis</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Depuis la nuit des temps l'histoire des pères et des mères prospèrent Sans sommaire et sans faire d'impairs, j'énumère pèle-mêle, Pères Mères Il y a des pères détestables et des mères héroïques Il a des pères exemplaires et des merdiques Il y a les mères un peu père et les pères maman Il y a les pères intérimaires et les permanents Il y a les pères imaginaires et les pères fictions Et puis les pères qui coopèrent à la perfection Il y a les pères sévères et les mercenaires Les mères qui interdisent et les permissions Y'a des pères nuls et des mères extra, or dix mères ne valent pas un père Même si dix pères sans mère sont du-per c'est clair Y'a des pères et des beaux-pères comme des compères qui coopèrent Oubliant les commères et les langues de vipère Il y a les re-mères qui cherchent des repères Refusant les pépères amorphes Mais les pauvres se récupèrent les experts du divorce Il y a les pères outre-mère qui foutent les glandes à ma mère Les pères primaires, les perfides, les personnels qui ont le mal de mer Ceux qui laissent les mères vexent et les perplexes Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci You might also likeIl y une mère candide et un père aimable Il y une mère rigide et imperméable Il y a des pères absents et des mères usées Il y a des mères présentes et des perfusés Il y a des mères choyées et des mères aimées Il y a des pères fuyants et des périmés Il y a la mère intéressée et la mère ville L'argent du père en péril face à la mercantile Il y a les pensions alimentaires, les pères crédit Des pères du week-end et des mercredis Y'a des pères hyper-fort et des mères qui positivent Ou les coups de blues qui perforent les mères sans perspectives Mais si les persécutés, le père sait quitter Et si la mère pleure c'est l'enfant qui perd Mais si la mère tue l'amertume la magie s'éveille Et au final qu'elle soit jeune ou vieille la merveille Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci Il y a les mères qui désespèrent à cause des amourettes Perpétuellement à la recherche d'un homme à perpet' Il y a la mère célibataire persuadé de n'être personne Et qui attends que dans ses chimères que derrière la porte un père sonne Il y a les mères soumises et les pères pulsions Il y a les mères battues et les percussions Il y a les mères en galère à cause des pervers, des perturbés Alors il y a la mère qui s'casse si elle est perspicace En revanche, si le père et la mère s'acoquine et vont se faire mettre si je peux me permettre La tension est à dix milles ampères Car quand le père est en mère et que la mère obtempère C'est la hausse du mercure car le père percute et la mère permute Le père tend sa perche et la mère se rit de cette performance, de ce perforant impertinent Elles sont les péripéties du père dur face à l'éphémère Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci1</t>
+          <t>Depuis la nuit des temps l'histoire des pères et des mères prospèrent Sans sommaire et sans faire d'impairs, j'énumère pèle-mêle, Pères Mères Il y a des pères détestables et des mères héroïques Il a des pères exemplaires et des merdiques Il y a les mères un peu père et les pères maman Il y a les pères intérimaires et les permanents Il y a les pères imaginaires et les pères fictions Et puis les pères qui coopèrent à la perfection Il y a les pères sévères et les mercenaires Les mères qui interdisent et les permissions Y'a des pères nuls et des mères extra, or dix mères ne valent pas un père Même si dix pères sans mère sont du-per c'est clair Y'a des pères et des beaux-pères comme des compères qui coopèrent Oubliant les commères et les langues de vipère Il y a les re-mères qui cherchent des repères Refusant les pépères amorphes Mais les pauvres se récupèrent les experts du divorce Il y a les pères outre-mère qui foutent les glandes à ma mère Les pères primaires, les perfides, les personnels qui ont le mal de mer Ceux qui laissent les mères vexent et les perplexes Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci Il y une mère candide et un père aimable Il y une mère rigide et imperméable Il y a des pères absents et des mères usées Il y a des mères présentes et des perfusés Il y a des mères choyées et des mères aimées Il y a des pères fuyants et des périmés Il y a la mère intéressée et la mère ville L'argent du père en péril face à la mercantile Il y a les pensions alimentaires, les pères crédit Des pères du week-end et des mercredis Y'a des pères hyper-fort et des mères qui positivent Ou les coups de blues qui perforent les mères sans perspectives Mais si les persécutés, le père sait quitter Et si la mère pleure c'est l'enfant qui perd Mais si la mère tue l'amertume la magie s'éveille Et au final qu'elle soit jeune ou vieille la merveille Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci Il y a les mères qui désespèrent à cause des amourettes Perpétuellement à la recherche d'un homme à perpet' Il y a la mère célibataire persuadé de n'être personne Et qui attends que dans ses chimères que derrière la porte un père sonne Il y a les mères soumises et les pères pulsions Il y a les mères battues et les percussions Il y a les mères en galère à cause des pervers, des perturbés Alors il y a la mère qui s'casse si elle est perspicace En revanche, si le père et la mère s'acoquine et vont se faire mettre si je peux me permettre La tension est à dix milles ampères Car quand le père est en mère et que la mère obtempère C'est la hausse du mercure car le père percute et la mère permute Le père tend sa perche et la mère se rit de cette performance, de ce perforant impertinent Elles sont les péripéties du père dur face à l'éphémère Moi mon père et ma mère sont carrément Hors-pairs Et au milieu de ce récit Je prends quelques secondes je tempère Pour dire à mon père et à ma mère merci1</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On continue de s'émerveiller devant un dessin d'cosmonaute Ou un bonhomme pâte-à-modeler avec un bras plus grand que l'autre On continue de vouloir filmer tous ces moments insensés Qui ne reviennent plus jamais, dès lors qu'le film est lancé On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, intercalaires, trousse qui déborde de stylos Et puis il y'aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les grandes premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur Il y'aura la première fois moins de 5 fautes au code de la route Qui leur permettra de séloigner encore plus vite et puis sans doute Suivra leur premier appart avec une Pocahontas bien élancée Ils reviendront vider leur chambre, ça jose même pas y penser Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille You might also like Et avec mes p'tits enfants et la télé juste en face J'me vois bien faire une bonne sieste Pourvu qu'ce soit Pocahontas</t>
+          <t>On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On continue de s'émerveiller devant un dessin d'cosmonaute Ou un bonhomme pâte-à-modeler avec un bras plus grand que l'autre On continue de vouloir filmer tous ces moments insensés Qui ne reviennent plus jamais, dès lors qu'le film est lancé On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, intercalaires, trousse qui déborde de stylos Et puis il y'aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les grandes premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur Il y'aura la première fois moins de 5 fautes au code de la route Qui leur permettra de séloigner encore plus vite et puis sans doute Suivra leur premier appart avec une Pocahontas bien élancée Ils reviendront vider leur chambre, ça jose même pas y penser Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille Et avec mes p'tits enfants et la télé juste en face J'me vois bien faire une bonne sieste Pourvu qu'ce soit Pocahontas</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eh Tonton, est-ce que tas regardé dehors ? Sur lavenir de nos enfants il pleut de plus en plus fort Quand je pense à eux pourtant, jaimerais chanter un autre thème Mais je suis plus trop serein, je fais pas confiance au système Ce système fait des enfants mais il les laisse sur le chemin Et il oublie que sil existe, cest pour gérer des êtres humains On avance tous tête baissée sans se soucier du plan final Ce système entasse des gosses et il les regarde crever la dalle Tonton on est du bon côté mais ce quon voit, on ne peut le nier Jai grandi au milieu de ceux que le système a oubliés On vit sur le même sol mais les fins de mois nont pas le même parfum Et chaque année monte un peu plus la rumeur des crève-la-faim Le système a décidé quy avait pas de place pour tout le monde Tonton, tas entendu les cris dehors, cest bien notre futur qui gronde Le système sest retourné contre lhomme, perdu dans ses ambitions Légalité est en travaux et ya beaucoup trop de déviations Eh Tonton on va faire comment ? Dis-moi Tonton, on va faire comment ? Est-ce que les hommes ont voulu ça, est-ce quils maîtrisent leur rôle Ou est-ce que la machine sest emballée et quon a perdu le contrôle Est-ce quy a encore quelquun quelque part qui décide de quelque chose Ou est-ce quon est tous pieds et poings liés en attendant que tout explose Difficile de me rassurer Tonton, je te rappelle au passage Que lhomme descend bel et bien du singe pas du sage Et cest bien lhomme qui regarde mourir la moitié de ses frères Qui arrache les derniers arbres et qui pourrit latmosphère Ya de plus en plus de cases sombres et de pièges sur léchiquier Lavenir na plus beaucoup de sens dans ce monde de banquiers Cest les marchés qui nous gouvernent, mais ces tous ces chiffres sont irréels On est dirigé par des graphiques, cest de la branlette à grande échelle Eh Tonton, on va faire comment, tu peux me dire ? Comme il faut que tout soit rentable, on privatisera lair quon respire Cest une route sans issue, cest ce quaujourdhui, tout nous démontre On va tout droit vers la défaite dans cette course contre la honte Eh Tonton on va faire comment ? Dis-moi tonton, on va faire comment ? Entre le fromage et le dessert, tout là-haut dans leur diner Est-ce que les grands de ce monde ont entendu le cri des indignés Dans le viseur de la souffrance, ya de plus en plus de cibles Pour lavenir, pour les enfants, essayons de ne pas rester insensibles You might also like Ma petite gueule damour, mon Polo, mon ami Châtaigne On va rien lâcher, on va aimer Regarder derrière pour rien oublier Ni les yeux bleus ni les regards noirs On perdra rien, peut-être bien un peu Mais ce quil y a devant, cest si grand Ma petite gueule damour, mon Polo, mon ami Châtaigne Tas bien le temps davoir le chagrin éternel Sils veulent pas le reconstruire le nouveau monde, on se mettra au boulot Il faudra de lutopie et du courage Faudra remettre les pendules à lheure, leur dire quon a pas le même tic tac Que nous, il est plutôt du côté du coeur Fini le compte à rebours du vide, du rien dedans Ma gueule damour, mon petit pote dazur Il est des jours où je ne peux rien faire pour toi Les conneries je les ai faites, et cest un chagrin qui sefface pas Faut pas manquer beaucoup pour plus être le héros, faut pas beaucoup Je tjure petit frère, faut freiner à temps Va falloir chanter lamour, encore plus fort Yaura des révolutions quon voudra pas Et dautres qui prennent leur temps, pourtant cest urgent Où est la banque il faut que je mette une bombe Une bombe désodorante, une bombe désodorante pour les mauvaises odeurs du fric qui déborde Pas de place pour les gentils, pour les paumés de la vie Chez ces gens-là, on aime pas, on compte Ma petite gueule damour, mon Polo, mon ami Châtaigne Ptit frère, putain, on va le reconstruire ce monde Pour ça, Tonton, faut lui tendre la main Tonton, il peut rien faire si ty crois pas Alors faudra se regarder, se découvrir, jamais se quitter On va rien lâcher On va rester groupé Ya les frères, les cousines, les cousins, y a les petits de la voisines Ya les gamins perdus qui deviennent des caïds de rien Des allumés qui senflamment pour faire les malins Ya la mamie qui peut pas les aider, qua rien appris dans les livres Mais qui sait tout de la vie À force de ne plus croire en rien, cest la vie qui désespère Faut aimer pour être aimé Faut donner pour recevoir Viens vers la lumière, ptit frère Ta vie cest comme du gruyère, mais personne te le dis que tu as une belle âme Ma petite gueule damour, mon Polo, mon ami Châtaigne On va rien lâcher On va aimer regarder derrière pour rien oublier1</t>
+          <t>Eh Tonton, est-ce que tas regardé dehors ? Sur lavenir de nos enfants il pleut de plus en plus fort Quand je pense à eux pourtant, jaimerais chanter un autre thème Mais je suis plus trop serein, je fais pas confiance au système Ce système fait des enfants mais il les laisse sur le chemin Et il oublie que sil existe, cest pour gérer des êtres humains On avance tous tête baissée sans se soucier du plan final Ce système entasse des gosses et il les regarde crever la dalle Tonton on est du bon côté mais ce quon voit, on ne peut le nier Jai grandi au milieu de ceux que le système a oubliés On vit sur le même sol mais les fins de mois nont pas le même parfum Et chaque année monte un peu plus la rumeur des crève-la-faim Le système a décidé quy avait pas de place pour tout le monde Tonton, tas entendu les cris dehors, cest bien notre futur qui gronde Le système sest retourné contre lhomme, perdu dans ses ambitions Légalité est en travaux et ya beaucoup trop de déviations Eh Tonton on va faire comment ? Dis-moi Tonton, on va faire comment ? Est-ce que les hommes ont voulu ça, est-ce quils maîtrisent leur rôle Ou est-ce que la machine sest emballée et quon a perdu le contrôle Est-ce quy a encore quelquun quelque part qui décide de quelque chose Ou est-ce quon est tous pieds et poings liés en attendant que tout explose Difficile de me rassurer Tonton, je te rappelle au passage Que lhomme descend bel et bien du singe pas du sage Et cest bien lhomme qui regarde mourir la moitié de ses frères Qui arrache les derniers arbres et qui pourrit latmosphère Ya de plus en plus de cases sombres et de pièges sur léchiquier Lavenir na plus beaucoup de sens dans ce monde de banquiers Cest les marchés qui nous gouvernent, mais ces tous ces chiffres sont irréels On est dirigé par des graphiques, cest de la branlette à grande échelle Eh Tonton, on va faire comment, tu peux me dire ? Comme il faut que tout soit rentable, on privatisera lair quon respire Cest une route sans issue, cest ce quaujourdhui, tout nous démontre On va tout droit vers la défaite dans cette course contre la honte Eh Tonton on va faire comment ? Dis-moi tonton, on va faire comment ? Entre le fromage et le dessert, tout là-haut dans leur diner Est-ce que les grands de ce monde ont entendu le cri des indignés Dans le viseur de la souffrance, ya de plus en plus de cibles Pour lavenir, pour les enfants, essayons de ne pas rester insensibles Ma petite gueule damour, mon Polo, mon ami Châtaigne On va rien lâcher, on va aimer Regarder derrière pour rien oublier Ni les yeux bleus ni les regards noirs On perdra rien, peut-être bien un peu Mais ce quil y a devant, cest si grand Ma petite gueule damour, mon Polo, mon ami Châtaigne Tas bien le temps davoir le chagrin éternel Sils veulent pas le reconstruire le nouveau monde, on se mettra au boulot Il faudra de lutopie et du courage Faudra remettre les pendules à lheure, leur dire quon a pas le même tic tac Que nous, il est plutôt du côté du coeur Fini le compte à rebours du vide, du rien dedans Ma gueule damour, mon petit pote dazur Il est des jours où je ne peux rien faire pour toi Les conneries je les ai faites, et cest un chagrin qui sefface pas Faut pas manquer beaucoup pour plus être le héros, faut pas beaucoup Je tjure petit frère, faut freiner à temps Va falloir chanter lamour, encore plus fort Yaura des révolutions quon voudra pas Et dautres qui prennent leur temps, pourtant cest urgent Où est la banque il faut que je mette une bombe Une bombe désodorante, une bombe désodorante pour les mauvaises odeurs du fric qui déborde Pas de place pour les gentils, pour les paumés de la vie Chez ces gens-là, on aime pas, on compte Ma petite gueule damour, mon Polo, mon ami Châtaigne Ptit frère, putain, on va le reconstruire ce monde Pour ça, Tonton, faut lui tendre la main Tonton, il peut rien faire si ty crois pas Alors faudra se regarder, se découvrir, jamais se quitter On va rien lâcher On va rester groupé Ya les frères, les cousines, les cousins, y a les petits de la voisines Ya les gamins perdus qui deviennent des caïds de rien Des allumés qui senflamment pour faire les malins Ya la mamie qui peut pas les aider, qua rien appris dans les livres Mais qui sait tout de la vie À force de ne plus croire en rien, cest la vie qui désespère Faut aimer pour être aimé Faut donner pour recevoir Viens vers la lumière, ptit frère Ta vie cest comme du gruyère, mais personne te le dis que tu as une belle âme Ma petite gueule damour, mon Polo, mon ami Châtaigne On va rien lâcher On va aimer regarder derrière pour rien oublier1</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9 Décembre 84 Il tient la main de sa copine pour défier l'hiver La nuit part pour être belle Mais elle se transforme vite en triste fait divers Ils se croient seuls au monde dans les ruelles mais à l'évidence ils ne le sont plus Deux Skinheads en manque d'embrouilles et d'adrénaline viennent leur tomber dessus Une gifle pour éloigner la fille Les mecs le rouent de coups à deux contre un Le visage contre le bitume glacé voyant la mort arriver il se sent contraint De sortir son arme car il est tout sauf un enfant de coeur L'un des Skins meurt sur le coup et l'autre hurle encore sa douleur Tout est allé si vite mais pourquoi ces mecs se sont retrouvés sur son chemin La douleur physique n'est rien quand il la compare à la peur du lendemain Il s'est rendu au matin plaidant la légitime défense corporelle Il est jugé en quelques mois en prends 10 ans de réclusion criminelle Il pense souvent à eux, il rêve tout le temps à elle Il a beau regarder très loin il ne voit pas le bout du tunnel Il découvre le cauchemar, l'humiliation, les matelas crades Les pieds enchaînés lors des transferts, et les bagarres lors des promenades Et alors qu'il subit depuis plus d'un an le système carcéral Une terrible nouvelle vient ajouter sa voix à la triste chorale Il est porteur d'un étrange virus que le monde découvre craintif 1985 nouvelle sentence, il est séropositif Aucun traitement n'existe, plus rien à perdre il se sent condamné à mort Alors il va être le plus fou dans un monde où c'est la loi du plus fort Il tombe dans tous les pièges là où la spirale de la violence se corse Et puisqu'on le traite comme un chien, alors il sera le chien le plus féroce Il sort enfin au bout de huit ans, l'avenir aussi triste que son pactage Les poches vides mais le sang plein de rage alors il monte sur un braquage Il se fait serrer un an plus tard et c'est le retour à la case cauchemar A la case où tout est sombre et où la nuit dure des semaines isolé au mitard Il ne pense plus à eux il ne rêve plus à elle Il n'ose même plus regarder devant, il est trop loin le bout du tunnel Ou alors ce bout du tunnel, il va falloir se le construire Il sait que s'il ne tente rien, c'est dans ces murs qu'il va mourir 9 octobre 94, date d'anniversaire de l'abolition de la peine de mort Il réussit son évasion et abolit lui-même son triste sort Quelques mois de cavale seulement avant de rejoindre les murs tout gris Quelques mois de liberté agités avant de repeindre les murs d'oubli Il est alors placé directement dans les quartiers de haute sécurité A l'isolement pendant 5 ans, on lui dit que c'est tout ce qu'il a mérité Quand il se regarde dans le miroir, il a peur de ce que le reflet lui montre C'est vrai ça n'a jamais été un tendre mais la prison a fait de lui un monstre Un malheur n'arrivant jamais seul, le sida se déclare, la maladie s'installe Il meurt peu à peu sans assistance et dans l'indifférence la plus totale 1995 à deux doigts de quitter la prison pour le cimetière La trithérapie fait son apparition et lui remet doucement les pieds sur terre Poussé à nouveau vers la vie et essayant de voir derrière les barreaux de fer Il se marie avec celle qu'il aime, ses sentiments réchauffent enfin l'atmosphère Mais son jugement toujours en attente finit un sale jour par tomber Pour évasion et braquage il prend 30 ans, le bout du tunnel s'est estompé Pourtant il garde en lui l'espoir, il a tellement tutoyé la mort Il se sent invincible c'est sûr il sait qu'un jour il retournera dehors En 2000 il se met à écrire, sa nouvelle arme pour survivre face au système Il gratte jour et nuit, ce n'est plus lui désormais mais c'est son stylo qui saigne Il écrit son premier livre et tient en ligne le premier blog d'un prisonnier Ses oeuvres transpercent les portes blindées et maintenant plus personne ne peut nier Qu'il est vivant, qu'il existe, qu'il réinvente le mot avenir En 2008 nait sa fille et l'amour et la vie ne sont plus des souvenirs Il a les mains sur ses stylos, fini le temps des mains en l'air Avant je m'évadais au pistolet Aujourd'hui je m'évade à l'épistolaire Il sort en janvier 2010 avec des projets et des repères Après 25 ans passé dans un tunnel Laurent a rejoint la lumièreYou might also like</t>
+          <t>9 Décembre 84 Il tient la main de sa copine pour défier l'hiver La nuit part pour être belle Mais elle se transforme vite en triste fait divers Ils se croient seuls au monde dans les ruelles mais à l'évidence ils ne le sont plus Deux Skinheads en manque d'embrouilles et d'adrénaline viennent leur tomber dessus Une gifle pour éloigner la fille Les mecs le rouent de coups à deux contre un Le visage contre le bitume glacé voyant la mort arriver il se sent contraint De sortir son arme car il est tout sauf un enfant de coeur L'un des Skins meurt sur le coup et l'autre hurle encore sa douleur Tout est allé si vite mais pourquoi ces mecs se sont retrouvés sur son chemin La douleur physique n'est rien quand il la compare à la peur du lendemain Il s'est rendu au matin plaidant la légitime défense corporelle Il est jugé en quelques mois en prends 10 ans de réclusion criminelle Il pense souvent à eux, il rêve tout le temps à elle Il a beau regarder très loin il ne voit pas le bout du tunnel Il découvre le cauchemar, l'humiliation, les matelas crades Les pieds enchaînés lors des transferts, et les bagarres lors des promenades Et alors qu'il subit depuis plus d'un an le système carcéral Une terrible nouvelle vient ajouter sa voix à la triste chorale Il est porteur d'un étrange virus que le monde découvre craintif 1985 nouvelle sentence, il est séropositif Aucun traitement n'existe, plus rien à perdre il se sent condamné à mort Alors il va être le plus fou dans un monde où c'est la loi du plus fort Il tombe dans tous les pièges là où la spirale de la violence se corse Et puisqu'on le traite comme un chien, alors il sera le chien le plus féroce Il sort enfin au bout de huit ans, l'avenir aussi triste que son pactage Les poches vides mais le sang plein de rage alors il monte sur un braquage Il se fait serrer un an plus tard et c'est le retour à la case cauchemar A la case où tout est sombre et où la nuit dure des semaines isolé au mitard Il ne pense plus à eux il ne rêve plus à elle Il n'ose même plus regarder devant, il est trop loin le bout du tunnel Ou alors ce bout du tunnel, il va falloir se le construire Il sait que s'il ne tente rien, c'est dans ces murs qu'il va mourir 9 octobre 94, date d'anniversaire de l'abolition de la peine de mort Il réussit son évasion et abolit lui-même son triste sort Quelques mois de cavale seulement avant de rejoindre les murs tout gris Quelques mois de liberté agités avant de repeindre les murs d'oubli Il est alors placé directement dans les quartiers de haute sécurité A l'isolement pendant 5 ans, on lui dit que c'est tout ce qu'il a mérité Quand il se regarde dans le miroir, il a peur de ce que le reflet lui montre C'est vrai ça n'a jamais été un tendre mais la prison a fait de lui un monstre Un malheur n'arrivant jamais seul, le sida se déclare, la maladie s'installe Il meurt peu à peu sans assistance et dans l'indifférence la plus totale 1995 à deux doigts de quitter la prison pour le cimetière La trithérapie fait son apparition et lui remet doucement les pieds sur terre Poussé à nouveau vers la vie et essayant de voir derrière les barreaux de fer Il se marie avec celle qu'il aime, ses sentiments réchauffent enfin l'atmosphère Mais son jugement toujours en attente finit un sale jour par tomber Pour évasion et braquage il prend 30 ans, le bout du tunnel s'est estompé Pourtant il garde en lui l'espoir, il a tellement tutoyé la mort Il se sent invincible c'est sûr il sait qu'un jour il retournera dehors En 2000 il se met à écrire, sa nouvelle arme pour survivre face au système Il gratte jour et nuit, ce n'est plus lui désormais mais c'est son stylo qui saigne Il écrit son premier livre et tient en ligne le premier blog d'un prisonnier Ses oeuvres transpercent les portes blindées et maintenant plus personne ne peut nier Qu'il est vivant, qu'il existe, qu'il réinvente le mot avenir En 2008 nait sa fille et l'amour et la vie ne sont plus des souvenirs Il a les mains sur ses stylos, fini le temps des mains en l'air Avant je m'évadais au pistolet Aujourd'hui je m'évade à l'épistolaire Il sort en janvier 2010 avec des projets et des repères Après 25 ans passé dans un tunnel Laurent a rejoint la lumière</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C'était sur une grande route, j'marchais là depuis des jours Voire des semaines ou des mois, j'marchais là depuis toujours Une route pleine de virages, des trajectoires qui dévient Un chemin un peu bizarre, un peu tordu, un peu comme la vie Evidemment j'étais pas tout seul, j'avais envie d'faire connaissance Y'avait un tas d'personnes et personne marchait dans l'même sens Alors j'continuais tout droit mais un doute s'est installé Je savais pas c'que j'foutais là, encore moins où j'devais aller Mais en ch'min au fil du temps j'ai fait des sacrées rencontres Des trucs impressionants, faut absolument qu'j'vous raconte Ces personnages que j'ai croisé c'est pas vraiment des êtres humains Tu peux parler avec eux mais jamais leur serrer la main Tout d'abord sur mon parcours j'ai rencontré l'innocence Un être doux, très gentil mais qui manque un peu d'expérience On a marché un p'tit moment, moins longtemps que c'que j'aurais cru J'ai rencontré d'autres éléments et l'innocence a disparue Un moment sur mon ch'min, j'ai rencontré le sport Un mec physique, un peu grande gueule mais auprès d'qui tu d'viens fort Pour des raisons techniques on a du s'quitter c'était dur Mais finalement c'est bien comme ça, puis l'sport ça donne des courbatures J'ai rencontré la poésie, elle avait un air bien prétentieux Elle prétendait qu'avec les mots on pouvait traverser les cieux J'lui ai dit j't'ai d'jà croisée et franchement tu vaux pas l'coup On m'a parlé d'toi à l'école et t'avais l'air vraiment relou Mais la poésie a insisté et m'a rattrapé sous d'autres formes J'ai compris qu'elle était cool et qu'on pouvait braver ses normes J'lui ai d'mandé tu penses qu'on peux vivre ensemble j'crois qu'j'suis accroc Elle m'a dit t'inquiêtes le monde appartient à ceux qui rêvent trop Puis j'ai rencontré la détresse et franchement elle m'a saoulé On a discuté vite fait mais rapidement je l'ai r'foulée Elle a plein d'certitudes sous ses grands airs plein d'tension Mais vous savez quoi la détresse, elle a pas d'conversations Un moment sur ma route j'ai rencontré l'amour J'lui ai dit tient tu tombes bien, j'veux t'parler d'puis toujours Dans l'absolu t'es une bonne idée mais dans les faits c'est un peu nul Tu pars en couille une fois sur deux faudrait qu'tu r'travaille ta formule L'amour m'a dit écoute petit ça fait des siècles que j'fais mon taff Alors tu m'parles sur un autre ton si tu veux pas t'manger des baffes Moi j'veux bien être gentille mais faut qu'chacun y mette du sien Les humains n'font aucun effort et moi j'suis pas un magicien On s'est embrouillé un p'tit moment et c'est là qu'j'me suis rendu compte Que l'amour était sympa mais que quand même il s'la raconte Puis il m'a dit qu'il d'vait partir, il avait des rendez-vous par centaine Que ce soir il d'vait diner chez sa demi-soeur la haine Avant d'partir j'ai pas bien compris, il m'a conseillé d'y croire toujours Puis s'est éloigné sans s'retourner, c'était mes derniers mots d'amour J'suis content d'l'avoir connu, ça j'l'ai bien réalisé Et je sais qu'un d'ces quatre on s'ra amené à s'recroiser Un peu plu stard sur mon chemin j'ai rencontré la tendresse Ce qui reste de l'amour derrière les barrières que le temps dresse Un peu plus tard sur mon chemin j'ai rencontré la nostalgie La fiancée des bons souvenirs qu'on éclaire à la bougie Assez tôt sur mon parcours j'avais rencontré l'amitié Et jusqu'à c'jour, elle marche toujours à mes côtés Avec elle j'ma tape des barres et on connait pas la routine Maintenant c'est sûr, l'amitié, c'est vraiment ma meilleure copine J'ai rencontré l'avenir mais il est resté très mystérieux Il avait la voix déformée et un masque sur les yeux Pas moyen d'mieux l'connaitre, il m'a laissé aucune piste Je sais pas à quoi il r'semble mais au moins j'sais qu'il existe J'ai rencontré quelques peines, j'ai rencontré beaucoup d'joie C'est parfois une question d'chance, souvent une histoire de choix J'suis pas au bout d'mes surprises, là dessus y'a aucun doute Et tous les jours je continue d'apprendre les codes de ma route You might also like</t>
+          <t>C'était sur une grande route, j'marchais là depuis des jours Voire des semaines ou des mois, j'marchais là depuis toujours Une route pleine de virages, des trajectoires qui dévient Un chemin un peu bizarre, un peu tordu, un peu comme la vie Evidemment j'étais pas tout seul, j'avais envie d'faire connaissance Y'avait un tas d'personnes et personne marchait dans l'même sens Alors j'continuais tout droit mais un doute s'est installé Je savais pas c'que j'foutais là, encore moins où j'devais aller Mais en ch'min au fil du temps j'ai fait des sacrées rencontres Des trucs impressionants, faut absolument qu'j'vous raconte Ces personnages que j'ai croisé c'est pas vraiment des êtres humains Tu peux parler avec eux mais jamais leur serrer la main Tout d'abord sur mon parcours j'ai rencontré l'innocence Un être doux, très gentil mais qui manque un peu d'expérience On a marché un p'tit moment, moins longtemps que c'que j'aurais cru J'ai rencontré d'autres éléments et l'innocence a disparue Un moment sur mon ch'min, j'ai rencontré le sport Un mec physique, un peu grande gueule mais auprès d'qui tu d'viens fort Pour des raisons techniques on a du s'quitter c'était dur Mais finalement c'est bien comme ça, puis l'sport ça donne des courbatures J'ai rencontré la poésie, elle avait un air bien prétentieux Elle prétendait qu'avec les mots on pouvait traverser les cieux J'lui ai dit j't'ai d'jà croisée et franchement tu vaux pas l'coup On m'a parlé d'toi à l'école et t'avais l'air vraiment relou Mais la poésie a insisté et m'a rattrapé sous d'autres formes J'ai compris qu'elle était cool et qu'on pouvait braver ses normes J'lui ai d'mandé tu penses qu'on peux vivre ensemble j'crois qu'j'suis accroc Elle m'a dit t'inquiêtes le monde appartient à ceux qui rêvent trop Puis j'ai rencontré la détresse et franchement elle m'a saoulé On a discuté vite fait mais rapidement je l'ai r'foulée Elle a plein d'certitudes sous ses grands airs plein d'tension Mais vous savez quoi la détresse, elle a pas d'conversations Un moment sur ma route j'ai rencontré l'amour J'lui ai dit tient tu tombes bien, j'veux t'parler d'puis toujours Dans l'absolu t'es une bonne idée mais dans les faits c'est un peu nul Tu pars en couille une fois sur deux faudrait qu'tu r'travaille ta formule L'amour m'a dit écoute petit ça fait des siècles que j'fais mon taff Alors tu m'parles sur un autre ton si tu veux pas t'manger des baffes Moi j'veux bien être gentille mais faut qu'chacun y mette du sien Les humains n'font aucun effort et moi j'suis pas un magicien On s'est embrouillé un p'tit moment et c'est là qu'j'me suis rendu compte Que l'amour était sympa mais que quand même il s'la raconte Puis il m'a dit qu'il d'vait partir, il avait des rendez-vous par centaine Que ce soir il d'vait diner chez sa demi-soeur la haine Avant d'partir j'ai pas bien compris, il m'a conseillé d'y croire toujours Puis s'est éloigné sans s'retourner, c'était mes derniers mots d'amour J'suis content d'l'avoir connu, ça j'l'ai bien réalisé Et je sais qu'un d'ces quatre on s'ra amené à s'recroiser Un peu plu stard sur mon chemin j'ai rencontré la tendresse Ce qui reste de l'amour derrière les barrières que le temps dresse Un peu plus tard sur mon chemin j'ai rencontré la nostalgie La fiancée des bons souvenirs qu'on éclaire à la bougie Assez tôt sur mon parcours j'avais rencontré l'amitié Et jusqu'à c'jour, elle marche toujours à mes côtés Avec elle j'ma tape des barres et on connait pas la routine Maintenant c'est sûr, l'amitié, c'est vraiment ma meilleure copine J'ai rencontré l'avenir mais il est resté très mystérieux Il avait la voix déformée et un masque sur les yeux Pas moyen d'mieux l'connaitre, il m'a laissé aucune piste Je sais pas à quoi il r'semble mais au moins j'sais qu'il existe J'ai rencontré quelques peines, j'ai rencontré beaucoup d'joie C'est parfois une question d'chance, souvent une histoire de choix J'suis pas au bout d'mes surprises, là dessus y'a aucun doute Et tous les jours je continue d'apprendre les codes de ma route</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Il est de ces événements qui sortent tout le reste de nos pensées Certaines circonstances qui nous stoppent net dans notre lancée Il est de ces réalités qu'on n'était pas près à recevoir Et qui rendent toute tentative de bien-être illusoire J'ai pas les mots pour exprimer la puissance de la douleur J'ai lu au fond de tes yeux ce que signifiait le mot malheur C'est un souvenir glacial, comme ce soir de décembre Où tes espoirs brûlants ont laissé place à des cendres J'ai pas trouvé les mots pour expliquer l'inexplicable J'ai pas trouvé les mots pour consoler l'inconsolable Je n'ai trouvé que ma main pour poser sur ton épaule Attendant que les lendemains se dépêchent de jouer leur rôle J'ai pas les phrases miracles qui pourraient soulager ta peine Aucune formule magique parmi ces mots qui saignent Je n'ai trouvé que ma présence pour t'aider à souffrir Et constater dans ce silence que ta tristesse m'a fait grandir J'ai pas trouvé le remède pour réparer un cur brisé Il faudra tellement de temps avant qu'il puisse cicatriser Avoir vécu avec elle et apprendre à survivre sans Elle avait écrit quelque part que tu verserais des larmes de sang Tu as su rester debout et je t'admire de ton courage Tu avances la tête haute et tu traverses cet orage À côté de ton épreuve, tout me semble dérisoire Tous comme ces mots qui pleuvent que j'écris sans espoir You might also likePourtant les saisons s'enchaîneront, saluant ta patience En ta force et ton envie, j'ai une totale confiance Tu ne seras plus jamais le même mais dans le ciel dès demain Son étoile t'éclairera pour te montrer le chemin</t>
+          <t>Il est de ces événements qui sortent tout le reste de nos pensées Certaines circonstances qui nous stoppent net dans notre lancée Il est de ces réalités qu'on n'était pas près à recevoir Et qui rendent toute tentative de bien-être illusoire J'ai pas les mots pour exprimer la puissance de la douleur J'ai lu au fond de tes yeux ce que signifiait le mot malheur C'est un souvenir glacial, comme ce soir de décembre Où tes espoirs brûlants ont laissé place à des cendres J'ai pas trouvé les mots pour expliquer l'inexplicable J'ai pas trouvé les mots pour consoler l'inconsolable Je n'ai trouvé que ma main pour poser sur ton épaule Attendant que les lendemains se dépêchent de jouer leur rôle J'ai pas les phrases miracles qui pourraient soulager ta peine Aucune formule magique parmi ces mots qui saignent Je n'ai trouvé que ma présence pour t'aider à souffrir Et constater dans ce silence que ta tristesse m'a fait grandir J'ai pas trouvé le remède pour réparer un cur brisé Il faudra tellement de temps avant qu'il puisse cicatriser Avoir vécu avec elle et apprendre à survivre sans Elle avait écrit quelque part que tu verserais des larmes de sang Tu as su rester debout et je t'admire de ton courage Tu avances la tête haute et tu traverses cet orage À côté de ton épreuve, tout me semble dérisoire Tous comme ces mots qui pleuvent que j'écris sans espoir Pourtant les saisons s'enchaîneront, saluant ta patience En ta force et ton envie, j'ai une totale confiance Tu ne seras plus jamais le même mais dans le ciel dès demain Son étoile t'éclairera pour te montrer le chemin</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bonjour docteur. J'viens vous voir parce que... J'l'ai jamais trop raconté, mais... mais j'ai des bruits chelous dans la tête... 'fin, dans la tête... dans... dans les oreilles, quoi... Ça fait longtemps, en fait, ça... ça arrive d'un seul coup, puis ça revient assez régulièrement. Et puis c'est des bruits, enfin... comme des trucs que j'connais déjà... Et, du coup, c'est très bizarre, tout s'mélange un peu, c'est... j'sais pas comment dire, j'entends comme des... Par exemple... J'entends Brassens sur un vinyle, Chanson pour l'auvergnat J'entends l'accent d'ma grand-mère quand elle chantait Ramona J'entends les voix d'mes parents, de celles qui rassurent J'entends ma plume sur un papier, et les premières ratures J'entends Maguy à la télé qui sonne la fin du week-end J'entends ma mère, pour me bercer, qui vient chanter Göttingen J'entends la sérénité, la quiétude et l'harmonie J'entends mon premier texte qui parle de famille unie J'entends ma sur dans sa chambre qui écoutait les Cure J'entends nos cris d'enfants quand on sortait dans la cour J'entends la sonnerie du collège qui annonce la fin d'l'heure J'entends toujours beaucoup plus de fous rires que de pleurs J'entends les portes du métro et la cohue d'la ligne treize J'entends l'accent des clandos qui vendent des fritesmerguez J'entends les piliers d'bars qui philosophent et théorisent J'entends le clocher d'la mairie qui sonne le temps des cerises Est-ce que c'est grave, docteur, tous ces bruits dans mon esprit ? Est-ce un trop plein d'souvenirs et mon cerveau qui réagit ? Est-ce que ça doit m'faire peur ? En fait, je pense que j'ai compris Tous ces murmures, c'est juste des acouphènes de nostalgie You might also like J'entends les break-beats à l'ancienne et les premiers phrasés hip-hop J'entends les bombes de peinture, j'voulais taguer avec mes potes Mais j'entends leurs ricanements devant mes tags pathétiques J'suis retourné faire du sport, j'avais un art plus athlétique J'entends des terrains en parquet, des ballons qui rebondissent Des clameurs en paquets et des semelles qui crissent J'entends siffler les arbitres et chanter dans les vestiaires J'entends gueuler l'entraîneur, comme si le match était hier J'entends les vannes les plus folles sur les playgrounds de Marville Les champions d'France de Chambrette habitaient tous dans ma ville Sur ces terrains en bitume, j'ai usé tellement d'semelles J'pouvais jouer au clair de lune et, ça, sept jours par semaine J'entends le bel accent corse chaque été, loin d'la grisaille J'entends des chants polyphoniques au lever du jour à Morosaglia J'entends trinquer les Moresques et tous ces liens qui se soudent J'entends qu'on m'appelle fradé, j'entends pace e salute Est-ce que c'est grave, docteur, tous ces bruits dans mon esprit ? Est-ce un trop plein d'souvenirs et mon cerveau qui réagit ? Est-ce que ça doit m'faire peur ? En fait, je pense que j'ai compris Tous ces murmures, c'est juste des acouphènes de nostalgie Je n'm'inquiète pas, docteur, de tous ces drôles d'acouphènes Quand ils arrivent, je les écoute, je les accueille et j'les aime Le passé ne me hante pas mais j'oublie pas ses caprices J'n'ai pas peur de ré-ouvrir deux ou trois cicatrices Ça y est, je ne crains plus tous ces beaux acouphènes Quand ils arrivent, je les écoute, je les accueille et j'les aime Ils sont les codes de mon histoire, c'est comme un écho apaisant Ils forment un rythme, une mélodie et ils font danser mon présent</t>
+          <t>Bonjour docteur. J'viens vous voir parce que... J'l'ai jamais trop raconté, mais... mais j'ai des bruits chelous dans la tête... 'fin, dans la tête... dans... dans les oreilles, quoi... Ça fait longtemps, en fait, ça... ça arrive d'un seul coup, puis ça revient assez régulièrement. Et puis c'est des bruits, enfin... comme des trucs que j'connais déjà... Et, du coup, c'est très bizarre, tout s'mélange un peu, c'est... j'sais pas comment dire, j'entends comme des... Par exemple... J'entends Brassens sur un vinyle, Chanson pour l'auvergnat J'entends l'accent d'ma grand-mère quand elle chantait Ramona J'entends les voix d'mes parents, de celles qui rassurent J'entends ma plume sur un papier, et les premières ratures J'entends Maguy à la télé qui sonne la fin du week-end J'entends ma mère, pour me bercer, qui vient chanter Göttingen J'entends la sérénité, la quiétude et l'harmonie J'entends mon premier texte qui parle de famille unie J'entends ma sur dans sa chambre qui écoutait les Cure J'entends nos cris d'enfants quand on sortait dans la cour J'entends la sonnerie du collège qui annonce la fin d'l'heure J'entends toujours beaucoup plus de fous rires que de pleurs J'entends les portes du métro et la cohue d'la ligne treize J'entends l'accent des clandos qui vendent des fritesmerguez J'entends les piliers d'bars qui philosophent et théorisent J'entends le clocher d'la mairie qui sonne le temps des cerises Est-ce que c'est grave, docteur, tous ces bruits dans mon esprit ? Est-ce un trop plein d'souvenirs et mon cerveau qui réagit ? Est-ce que ça doit m'faire peur ? En fait, je pense que j'ai compris Tous ces murmures, c'est juste des acouphènes de nostalgie J'entends les break-beats à l'ancienne et les premiers phrasés hip-hop J'entends les bombes de peinture, j'voulais taguer avec mes potes Mais j'entends leurs ricanements devant mes tags pathétiques J'suis retourné faire du sport, j'avais un art plus athlétique J'entends des terrains en parquet, des ballons qui rebondissent Des clameurs en paquets et des semelles qui crissent J'entends siffler les arbitres et chanter dans les vestiaires J'entends gueuler l'entraîneur, comme si le match était hier J'entends les vannes les plus folles sur les playgrounds de Marville Les champions d'France de Chambrette habitaient tous dans ma ville Sur ces terrains en bitume, j'ai usé tellement d'semelles J'pouvais jouer au clair de lune et, ça, sept jours par semaine J'entends le bel accent corse chaque été, loin d'la grisaille J'entends des chants polyphoniques au lever du jour à Morosaglia J'entends trinquer les Moresques et tous ces liens qui se soudent J'entends qu'on m'appelle fradé, j'entends pace e salute Est-ce que c'est grave, docteur, tous ces bruits dans mon esprit ? Est-ce un trop plein d'souvenirs et mon cerveau qui réagit ? Est-ce que ça doit m'faire peur ? En fait, je pense que j'ai compris Tous ces murmures, c'est juste des acouphènes de nostalgie Je n'm'inquiète pas, docteur, de tous ces drôles d'acouphènes Quand ils arrivent, je les écoute, je les accueille et j'les aime Le passé ne me hante pas mais j'oublie pas ses caprices J'n'ai pas peur de ré-ouvrir deux ou trois cicatrices Ça y est, je ne crains plus tous ces beaux acouphènes Quand ils arrivent, je les écoute, je les accueille et j'les aime Ils sont les codes de mon histoire, c'est comme un écho apaisant Ils forment un rythme, une mélodie et ils font danser mon présent</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a, chez l'homme, trois leaders qui essayent d'imposer leur loi Cette lutte interne, permanente, est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le cur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si, un jour, on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le cur, les couilles discutent mais ils sont jamais d'accords Mon cur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien 'per-cho' cette brune Mais y'en a une qui veut pas, putain, ma tête me casse les burnes Ma tête a dit a mon cur qu'elle s'en battait les couilles Si mes couilles avaient mal au cur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'cur Et, comme mon cur n'a pas d'couille, ma tête n'est pas prête d'avoir peur Moi, mes couilles sont tête en l'air et ont un cur d'artichaut Et, quand mon cur perd la tête, mes couilles restent bien au chaud Et, si ma tête part en couilles, pour mon cur, c'est la défaite J'connais cette histoire par cur, elle n'a ni queue ni tête Moi, les femmes, j'les crains autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi, chez moi, c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterai sous l'contrôle d'ma tête, mon cur et mes couillesYou might also like</t>
+          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a, chez l'homme, trois leaders qui essayent d'imposer leur loi Cette lutte interne, permanente, est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le cur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si, un jour, on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le cur, les couilles discutent mais ils sont jamais d'accords Mon cur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien 'per-cho' cette brune Mais y'en a une qui veut pas, putain, ma tête me casse les burnes Ma tête a dit a mon cur qu'elle s'en battait les couilles Si mes couilles avaient mal au cur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'cur Et, comme mon cur n'a pas d'couille, ma tête n'est pas prête d'avoir peur Moi, mes couilles sont tête en l'air et ont un cur d'artichaut Et, quand mon cur perd la tête, mes couilles restent bien au chaud Et, si ma tête part en couilles, pour mon cur, c'est la défaite J'connais cette histoire par cur, elle n'a ni queue ni tête Moi, les femmes, j'les crains autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi, chez moi, c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterai sous l'contrôle d'ma tête, mon cur et mes couilles</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C'est pas vraiment des fantômes, mais leur absence est tellement forte Qu'elle crée en nous une présence qui nous rend faible ou nous supporte C'est ceux qu'on a aimés qui créent un vide presque tangible Car l'amour qu'on leur donnait est orphelin et cherche une cible Pour certains on le savait, on s'était préparé au pire Mais d'autres ont disparu d'un seul coup, sans prévenir On leur a pas dit au revoir, ils sont partis sans notre accord Car la mort a ses raisons que notre raison ignore Alors on s'est regroupé d'un réconfort utopiste À plusieurs on est plus fort mais on n'est pas moins triste C'est seul qu'on fait son deuil, car on est seul quand on ressent On apprivoise la douleur et la présence de nos absents Nos absents sont toujours là, à l'esprit, dans nos souvenirs Sur ce film de vacances, sur ces photos pleines de sourires Nos absents nous entourent et resteront à nos côtés Ils reprennent vie dans nos rêves, comme si de rien n'était On se rassure face à la souffrance qui nous serre le cou En se disant que là où ils sont, ils ont sûrement moins mal que nous Alors on marche, on rit, on chante, mais leur ombre demeure Dans un coin de nos cerveaux, dans un coin de notre bonheur You might also likeNous, on a des projets, on dessine nos lendemains On décide du chemin, on regarde l'avenir entre nos mains Et au cur de l'action, dans nos victoires ou nos enfers On imagine de temps en temps que nos absents nous voient faire Chaque vie est un miracle, mais le final est énervant Je me suis bien renseigné, on n'en sortira pas vivant Il faut apprendre à l'accepter pour essayer de vieillir heureux Mais chaque année nos absents sont un petit peu plus nombreux Chaque nouvelle disparition transforme nos curs en dentelle Mais le temps passe et les douleurs vives deviennent pastel Ce temps qui, pour une fois, est un véritable allié Chaque heure passée est une pommade, il en faudra des milliers Moi, les morts, les disparus, je n'en parle pas beaucoup Alors j'écris sur eux, je titille mes sujets tabous Ce grand mystère qui nous attend, notre ultime point commun à tous Qui fait qu'on court après la vie, sachant que la mort est à nos trousses C'est pas vraiment des fantômes, mais leur absence est tellement forte Qu'elle crée en nous une présence qui nous rend faible ou nous supporte C'est ceux qu'on a aimés qui créent un vide presque infini Qu'inspirent des textes premier degré Faut dire que la mort manque d'ironie</t>
+          <t>C'est pas vraiment des fantômes, mais leur absence est tellement forte Qu'elle crée en nous une présence qui nous rend faible ou nous supporte C'est ceux qu'on a aimés qui créent un vide presque tangible Car l'amour qu'on leur donnait est orphelin et cherche une cible Pour certains on le savait, on s'était préparé au pire Mais d'autres ont disparu d'un seul coup, sans prévenir On leur a pas dit au revoir, ils sont partis sans notre accord Car la mort a ses raisons que notre raison ignore Alors on s'est regroupé d'un réconfort utopiste À plusieurs on est plus fort mais on n'est pas moins triste C'est seul qu'on fait son deuil, car on est seul quand on ressent On apprivoise la douleur et la présence de nos absents Nos absents sont toujours là, à l'esprit, dans nos souvenirs Sur ce film de vacances, sur ces photos pleines de sourires Nos absents nous entourent et resteront à nos côtés Ils reprennent vie dans nos rêves, comme si de rien n'était On se rassure face à la souffrance qui nous serre le cou En se disant que là où ils sont, ils ont sûrement moins mal que nous Alors on marche, on rit, on chante, mais leur ombre demeure Dans un coin de nos cerveaux, dans un coin de notre bonheur Nous, on a des projets, on dessine nos lendemains On décide du chemin, on regarde l'avenir entre nos mains Et au cur de l'action, dans nos victoires ou nos enfers On imagine de temps en temps que nos absents nous voient faire Chaque vie est un miracle, mais le final est énervant Je me suis bien renseigné, on n'en sortira pas vivant Il faut apprendre à l'accepter pour essayer de vieillir heureux Mais chaque année nos absents sont un petit peu plus nombreux Chaque nouvelle disparition transforme nos curs en dentelle Mais le temps passe et les douleurs vives deviennent pastel Ce temps qui, pour une fois, est un véritable allié Chaque heure passée est une pommade, il en faudra des milliers Moi, les morts, les disparus, je n'en parle pas beaucoup Alors j'écris sur eux, je titille mes sujets tabous Ce grand mystère qui nous attend, notre ultime point commun à tous Qui fait qu'on court après la vie, sachant que la mort est à nos trousses C'est pas vraiment des fantômes, mais leur absence est tellement forte Qu'elle crée en nous une présence qui nous rend faible ou nous supporte C'est ceux qu'on a aimés qui créent un vide presque infini Qu'inspirent des textes premier degré Faut dire que la mort manque d'ironie</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bah ouais c'est sûr c'est la merde, c'est pas trop ça qu'était prévu Nos ambitions sont en berne et notre avenir en garde à vue Et si c'est vrai que l'intelligence, c'est la capacité d'adaptation Il va falloir la jouer rusé face à certaines situations Avec une enclume sur le dos, les pieds liés et le vent de face C'est déjà plus dur daimer la vie, de faire des sourires dans la glace On a perdu la 1ère manche mais le même joueur rejoue Le destin nous a giflés et on veut pas tendre l'autre joue Alors va falloir inventer, avec du courage plein les poches Trouver autre chose à raconter pour pas louper un 2ème coche Yavait sûrement plusieurs options et finalement on a opté Pour accepter cette position et trouver un espoir adapté Alors on va relever les yeux quand nos regrets prendront la fuite On se fixera des objectifs à mobilité réduite Là-bas au bout des couloirs, y'aura de la lumière à capter On va tenter daller la voir avec un espoir adapté Can you hear me I am awake Can you see all the fights that Ive been through My eyes dont lie Ill reach the light And hope will guide me You might also like Un espoir adapté c'est l'envie d'croire qui résiste Même en milieu hostile c'est la victoire qui existe Cest 5 potes un peu perdus que tentent de battre encore des ailes Cest retrouver le goût de la sueur entre deux barres parallèles Un espoir adapté, cest de lespoir bousculé Parce qu'on est dos au mur, il y a plus de place pour reculer Comme un instinct de survie, on pense encore à avancer À la fin de quelque chose, y'a un bien un truc à commencer Après avoir nagé au cur des points dinterrogation On va sortir de la torpeur, certains diront reconversion Là-bas au bout des couloirs, y'aura de la lumière à capter On va tenter daller la voir avec un espoir adapté I been trying to let it go Been trying to free my soul But all the friends that I have lost And all the scars that I have left My body embodies all my sorrows My bones mirror my own morals Now I dont need nothing more than to feel my heart pounding Ill hold on to this second chance Ill breathe it Retrouver un espoir sans oublier ceux qui saignent Car dans cette quête on est pas tous logés à la même enseigne Moi j'ai eu ma 2ème chance et même si j'peux la rendre belle Je pense souvent à la tristesse du dernier sourire de Noël Un espoir adapté, cest faire le deuil de tous les autres Sourire encore ne serait-ce quen hommage à tous les nôtres Ceux quétaient là, qui mont porté au propre comme au figuré Ceux quont adapté leur vie pour rendre la mienne moins compliquée Can you hear me I am awake Can you see all the fights that Ive been through My eyes dont lie Ill reach the light And hope will guide me</t>
+          <t>Bah ouais c'est sûr c'est la merde, c'est pas trop ça qu'était prévu Nos ambitions sont en berne et notre avenir en garde à vue Et si c'est vrai que l'intelligence, c'est la capacité d'adaptation Il va falloir la jouer rusé face à certaines situations Avec une enclume sur le dos, les pieds liés et le vent de face C'est déjà plus dur daimer la vie, de faire des sourires dans la glace On a perdu la 1ère manche mais le même joueur rejoue Le destin nous a giflés et on veut pas tendre l'autre joue Alors va falloir inventer, avec du courage plein les poches Trouver autre chose à raconter pour pas louper un 2ème coche Yavait sûrement plusieurs options et finalement on a opté Pour accepter cette position et trouver un espoir adapté Alors on va relever les yeux quand nos regrets prendront la fuite On se fixera des objectifs à mobilité réduite Là-bas au bout des couloirs, y'aura de la lumière à capter On va tenter daller la voir avec un espoir adapté Can you hear me I am awake Can you see all the fights that Ive been through My eyes dont lie Ill reach the light And hope will guide me Un espoir adapté c'est l'envie d'croire qui résiste Même en milieu hostile c'est la victoire qui existe Cest 5 potes un peu perdus que tentent de battre encore des ailes Cest retrouver le goût de la sueur entre deux barres parallèles Un espoir adapté, cest de lespoir bousculé Parce qu'on est dos au mur, il y a plus de place pour reculer Comme un instinct de survie, on pense encore à avancer À la fin de quelque chose, y'a un bien un truc à commencer Après avoir nagé au cur des points dinterrogation On va sortir de la torpeur, certains diront reconversion Là-bas au bout des couloirs, y'aura de la lumière à capter On va tenter daller la voir avec un espoir adapté I been trying to let it go Been trying to free my soul But all the friends that I have lost And all the scars that I have left My body embodies all my sorrows My bones mirror my own morals Now I dont need nothing more than to feel my heart pounding Ill hold on to this second chance Ill breathe it Retrouver un espoir sans oublier ceux qui saignent Car dans cette quête on est pas tous logés à la même enseigne Moi j'ai eu ma 2ème chance et même si j'peux la rendre belle Je pense souvent à la tristesse du dernier sourire de Noël Un espoir adapté, cest faire le deuil de tous les autres Sourire encore ne serait-ce quen hommage à tous les nôtres Ceux quétaient là, qui mont porté au propre comme au figuré Ceux quont adapté leur vie pour rendre la mienne moins compliquée Can you hear me I am awake Can you see all the fights that Ive been through My eyes dont lie Ill reach the light And hope will guide me</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>J'y suis entré tout petit sans le savoir comme tout le monde Derrière ses murs j'ai grandi et j'ai observé chaque seconde J'y suis entré naturellement personne m'a demandé mon avis J'ai étudié son fonctionnement ça s'appelle l'école de la vie Faut savoir qu'ici tout s'apprend, les premières joies et les colères Et on ne sort jamais vraiment de cet établissement solaire À l'école de la vie y a des matières obligatoires Et certains cours sont en option pour te former à ton histoire La vie démarre souvent avec le prof d'insouciance Il est utile, il t'inspire et puis il te met en confiance Mais juste après vient le cours des responsabilités Tu découvres les maux de tête et les premiers contrôles ratés Le cours de curiosité est un passage important En le comprenant assez tôt j'ai gagné pas mal de temps Puis j'ai promis que je m'inscrirai dans le cours de promesse Mais j'ai parfois été fort dans le cours de faiblesse À l'école de la vie, tout s'apprend, tout s'enseigne Tout s'entend, on s'entraine, des matières par centaines C'est l'école de la vie, j'ai erré dans ses couloirs J'ai géré dans ses trous noirs, j'essayerai d'aller tout voir En cours de grosse galère, j'ai eu quelques très bonnes notes C'est ce genre de résultats qui te fait connaitre tes vrais potes Ça m'a donné des points d'avance et une sacrée formation Pour le cours de prise de recul et celui d'adaptation Je me souviens du cours d'espoir j'avais des facilités A moins que je ne confonde avec le cours de naïveté Puis il y avait une filière mensonge et une filière vérité J'ai suivi les deux cursus chacun à son utilité En cours de solitude j'avais un bon potentiel Se satisfaire de soi même est un atout essentiel Mais j'aime bien aussi l'ambiance qu'il y avait dans le cours de bordel J'ai vite compris que l'existence se conjugue mieux au pluriel C'est qu'en cours d'humanité j'ai eu deux très bons professeurs On a eu des travaux pratiques tous les jours moi et ma sur J'espère que petit à petit j'ai bien retenu leurs leçons Et qu'à l'école d'une autre vie je transmettrai à ma façon You might also like En cours d'histoire d'amour j'ai longtemps été au fond de la classe Le cul contre le radiateur j'ai bien cru trouver ma place Mais en pleine récréation alors que je n'attendais rien J'ai reçu ma plus belle leçon et le prof m'a mis très bien Au cours de liberté y avait beaucoup d'élèves en transe Le cours d'égalité était payant, bravo la France Pour la fraternité y avait aucun cours officiel Y avait que les cours du soir loin des voies institutionnelles Alors on saigne on cicatrise On se renseigne on réalise Les bons coups et les bêtises On salit on se divise Moi pour comprendre l'existence un peu plus vite ou un peu mieux J'ai choisi le cours d'enfance en ville j'ai même pris l'option banlieue Reste qu'au cours de bonheur le prof était souvent malade On s'est démerdés tous seuls on a déchiffrer ses charades Autodidacte en sentiments y aura pas d'envie sans piment Dans mes cahiers en ciment moi j'apprends la vie en rimant</t>
+          <t>J'y suis entré tout petit sans le savoir comme tout le monde Derrière ses murs j'ai grandi et j'ai observé chaque seconde J'y suis entré naturellement personne m'a demandé mon avis J'ai étudié son fonctionnement ça s'appelle l'école de la vie Faut savoir qu'ici tout s'apprend, les premières joies et les colères Et on ne sort jamais vraiment de cet établissement solaire À l'école de la vie y a des matières obligatoires Et certains cours sont en option pour te former à ton histoire La vie démarre souvent avec le prof d'insouciance Il est utile, il t'inspire et puis il te met en confiance Mais juste après vient le cours des responsabilités Tu découvres les maux de tête et les premiers contrôles ratés Le cours de curiosité est un passage important En le comprenant assez tôt j'ai gagné pas mal de temps Puis j'ai promis que je m'inscrirai dans le cours de promesse Mais j'ai parfois été fort dans le cours de faiblesse À l'école de la vie, tout s'apprend, tout s'enseigne Tout s'entend, on s'entraine, des matières par centaines C'est l'école de la vie, j'ai erré dans ses couloirs J'ai géré dans ses trous noirs, j'essayerai d'aller tout voir En cours de grosse galère, j'ai eu quelques très bonnes notes C'est ce genre de résultats qui te fait connaitre tes vrais potes Ça m'a donné des points d'avance et une sacrée formation Pour le cours de prise de recul et celui d'adaptation Je me souviens du cours d'espoir j'avais des facilités A moins que je ne confonde avec le cours de naïveté Puis il y avait une filière mensonge et une filière vérité J'ai suivi les deux cursus chacun à son utilité En cours de solitude j'avais un bon potentiel Se satisfaire de soi même est un atout essentiel Mais j'aime bien aussi l'ambiance qu'il y avait dans le cours de bordel J'ai vite compris que l'existence se conjugue mieux au pluriel C'est qu'en cours d'humanité j'ai eu deux très bons professeurs On a eu des travaux pratiques tous les jours moi et ma sur J'espère que petit à petit j'ai bien retenu leurs leçons Et qu'à l'école d'une autre vie je transmettrai à ma façon En cours d'histoire d'amour j'ai longtemps été au fond de la classe Le cul contre le radiateur j'ai bien cru trouver ma place Mais en pleine récréation alors que je n'attendais rien J'ai reçu ma plus belle leçon et le prof m'a mis très bien Au cours de liberté y avait beaucoup d'élèves en transe Le cours d'égalité était payant, bravo la France Pour la fraternité y avait aucun cours officiel Y avait que les cours du soir loin des voies institutionnelles Alors on saigne on cicatrise On se renseigne on réalise Les bons coups et les bêtises On salit on se divise Moi pour comprendre l'existence un peu plus vite ou un peu mieux J'ai choisi le cours d'enfance en ville j'ai même pris l'option banlieue Reste qu'au cours de bonheur le prof était souvent malade On s'est démerdés tous seuls on a déchiffrer ses charades Autodidacte en sentiments y aura pas d'envie sans piment Dans mes cahiers en ciment moi j'apprends la vie en rimant</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tel un Rubik's Cube la vie est pleine de facettes Faut faire tourner les couleurs savoir répondre au casse-tête Entre les vertes et les rouge il faut trouver les liaisons La vie à plusieurs faces est tellement de combinaisons On sest tous demander par quel côté commencer Comment éviter les erreurs ou comment les compenser On a appris, on a raté et on a changé d'avis Dans le Rubik's Cube on a tous eu mille vies Je suis censé être à mi-parcours de ce qu'on appelle l'existence J'ai regardé devant un peu derrière j'ai évaluer les distances Et dans ce parcours compliqué j'ai ouvert tous les tiroirs Il y a beaucoup de vies qui sont tombées quand j'ai secoué ma mémoire Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies You might also like Élève à facilités, un peu trop dissipé Maison près des cités Fout le bazar depuis le CP Des modèles à la maison et des exemples dans la rue Sur trois ou quatre horizons j'ai pu aiguiser ma vue Gentil fils bien élevé et p'tite caille-ra morve au nez Adolescent bien casse-couille Et sportif touche à tout Tennisman et sprinteur Basketteur bien physique Prof de sport, entraîneur Et bientôt tétraplégique Commercial dans un bureau Loin de leurs us et coutumes Loin de leur rentabilité, bonus et costumes Banlieusard dans l'âme et même apprenti bobo Amoureux de ma femme Et bien sûr papa gâteau Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies Tel un Rubik's Cube la vie est pleine de facettes J'ai pisté les bonnes couleurs J'ai grillé certaines cachettes J'ai pas cherché les problèmes Mais parfois ils m'ont trouvé Pour l'esprit d'adaptation, j'ai plus rien à prouver J'accumule les existences et j'aime vivre à l'excès Mais qui a plusieurs vies a bien plusieurs décès Faire le deuil de certains souffles pour retrouver la joie Accepter d'être mort déjà une ou deux fois Pour ma dernière vie en date j'ai trouvé une belle piste J'ai écrit sur tous les fronts, certains mappellent l'artiste J'ai plusieurs cordes à mon stylo et je veux en faire bon usage Dans cette vie là et celle d'après je ne serai pas plus sage Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies</t>
+          <t>Tel un Rubik's Cube la vie est pleine de facettes Faut faire tourner les couleurs savoir répondre au casse-tête Entre les vertes et les rouge il faut trouver les liaisons La vie à plusieurs faces est tellement de combinaisons On sest tous demander par quel côté commencer Comment éviter les erreurs ou comment les compenser On a appris, on a raté et on a changé d'avis Dans le Rubik's Cube on a tous eu mille vies Je suis censé être à mi-parcours de ce qu'on appelle l'existence J'ai regardé devant un peu derrière j'ai évaluer les distances Et dans ce parcours compliqué j'ai ouvert tous les tiroirs Il y a beaucoup de vies qui sont tombées quand j'ai secoué ma mémoire Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies Élève à facilités, un peu trop dissipé Maison près des cités Fout le bazar depuis le CP Des modèles à la maison et des exemples dans la rue Sur trois ou quatre horizons j'ai pu aiguiser ma vue Gentil fils bien élevé et p'tite caille-ra morve au nez Adolescent bien casse-couille Et sportif touche à tout Tennisman et sprinteur Basketteur bien physique Prof de sport, entraîneur Et bientôt tétraplégique Commercial dans un bureau Loin de leurs us et coutumes Loin de leur rentabilité, bonus et costumes Banlieusard dans l'âme et même apprenti bobo Amoureux de ma femme Et bien sûr papa gâteau Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies Tel un Rubik's Cube la vie est pleine de facettes J'ai pisté les bonnes couleurs J'ai grillé certaines cachettes J'ai pas cherché les problèmes Mais parfois ils m'ont trouvé Pour l'esprit d'adaptation, j'ai plus rien à prouver J'accumule les existences et j'aime vivre à l'excès Mais qui a plusieurs vies a bien plusieurs décès Faire le deuil de certains souffles pour retrouver la joie Accepter d'être mort déjà une ou deux fois Pour ma dernière vie en date j'ai trouvé une belle piste J'ai écrit sur tous les fronts, certains mappellent l'artiste J'ai plusieurs cordes à mon stylo et je veux en faire bon usage Dans cette vie là et celle d'après je ne serai pas plus sage Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Quelques bons choix pour aller haut allez haut Et des ratés des aléas aléa Je suis perdant de cette vie ci de cette vie ci Mais pour celle là jsuis lauréat lauréat Entre coups de cur et coups de cube Beau hasard et belles envies On a fait ce quon a pu On a tous eu mille vies</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Le soleil frappe à ma fenêtre Je lui souris J'ai 2, 3 mélodies en tête Et plein d'envie Elle m'en font voir de toutes les douceurs Comment résister J'ai rendez-vous avec quelques heures De liberté A la radio, les sales nouvelles chantent leur refrain Mais aujourd'hui personne cassera mon entrain Bien trop zen et même que dans ma tête un peu larguée Y'a une basse de funk et un beat de reggae Derrière la vitre y'a ce bruit, la ville qui ronronne Faut que je sorte et prendre un peu ce qu'on me donne Derrière la vitre ça sent le printemps J'ai la flemme de ne rien faire Je suis pressé de prendre mon temps 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant You might also like Je descend et croise mon voisin dans lascenseur J'aime-rai bien l'inviter demain avec sa sur Je salue les éboueurs et flics, cette blonde en tailleur Son joli sourire tombe à pic sur ma bonne humeur Ça vit, ça rit, ça gueule sur mon trottoir Du Grec au Chinois de l'épicier au bar Y'a une odeur de café des couleurs au soleil Un odeur de mafé, les 5 sens en éveil Tout le monde se check Des cassos au beaux gosses Des gentils aux féroces Des bolosses aux colosses Même les pervenches font la grève avec joie On vont trinquer elles vont chanter avec moi 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant 15 heures du matin 15 heures du matin 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant</t>
+          <t>Le soleil frappe à ma fenêtre Je lui souris J'ai 2, 3 mélodies en tête Et plein d'envie Elle m'en font voir de toutes les douceurs Comment résister J'ai rendez-vous avec quelques heures De liberté A la radio, les sales nouvelles chantent leur refrain Mais aujourd'hui personne cassera mon entrain Bien trop zen et même que dans ma tête un peu larguée Y'a une basse de funk et un beat de reggae Derrière la vitre y'a ce bruit, la ville qui ronronne Faut que je sorte et prendre un peu ce qu'on me donne Derrière la vitre ça sent le printemps J'ai la flemme de ne rien faire Je suis pressé de prendre mon temps 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant Je descend et croise mon voisin dans lascenseur J'aime-rai bien l'inviter demain avec sa sur Je salue les éboueurs et flics, cette blonde en tailleur Son joli sourire tombe à pic sur ma bonne humeur Ça vit, ça rit, ça gueule sur mon trottoir Du Grec au Chinois de l'épicier au bar Y'a une odeur de café des couleurs au soleil Un odeur de mafé, les 5 sens en éveil Tout le monde se check Des cassos au beaux gosses Des gentils aux féroces Des bolosses aux colosses Même les pervenches font la grève avec joie On vont trinquer elles vont chanter avec moi 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant 15 heures du matin 15 heures du matin 15 heures du matin plus rien ne matteint C'est mon instant, suis mon instinct Rien n'est important 15 heures du matin plus rien ne matteint Tout est léger laisse moi kiffer ici et maintenant</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Premier Janvier 2010, j'ai envie d'aller m'assoir Pour raconter à ma feuille la suite de cette histoire Pas de bonnes résolutions pour la nouvelle année Mais plutôt l'heure d'un bilan pour mieux savoir où aller 2006 à 2009 plus de 250 concerts Tenter de donner du plaisir je crois que c'est bien à ça qu'on sert En donner pour mieux en prendre ça procure du renfort à l'âme Et du sourire à revendre depuis qu'on m'appelle Grand Corps Malade Cette histoire est insensée je l'ai écrite sans calcul Mais parfois pour mieux avancer faut savoir prendre du recul Alors je regarde devant moi j'observe cet escalier Et sur la prochaine marche y a un stylo et du papier Alors pas sur que je sois à ma place sur les plateaux de télévision J'y vais avec prudence et un p'tit air de dérision Et si c'est le seul prix à payer pour tourner l'année prochaine J'irais sans me faire prier car ma seule vraie place est sur scène Je suivrai ma voix pour que ma voix refasse des siennes Je resterai à ma place et ma seule vraie place est sur scène Je l'ai compris sans faire exprès et je prolonge l'innocence Quand je me sens là tout prêt je peux réaliser ma chance Dans la musique grâce à vous j'ai déjà un peu de vécu Dans la musique je suis venu j'ai vu j'ai du cul Alors c'est bon je reste ici pour aujourd'hui ça c'est noté Je continue cette vie mais j'oublie pas ses à-côtés Les à-côtés que tu ne vois pas loin des spots et des projecteurs Les petits projets en bas de chez moi qui me font du bien j'y mets du cur Car j'ai besoin de ces heures à la résidence Croizat Toutes ces mamies sont des grandes surs et quand elles slament crois moi Il y a de l'émotion au delà des normes quand leur vies devient leurs thèmes Il y a plus de fond et plus de forme que sur toute la bande FM Je vois le sourire d'un enfant quand il écrit ses premiers vers J'irai faire slamer les écoles tant que ce cadeau me sera offert J'irai faire slamer les prisons comme à Fleury, Poissy et Frêne Quel que soit le public au fond ma seule vraie place est sur scène You might also like 1er janvier 2010 j'ai bien envie de me lever Pour traverser mon réel en continuant à rêver J'ai trop d'envies trop d'attentes pas le temps de jouer les flemmards Tu connais ma team et mon thème alors tu sais que ça peux ché-mar Je sais pas si tout est mérité parfois je me sens redevable Parce que la roue a tourné pour m'offrir une suite équitable Pour effacer les nuits sans rêves les jours sans ciel qu'il y a derrière Car comme la dis Brahim j'ai traversé plusieurs déserts Si ces déserts sont sans parole c'est que je garde de la pudeur Si tu ne vois jamais ma rage c'est que je peux gérer mes humeurs Si tu vois rarement ma peine c'est que ma joie est supérieure Si tu ne vois jamais mes larmes c'est parce qu'elles coulent à l'intérieur Pas besoin de crier trop fort j'ai arrêté de me chercher Moi j'ai les pieds sur terre et ça me suffira pour marcher Pour savoir quelle est ma voie pour que ma voix refasse des siennes Je resterai à ma place et ma seule vraie place est sur scène</t>
+          <t>Premier Janvier 2010, j'ai envie d'aller m'assoir Pour raconter à ma feuille la suite de cette histoire Pas de bonnes résolutions pour la nouvelle année Mais plutôt l'heure d'un bilan pour mieux savoir où aller 2006 à 2009 plus de 250 concerts Tenter de donner du plaisir je crois que c'est bien à ça qu'on sert En donner pour mieux en prendre ça procure du renfort à l'âme Et du sourire à revendre depuis qu'on m'appelle Grand Corps Malade Cette histoire est insensée je l'ai écrite sans calcul Mais parfois pour mieux avancer faut savoir prendre du recul Alors je regarde devant moi j'observe cet escalier Et sur la prochaine marche y a un stylo et du papier Alors pas sur que je sois à ma place sur les plateaux de télévision J'y vais avec prudence et un p'tit air de dérision Et si c'est le seul prix à payer pour tourner l'année prochaine J'irais sans me faire prier car ma seule vraie place est sur scène Je suivrai ma voix pour que ma voix refasse des siennes Je resterai à ma place et ma seule vraie place est sur scène Je l'ai compris sans faire exprès et je prolonge l'innocence Quand je me sens là tout prêt je peux réaliser ma chance Dans la musique grâce à vous j'ai déjà un peu de vécu Dans la musique je suis venu j'ai vu j'ai du cul Alors c'est bon je reste ici pour aujourd'hui ça c'est noté Je continue cette vie mais j'oublie pas ses à-côtés Les à-côtés que tu ne vois pas loin des spots et des projecteurs Les petits projets en bas de chez moi qui me font du bien j'y mets du cur Car j'ai besoin de ces heures à la résidence Croizat Toutes ces mamies sont des grandes surs et quand elles slament crois moi Il y a de l'émotion au delà des normes quand leur vies devient leurs thèmes Il y a plus de fond et plus de forme que sur toute la bande FM Je vois le sourire d'un enfant quand il écrit ses premiers vers J'irai faire slamer les écoles tant que ce cadeau me sera offert J'irai faire slamer les prisons comme à Fleury, Poissy et Frêne Quel que soit le public au fond ma seule vraie place est sur scène 1er janvier 2010 j'ai bien envie de me lever Pour traverser mon réel en continuant à rêver J'ai trop d'envies trop d'attentes pas le temps de jouer les flemmards Tu connais ma team et mon thème alors tu sais que ça peux ché-mar Je sais pas si tout est mérité parfois je me sens redevable Parce que la roue a tourné pour m'offrir une suite équitable Pour effacer les nuits sans rêves les jours sans ciel qu'il y a derrière Car comme la dis Brahim j'ai traversé plusieurs déserts Si ces déserts sont sans parole c'est que je garde de la pudeur Si tu ne vois jamais ma rage c'est que je peux gérer mes humeurs Si tu vois rarement ma peine c'est que ma joie est supérieure Si tu ne vois jamais mes larmes c'est parce qu'elles coulent à l'intérieur Pas besoin de crier trop fort j'ai arrêté de me chercher Moi j'ai les pieds sur terre et ça me suffira pour marcher Pour savoir quelle est ma voie pour que ma voix refasse des siennes Je resterai à ma place et ma seule vraie place est sur scène</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cher Fabien, tu ne me connais pas encore, je suis ton petit-fils Je t'écris depuis l'année 2083 Je te passe ce message afin que ton époque réagisse Ici, la planète va mal, il faut absolument qu'tu m'crois Jakarta, Lagos, New-York ont disparu sous la mer Mais aussi Venise, Londres et un tiers des Pays-Bas Tombouctou et le nord Mali ensevelis sous le désert Et le fleuve Niger n'a plus une sule goutte d'eau dans ss bras Les villes côtières qui luttent contre la montée des eaux ont beau construire des digues, des barrages et des murailles Elles ne pèsent pas bien lourd et éclatent vite en morceaux quand les cyclones et ouragans viennent finir le travail Dans plusieurs pays d'Afrique et d'Asie du sud-est, mais aussi à Athènes, au Caire, et quelques autres élues Il fait souvent soixante degrés, chaque été est un test où les riches vivent sous la clim et les pauvres ne vivent plus Les changements climatiques ont été tellement violents que les écosystèmes n'ont pas eu le temps de s'adapter Un million d'espèces, en plus des fameux ours blancs ont disparu pour toujours, elles n'ont pas pu résister L'année dernière, New Delhi a été entièrement évacuée, asphyxiée, qu'elle était, sous un nuage de pollution À Pékin et Shangaï, une nouvelle loi vient de passer, sans masque à oxygène, il est interdit de sortir d'sa maison Les sols sont tellement secs qu'il n'y a plus de vignes en France et dans plusieurs pays du sud, l'agriculture est impossible Quand les fermiers n'ont plus d'eau, on est au-delà de l'urgence La famine et la misère sont devenues irréversibles La sécheresse et la chaleur ont provoqué des millions de morts Et des millions de réfugiés qui fuient leur pays Les frontières sont des zones de combat dans les États du Nord C'est la guerre en Europe, en Amérique et en Asie You might also like Cher petit-fils, j'ai lu ton courrier avec effroi Je crois bien avoir saisi l'ampleur de la crise Mais pour te dire la vérité, pour nous, en 2023, tout c'que tu m'racontes là n'est pas vraiment une surprise Ça fait plusieurs années voire plusieurs décennies que les scientifiques essayent vainement de nous alerter Qu'il n'est pas encore trop tard, que le combat n'est pas fini Mais qu'on joue tous en ce moment l'avenir de l'humanité J'ai toujours pas compris ce que font les grands de ce monde Chaque conférence sur le climat est un terrible échec Aucun G20 n'aboutit à des mesures profondes Ils y vont en jet privé et se torchent avec les rapports du GIEC Quand vont-ils déclarer l'état d'urgence climatique mondiale et contraindre les pays sur leurs émissions de CO2 ? Quand vont-ils rendre toute déforestation illégale, investir massivement pour consommer moins, consommer mieux ? Les changements de comportement passeront forcément par des lois Les politiques devront sortir de leur inaction Il ne faudra pas attendre d'être en 2083 Dès aujourd'hui, les demi-mesures ne sont plus une option Mon cher petit-fils, peux-tu demander à tous tes potes d'écrire à leurs aïeux, de suivre ton initiative Le combat n'est pas perdu, la Terre n'est pas encore morte Mais la victoire pour le climat ne pourra être que collective</t>
+          <t>Cher Fabien, tu ne me connais pas encore, je suis ton petit-fils Je t'écris depuis l'année 2083 Je te passe ce message afin que ton époque réagisse Ici, la planète va mal, il faut absolument qu'tu m'crois Jakarta, Lagos, New-York ont disparu sous la mer Mais aussi Venise, Londres et un tiers des Pays-Bas Tombouctou et le nord Mali ensevelis sous le désert Et le fleuve Niger n'a plus une sule goutte d'eau dans ss bras Les villes côtières qui luttent contre la montée des eaux ont beau construire des digues, des barrages et des murailles Elles ne pèsent pas bien lourd et éclatent vite en morceaux quand les cyclones et ouragans viennent finir le travail Dans plusieurs pays d'Afrique et d'Asie du sud-est, mais aussi à Athènes, au Caire, et quelques autres élues Il fait souvent soixante degrés, chaque été est un test où les riches vivent sous la clim et les pauvres ne vivent plus Les changements climatiques ont été tellement violents que les écosystèmes n'ont pas eu le temps de s'adapter Un million d'espèces, en plus des fameux ours blancs ont disparu pour toujours, elles n'ont pas pu résister L'année dernière, New Delhi a été entièrement évacuée, asphyxiée, qu'elle était, sous un nuage de pollution À Pékin et Shangaï, une nouvelle loi vient de passer, sans masque à oxygène, il est interdit de sortir d'sa maison Les sols sont tellement secs qu'il n'y a plus de vignes en France et dans plusieurs pays du sud, l'agriculture est impossible Quand les fermiers n'ont plus d'eau, on est au-delà de l'urgence La famine et la misère sont devenues irréversibles La sécheresse et la chaleur ont provoqué des millions de morts Et des millions de réfugiés qui fuient leur pays Les frontières sont des zones de combat dans les États du Nord C'est la guerre en Europe, en Amérique et en Asie Cher petit-fils, j'ai lu ton courrier avec effroi Je crois bien avoir saisi l'ampleur de la crise Mais pour te dire la vérité, pour nous, en 2023, tout c'que tu m'racontes là n'est pas vraiment une surprise Ça fait plusieurs années voire plusieurs décennies que les scientifiques essayent vainement de nous alerter Qu'il n'est pas encore trop tard, que le combat n'est pas fini Mais qu'on joue tous en ce moment l'avenir de l'humanité J'ai toujours pas compris ce que font les grands de ce monde Chaque conférence sur le climat est un terrible échec Aucun G20 n'aboutit à des mesures profondes Ils y vont en jet privé et se torchent avec les rapports du GIEC Quand vont-ils déclarer l'état d'urgence climatique mondiale et contraindre les pays sur leurs émissions de CO2 ? Quand vont-ils rendre toute déforestation illégale, investir massivement pour consommer moins, consommer mieux ? Les changements de comportement passeront forcément par des lois Les politiques devront sortir de leur inaction Il ne faudra pas attendre d'être en 2083 Dès aujourd'hui, les demi-mesures ne sont plus une option Mon cher petit-fils, peux-tu demander à tous tes potes d'écrire à leurs aïeux, de suivre ton initiative Le combat n'est pas perdu, la Terre n'est pas encore morte Mais la victoire pour le climat ne pourra être que collective</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>À l'arrivée du mois de décembre J'ai bien regardé La hauteur de ciel descendre Et l'hiver arriver J'étais presque content de le voir En l'observant se déployer J'ai mis une veste au-dessus de ma veste Pour pas trop cailler J'ai vu la nuit qui tombait tôt Mais les gens qui marchaient plus vite J'ai vu la chaleur des bistrots Avec de la buée sur les vitres Là dessus la nature est fidèle J'ai vu le jour se lever tard J'ai vu les guirlandes de Noël Qui me foutent le cafard J'ai aimé avoir les mains gelées Pour les mettre au fond de mes poches J'ai adoré marcher dehors Quand tu sais que la maison est proche J'ai souris bêtement En voyant qu'il n'y avait plus De fleurs sur les balcons J'ai regardé le ciel tout blanc Y avait même des flocons You might also likeCertains matins j'ai vu que le givre Avait squatté derrière les fenêtres J'ai vu les gens revenir du ski Avec la marque des lunettes Je commençais juste à m'y habituer Mais les jours ont rallongé J'ai compris que le printemps Allait emménager Le mois de mars avait tracé En un battement de cils Et on m'a dit qu'en avril Faut pas se découvrir d'un fil Mais moi j'ai peur de rien Alors malgré les dictons vieillots J'ai enlevé une de mes deux vestes Pour pas avoir trop chaud J'ai vu les arbres avoir des feuilles Et les filles changer de godasses J'ai vu les bistrots ouvrir plus tard Avec des tables en terrasses Y avait pleins de couples qui s'embrassaient C'est les hormones, ça réagit C'est la saison des amours Et la saison des allergies C'est vrai que j'ai eu le nez qui coule Et je me suis frotté les yeux Mais j'ai aimé la chair de poule Pendant un coup de vent affectueux Sur les balcons ça bourgeonnait J'ai ri bêtement à cette vision J'ai regardé le ciel bleu-pâle Y avait même des avions Ma factrice a ressorti le vélo J'étais content pour elle Content aussi pour le daron Qui aime le retour des hirondelles Je commençais juste à m'y habituer Mais le thermomètre a augmenté J'ai compris ce qui nous pendait au nez C'était l'été Au mois de juin on change de teint Fini d'être albinos C'est la période des examens Et puis celle de Roland Garros Ça sent les vacances à plein nez Il va être l'heure de se tirer Moi j'ai enlevé ma dernière veste Pour pas transpirer J'ai vu qu'il faisait encore jour Même après le début du film Pour ceux qui ont des poignées d'amour Il est trop tard pour le régime Les mecs sont assez excités Et ça les préoccupe Que les filles sortent leurs décolletés Et leurs mini-jupes J'ai aimé rechercher l'ombre Quand il y avait trop de soleil J'ai aimé dormir sans la couette Pour rafraîchir le sommeil Sur les balcons c'était la jungle Il y avait plein de fleur et de feuillage J'ai regardé le ciel tout bleu Il y avait même pas de nuages J'ai adoré conduire la nuit La vitre ouverte en grand Avec le bras gauche de sorti Qui fait un bras de fer contre le vent Je commençais juste à m'y habituer Mais j'ai vu une fleur fanée J'ai compris que l'automne Était déterminé C'est surtout à partir d'octobre C'est la saison la plus austère Moi bizarrement je la trouve noble C'est celle qui a le plus de caractère J'ai vu les feuilles qui tournoyaient Comme des ballons de baudruche J'ai remis une de mes vestes Avec une capuche J'ai vu la pluie, j'ai vu le vent Les rayons de soleil malades J'ai vu les K-ways des enfants Qui partent aux châtaignes en ballade J'ai marché dans les feuilles mortes Et sur les trottoirs mouillés J'ai vu les parcs changer de couleurs Ils étaient tout rouillés J'ai aimé les lumières de la ville Qui se reflètent dans les flaques Et les petites bourrasques de vent Qui mettent les brushings en vrac Sur les balcons y avait que des branches Sans feuilles et sans raisons J'ai regardé le ciel tout gris Y avait même plus d'horizon Et puis l'hiver est revenu Puis les saisons se sont perpétuées Les années passent, la vie aussi On commençait juste à s'y habituer On est les témoins impuissants Du temps qui trace, du temps qui veut Que les enfants deviennent des grands Et que les grands deviennent des vieux</t>
+          <t>À l'arrivée du mois de décembre J'ai bien regardé La hauteur de ciel descendre Et l'hiver arriver J'étais presque content de le voir En l'observant se déployer J'ai mis une veste au-dessus de ma veste Pour pas trop cailler J'ai vu la nuit qui tombait tôt Mais les gens qui marchaient plus vite J'ai vu la chaleur des bistrots Avec de la buée sur les vitres Là dessus la nature est fidèle J'ai vu le jour se lever tard J'ai vu les guirlandes de Noël Qui me foutent le cafard J'ai aimé avoir les mains gelées Pour les mettre au fond de mes poches J'ai adoré marcher dehors Quand tu sais que la maison est proche J'ai souris bêtement En voyant qu'il n'y avait plus De fleurs sur les balcons J'ai regardé le ciel tout blanc Y avait même des flocons Certains matins j'ai vu que le givre Avait squatté derrière les fenêtres J'ai vu les gens revenir du ski Avec la marque des lunettes Je commençais juste à m'y habituer Mais les jours ont rallongé J'ai compris que le printemps Allait emménager Le mois de mars avait tracé En un battement de cils Et on m'a dit qu'en avril Faut pas se découvrir d'un fil Mais moi j'ai peur de rien Alors malgré les dictons vieillots J'ai enlevé une de mes deux vestes Pour pas avoir trop chaud J'ai vu les arbres avoir des feuilles Et les filles changer de godasses J'ai vu les bistrots ouvrir plus tard Avec des tables en terrasses Y avait pleins de couples qui s'embrassaient C'est les hormones, ça réagit C'est la saison des amours Et la saison des allergies C'est vrai que j'ai eu le nez qui coule Et je me suis frotté les yeux Mais j'ai aimé la chair de poule Pendant un coup de vent affectueux Sur les balcons ça bourgeonnait J'ai ri bêtement à cette vision J'ai regardé le ciel bleu-pâle Y avait même des avions Ma factrice a ressorti le vélo J'étais content pour elle Content aussi pour le daron Qui aime le retour des hirondelles Je commençais juste à m'y habituer Mais le thermomètre a augmenté J'ai compris ce qui nous pendait au nez C'était l'été Au mois de juin on change de teint Fini d'être albinos C'est la période des examens Et puis celle de Roland Garros Ça sent les vacances à plein nez Il va être l'heure de se tirer Moi j'ai enlevé ma dernière veste Pour pas transpirer J'ai vu qu'il faisait encore jour Même après le début du film Pour ceux qui ont des poignées d'amour Il est trop tard pour le régime Les mecs sont assez excités Et ça les préoccupe Que les filles sortent leurs décolletés Et leurs mini-jupes J'ai aimé rechercher l'ombre Quand il y avait trop de soleil J'ai aimé dormir sans la couette Pour rafraîchir le sommeil Sur les balcons c'était la jungle Il y avait plein de fleur et de feuillage J'ai regardé le ciel tout bleu Il y avait même pas de nuages J'ai adoré conduire la nuit La vitre ouverte en grand Avec le bras gauche de sorti Qui fait un bras de fer contre le vent Je commençais juste à m'y habituer Mais j'ai vu une fleur fanée J'ai compris que l'automne Était déterminé C'est surtout à partir d'octobre C'est la saison la plus austère Moi bizarrement je la trouve noble C'est celle qui a le plus de caractère J'ai vu les feuilles qui tournoyaient Comme des ballons de baudruche J'ai remis une de mes vestes Avec une capuche J'ai vu la pluie, j'ai vu le vent Les rayons de soleil malades J'ai vu les K-ways des enfants Qui partent aux châtaignes en ballade J'ai marché dans les feuilles mortes Et sur les trottoirs mouillés J'ai vu les parcs changer de couleurs Ils étaient tout rouillés J'ai aimé les lumières de la ville Qui se reflètent dans les flaques Et les petites bourrasques de vent Qui mettent les brushings en vrac Sur les balcons y avait que des branches Sans feuilles et sans raisons J'ai regardé le ciel tout gris Y avait même plus d'horizon Et puis l'hiver est revenu Puis les saisons se sont perpétuées Les années passent, la vie aussi On commençait juste à s'y habituer On est les témoins impuissants Du temps qui trace, du temps qui veut Que les enfants deviennent des grands Et que les grands deviennent des vieux</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment-là, hors du temps que la réalité a choisi Pour montrer qu'elle décide et que si elle veut elle nous malmène Elle a injecté dans nos joies comme une anestésie Souviens-toi de ces sourires, ce ne sera plus jamais les mêmes Le temps s'est accéléré d'un coup, et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs Dans ma tête y a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde Mais ces ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle, et un moment banal peut être une très bonne occupation Ce monde respire le même air, mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain Alors pourquoi tant d'embarras face à un mec en fauteuil roulant ou face à une aveugle Vas-y tu peux leur parler normalement You might also likeC'est pas contagieux, pourtant avant de refaire mes premiers pas Certains savent comme moi qu'il y a des regards qu'on n'oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage, une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment ? Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
+          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment-là, hors du temps que la réalité a choisi Pour montrer qu'elle décide et que si elle veut elle nous malmène Elle a injecté dans nos joies comme une anestésie Souviens-toi de ces sourires, ce ne sera plus jamais les mêmes Le temps s'est accéléré d'un coup, et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs Dans ma tête y a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde Mais ces ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle, et un moment banal peut être une très bonne occupation Ce monde respire le même air, mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain Alors pourquoi tant d'embarras face à un mec en fauteuil roulant ou face à une aveugle Vas-y tu peux leur parler normalement C'est pas contagieux, pourtant avant de refaire mes premiers pas Certains savent comme moi qu'il y a des regards qu'on n'oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage, une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment ? Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Je vous parle d'un temps La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème Je vous parle d'un temps que les moins de vingts ans ne peuvent pas connaitre Saint-Denis en ce temps là était mon seul décor et mon terrain de fête Une terrasse de café, deux trois potos qui passent et le plan s'éternise Et le clocher d'la mairie qui à dix-huit heures chante le temps des cerises Je vous parle d'un temps que j'ai connu un temps comme une belle escale On avait mille projets qu'on fantasmait devant une omelette frite à quatre balles On avait des idées et on refaisait le monde au pied des bâtiments Le monde a du nous voir il nous a offert l'espoir C'est un bon commencement La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire On est heureux La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème You might also like Souvent il m'arrivait devant mon cahier de passer des nuits blanches Noircissant toutes ces pages avec excitation presque comme une revanche Scander des poésies quelle jolie fantaisie face à des presque frères Sans enjeux précis se sentir bien en vie et gagner quelques bières L'inspiration était partout je pouvais souvent la voir déborder De notre innocence, de notre nonchalance, de notre vie débridée On a laissé une trace en hurlant nos histoires à la gueule du monde Je vous parle d'un temps dont je ne changerai pas une seule seconde La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire On est heureux La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème Quand au hasard des jours je m'en vais faire un tour à mon ancienne adresse Je reconnais les rues mais l'esprit n'y est plus Moins d'envies, moins de promesses Reste alors le souvenir qui me donne le sourire Et ce pincement extrême, la nostalgie comme emblème Entre galères et poèmes À chacun sa bohème</t>
+          <t>Je vous parle d'un temps La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème Je vous parle d'un temps que les moins de vingts ans ne peuvent pas connaitre Saint-Denis en ce temps là était mon seul décor et mon terrain de fête Une terrasse de café, deux trois potos qui passent et le plan s'éternise Et le clocher d'la mairie qui à dix-huit heures chante le temps des cerises Je vous parle d'un temps que j'ai connu un temps comme une belle escale On avait mille projets qu'on fantasmait devant une omelette frite à quatre balles On avait des idées et on refaisait le monde au pied des bâtiments Le monde a du nous voir il nous a offert l'espoir C'est un bon commencement La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire On est heureux La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème Souvent il m'arrivait devant mon cahier de passer des nuits blanches Noircissant toutes ces pages avec excitation presque comme une revanche Scander des poésies quelle jolie fantaisie face à des presque frères Sans enjeux précis se sentir bien en vie et gagner quelques bières L'inspiration était partout je pouvais souvent la voir déborder De notre innocence, de notre nonchalance, de notre vie débridée On a laissé une trace en hurlant nos histoires à la gueule du monde Je vous parle d'un temps dont je ne changerai pas une seule seconde La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire On est heureux La bohème Je vous parle d'un temps La bohème Je vous parle d'un temps Ça voulait dire La nostalgie comme emblème, entre galères et poèmes À chacun sa bohème Quand au hasard des jours je m'en vais faire un tour à mon ancienne adresse Je reconnais les rues mais l'esprit n'y est plus Moins d'envies, moins de promesses Reste alors le souvenir qui me donne le sourire Et ce pincement extrême, la nostalgie comme emblème Entre galères et poèmes À chacun sa bohème</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Et si on avait plus souvent raison à dix-neuf ans Je ne mangerai pas la soupe, je ne jouerai pas le jeu Je ne suivrai pas la troupe, pourquoi cinq lettres pas mieux Je ne jetterai pas la pierre à la femme adultère Je ne tuerai pas mon papa parce que j'aime pas là, quand, voilà Je voterai pas pour vous, la corde autour du cou Je ne tendrai pas l'autre joue, parce que j sais qu'c'est pour des clous Et si je cass ma plume, si vous me brisez les crayons Ma mémoire à titre posthume continuera d'écrire ton nom Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais Je marcherai que sur les bandes blanches au passage clouté Et plutôt qu'avancer seul, j'préfèrerai marcher groupé J'verrai toujours des monstres dans la forme des nuages J'aurai toujours un peu d'mal à rester sage J'essayerai toujours, souvent d'esquiver l'autorité Obéir ne sera jamais vraiment une priorité J'aimerai toujours les intellos mais je préférerai les marrants Je chercherai toujours un peu dans l'regard de mes parents Je n'quitterai pas mon enfance, je n'brulerai pas les bouquins Je ne trahirai pas la France parce que je sais qu'c'est une fille bien Je resterai fidèle, ma banlieue dans les yeux Aux valeurs éternelles avec du rouge, du blanc, du bleu You might also like Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais Je penserai toujours que les qualités d'un homme Brillent bien plus souvent dans la marge que dans la norme Qu'un gros compte en banque ne donne raison à personne Que c'est jamais les plus grande gueules qui m'impressionnent J'aimerai toujours les écorchés, les rebelles, les bizarres J'pourrais vivre sans ma banlieue, mais pas sans mes banlieusards J'me méfierai toujours des vedettes et des stars Et d'un monde dirigé par des mecs en costards Je n'lâcherai pas les idées de la classe ouvrière De ceux qui ont résisté, qui sont crevés pendant la guerre Et j'oublie pas mon vieux prof', qui parlait des mots beaux Qui vivait philosophe et qui disait stricto sensu Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais J'pense encore que j'peux être pompier, footballer Inventeur, aviateur, peut-être même un jour chanteur J'ai des projets d'gosse, des délires d'adolescent Des envies féroces et des rêves incandescents Et si on percevait mieux le monde en arrivant La candeur d'une jeunesse, c'est jamais décevant J'conduirai toujours en faisant un bras d'fer contre le vent Et si on avait plus souvent raison à dix-neuf ans</t>
+          <t>Et si on avait plus souvent raison à dix-neuf ans Je ne mangerai pas la soupe, je ne jouerai pas le jeu Je ne suivrai pas la troupe, pourquoi cinq lettres pas mieux Je ne jetterai pas la pierre à la femme adultère Je ne tuerai pas mon papa parce que j'aime pas là, quand, voilà Je voterai pas pour vous, la corde autour du cou Je ne tendrai pas l'autre joue, parce que j sais qu'c'est pour des clous Et si je cass ma plume, si vous me brisez les crayons Ma mémoire à titre posthume continuera d'écrire ton nom Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais Je marcherai que sur les bandes blanches au passage clouté Et plutôt qu'avancer seul, j'préfèrerai marcher groupé J'verrai toujours des monstres dans la forme des nuages J'aurai toujours un peu d'mal à rester sage J'essayerai toujours, souvent d'esquiver l'autorité Obéir ne sera jamais vraiment une priorité J'aimerai toujours les intellos mais je préférerai les marrants Je chercherai toujours un peu dans l'regard de mes parents Je n'quitterai pas mon enfance, je n'brulerai pas les bouquins Je ne trahirai pas la France parce que je sais qu'c'est une fille bien Je resterai fidèle, ma banlieue dans les yeux Aux valeurs éternelles avec du rouge, du blanc, du bleu Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais Je penserai toujours que les qualités d'un homme Brillent bien plus souvent dans la marge que dans la norme Qu'un gros compte en banque ne donne raison à personne Que c'est jamais les plus grande gueules qui m'impressionnent J'aimerai toujours les écorchés, les rebelles, les bizarres J'pourrais vivre sans ma banlieue, mais pas sans mes banlieusards J'me méfierai toujours des vedettes et des stars Et d'un monde dirigé par des mecs en costards Je n'lâcherai pas les idées de la classe ouvrière De ceux qui ont résisté, qui sont crevés pendant la guerre Et j'oublie pas mon vieux prof', qui parlait des mots beaux Qui vivait philosophe et qui disait stricto sensu Un homme, peut-être Un jour, qui sait Un homme, peut-être Adulte jamais J'pense encore que j'peux être pompier, footballer Inventeur, aviateur, peut-être même un jour chanteur J'ai des projets d'gosse, des délires d'adolescent Des envies féroces et des rêves incandescents Et si on percevait mieux le monde en arrivant La candeur d'une jeunesse, c'est jamais décevant J'conduirai toujours en faisant un bras d'fer contre le vent Et si on avait plus souvent raison à dix-neuf ans</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Poètes, nos vies sont des quêtes, nos coeurs s'éclairent à la lueur des plus belles lettres À la recherche de l'art Artiste dérangé, dérangeant car y'a pas d'art lisse Parce qu'elles ne sont qu'à la recherche du succès Les étoiles d'une seule nuit se succèdent puis à l'aube disparaissent Paraissent un souvenir passager comme une caresse Nous on est à la recherche de l'excellent Alors le prochain vers n'est jamais comme le précédent On cherche des réponses sans comprendre les questions Recherche le bonheur en ignorant sa définition Comme Fabien à la recherche de l'humilité Etre humain en Oxmose à la recherche de l'humanité Pour une fois que nos chemins se croisent Il faut que je sois déjà à la recherche de ma dernière phrase x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche Un ballon dirigeable avec mon blaze dessus C'est c'qui fallait pour la promo Les oiseaux ne seraient pas déçus Je cherche plus, le but ne pas paumer c'que t'as trouvé Les cons écoutent celui qui ne peut pas prouver J'me fous d'où je vais Ma boussole c'est le coeur Le ciel couvert de points d'interrogation géants On sait tous qu' y a pas de réponse pourtant on prend d'l'élan On s ' donne du mal pour captiver le lecteur Qu'est-ce tu veux qu' j' te dise, moi je chill avec de grands poètes Les gens nous applaudissent Quand j'étais mini je visais déjà l'infini Pff n'importe quoi la quête n'est pas inutile Trop perché pour être à la recherche Ce que l'on recherche ne compte pas C'est le chemin qui prime Que des kings, c'est pas tes potes, Grand Corps et Kery Qui l'eut cru, y'a que le slip qui rime Je signe Puccino You might also like x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche Est-ce que c'est les images sales qu'on voit chaque soir au JT Ou simplement les 30 piges qui font un peu cogiter Mais face au bordel ambiant j'ai éclairci mes vérités Après les a priori j'ai appris les priorités Bien sûr j' suis à la recherche de moments de kiff, de plaisir Pour pouvoir rendre les armes le dernier jour avec le sourire À la recherche d'instants simples, à la recherche du présent Des bonnes ondes pour se poser, des regards apaisants À la recherche d'un peu de risque, celui qui fait reculer les lignes Les envies sont pas très malignes quand elles manquent d'adrénaline À la recherche de partage et du bonheur des proches Si t'es tout seul devant ton gâteau, c'est tout ton repas qu'est moche À la recherche de la fierté dans les yeux de mon entourage Ceux qui ont fait c' que j' suis devenu, ceux qui m'ont donné du courage Être a la recherche en permanence pour accepter l'inévitable À la recherche du sentiment d'avoir un bilan acceptable x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche</t>
+          <t>Poètes, nos vies sont des quêtes, nos coeurs s'éclairent à la lueur des plus belles lettres À la recherche de l'art Artiste dérangé, dérangeant car y'a pas d'art lisse Parce qu'elles ne sont qu'à la recherche du succès Les étoiles d'une seule nuit se succèdent puis à l'aube disparaissent Paraissent un souvenir passager comme une caresse Nous on est à la recherche de l'excellent Alors le prochain vers n'est jamais comme le précédent On cherche des réponses sans comprendre les questions Recherche le bonheur en ignorant sa définition Comme Fabien à la recherche de l'humilité Etre humain en Oxmose à la recherche de l'humanité Pour une fois que nos chemins se croisent Il faut que je sois déjà à la recherche de ma dernière phrase x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche Un ballon dirigeable avec mon blaze dessus C'est c'qui fallait pour la promo Les oiseaux ne seraient pas déçus Je cherche plus, le but ne pas paumer c'que t'as trouvé Les cons écoutent celui qui ne peut pas prouver J'me fous d'où je vais Ma boussole c'est le coeur Le ciel couvert de points d'interrogation géants On sait tous qu' y a pas de réponse pourtant on prend d'l'élan On s ' donne du mal pour captiver le lecteur Qu'est-ce tu veux qu' j' te dise, moi je chill avec de grands poètes Les gens nous applaudissent Quand j'étais mini je visais déjà l'infini Pff n'importe quoi la quête n'est pas inutile Trop perché pour être à la recherche Ce que l'on recherche ne compte pas C'est le chemin qui prime Que des kings, c'est pas tes potes, Grand Corps et Kery Qui l'eut cru, y'a que le slip qui rime Je signe Puccino x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche Est-ce que c'est les images sales qu'on voit chaque soir au JT Ou simplement les 30 piges qui font un peu cogiter Mais face au bordel ambiant j'ai éclairci mes vérités Après les a priori j'ai appris les priorités Bien sûr j' suis à la recherche de moments de kiff, de plaisir Pour pouvoir rendre les armes le dernier jour avec le sourire À la recherche d'instants simples, à la recherche du présent Des bonnes ondes pour se poser, des regards apaisants À la recherche d'un peu de risque, celui qui fait reculer les lignes Les envies sont pas très malignes quand elles manquent d'adrénaline À la recherche de partage et du bonheur des proches Si t'es tout seul devant ton gâteau, c'est tout ton repas qu'est moche À la recherche de la fierté dans les yeux de mon entourage Ceux qui ont fait c' que j' suis devenu, ceux qui m'ont donné du courage Être a la recherche en permanence pour accepter l'inévitable À la recherche du sentiment d'avoir un bilan acceptable x2 À la recherche Chacun sa quête Chacun son but Son art des lettres Sa manière d'être À la recherche</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Comme jsuis quelquun de pas compliqué jécris des textes sur ce que je vois Alors, assis dans un café, je regarde la vie autour de moi Derrière la vitre, il fait bien jour et y a du vent dans les arbres Jregarde le speed au pied des tours et mes toasts au sirop dérable Jme suis levé bien avant sept heures cest un exploit temporaire Habituellement ça me ferait trop peur mais jsuis en décalage horaire Japprécie mon nouveau réel, jai fait voyager mon moral Je sens que la journée sera belle, me revoici à Montréal On ma dit quici lhiver est dur alors jsuis venu au printemps Six mois dans le froid, cest la torture si je peux éviter, jaime autant Mais ce matin l'ciel est tout bleu et je sens que mon cur est tout blanc J vais connaître la ville un peu mieux, je veux voir Montréal en grand Jai plutôt un bon à priori parce que les gens sont accueillants Y a plus de sourires quà Paris et puis surtout y a leur accent Mis à part quelques mots désuets ils parlent le même langage que nous Mais pour laccent, jsais leur secret ils ont trop de souplesse dans les joues Niveau architecture, Montréal cest un peu nimporte quoi Y a du vieux, du neuf, des clochers et des gratte-ciel qui se côtoient Mais jaime cette incohérence et linfluence de tous ces styles J me sens bien dans ces différences, jsuis un enfant de toutes les villes Y a plein de buildings sévères, y a des grosses voitures qui klaxonnent Et des taxis un peu partout, cest linfluence anglo-saxonne Y a des vitraux dans les églises et des pavés dans les ruelles Quelques traces indélébiles de linfluence européenne You might also likeY a des grands centres commerciaux, et des rues droites qui forment des blocs Pas de doute là-dessus, Montréal est la p'tite sur de New York Y a des p'tits restos en terrasse, un quartier latin et des crêperies Pas de doute là-dedans, Montréal est la cousine de Paris Dans les lumières de laprès-midi, jai chillé sur Sainte-Catherine Et là, jai magasiné, pas question de faire du shopping Moi jaime bien la rue Saint-Denis, cest peut-être pas juste un hasard Et sous le Plateau des bobos jai pris lsoleil à la place des Arts Jai bien aimé le vieux port et ses fantômes industriels Mais bizarrement le quartier des musées, jle visiterai la fois prochaine Je prétends pas connaître la ville, jsuis quun touriste plein damitié Mais jaime ce lieu, son air, et ses visages du monde entier Jme suis arrêté pour observer la nuit tomber sur Montréal Et ldernier clin dil du soleil changer les couleurs du Mont Royal Les phares des voitures ont rempli les interminables avenues Je me suis senti serein, un peu chez moi, un peu perdu Je me suis réfugié dans un Starbuck's afin de finir de gratter Mon petit hommage sur cette ville où je me suis senti adopté Sur ses habitants tellement ouverts qui parlent un drôle de patois Et qui mont offert leur écoute, à six mille bornes de chez moi Je reviendrai à Montréal car jai eu ben du fun Cette ville où les chums ont des blondes et où les blondes ont des chums Jai pas encore vu grand-chose, jveux découvrir et jsais pourquoi Je reviendrai à Montréal voir les cousins québécois</t>
+          <t>Comme jsuis quelquun de pas compliqué jécris des textes sur ce que je vois Alors, assis dans un café, je regarde la vie autour de moi Derrière la vitre, il fait bien jour et y a du vent dans les arbres Jregarde le speed au pied des tours et mes toasts au sirop dérable Jme suis levé bien avant sept heures cest un exploit temporaire Habituellement ça me ferait trop peur mais jsuis en décalage horaire Japprécie mon nouveau réel, jai fait voyager mon moral Je sens que la journée sera belle, me revoici à Montréal On ma dit quici lhiver est dur alors jsuis venu au printemps Six mois dans le froid, cest la torture si je peux éviter, jaime autant Mais ce matin l'ciel est tout bleu et je sens que mon cur est tout blanc J vais connaître la ville un peu mieux, je veux voir Montréal en grand Jai plutôt un bon à priori parce que les gens sont accueillants Y a plus de sourires quà Paris et puis surtout y a leur accent Mis à part quelques mots désuets ils parlent le même langage que nous Mais pour laccent, jsais leur secret ils ont trop de souplesse dans les joues Niveau architecture, Montréal cest un peu nimporte quoi Y a du vieux, du neuf, des clochers et des gratte-ciel qui se côtoient Mais jaime cette incohérence et linfluence de tous ces styles J me sens bien dans ces différences, jsuis un enfant de toutes les villes Y a plein de buildings sévères, y a des grosses voitures qui klaxonnent Et des taxis un peu partout, cest linfluence anglo-saxonne Y a des vitraux dans les églises et des pavés dans les ruelles Quelques traces indélébiles de linfluence européenne Y a des grands centres commerciaux, et des rues droites qui forment des blocs Pas de doute là-dessus, Montréal est la p'tite sur de New York Y a des p'tits restos en terrasse, un quartier latin et des crêperies Pas de doute là-dedans, Montréal est la cousine de Paris Dans les lumières de laprès-midi, jai chillé sur Sainte-Catherine Et là, jai magasiné, pas question de faire du shopping Moi jaime bien la rue Saint-Denis, cest peut-être pas juste un hasard Et sous le Plateau des bobos jai pris lsoleil à la place des Arts Jai bien aimé le vieux port et ses fantômes industriels Mais bizarrement le quartier des musées, jle visiterai la fois prochaine Je prétends pas connaître la ville, jsuis quun touriste plein damitié Mais jaime ce lieu, son air, et ses visages du monde entier Jme suis arrêté pour observer la nuit tomber sur Montréal Et ldernier clin dil du soleil changer les couleurs du Mont Royal Les phares des voitures ont rempli les interminables avenues Je me suis senti serein, un peu chez moi, un peu perdu Je me suis réfugié dans un Starbuck's afin de finir de gratter Mon petit hommage sur cette ville où je me suis senti adopté Sur ses habitants tellement ouverts qui parlent un drôle de patois Et qui mont offert leur écoute, à six mille bornes de chez moi Je reviendrai à Montréal car jai eu ben du fun Cette ville où les chums ont des blondes et où les blondes ont des chums Jai pas encore vu grand-chose, jveux découvrir et jsais pourquoi Je reviendrai à Montréal voir les cousins québécois</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Allez leur dire de notre part que personne ne nous arrête Que notre musique est un rempart sur lequel se brisent toutes les tempêtes J'suis un auteur content pour rien, au statut d'intermiteux Pas de baillon ni de grève j'évite les propos pateux Liberté c'est bien trouver, comme lorsque nous ne pouvions pas bouger Prisonnier dérière nos barbelés, dans nos chères camps d'été, toute l'année XXX y'a beaucoup trop d'ses fils sur terre Et je suppose, et je n'ai plus que mes rêves Je le suis le type, le type un petit peu, le type un petit peu type C'est genre un type un peu type, c'est le type, le type qui fait un petit pas Le type un peu typé, typé qui paye sans pé-ta C'est pour toute la jeunesse, parce que je crois en nous,sans XXX parce que je crois en vous J'ai pris des barres de rire dans un bar, puis vient le coup de barre et j'me bars En m'disant bande de barbar à barboter dans la bière Et à parler de nibards comme de la barbac moi ça m'rend barge Pour le retour fais attention y'a plein d'radar automatique, le long d'la route qui te ramenera D'l'autre coté du périphérique You might also likeJ'ai été roulé, mes rêves sous tes pieds Marche doucement, parce que tu marche sur mes rêves Va! Apporte leur ceci C'est quoi, c'est qui, ces mecs chelous qui viennent pour raconter leur vie C'est elle, c'est lui, c'est nous, on vient même si t'as pas envie Mais t'écoutes un tout petit bout, p't'être bien que t'en sortiras ravi Et ça c'est important pour nous, c'est grâce à ça qu'on se sent en vie J'aime ces attaques un peu surprise, c'est un attentat verbal On a faim de se faire entendre, moi j'ai l'appétit cannibale Certains diront que c'est un peu naze et d'autres que c'est franchement d'la balle Quoi qu'il se passe on poursuivra mais croit pas que ton avis m'est égal Capables de faire irruption dans des endroits inattendus Dans des bars et des théâtres, tu nous a déjà entendus Mais on a déboulé aussi dans des collèges, dans des lycées Dans des squares ou dans la rue, on a posé, toi même tu sais Le principe est clair lâcher des textes là où et quand tu t'y attends pas Claquer des mots un peu partout et que ça pète comme un attentat Dans des salles ou en plein air, laisser des traces, faire des ravages Va demander au 129H ce qu'on appelle le slam sauvage On pose des textes énervés, ou de geon-pi sentimental On aborde un peu tous les thèmes avec ou sans instrumental Mentalement près à proposer partout un intermède vocal Une interruption sonore, un homicide amical Si je vois de l'écoute dans tes yeux, je voudrai te dire merci Et tu pourras me croiser partout sauf sur la scène à Bercy J'ai des paroles pour te réveiller et j'en ai pour te bercer Et je te les offre sous les projecteurs ou dans le RER C Le plaisir de capter des regards un peu déstabilisés Qui se disent ceux-là, ils ont pas peur de se ridiculiser Le plaisir de capter des regards parfois remplis d'émotion Dans ces cas-là, on sait qu'on a passé le test avec mention On prend la parole à l'apéro et on la prend au dessert Même si les plus sceptiques nous disent mais à quoi ça sert ? A pas grand chose c'est vrai, j'avoue, si ce n'est à partager Des bons mots, des bons moments et des lyrics engagés C'est un poème, c'est une chanson, c'est du rap ou du slam Ferait tellement plaisir qu'après ce texte tu t'enflammes Appelle ça un égo-trip ou appelle ça du freestyle On est solide comme de la brique et fragile comme du cristal Les mots sont nos alliés, on les aime comme maître Capello Puis on les laisse s'envoler en musique ou a capella Et comme des flèches ils tracent, lancés par nos cordes vocales Puis on les entend résonner comme une bombe dans un bocal On arrive comme un accident dans des endroits insolites Tu nous verras souvent en groupe, on vient rarement en soliste Et même si tu restes à l'abri, il faut jamais que tu t'emballes Tu peux subir à tout moment, un attentat verbal Maintenant tu sais qui c'est, ces mecs chelous qui viennent raconter leur vie C'est elle, c'est lui, c'est nous, on vient même si t'as pas envie Mais si t'écoutes un tout petit bout, p't'être bien que t'en sortiras ravi Et ça c'est important pour nous, c'est grâce à ça qu'on se sent en vie</t>
+          <t>Allez leur dire de notre part que personne ne nous arrête Que notre musique est un rempart sur lequel se brisent toutes les tempêtes J'suis un auteur content pour rien, au statut d'intermiteux Pas de baillon ni de grève j'évite les propos pateux Liberté c'est bien trouver, comme lorsque nous ne pouvions pas bouger Prisonnier dérière nos barbelés, dans nos chères camps d'été, toute l'année XXX y'a beaucoup trop d'ses fils sur terre Et je suppose, et je n'ai plus que mes rêves Je le suis le type, le type un petit peu, le type un petit peu type C'est genre un type un peu type, c'est le type, le type qui fait un petit pas Le type un peu typé, typé qui paye sans pé-ta C'est pour toute la jeunesse, parce que je crois en nous,sans XXX parce que je crois en vous J'ai pris des barres de rire dans un bar, puis vient le coup de barre et j'me bars En m'disant bande de barbar à barboter dans la bière Et à parler de nibards comme de la barbac moi ça m'rend barge Pour le retour fais attention y'a plein d'radar automatique, le long d'la route qui te ramenera D'l'autre coté du périphérique J'ai été roulé, mes rêves sous tes pieds Marche doucement, parce que tu marche sur mes rêves Va! Apporte leur ceci C'est quoi, c'est qui, ces mecs chelous qui viennent pour raconter leur vie C'est elle, c'est lui, c'est nous, on vient même si t'as pas envie Mais t'écoutes un tout petit bout, p't'être bien que t'en sortiras ravi Et ça c'est important pour nous, c'est grâce à ça qu'on se sent en vie J'aime ces attaques un peu surprise, c'est un attentat verbal On a faim de se faire entendre, moi j'ai l'appétit cannibale Certains diront que c'est un peu naze et d'autres que c'est franchement d'la balle Quoi qu'il se passe on poursuivra mais croit pas que ton avis m'est égal Capables de faire irruption dans des endroits inattendus Dans des bars et des théâtres, tu nous a déjà entendus Mais on a déboulé aussi dans des collèges, dans des lycées Dans des squares ou dans la rue, on a posé, toi même tu sais Le principe est clair lâcher des textes là où et quand tu t'y attends pas Claquer des mots un peu partout et que ça pète comme un attentat Dans des salles ou en plein air, laisser des traces, faire des ravages Va demander au 129H ce qu'on appelle le slam sauvage On pose des textes énervés, ou de geon-pi sentimental On aborde un peu tous les thèmes avec ou sans instrumental Mentalement près à proposer partout un intermède vocal Une interruption sonore, un homicide amical Si je vois de l'écoute dans tes yeux, je voudrai te dire merci Et tu pourras me croiser partout sauf sur la scène à Bercy J'ai des paroles pour te réveiller et j'en ai pour te bercer Et je te les offre sous les projecteurs ou dans le RER C Le plaisir de capter des regards un peu déstabilisés Qui se disent ceux-là, ils ont pas peur de se ridiculiser Le plaisir de capter des regards parfois remplis d'émotion Dans ces cas-là, on sait qu'on a passé le test avec mention On prend la parole à l'apéro et on la prend au dessert Même si les plus sceptiques nous disent mais à quoi ça sert ? A pas grand chose c'est vrai, j'avoue, si ce n'est à partager Des bons mots, des bons moments et des lyrics engagés C'est un poème, c'est une chanson, c'est du rap ou du slam Ferait tellement plaisir qu'après ce texte tu t'enflammes Appelle ça un égo-trip ou appelle ça du freestyle On est solide comme de la brique et fragile comme du cristal Les mots sont nos alliés, on les aime comme maître Capello Puis on les laisse s'envoler en musique ou a capella Et comme des flèches ils tracent, lancés par nos cordes vocales Puis on les entend résonner comme une bombe dans un bocal On arrive comme un accident dans des endroits insolites Tu nous verras souvent en groupe, on vient rarement en soliste Et même si tu restes à l'abri, il faut jamais que tu t'emballes Tu peux subir à tout moment, un attentat verbal Maintenant tu sais qui c'est, ces mecs chelous qui viennent raconter leur vie C'est elle, c'est lui, c'est nous, on vient même si t'as pas envie Mais si t'écoutes un tout petit bout, p't'être bien que t'en sortiras ravi Et ça c'est important pour nous, c'est grâce à ça qu'on se sent en vie</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Au bout du sixième silence, le soleil est passé de l'autre côté de l'horizon Laissant la pénombre prendre place et devenir notre prison Exigeant la vigilance totale des cinq sens pour garder la raison Au bout du sixième silence, ce vieil homme a cligné des yeux pour la dernière fois Le visage serein, les bras croisés sur sa poitrine mais les doigts froids Au même moment un nouvl être lâchait son premier plur Devant sa mère épuisée mais d'la lumière plein l'cur Les cloches de l'église ont alors basculé, imposant leur chanson Tandis que le vent caressait les feuilles des arbres dans un léger frisson Au bout du sixième silence, les vents se levèrent et véhiculèrent Plus de colère que n'en tolère le tonnerre les nuits de grandes pluies L'arc-en-ciel s'est brisé sous mes yeux sans un bruit Et ma bonne étoile a retrouvé son reflet dans le puits Au bout du sixième silence, la vie a simplement suivi son cours Et pourtant je l'ai ressentie comme si c'était mon premier jour Mes cinq sens n'ont fait qu'un dans une étrange fusion Comme une ultime expérience menant à une révélation J'ai vu très loin dans la nuit noire et j'ai compris ce que le monde m'offrait Ces anges qui rassurent, ces démons qui effraient Au bout du sixième silence, des lettres d'une autre constellation Ont remplacé des chiffres dans une de nos équations Et la poésie s'est imposée comme unique et seul moyen de communication You might also like Au bout du sixième silence, j'ai compris le vrai sens des choses Différenciant à l'oreille la chute d'une plume et d'un pétale de rose J''ai entendu rompre le chêne et plier le roseau J'ai compris le chant des enfants et le rire des oiseaux Au bout du sixième silence, j'ai accompagné une tornade dans une des ses promenades infernales Le soleil s'est levé et s'est couché à moins d'une heure d'intervalle Je ne pensais pas relever un tel pari, il arrive que la réalité s'intercale Fabien, regarde dehors, des gamins demandent à la rue ce que les conseils d'un père valent Au bout du sixième silence, je crois que la Terre s'est arrêtée d'tourner J'ai vu la vie croiser la mort devant mes yeux pourtant fermés J'ai vu les formes de l'invisible aussi bien que la façade d'une maison Au bout du sixième silence le soleil est passé de l'autre côté d'l'horizon Au bout du sixième silence j'ai vu le rang de devant trembler de froid Envoûté par l'encre gravée dans nos timbres de voix Pour que le dernier silence se fasse, dis-leur qu'il faudra éteindre deux fois Là où j'ai croisé Souleymane au bout du sixième silence</t>
+          <t>Au bout du sixième silence, le soleil est passé de l'autre côté de l'horizon Laissant la pénombre prendre place et devenir notre prison Exigeant la vigilance totale des cinq sens pour garder la raison Au bout du sixième silence, ce vieil homme a cligné des yeux pour la dernière fois Le visage serein, les bras croisés sur sa poitrine mais les doigts froids Au même moment un nouvl être lâchait son premier plur Devant sa mère épuisée mais d'la lumière plein l'cur Les cloches de l'église ont alors basculé, imposant leur chanson Tandis que le vent caressait les feuilles des arbres dans un léger frisson Au bout du sixième silence, les vents se levèrent et véhiculèrent Plus de colère que n'en tolère le tonnerre les nuits de grandes pluies L'arc-en-ciel s'est brisé sous mes yeux sans un bruit Et ma bonne étoile a retrouvé son reflet dans le puits Au bout du sixième silence, la vie a simplement suivi son cours Et pourtant je l'ai ressentie comme si c'était mon premier jour Mes cinq sens n'ont fait qu'un dans une étrange fusion Comme une ultime expérience menant à une révélation J'ai vu très loin dans la nuit noire et j'ai compris ce que le monde m'offrait Ces anges qui rassurent, ces démons qui effraient Au bout du sixième silence, des lettres d'une autre constellation Ont remplacé des chiffres dans une de nos équations Et la poésie s'est imposée comme unique et seul moyen de communication Au bout du sixième silence, j'ai compris le vrai sens des choses Différenciant à l'oreille la chute d'une plume et d'un pétale de rose J''ai entendu rompre le chêne et plier le roseau J'ai compris le chant des enfants et le rire des oiseaux Au bout du sixième silence, j'ai accompagné une tornade dans une des ses promenades infernales Le soleil s'est levé et s'est couché à moins d'une heure d'intervalle Je ne pensais pas relever un tel pari, il arrive que la réalité s'intercale Fabien, regarde dehors, des gamins demandent à la rue ce que les conseils d'un père valent Au bout du sixième silence, je crois que la Terre s'est arrêtée d'tourner J'ai vu la vie croiser la mort devant mes yeux pourtant fermés J'ai vu les formes de l'invisible aussi bien que la façade d'une maison Au bout du sixième silence le soleil est passé de l'autre côté d'l'horizon Au bout du sixième silence j'ai vu le rang de devant trembler de froid Envoûté par l'encre gravée dans nos timbres de voix Pour que le dernier silence se fasse, dis-leur qu'il faudra éteindre deux fois Là où j'ai croisé Souleymane au bout du sixième silence</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Heureusement, j'n'ai pas d'enfant se dit Yadna très souvent Ce serait encore plus dur, encore plus humiliant Et puis comment elle aurait fait avec un bébé comme paquetage ? Est-ce qu'il aurait survécu après tout c'voyage ? Yadna a fui les bombes, la guerre dans son pays Elle sait qu'elle avait peur mais ne sait plus de quels ennemis Entre les tirs de son président, des rebelles, de l'occident De Daesh et des Kurdes, elle ne sait plus d'où vient l'vent Elle ne sait plus d'où vient la poudre qui a rasé son village Elle ne sait plus qui tire les balles qui ont éteint tous ces visages Elle sait juste que l'Homme est fou et qu'c'est là-bas, en Syrie Que s'est formé petit à p'tit l'épicentre de sa folie Yadna pense à tout ça en s'approchant d'ma vitre Moi, j'lui Non avec la main et j'redémarre bien vite J'avais p't-être un peu d'monnaie mais j'suis pressé, faut qu'je bouge J'me rappelle de son regard, j'ai croisé Yadna au feu rouge Après trois mois d'périple dans toutes sortes d'embarcations Elle a souvent cru qu'la mort serait la seule destination Comme lors de cette nuit noire au milieu d'la mer Égée Dépassée par les vagues sur un bateau bien trop léger Entre les centres de rétention et les passeurs les plus cruels Yadna a perdu d'vue tous ceux qui avaient fui avec elle Elle s'est retrouvée seule avec la peur, le ventre vide Et des inconnus aussi perdus qu'elle comme seuls guides Marchant pendant des semaines puis payant à des vautours Le droit d'se cacher à l'arrière des camions sans voir le jour Après ces mois d'enfer, elle passe ses nuits sur un carton Son Eldorado se situe Porte de la Chapelle, sous un pont Yana pense à tout ça en s'approchant d'ma vitre Moi, j'lui Non avec la main et j'redémarre bien vite J'avais p't-être un peu d'monnaie mais j'suis pressé, faut qu'je bouge J'me rappelle de son regard, j'ai croisé Yadna au feu rouge You might also like Dans ses nuits, les cauchemars d'expulsion sont réguliers Elle attend d'obtenir le statut d'réfugiée Elle mendie au feu rouge avec la détresse comme baîllon Elle se renseigne sur ses droits, petite princesse en haillon Elle imagine parfois sa vie d'étudiante dans son pays Si la justice avait des yeux, si la paix régnait en Syrie Elle sourit même parfois, quand elle trouve la force d'y penser Elle rêve en syrien mais, là, elle pleure en français J'aperçois Yadna rapidement lorsque l'feu passe au vert J'ai un p'tit pincement au cur, mais j'suis en retard et j'accélère Les plus grands drames sont sous nos yeux mais on est pressé, faut qu'on bouge Y'a des humains derrière les regards j'ai croisé Yadna au feu rouge2</t>
+          <t>Heureusement, j'n'ai pas d'enfant se dit Yadna très souvent Ce serait encore plus dur, encore plus humiliant Et puis comment elle aurait fait avec un bébé comme paquetage ? Est-ce qu'il aurait survécu après tout c'voyage ? Yadna a fui les bombes, la guerre dans son pays Elle sait qu'elle avait peur mais ne sait plus de quels ennemis Entre les tirs de son président, des rebelles, de l'occident De Daesh et des Kurdes, elle ne sait plus d'où vient l'vent Elle ne sait plus d'où vient la poudre qui a rasé son village Elle ne sait plus qui tire les balles qui ont éteint tous ces visages Elle sait juste que l'Homme est fou et qu'c'est là-bas, en Syrie Que s'est formé petit à p'tit l'épicentre de sa folie Yadna pense à tout ça en s'approchant d'ma vitre Moi, j'lui Non avec la main et j'redémarre bien vite J'avais p't-être un peu d'monnaie mais j'suis pressé, faut qu'je bouge J'me rappelle de son regard, j'ai croisé Yadna au feu rouge Après trois mois d'périple dans toutes sortes d'embarcations Elle a souvent cru qu'la mort serait la seule destination Comme lors de cette nuit noire au milieu d'la mer Égée Dépassée par les vagues sur un bateau bien trop léger Entre les centres de rétention et les passeurs les plus cruels Yadna a perdu d'vue tous ceux qui avaient fui avec elle Elle s'est retrouvée seule avec la peur, le ventre vide Et des inconnus aussi perdus qu'elle comme seuls guides Marchant pendant des semaines puis payant à des vautours Le droit d'se cacher à l'arrière des camions sans voir le jour Après ces mois d'enfer, elle passe ses nuits sur un carton Son Eldorado se situe Porte de la Chapelle, sous un pont Yana pense à tout ça en s'approchant d'ma vitre Moi, j'lui Non avec la main et j'redémarre bien vite J'avais p't-être un peu d'monnaie mais j'suis pressé, faut qu'je bouge J'me rappelle de son regard, j'ai croisé Yadna au feu rouge Dans ses nuits, les cauchemars d'expulsion sont réguliers Elle attend d'obtenir le statut d'réfugiée Elle mendie au feu rouge avec la détresse comme baîllon Elle se renseigne sur ses droits, petite princesse en haillon Elle imagine parfois sa vie d'étudiante dans son pays Si la justice avait des yeux, si la paix régnait en Syrie Elle sourit même parfois, quand elle trouve la force d'y penser Elle rêve en syrien mais, là, elle pleure en français J'aperçois Yadna rapidement lorsque l'feu passe au vert J'ai un p'tit pincement au cur, mais j'suis en retard et j'accélère Les plus grands drames sont sous nos yeux mais on est pressé, faut qu'on bouge Y'a des humains derrière les regards j'ai croisé Yadna au feu rouge2</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Acte 1, scène 1, unité de temps, unité de lieu La pièce durera toute ta vie, l'histoire se déroule sous tes yeux Le rideau vient de s'ouvrir, toi, tu soulèves les paupières Tes parents gèrent la mise en scène, ta pièce démarre et ils sont fiers Ils te souhaitent pas une tragédie, ils préfèrent que l'histoire soit drôle C'est le théâtre de ta vie, c'est toi qui tient le premier rôle Tu regardes autour de toi, les projecteurs, les premiers rangs Les gens qui te donnent la réplique et puis les autres, les figurants Tes parents ont écrit le début, mais tu vas vite réaliser Que pour la suite, c'est entendu, tu vas devoir improviser Et puis trouver les bons dialogues, dans ce premier acte tu es bavard Ce ne sera pas une pièce d'auteur mais du théâtre de boulevard Alors ton histoire défile sous la rumeur des spectateurs Ton personnage perd l'innocence, t'essaies de rester à la hauteur Face aux premières piques de l'intrigue, face aux premiers mauvais accords Derrière les apparences bien lisses, tu découvres l'enfer du décor Au théâtre on joue ta vie, j'ai vu ton nom sur l'affiche Le scénar' est en friche, modifie-le tu t'en fiches Pour jouer les plus belles scènes et à l'heure de saluer le public Que tu aies le privilège d'avoir deux ou trois bonnes critiques Au théâtre, on joue ta vie, j'ai vu ton nom sur l'affiche L'histoire peut être riche, faut pas que tu traînes, faut pas que tu triches Pour t'offrir de l'ivresse, du vertige, de l'émotion Et qu'à la fin les gens se lèvent pour ta dernière ovation You might also like Alors de Cour à Jardin, maintenant, tu fais les cent pas Tu côtoies les bons comédiens et puis y'a ceux que tu sens pas On flirt avec le vaudeville avec toutes ces portes qui claquent Tu vois moins tes parents, ingratitude du deuxième acte Tu l'as compris sur les planches, c'est la cour de création Dans toutes les situations, tu vas faire preuve d'adaptation Dans un monde où le prévisible perd souvent le contrôle Le bon comédien est celui qui sait jouer tous les rôles Et c'est là qu'intervient celle qui donne du sens à ta pièce Sous les feux de la rampe, ta prétendante met tes attentes en liesse Tout prend de l'importance, c'est c'que ton monologue indique Fini l'théâtre de boulevard, tu tiens ta tragédie antique Si tout va bien l'amour donnera de nouveaux petits acteurs Qui à leur tour joueront leur pièce devant la foule des spectateurs Tu mettras en scène leurs débuts, t'as compris les règles du pacte Avant de retrouver l'énergie de t'atteler à ton troisième acte Du public on voit tes doutes, on voit tes gouttes, on voit la sueur Tes déboires, tes trous de mémoire, tes espoirs et tes lueurs Les seconds rôles apprécient, c'est respectable et vibrant Les spectateurs vibrent aussi, c'est du spectacle vivant À quelques exceptions près, toutes les pièces se ressemblent un peu Ça tourne autour de sentiments, tu sens, tu mens, tu vis, tu veux Y'a que le décor et les costumes qui sont amenés à changer Ça dépend des moyens de la prod', on n'a pas tous les mêmes budgets Moi j'ai grandi au cur d'un beau théâtre occidental Loin des troupes du tiers-monde et des acteurs qui ont la dalle Mais j'aime le théâtre de ces pays où la scène est à même le ciel Où les intrigues se resserrent souvent autour des valeurs essentielles À quelques exceptions près, toutes les pièces se ressemblent un peu Y'a les grandes scènes de comédies et les bouts de drames contagieux Et puis il y a tous ces imprévus, ces fous rires, ces dérapages Moi je n'aime ce théâtre que quand l'intrigue sort de la page Sois patient, reste en coulisses quand résonnent les coups de tonnerre Et, quand la scène est compliquée, appuie-toi sur tes partenaires Ils te seront indispensables pour atteindre tes objectifs N'oublie jamais cet adjectif, l'théâtre est un art collectif À toi d'observer dans l'ombre quand on t'attend dans la lumière À toi de prendre le devant de la scène quand l'scénario te prévoit derrière Écorche un peu ce qui est écrit, la vie aura un autre parfum Ta pièce aura une plus belle fin, écoute une dernière fois le refrain x2</t>
+          <t>Acte 1, scène 1, unité de temps, unité de lieu La pièce durera toute ta vie, l'histoire se déroule sous tes yeux Le rideau vient de s'ouvrir, toi, tu soulèves les paupières Tes parents gèrent la mise en scène, ta pièce démarre et ils sont fiers Ils te souhaitent pas une tragédie, ils préfèrent que l'histoire soit drôle C'est le théâtre de ta vie, c'est toi qui tient le premier rôle Tu regardes autour de toi, les projecteurs, les premiers rangs Les gens qui te donnent la réplique et puis les autres, les figurants Tes parents ont écrit le début, mais tu vas vite réaliser Que pour la suite, c'est entendu, tu vas devoir improviser Et puis trouver les bons dialogues, dans ce premier acte tu es bavard Ce ne sera pas une pièce d'auteur mais du théâtre de boulevard Alors ton histoire défile sous la rumeur des spectateurs Ton personnage perd l'innocence, t'essaies de rester à la hauteur Face aux premières piques de l'intrigue, face aux premiers mauvais accords Derrière les apparences bien lisses, tu découvres l'enfer du décor Au théâtre on joue ta vie, j'ai vu ton nom sur l'affiche Le scénar' est en friche, modifie-le tu t'en fiches Pour jouer les plus belles scènes et à l'heure de saluer le public Que tu aies le privilège d'avoir deux ou trois bonnes critiques Au théâtre, on joue ta vie, j'ai vu ton nom sur l'affiche L'histoire peut être riche, faut pas que tu traînes, faut pas que tu triches Pour t'offrir de l'ivresse, du vertige, de l'émotion Et qu'à la fin les gens se lèvent pour ta dernière ovation Alors de Cour à Jardin, maintenant, tu fais les cent pas Tu côtoies les bons comédiens et puis y'a ceux que tu sens pas On flirt avec le vaudeville avec toutes ces portes qui claquent Tu vois moins tes parents, ingratitude du deuxième acte Tu l'as compris sur les planches, c'est la cour de création Dans toutes les situations, tu vas faire preuve d'adaptation Dans un monde où le prévisible perd souvent le contrôle Le bon comédien est celui qui sait jouer tous les rôles Et c'est là qu'intervient celle qui donne du sens à ta pièce Sous les feux de la rampe, ta prétendante met tes attentes en liesse Tout prend de l'importance, c'est c'que ton monologue indique Fini l'théâtre de boulevard, tu tiens ta tragédie antique Si tout va bien l'amour donnera de nouveaux petits acteurs Qui à leur tour joueront leur pièce devant la foule des spectateurs Tu mettras en scène leurs débuts, t'as compris les règles du pacte Avant de retrouver l'énergie de t'atteler à ton troisième acte Du public on voit tes doutes, on voit tes gouttes, on voit la sueur Tes déboires, tes trous de mémoire, tes espoirs et tes lueurs Les seconds rôles apprécient, c'est respectable et vibrant Les spectateurs vibrent aussi, c'est du spectacle vivant À quelques exceptions près, toutes les pièces se ressemblent un peu Ça tourne autour de sentiments, tu sens, tu mens, tu vis, tu veux Y'a que le décor et les costumes qui sont amenés à changer Ça dépend des moyens de la prod', on n'a pas tous les mêmes budgets Moi j'ai grandi au cur d'un beau théâtre occidental Loin des troupes du tiers-monde et des acteurs qui ont la dalle Mais j'aime le théâtre de ces pays où la scène est à même le ciel Où les intrigues se resserrent souvent autour des valeurs essentielles À quelques exceptions près, toutes les pièces se ressemblent un peu Y'a les grandes scènes de comédies et les bouts de drames contagieux Et puis il y a tous ces imprévus, ces fous rires, ces dérapages Moi je n'aime ce théâtre que quand l'intrigue sort de la page Sois patient, reste en coulisses quand résonnent les coups de tonnerre Et, quand la scène est compliquée, appuie-toi sur tes partenaires Ils te seront indispensables pour atteindre tes objectifs N'oublie jamais cet adjectif, l'théâtre est un art collectif À toi d'observer dans l'ombre quand on t'attend dans la lumière À toi de prendre le devant de la scène quand l'scénario te prévoit derrière Écorche un peu ce qui est écrit, la vie aura un autre parfum Ta pièce aura une plus belle fin, écoute une dernière fois le refrain x2</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Grand Corps Malade On s'est connu à l'école, en colonie ou au sport On s'est jaugé, on s'est parlé, ces p'tits débuts qui valent de l'or La vie a fait qu'on s'est revus L'envie a fait qu'on est restés ensembles autant qu'on a pu Sentant que ça allait nous boosté John Pucc On a su dès nos débuts qu'y avait quelque chose de spécial Mes lascars m'ont convaincu que leur présence m'était cruciale, , Alors on se souffle dans le dos pour se porter les uns les autres On s'est compris sans même s'entendre chaque fois qu'on a commis des fautes Grand Corps Malade Et puis c'est en équipe qu'on a traversé les hivers Et les étés ensoleillés, les barres de rire et les galères Ils m' sont devenus indispensables comme chaque histoire a ses héros Ils sont devenus mes frangins, mes copains , mes frérots John Pucc On forme un bloc où l'intégrité s' pratique pas à moitié Et je reste entier aussi parce qu'ils m'ont jamais diminué Au cur de cette cité ils m'ont bien ouvert les yeux Pour éviter les pièges à loup des jaloux envieux de notre jeu Grand Corps Malade J'aurai jamais assez de salive ,pour raconter tous nos souvenirs Ils ont squatté dans mon passé et seront acteurs de mon avenir On a tellement d'histoires ensemble qu' j'ai l'impression d'avoir cent ans You might also likeDuo Nous on s' kiffe et ça s'entend On fait du bruit et pour longtemps On se dépense beaucoup même avec walou dans les poches L'adversité on la connaît, on en a fait un parent proche J'ai tellement squatté leur caisse qu'on croyait qu' j'y habitais C'était notre coffre fort, où toutes nos idées s' abritaient Refrain Avec eux j'ai moins de failles, , avec eux j'me sens de taille Avec eux rien qu' ça taille, ça tient chaud quand il caille Avec eux j'ai moins de failles, avec eux j'me sens de taille Bien posés sur les rails on a la dalle et on graille, Avec eux on a écrit quelques belles pages de notre histoire Et j' vous assure qu' c'est pas fini ,suffit de nous voir pour le croire A vouloir faire des trucs ensemble en fait c' qu'on a le mieux réussi C'est de fabriquer une amitié, potes à perpète et sans sursis Avec eux on cherche tout le temps On est toujours aux quatre cents coups Mais les meilleurs moments c'est quand même quand on fait rien du tout Capables de rester quatre jours à la terrasse d'un café On s' nourrit d' ces instants parfaits , pour nous glander perdre son temps. c'est taffer Je crois qu' c'est avec eux qu' j'ai passer le plus de soirées Certaines bien réussies mais la plupart un peu foirées Pas la bonne tête , pas les bonnes sappes ou pas assez accompagnés Mais rentrer en boite pour nous c'est clair qu' c'était jamais gagné Entassés dans une voiture avec la musique qui sort des fenêtres A la recherche dans tout Paris d'un pauvre endroit qui nous accepte Ça finissait à 3h à Montmartre avec les crêpes à emporter Les doigts congelés et l'huile qui goûte sur nos vieux jeans tout salopés Faut qu' je leur précise un ptit truc Grand Corps avant qu'on enquille Bien avant qu'on se foute en tête de mettre au monde une grosse béquille On avait un drôle d'humour lourd qui faisait détaler les filles On était des boules de bowling perdus sur des pistes sans quilles Rétrospectivement j' nous voit sappés comme des char- clo A essayer de négocier alors qu' le débat était clôt Leur présence m'est essentielle, elle aide à se tenir debout Nos rêves se conjuguent au pluriel Quand j' parle de moi, moi je dis nous Refrain X2 Avec eux j'ai moins de failles, avec eux j'me sens de taille Avec eux rien qu' ça taille, ça tient chaud quand il caille Avec eux j'ai moins de failles, avec eux j'me sens de taille Bien posés sur les rails on a la dalle et on graille L'amitié c'est une autoroute avec de belles destinations Elles sont toutes bien indiquées et ça devient vite une addiction Ça ressemble un peu à l'amour mais en moins dur j' vais m'expliquer C'est plus serein, moins pulsionnel donc forcément moins compliqué Parait que l'entourage ça change vachement quand t'as la cote C'est pour ça qu' c'est rassurant d'évoluer avec ses potes Notre dur labeur paye, on voit les portes qui s'entrouvrent Dorénavant les phases on les cherche plus on les trouve</t>
+          <t>Grand Corps Malade On s'est connu à l'école, en colonie ou au sport On s'est jaugé, on s'est parlé, ces p'tits débuts qui valent de l'or La vie a fait qu'on s'est revus L'envie a fait qu'on est restés ensembles autant qu'on a pu Sentant que ça allait nous boosté John Pucc On a su dès nos débuts qu'y avait quelque chose de spécial Mes lascars m'ont convaincu que leur présence m'était cruciale, , Alors on se souffle dans le dos pour se porter les uns les autres On s'est compris sans même s'entendre chaque fois qu'on a commis des fautes Grand Corps Malade Et puis c'est en équipe qu'on a traversé les hivers Et les étés ensoleillés, les barres de rire et les galères Ils m' sont devenus indispensables comme chaque histoire a ses héros Ils sont devenus mes frangins, mes copains , mes frérots John Pucc On forme un bloc où l'intégrité s' pratique pas à moitié Et je reste entier aussi parce qu'ils m'ont jamais diminué Au cur de cette cité ils m'ont bien ouvert les yeux Pour éviter les pièges à loup des jaloux envieux de notre jeu Grand Corps Malade J'aurai jamais assez de salive ,pour raconter tous nos souvenirs Ils ont squatté dans mon passé et seront acteurs de mon avenir On a tellement d'histoires ensemble qu' j'ai l'impression d'avoir cent ans Duo Nous on s' kiffe et ça s'entend On fait du bruit et pour longtemps On se dépense beaucoup même avec walou dans les poches L'adversité on la connaît, on en a fait un parent proche J'ai tellement squatté leur caisse qu'on croyait qu' j'y habitais C'était notre coffre fort, où toutes nos idées s' abritaient Refrain Avec eux j'ai moins de failles, , avec eux j'me sens de taille Avec eux rien qu' ça taille, ça tient chaud quand il caille Avec eux j'ai moins de failles, avec eux j'me sens de taille Bien posés sur les rails on a la dalle et on graille, Avec eux on a écrit quelques belles pages de notre histoire Et j' vous assure qu' c'est pas fini ,suffit de nous voir pour le croire A vouloir faire des trucs ensemble en fait c' qu'on a le mieux réussi C'est de fabriquer une amitié, potes à perpète et sans sursis Avec eux on cherche tout le temps On est toujours aux quatre cents coups Mais les meilleurs moments c'est quand même quand on fait rien du tout Capables de rester quatre jours à la terrasse d'un café On s' nourrit d' ces instants parfaits , pour nous glander perdre son temps. c'est taffer Je crois qu' c'est avec eux qu' j'ai passer le plus de soirées Certaines bien réussies mais la plupart un peu foirées Pas la bonne tête , pas les bonnes sappes ou pas assez accompagnés Mais rentrer en boite pour nous c'est clair qu' c'était jamais gagné Entassés dans une voiture avec la musique qui sort des fenêtres A la recherche dans tout Paris d'un pauvre endroit qui nous accepte Ça finissait à 3h à Montmartre avec les crêpes à emporter Les doigts congelés et l'huile qui goûte sur nos vieux jeans tout salopés Faut qu' je leur précise un ptit truc Grand Corps avant qu'on enquille Bien avant qu'on se foute en tête de mettre au monde une grosse béquille On avait un drôle d'humour lourd qui faisait détaler les filles On était des boules de bowling perdus sur des pistes sans quilles Rétrospectivement j' nous voit sappés comme des char- clo A essayer de négocier alors qu' le débat était clôt Leur présence m'est essentielle, elle aide à se tenir debout Nos rêves se conjuguent au pluriel Quand j' parle de moi, moi je dis nous Refrain X2 Avec eux j'ai moins de failles, avec eux j'me sens de taille Avec eux rien qu' ça taille, ça tient chaud quand il caille Avec eux j'ai moins de failles, avec eux j'me sens de taille Bien posés sur les rails on a la dalle et on graille L'amitié c'est une autoroute avec de belles destinations Elles sont toutes bien indiquées et ça devient vite une addiction Ça ressemble un peu à l'amour mais en moins dur j' vais m'expliquer C'est plus serein, moins pulsionnel donc forcément moins compliqué Parait que l'entourage ça change vachement quand t'as la cote C'est pour ça qu' c'est rassurant d'évoluer avec ses potes Notre dur labeur paye, on voit les portes qui s'entrouvrent Dorénavant les phases on les cherche plus on les trouve</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cest un bulletin météo sur un monde en mutation Quotidien nuageux, avec risque dorage Une époque embrumée à forte perturbation Situations trop inégales, impliquant des dommages Le temps est très mauvais sur les trois quarts sud de la planète Si vous prenez la vie, naissez plutôt au Nord Car les écarts se creusent, la carte est claire et nette Cest un climat dangereux et il nous déshonore Un vent frais de changement pourrait renouveler lair Éviter les tempêtes sur lavenir des enfants Dégager les consciences dun brouillard ordinaire Et remettre le baromètre sur un futur plus confiant Sous cette pluie de contrastes nous ne sommes les otages Que dun silence cruel qui nous rend solitaires Nous aurons le même soleil à force de partage Et dès lors quil réchauffe nos instincts solidaires Depuis laube les hommes ont trouvé dinnombrables réponses Mais de toute évidence, pas toujours aux bonnes questions Quand progrès et dérive saccordent et nous enfoncent Dans un chacun pour soi stoppant notre ascension You might also likeEt puisque le monde est devenu un village On ne peut plus ignorer nos voisins, il est lheure De créer un dialogue et de prendre un virage Où on tissera des liens qui prouveront nos valeurs Cest un bulletin météo sur un monde un peu fou Mais lhomme peut décider du temps quil fera demain Des éclaircies sont possibles sous un ciel moins flou Si la priorité revient à lêtre humain</t>
+          <t>Cest un bulletin météo sur un monde en mutation Quotidien nuageux, avec risque dorage Une époque embrumée à forte perturbation Situations trop inégales, impliquant des dommages Le temps est très mauvais sur les trois quarts sud de la planète Si vous prenez la vie, naissez plutôt au Nord Car les écarts se creusent, la carte est claire et nette Cest un climat dangereux et il nous déshonore Un vent frais de changement pourrait renouveler lair Éviter les tempêtes sur lavenir des enfants Dégager les consciences dun brouillard ordinaire Et remettre le baromètre sur un futur plus confiant Sous cette pluie de contrastes nous ne sommes les otages Que dun silence cruel qui nous rend solitaires Nous aurons le même soleil à force de partage Et dès lors quil réchauffe nos instincts solidaires Depuis laube les hommes ont trouvé dinnombrables réponses Mais de toute évidence, pas toujours aux bonnes questions Quand progrès et dérive saccordent et nous enfoncent Dans un chacun pour soi stoppant notre ascension Et puisque le monde est devenu un village On ne peut plus ignorer nos voisins, il est lheure De créer un dialogue et de prendre un virage Où on tissera des liens qui prouveront nos valeurs Cest un bulletin météo sur un monde un peu fou Mais lhomme peut décider du temps quil fera demain Des éclaircies sont possibles sous un ciel moins flou Si la priorité revient à lêtre humain</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vous avez un nouveau message, aujourd'hui à 15h25 Allo Fab ? Ouais c'est Samy, rappelle-moi d'urgence quand t'as ce message J'ai eu une idée de ouf, non mais là c'est bon obligé ça peut chémar Combien de bonnes âmes s'attendriront sur notre parcours Peut-être les mêmes qui à l'ancienne n'auraient jamais cru qu'en ce jour Le soleil caresserait nos ailes en donnant raison à notre zèle P'tite tête tu m'traitais de brêle mes ambitions tu t'foutais d'elles Mais hélas, pour ta gouverne, sache qu'on a bien repris les rênes Aussi sûr qu'on se démène pour ne jamais plus être à la traine On nous disait qu'ça craint là d'où l'on vient pour compter vivre de nos passions Au point qu'elles nous consument à petit feu sans rémission J'ai dû slalomer pieds nus et sans skis Il m'a fallu traverser la toundra et plus sans huskies Pour devenir maître de mon devenir j'ai frôlé la crucifixion Mais j'en ai conclu que nos rêves sont à notre portée Encore faut-il accepter de souffrir pour les mériter Alors si tu doutes et qu't'en as marre surtout n'enterre jamais l'espoir Sur la pendule des acharnés à tout moment ça peut chémar Des projets, nous et nos potes, on en a eu plein nos poches Trouver la bonne idée au bon moment pour ne pas rater le coche Quels que soient les domaines social, culture ou dans le sport Il nous fallait tenter notre chance, on ne pouvait pas avoir tort Des idées les plus farfelues aux projets les plus tangibles Etions-nous simplement têtus, rien ne paraissait inaccessible Le plus grand des océans devenait pour nous une petite mare Lorsque cette phrase résonnait je te jure ça peut chémar You might also like Ma raison d'être a prit le pas sur ma raison sociale A toutes les prisons du paraître j'ai mis un retourné facial Aviez-vous remarqué que l'ascenseur social est bloqué Et qu'les experts ont bien mieux à faire que d'le réparer Sur ma lancée j'devais poursuivre alors j'ai pris les escaliers Mais à ma grande surprise, y'avait plus de marches après le premier palier On a donc dû relever les manches, taffer dur même les dimanches, quitte à se faire bébar Et dans nos têtes on se répétait en boucle t'inquiète, un jour ça va chémar Je me souviens même plus vraiment quel était notre but final Voir le quotidien différemment, tenter un truc original Evidemment ne soyons pas naïfs, on voulait aussi faire des sous Mais si c'était le seul objectif, on aurait souvent été déçus Finalement notre ambition, c'était de se créer des rêves S'offrir une vraie récréation, que le réel nous offre une trêve Et puis surtout être fiers de construire avec ses potes On avait besoin de ça, grandir pour changer d'époque Combien d'heures accumulées en bas de chez toi dans la voiture A refaire le monde et à refaire notre futur Combien d'idées d'excités on a citées au pied de ta cité Et si t'es comme moi, tu referais la même sans hésiter A tous les gosses meurtris de briller dans l'indifférence D'une société qui les néglige puis les accuse de nonchalance Un hymne à Mère Patrie qui brise le talent et passe son cri sous silence Une clameur se fait entendre et bat la mesure en cadence France ! des fois je te hais, parfois tu m' émeus Mais souvent je me tais car je sais qu'au fond je t'aime Mais il serait temps que tu rendes hommage à tous ces talents détruits Fais donc ton tri au mérite et il y aura beaucoup moins d'aigris Beaucoup moins de jeune épris du lointain modèle états-unien Parce que réussir ailleurs reste encore le seul moyen d'obtenir ton soutien Si beaucoup se barrent, c'est pour chasser des chimères aut'part que dans leurs cauchemars Rappelle-les sur tes terres et montre-leur qu'ici aussi pour eux ça peut chémar Alors on a monté des projets loin des projecteurs Pour éviter les projectiles des rageurs jeteurs de sorts Est-ce la mentalité de banlieue ou la mentalité française Mais les meilleures idées sont souvent celles qui se taisent Doit-on vraiment changer d'envie ou changer d'environnement Pour se fixer des objectifs et les atteindre ouvertement Des mecs qui te jettent le mauvais oeil, on en connaît depuis le préau Je dois avouer que même entre nous, on s'est pas toujours tirés vers le haut Mais fini de s'imposer notre propre censure, on n'a pas de sang sur les mains Alors pourquoi ne pas être sûrs qu'on est sur le bon chemin Nous n'étions pas forts mais ce passé nous a formés et plus jamais je me marre Quand j'entends cette phrase résonner je te jure ça peut chémar</t>
+          <t>Vous avez un nouveau message, aujourd'hui à 15h25 Allo Fab ? Ouais c'est Samy, rappelle-moi d'urgence quand t'as ce message J'ai eu une idée de ouf, non mais là c'est bon obligé ça peut chémar Combien de bonnes âmes s'attendriront sur notre parcours Peut-être les mêmes qui à l'ancienne n'auraient jamais cru qu'en ce jour Le soleil caresserait nos ailes en donnant raison à notre zèle P'tite tête tu m'traitais de brêle mes ambitions tu t'foutais d'elles Mais hélas, pour ta gouverne, sache qu'on a bien repris les rênes Aussi sûr qu'on se démène pour ne jamais plus être à la traine On nous disait qu'ça craint là d'où l'on vient pour compter vivre de nos passions Au point qu'elles nous consument à petit feu sans rémission J'ai dû slalomer pieds nus et sans skis Il m'a fallu traverser la toundra et plus sans huskies Pour devenir maître de mon devenir j'ai frôlé la crucifixion Mais j'en ai conclu que nos rêves sont à notre portée Encore faut-il accepter de souffrir pour les mériter Alors si tu doutes et qu't'en as marre surtout n'enterre jamais l'espoir Sur la pendule des acharnés à tout moment ça peut chémar Des projets, nous et nos potes, on en a eu plein nos poches Trouver la bonne idée au bon moment pour ne pas rater le coche Quels que soient les domaines social, culture ou dans le sport Il nous fallait tenter notre chance, on ne pouvait pas avoir tort Des idées les plus farfelues aux projets les plus tangibles Etions-nous simplement têtus, rien ne paraissait inaccessible Le plus grand des océans devenait pour nous une petite mare Lorsque cette phrase résonnait je te jure ça peut chémar Ma raison d'être a prit le pas sur ma raison sociale A toutes les prisons du paraître j'ai mis un retourné facial Aviez-vous remarqué que l'ascenseur social est bloqué Et qu'les experts ont bien mieux à faire que d'le réparer Sur ma lancée j'devais poursuivre alors j'ai pris les escaliers Mais à ma grande surprise, y'avait plus de marches après le premier palier On a donc dû relever les manches, taffer dur même les dimanches, quitte à se faire bébar Et dans nos têtes on se répétait en boucle t'inquiète, un jour ça va chémar Je me souviens même plus vraiment quel était notre but final Voir le quotidien différemment, tenter un truc original Evidemment ne soyons pas naïfs, on voulait aussi faire des sous Mais si c'était le seul objectif, on aurait souvent été déçus Finalement notre ambition, c'était de se créer des rêves S'offrir une vraie récréation, que le réel nous offre une trêve Et puis surtout être fiers de construire avec ses potes On avait besoin de ça, grandir pour changer d'époque Combien d'heures accumulées en bas de chez toi dans la voiture A refaire le monde et à refaire notre futur Combien d'idées d'excités on a citées au pied de ta cité Et si t'es comme moi, tu referais la même sans hésiter A tous les gosses meurtris de briller dans l'indifférence D'une société qui les néglige puis les accuse de nonchalance Un hymne à Mère Patrie qui brise le talent et passe son cri sous silence Une clameur se fait entendre et bat la mesure en cadence France ! des fois je te hais, parfois tu m' émeus Mais souvent je me tais car je sais qu'au fond je t'aime Mais il serait temps que tu rendes hommage à tous ces talents détruits Fais donc ton tri au mérite et il y aura beaucoup moins d'aigris Beaucoup moins de jeune épris du lointain modèle états-unien Parce que réussir ailleurs reste encore le seul moyen d'obtenir ton soutien Si beaucoup se barrent, c'est pour chasser des chimères aut'part que dans leurs cauchemars Rappelle-les sur tes terres et montre-leur qu'ici aussi pour eux ça peut chémar Alors on a monté des projets loin des projecteurs Pour éviter les projectiles des rageurs jeteurs de sorts Est-ce la mentalité de banlieue ou la mentalité française Mais les meilleures idées sont souvent celles qui se taisent Doit-on vraiment changer d'envie ou changer d'environnement Pour se fixer des objectifs et les atteindre ouvertement Des mecs qui te jettent le mauvais oeil, on en connaît depuis le préau Je dois avouer que même entre nous, on s'est pas toujours tirés vers le haut Mais fini de s'imposer notre propre censure, on n'a pas de sang sur les mains Alors pourquoi ne pas être sûrs qu'on est sur le bon chemin Nous n'étions pas forts mais ce passé nous a formés et plus jamais je me marre Quand j'entends cette phrase résonner je te jure ça peut chémar</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Moi c'que j'aime, c'est m'balader à Paris Regarder les gens, me demander ce qu'ils ont fait le matin, la veille Les surprendre quand je leur souris Les gens à Paris, ils ont pas l'habitude qu'on leur sourit Moi c'que j'aime c'est squatter un petit café tôt le matin Je trouve ça cool de se lever tôt pour pas faire grand-chose Je regarde les habitués qui parlent fort et je lis un peu Le Parisien La journée n'a pas vraiment commencé mais je fais déjà une pause Moi c'que j'aime, c'est les longs trajets en voiture, la nuit, tout seul Café et sandwich d'aire d'autoroute Téléphone en mode avion comme si j'allais à l'autre bout du monde Alors qu'une fois sur deux j'vais juste chez ma mère Moi c'que j'aime c'est rouler la nuit quand l'univers est silencieux Parce que y a moins de monde sur la route et moins de monde dans ma tête La nuit on roule mieux, on pense mieux, on écrit mieux Mes pensées sont plus libres et mes idées plus honnêtes You might also like Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est le voyage J'suis incapable de tenir en place trois jours au même endroit Faut qu'j'vois du pays, du paysage, de nouveaux visages En espérant qu'y m'fassent encore changer d'avis Moi c'que j'aime aussi dans les voyages, c'est rentrer à la maison Mais la maison c'est pas forcément mon appart, mon confort C'est plutôt des gens précis, ceux qui manquaient à l'horizon La maison c'est mes piliers, mes repères, mes renforts Moi c'que j'aime, c'est quand j'suis assis à coté de quelqu'un que j'aime, et qu'on parle pas Qu'on sait tous les deux qu'on a pas besoin de se voir Toute façon, puisqu'on s'aime C'est ça l'amour, non ? Moi c'que j'aime c'est quand elle me manque et que je sais que je vais la retrouver La retrouver dès ce soir, ou demain matin au réveil Penser à la seconde où on va se serrer ou s'embrasser Et se dire qu'en ce moment, elle pense peut-être pareil Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est savoir que j'ai plus rien à perdre Que j'ai failli clamser plus d'une fois et qu'la vie c'est du bonus Qu'il m'reste le monde à conquérir Une existence à créer Et qu'le reste c'est pour plus tard Moi c'que j'aime c'est repenser à mon parcours, mes galères Celles que je souhaite à personne, les douleurs profondes Et puis penser au présent et ses moments pleins de lumières Toutes ces joies, ces émotions, celles que je souhaite à tout le monde Moi c'que j'aime c'est c'moment-là dont tu parles dans Toucher l'instant Quand t'écris plus vite que la pensée Qu'y'a plus rien qui compte Même pas la faim, la soif, la fatigue J'crois que c'est c'que j'préfère au monde Moi c'que j'aime c'est entendre un texte pour la première fois Découvrir une parole, une image, un frisson Un truc qui me fait sourire, parce que ça me parle au fond de moi Ce truc-là, je l'ai déjà ressenti en écoutant tes chansons Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime</t>
+          <t>Moi c'que j'aime, c'est m'balader à Paris Regarder les gens, me demander ce qu'ils ont fait le matin, la veille Les surprendre quand je leur souris Les gens à Paris, ils ont pas l'habitude qu'on leur sourit Moi c'que j'aime c'est squatter un petit café tôt le matin Je trouve ça cool de se lever tôt pour pas faire grand-chose Je regarde les habitués qui parlent fort et je lis un peu Le Parisien La journée n'a pas vraiment commencé mais je fais déjà une pause Moi c'que j'aime, c'est les longs trajets en voiture, la nuit, tout seul Café et sandwich d'aire d'autoroute Téléphone en mode avion comme si j'allais à l'autre bout du monde Alors qu'une fois sur deux j'vais juste chez ma mère Moi c'que j'aime c'est rouler la nuit quand l'univers est silencieux Parce que y a moins de monde sur la route et moins de monde dans ma tête La nuit on roule mieux, on pense mieux, on écrit mieux Mes pensées sont plus libres et mes idées plus honnêtes Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est le voyage J'suis incapable de tenir en place trois jours au même endroit Faut qu'j'vois du pays, du paysage, de nouveaux visages En espérant qu'y m'fassent encore changer d'avis Moi c'que j'aime aussi dans les voyages, c'est rentrer à la maison Mais la maison c'est pas forcément mon appart, mon confort C'est plutôt des gens précis, ceux qui manquaient à l'horizon La maison c'est mes piliers, mes repères, mes renforts Moi c'que j'aime, c'est quand j'suis assis à coté de quelqu'un que j'aime, et qu'on parle pas Qu'on sait tous les deux qu'on a pas besoin de se voir Toute façon, puisqu'on s'aime C'est ça l'amour, non ? Moi c'que j'aime c'est quand elle me manque et que je sais que je vais la retrouver La retrouver dès ce soir, ou demain matin au réveil Penser à la seconde où on va se serrer ou s'embrasser Et se dire qu'en ce moment, elle pense peut-être pareil Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est savoir que j'ai plus rien à perdre Que j'ai failli clamser plus d'une fois et qu'la vie c'est du bonus Qu'il m'reste le monde à conquérir Une existence à créer Et qu'le reste c'est pour plus tard Moi c'que j'aime c'est repenser à mon parcours, mes galères Celles que je souhaite à personne, les douleurs profondes Et puis penser au présent et ses moments pleins de lumières Toutes ces joies, ces émotions, celles que je souhaite à tout le monde Moi c'que j'aime c'est c'moment-là dont tu parles dans Toucher l'instant Quand t'écris plus vite que la pensée Qu'y'a plus rien qui compte Même pas la faim, la soif, la fatigue J'crois que c'est c'que j'préfère au monde Moi c'que j'aime c'est entendre un texte pour la première fois Découvrir une parole, une image, un frisson Un truc qui me fait sourire, parce que ça me parle au fond de moi Ce truc-là, je l'ai déjà ressenti en écoutant tes chansons Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime Moi c'que j'aime c'est quand J'vois que j'm'aime un peu Un peu plus qu'avant Grâce à ceux que j'aime</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Au quotidien, j'me prétends plutôt tranquille et patient Je crie pas, j'marche doucement, j'suis docile et pas chiant On peut très facilement m'accuser de nonchalance Pourtant, sur certains points, j'ai bien senti l'urgence L'urgence de choisir mes envies, l'envie de choisir mes urgences Choisir mes combats, mes refus, mes évidences Choisir pour mieux agir et ne plus procrastiner Pour vivre l'instant, j'ai fait des progrès stylés Demain, c'est loin et c'est pas moi qui l'ai dit Le présent est précieux, l'inertie l'enlaidit Si l'espoir se permet quand l'élan se transmet Honnêtement, faut y aller, c'est maintenant ou jamais C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe Est-ce que c'est pas plus subversif d'arrêter d'se plaindre ? D'arrêter d'se craindre, d'accepter d'se joindre Puisque la vie est un jeu plutôt interactif Essayons tous ensemble d'en faire un terrain d'kifs Dès aujourd'hui qu'on peut changer les choses Qu'on peut scander nos causes, qu'on ose et qu'on propose Y a quelques sujets qui ne peuvent plus attendre On a tous un rôle à jouer, quelques comptes à rendre Le climat C'est maintenant, le partage C'est maintenant, solidaire C'est maintenant, être heureux C'est maintenant Soyons à la hauteur, ce n'est pas surhumain de remettre à aujourd'hui ce qu'on pensait faire demain You might also like C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe Pour que nos actes se reflètent dans un futur apaisant Avec ma DeLorean, c'est retour vers le présent Y a pas beaucoup de temps, mais y a encore de l'espace Pour deux, trois trucs importants, c'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe</t>
+          <t>Au quotidien, j'me prétends plutôt tranquille et patient Je crie pas, j'marche doucement, j'suis docile et pas chiant On peut très facilement m'accuser de nonchalance Pourtant, sur certains points, j'ai bien senti l'urgence L'urgence de choisir mes envies, l'envie de choisir mes urgences Choisir mes combats, mes refus, mes évidences Choisir pour mieux agir et ne plus procrastiner Pour vivre l'instant, j'ai fait des progrès stylés Demain, c'est loin et c'est pas moi qui l'ai dit Le présent est précieux, l'inertie l'enlaidit Si l'espoir se permet quand l'élan se transmet Honnêtement, faut y aller, c'est maintenant ou jamais C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe Est-ce que c'est pas plus subversif d'arrêter d'se plaindre ? D'arrêter d'se craindre, d'accepter d'se joindre Puisque la vie est un jeu plutôt interactif Essayons tous ensemble d'en faire un terrain d'kifs Dès aujourd'hui qu'on peut changer les choses Qu'on peut scander nos causes, qu'on ose et qu'on propose Y a quelques sujets qui ne peuvent plus attendre On a tous un rôle à jouer, quelques comptes à rendre Le climat C'est maintenant, le partage C'est maintenant, solidaire C'est maintenant, être heureux C'est maintenant Soyons à la hauteur, ce n'est pas surhumain de remettre à aujourd'hui ce qu'on pensait faire demain C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe Pour que nos actes se reflètent dans un futur apaisant Avec ma DeLorean, c'est retour vers le présent Y a pas beaucoup de temps, mais y a encore de l'espace Pour deux, trois trucs importants, c'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe C'est aujourd'hui C'est aujourd'hui que ça se passe</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mon premier c'est du bitume c'est de la matière, désolé Cest des fenêtres dans des cubes face à un horizon morcelé Et puis c'est des couloirs son courbe entre deux falaises de béton Tant de construction humaine et si peu de nature qui lui répond Mon deuxième c'est des gens qui vivent très proches les uns des autres Et ne se regardent pas forcément même quand ils habitent côte à côte Mais quand parfois ils osent se parler dans une impulsion citoyenne Ça rend le décor plus doré et puis ça ouvre sur mon troisième Mon troisième c'est du mélange des rencontres et des partages Ca crée une alchimie étrange qui nous fait grandir à chaque âge Ya des sourires dans toutes les langues et des différences qui s'effacent Jai vu de belles vies apaisées et j'ai vu aussi les vies den face Mon tout cest la grande ville je me promène dans ses charades Je me trompe parfois de sens et dans chaque erreur je me balade Je l'ai choisie depuis longtemps comme le meilleur terrain de jeu Pour lui parler parfois j'avoue j'ai tenté de my perdre un peu Mon tout cest la grande ville elle m'a saisi depuis l'enfance Je la connais trop bien je la critique et je l'encense Je la tutoie depuis longtemps même si jamais elle ne se dévoile J'ai tenté de l'apprivoiser c'est elle qui m'a pris dans sa toile Elle m'a nourri, elle m'a formé, elle m'a offert de son ivresse Elle a failli me voir tomber, me reprendre de justesse Et quand sa nuit m'offrait l'asphalte comme seul et unique horizon Elle s'est révélée comme la préface de toutes mes inspirations Et aujourd'hui encore quand je rentre seule et très tard Que la grande ville s'est habillée de son gros blouson de pluie noire J'aime bien qu'elle me retienne, qu'elle me regarde dans les yeux Elle sait que je lui cède et je retourne my perdre un peu You might also like Mon premier c'est une clameur sougacente, permanente Un murmure familier comme une rumeur rassurante C'est un tourbillon de voix et de reflet de lumières C'est du mouvement de la musique, des rires et plaisirs populaires Mon deuxième c'est le silence est le chagrin des ruelles mortes C'est de la tristesse derrière les murs et de l'isolement derrière les portes C'est la misère à ciel ouverte et la détresse en libre accès Face aux odeurs de pourriture et des déchets de nos excès Mon troisième est une terre d'expérience, un laboratoire Pour les progrès et les dangers que le futur va faire valoir C'est le règne des contrastes qui fait que notre société tremble Qui nous contraint à vivre seul, qui nous enseigne à vivre ensemble Mon tout cest la grande ville je me promène dans ses charades Je me trompe parfois de sens et dans chaque erreur je me balade Je l'ai choisie depuis longtemps comme le meilleur terrain de jeu Pour lui parler parfois j'avoue j'ai tenté de my perdre un peu Mon tout cest la grande ville elle m'a saisi par mes 5 sens En me donnant ses codes, elle ma volé mon innocence Mais elle m'a éveillé, réveillé, révélé en mabritant Je reste émerveillée et égayé par elle et tous ses habitants Elle m'a appris, elle m'a conquis, elle m'a offert de sa folie Je sais qu'elle n'est pas tout le temps belle je la trouve tellement jolie Et quand j'ai traversé ses jours et ses nuits sans transition Elle s'est révélée comme la préface de toutes mes inspirations Et aujourd'hui encore quand je rentre seule et très tard Que la grande ville s'est habillée de son gros blouson de pluie noire J'aime bien qu'elle me retienne, qu'elle me regarde dans les yeux Elle sait que je lui cède et je retourne my perdre un peu À ton tour de la grande ville tu vas découvrir les charades Tu vas te laisser surprendre sans vraiment chercher de parade Tu vas l'aimer, la détester, et comme je connais bien ce jeu Je vais flipper quand tu choisiras de ty perdre un peu</t>
+          <t>Mon premier c'est du bitume c'est de la matière, désolé Cest des fenêtres dans des cubes face à un horizon morcelé Et puis c'est des couloirs son courbe entre deux falaises de béton Tant de construction humaine et si peu de nature qui lui répond Mon deuxième c'est des gens qui vivent très proches les uns des autres Et ne se regardent pas forcément même quand ils habitent côte à côte Mais quand parfois ils osent se parler dans une impulsion citoyenne Ça rend le décor plus doré et puis ça ouvre sur mon troisième Mon troisième c'est du mélange des rencontres et des partages Ca crée une alchimie étrange qui nous fait grandir à chaque âge Ya des sourires dans toutes les langues et des différences qui s'effacent Jai vu de belles vies apaisées et j'ai vu aussi les vies den face Mon tout cest la grande ville je me promène dans ses charades Je me trompe parfois de sens et dans chaque erreur je me balade Je l'ai choisie depuis longtemps comme le meilleur terrain de jeu Pour lui parler parfois j'avoue j'ai tenté de my perdre un peu Mon tout cest la grande ville elle m'a saisi depuis l'enfance Je la connais trop bien je la critique et je l'encense Je la tutoie depuis longtemps même si jamais elle ne se dévoile J'ai tenté de l'apprivoiser c'est elle qui m'a pris dans sa toile Elle m'a nourri, elle m'a formé, elle m'a offert de son ivresse Elle a failli me voir tomber, me reprendre de justesse Et quand sa nuit m'offrait l'asphalte comme seul et unique horizon Elle s'est révélée comme la préface de toutes mes inspirations Et aujourd'hui encore quand je rentre seule et très tard Que la grande ville s'est habillée de son gros blouson de pluie noire J'aime bien qu'elle me retienne, qu'elle me regarde dans les yeux Elle sait que je lui cède et je retourne my perdre un peu Mon premier c'est une clameur sougacente, permanente Un murmure familier comme une rumeur rassurante C'est un tourbillon de voix et de reflet de lumières C'est du mouvement de la musique, des rires et plaisirs populaires Mon deuxième c'est le silence est le chagrin des ruelles mortes C'est de la tristesse derrière les murs et de l'isolement derrière les portes C'est la misère à ciel ouverte et la détresse en libre accès Face aux odeurs de pourriture et des déchets de nos excès Mon troisième est une terre d'expérience, un laboratoire Pour les progrès et les dangers que le futur va faire valoir C'est le règne des contrastes qui fait que notre société tremble Qui nous contraint à vivre seul, qui nous enseigne à vivre ensemble Mon tout cest la grande ville je me promène dans ses charades Je me trompe parfois de sens et dans chaque erreur je me balade Je l'ai choisie depuis longtemps comme le meilleur terrain de jeu Pour lui parler parfois j'avoue j'ai tenté de my perdre un peu Mon tout cest la grande ville elle m'a saisi par mes 5 sens En me donnant ses codes, elle ma volé mon innocence Mais elle m'a éveillé, réveillé, révélé en mabritant Je reste émerveillée et égayé par elle et tous ses habitants Elle m'a appris, elle m'a conquis, elle m'a offert de sa folie Je sais qu'elle n'est pas tout le temps belle je la trouve tellement jolie Et quand j'ai traversé ses jours et ses nuits sans transition Elle s'est révélée comme la préface de toutes mes inspirations Et aujourd'hui encore quand je rentre seule et très tard Que la grande ville s'est habillée de son gros blouson de pluie noire J'aime bien qu'elle me retienne, qu'elle me regarde dans les yeux Elle sait que je lui cède et je retourne my perdre un peu À ton tour de la grande ville tu vas découvrir les charades Tu vas te laisser surprendre sans vraiment chercher de parade Tu vas l'aimer, la détester, et comme je connais bien ce jeu Je vais flipper quand tu choisiras de ty perdre un peu</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Paroles de Chemins de traverse ft. Camille Berthollet Julie Berthollet Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins À quel moment tu prends ta décision ? Et c'est quoi qui fait pencher la balance ? Pourquoi tu prends telle ou telle direction ? Celle de tes doutes ou celle de tes croyances ? Est-ce ton idée ou celle du paternel, quand tu décides d'apprendre cette voie ? Celle de tes rêves ou des remords éternels alors cette fois c'est ton droit, c'est ton choix Tu as décidé d'être un artiste, un choix subversif ou un choix tendance ? Un mélange de confort et de prise de risques Une décision d'adulte, un rêve d'enfance Un métier loin des model familiaux, est-ce une envie ou une envie de rébellion ? Un métier loin des réveils matinaux, est-ce une fuite ou un vrai choix par passion ? Tu as choisi la voix des marginaux quitte à c'que l'entourage soit dérouté La voix des atypiques, des originaux, des marchands dehors des passages cloutés Et si cette voix n'est pas des plus classiques, elle passe dans l'orage et sous les averses Tu n'as pas écouté les mauvaises critiques, tu as choisi de prendre un chemin de traverse Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins You might also like T'as choisi un métier qu'on n'apprend pas au collège T'as ouvert la porte aux envies qui s'taisent Persuadé que ton audace te protège, t'as décidé d'écrire ta propre hypothèse Alors tu as pris un chemin d'traverse La voie des durs, la voie des courageux La voie du pari pas celle de la sagesse Peut-être aussi la voie des peureux Peur de la routine, d'une route sans relief Peur de trop d'années coincées dans le livre Peur des horaires fixes, d'un bureau ou d'un chef Peur d'avoir peur d'exister sans vivre Un chemin d'traverse est un raccourci On voit en parallèle une route sans panneaux Un raccourci vers quoi ? Vers tes envies, vers l'argent ou peut être vers le chaos Et si être artiste est un art de vivre si tu n'réussis pas c'est pas grave C'est la beauté du geste qui nourrit et enivre que tu chantes au Zénith ou dans ta cave Mais si ton art séduit et que les gens t'aiment attention à l'ego qui te renverse Si tu t'sens enrôler par le système, n'oublie pas qu'c'était juste un chemin d'traverse Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins</t>
+          <t>Paroles de Chemins de traverse ft. Camille Berthollet Julie Berthollet Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins À quel moment tu prends ta décision ? Et c'est quoi qui fait pencher la balance ? Pourquoi tu prends telle ou telle direction ? Celle de tes doutes ou celle de tes croyances ? Est-ce ton idée ou celle du paternel, quand tu décides d'apprendre cette voie ? Celle de tes rêves ou des remords éternels alors cette fois c'est ton droit, c'est ton choix Tu as décidé d'être un artiste, un choix subversif ou un choix tendance ? Un mélange de confort et de prise de risques Une décision d'adulte, un rêve d'enfance Un métier loin des model familiaux, est-ce une envie ou une envie de rébellion ? Un métier loin des réveils matinaux, est-ce une fuite ou un vrai choix par passion ? Tu as choisi la voix des marginaux quitte à c'que l'entourage soit dérouté La voix des atypiques, des originaux, des marchands dehors des passages cloutés Et si cette voix n'est pas des plus classiques, elle passe dans l'orage et sous les averses Tu n'as pas écouté les mauvaises critiques, tu as choisi de prendre un chemin de traverse Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins T'as choisi un métier qu'on n'apprend pas au collège T'as ouvert la porte aux envies qui s'taisent Persuadé que ton audace te protège, t'as décidé d'écrire ta propre hypothèse Alors tu as pris un chemin d'traverse La voie des durs, la voie des courageux La voie du pari pas celle de la sagesse Peut-être aussi la voie des peureux Peur de la routine, d'une route sans relief Peur de trop d'années coincées dans le livre Peur des horaires fixes, d'un bureau ou d'un chef Peur d'avoir peur d'exister sans vivre Un chemin d'traverse est un raccourci On voit en parallèle une route sans panneaux Un raccourci vers quoi ? Vers tes envies, vers l'argent ou peut être vers le chaos Et si être artiste est un art de vivre si tu n'réussis pas c'est pas grave C'est la beauté du geste qui nourrit et enivre que tu chantes au Zénith ou dans ta cave Mais si ton art séduit et que les gens t'aiment attention à l'ego qui te renverse Si tu t'sens enrôler par le système, n'oublie pas qu'c'était juste un chemin d'traverse Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins pris d'autres chemins Pour rêver le lendemain, on a pris d'autres chemins On a pris d'autres chemins</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lui il a traversé tout le pays pour atteindre le Grand Ouest Equipé d'un vieux fute, d'un gros sac et d'une veste Il se prend pour un aventurier, à raison ou à tort Il est parmi tant d'autre un simple chercheur d'or Il retourne toutes les rivières en secouant son tamis Il traque la moindre lueur, il en rêve même la nuit Il soulève chaque caillou pour voir ce qu'il y a en dessous Il lui arrive même de chercher jusqu'à s'en rendre saoul Il ausculte tous les grains de sable pour dénicher la pépite Il sait prendre son temps, ne jamais aller trop vite Quand il rentres chez lui, je te jure qu'il cherche encore Ses yeux sont des radars, c'est un vrai chercheur d'or Ca lui a pris un beau jour en voyant les autres partir Il s'est dit pourquoi pas moi, je pourrai peut-être m'enrichir Et puis parcourir le monde avec son sac à dos C'est peut-être au bout du compte le plus beau des cadeaux Quand il trouve un peu d'or, pour lui plus rien n'existe Il ne voit plus, n'entend plus, il est comme un autiste Alors il en veut plus, il chercherait jusqu'à sa mort Il est parmi tant d'autre un simple chercheur d'or Moi j'ai traversé toute la pièce pour atteindre mon petit bureau Equipé de ma main droite, une feuille et un stylo Je me prends pour un poète, p't'être un vrai, p't'être un naze Je suis parmi tant d'autres un simple chercheur de phases Je retourne toutes les phrases en secouant mon esprit Je traque la moindre rime et j'en rêve même la nuit Je soulève chaque syllabe pour voir ce qu'il y a en dessous Il m'arrive même de chercher jusqu'à m'en rendre saoul J'ausculte tous les mots pour dénicher la bonne terminaison Je sais prendre mon temps, la patience guide ma raison Même quand je sors de chez moi, je profite de la moindre occaz Pour pécho de l'inspiration, j'suis un chercheur de phases Ca m'a pris petit à petit en voyant les autres écrire J'me suis dit poser mes textes, ça pourrait me faire plaisir Et puis trouver le bon mot et le mettre à la bonne place C'est peut-être ça le plus kiffant, la bonne rime efficace Quand je trouve une bonne phase, pour moi plus rien n'existe Je ne vois plus, n'entend plus, je suis comme un autiste Alors j'en veux plus, je veux qu'on se souvienne de mon blaze Je suis parmi tant d'autres, un simple chercheur de phases You might also like Son Grand Ouest, c'est mon petit bureau, t'as vu le parallèle frérot Et si tu pars à Lille, t'es zéro, car ça se passe là dans ton petit bistrot Moi je fais le pari que tu te tapes des barres dans tous les bars de Paris Mais si tu ris pas et que tu te barres dans ta barre, oublie mon pari Car si je viens juste dire des mots, tu peux pas me maudire Même si je fais ni du Rimbaud ni du Shakespeare, j'sais qu'y a pire Je te jure, respire ! Je pourrais faire du Britney Spears Te faire kiffer toi même tu sais que c'est à ça que j'aspire Moi je veux écrire des tas de phases et te les sortir avec un bon phrasé Je veux t'envahir de phrases quitte à ce que tu te sentes déphasé C'est pas avec des jeux de mots que je vais pouvoir dire que je pèse Encore moins que je vais pouvoir pécho Jennifer Lopez Mais si tu m'écoutes, c'est déjà une victoire Et coûte que coûte, je ferai tout pour faire kiffer mon auditoire Et même si ce texte, c'est pas encore l'extase T'auras compris le contexte, j'suis un chercheur de phases</t>
+          <t>Lui il a traversé tout le pays pour atteindre le Grand Ouest Equipé d'un vieux fute, d'un gros sac et d'une veste Il se prend pour un aventurier, à raison ou à tort Il est parmi tant d'autre un simple chercheur d'or Il retourne toutes les rivières en secouant son tamis Il traque la moindre lueur, il en rêve même la nuit Il soulève chaque caillou pour voir ce qu'il y a en dessous Il lui arrive même de chercher jusqu'à s'en rendre saoul Il ausculte tous les grains de sable pour dénicher la pépite Il sait prendre son temps, ne jamais aller trop vite Quand il rentres chez lui, je te jure qu'il cherche encore Ses yeux sont des radars, c'est un vrai chercheur d'or Ca lui a pris un beau jour en voyant les autres partir Il s'est dit pourquoi pas moi, je pourrai peut-être m'enrichir Et puis parcourir le monde avec son sac à dos C'est peut-être au bout du compte le plus beau des cadeaux Quand il trouve un peu d'or, pour lui plus rien n'existe Il ne voit plus, n'entend plus, il est comme un autiste Alors il en veut plus, il chercherait jusqu'à sa mort Il est parmi tant d'autre un simple chercheur d'or Moi j'ai traversé toute la pièce pour atteindre mon petit bureau Equipé de ma main droite, une feuille et un stylo Je me prends pour un poète, p't'être un vrai, p't'être un naze Je suis parmi tant d'autres un simple chercheur de phases Je retourne toutes les phrases en secouant mon esprit Je traque la moindre rime et j'en rêve même la nuit Je soulève chaque syllabe pour voir ce qu'il y a en dessous Il m'arrive même de chercher jusqu'à m'en rendre saoul J'ausculte tous les mots pour dénicher la bonne terminaison Je sais prendre mon temps, la patience guide ma raison Même quand je sors de chez moi, je profite de la moindre occaz Pour pécho de l'inspiration, j'suis un chercheur de phases Ca m'a pris petit à petit en voyant les autres écrire J'me suis dit poser mes textes, ça pourrait me faire plaisir Et puis trouver le bon mot et le mettre à la bonne place C'est peut-être ça le plus kiffant, la bonne rime efficace Quand je trouve une bonne phase, pour moi plus rien n'existe Je ne vois plus, n'entend plus, je suis comme un autiste Alors j'en veux plus, je veux qu'on se souvienne de mon blaze Je suis parmi tant d'autres, un simple chercheur de phases Son Grand Ouest, c'est mon petit bureau, t'as vu le parallèle frérot Et si tu pars à Lille, t'es zéro, car ça se passe là dans ton petit bistrot Moi je fais le pari que tu te tapes des barres dans tous les bars de Paris Mais si tu ris pas et que tu te barres dans ta barre, oublie mon pari Car si je viens juste dire des mots, tu peux pas me maudire Même si je fais ni du Rimbaud ni du Shakespeare, j'sais qu'y a pire Je te jure, respire ! Je pourrais faire du Britney Spears Te faire kiffer toi même tu sais que c'est à ça que j'aspire Moi je veux écrire des tas de phases et te les sortir avec un bon phrasé Je veux t'envahir de phrases quitte à ce que tu te sentes déphasé C'est pas avec des jeux de mots que je vais pouvoir dire que je pèse Encore moins que je vais pouvoir pécho Jennifer Lopez Mais si tu m'écoutes, c'est déjà une victoire Et coûte que coûte, je ferai tout pour faire kiffer mon auditoire Et même si ce texte, c'est pas encore l'extase T'auras compris le contexte, j'suis un chercheur de phases</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Depuis midi, nous sommes donc passé au confinement général Écoles fermées, télétravail Le confinement a donc commencé hier, à midi Notre quotidien va changer, à parti d'aujourd'hui La France est officiellement confinée depuis ce midi. Soixante-sept millions d'habitants appelés à rester chez eux, c'est du jamais vu, ça va durer un mois L'annonce est bien tombée, le moral est tombé La peine a bien sonné, on a tous pris deux mois fermes L'horizon s'est raccourci quand les règles se sont durcies Pas au bout d'nos soucis, parait qu'on est en sursit Alors à la belle saison, on a squatté nos maisons La prudence nous enferme et j'crois bien qu'elle a raison Même si les parents peinent pendant la quarantaine Drôle de parenthèses souvent les parents s'plaignent Et pourtant on nous a dit qu'il faut savoir en profiter Qu'il y a de la lumière derrière chaque atrocité Que cette situation peut faire grandir la race humaine Et que c'est l'occasion d'en apprendre plus sur nous-mêmes Alors on a pris conscience, on a fait c'qu'il fallait Mais moi j'ai l'expérience d'un daron d'quarante balais Etre obligé d'ralentir peut parfois être plaisant Mais qu'est c'qu'on peut en dire lorsqu'on a quinze ans ? C'est quoi cette idée d'vouloir nous enfermer ? Moi j'n'ai pas envie d'une maison prison C'est vrai que je suis une ado' plutôt réservée Mais il n'est pas question d'couper les ponts Insta', Snap, Discord, heureusement sont là Mais j'aimerais bien t'avoir juste en face de moi Qui aurait pu prévoir qu'à l'âge de quinze ans Je sois privée du droit élémentaire de voir des gens Le besoin de relations en devient viral Éloignée de mes amis d'façon brutale Ça m'a ramené vers l'chemin du cocon familial Où s'est vraiment tissé un nouveau lien filial You might also like Confinés, projet décimé Enfant consigné, bonheur confirmé Confinés, projet décimé Enfant consigné, bonheur confirmé Tu parles de lien filial, bah justement, parlons-en Avec mes filles, j'ai dû avaler pas mal de Comme deux tigres en cage de six ans et neuf ans Pour savoir innover, c'est souvent éprouvant Parait qu'on les a entendues de Moscou à Cayenne Cordes vocales très aiguës, très au-dessus d'la moyenne De ces deux fauves, j'n'ai pas été tellement le dresseur Parmi mille autres choses, j'ai même fait professeur Et puis j'ai fait aussi coiffeur, animateur Cuistot, inventeur, conteur, un peu menteur Nettoyeur et rangeur, tectrice de frigo, réparateur de jouets, spécialiste Ninja go Obligée d'se supporter et d'se ré-apprivoiser Salon miné, c'est une guerre de tranchet Chaque sur voulait imposer sa volonté Stratégie d'occupation, après l'petit déjeuner Quand les parents imposent un Cessez le feu C'est une tresse fragile, on s'regarde pas dans les yeux Heureusement à la fin, c'est la paix qui a triomphé L'armée , juste à l'heure du dîner Mais le programme n'est pas facile tous les jours Drôle de sentiments quand tout se mélange Un peu parent, un peu prof, dictateur sans humour En une heure d'intervalle, l'indifférents rôles s'échangent Moi j'n'avais pas prévu de m'adapter à ça L'amalgame parent-prof, c'est pas fait pour moi Alors j'me réfugie seule face aux écrans Je m'oublie, je me perds dans mon emploi du temps Confinés, projet décimé Enfant consigné, bonheur confirmé Confinés, projet décimé Enfant consigné, bonheur confirmé On ne vois plus qu'les domiciles, que pour aller travailler, acheter d'la nourriture, se soigner et chaque déplacements doit être justifiés, chaque personne doit se munir d'une attestation sur le Première journée de confinement, ça a commencé très précisément à, à midi, est-c'que les consignes on été partout respecté ? Evidemment que pendant deux mois tout ne fut pas tout rose Mais vivre ensemble, en famille est forcément une belle chose On s'est retrouvé, on s'est parlé et pour dire la vérité Si c'était à refaire on l'referait sans hé Non, non, non, non, non</t>
+          <t>Depuis midi, nous sommes donc passé au confinement général Écoles fermées, télétravail Le confinement a donc commencé hier, à midi Notre quotidien va changer, à parti d'aujourd'hui La France est officiellement confinée depuis ce midi. Soixante-sept millions d'habitants appelés à rester chez eux, c'est du jamais vu, ça va durer un mois L'annonce est bien tombée, le moral est tombé La peine a bien sonné, on a tous pris deux mois fermes L'horizon s'est raccourci quand les règles se sont durcies Pas au bout d'nos soucis, parait qu'on est en sursit Alors à la belle saison, on a squatté nos maisons La prudence nous enferme et j'crois bien qu'elle a raison Même si les parents peinent pendant la quarantaine Drôle de parenthèses souvent les parents s'plaignent Et pourtant on nous a dit qu'il faut savoir en profiter Qu'il y a de la lumière derrière chaque atrocité Que cette situation peut faire grandir la race humaine Et que c'est l'occasion d'en apprendre plus sur nous-mêmes Alors on a pris conscience, on a fait c'qu'il fallait Mais moi j'ai l'expérience d'un daron d'quarante balais Etre obligé d'ralentir peut parfois être plaisant Mais qu'est c'qu'on peut en dire lorsqu'on a quinze ans ? C'est quoi cette idée d'vouloir nous enfermer ? Moi j'n'ai pas envie d'une maison prison C'est vrai que je suis une ado' plutôt réservée Mais il n'est pas question d'couper les ponts Insta', Snap, Discord, heureusement sont là Mais j'aimerais bien t'avoir juste en face de moi Qui aurait pu prévoir qu'à l'âge de quinze ans Je sois privée du droit élémentaire de voir des gens Le besoin de relations en devient viral Éloignée de mes amis d'façon brutale Ça m'a ramené vers l'chemin du cocon familial Où s'est vraiment tissé un nouveau lien filial Confinés, projet décimé Enfant consigné, bonheur confirmé Confinés, projet décimé Enfant consigné, bonheur confirmé Tu parles de lien filial, bah justement, parlons-en Avec mes filles, j'ai dû avaler pas mal de Comme deux tigres en cage de six ans et neuf ans Pour savoir innover, c'est souvent éprouvant Parait qu'on les a entendues de Moscou à Cayenne Cordes vocales très aiguës, très au-dessus d'la moyenne De ces deux fauves, j'n'ai pas été tellement le dresseur Parmi mille autres choses, j'ai même fait professeur Et puis j'ai fait aussi coiffeur, animateur Cuistot, inventeur, conteur, un peu menteur Nettoyeur et rangeur, tectrice de frigo, réparateur de jouets, spécialiste Ninja go Obligée d'se supporter et d'se ré-apprivoiser Salon miné, c'est une guerre de tranchet Chaque sur voulait imposer sa volonté Stratégie d'occupation, après l'petit déjeuner Quand les parents imposent un Cessez le feu C'est une tresse fragile, on s'regarde pas dans les yeux Heureusement à la fin, c'est la paix qui a triomphé L'armée , juste à l'heure du dîner Mais le programme n'est pas facile tous les jours Drôle de sentiments quand tout se mélange Un peu parent, un peu prof, dictateur sans humour En une heure d'intervalle, l'indifférents rôles s'échangent Moi j'n'avais pas prévu de m'adapter à ça L'amalgame parent-prof, c'est pas fait pour moi Alors j'me réfugie seule face aux écrans Je m'oublie, je me perds dans mon emploi du temps Confinés, projet décimé Enfant consigné, bonheur confirmé Confinés, projet décimé Enfant consigné, bonheur confirmé On ne vois plus qu'les domiciles, que pour aller travailler, acheter d'la nourriture, se soigner et chaque déplacements doit être justifiés, chaque personne doit se munir d'une attestation sur le Première journée de confinement, ça a commencé très précisément à, à midi, est-c'que les consignes on été partout respecté ? Evidemment que pendant deux mois tout ne fut pas tout rose Mais vivre ensemble, en famille est forcément une belle chose On s'est retrouvé, on s'est parlé et pour dire la vérité Si c'était à refaire on l'referait sans hé Non, non, non, non, non</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chacun mène sa barque comme il veut, comme il peut Avec plus ou moins de succès quand il vente, quand il pleut Car la vie est arbitraire, il y a des traversées amères Quon ose me dire le contraire, on vogue pas tous sur les mêmes mers Cest juste un texte et quelques notes pour ces enfants pris dans les vagues Coincés sur leur lit dhôpital face à un avenir qui zigzague Entre symptômes douloureux, traitements lourds, effets secondaires Linquiétude que lon gagne, linnocence que lon perd Jai vu des tempêtes sabattre sur des enfants de 10 ans Quand le diagnostic tombe, cest linjustice au présent Tas beau descendre la grand-voile, ya trop de courant et trop tôt Quon ose me dire le contraire, on est pas tous dans le même bateau Jai grandi dans les vagues Je me suis heurtée contre les parois Dun bateau qui divague Je me suis heurtée contre les pourquoi Jai grandi dans les vagues Guettant léclaircie quand le vent sentête Jai grandi dans les drames Souriant à la vie entre deux tempêtes Jai vu ces enfants au mental de guerrier plein dhonneur Traverser les années au milieu dune mer de peur Affrontant les tornades, la tête haute dans les orages Tenant la barre, capitaine dun bateau nommé courage Ils font face à la pression et ils résistent comme personne Comment vous dire et sur quel ton tous ces enfants mimpressionnent Jai vu leur force, leur dignité quand leur destin fronce les sourcils Après tout ça, entendre se plaindre monsieur Tout-le-monde mest difficile Quand la croisière de lenfance pleine de candeur loin des colères Devient un voyage harassant au fond dune cale dans une galère On devrait juste avoir le droit de rester enfant dans le fond des yeux Mais on est vite moins jeune dès que le temps est pluvieux You might also like Jai grandi dans les vagues Je me suis heurtée contre les parois Dun bateau qui divague Je me suis heurtée contre les pourquoi Jai grandi dans les vagues Guettant léclaircie quand le vent sentête Jai grandi dans les drames Souriant à la vie entre deux tempêtes Jai connu les pics de douleur Les grandes chambres à labsence de couleur Les progrès, les rechutes, les débuts dguérison Lespoir à contre-jour et le manque dhorizon Contre vents et marées Jai gagné le droit de vieillir Et celui despérer Une mer plus calme pour voir lavenir Contre vents et marées Jai gagné le droit de vieillir Et celui despérer Une mer plus calme pour voir lavenir</t>
+          <t>Chacun mène sa barque comme il veut, comme il peut Avec plus ou moins de succès quand il vente, quand il pleut Car la vie est arbitraire, il y a des traversées amères Quon ose me dire le contraire, on vogue pas tous sur les mêmes mers Cest juste un texte et quelques notes pour ces enfants pris dans les vagues Coincés sur leur lit dhôpital face à un avenir qui zigzague Entre symptômes douloureux, traitements lourds, effets secondaires Linquiétude que lon gagne, linnocence que lon perd Jai vu des tempêtes sabattre sur des enfants de 10 ans Quand le diagnostic tombe, cest linjustice au présent Tas beau descendre la grand-voile, ya trop de courant et trop tôt Quon ose me dire le contraire, on est pas tous dans le même bateau Jai grandi dans les vagues Je me suis heurtée contre les parois Dun bateau qui divague Je me suis heurtée contre les pourquoi Jai grandi dans les vagues Guettant léclaircie quand le vent sentête Jai grandi dans les drames Souriant à la vie entre deux tempêtes Jai vu ces enfants au mental de guerrier plein dhonneur Traverser les années au milieu dune mer de peur Affrontant les tornades, la tête haute dans les orages Tenant la barre, capitaine dun bateau nommé courage Ils font face à la pression et ils résistent comme personne Comment vous dire et sur quel ton tous ces enfants mimpressionnent Jai vu leur force, leur dignité quand leur destin fronce les sourcils Après tout ça, entendre se plaindre monsieur Tout-le-monde mest difficile Quand la croisière de lenfance pleine de candeur loin des colères Devient un voyage harassant au fond dune cale dans une galère On devrait juste avoir le droit de rester enfant dans le fond des yeux Mais on est vite moins jeune dès que le temps est pluvieux Jai grandi dans les vagues Je me suis heurtée contre les parois Dun bateau qui divague Je me suis heurtée contre les pourquoi Jai grandi dans les vagues Guettant léclaircie quand le vent sentête Jai grandi dans les drames Souriant à la vie entre deux tempêtes Jai connu les pics de douleur Les grandes chambres à labsence de couleur Les progrès, les rechutes, les débuts dguérison Lespoir à contre-jour et le manque dhorizon Contre vents et marées Jai gagné le droit de vieillir Et celui despérer Une mer plus calme pour voir lavenir Contre vents et marées Jai gagné le droit de vieillir Et celui despérer Une mer plus calme pour voir lavenir</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>T'es pas encore arrivé avec ta mère on s'impatiente Elle, elle commence à fatiguer et puis faut voir l'état de son ventre Paraît que tu te caches là-dessous on communique à notre façon Quand je te parle tu donnes des coups j'ai tes mouvements, tu as mes sons Bah ouais ça nous pendait au nez faire un enfant c'était de notre âge Et puis à force de trop s'aimer on laisse une trace de notre partage T'es pas encore là mais déjà je vois beaucoup de choses différemment Tu vas bousculer ma vie, définitivement Je sais pas encore la tête que t'as mais déjà je te trouve beau gosse Je voudrais t'avoir au creux de mon bras et caresser tes premières bosses J'aimerais t'acheter tes premiers jean et ta première paire de baskets J'ai même envie de changer tes couches, enfin ça ça changera peut-être Je peux pas encore tout te raconter là quand je te parle ta mère écoute Mais t'inquiète dès que tu seras né on aura nos secrets tu t'en doutes Je t'apprendrai même à faire des blagues et si jamais on se fait griller Toi tu diras que c'est de ma faute, moi je dirai que c'est toi qui as eu l'idée J'ai déjà la rage contre tes profs quand ils donneront trop de devoirs Si t'as des mauvais points de conduite ce sera pas vraiment un hasard Je t'engueulerai quand même pour la forme mais au fond de moi évidemment Je serai de ton côté, définitivement You might also likeJe t'apprendrai à observer et à écouter les gens Tu m'apprendras à m'inquiéter j'espère que tu seras indulgent Je t'enseignerai la prudence tu m'apprendras l'incertitude Tu m'apprendras les nuits blanches je t'enseignerai la gratitude Tu verras que parfois la vie c'est dur, j'essaierai pas de te le cacher On se casse la gueule à coup sûr quand on apprend à marcher J'aurai envie de te protéger mais j'essaierai de pas être trop lourd Je mettrai mon amour de fer dans une apparence de velours Je te préviens je fais mal la bouffe et je pourrai pas jouer au ballon Mais je trouverai d'autres trucs à faire pour que tu sois fier de ton daron Je serai un peu ton pote, un peu ton frère, mais pour me fâcher Faudra que je sois un peu ton père quand je te dirai d'aller te coucher T'es pas encore arrivé mais déjà qu'est-ce que je te kiffe Dans mon petit quotidien t'as changé tous mes objectifs Avant de penser à quoi que ce soit je penserai à toi tu vas clairement Changer mon sens des priorités, définitivement Alors voilà dépêche un peu il reste trois mois à galérer Tu dois être serré dans ton pieu, faudrait que tu penses à t'aérer Ici y a plein de belles choses à voir, y a la montagne et y a la mer Le soleil, la lune, les étoiles et puis les yeux de ta mère Allez mon gars dépêche un peu j'ai envie d'entendre ta voix On t'a même trouvé un prénom si tu l'aimes pas tant pis pour toi J'ai l'impression de rêver t'es la meilleure chose assurément Qui me soit jamais arrivée, définitivement J'ai l'impression de rêver t'es la meilleure chose assurément Qui me soit jamais arrivée</t>
+          <t>T'es pas encore arrivé avec ta mère on s'impatiente Elle, elle commence à fatiguer et puis faut voir l'état de son ventre Paraît que tu te caches là-dessous on communique à notre façon Quand je te parle tu donnes des coups j'ai tes mouvements, tu as mes sons Bah ouais ça nous pendait au nez faire un enfant c'était de notre âge Et puis à force de trop s'aimer on laisse une trace de notre partage T'es pas encore là mais déjà je vois beaucoup de choses différemment Tu vas bousculer ma vie, définitivement Je sais pas encore la tête que t'as mais déjà je te trouve beau gosse Je voudrais t'avoir au creux de mon bras et caresser tes premières bosses J'aimerais t'acheter tes premiers jean et ta première paire de baskets J'ai même envie de changer tes couches, enfin ça ça changera peut-être Je peux pas encore tout te raconter là quand je te parle ta mère écoute Mais t'inquiète dès que tu seras né on aura nos secrets tu t'en doutes Je t'apprendrai même à faire des blagues et si jamais on se fait griller Toi tu diras que c'est de ma faute, moi je dirai que c'est toi qui as eu l'idée J'ai déjà la rage contre tes profs quand ils donneront trop de devoirs Si t'as des mauvais points de conduite ce sera pas vraiment un hasard Je t'engueulerai quand même pour la forme mais au fond de moi évidemment Je serai de ton côté, définitivement Je t'apprendrai à observer et à écouter les gens Tu m'apprendras à m'inquiéter j'espère que tu seras indulgent Je t'enseignerai la prudence tu m'apprendras l'incertitude Tu m'apprendras les nuits blanches je t'enseignerai la gratitude Tu verras que parfois la vie c'est dur, j'essaierai pas de te le cacher On se casse la gueule à coup sûr quand on apprend à marcher J'aurai envie de te protéger mais j'essaierai de pas être trop lourd Je mettrai mon amour de fer dans une apparence de velours Je te préviens je fais mal la bouffe et je pourrai pas jouer au ballon Mais je trouverai d'autres trucs à faire pour que tu sois fier de ton daron Je serai un peu ton pote, un peu ton frère, mais pour me fâcher Faudra que je sois un peu ton père quand je te dirai d'aller te coucher T'es pas encore arrivé mais déjà qu'est-ce que je te kiffe Dans mon petit quotidien t'as changé tous mes objectifs Avant de penser à quoi que ce soit je penserai à toi tu vas clairement Changer mon sens des priorités, définitivement Alors voilà dépêche un peu il reste trois mois à galérer Tu dois être serré dans ton pieu, faudrait que tu penses à t'aérer Ici y a plein de belles choses à voir, y a la montagne et y a la mer Le soleil, la lune, les étoiles et puis les yeux de ta mère Allez mon gars dépêche un peu j'ai envie d'entendre ta voix On t'a même trouvé un prénom si tu l'aimes pas tant pis pour toi J'ai l'impression de rêver t'es la meilleure chose assurément Qui me soit jamais arrivée, définitivement J'ai l'impression de rêver t'es la meilleure chose assurément Qui me soit jamais arrivée</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>On a perdu cette notion aujourd'hui des beaux garçons. Quand est-ce qu'on va nous sortir des beaux mecs ou des filles sublimes ? Enfin, vous mettez un poster de Hoshi dans votre chambre, vous ? Mais elle est effrayante... Elle a du talent cette fille, vraiment ! Mais qu'elle donne ses chansons à des filles sublimes... Qu'est-ce que c'est qu'cette époque musicale Où on doit écouter ceux qui ont talent ? Qu'ont des tripes, qu'ont des couilles, qu'ont la dalle Ces p'tits auteurs, gratteurs de guitare accablants ? Nous, c'qu'on veut, c'est du beau, c'est du brillant C'est du propre, c'est du lisse, c'est du sublime Nous, c'qu'on veut, c'est l'retour des belles gueules Pour remplir le papier glacé des magazines Qu'est-ce que c'est qu'cette époque musicale Où on écoute les paroles des chansons ? On a perdu la notion des beaux mâles L'époque où on lançait de très beaux garçons Tu sais écrire des paroles, c'est très bien Mais, ton petit grain de voix, on s'en fiche S'il te plaît, va donner tes chansons À celui qui sera plus joli sur l'affiche Il faut des gens beaux... You might also like Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux On a négligé aujourd'hui le rôle du beau chanteur. Aujourd'hui, les gens qui réussissent, qui font carrière, c'est tous ceux qui grattent un peu d'guitare, qui jouent du piano... Eh, monsieur, toi qui veux retourner Au noir et blanc, aux belles heures du passé J'suis pas sûr qu'le grand Charles Aznavour Pouvait correspondre à tes critères de succès Je suis pas persuadé qu'Édith Piaf Possédait de belles jambes élancées Qu'elle allait défiler sur des beaux podiums Avec des grandes marques de talons compensés Eh, monsieur, toi qui es nostalgique Des chanteurs bien foutus, des bimbos Faut qu'tu saches un secret important C'est qu'Brassens n'avait pas de beaux abdominaux Les auteurs, compositeurs, chanteurs Ne sont pas forcément des imposteurs Tu sais monsieur, parfois, il faut s'taire Moi, j'veux voir Hoshi sur un poster Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Des très beaux garçons... Il faut des gens beaux...</t>
+          <t>On a perdu cette notion aujourd'hui des beaux garçons. Quand est-ce qu'on va nous sortir des beaux mecs ou des filles sublimes ? Enfin, vous mettez un poster de Hoshi dans votre chambre, vous ? Mais elle est effrayante... Elle a du talent cette fille, vraiment ! Mais qu'elle donne ses chansons à des filles sublimes... Qu'est-ce que c'est qu'cette époque musicale Où on doit écouter ceux qui ont talent ? Qu'ont des tripes, qu'ont des couilles, qu'ont la dalle Ces p'tits auteurs, gratteurs de guitare accablants ? Nous, c'qu'on veut, c'est du beau, c'est du brillant C'est du propre, c'est du lisse, c'est du sublime Nous, c'qu'on veut, c'est l'retour des belles gueules Pour remplir le papier glacé des magazines Qu'est-ce que c'est qu'cette époque musicale Où on écoute les paroles des chansons ? On a perdu la notion des beaux mâles L'époque où on lançait de très beaux garçons Tu sais écrire des paroles, c'est très bien Mais, ton petit grain de voix, on s'en fiche S'il te plaît, va donner tes chansons À celui qui sera plus joli sur l'affiche Il faut des gens beaux... Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux On a négligé aujourd'hui le rôle du beau chanteur. Aujourd'hui, les gens qui réussissent, qui font carrière, c'est tous ceux qui grattent un peu d'guitare, qui jouent du piano... Eh, monsieur, toi qui veux retourner Au noir et blanc, aux belles heures du passé J'suis pas sûr qu'le grand Charles Aznavour Pouvait correspondre à tes critères de succès Je suis pas persuadé qu'Édith Piaf Possédait de belles jambes élancées Qu'elle allait défiler sur des beaux podiums Avec des grandes marques de talons compensés Eh, monsieur, toi qui es nostalgique Des chanteurs bien foutus, des bimbos Faut qu'tu saches un secret important C'est qu'Brassens n'avait pas de beaux abdominaux Les auteurs, compositeurs, chanteurs Ne sont pas forcément des imposteurs Tu sais monsieur, parfois, il faut s'taire Moi, j'veux voir Hoshi sur un poster Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Des très beaux garçons... Il faut des gens beaux...</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Je suis pas au bout de mes surprises, là-dessus, y a aucun doute Et tous les jours je continue d'apprendre les codes de ma route Les codes de ma route, les codes de ma route Les codes de ma route ont soudain été très surprenants Nouvelle signalisation, nouveaux panneaux, nouveaux tournants J'ai bien alerté mes rétines pour voir tout ce qu'y avait à voir Et j'ai marché en observant, du côté chance de l'histoire On a d'abord slamé dans des bars, c'étaient nos tours de Babel L'histoire est devenue aventure et l'aventure est devenue belle Avec un mélange de rencontres, d'envies et de prises de risques Qui aurait cru que c'était possible, on a même sorti un disque Comme tout est allé vite, là, je décide de me poser Quelques s'condes, me retourner pour essayer d'analyser Une année mouvementée pleine de surprises et d'actions Où, avec le public, on a échangé des émotions Alors, j'essaie de réaliser, de ressentir, de prendre conscience De tout ce que ça m'a apporté d' recevoir cette reconnaissance Je me souviens d'une farandole de sentiments même si Le plus fort, c'est quand quelqu'un du public me dit merci Ça réchauffe le ventre de savoir qu'on a fait du bien Juste pour un petit moment, modestement, on crée du lien Puis, je me dis que je me suis pas trop trompé quand j'ai misé Sur toutes ces heures fragilisées par un auditoire tamisé Y avait plein de gens qui m'écoutaient, j'ai vu des oreilles plein leurs yeux Un tas de curs bien intentionnés, y avait des jeunes et puis des vieux Ils étaient là, ils m'attendaient même à l'aut' bout d'la France Ils m'ont offert un bout d'histoire où j'ai marché du côté chance You might also like La belle aventure a pris de drôles de proportions Difficile de prévoir de pareilles mensurations Bien sûr, on y croyait mais personne ne pensait Qu'y aurait des textes de slam au programme du bac français Tant d'événements inattendus, parsemés, forcément Et j'ai slamé, slalomant entre surprises et étonnements Et si je reprends l'horloge de mon unique journée Il est midi 40 quand s'achève la tournée Cette première tournée m'a offert tant d'images De plaisirs, de voyages, de sourires, de visages Des témoignages qui ont gonflé mes poumons de gratitude Voir un public se lever, on n'en prend jamais l'habitude Alors merci pour votre écoute et pour vos applaudissements Ils résonnent pour notre équipe comme les plus beaux encouragements Merci Renaud et Gaétan, et merci à Timothée J'ai compris, dans vos yeux d'enfants, qu'mes mots avaient de l'utilité On en a fait des kilomètres, vu des péages et vu des gares Pour essayer de mieux s'connaître, à la recherche de vos regards Des patelins aux grandes villes, des petites salles aux festivals De mes envies à mon réel, de Saint-Denis à Montréal Cent vingt dates de concert, avec un public aux p'tits soins Ça laisse quelques souvenirs, t'as qu'à demander aux musiciens Et comme j'suis un gamin, bah j'ai envie d'recommencer Et quoi qu'y se passe demain, je me souviendrai de l'année passée Quelques dédicaces pour les acteurs de cette tournée Philippe, Jean, Florence, Nathalie, Hélène, Hervé Merci Hamid, Paco, Yannick et Rony J'oublie pas James, Djamel, Raf, Karim et Ouali Le noyau dur Yakeen, S Petit Nico et Feed Back Merci Jean-Phi et Jean-Rachid, on partage tous le même trac Comte de Bouderbala et John Pucc', c'est toujours un plaisir De vous avoir sur scène et rendez-vous à l'Amazir</t>
+          <t>Je suis pas au bout de mes surprises, là-dessus, y a aucun doute Et tous les jours je continue d'apprendre les codes de ma route Les codes de ma route, les codes de ma route Les codes de ma route ont soudain été très surprenants Nouvelle signalisation, nouveaux panneaux, nouveaux tournants J'ai bien alerté mes rétines pour voir tout ce qu'y avait à voir Et j'ai marché en observant, du côté chance de l'histoire On a d'abord slamé dans des bars, c'étaient nos tours de Babel L'histoire est devenue aventure et l'aventure est devenue belle Avec un mélange de rencontres, d'envies et de prises de risques Qui aurait cru que c'était possible, on a même sorti un disque Comme tout est allé vite, là, je décide de me poser Quelques s'condes, me retourner pour essayer d'analyser Une année mouvementée pleine de surprises et d'actions Où, avec le public, on a échangé des émotions Alors, j'essaie de réaliser, de ressentir, de prendre conscience De tout ce que ça m'a apporté d' recevoir cette reconnaissance Je me souviens d'une farandole de sentiments même si Le plus fort, c'est quand quelqu'un du public me dit merci Ça réchauffe le ventre de savoir qu'on a fait du bien Juste pour un petit moment, modestement, on crée du lien Puis, je me dis que je me suis pas trop trompé quand j'ai misé Sur toutes ces heures fragilisées par un auditoire tamisé Y avait plein de gens qui m'écoutaient, j'ai vu des oreilles plein leurs yeux Un tas de curs bien intentionnés, y avait des jeunes et puis des vieux Ils étaient là, ils m'attendaient même à l'aut' bout d'la France Ils m'ont offert un bout d'histoire où j'ai marché du côté chance La belle aventure a pris de drôles de proportions Difficile de prévoir de pareilles mensurations Bien sûr, on y croyait mais personne ne pensait Qu'y aurait des textes de slam au programme du bac français Tant d'événements inattendus, parsemés, forcément Et j'ai slamé, slalomant entre surprises et étonnements Et si je reprends l'horloge de mon unique journée Il est midi 40 quand s'achève la tournée Cette première tournée m'a offert tant d'images De plaisirs, de voyages, de sourires, de visages Des témoignages qui ont gonflé mes poumons de gratitude Voir un public se lever, on n'en prend jamais l'habitude Alors merci pour votre écoute et pour vos applaudissements Ils résonnent pour notre équipe comme les plus beaux encouragements Merci Renaud et Gaétan, et merci à Timothée J'ai compris, dans vos yeux d'enfants, qu'mes mots avaient de l'utilité On en a fait des kilomètres, vu des péages et vu des gares Pour essayer de mieux s'connaître, à la recherche de vos regards Des patelins aux grandes villes, des petites salles aux festivals De mes envies à mon réel, de Saint-Denis à Montréal Cent vingt dates de concert, avec un public aux p'tits soins Ça laisse quelques souvenirs, t'as qu'à demander aux musiciens Et comme j'suis un gamin, bah j'ai envie d'recommencer Et quoi qu'y se passe demain, je me souviendrai de l'année passée Quelques dédicaces pour les acteurs de cette tournée Philippe, Jean, Florence, Nathalie, Hélène, Hervé Merci Hamid, Paco, Yannick et Rony J'oublie pas James, Djamel, Raf, Karim et Ouali Le noyau dur Yakeen, S Petit Nico et Feed Back Merci Jean-Phi et Jean-Rachid, on partage tous le même trac Comte de Bouderbala et John Pucc', c'est toujours un plaisir De vous avoir sur scène et rendez-vous à l'Amazir</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né Mon école elle est mignonne même si les murs sont pas tous neufs Dans chaque salle y a plein de bruit moi dans ma classe on est 29 Y a pas beaucoup d'élèves modèles et puis on est un peu dissipés J'crois qu'nous sommes ce qu'on appelle des élèves en difficulté Moi en maths j'suis pas terrible mais c'est pas pire qu'en dictée C'que je préfère c'est 16h j'retrouve les grands dans mon quartier Pourtant ma maitresse j'l'aime bien elle peut être dure mais elle est patiente Et si jamais je comprends rien elle me réexplique elle est pas chiante Elle a toujours plein d'idées et de projets pour les sorties Mais on a que 2 cars par an qui sont prêtés par la mairie Je crois que mon école elle est pauvre, on n'a pas de salle informatique On n'a que la cour et le préau pour faire de la gymnastique A la télé j'ai vu que des classes faisaient du golf en EPS Nous on a que des tapis et des cerceaux et la détresse de nos maitresses Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fou dans des défaites spectaculaires You might also likeL'enseignement en France va mal et personne peut nier la vérité Les zones d'éducation prioritaires ne sont pas des priorités Les classes sont surchargées pas comme la paye des profs minés Et on supprime des effectifs dans des écoles déjà en apnées Au contraire faut rajouter des profs et des autres métiers qui prennent la relève Dans des quartiers les plus en galère, créer des classes de 15 élèves Ajouter des postes d'assistants ou d'auxiliaires qui aident aux devoirs Qui connaissent les parents et accompagnent les enfants les plus en retard L'enseignement en France va mal, l'état ne met pas assez d'argent Quelques réformes à deux balles pour ne pas voir le plus urgent Un établissement scolaire sans vrais moyens est impuissant Comment peut on faire des économies sur l'avenir de nos enfants L'enseignement en France va mal car il rend pas les gens égaux Les plus fragiles tirent l'alarme mais on étouffe leur écho L'école publique va mal car elle a la tête sous l'eau Y a pas d'éducation nationale, y a que des moyens de survies locaux Alors continuons de dire aux p'tits frères que l'école est la solution Et donnons leur les bons outils pour leur avenir car attention La réussite scolaire dans certaines zones pourrait rester un mystère Et l'égalité des chances un concept de ministère Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours il y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fous dans des défaites spectaculaires J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né C'est pas d'ma faute à moi si j'ai moins de chance d'avoir le bac C'est simplement parce que j'vis là, que mon avenir est un cul de sac</t>
+          <t>J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né Mon école elle est mignonne même si les murs sont pas tous neufs Dans chaque salle y a plein de bruit moi dans ma classe on est 29 Y a pas beaucoup d'élèves modèles et puis on est un peu dissipés J'crois qu'nous sommes ce qu'on appelle des élèves en difficulté Moi en maths j'suis pas terrible mais c'est pas pire qu'en dictée C'que je préfère c'est 16h j'retrouve les grands dans mon quartier Pourtant ma maitresse j'l'aime bien elle peut être dure mais elle est patiente Et si jamais je comprends rien elle me réexplique elle est pas chiante Elle a toujours plein d'idées et de projets pour les sorties Mais on a que 2 cars par an qui sont prêtés par la mairie Je crois que mon école elle est pauvre, on n'a pas de salle informatique On n'a que la cour et le préau pour faire de la gymnastique A la télé j'ai vu que des classes faisaient du golf en EPS Nous on a que des tapis et des cerceaux et la détresse de nos maitresses Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fou dans des défaites spectaculaires L'enseignement en France va mal et personne peut nier la vérité Les zones d'éducation prioritaires ne sont pas des priorités Les classes sont surchargées pas comme la paye des profs minés Et on supprime des effectifs dans des écoles déjà en apnées Au contraire faut rajouter des profs et des autres métiers qui prennent la relève Dans des quartiers les plus en galère, créer des classes de 15 élèves Ajouter des postes d'assistants ou d'auxiliaires qui aident aux devoirs Qui connaissent les parents et accompagnent les enfants les plus en retard L'enseignement en France va mal, l'état ne met pas assez d'argent Quelques réformes à deux balles pour ne pas voir le plus urgent Un établissement scolaire sans vrais moyens est impuissant Comment peut on faire des économies sur l'avenir de nos enfants L'enseignement en France va mal car il rend pas les gens égaux Les plus fragiles tirent l'alarme mais on étouffe leur écho L'école publique va mal car elle a la tête sous l'eau Y a pas d'éducation nationale, y a que des moyens de survies locaux Alors continuons de dire aux p'tits frères que l'école est la solution Et donnons leur les bons outils pour leur avenir car attention La réussite scolaire dans certaines zones pourrait rester un mystère Et l'égalité des chances un concept de ministère Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours il y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fous dans des défaites spectaculaires J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né C'est pas d'ma faute à moi si j'ai moins de chance d'avoir le bac C'est simplement parce que j'vis là, que mon avenir est un cul de sac</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>En ces temps confinés, on s'est posé un peu Loin des courses effrénées, on a ouvert les yeux Sur cette époque troublée, ça fait du bien parfois Se remettre à penser même si c'est pas par choix Alors entre les cris d'enfants et le travail scolaire Entre les masques et les gants, entre peur et colère Voyant les dirigeants flipper dans leur confuse gestion En ces temps confinés, on se pose des questions Et maintenant... Et maintenant... Et si ce virus avait beaucoup d'autres vertus Que celle de s'attaquer à nos poumons vulnérables S'il essayait aussi de nous rendre la vue Sur nos modes de vie devenus préjudiciables Si on doit sauver nos vies en restant bien chez soi On laisse enfin la Terre récupérer c'qu'on lui a pris La nature fait sa loi en reprenant ses droits Se vengeant de notre arrogance et de notre mépris Et est-ce un hasard si ce virus immonde N'attaque pas les plus jeunes ? N'atteint pas les enfants Il s'en prend aux adultes responsables de ce monde Il condamne nos dérives et épargne les innocents Ce monde des adultes est devenu si fébrile L'ordre établi a explosé en éclats Les terriens se rappellent qu'ils sont humains et fragiles Et se sentent peut-être l'heure de remettre tout à plat Et si ce virus avait beaucoup d'autres pouvoirs Que celui d's'attaquer à notre respiration S'il essayait aussi de nous rendre la mémoire Sur les valeurs oubliées derrière nos ambitions On se découvre soudain semblables, solidaires Tous dans l'même bateau pour affronter l'virus C'était un peu moins l'cas pour combattre la misère On était moins unis pour accueillir l'Aquarius Et si ce virus avait le don énorme De rappeler c'qui nous est vraiment essentiel Les voyages, les sorties, l'argent ne sont plus la norme Et, de nos fenêtres, on réapprend à regarder le ciel On a du temps pour la famille, on ralentit l'travail Et, même avec l'extérieur, on renforce les liens On réinvente nos rituels, pleins d'idées, de trouvailles Et, chaque jour, on prend des nouvelles de nos anciens Et si ce virus nous montrait qui sont les vrais héros Ceux qui trimaient déjà dans nos pensées lointaines Ce n'est que maintenant qu'ils font la une des journaux Pendant qu'le CAC 40 est en quarantaine Bien avant l'Corona, l'hôpital suffoquait Il toussait la misère et la saturation Nos dirigeants découvrent qu'il y a lieu d'être inquiets Maintenant qu'il y a la queue en réanimation On reconnaît tout à coup ceux qui nous aident à vivre Quand l'État asphyxie tous nos services publics Ceux qui nettoient les rues, qui transportent et qui livrent On redécouvre les transparents d'la république You might also like Et maintenant... Et maintenant... Alors quand c'virus partira comme il est venu Que restera-t-il de tous ses effets secondaires ? Qu'est-ce qu'on aura gagné avec tout c'qu'on a perdu ? Est-ce que nos morts auront eu un destin salutaire ?</t>
+          <t>En ces temps confinés, on s'est posé un peu Loin des courses effrénées, on a ouvert les yeux Sur cette époque troublée, ça fait du bien parfois Se remettre à penser même si c'est pas par choix Alors entre les cris d'enfants et le travail scolaire Entre les masques et les gants, entre peur et colère Voyant les dirigeants flipper dans leur confuse gestion En ces temps confinés, on se pose des questions Et maintenant... Et maintenant... Et si ce virus avait beaucoup d'autres vertus Que celle de s'attaquer à nos poumons vulnérables S'il essayait aussi de nous rendre la vue Sur nos modes de vie devenus préjudiciables Si on doit sauver nos vies en restant bien chez soi On laisse enfin la Terre récupérer c'qu'on lui a pris La nature fait sa loi en reprenant ses droits Se vengeant de notre arrogance et de notre mépris Et est-ce un hasard si ce virus immonde N'attaque pas les plus jeunes ? N'atteint pas les enfants Il s'en prend aux adultes responsables de ce monde Il condamne nos dérives et épargne les innocents Ce monde des adultes est devenu si fébrile L'ordre établi a explosé en éclats Les terriens se rappellent qu'ils sont humains et fragiles Et se sentent peut-être l'heure de remettre tout à plat Et si ce virus avait beaucoup d'autres pouvoirs Que celui d's'attaquer à notre respiration S'il essayait aussi de nous rendre la mémoire Sur les valeurs oubliées derrière nos ambitions On se découvre soudain semblables, solidaires Tous dans l'même bateau pour affronter l'virus C'était un peu moins l'cas pour combattre la misère On était moins unis pour accueillir l'Aquarius Et si ce virus avait le don énorme De rappeler c'qui nous est vraiment essentiel Les voyages, les sorties, l'argent ne sont plus la norme Et, de nos fenêtres, on réapprend à regarder le ciel On a du temps pour la famille, on ralentit l'travail Et, même avec l'extérieur, on renforce les liens On réinvente nos rituels, pleins d'idées, de trouvailles Et, chaque jour, on prend des nouvelles de nos anciens Et si ce virus nous montrait qui sont les vrais héros Ceux qui trimaient déjà dans nos pensées lointaines Ce n'est que maintenant qu'ils font la une des journaux Pendant qu'le CAC 40 est en quarantaine Bien avant l'Corona, l'hôpital suffoquait Il toussait la misère et la saturation Nos dirigeants découvrent qu'il y a lieu d'être inquiets Maintenant qu'il y a la queue en réanimation On reconnaît tout à coup ceux qui nous aident à vivre Quand l'État asphyxie tous nos services publics Ceux qui nettoient les rues, qui transportent et qui livrent On redécouvre les transparents d'la république Et maintenant... Et maintenant... Alors quand c'virus partira comme il est venu Que restera-t-il de tous ses effets secondaires ? Qu'est-ce qu'on aura gagné avec tout c'qu'on a perdu ? Est-ce que nos morts auront eu un destin salutaire ?</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'avoue que c'est bon de se barrer à la mer ou à la campagne Quand tu ressens ce besoin, quand ton envie de verdure t'accompagne Nouvelles couleurs, nouvelles odeurs, ça rend les sens euphoriques Respirer un air meilleur ça change de mon bout de périphérique Est-ce que t'as déjà bien écouté le bruit du vent dans la forêt Est-ce que t'as déjà marché pieds nus dans l'herbe haute, je voudrais Surtout pas représenter l'écolo relou à 4 centimes Mais la nature nourrit l'homme et rien que pour ça faut qu'on l'estime Donc la nature je la respecte, c'est peut-être pour ça que j'écris en vers Mais c'est tout sauf mon ambiance, j'appartiens à un autre univers Si la campagne est côté face, je suis un produit du côté pile Là où les apparts s'empilent, je suis enfant de la ville Je sens le cur de la ville qui cogne dans ma poitrine J'entends les sirènes qui résonnent mais est-ce vraiment un crime D'aimer le murmure de la rue et l'odeur de l'essence J'ai besoin de cette atmosphère pour développer mes sens x2 Je suis un enfant de la ville, je suis un enfant du bruit J'aime la foule quand ça grouille, j'aime les rires et les cris J'écris mon envie de croiser du mouvement et des visages Je veux que ça claque et que ça sonne, je ne veux pas que des vies sages Je trempe ma plume dans l'asphalte, il est peut-être pas trop tard Pour voir un brin de poésie même sur nos bouts de trottoirs Le bitume est un shaker où tous les passants se mélangent Je ressens ça à chaque heure et jusqu'au bout de mes phalanges Je dis pas que le béton c'est beau, je dis que le béton c'est brut Ca sent le vrai, l'authentique, peut-être que c'est ça le truc Quand on le regarde dans les yeux, on voit bien que s'y reflètent nos vies Et on comprend que slam et hip-hop ne pouvaient naître qu'ici Difficile de traduire ce caractère d'urgence Qui se dégage et qu'on vit comme une accoutumance Besoin de cette agitation qui nous est bien familière Je t'offre une invitation pour cette grande fourmilière J'suis allé à New York, je me suis senti dans mon bain Ce carrefour des cultures est un dictionnaire urbain J'ai l'amour de ce désordre et je ris quand les gens se ruent Comme à l'angle de Broadway et de la 42ème rue You might also like x2 Je me sens chez moi à Saint-Denis, quand y'a plein de monde sur les quais Je me sens chez moi à Belleville ou dans le métro New-yorkais Pourtant j'ai bien conscience qu'il faut être sacrément taré Pour aimer dormir coincé dans 35 mètres carrés Mais j'ai des explications, y'a tout mon passé dans ce bordel Et face à cette folie, j'embarque mon futur à bord d'elle A bord de cette pagaille qui m'égaye depuis toujours C'est beau une ville la nuit, c'est chaud une ville le jour Moi dans toute cette cohue je promène ma nonchalance Je me ballade au ralenti et je souris à la chance D'être ce que je suis, d'être serein, d'éviter les coups de surin D'être sur un ou deux bons coups pour que demain sente pas le purin Je suis un enfant de la ville donc un fruit de mon époque Je vois des styles qui défilent, enfants du melting-pot Je suis un enfant tranquille avec les poches pleines d'espoir Je suis un enfant de la ville, ce n'est que le début de l'histoire</t>
+          <t>J'avoue que c'est bon de se barrer à la mer ou à la campagne Quand tu ressens ce besoin, quand ton envie de verdure t'accompagne Nouvelles couleurs, nouvelles odeurs, ça rend les sens euphoriques Respirer un air meilleur ça change de mon bout de périphérique Est-ce que t'as déjà bien écouté le bruit du vent dans la forêt Est-ce que t'as déjà marché pieds nus dans l'herbe haute, je voudrais Surtout pas représenter l'écolo relou à 4 centimes Mais la nature nourrit l'homme et rien que pour ça faut qu'on l'estime Donc la nature je la respecte, c'est peut-être pour ça que j'écris en vers Mais c'est tout sauf mon ambiance, j'appartiens à un autre univers Si la campagne est côté face, je suis un produit du côté pile Là où les apparts s'empilent, je suis enfant de la ville Je sens le cur de la ville qui cogne dans ma poitrine J'entends les sirènes qui résonnent mais est-ce vraiment un crime D'aimer le murmure de la rue et l'odeur de l'essence J'ai besoin de cette atmosphère pour développer mes sens x2 Je suis un enfant de la ville, je suis un enfant du bruit J'aime la foule quand ça grouille, j'aime les rires et les cris J'écris mon envie de croiser du mouvement et des visages Je veux que ça claque et que ça sonne, je ne veux pas que des vies sages Je trempe ma plume dans l'asphalte, il est peut-être pas trop tard Pour voir un brin de poésie même sur nos bouts de trottoirs Le bitume est un shaker où tous les passants se mélangent Je ressens ça à chaque heure et jusqu'au bout de mes phalanges Je dis pas que le béton c'est beau, je dis que le béton c'est brut Ca sent le vrai, l'authentique, peut-être que c'est ça le truc Quand on le regarde dans les yeux, on voit bien que s'y reflètent nos vies Et on comprend que slam et hip-hop ne pouvaient naître qu'ici Difficile de traduire ce caractère d'urgence Qui se dégage et qu'on vit comme une accoutumance Besoin de cette agitation qui nous est bien familière Je t'offre une invitation pour cette grande fourmilière J'suis allé à New York, je me suis senti dans mon bain Ce carrefour des cultures est un dictionnaire urbain J'ai l'amour de ce désordre et je ris quand les gens se ruent Comme à l'angle de Broadway et de la 42ème rue x2 Je me sens chez moi à Saint-Denis, quand y'a plein de monde sur les quais Je me sens chez moi à Belleville ou dans le métro New-yorkais Pourtant j'ai bien conscience qu'il faut être sacrément taré Pour aimer dormir coincé dans 35 mètres carrés Mais j'ai des explications, y'a tout mon passé dans ce bordel Et face à cette folie, j'embarque mon futur à bord d'elle A bord de cette pagaille qui m'égaye depuis toujours C'est beau une ville la nuit, c'est chaud une ville le jour Moi dans toute cette cohue je promène ma nonchalance Je me ballade au ralenti et je souris à la chance D'être ce que je suis, d'être serein, d'éviter les coups de surin D'être sur un ou deux bons coups pour que demain sente pas le purin Je suis un enfant de la ville donc un fruit de mon époque Je vois des styles qui défilent, enfants du melting-pot Je suis un enfant tranquille avec les poches pleines d'espoir Je suis un enfant de la ville, ce n'est que le début de l'histoire</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Il regarde son décor, s'enfoncer dans la nuit Il fait froid, il est tard mais il ne rentre pas chez lui Tout au fond d'son regard, il ne fait pas ses douze ans Alors de faire ses devoirs, il pense à faire de l'argent Sa vie est agressive alors il le lui rend bien Il s'est battu de nombreuses fois, il ne sait plus combien Il a grandi trop vite, loin des histoires à l'eau d'rose Il a vu son voisin se faire planter pour une dose On a enlevé l'innocence dans son propre logiciel Et au-dessus d'son immeuble, y a pas souvent d'arc-en-ciel À l'âge où les autres jouent, lui il se défend Au milieu du désordre, il n'a plus le temps d'être un enfant Sombre le monde quand on voit qu'une seule partie Il ne sait pas dire à quel point il souffre Sur le chemin, il a croisé des navires Qui sont tombés bien trop bas dans le gouffre Il compte plus les heures seul On lui a dit juste Tais-toi et bouffe Dans la cité rien ne lui glace le sang Pour lui il n'y a ni après ni avant Il n'a pas connu l'état d'être enfant Et il compte plus les heures, seul Oh-oh-oh-oh seul, seul Tais-toi et bouffe You might also like Il regarde son décor s'enfoncer dans la peur Y a des cris dehors, il connait ça par cur À vingts minutes de chez lui, les beaux quartiers s'allument Il n'a connu qu'la misère et ses reflets dans l'bitume Son espoir s'est usé dans une cage d'escalier Sa part d'ange s'est fanée au quatorzième palier À traîner avec les grands, il en perd son âge Il est presque né violent, c'est pas un personnage Son père est trop absent, sa mère est dépassée Il passe le temps à faire le gai devant le bâtiment C Avant d'apprendre à sourire, il a appris à mordre Il est parmi tant d'autres un enfant du désordre Enfant du désordre La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe Il regarde son avenir s'enfoncer dans l'impasse Aucun projet en vue, les questions qui s'entassent Il regarde la vie des autres pour oublier ses drames Sa vie à lui ne ressemble pas aux story d'Instagram Il n'est pas malheureux puisqu'il ne cherche pas l'bonheur À qui la faute s'il n'a pas les mêmes chances qu'ailleurs ? La faute à sa cité, la faute à pas d'chance La faute au manque d'argent, la faute à la France La faute au manque d'illusion, au fatalisme rampant La faute à l'état français qui ferme les yeux depuis trente ans La faute au manque d'horizon, la faute aux grilles tout autour Au manque de considération, la faute au manque d'amour Au manque d'amour La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe</t>
+          <t>Il regarde son décor, s'enfoncer dans la nuit Il fait froid, il est tard mais il ne rentre pas chez lui Tout au fond d'son regard, il ne fait pas ses douze ans Alors de faire ses devoirs, il pense à faire de l'argent Sa vie est agressive alors il le lui rend bien Il s'est battu de nombreuses fois, il ne sait plus combien Il a grandi trop vite, loin des histoires à l'eau d'rose Il a vu son voisin se faire planter pour une dose On a enlevé l'innocence dans son propre logiciel Et au-dessus d'son immeuble, y a pas souvent d'arc-en-ciel À l'âge où les autres jouent, lui il se défend Au milieu du désordre, il n'a plus le temps d'être un enfant Sombre le monde quand on voit qu'une seule partie Il ne sait pas dire à quel point il souffre Sur le chemin, il a croisé des navires Qui sont tombés bien trop bas dans le gouffre Il compte plus les heures seul On lui a dit juste Tais-toi et bouffe Dans la cité rien ne lui glace le sang Pour lui il n'y a ni après ni avant Il n'a pas connu l'état d'être enfant Et il compte plus les heures, seul Oh-oh-oh-oh seul, seul Tais-toi et bouffe Il regarde son décor s'enfoncer dans la peur Y a des cris dehors, il connait ça par cur À vingts minutes de chez lui, les beaux quartiers s'allument Il n'a connu qu'la misère et ses reflets dans l'bitume Son espoir s'est usé dans une cage d'escalier Sa part d'ange s'est fanée au quatorzième palier À traîner avec les grands, il en perd son âge Il est presque né violent, c'est pas un personnage Son père est trop absent, sa mère est dépassée Il passe le temps à faire le gai devant le bâtiment C Avant d'apprendre à sourire, il a appris à mordre Il est parmi tant d'autres un enfant du désordre Enfant du désordre La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe Il regarde son avenir s'enfoncer dans l'impasse Aucun projet en vue, les questions qui s'entassent Il regarde la vie des autres pour oublier ses drames Sa vie à lui ne ressemble pas aux story d'Instagram Il n'est pas malheureux puisqu'il ne cherche pas l'bonheur À qui la faute s'il n'a pas les mêmes chances qu'ailleurs ? La faute à sa cité, la faute à pas d'chance La faute au manque d'argent, la faute à la France La faute au manque d'illusion, au fatalisme rampant La faute à l'état français qui ferme les yeux depuis trente ans La faute au manque d'horizon, la faute aux grilles tout autour Au manque de considération, la faute au manque d'amour Au manque d'amour La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A celui qui veut construire sa maison tout seul A celui qui pense que l'enfer c'est les autres A celui qui ne tend jamais la main par orgueil A celui qui préfère dire le mien que le nôtre A celui qui pense qu'on doit être seul pour être libre Qu'on n'est jamais mieux servi que par soi même Moi je dis que j'ai besoin des autres pour bien vivre J'affiche l'esprit d'équipe comme un emblème Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin L'homme est un animal qui est fait pour vivre en meute Tout seul il s'ennuie, il stagne, il se perd Il est pour son voisin le meilleur thérapeute Il est pour ses prochains le plus fiable des repères Parce que plus que jamais j'aime la force de l'équipe La puissance du collectif je l'ai vécu et j'y crois Et même si je suis toujours mauvais en mathématiques Je pense que chez l'homme un plus un égale trois You might also like Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Les hommes sont plus forts quand ils savent leurs faiblesses Chaque interaction est féconde, explique leur Que l'entraide et le partage c'est l'avenir de l'espèce Quand la vie est trop lourde, portons-la à plusieurs Tout seul je vais vite, ensemble on va loin Quand je fais ma partie, je peux passer le témoin Tout seule je résiste, ensemble on craint rien On progresse, on grandit et putain on rigole bien x2 Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin</t>
+          <t>A celui qui veut construire sa maison tout seul A celui qui pense que l'enfer c'est les autres A celui qui ne tend jamais la main par orgueil A celui qui préfère dire le mien que le nôtre A celui qui pense qu'on doit être seul pour être libre Qu'on n'est jamais mieux servi que par soi même Moi je dis que j'ai besoin des autres pour bien vivre J'affiche l'esprit d'équipe comme un emblème Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin L'homme est un animal qui est fait pour vivre en meute Tout seul il s'ennuie, il stagne, il se perd Il est pour son voisin le meilleur thérapeute Il est pour ses prochains le plus fiable des repères Parce que plus que jamais j'aime la force de l'équipe La puissance du collectif je l'ai vécu et j'y crois Et même si je suis toujours mauvais en mathématiques Je pense que chez l'homme un plus un égale trois Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Les hommes sont plus forts quand ils savent leurs faiblesses Chaque interaction est féconde, explique leur Que l'entraide et le partage c'est l'avenir de l'espèce Quand la vie est trop lourde, portons-la à plusieurs Tout seul je vais vite, ensemble on va loin Quand je fais ma partie, je peux passer le témoin Tout seule je résiste, ensemble on craint rien On progresse, on grandit et putain on rigole bien x2 Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C'est le calvaire sévère du poète et de ses vers Envers et contre tout le poète s'évertue à trouver des vers Sans tergiverser il reste ouvert été comme hiver Tout l'inspire Assis dans un verger verdâtre il observe l'air pervers D'un pivert picorant sans vergogne un ver de terre Il prend de la hauteur, et en auteur vertueux et averti il convertit seul la véracité de cette scène en vers Et contre tous L'écriture est son univers, sa perversion Il versifie sans se diversifier regardant les mots de face de travers Les posant à l'endroit à l'envers rimant en vers rapides ou en vers lents Vers l'an 2000 il doute il se dit qu'il est en train de passer au travers Ses parents l'avaient averti ils ont une aversion pour ses vers Ça il l'a découvert Des fois même il en perd ses vers Mais malgré un père sévère il persévère et décide de mettre fin au calvaire Il se tourne vers une maison de disques, véritable pari vers un nouvel univers Il fait confiance à la verve de son stylo et attend de voir ce que ses propres vers dictent Il s'avère qu'il obtient un rendez-vous le jour de son anniversaire Il s'est bien couvert car dehors il pleut à verse Notre poète est sagittaire, aujourd'hui Dame Nature est verseau Vers sept heures dans son blouson vermillon il arrive devant ce grand immeuble de verre Il appréhende Il se sent tout petit, rabougri comme une verge effarouchée L'hôtesse d'accueil lui dit qu'il est attendu au sixième étage bureau 666 Dans l'ascenseur il se dit qu'il va peut être enfin mettre fin à ce sale hiver Il a la gorge sèche, la pression bloque ses glandes salivaires Il arrive devant la bonne porte, pose la main sur la poignée C'est tout vert à l'intérieur la moquette est verte les rideaux sont verts la table et les chaises sont vertes Et lui il a le vertige Face à lui un homme, notre poète sent que c'est une vermine Il est habillé comme un ado mais doit avoir sa carte vermeil, ça l'émerveille Il a la peau vérolée et un il de verre Il dit à notre poète qu'il a lu ses vers, et qu'il pense qu'il a du talent mais qu'il n'est pas encore assez mûr, peut être trop vert Il l'invite à revenir vers l'hiver prochain pour l'instant miser sur lui serait perdre de l'argent Quand il a fini de déverser ses arguments renversants Notre poète se lève sans un mot pour sortir et quitter cet univers sale Il garde la tête haute, et le cou droit, mais il s'est prit un revers Et même si pour l'instant il rit jaune en fait il est vert Il est à deux doigts de se laisser pervertir à casser quelques vertèbres à cette vermine Mais finalement il décide de ne pas ajouter un nouveau fait divers glacé dans cet hiver déjà rude Ce soir, il troquera sa tasse de verveine contre un verre de vermouth Avant d'enlever son pull-over et de se remettre à ses vers Sa façon à lui de se mettre au vert C'est vrai qu'il n'est pas verni que son ascension n'est pas verticale Mais il sait qu'un jour il trouvera la clé de ce verrou Et il pourra alors courir même s'il ne sait pas encore vers où Il a confiance en l'avenir en sa plume en son style versatile, il faut qu'il s'évertue Même sans revolver, il faut que ses vers tuent You might also likeAlors pour lui et pour ses vers, pour son calvaire sévère Ce soir je lève mon verre Malgré ces quelques heures noires, pourvu que ses vers durent</t>
+          <t>C'est le calvaire sévère du poète et de ses vers Envers et contre tout le poète s'évertue à trouver des vers Sans tergiverser il reste ouvert été comme hiver Tout l'inspire Assis dans un verger verdâtre il observe l'air pervers D'un pivert picorant sans vergogne un ver de terre Il prend de la hauteur, et en auteur vertueux et averti il convertit seul la véracité de cette scène en vers Et contre tous L'écriture est son univers, sa perversion Il versifie sans se diversifier regardant les mots de face de travers Les posant à l'endroit à l'envers rimant en vers rapides ou en vers lents Vers l'an 2000 il doute il se dit qu'il est en train de passer au travers Ses parents l'avaient averti ils ont une aversion pour ses vers Ça il l'a découvert Des fois même il en perd ses vers Mais malgré un père sévère il persévère et décide de mettre fin au calvaire Il se tourne vers une maison de disques, véritable pari vers un nouvel univers Il fait confiance à la verve de son stylo et attend de voir ce que ses propres vers dictent Il s'avère qu'il obtient un rendez-vous le jour de son anniversaire Il s'est bien couvert car dehors il pleut à verse Notre poète est sagittaire, aujourd'hui Dame Nature est verseau Vers sept heures dans son blouson vermillon il arrive devant ce grand immeuble de verre Il appréhende Il se sent tout petit, rabougri comme une verge effarouchée L'hôtesse d'accueil lui dit qu'il est attendu au sixième étage bureau 666 Dans l'ascenseur il se dit qu'il va peut être enfin mettre fin à ce sale hiver Il a la gorge sèche, la pression bloque ses glandes salivaires Il arrive devant la bonne porte, pose la main sur la poignée C'est tout vert à l'intérieur la moquette est verte les rideaux sont verts la table et les chaises sont vertes Et lui il a le vertige Face à lui un homme, notre poète sent que c'est une vermine Il est habillé comme un ado mais doit avoir sa carte vermeil, ça l'émerveille Il a la peau vérolée et un il de verre Il dit à notre poète qu'il a lu ses vers, et qu'il pense qu'il a du talent mais qu'il n'est pas encore assez mûr, peut être trop vert Il l'invite à revenir vers l'hiver prochain pour l'instant miser sur lui serait perdre de l'argent Quand il a fini de déverser ses arguments renversants Notre poète se lève sans un mot pour sortir et quitter cet univers sale Il garde la tête haute, et le cou droit, mais il s'est prit un revers Et même si pour l'instant il rit jaune en fait il est vert Il est à deux doigts de se laisser pervertir à casser quelques vertèbres à cette vermine Mais finalement il décide de ne pas ajouter un nouveau fait divers glacé dans cet hiver déjà rude Ce soir, il troquera sa tasse de verveine contre un verre de vermouth Avant d'enlever son pull-over et de se remettre à ses vers Sa façon à lui de se mettre au vert C'est vrai qu'il n'est pas verni que son ascension n'est pas verticale Mais il sait qu'un jour il trouvera la clé de ce verrou Et il pourra alors courir même s'il ne sait pas encore vers où Il a confiance en l'avenir en sa plume en son style versatile, il faut qu'il s'évertue Même sans revolver, il faut que ses vers tuent Alors pour lui et pour ses vers, pour son calvaire sévère Ce soir je lève mon verre Malgré ces quelques heures noires, pourvu que ses vers durent</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère You might also likeLes jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
+          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lourdes sont les baloches, l'respect est obligatoire Quatre portables dans la sacoche sous commission rogatoire Les murs ont des oreilles, l'commissaire veut tout savoir Parfois les potes de la veille auraient besoin d'un bavoir Les parents désespèrent, les condés sont détestés La virginité s'perd aussi souvent que le respect Fuck tes belles promesses, j'me débrouille moi-même La seule fin heureuse que j'connaisse, c'est la fin d'la semaine Et nique sa race, j'ai plus l'temps d'être peace J'prends de la place comme une liasse en billet d'dix Et j'range mes sourires, j'apprends à être triste À croire qu't'es obligé d'chialer quand t'es un artiste Et l'amour du risque faire du hors-piste les yeux bandés Ce qui consiste à sortir un disque en indé' C'est Tunisan', ça s'passe le dix mars L'album c'est Marqué à vie, Grand corps Malade Tunisan', on est des funambules, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude, je suis un funambule On est, on est des, on est des On fait parler l'talent You might also like Rendez-vous au prochain cauchemar, qu'on parle de mes rêves Moi faut qu'j'marche la tête haute, j'rappe une part de mes rêves J'pense grand, on s'tue à chercher un but, finalement Moi j'réponds pas à leurs questions, juste au signalement , le style pue l'incident Si la monnaie parle, moi, j'veux être son confident J'plane et j'traque l'air pur, j'vous survole, j'atterris Sur l'track, j'ré-écris l'histoire sur mon bold blackberry Bon, par fierté on pêche, les yeux plus gros qu'le ventre On pratique pas c'qu'on prêche, donner du rêve plutôt qu'le vendre Le dos au vent, on fonce dans l'mur avec nos idées toutes faites La vie veut m'faire fumer, la mort m'a fait une soufflette Jamais loin des flingues grossiers, des heures à bicrave Des virages mal négociés, des erreurs d'arbitrage Pour c'que ça coûte, une petite heure de gloire m'empêchera pas d'foncer Ici les balles ont la mémoire courte, comme des auditeurs de Rap Français T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir c'est sur Skyrock, Lino, Tunisan, on a rendez-vous Tous ensemble et maintenant c'est à vous On n'est qu'au préambule Reste pas dans ta bulle Sors, bordel ! Tchh tchh</t>
+          <t>Lourdes sont les baloches, l'respect est obligatoire Quatre portables dans la sacoche sous commission rogatoire Les murs ont des oreilles, l'commissaire veut tout savoir Parfois les potes de la veille auraient besoin d'un bavoir Les parents désespèrent, les condés sont détestés La virginité s'perd aussi souvent que le respect Fuck tes belles promesses, j'me débrouille moi-même La seule fin heureuse que j'connaisse, c'est la fin d'la semaine Et nique sa race, j'ai plus l'temps d'être peace J'prends de la place comme une liasse en billet d'dix Et j'range mes sourires, j'apprends à être triste À croire qu't'es obligé d'chialer quand t'es un artiste Et l'amour du risque faire du hors-piste les yeux bandés Ce qui consiste à sortir un disque en indé' C'est Tunisan', ça s'passe le dix mars L'album c'est Marqué à vie, Grand corps Malade Tunisan', on est des funambules, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude, je suis un funambule On est, on est des, on est des On fait parler l'talent Rendez-vous au prochain cauchemar, qu'on parle de mes rêves Moi faut qu'j'marche la tête haute, j'rappe une part de mes rêves J'pense grand, on s'tue à chercher un but, finalement Moi j'réponds pas à leurs questions, juste au signalement , le style pue l'incident Si la monnaie parle, moi, j'veux être son confident J'plane et j'traque l'air pur, j'vous survole, j'atterris Sur l'track, j'ré-écris l'histoire sur mon bold blackberry Bon, par fierté on pêche, les yeux plus gros qu'le ventre On pratique pas c'qu'on prêche, donner du rêve plutôt qu'le vendre Le dos au vent, on fonce dans l'mur avec nos idées toutes faites La vie veut m'faire fumer, la mort m'a fait une soufflette Jamais loin des flingues grossiers, des heures à bicrave Des virages mal négociés, des erreurs d'arbitrage Pour c'que ça coûte, une petite heure de gloire m'empêchera pas d'foncer Ici les balles ont la mémoire courte, comme des auditeurs de Rap Français T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir c'est sur Skyrock, Lino, Tunisan, on a rendez-vous Tous ensemble et maintenant c'est à vous On n'est qu'au préambule Reste pas dans ta bulle Sors, bordel ! Tchh tchh</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Quand ce système brutal qu'on essaye d'apprivoiser Nous aura vidé d'nos âmes et de nos dernières bonnes idées Il nous restera ça Quand les mythos d'en haut auront fait élire les chiens Que la culture et l'ouverture seront des souvenirs lointains Il nous restera ça Quand on sera tous endormis par les discours des marchands de sable Et qu'on aura qu'nos utopies pour raconter nos propres fables Il nous restera ça Il nous restera ça Quelques papiers griffonnés, quelques rimes à enrichir A la face d'un monde hanté par un futur sans avenir On pourra dire qu'on a tenté d's'ouvrir un peu une veine Pour faire couler une encre honnête, avoir mal pour être soi-même On essayera de se souvenir pourquoi on a commencé ça Faut trouver l'urgence d'écrire, le plus important c'est ça Être soi même malgré tout, naïf, décidé, bavard On absorbera les mots en trop sur un bout d'papier buvard On essayera de se souvenir qu'on a fait ça sans calculer On a noirci sans rougir tout ce qu'on trouvait d'immaculé Comme un réflexe dérisoire, c'était bon quand j'y pense Et on a rempli des pages comme tu t'es rempli la panse Certains diront qu'ça sert à rien mais qui pourra nous raisonner ? On sera toujours plus d'un à continuer d'faire résonner Quelques cordes vocales têtues qui n'feront pas leur age Tels des poètes torses nus un peu perdus dans l'orage Dans la tempête où le chiffre a pris l'dessus sur le verbe On se sent bien à nos places un peu comme un poisson dans l'herbe Personne ne peut l'cacher on a la rime anachronique Dans ce monde de 4G on cherche des cabines téléphoniques Sans réseau, sans raison, comme le roseau nous plions Hors fuseau, hors saison, nos dernières forces nous trions Pour arroser encore la source qu'on n'laissera pas tarir Et même les deux pieds dans l'eau, on entendra encore nos rires On entendra encore nos joies, on entendra encore les cris Ceux des vrais, ceux des enfants qui nous font croire à l'envie L'envie d'regarder au-dessus voir qu'y'a encore des étages Et qu'ils pourront y grimper avec en poche cet héritage Ces quelques mots, ces quelques textes qui nous aident à penser Qu'on a pas fait tout ça pour rien, qu'y'aura une trace du passé Il leur restera ça, ces quelques moments choisis Dans ce monde de brutes, quelques grammes de poésieYou might also like</t>
+          <t>Quand ce système brutal qu'on essaye d'apprivoiser Nous aura vidé d'nos âmes et de nos dernières bonnes idées Il nous restera ça Quand les mythos d'en haut auront fait élire les chiens Que la culture et l'ouverture seront des souvenirs lointains Il nous restera ça Quand on sera tous endormis par les discours des marchands de sable Et qu'on aura qu'nos utopies pour raconter nos propres fables Il nous restera ça Il nous restera ça Quelques papiers griffonnés, quelques rimes à enrichir A la face d'un monde hanté par un futur sans avenir On pourra dire qu'on a tenté d's'ouvrir un peu une veine Pour faire couler une encre honnête, avoir mal pour être soi-même On essayera de se souvenir pourquoi on a commencé ça Faut trouver l'urgence d'écrire, le plus important c'est ça Être soi même malgré tout, naïf, décidé, bavard On absorbera les mots en trop sur un bout d'papier buvard On essayera de se souvenir qu'on a fait ça sans calculer On a noirci sans rougir tout ce qu'on trouvait d'immaculé Comme un réflexe dérisoire, c'était bon quand j'y pense Et on a rempli des pages comme tu t'es rempli la panse Certains diront qu'ça sert à rien mais qui pourra nous raisonner ? On sera toujours plus d'un à continuer d'faire résonner Quelques cordes vocales têtues qui n'feront pas leur age Tels des poètes torses nus un peu perdus dans l'orage Dans la tempête où le chiffre a pris l'dessus sur le verbe On se sent bien à nos places un peu comme un poisson dans l'herbe Personne ne peut l'cacher on a la rime anachronique Dans ce monde de 4G on cherche des cabines téléphoniques Sans réseau, sans raison, comme le roseau nous plions Hors fuseau, hors saison, nos dernières forces nous trions Pour arroser encore la source qu'on n'laissera pas tarir Et même les deux pieds dans l'eau, on entendra encore nos rires On entendra encore nos joies, on entendra encore les cris Ceux des vrais, ceux des enfants qui nous font croire à l'envie L'envie d'regarder au-dessus voir qu'y'a encore des étages Et qu'ils pourront y grimper avec en poche cet héritage Ces quelques mots, ces quelques textes qui nous aident à penser Qu'on a pas fait tout ça pour rien, qu'y'aura une trace du passé Il leur restera ça, ces quelques moments choisis Dans ce monde de brutes, quelques grammes de poésie</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C'est un son plein de sourires dans un climat tendu Qui espère et respire dans cette époque tordue C'est le son qui propose des virages des voyages Des clameurs des visages, c'est le son des mariages Et si on chantait de toutes les couleurs Inch' Allah On va faire danser les corps et les coeurs Inch' Allah Si on est tous ensemble ça nous suffira Inch' Allah Si nos voix se rassemblent on nous entendra Inch' AllahX4 C'est le son qui éclaire qui partage et rassemble C'est les beaux quartiers qui dansent avec les grands ensembles Inch' Allah Ceux qui souhaitent un pays convivial Alors ils croient en une autre identité nationale Inch' Allah C'est le son qui rêve en réalité Et change les mentalités, tue la morosité Inch' Allah Il invente, imagine et renverse Les clichés établis et oublie leur tristesse Inch' Allah Tous les codes sont bannis et révisés On mettra des baggys jusqu'à lÉlysée Inch' Allah Plus de quotas dans le foot, ni ailleurs Peu importe la couleur on gardera les meilleurs Inch' Allah Les blaireaux, les fachos c'est la même C'est qu'en y en a beaucoup que ça pose des problèmes Inch' Allah On va marier Nassim Delphine Pas seulement pour la rime, un second tour sans Marine You might also like C'est le son qui réécrit l'histoire Sortez tous dans la rue on va chanter l'espoir Inch' Allah L'espoir que pourra changer ce monde On s'croisera forcément puisque la terre est ronde Inch' Allah L'espoir que les choses puissent avancer Qu'on aime tous les accents quand on parle en français Inch' Allah L'espoir qu'un jour se sera normal De voir des block party à l'Assemblée Nationale Inch' Allah Les képis policiers, les kippas Les chaddors, les casquettes à l'envers même combat Inch' Allah Les bobos, les prolos, les bourgeois Les perdus, les nantys, les patrons, les cailleras Inch' Allah Vous êtes tous invités sur la piste C'est la danse de demain quelque peu utopiste Inch' Allah Mais cette époque a besoin d'espoir Soyons un peu rêveur, faut y croire pour le voir X4 Ya habibi Ya nacibi Ya hayeti Inch' Allah</t>
+          <t>C'est un son plein de sourires dans un climat tendu Qui espère et respire dans cette époque tordue C'est le son qui propose des virages des voyages Des clameurs des visages, c'est le son des mariages Et si on chantait de toutes les couleurs Inch' Allah On va faire danser les corps et les coeurs Inch' Allah Si on est tous ensemble ça nous suffira Inch' Allah Si nos voix se rassemblent on nous entendra Inch' AllahX4 C'est le son qui éclaire qui partage et rassemble C'est les beaux quartiers qui dansent avec les grands ensembles Inch' Allah Ceux qui souhaitent un pays convivial Alors ils croient en une autre identité nationale Inch' Allah C'est le son qui rêve en réalité Et change les mentalités, tue la morosité Inch' Allah Il invente, imagine et renverse Les clichés établis et oublie leur tristesse Inch' Allah Tous les codes sont bannis et révisés On mettra des baggys jusqu'à lÉlysée Inch' Allah Plus de quotas dans le foot, ni ailleurs Peu importe la couleur on gardera les meilleurs Inch' Allah Les blaireaux, les fachos c'est la même C'est qu'en y en a beaucoup que ça pose des problèmes Inch' Allah On va marier Nassim Delphine Pas seulement pour la rime, un second tour sans Marine C'est le son qui réécrit l'histoire Sortez tous dans la rue on va chanter l'espoir Inch' Allah L'espoir que pourra changer ce monde On s'croisera forcément puisque la terre est ronde Inch' Allah L'espoir que les choses puissent avancer Qu'on aime tous les accents quand on parle en français Inch' Allah L'espoir qu'un jour se sera normal De voir des block party à l'Assemblée Nationale Inch' Allah Les képis policiers, les kippas Les chaddors, les casquettes à l'envers même combat Inch' Allah Les bobos, les prolos, les bourgeois Les perdus, les nantys, les patrons, les cailleras Inch' Allah Vous êtes tous invités sur la piste C'est la danse de demain quelque peu utopiste Inch' Allah Mais cette époque a besoin d'espoir Soyons un peu rêveur, faut y croire pour le voir X4 Ya habibi Ya nacibi Ya hayeti Inch' Allah</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir ces mots sont sur un disque mais dès demain, qui peut le nier ? Ils seront sur scène avec des postillons pour les accompagnerYou might also like</t>
+          <t>T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir ces mots sont sur un disque mais dès demain, qui peut le nier ? Ils seront sur scène avec des postillons pour les accompagner</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Et si l'art était juste un moment d'absence ? Où la lucidité perd contre l'inconscience Alors l'art mystique signera l'armistice Avec les arnaqueurs remplis d'artifices Et si l'art était juste un moment d'émotion ? Où l'aiguille de l'horloge suspend sa rotation Alors l'heure aura tort face à l'art oratoire Lorsque les créateurs raconteront leur histoireYou might also like</t>
+          <t>Et si l'art était juste un moment d'absence ? Où la lucidité perd contre l'inconscience Alors l'art mystique signera l'armistice Avec les arnaqueurs remplis d'artifices Et si l'art était juste un moment d'émotion ? Où l'aiguille de l'horloge suspend sa rotation Alors l'heure aura tort face à l'art oratoire Lorsque les créateurs raconteront leur histoire</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J'ai rencontré un enfant Au regard qui pétille Un air vif et brillant Dans chaque pupille Déjà mature mais innocent Gardant toujours sa fraîcheur Il a choisi de ne prendre que le meilleur J'ai rencontré un sourire Qui fait tomber tous les murs Qui fait craquer les esprits les plus durs Il réinventait l'avenir Toujours prêt à repartir Il transformait chaque défaite en souvenir J'ai rencontré un modèle Un exemple, l'air de rien L'esprit sain, le cur humble et serein Il savait foutre le bordel Mais toujours dans le bon sens Une aura qui savait mettre de l'ambiance J'ai rencontré un artiste Un acteur de la vie Un créateur d'enthousiasme et d'envie Il a dansé sur la piste Avec tellement de grâce De beauté, de bonté, la grande classe J'ai rencontré un guerrier Le plus fou, le plus fort Ceux qui l'ont connu sont d'accords Le plus grand aventurier Un brave parmi les braves Et tout ceux qui l'ont connu le savent J'ai rencontré un héros Pour définir le courage Dans le dictionnaire y'a ses yeux en pleine page Et je pèse chacun de mes mots Il fût noble et résistant Et je l'ai admiré à chaque instant J'ai rencontré un soleil Une énergie, une lumière De ceux qui brûlent aux croyances nos repères De ses rayons il balaye Tous nos doutes et nos réticences A nos combats il a donné un sens J'ai rencontré une belle âme Regard tendre et fier On a tous côtoyé un petit frère J'ai rencontré Issam Et puis j'ai fait connaissance J'ai rencontré Issam Et j'ai eu beaucoup de chanceYou might also like</t>
+          <t>J'ai rencontré un enfant Au regard qui pétille Un air vif et brillant Dans chaque pupille Déjà mature mais innocent Gardant toujours sa fraîcheur Il a choisi de ne prendre que le meilleur J'ai rencontré un sourire Qui fait tomber tous les murs Qui fait craquer les esprits les plus durs Il réinventait l'avenir Toujours prêt à repartir Il transformait chaque défaite en souvenir J'ai rencontré un modèle Un exemple, l'air de rien L'esprit sain, le cur humble et serein Il savait foutre le bordel Mais toujours dans le bon sens Une aura qui savait mettre de l'ambiance J'ai rencontré un artiste Un acteur de la vie Un créateur d'enthousiasme et d'envie Il a dansé sur la piste Avec tellement de grâce De beauté, de bonté, la grande classe J'ai rencontré un guerrier Le plus fou, le plus fort Ceux qui l'ont connu sont d'accords Le plus grand aventurier Un brave parmi les braves Et tout ceux qui l'ont connu le savent J'ai rencontré un héros Pour définir le courage Dans le dictionnaire y'a ses yeux en pleine page Et je pèse chacun de mes mots Il fût noble et résistant Et je l'ai admiré à chaque instant J'ai rencontré un soleil Une énergie, une lumière De ceux qui brûlent aux croyances nos repères De ses rayons il balaye Tous nos doutes et nos réticences A nos combats il a donné un sens J'ai rencontré une belle âme Regard tendre et fier On a tous côtoyé un petit frère J'ai rencontré Issam Et puis j'ai fait connaissance J'ai rencontré Issam Et j'ai eu beaucoup de chance</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard You might also like À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
+          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J'ai mis des mots sur un cahier J'ai mis des mots que j'ai triés J'espérais bien me faire griller J'ai mis des mots que j'ai criés J'ai mis des mots dans vos oreilles Ou des émotions c'est pareil Dans vos théâtres et vos enceintes J'ai mis des mots comme une empreinte J'ai mis des mots un peu partout Redistribués au coup par coup Je sais même plus où je les ai mis J'ai mis des mots j'ai pas gémi J'ai mis des mots mais jamais trop Dans un métro dans un micro J'ai mis des mots j'ai eu les crocs Des mots nouveaux des mots rétros J'ai mis des mots pour compenser J'ai pas le destin qu'on pensait Mais en passant sur le passé On peut tracer sans effacer You might also likeJ'ai mis des mots j'ai pas médit J'ai mis des do j'émets des mi Des mots entiers pas des demi J'ai mis des mots de Saint-Denis J'ai mis des mots que j'ai couvés J'ai tenté de les faire groover Sans entrave et rien à prouver Sans en baver tout à trouver Les mots vont vite, faut qu'on s'accroche J'ai pris le tempo à la croche C'est pas pour me remplir les poches Car tous ces mots c'est pour mes proches Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica J'ai mis des mots, est-ce que t'y crois La première fois en 2003 J'ai oublié les médisants J'ai mis des mots c'est mes 10 ans J'ai mis des mots j'ai des raisons Coupable de combinaisons Et je crée sans comparaison Des horizons à chaque saison Dans plein de pays j'ai mis des mots Berlin Québec ou Bamako J'ai même trouvé des mots en route J'ai mis des mots jusqu'à Beyrouth J'ai mis des mots dans tous les sens À l'envers à l'effervescence Des mots sympas ou en colère Des mots bien droits ou en galère J'ai mis des mots c'est dérisoire Parfois tranchants c'est des rasoirs Mais bien placés c'est opportun J'ai mis des mots c'est important J'ai trouvé de l'inspiration Pour inspirer mes directions Pour continuer sans crispation Je reprends ma respiration... Tous ces mots ça fait des rencontres Je m'en rends compte je suis pas contre J'ai mis des mots à l'infini J'ai pas failli c'est pas fini J'ai mis des mots, j'émeus des gens J'émets des voeux jamais urgents J'ai mis de moi j'ai mis de vous Des émois de nos rendez-vous Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica</t>
+          <t>J'ai mis des mots sur un cahier J'ai mis des mots que j'ai triés J'espérais bien me faire griller J'ai mis des mots que j'ai criés J'ai mis des mots dans vos oreilles Ou des émotions c'est pareil Dans vos théâtres et vos enceintes J'ai mis des mots comme une empreinte J'ai mis des mots un peu partout Redistribués au coup par coup Je sais même plus où je les ai mis J'ai mis des mots j'ai pas gémi J'ai mis des mots mais jamais trop Dans un métro dans un micro J'ai mis des mots j'ai eu les crocs Des mots nouveaux des mots rétros J'ai mis des mots pour compenser J'ai pas le destin qu'on pensait Mais en passant sur le passé On peut tracer sans effacer J'ai mis des mots j'ai pas médit J'ai mis des do j'émets des mi Des mots entiers pas des demi J'ai mis des mots de Saint-Denis J'ai mis des mots que j'ai couvés J'ai tenté de les faire groover Sans entrave et rien à prouver Sans en baver tout à trouver Les mots vont vite, faut qu'on s'accroche J'ai pris le tempo à la croche C'est pas pour me remplir les poches Car tous ces mots c'est pour mes proches Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica J'ai mis des mots, est-ce que t'y crois La première fois en 2003 J'ai oublié les médisants J'ai mis des mots c'est mes 10 ans J'ai mis des mots j'ai des raisons Coupable de combinaisons Et je crée sans comparaison Des horizons à chaque saison Dans plein de pays j'ai mis des mots Berlin Québec ou Bamako J'ai même trouvé des mots en route J'ai mis des mots jusqu'à Beyrouth J'ai mis des mots dans tous les sens À l'envers à l'effervescence Des mots sympas ou en colère Des mots bien droits ou en galère J'ai mis des mots c'est dérisoire Parfois tranchants c'est des rasoirs Mais bien placés c'est opportun J'ai mis des mots c'est important J'ai trouvé de l'inspiration Pour inspirer mes directions Pour continuer sans crispation Je reprends ma respiration... Tous ces mots ça fait des rencontres Je m'en rends compte je suis pas contre J'ai mis des mots à l'infini J'ai pas failli c'est pas fini J'ai mis des mots, j'émeus des gens J'émets des voeux jamais urgents J'ai mis de moi j'ai mis de vous Des émois de nos rendez-vous Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'ai oublié de commencer ce texte par une belle introduction J'ai oublié de vous préparer avant d'entrer en action J'ai oublié de vous prévenir que je m'aperçois que dans ma vie J'ai oublié pas mal de choses, si vous voulez mon avis J'ai oublié d'être sage, j'ai oublié d'être prudent J'ai oublié de me ménager et je me suis cassé les dents On m'a dit qu'on ne pouvait pas être et avoir été Moi j'ai oublié de faire attention à moi une nuit d'été J'ai oublié ce que c'est de courir derrière un ballon J'ai oublié d'être fort, comme Achille et son talon J'ai oublié de remercier mes parents pour tout ce qu'ils ont fait Mais je suis pas doué pour ce genre de trucs, c'est pas moi le fils parfait J'ai oublié de prendre des risques, dans l'ensemble de mon parcours Et quand je regarde derrière moi, parfois j'ai le souffle court J'ai traversé les années plus vite qu'on passe un péage J'ai oublié de prendre le temps de voir passer les nuages J'ai oublié d'écrire un texte sur la force de l'amitié Qui met l'amour à l'amende, dont la faiblesse me fait pitié Y a pas beaucoup de meufs qui m'ont vraiment fait me retourner J'ai oublié de tomber amoureux, depuis quelques années J'ai oublié d'imaginer de quoi seront faites les années prochaines Et quand on me parle de l'avenir, j'ai tendance à changer de chaîne J'ai oublié de payer mon amende pour m'être garé devant la station Tant pis pour moi, maintenant j'ai trente pour cent de majoration J'ai oublié de faire en sorte que ce texte soit structuré Ça part dans tous les sens, tant que ma feuille n'est pas saturée J'ai oublié de mettre des baggys et des ensembles en peau de pêche J'ai oublié d'avoir du style, et c'est comme ça depuis la crèche J'ai oublié de chialer depuis un sacré bout de temps Une sorte de sècheresse ophtalmique, c'en est presque inquiétant Je sais pas si c'est normal, mais c'est vrai que pour être franc La dernière fois que j'ai versé une larme, on achetait le pain avec des francs Dans ces vers, j'ai oublié d'arrêter de parler de moi J'ai oublié de m'oublier, comme un premier samedi du mois J'ai l'impression de me mettre à poil depuis bientôt un quart d'heure Sur ce coup-là j'ai oublié de garder pas mal de pudeur J'ai oublié de croire en l'existence d'un être supérieur J'aime pas les jeux de hasard, j'ai toujours été mauvais parieur Par ailleurs, tant mieux, car je ne pourrais pas m'empêcher De me dépêcher, de me sauver pour pas confesser mes péchés J'ai la pêche et à cette façade, faut pas forcément te fier J'ai pas oublié d'être un con fier, qua du mal à se confier J'ai oublié de me plaindre, quand ça en valait la peine J'ai oublié d'ouvrir les vannes, quand la coupe était pleine A ce putain de texte, j'ai oublié de trouver une chute Comme un cascadeur qui saute d'un avion sans parachute Mais chut faut que je me taise, car maintenant c'est la fin A vrai dire pas tout à fait car pour linstant j'ai encore faim J'ai oublié d'écrire ce que je crois et ce que je pense vraiment J'ai oublié de croire à ce que jécris machinalement Mais finalement c'est peut-être mieux car se rappeler c'est subir J'ai oublié de penser qu'il était préférable de se souvenir J'ai oublié mon flow, j'ai oublié mon stylo J'ai oublié mon micro et j'ai oublié tous les mots J'ai oublié des tas de sujets, vous avez compris le concept Alors pour pas trop vous saoulez je vais m'arrêter dun coup secYou might also like</t>
+          <t>J'ai oublié de commencer ce texte par une belle introduction J'ai oublié de vous préparer avant d'entrer en action J'ai oublié de vous prévenir que je m'aperçois que dans ma vie J'ai oublié pas mal de choses, si vous voulez mon avis J'ai oublié d'être sage, j'ai oublié d'être prudent J'ai oublié de me ménager et je me suis cassé les dents On m'a dit qu'on ne pouvait pas être et avoir été Moi j'ai oublié de faire attention à moi une nuit d'été J'ai oublié ce que c'est de courir derrière un ballon J'ai oublié d'être fort, comme Achille et son talon J'ai oublié de remercier mes parents pour tout ce qu'ils ont fait Mais je suis pas doué pour ce genre de trucs, c'est pas moi le fils parfait J'ai oublié de prendre des risques, dans l'ensemble de mon parcours Et quand je regarde derrière moi, parfois j'ai le souffle court J'ai traversé les années plus vite qu'on passe un péage J'ai oublié de prendre le temps de voir passer les nuages J'ai oublié d'écrire un texte sur la force de l'amitié Qui met l'amour à l'amende, dont la faiblesse me fait pitié Y a pas beaucoup de meufs qui m'ont vraiment fait me retourner J'ai oublié de tomber amoureux, depuis quelques années J'ai oublié d'imaginer de quoi seront faites les années prochaines Et quand on me parle de l'avenir, j'ai tendance à changer de chaîne J'ai oublié de payer mon amende pour m'être garé devant la station Tant pis pour moi, maintenant j'ai trente pour cent de majoration J'ai oublié de faire en sorte que ce texte soit structuré Ça part dans tous les sens, tant que ma feuille n'est pas saturée J'ai oublié de mettre des baggys et des ensembles en peau de pêche J'ai oublié d'avoir du style, et c'est comme ça depuis la crèche J'ai oublié de chialer depuis un sacré bout de temps Une sorte de sècheresse ophtalmique, c'en est presque inquiétant Je sais pas si c'est normal, mais c'est vrai que pour être franc La dernière fois que j'ai versé une larme, on achetait le pain avec des francs Dans ces vers, j'ai oublié d'arrêter de parler de moi J'ai oublié de m'oublier, comme un premier samedi du mois J'ai l'impression de me mettre à poil depuis bientôt un quart d'heure Sur ce coup-là j'ai oublié de garder pas mal de pudeur J'ai oublié de croire en l'existence d'un être supérieur J'aime pas les jeux de hasard, j'ai toujours été mauvais parieur Par ailleurs, tant mieux, car je ne pourrais pas m'empêcher De me dépêcher, de me sauver pour pas confesser mes péchés J'ai la pêche et à cette façade, faut pas forcément te fier J'ai pas oublié d'être un con fier, qua du mal à se confier J'ai oublié de me plaindre, quand ça en valait la peine J'ai oublié d'ouvrir les vannes, quand la coupe était pleine A ce putain de texte, j'ai oublié de trouver une chute Comme un cascadeur qui saute d'un avion sans parachute Mais chut faut que je me taise, car maintenant c'est la fin A vrai dire pas tout à fait car pour linstant j'ai encore faim J'ai oublié d'écrire ce que je crois et ce que je pense vraiment J'ai oublié de croire à ce que jécris machinalement Mais finalement c'est peut-être mieux car se rappeler c'est subir J'ai oublié de penser qu'il était préférable de se souvenir J'ai oublié mon flow, j'ai oublié mon stylo J'ai oublié mon micro et j'ai oublié tous les mots J'ai oublié des tas de sujets, vous avez compris le concept Alors pour pas trop vous saoulez je vais m'arrêter dun coup sec</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C'était une période de ma vie ni joyeuse et ni triste Où ma routine ne m'offrait que très peu de hors-piste Je suivais la route imposée par les événements Un automate souriant, sans débordements d'sentiments C'était l'automne parisien et l'automne de mes sensations Quand le hasard ou la chance me proposa une autre option Le slam faisait ses premiers pas dans quelqus bars populaires Des poètes n jeans, baskets, de la poésie spectaculaire J'connaissais l'principe de loin, j'avais jamais trop calculé J'me serais jamais douté que ma vie allait basculer J'passais par là, l'esprit ouvert, mais pas vraiment concentré Dans c'bar, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de ma vie où mon cur s'était replié Pas malheureux, tranquille, mais les sentiments recroquevillés Et ça m'allait très bien, je vivais tout sauf reclus C'est juste qu'je cherchais pas l'amour et qu'il me cherchait pas non plus C'était le printemps à Saint-Denis, mais pas vraiment dans mes passions Quand le hasard ou la chance me proposa une autre option Elle était là, à cette table, et je ne voyais plus rien autour Elle était belle et intense, comme peut l'être une histoire d'amour J'connaissais l'principe de loin, j'avais pas eu qu'des réussites Je me s'rais jamais douté de c'que me réservait la suite J'passais par là, l'esprit ouvert, sans m'attendre à la rencontrer Dans sa vie, j'ai vu de la lumière, alors je suis entré You might also like J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de la Terre où il y avait tout pour aller mal Le climat, la guerre, la misère faisaient la une du journal De mon p'tit côté, les quelques bonnes galères physiques Auraient pu m'enfermer dans une humeur catastrophique C'était l'hiver sur la France et l'hiver sur mes ambitions Quand le hasard ou la chance me proposa une autre option J'me baladais quand j'ai soudain croisé une vieille connaissance Elle ressemblait à l'optimisme, mais elle s'appelait la confiance J'connaissais l'principe de près, j'aimais ses différentes versions Confiance en toi, en moi, en notre pouvoir de réaction Je l'ai suivie, l'esprit ouvert, c'est devenu ma pote attitrée Dans l'avenir, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière J'ai vu de la lumière, alors je suis entré</t>
+          <t>C'était une période de ma vie ni joyeuse et ni triste Où ma routine ne m'offrait que très peu de hors-piste Je suivais la route imposée par les événements Un automate souriant, sans débordements d'sentiments C'était l'automne parisien et l'automne de mes sensations Quand le hasard ou la chance me proposa une autre option Le slam faisait ses premiers pas dans quelqus bars populaires Des poètes n jeans, baskets, de la poésie spectaculaire J'connaissais l'principe de loin, j'avais jamais trop calculé J'me serais jamais douté que ma vie allait basculer J'passais par là, l'esprit ouvert, mais pas vraiment concentré Dans c'bar, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de ma vie où mon cur s'était replié Pas malheureux, tranquille, mais les sentiments recroquevillés Et ça m'allait très bien, je vivais tout sauf reclus C'est juste qu'je cherchais pas l'amour et qu'il me cherchait pas non plus C'était le printemps à Saint-Denis, mais pas vraiment dans mes passions Quand le hasard ou la chance me proposa une autre option Elle était là, à cette table, et je ne voyais plus rien autour Elle était belle et intense, comme peut l'être une histoire d'amour J'connaissais l'principe de loin, j'avais pas eu qu'des réussites Je me s'rais jamais douté de c'que me réservait la suite J'passais par là, l'esprit ouvert, sans m'attendre à la rencontrer Dans sa vie, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de la Terre où il y avait tout pour aller mal Le climat, la guerre, la misère faisaient la une du journal De mon p'tit côté, les quelques bonnes galères physiques Auraient pu m'enfermer dans une humeur catastrophique C'était l'hiver sur la France et l'hiver sur mes ambitions Quand le hasard ou la chance me proposa une autre option J'me baladais quand j'ai soudain croisé une vieille connaissance Elle ressemblait à l'optimisme, mais elle s'appelait la confiance J'connaissais l'principe de près, j'aimais ses différentes versions Confiance en toi, en moi, en notre pouvoir de réaction Je l'ai suivie, l'esprit ouvert, c'est devenu ma pote attitrée Dans l'avenir, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière J'ai vu de la lumière, alors je suis entré</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'attends un peu d'être en retard avant de me sortir du lit Pas de réveil en fanfare, c'est un état d'esprit J'attends que le lait dans le bol ait la couleur des céréales Et c'est réel en général, pas de réveil idéal J'attends que la journée m'attende avant de la démarrer J'aime bien tourner un peu en rond quand mon programme est carré J'attends que les infos dans le poste annoncent de bonnes nouvelles J'pourrais attendre longtemps, je préfère me faire la belle Alors j'attends l'ascenseur et puis j'attends les feux verts J'attends des sourires sincères et quelques esprits ouverts J'attends la fin des bouchons pour espérer être à l'heure Un rendez-vous à la con, j'attends d'être de bonne humeur J'attends que la journée avance pour me sentir avancer Nonchalance insensée et patience associée Insouciant des heures qui glissent, le temps restant relatif En fait j'attends concrètement de retrouver un objectif J'attends... J'attends que l'inspiration vienne frapper à ma feuille J'attends que le besoin d'écrire ait déjà bien passé le seuil Et quand j'attends, je regarde et parfois je désespère De voir ce monde autour de moi qui tourne la tête à l'envers J'attends qu'il y ait plus besoin en France du C.V. anonyme Pour embaucher des Français qui ont une autre origine J'attends la fin de l'hypocrisie et sans criser j'attends La fin d'un système qui avoue son racisme latent J'attends aussi bêtement la fin du pouvoir absolu Des actionnaires, des dividendes, des profits, c'est tendu Comme la vie des hommes dépend du mot rentabilité Derrière les chiffres se jouent des drames dans une étrange banalité Alors j'attends et j'observe et je me surprends à me taire D'une patience coupable j'attends et j'entends les charters J'attends et j'étends l'analyse sur l'ensemble de la période Et je constate que l'être humain n'est vraiment plus à la mode You might also like Le fait d'attendre, c'est bon signe, c'est que tu as du temps devant toi Peut-être plus devant que derrière, enfin, c'est ce que tu crois Car je sais pas ce que sera ma route dans les prochains jours Elle peut très bien s'arrêter net dès le prochain carrefour Alors j'attends plus d'être pressé mais je m'empresse de ne plus attendre Je dois me rendre compte que chaque seconde n'a aucun compte à me rendre Puisque le temps ne m'attend pas, moi, je l'attends de moins en moins Et je remets à aujourd'hui ce que j'ai envie de faire demain Alors, quand je peux, j'agis et quand je le sens je m'exprime Ça changera peut-être pas le monde mais si tu sais lire entre les rimes Tu comprendras ma pensée et mes façons d'avancer Avant qu'il soit trop tard je me prépare et j'essaie J'attends toujours l'ascenseur, j'attends toujours les feux verts Mais j'ai le sourire sincère et je garde l'esprit ouvert Alors je rentre chez moi enfin pour une soirée sabbatique Et j'attends le sommeil, serein, sur un vieux son de Lunatic Alors j'attends de moins en moins et parfois c'est pratique Quand c'est trop long, j'attends même pas la fin de la musique</t>
+          <t>J'attends un peu d'être en retard avant de me sortir du lit Pas de réveil en fanfare, c'est un état d'esprit J'attends que le lait dans le bol ait la couleur des céréales Et c'est réel en général, pas de réveil idéal J'attends que la journée m'attende avant de la démarrer J'aime bien tourner un peu en rond quand mon programme est carré J'attends que les infos dans le poste annoncent de bonnes nouvelles J'pourrais attendre longtemps, je préfère me faire la belle Alors j'attends l'ascenseur et puis j'attends les feux verts J'attends des sourires sincères et quelques esprits ouverts J'attends la fin des bouchons pour espérer être à l'heure Un rendez-vous à la con, j'attends d'être de bonne humeur J'attends que la journée avance pour me sentir avancer Nonchalance insensée et patience associée Insouciant des heures qui glissent, le temps restant relatif En fait j'attends concrètement de retrouver un objectif J'attends... J'attends que l'inspiration vienne frapper à ma feuille J'attends que le besoin d'écrire ait déjà bien passé le seuil Et quand j'attends, je regarde et parfois je désespère De voir ce monde autour de moi qui tourne la tête à l'envers J'attends qu'il y ait plus besoin en France du C.V. anonyme Pour embaucher des Français qui ont une autre origine J'attends la fin de l'hypocrisie et sans criser j'attends La fin d'un système qui avoue son racisme latent J'attends aussi bêtement la fin du pouvoir absolu Des actionnaires, des dividendes, des profits, c'est tendu Comme la vie des hommes dépend du mot rentabilité Derrière les chiffres se jouent des drames dans une étrange banalité Alors j'attends et j'observe et je me surprends à me taire D'une patience coupable j'attends et j'entends les charters J'attends et j'étends l'analyse sur l'ensemble de la période Et je constate que l'être humain n'est vraiment plus à la mode Le fait d'attendre, c'est bon signe, c'est que tu as du temps devant toi Peut-être plus devant que derrière, enfin, c'est ce que tu crois Car je sais pas ce que sera ma route dans les prochains jours Elle peut très bien s'arrêter net dès le prochain carrefour Alors j'attends plus d'être pressé mais je m'empresse de ne plus attendre Je dois me rendre compte que chaque seconde n'a aucun compte à me rendre Puisque le temps ne m'attend pas, moi, je l'attends de moins en moins Et je remets à aujourd'hui ce que j'ai envie de faire demain Alors, quand je peux, j'agis et quand je le sens je m'exprime Ça changera peut-être pas le monde mais si tu sais lire entre les rimes Tu comprendras ma pensée et mes façons d'avancer Avant qu'il soit trop tard je me prépare et j'essaie J'attends toujours l'ascenseur, j'attends toujours les feux verts Mais j'ai le sourire sincère et je garde l'esprit ouvert Alors je rentre chez moi enfin pour une soirée sabbatique Et j'attends le sommeil, serein, sur un vieux son de Lunatic Alors j'attends de moins en moins et parfois c'est pratique Quand c'est trop long, j'attends même pas la fin de la musique</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'ai pris mon réveil de vitesse et ça c'est assez rare Je me suis levé sans lui, sans stress, pourtant je m'étais couché tard J'ai mis Morphée à l'amende, en plus dehors y a un pur temps Pas question que la vie m'attende, j'ai un rendez-vous important Ce matin mon tout petit déj' n'a pas vraiment la même odeur Ce matin mon parking tout gris n'a pas vraiment la même couleur Je sors pour une occasion spéciale que je ne dois pas rater Ce matin j'ai un rencard avec un moment de liberté Cest qu'après pas mal d'études et quatre ans de taf à plein temps Je me suis permis le luxe de m'offrir un peu de bon temps Plus d'horaires à respecter, finies les semaines de quarante heures Finies les journées enfermé, adieu la gueule des directeurs J'ai rendez-vous avec personne, à aucun endroit précis Et c'est bien ça qui cartonne écoute la suite de mon récit Aujourd'hui, j'ai rien à faire et pourtant je me suis levé tôt A mon ancienne vie daffaires, j'ai posé un droit de véto C'est un parcours fait de virages, de mirages, j'ai pris de l'âge Je nage vers dautres rivages, d'une vie tracée je serai pas un otage Un auteur de textes, après un point je tourne la page Pour apprécier demain et mettre les habitudes en cage Je sais pas où je vais aller je me laisse guider par mon instinct Fasciné par cette idée je kiffe tout seul c'est mon instant Le soleil me montre la direction, ne crois pas que j'enjolive C'est un moment plein d'émotion attends, j'avale ma salive Je veux checker les éboueurs et aux pervenches rouler des pelles Y a du bon son dans la voiture quand j'arrive Porte de La Chapelle Alors je m'enfonce dans Paris comme si c'était la première fois Je découvre des paysages que j'ai pourtant vus cinq cent fois Je crois que mon lieu de rendez-vous sera cette table en terrasse Café-croissant-stylo-papier, ça y est tout est en place Je vois plein de gens autour de moi qui accélèrent le pas Ils sont pressés et je souris car moi, je ne le suis pas Je connaissais pas Paris le matin et son printemps sur les pavés Ma vie redémarre pourtant on peut pas dire que jen ai bavé La route est sinueuse, je veux être l'acteur de ses tournants Cest mon moment de liberté, je laisserai pas passer mon tour, non You might also like Puis je vois passer une charmante dans un beau petit tailleur Elle me regarde comme on regarde un beau petit chômeur Quand je la vois elle esquive et fait celle qui ne m'a pas calculé Je réalise avec plaisir que socialement j'ai basculé Il est lundi dix heures et j'ai le droit de prendre mon temps Mon teint, mon ton sont du matin et y a personne qui m'attend Y a tellement de soleil qu'y a que le ciment qui fleurit pas Il est lundi onze heures et moi je traîne dans Ris-Pa Loin de moi l'envie de faire l'apologie de l'oisiveté Mais elle peut aider à se construire, laisse-moi cette naïveté Puis de toute façon j'ai mieux à faire que me balader dans Paname Dès demain je vois des enfants pour leur apprendre à faire du slam Je connaissais pas Paris le matin, voilà une chose de réparée Je sais pas trop ce qui m'attend, mais ce sera loin dune vie carrée Moi j'ai choisi une voie chelou, on dirait presque une vie de bohème Mais je suis sûr que ça vaut le coup, moi j'ai choisi une vie de poèmes</t>
+          <t>J'ai pris mon réveil de vitesse et ça c'est assez rare Je me suis levé sans lui, sans stress, pourtant je m'étais couché tard J'ai mis Morphée à l'amende, en plus dehors y a un pur temps Pas question que la vie m'attende, j'ai un rendez-vous important Ce matin mon tout petit déj' n'a pas vraiment la même odeur Ce matin mon parking tout gris n'a pas vraiment la même couleur Je sors pour une occasion spéciale que je ne dois pas rater Ce matin j'ai un rencard avec un moment de liberté Cest qu'après pas mal d'études et quatre ans de taf à plein temps Je me suis permis le luxe de m'offrir un peu de bon temps Plus d'horaires à respecter, finies les semaines de quarante heures Finies les journées enfermé, adieu la gueule des directeurs J'ai rendez-vous avec personne, à aucun endroit précis Et c'est bien ça qui cartonne écoute la suite de mon récit Aujourd'hui, j'ai rien à faire et pourtant je me suis levé tôt A mon ancienne vie daffaires, j'ai posé un droit de véto C'est un parcours fait de virages, de mirages, j'ai pris de l'âge Je nage vers dautres rivages, d'une vie tracée je serai pas un otage Un auteur de textes, après un point je tourne la page Pour apprécier demain et mettre les habitudes en cage Je sais pas où je vais aller je me laisse guider par mon instinct Fasciné par cette idée je kiffe tout seul c'est mon instant Le soleil me montre la direction, ne crois pas que j'enjolive C'est un moment plein d'émotion attends, j'avale ma salive Je veux checker les éboueurs et aux pervenches rouler des pelles Y a du bon son dans la voiture quand j'arrive Porte de La Chapelle Alors je m'enfonce dans Paris comme si c'était la première fois Je découvre des paysages que j'ai pourtant vus cinq cent fois Je crois que mon lieu de rendez-vous sera cette table en terrasse Café-croissant-stylo-papier, ça y est tout est en place Je vois plein de gens autour de moi qui accélèrent le pas Ils sont pressés et je souris car moi, je ne le suis pas Je connaissais pas Paris le matin et son printemps sur les pavés Ma vie redémarre pourtant on peut pas dire que jen ai bavé La route est sinueuse, je veux être l'acteur de ses tournants Cest mon moment de liberté, je laisserai pas passer mon tour, non Puis je vois passer une charmante dans un beau petit tailleur Elle me regarde comme on regarde un beau petit chômeur Quand je la vois elle esquive et fait celle qui ne m'a pas calculé Je réalise avec plaisir que socialement j'ai basculé Il est lundi dix heures et j'ai le droit de prendre mon temps Mon teint, mon ton sont du matin et y a personne qui m'attend Y a tellement de soleil qu'y a que le ciment qui fleurit pas Il est lundi onze heures et moi je traîne dans Ris-Pa Loin de moi l'envie de faire l'apologie de l'oisiveté Mais elle peut aider à se construire, laisse-moi cette naïveté Puis de toute façon j'ai mieux à faire que me balader dans Paname Dès demain je vois des enfants pour leur apprendre à faire du slam Je connaissais pas Paris le matin, voilà une chose de réparée Je sais pas trop ce qui m'attend, mais ce sera loin dune vie carrée Moi j'ai choisi une voie chelou, on dirait presque une vie de bohème Mais je suis sûr que ça vaut le coup, moi j'ai choisi une vie de poèmes</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C'était un soir sans histoire, une fin de journée au destin sobre 21h sans espoir, un mercredi d'octobre Sur le macadam fatigué, trottoir en pente rue des Dames Très loin des drames agités c'est ma première soirée slam Des êtres humains dans un café sont regroupés pour s'écouter Ils prennent la parole un par un et mes oreilles sont envoûtées Des humains à égalité chacun est libre de se lancer Le principe est très simple encore fallait-il y penser Je suis d'abord resté passif mais j'ai tout de suite rêvé d'action Je suis d'abord resté pensif pour comprendre cette révélation J'ai pris une avalanche de rimes et une cascade de thèmes Si loin du star-system, tu restes tard si t'aimes Quelques instants après j'ai déterré l'encrier En créant sans prier Pour hurler sans crier Sans accroc sans vriller Dans la voix l'encre y est Pour recevoir sans briller Et donner sans trier Le slam a giflé mon esprit puis libère les passions Secouant mon envie créative restée en hibernation A la recherche des ces ambiances dans tout Paris je vais zoner C'est décidé ma voix est libre et son timbre va raisonner La poésie dans les bars a rendez-vous avec la vie Je l'ai vu et tu le vis Je l'avoue je l'ai suivi Elle prend forme elle grandit Elle rayonne et elle s'entend You might also likeElle t'enlace et une fois qu'elle te tient elle prend son temps La poésie dans les bars ne sort que dans nos voix Le concept même de ces soirées est un poème qui s'entrevoit La poésie se cache partout, sur le comptoir, dans ton demi Elle déborde sur le trottoir et se propage, l'épidémie Moi j'oublierai jamais l'année où j'ai choppé le virus Quand tu trébuches sur un hasard et que tu tombes sur un bonus Ces soirées où l'on se livre, ces moments où l'on se lève Des heures à user nos salives, croquer les mots jusqu'à la sève J'oublierai pas ces instants rares où la nuit sert de terrain A la recherche de l'éphémère moitié inquiet moitié serein J'sais pas si le bonheur se touche mais on l'a peut être frôlé 2-3 fois Dans cette atmosphère un peu louche se reflétant dans nos voix J'oublierai pas ces coeurs ouverts de toutes provenances et de tout âges Unie dans l'envie de découvrir dans l'écoute et le partage Ceux qui étaient là ne changeraient rien même si tout était à refaire Et puis en plus un texte dit c'était quand même un verre offert Ces soirées sont toujours là mais le mieux c'est quand tu fais connaissance Rien ne vaut le charme de l'inconnu la découverte et l'innocence Cette nostalgie me rappelle souvent que j'ai aussi serré des mains Des rencontres qui font que t'aimerais qu'hier déteigne sur demain J'suis toujours plein de motivation et je récidive sans façon Recherchant cette sensation qui vaut bien 700 passions De cette époque non révolue j'ai reçu un héritage viral Une manie qui ne me quitte plus c'est vrai, j'écris à l'oral C'était un soir sans histoire une fin de journée au destin sobre, 21h sans espoir un mercredi d'octobre J'ai entendu des voix qui touchent comme des chorales dans mon moral Depuis j'ai de l'encre plein la bouche, depuis j'écris à l'oral</t>
+          <t>C'était un soir sans histoire, une fin de journée au destin sobre 21h sans espoir, un mercredi d'octobre Sur le macadam fatigué, trottoir en pente rue des Dames Très loin des drames agités c'est ma première soirée slam Des êtres humains dans un café sont regroupés pour s'écouter Ils prennent la parole un par un et mes oreilles sont envoûtées Des humains à égalité chacun est libre de se lancer Le principe est très simple encore fallait-il y penser Je suis d'abord resté passif mais j'ai tout de suite rêvé d'action Je suis d'abord resté pensif pour comprendre cette révélation J'ai pris une avalanche de rimes et une cascade de thèmes Si loin du star-system, tu restes tard si t'aimes Quelques instants après j'ai déterré l'encrier En créant sans prier Pour hurler sans crier Sans accroc sans vriller Dans la voix l'encre y est Pour recevoir sans briller Et donner sans trier Le slam a giflé mon esprit puis libère les passions Secouant mon envie créative restée en hibernation A la recherche des ces ambiances dans tout Paris je vais zoner C'est décidé ma voix est libre et son timbre va raisonner La poésie dans les bars a rendez-vous avec la vie Je l'ai vu et tu le vis Je l'avoue je l'ai suivi Elle prend forme elle grandit Elle rayonne et elle s'entend Elle t'enlace et une fois qu'elle te tient elle prend son temps La poésie dans les bars ne sort que dans nos voix Le concept même de ces soirées est un poème qui s'entrevoit La poésie se cache partout, sur le comptoir, dans ton demi Elle déborde sur le trottoir et se propage, l'épidémie Moi j'oublierai jamais l'année où j'ai choppé le virus Quand tu trébuches sur un hasard et que tu tombes sur un bonus Ces soirées où l'on se livre, ces moments où l'on se lève Des heures à user nos salives, croquer les mots jusqu'à la sève J'oublierai pas ces instants rares où la nuit sert de terrain A la recherche de l'éphémère moitié inquiet moitié serein J'sais pas si le bonheur se touche mais on l'a peut être frôlé 2-3 fois Dans cette atmosphère un peu louche se reflétant dans nos voix J'oublierai pas ces coeurs ouverts de toutes provenances et de tout âges Unie dans l'envie de découvrir dans l'écoute et le partage Ceux qui étaient là ne changeraient rien même si tout était à refaire Et puis en plus un texte dit c'était quand même un verre offert Ces soirées sont toujours là mais le mieux c'est quand tu fais connaissance Rien ne vaut le charme de l'inconnu la découverte et l'innocence Cette nostalgie me rappelle souvent que j'ai aussi serré des mains Des rencontres qui font que t'aimerais qu'hier déteigne sur demain J'suis toujours plein de motivation et je récidive sans façon Recherchant cette sensation qui vaut bien 700 passions De cette époque non révolue j'ai reçu un héritage viral Une manie qui ne me quitte plus c'est vrai, j'écris à l'oral C'était un soir sans histoire une fin de journée au destin sobre, 21h sans espoir un mercredi d'octobre J'ai entendu des voix qui touchent comme des chorales dans mon moral Depuis j'ai de l'encre plein la bouche, depuis j'écris à l'oral</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être un texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Évidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles You might also likeCest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera tout le temps pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
+          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être un texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Évidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera tout le temps pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être une texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Evidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera toujours pareil Moi je me couche avec le sourire et je dors sur mes 2 oreillesYou might also like</t>
+          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être une texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Evidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera toujours pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel C'était à Paris, il était déjà tard Peut-être à minuit dans une cité dortoir Le lieu, le moment à vrai dire ne comptent pas Ce dont j'me souviens, c'est l'odeur de tes draps Tout avait commencé lors d'une soirée d'plus On a trinqué dans les yeux jusqu'au terminus J'avais un grand sourire et t'avais un rictus J'en voulais beaucoup, t'en voulais beaucoup plus Tu m'as proposé ce que j'espérais bien Tu m'as pris par surprise, je t'ai prise par la main On a marché un peu ou longtemps, je n'sais pas Ce dont je m'souviens c'est le bruit de tes pas On est entré dans ta chambre pour l'ultime échange On a laissé s'mélanger nos démons et nos anges Demain matin surement tout nous semblera faux Au-delà du réveil, je n'serai que de trop You might also like Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris, on était déjà fous À midi, à minuit, je n'sais plus, tout est flou Le lieu, le moment à vrai dire ne valent rien Ce dont j'me souviens, c'est la douceur de tes mains Tout avait commencé lors d'une soirée d'trop On a trinqué tous les deux, bien après l'angélus On a tout gagné en ratant l'dernier métro J'avais pleins d'idées, t'en avais beaucoup plus Tu m'as proposé c'que j'avais bien senti Je t'ai prise par la main, tu m'as pris par l'envie On a marché inconscients sous les néants jaunes Ce dont j'me souviens, c'est nos ombres de fantômes On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris il était déjà tard Le lieu, le moment à vrai dire ne comptent pas Ce dont je me souviens c'est la douceur de tes mains On a marché inconscients sous les néants jaunes Ce dont je me souviens c'est nos ombres de fantômes Tu m'as pris par surprise, je t'ai prise par la main Ce dont je me souviens c'est le bruit de tes pas On est entré dans ta chambre pour crier nos noms On a laissé se mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil nous ne serons que de trop</t>
+          <t>Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel C'était à Paris, il était déjà tard Peut-être à minuit dans une cité dortoir Le lieu, le moment à vrai dire ne comptent pas Ce dont j'me souviens, c'est l'odeur de tes draps Tout avait commencé lors d'une soirée d'plus On a trinqué dans les yeux jusqu'au terminus J'avais un grand sourire et t'avais un rictus J'en voulais beaucoup, t'en voulais beaucoup plus Tu m'as proposé ce que j'espérais bien Tu m'as pris par surprise, je t'ai prise par la main On a marché un peu ou longtemps, je n'sais pas Ce dont je m'souviens c'est le bruit de tes pas On est entré dans ta chambre pour l'ultime échange On a laissé s'mélanger nos démons et nos anges Demain matin surement tout nous semblera faux Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris, on était déjà fous À midi, à minuit, je n'sais plus, tout est flou Le lieu, le moment à vrai dire ne valent rien Ce dont j'me souviens, c'est la douceur de tes mains Tout avait commencé lors d'une soirée d'trop On a trinqué tous les deux, bien après l'angélus On a tout gagné en ratant l'dernier métro J'avais pleins d'idées, t'en avais beaucoup plus Tu m'as proposé c'que j'avais bien senti Je t'ai prise par la main, tu m'as pris par l'envie On a marché inconscients sous les néants jaunes Ce dont j'me souviens, c'est nos ombres de fantômes On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris il était déjà tard Le lieu, le moment à vrai dire ne comptent pas Ce dont je me souviens c'est la douceur de tes mains On a marché inconscients sous les néants jaunes Ce dont je me souviens c'est nos ombres de fantômes Tu m'as pris par surprise, je t'ai prise par la main Ce dont je me souviens c'est le bruit de tes pas On est entré dans ta chambre pour crier nos noms On a laissé se mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil nous ne serons que de trop</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7 Janvier 2015, j'ai pas envie d'aller au lit Je préfère prendre un stylo car, ce soir, je suis Charlie Les artisans d'la liberté ont rencontré leur destinée Ce soir, j'écris pour eux parce que je n'sais pas dessiner Soyons soixante-six millions à avoir la même idée Pour que leurs cartouches dencre à eux ne soient plus jamais vidées Laissons des traces indélébiles pour que l'avenir puisse savoir Que leur talent et leur courage ne vivent pas que dans nos mémoires Écrivains, paroliers, dessinateurs, graffeurs Musiciens, poètes, peintres et sculpteurs Célébrités, anonymes, professionnels et amateurs Faisons en sorte que cet élan s'affiche plus loin que sur Twitter Des hommes sont morts pour défendre la liberté d'expression Mais leurs idées doivent rayonner, ne subir aucune pression Contre l'obscurantisme, avec honneur et insolence À nous d'prendre les crayons pour que leur combat ait un sens J'ai mal à l'être humain, comment en est-on arrivé là ? Perdu dans ce vacarme, la fraternité chante a cappella La barbarie grandit sans aucune trace de dignité En 2015, le monde a perdu toute humanité Je suis Charlie Je suis Charlie Je suis Charlie You might also like Si seulement les mois qui viennent pouvaient me faire mentir Si seulement ce drame abject pouvait nous faire grandir Puissions-nous nous réunir pour croire ensemble à l'embellie Quoi qu'il advienne, j'ai un stylo car, ce soir, je suis Charlie Je suis Charlie Je suis Charlie Je suis Charlie5</t>
+          <t>7 Janvier 2015, j'ai pas envie d'aller au lit Je préfère prendre un stylo car, ce soir, je suis Charlie Les artisans d'la liberté ont rencontré leur destinée Ce soir, j'écris pour eux parce que je n'sais pas dessiner Soyons soixante-six millions à avoir la même idée Pour que leurs cartouches dencre à eux ne soient plus jamais vidées Laissons des traces indélébiles pour que l'avenir puisse savoir Que leur talent et leur courage ne vivent pas que dans nos mémoires Écrivains, paroliers, dessinateurs, graffeurs Musiciens, poètes, peintres et sculpteurs Célébrités, anonymes, professionnels et amateurs Faisons en sorte que cet élan s'affiche plus loin que sur Twitter Des hommes sont morts pour défendre la liberté d'expression Mais leurs idées doivent rayonner, ne subir aucune pression Contre l'obscurantisme, avec honneur et insolence À nous d'prendre les crayons pour que leur combat ait un sens J'ai mal à l'être humain, comment en est-on arrivé là ? Perdu dans ce vacarme, la fraternité chante a cappella La barbarie grandit sans aucune trace de dignité En 2015, le monde a perdu toute humanité Je suis Charlie Je suis Charlie Je suis Charlie Si seulement les mois qui viennent pouvaient me faire mentir Si seulement ce drame abject pouvait nous faire grandir Puissions-nous nous réunir pour croire ensemble à l'embellie Quoi qu'il advienne, j'ai un stylo car, ce soir, je suis Charlie Je suis Charlie Je suis Charlie Je suis Charlie5</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A la sortie de l'école Un jour tu m'as souris On avait dix ans J'étais tellement amoureux Toi on aurait dit Laura Ingalls dans sa prairie Et j'ai tenté ma chance Quand tu as détourné les yeux Et j'ai tenté De t'embrasser Mais tu m'as même pas remarquer J'me suis pris un vent Car il a pris ta main celui qui a vingt en dictée Toujours au premier rang Le p'tit fi-fils à ses parents J'en croyais pas mes yeux Nan mais il s'prend pour qui Je t'ai vu partir avec lui Et mon cur se resserrait Avec son cartable T'as ton Tann's Et son t-shirt Waikiki Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh You might also like A la soirée de Kévin Je nous sentais tellement proche On avait seize ans Tu étais si belle quand j'y pense Au milieu de la piste de danse On aurait dit Brenda Walsh Je me suis avancé C'était l'heure de saisir ma chance J'ai tenté De t'embrasser Et j'me suis pris un vent J'ai rien compris sur le coup Car il m'a bousculé Avec ses épaules carrés Un grand re-noi balèze J'crois qu'il sappelait Mamadou Il t'as pris dans ses bras Et vous avez dansé un slow En regardant cette scène j'avais du mal à respirer Avec ses Stan Smith Et son pantalon à pince Célio Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Un soir après la fac je t'ai invité manger un grec Endroit qui paie pas de mine J'voulait pas te mettre la pression Je m'étais bien renseigner Je savais que t'avais pas d'mec Et après ma dernière bouchée Au goût salade, tomate, oignon J'ai tenté De t'embrasser Et j'me suis pris un vent Encore une fois j'ai rien su faire Ton portable a sonné Tu as tout de suite décroché Jusqu'à mon dernier souffle J'aurais la rage contre SFR T'es partis immédiatement car un amie t'appelait au secours J'ai repris trois sandwichs sauce harissa le ventre serré Ça m'a piqué les yeux Mais moins que ce chagrin d'amour Et j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai Oh Les années ont passé j'ai continué d'essayer Un soir dans la rue Je t'ai vu sortir d'une voiture blanche J'ai foncé vers toi mais le destin a bégayé T'es partis au bras d'un inconnu Mais ma revanche est arrivée Un jour d'été J'ai débarqué dans la salle Le jour de ton mariage Cette fois c'est décidé Tu vas enfin me remarquer Devant m'sieur le maire Cette fois je n'ai pas été sage J'ai poussé le jeune premier Au moment des alliances Dans ta robe dentelle Tu m'as laissé t'enlacer Devant tout les invités Cette fois j'ai saisi ma chance Tu étais tellement belle Doucement... Je t'ai embrassé J'y arriverai Je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai</t>
+          <t>A la sortie de l'école Un jour tu m'as souris On avait dix ans J'étais tellement amoureux Toi on aurait dit Laura Ingalls dans sa prairie Et j'ai tenté ma chance Quand tu as détourné les yeux Et j'ai tenté De t'embrasser Mais tu m'as même pas remarquer J'me suis pris un vent Car il a pris ta main celui qui a vingt en dictée Toujours au premier rang Le p'tit fi-fils à ses parents J'en croyais pas mes yeux Nan mais il s'prend pour qui Je t'ai vu partir avec lui Et mon cur se resserrait Avec son cartable T'as ton Tann's Et son t-shirt Waikiki Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh A la soirée de Kévin Je nous sentais tellement proche On avait seize ans Tu étais si belle quand j'y pense Au milieu de la piste de danse On aurait dit Brenda Walsh Je me suis avancé C'était l'heure de saisir ma chance J'ai tenté De t'embrasser Et j'me suis pris un vent J'ai rien compris sur le coup Car il m'a bousculé Avec ses épaules carrés Un grand re-noi balèze J'crois qu'il sappelait Mamadou Il t'as pris dans ses bras Et vous avez dansé un slow En regardant cette scène j'avais du mal à respirer Avec ses Stan Smith Et son pantalon à pince Célio Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Un soir après la fac je t'ai invité manger un grec Endroit qui paie pas de mine J'voulait pas te mettre la pression Je m'étais bien renseigner Je savais que t'avais pas d'mec Et après ma dernière bouchée Au goût salade, tomate, oignon J'ai tenté De t'embrasser Et j'me suis pris un vent Encore une fois j'ai rien su faire Ton portable a sonné Tu as tout de suite décroché Jusqu'à mon dernier souffle J'aurais la rage contre SFR T'es partis immédiatement car un amie t'appelait au secours J'ai repris trois sandwichs sauce harissa le ventre serré Ça m'a piqué les yeux Mais moins que ce chagrin d'amour Et j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai Oh Les années ont passé j'ai continué d'essayer Un soir dans la rue Je t'ai vu sortir d'une voiture blanche J'ai foncé vers toi mais le destin a bégayé T'es partis au bras d'un inconnu Mais ma revanche est arrivée Un jour d'été J'ai débarqué dans la salle Le jour de ton mariage Cette fois c'est décidé Tu vas enfin me remarquer Devant m'sieur le maire Cette fois je n'ai pas été sage J'ai poussé le jeune premier Au moment des alliances Dans ta robe dentelle Tu m'as laissé t'enlacer Devant tout les invités Cette fois j'ai saisi ma chance Tu étais tellement belle Doucement... Je t'ai embrassé J'y arriverai Je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Y a des jours inévitables où la confiance s'évanouit Toutes ces heures vulnérables, y a des jours comme des nuits Les instants où je m'arrête au beau milieu de ma route Comme un lendemain de fête, c'est juste un jour de doute Les jours où même le temps, dehors, n'est pas sûr de lui Où le ciel est trempé sans une seule goutte de pluie Je regarde autour de moi, fui par ma sérénité Victime d'un moment de flou ou d'un trop-plein de lucidité J'ai trop d'attentes et trop de souvenirs qui font des tête-à-queue Y a beaucoup trop de pourquoi et pas assez de parce que Je choisis souvent le silence pour que les gens regardent ailleurs J' suis stoïque en apparence mais en tempête à l'intérieur Y a des envies qui me chuchotent et des regrets qui grondent C'est les jours où tu te sens seul, même entouré de plein de monde On connaît tous ces passages, un dernier vers pour la déroute Les certitudes prises en otage, c'est juste un jour de doute C'est juste un jour de doute, c'est un réveil sans appétit Comme une nuit sans sommeil et comme un rêve inabouti C'est la vie qui hésite et qui m'octroie une pause Mais pour mieux me laisser le temps de bien me remettre en cause Alors je regarde dans le miroir et je contemple mes erreurs Et tous ces regards sans espoir dans mon rétroviseur Ces quelques mains qui se tendaient que je n'ai jamais rattrapées Dans tout ce que j'ai tenté je ne revois que mes ratés You might also likeAlors j'avance, mais à tâtons et puis en regardant derrière Je me sens coupable encore une fois et ce sera pas la dernière Coupable d'avoir juste essayé et de pas avoir réussi Coupable d'avoir fait de mon mieux et que ça n'ait pas suffi Alors je remets tout en question, est-ce que j'suis bien à ma place J'ai peut-être pris les mauvais pions, est-ce que je dois vraiment faire face J'connais cette histoire par cur, un dernier vers pour la déroute Parfois j'suis pas à la hauteur, c'est juste un jour de doute C'est juste un jour de doute, ça va pas durer longtemps C'est juste un jour qui s'ajoute, il n'est même pas inquiétant Mais s'il me laisse un goût amer, je dois y faire attention Je connais son mystère, il est l'automne des sensations Quand sa lumière est faible comme si elle luttait toute la journée La nuit revient comme si la Terre était pressée de se retourner Et quand le soleil refait surface, il apparaît presque déçu Et une pluie fine le chasse, comme si la vie nous crachait dessus Alors je me dis que j'ai trop dormi ou que j' suis parti en contresens Je sens que j'ai besoin de retrouver toute les odeurs de l'urgence Les odeurs de vertige, les odeurs de vérité Je sais bien que j'ai besoin de retrouver l'instabilité Je crois pas que je manque des repères, en fait je pense que j'en ai trop J'ai envie de me prouver que j'aurai toujours les crocs C'est peut-être ça, un jour de doute, c'est pas une chute de moral C'est le besoin de vérifier qu'on a encore bien la dalle En fait, ces journées à la con, ça te fait te sentir vivant Et ça me fait écrire des textes bien écorchés comme avant En fait les jours de doute, ça donne des jours de lutte Des réveils, des coups de poings, des envies d'uppercuts Alors je tombe et je me redresse, alors je m'enfonce et j'encaisse Alors je me trompe et je progresse, alors je compte mes faiblesses Alors j'échoue, comme tout le monde, mais je reste sincère Et comme la vie n'est pas longue, j'essaie juste de bien faire Et si je mets de la lumière sur certaines de mes zones d'ombre Et si je mets quelques mots sur mes silences les plus sombres C'est pour mieux les comprendre et reprendre ma route C'est pour foncer sans attendre le prochain jour de doute</t>
+          <t>Y a des jours inévitables où la confiance s'évanouit Toutes ces heures vulnérables, y a des jours comme des nuits Les instants où je m'arrête au beau milieu de ma route Comme un lendemain de fête, c'est juste un jour de doute Les jours où même le temps, dehors, n'est pas sûr de lui Où le ciel est trempé sans une seule goutte de pluie Je regarde autour de moi, fui par ma sérénité Victime d'un moment de flou ou d'un trop-plein de lucidité J'ai trop d'attentes et trop de souvenirs qui font des tête-à-queue Y a beaucoup trop de pourquoi et pas assez de parce que Je choisis souvent le silence pour que les gens regardent ailleurs J' suis stoïque en apparence mais en tempête à l'intérieur Y a des envies qui me chuchotent et des regrets qui grondent C'est les jours où tu te sens seul, même entouré de plein de monde On connaît tous ces passages, un dernier vers pour la déroute Les certitudes prises en otage, c'est juste un jour de doute C'est juste un jour de doute, c'est un réveil sans appétit Comme une nuit sans sommeil et comme un rêve inabouti C'est la vie qui hésite et qui m'octroie une pause Mais pour mieux me laisser le temps de bien me remettre en cause Alors je regarde dans le miroir et je contemple mes erreurs Et tous ces regards sans espoir dans mon rétroviseur Ces quelques mains qui se tendaient que je n'ai jamais rattrapées Dans tout ce que j'ai tenté je ne revois que mes ratés Alors j'avance, mais à tâtons et puis en regardant derrière Je me sens coupable encore une fois et ce sera pas la dernière Coupable d'avoir juste essayé et de pas avoir réussi Coupable d'avoir fait de mon mieux et que ça n'ait pas suffi Alors je remets tout en question, est-ce que j'suis bien à ma place J'ai peut-être pris les mauvais pions, est-ce que je dois vraiment faire face J'connais cette histoire par cur, un dernier vers pour la déroute Parfois j'suis pas à la hauteur, c'est juste un jour de doute C'est juste un jour de doute, ça va pas durer longtemps C'est juste un jour qui s'ajoute, il n'est même pas inquiétant Mais s'il me laisse un goût amer, je dois y faire attention Je connais son mystère, il est l'automne des sensations Quand sa lumière est faible comme si elle luttait toute la journée La nuit revient comme si la Terre était pressée de se retourner Et quand le soleil refait surface, il apparaît presque déçu Et une pluie fine le chasse, comme si la vie nous crachait dessus Alors je me dis que j'ai trop dormi ou que j' suis parti en contresens Je sens que j'ai besoin de retrouver toute les odeurs de l'urgence Les odeurs de vertige, les odeurs de vérité Je sais bien que j'ai besoin de retrouver l'instabilité Je crois pas que je manque des repères, en fait je pense que j'en ai trop J'ai envie de me prouver que j'aurai toujours les crocs C'est peut-être ça, un jour de doute, c'est pas une chute de moral C'est le besoin de vérifier qu'on a encore bien la dalle En fait, ces journées à la con, ça te fait te sentir vivant Et ça me fait écrire des textes bien écorchés comme avant En fait les jours de doute, ça donne des jours de lutte Des réveils, des coups de poings, des envies d'uppercuts Alors je tombe et je me redresse, alors je m'enfonce et j'encaisse Alors je me trompe et je progresse, alors je compte mes faiblesses Alors j'échoue, comme tout le monde, mais je reste sincère Et comme la vie n'est pas longue, j'essaie juste de bien faire Et si je mets de la lumière sur certaines de mes zones d'ombre Et si je mets quelques mots sur mes silences les plus sombres C'est pour mieux les comprendre et reprendre ma route C'est pour foncer sans attendre le prochain jour de doute</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Maman tu n'aimes pas quand je rentre tard, tu n'sais pas à quelle heure je vais rev'nir Tu redoutes un peu ce genre de soir et tant qu'j'suis pas là, tu n'peux pas t'endormir Maman, tu écoutes les bruits dehors, tu attends celui d'la clé dans la serrure Quand tu es inquiètes, bien sûr, j'ai des remords mais c'est les heures qui passent trop vite, je te jure Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et c'est là qu'elle m'a souri Eh Yema, j'vais t'raconter J'vais t'raconter Maman, j'aime quand le soleil se couche, quand il bascule, il bouscule ma raison Et quand les ondes du crépuscule me touchent, j'ai du mal à rentrer à la maison Maman, je vais t'raconter ce soir là, je n'sais plus si c'est moi qui l'ai enlacé J'me souviens juste de la douceur de ses bras et de sa voix qui m'a dit Allons danser Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Je suis allé au café J'ai un peu stationné Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, j'ai découché Et là, je me suis amusé Eh Yema, j'vais t'raconter J'vais t'raconter You might also like Maman, il faut qu'tu m'comprennes, elle est si complexe et si légère à la fois J'aimerais déjà qu'elle m'emmène dans ses secrets, ses zones d'ombres, ses éclats Maman crois-moi, elle est incroyable, elle est une lumière, une musique, une diva J'nous vois déjà inséparable mais maman sûrement, tu la connais déjà Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré En marchant, j'l'ai observé Et j'l'ai laissé m'emporter Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'est la plus belle des folies Et elle s'appelle la vie Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et elle s'appelle la vie</t>
+          <t>Maman tu n'aimes pas quand je rentre tard, tu n'sais pas à quelle heure je vais rev'nir Tu redoutes un peu ce genre de soir et tant qu'j'suis pas là, tu n'peux pas t'endormir Maman, tu écoutes les bruits dehors, tu attends celui d'la clé dans la serrure Quand tu es inquiètes, bien sûr, j'ai des remords mais c'est les heures qui passent trop vite, je te jure Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et c'est là qu'elle m'a souri Eh Yema, j'vais t'raconter J'vais t'raconter Maman, j'aime quand le soleil se couche, quand il bascule, il bouscule ma raison Et quand les ondes du crépuscule me touchent, j'ai du mal à rentrer à la maison Maman, je vais t'raconter ce soir là, je n'sais plus si c'est moi qui l'ai enlacé J'me souviens juste de la douceur de ses bras et de sa voix qui m'a dit Allons danser Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Je suis allé au café J'ai un peu stationné Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, j'ai découché Et là, je me suis amusé Eh Yema, j'vais t'raconter J'vais t'raconter Maman, il faut qu'tu m'comprennes, elle est si complexe et si légère à la fois J'aimerais déjà qu'elle m'emmène dans ses secrets, ses zones d'ombres, ses éclats Maman crois-moi, elle est incroyable, elle est une lumière, une musique, une diva J'nous vois déjà inséparable mais maman sûrement, tu la connais déjà Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré En marchant, j'l'ai observé Et j'l'ai laissé m'emporter Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'est la plus belle des folies Et elle s'appelle la vie Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et elle s'appelle la vie</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ça sest passé une nuit dété, et ce soir là il faisait chaud Jétais un lion en liberté avant dentrer dans un cachot Apprendre à vivre autrement, courir seulement dans mes pensées Accepter dêtre différent pour continuer davancer Pardonnez-moi Messieurs Mesdames pour ce début de texte un peu brutal Moi non plus j'nétais pas prêt, depuis jai travaillé mon mental Jai sué pour récupérer quelques gestes et pour retrouver lenvie J'noublierai jamais tout le reste mais cest juste une période de ma vie Ça sest passé une nuit dhiver, et ce soir là il faisait froid Mais dans la course des étoiles la Lune semblait nous dire à tous sil te plaît tais-toi Le caniveau charriait nos larmes et les échos de nos sanglots nous étouffaient Nous venions de déposer les armes, cest con, je pensais avoir tout fait Pardonnez-moi Messieurs Mesdames, peut-être que je manque de pudeur A dérouler le tapis de mes drames, de mes colères, de mes douleurs Mais le poète reste incompris comme le marin sans son navire Dans ces mystères faites le tri, cest juste une période de ma vie Ça sest passé dans un grand bureau dirigé par une bande de voleurs Pendant quatre ans ça a été chaud de faire l'grand écart avec mes valeurs Au début cétait marrant mais jamais vraiment passionnel Aujourdhui jai choisi entre aimer ma vie et une belle carrière professionnelle Vous moquez pas Messieurs Mesdames en mimaginant bien habillé Dans un univers marketing où les seules stars sont les billets En partant jai volé une agrafeuse, un bâton de colle et un préavis Jai encore des chemises dans un placard, mais cest juste une période de ma vie You might also like Ça sest passé dans un tout petit bureau avec des vieilles coincées du cul Et puis des cons à tête décrou emmêlés dans de vieux rideaux Je me la racontais avec mes potes et je leur disais Si si les gars, je vous jure, jai un super boulot Mais cette époque sest prise un stop le jour où on ma dit Rouda, tes convoqué chez la dirlo Vous moquez pas Messieurs Mesdames, cétait une première fois et mon dernier licenciement Mais il ma suffit dune fois pour voir que DRH ne rime pas avec le mot sentiment Ils voulaient voir ma rage, mais ce jour-là je crois qu'jai ri Et puis jai tourné la page, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle Ça sest passé un jour de printemps, mon cur a battu super vite Dès que je la voyais, mes yeux brillaient et il y avait de la buée sur les vitres Je voulais son bien-être plus que le mien, et ça javais pas lhabitude Celui qui la touche je lui brise les reins, cétait ça ma seule certitude Vous êtes émus Messieurs Mesdames en voyant un grand con amoureux Je voyais notre chemin tout tracé, jétais confiant, cest dangereux Car quand nos routes se sont séparées cest un coup de poignard que jai pris Et jai compris avec dépit qu'cest juste une période de ma vie Ça sest passé un jour dautomne et dans mon cur jai ressenti la fission des atomes Si javais été sourd jaurai jeté mon sonotone pour la musique de cette femme Et même laveugle aurait brisé sa cane pour voir cette beauté créée par les Hommes Quand dans ma rue on disait Elle fait mal au crâne de peur dêtre brûlé par la flamme Vous êtes émus Messieurs Mesdames mais cette histoire a nourri des sitcoms Et puis apaisé mes nuits blanches comme une pommade qui me calme Je vous le jure plein de chanteurs entonnent pour elle des mélodies Moi je la chante tous les jours, cest juste une période de ma vie Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ces mecs chelous qui viennent pour raconter leur vie ? Cest elle cest lui cest moi cest nous Fab, Fab, Fab! Quoi? Le thème! Ah OK pardon Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ? Jai regardé, jai écouté et je me suis pris une grande baffe Aujourdhui dans ma chaîne hi-fi jentends nos voix sortir des baffles Ce nest qu'du slam Messieurs Mesdames et jespère que vous appréciez La poésie du macadam, jy consacre des moments précieux Jai des rimes plein la gorge, mais si vous voulez mon avis Si ça se trouve cest comme tout le reste, cest juste une période de ma vie Ça sest passé dans un petit bar, le Côté Zèbre ou lUnion Bar On y était trois fois par semaine, il ny avait personne, il ny avait pas d'stars Il y avait que des poètes avec des phrases qui finissaient en Nénuphars? Ouais Cétait la joie et linsouciance et lencre débordait des buvards Ce nest qu'du slam Messieurs Mesdames, cest juste un moment entre nous Où les frontières deviennent instables entre les tables et ceux qui sont debout Et sur lestrade, y a deux poètes, cest quand même autre chose que Lorie Dans vos sourires jai vu mes cris, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle</t>
+          <t>Ça sest passé une nuit dété, et ce soir là il faisait chaud Jétais un lion en liberté avant dentrer dans un cachot Apprendre à vivre autrement, courir seulement dans mes pensées Accepter dêtre différent pour continuer davancer Pardonnez-moi Messieurs Mesdames pour ce début de texte un peu brutal Moi non plus j'nétais pas prêt, depuis jai travaillé mon mental Jai sué pour récupérer quelques gestes et pour retrouver lenvie J'noublierai jamais tout le reste mais cest juste une période de ma vie Ça sest passé une nuit dhiver, et ce soir là il faisait froid Mais dans la course des étoiles la Lune semblait nous dire à tous sil te plaît tais-toi Le caniveau charriait nos larmes et les échos de nos sanglots nous étouffaient Nous venions de déposer les armes, cest con, je pensais avoir tout fait Pardonnez-moi Messieurs Mesdames, peut-être que je manque de pudeur A dérouler le tapis de mes drames, de mes colères, de mes douleurs Mais le poète reste incompris comme le marin sans son navire Dans ces mystères faites le tri, cest juste une période de ma vie Ça sest passé dans un grand bureau dirigé par une bande de voleurs Pendant quatre ans ça a été chaud de faire l'grand écart avec mes valeurs Au début cétait marrant mais jamais vraiment passionnel Aujourdhui jai choisi entre aimer ma vie et une belle carrière professionnelle Vous moquez pas Messieurs Mesdames en mimaginant bien habillé Dans un univers marketing où les seules stars sont les billets En partant jai volé une agrafeuse, un bâton de colle et un préavis Jai encore des chemises dans un placard, mais cest juste une période de ma vie Ça sest passé dans un tout petit bureau avec des vieilles coincées du cul Et puis des cons à tête décrou emmêlés dans de vieux rideaux Je me la racontais avec mes potes et je leur disais Si si les gars, je vous jure, jai un super boulot Mais cette époque sest prise un stop le jour où on ma dit Rouda, tes convoqué chez la dirlo Vous moquez pas Messieurs Mesdames, cétait une première fois et mon dernier licenciement Mais il ma suffit dune fois pour voir que DRH ne rime pas avec le mot sentiment Ils voulaient voir ma rage, mais ce jour-là je crois qu'jai ri Et puis jai tourné la page, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle Ça sest passé un jour de printemps, mon cur a battu super vite Dès que je la voyais, mes yeux brillaient et il y avait de la buée sur les vitres Je voulais son bien-être plus que le mien, et ça javais pas lhabitude Celui qui la touche je lui brise les reins, cétait ça ma seule certitude Vous êtes émus Messieurs Mesdames en voyant un grand con amoureux Je voyais notre chemin tout tracé, jétais confiant, cest dangereux Car quand nos routes se sont séparées cest un coup de poignard que jai pris Et jai compris avec dépit qu'cest juste une période de ma vie Ça sest passé un jour dautomne et dans mon cur jai ressenti la fission des atomes Si javais été sourd jaurai jeté mon sonotone pour la musique de cette femme Et même laveugle aurait brisé sa cane pour voir cette beauté créée par les Hommes Quand dans ma rue on disait Elle fait mal au crâne de peur dêtre brûlé par la flamme Vous êtes émus Messieurs Mesdames mais cette histoire a nourri des sitcoms Et puis apaisé mes nuits blanches comme une pommade qui me calme Je vous le jure plein de chanteurs entonnent pour elle des mélodies Moi je la chante tous les jours, cest juste une période de ma vie Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ces mecs chelous qui viennent pour raconter leur vie ? Cest elle cest lui cest moi cest nous Fab, Fab, Fab! Quoi? Le thème! Ah OK pardon Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ? Jai regardé, jai écouté et je me suis pris une grande baffe Aujourdhui dans ma chaîne hi-fi jentends nos voix sortir des baffles Ce nest qu'du slam Messieurs Mesdames et jespère que vous appréciez La poésie du macadam, jy consacre des moments précieux Jai des rimes plein la gorge, mais si vous voulez mon avis Si ça se trouve cest comme tout le reste, cest juste une période de ma vie Ça sest passé dans un petit bar, le Côté Zèbre ou lUnion Bar On y était trois fois par semaine, il ny avait personne, il ny avait pas d'stars Il y avait que des poètes avec des phrases qui finissaient en Nénuphars? Ouais Cétait la joie et linsouciance et lencre débordait des buvards Ce nest qu'du slam Messieurs Mesdames, cest juste un moment entre nous Où les frontières deviennent instables entre les tables et ceux qui sont debout Et sur lestrade, y a deux poètes, cest quand même autre chose que Lorie Dans vos sourires jai vu mes cris, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J'reviens d'l'enterrement d'un proche, j'me dis qu'la vie n'a pas d'sens L'humain a beau faire des progrès, notre existence n'a pas d'science Destin agit selon son gré, censés s'estimer chanceux Sur cette autoroute sinueuse, il m'reste encore du sens J'y pense là et après j'oublie Sur le moment en réflxion, et puis après j'roupille C'est fou commnt la vie est fourbe Quelqu'un de plus ou de moins, on est des millards, qu'est-ce qu'elle en a à foutre ? Pris entre les dettes, les factures, les victoires, défaites, les fêtes, un passé bourré d'ratures Perdu dans la fosse aux lions, j'me sens jeté en pâture Je m'efforce d'être quelqu'un de bon, je n'suis qu'une caricature Et la mon cerveau sature Pour dire vrai, ça fait un moment qu'ça dure Donc j'décompresse, j'appelle cette meuf et j'm'envoie sur Saturne M'ont dit qu'le paradis c'est pour les braves Et vu mes stats, dans l'meilleur des cas, j'passerai par la draft, ouais Quand j'y pense il est parti mon pote, ça fait bizarre, j'me dis qu'j'reverrai plus mon pote Ouais, il est parti mon pote Il est parti mon pote Quand j'y pense j'reverrai plus mon pote C'est c'qu'on disait tout de suite avec les potes On est des potes qui pleurent un pote et on est pleins de potes Mais quand j'y pense, les potes... La vie d'rue sans embrouille, c'est comme un match d'rugby sans mêlée Mes potes sont comme écouteurs iPhone, ils aiment bien s'emmêler Parmi cela, très peu sont venus m'aider Donc à mon tour, y'en à trop peu qu'j'ai aidé Pourtant on s'aime mais on s'baise, on est des PDs Mais on s'accepte, on s'chamaille, on s'critique On assume leurs faits et gestes, leurs caractères, leurs p'tits tics Mais dès qu'ça foire, on s'jette la pierre, si on garde pour soi, on crie Puis on s'reparle, qui entre moi et eux est hypocrite ? En vrai on reverra plus notre pote, quand j'y r'pense, y'avait qui à l'enterrement d'ce pote ? Et est-ce qu'ils seront là à mon enterrement ? C'jour là, j'fermerai ma gueule, j'pourrai pas faire autrement Bref, j'vois pas pourquoi j'réfléchis à tout ça, à croire que dans mon esprit tous les jours c'est la Toussaint L'union fait la force, du coup on est pas tous zins Diviser pour mieux régner du coup on est pas tous un You might also like J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense, j'oublie Encore un texte triste écrit sous un esprit nuageux J'ai perdu l'innocence, c'est vrai, depuis j'ai pris de l'âge Comme si j'sortais d'un enterrement, d'un pote ou bien d'un proche La joie a pris la fuite, c'est la lassitude qui s'accroche Encore un texte triste écrit dans un monde sans morale La peine et la terreur bien décidées rejoignent la chorale Même quand t'allumes la télé sur les nouvelles du monde Où sont passés les sourires ? C'est la colère qui gronde J'y pense et puis j'oublie, je préfère faire le tri Je passe à autre chose, souvent je tiens, parfois je plis Comme juste après la mort d'un bon pote ou d'un parent J'aurais dû écrire sous tease, j'aurais gratté un texte plus marrant</t>
+          <t>J'reviens d'l'enterrement d'un proche, j'me dis qu'la vie n'a pas d'sens L'humain a beau faire des progrès, notre existence n'a pas d'science Destin agit selon son gré, censés s'estimer chanceux Sur cette autoroute sinueuse, il m'reste encore du sens J'y pense là et après j'oublie Sur le moment en réflxion, et puis après j'roupille C'est fou commnt la vie est fourbe Quelqu'un de plus ou de moins, on est des millards, qu'est-ce qu'elle en a à foutre ? Pris entre les dettes, les factures, les victoires, défaites, les fêtes, un passé bourré d'ratures Perdu dans la fosse aux lions, j'me sens jeté en pâture Je m'efforce d'être quelqu'un de bon, je n'suis qu'une caricature Et la mon cerveau sature Pour dire vrai, ça fait un moment qu'ça dure Donc j'décompresse, j'appelle cette meuf et j'm'envoie sur Saturne M'ont dit qu'le paradis c'est pour les braves Et vu mes stats, dans l'meilleur des cas, j'passerai par la draft, ouais Quand j'y pense il est parti mon pote, ça fait bizarre, j'me dis qu'j'reverrai plus mon pote Ouais, il est parti mon pote Il est parti mon pote Quand j'y pense j'reverrai plus mon pote C'est c'qu'on disait tout de suite avec les potes On est des potes qui pleurent un pote et on est pleins de potes Mais quand j'y pense, les potes... La vie d'rue sans embrouille, c'est comme un match d'rugby sans mêlée Mes potes sont comme écouteurs iPhone, ils aiment bien s'emmêler Parmi cela, très peu sont venus m'aider Donc à mon tour, y'en à trop peu qu'j'ai aidé Pourtant on s'aime mais on s'baise, on est des PDs Mais on s'accepte, on s'chamaille, on s'critique On assume leurs faits et gestes, leurs caractères, leurs p'tits tics Mais dès qu'ça foire, on s'jette la pierre, si on garde pour soi, on crie Puis on s'reparle, qui entre moi et eux est hypocrite ? En vrai on reverra plus notre pote, quand j'y r'pense, y'avait qui à l'enterrement d'ce pote ? Et est-ce qu'ils seront là à mon enterrement ? C'jour là, j'fermerai ma gueule, j'pourrai pas faire autrement Bref, j'vois pas pourquoi j'réfléchis à tout ça, à croire que dans mon esprit tous les jours c'est la Toussaint L'union fait la force, du coup on est pas tous zins Diviser pour mieux régner du coup on est pas tous un J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense, j'oublie Encore un texte triste écrit sous un esprit nuageux J'ai perdu l'innocence, c'est vrai, depuis j'ai pris de l'âge Comme si j'sortais d'un enterrement, d'un pote ou bien d'un proche La joie a pris la fuite, c'est la lassitude qui s'accroche Encore un texte triste écrit dans un monde sans morale La peine et la terreur bien décidées rejoignent la chorale Même quand t'allumes la télé sur les nouvelles du monde Où sont passés les sourires ? C'est la colère qui gronde J'y pense et puis j'oublie, je préfère faire le tri Je passe à autre chose, souvent je tiens, parfois je plis Comme juste après la mort d'un bon pote ou d'un parent J'aurais dû écrire sous tease, j'aurais gratté un texte plus marrant</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais You might also likeC'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
+          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade You might also like On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Un pigeon est posé Sur l'épaule galonnée Du Maréchal de France Et il a décoré La statue dressée D'une gastrique offense Maréchaux aassins Sur vos bustes d'airain Vos poitrines superbes Vos médailles ne sont que fiente De pigeon d'la merde Un enfant est venu Aux pieds de la statue Du Maréchal de France Une envie naturelle L'a fait pisser contre elle Mais en toute innocence Maréchaux aassins Le môme mine de rien A joliment vengé Les enfants et les mères Que dans vos sales guerres Vous avez massacrés Un clodo s'est couché Une nuit juste aux pieds Du Maréchal de France Ivre mort au matin Il a vomi son vin Dans une gerbe immense Maréchaux aassins Vous ne méritez rien De mieux pour vos méfaits Que cet hommage immonde Pour tout le sang du monde Par vos sabres versé Un couple d'amoureux S'embrasse sous les yeux Du Maréchal de France Muet comme un vieux bonze Il restera de bronze Raide comme une lance Maréchaux aassins L'amour ne vous dit rien À part bien sûr celui De la Patrie hélas Cette idée est dégueulasse Qu'à mon tour je conchieYou might also like</t>
+          <t>Un pigeon est posé Sur l'épaule galonnée Du Maréchal de France Et il a décoré La statue dressée D'une gastrique offense Maréchaux aassins Sur vos bustes d'airain Vos poitrines superbes Vos médailles ne sont que fiente De pigeon d'la merde Un enfant est venu Aux pieds de la statue Du Maréchal de France Une envie naturelle L'a fait pisser contre elle Mais en toute innocence Maréchaux aassins Le môme mine de rien A joliment vengé Les enfants et les mères Que dans vos sales guerres Vous avez massacrés Un clodo s'est couché Une nuit juste aux pieds Du Maréchal de France Ivre mort au matin Il a vomi son vin Dans une gerbe immense Maréchaux aassins Vous ne méritez rien De mieux pour vos méfaits Que cet hommage immonde Pour tout le sang du monde Par vos sabres versé Un couple d'amoureux S'embrasse sous les yeux Du Maréchal de France Muet comme un vieux bonze Il restera de bronze Raide comme une lance Maréchaux aassins L'amour ne vous dit rien À part bien sûr celui De la Patrie hélas Cette idée est dégueulasse Qu'à mon tour je conchie</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ça commence par un moment de flottement quand le soleil recule Un parfum d'hésitation qu'on appelle le crépuscule Les dernières heures du jour sont avalées par l'horizon Pour que la nuit règne sans partage, elle a gagné, elle a raison En fait j'aime cette instant, j'vois le changement d'atmosphère Et si j'y pense un peu j'me demande comment ça peut se faire Ce miracle quotidien, le perpétuel mystère Qui fait qu'en quelques secondes on passe du coté obscur de la terre Voici une note pour la nuit, les nuits, les miennes les tiennes Je ne sais pas comment tu les vis moi mes nuits m'appartiennent Je les regarde je les visite c'est mon royaume mon château Je les aime et c'est tant mieux parce que j'aime pas me coucher tôt J'te parle pas des nuits parisiennes, des lumières et des décibels J'préfère celles du silence et d'la pénombre qui est si belle J'te parle pas des nuits en boite, celles des branleurs et celles des poufs Je préfère les trottoirs vides quand la ville reprend son souffle Comment exprimer ce que la nuit m'inspire Ce qu'elle nous suggère et ce qu elle respire Ce moment d'obscurité qui met en lumière nos fissures L'ambiguïté en manteau noir, la nuit fait peur, la nuit rassure En tout cas c'qui est sur c'est qu'elle influence nos cerveaux Prend pas de grandes décisions la nuit tu sais jamais ce que ça vaut Pourtant elle peut être parfois un moment d' extrême lucidité Et c'est souvent la nuit qu'tu crois détenir la vérité Chaque nuit la suspicion fête son anniversaire Et quand tu croises un mec dans la rue il te matte comme un adversaire Y'a des regards méfiants, menaçants ou pleins de panique En tout cas c'qui est bien la nuit c'est qu' y a personne sur le périphérique You might also likeEt si t'as pas de voiture surtout loupe pas le dernier métro Sinon tu raques un taxi ou tu dors avec les char-clo Tu découvres alors que la lune n'est pas toujours blonde Tu découvres la vraie nuit, son vrai rythme et son vrai monde C'est vrai que la faune de la nuit est assez particulière Y'a ceux qui taffent ,y'a ceux qui sortent pour voir les putes ou boire une bière La police est là aussi alors on peut se manger quelques claques Quand on répond un peu trop fort lors d'un contrôle de la BAC Dans ta nuit la journée qui vient de finir se reflète Tu fais ton p'tit bilan, journée de galère ou jour de fête Si t'as peur du lendemain tu penses aux proverbes un peu balourds La nuit porte conseil ou bien demain il fera jour Voici une note pour la nuit, douce nuit d'été, ou longue nuit d'hiver Nuit calme et reposée ou nuit trop riche en faits divers Nuit blanche lors d'une nuit noire où même la lune s'est dérobée J' te propose juste quelques photos de notre monde, face B Voici une note pour la nuit qui nous a vu remplir tellement de pages Qu'à cet instant je la fixe sur ma feuille comme un hommage Elle offre au poète tellement d'heures sans bruit A c'qui parait la nuit tous les stylos sont pris1</t>
+          <t>Ça commence par un moment de flottement quand le soleil recule Un parfum d'hésitation qu'on appelle le crépuscule Les dernières heures du jour sont avalées par l'horizon Pour que la nuit règne sans partage, elle a gagné, elle a raison En fait j'aime cette instant, j'vois le changement d'atmosphère Et si j'y pense un peu j'me demande comment ça peut se faire Ce miracle quotidien, le perpétuel mystère Qui fait qu'en quelques secondes on passe du coté obscur de la terre Voici une note pour la nuit, les nuits, les miennes les tiennes Je ne sais pas comment tu les vis moi mes nuits m'appartiennent Je les regarde je les visite c'est mon royaume mon château Je les aime et c'est tant mieux parce que j'aime pas me coucher tôt J'te parle pas des nuits parisiennes, des lumières et des décibels J'préfère celles du silence et d'la pénombre qui est si belle J'te parle pas des nuits en boite, celles des branleurs et celles des poufs Je préfère les trottoirs vides quand la ville reprend son souffle Comment exprimer ce que la nuit m'inspire Ce qu'elle nous suggère et ce qu elle respire Ce moment d'obscurité qui met en lumière nos fissures L'ambiguïté en manteau noir, la nuit fait peur, la nuit rassure En tout cas c'qui est sur c'est qu'elle influence nos cerveaux Prend pas de grandes décisions la nuit tu sais jamais ce que ça vaut Pourtant elle peut être parfois un moment d' extrême lucidité Et c'est souvent la nuit qu'tu crois détenir la vérité Chaque nuit la suspicion fête son anniversaire Et quand tu croises un mec dans la rue il te matte comme un adversaire Y'a des regards méfiants, menaçants ou pleins de panique En tout cas c'qui est bien la nuit c'est qu' y a personne sur le périphérique Et si t'as pas de voiture surtout loupe pas le dernier métro Sinon tu raques un taxi ou tu dors avec les char-clo Tu découvres alors que la lune n'est pas toujours blonde Tu découvres la vraie nuit, son vrai rythme et son vrai monde C'est vrai que la faune de la nuit est assez particulière Y'a ceux qui taffent ,y'a ceux qui sortent pour voir les putes ou boire une bière La police est là aussi alors on peut se manger quelques claques Quand on répond un peu trop fort lors d'un contrôle de la BAC Dans ta nuit la journée qui vient de finir se reflète Tu fais ton p'tit bilan, journée de galère ou jour de fête Si t'as peur du lendemain tu penses aux proverbes un peu balourds La nuit porte conseil ou bien demain il fera jour Voici une note pour la nuit, douce nuit d'été, ou longue nuit d'hiver Nuit calme et reposée ou nuit trop riche en faits divers Nuit blanche lors d'une nuit noire où même la lune s'est dérobée J' te propose juste quelques photos de notre monde, face B Voici une note pour la nuit qui nous a vu remplir tellement de pages Qu'à cet instant je la fixe sur ma feuille comme un hommage Elle offre au poète tellement d'heures sans bruit A c'qui parait la nuit tous les stylos sont pris1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Je voudrais vous parler dun endroit remarquable, absolument épatant Un lieu extraordinaire qui existe depuis longtemps On le trouve un peu partout mais il renferme bien des mystères Ce lieu mystique sappelle L'appartement de célibataire Le célibataire masculin, c'est quand même c'lui que j'connais le mieux C'est un peu toujours le même, qu'il soit jeune ou qu'il soit vieux Je sais de quoi je parle, suivez-moi, vous êtes sous bonne escorte L'appartement est là, il suffit d'ouvrir la porte Ce qu'on remarque tout de suite, sans être un enquêteur C'est que le sol mériterait un bon coup daspirateur C'est pas vraiment que c'est sale mais faut avouer qu'sous nos pieds Quand on marche, on a l'impression davancer sur du gravier Un autre truc flagrant, même si le mec habite là depuis deux ans C'est qu'on croit toujours qu'il vient de faire son déménagement Y a pas de rideaux aux fenêtres et, en gros, la décoration J'crois qu'faut admettre que cest pas sa passion Le célibataire est fier de ses meubles et pourtant tout ce qu'y a C'est un pauvre canapé clic-clac et une table basse Ikéa C'est souvent sur cette table que le courrier attend, bien sage A côté d'une cannette et dun bout d'pizza quatre fromages Bienvenue dans la cuisine, voici l'évier, il est nickel Bon, là, on le voit pas bien, il est sous la pile de vaisselle Je m'en fous, je la ferai demain la phrase est un peu classique Plus tard, le célibataire aura un lave-vaisselle, ou une meuf, les deux sont pratiques You might also likeHhhfff, vous reconnaissez ce bruit ? C'est quand on ouvre le frigidaire L'intérieur on dirait une plage de Normandie un soir d'hiver À part deux yaourts et une sauce bolognaise périmée C'est le grand désert, vas-y, referme vite, je suis déprimé! Pas mal la salle de bain et sympa la baignoire Mais, dis-moi, c'est sa vraie couleur là, le gris trottoir? Et l'lavabo c'est pareil, lave-le, ça prend deux s'condes! J'entends Jacob Delafon qui s'retourne au fond d'sa tombe Attention on attaque la chambre, et là, ça cartonne Regarde bien, le lit est fait... Non, je déconne! Par contre, si tu regardes en dessous, il se passe des trucs étonnants Y a tout un écosystème qui est en plein développement Il peut se passer un moment grave, comme un tremblement de terre C'est quand une femme prend ses quartiers dans l'appartement de célibataire Elle opère de p'tits changements, délicatement, sans gros sabots Et y a plein d'produits de beauté qui poussent le long du lavabo C'est toujours ton petit chez toi mais y a un nouveau parfum dans latmosphère Toi, tu aimes cette invasion, tu observes, tu laisses faire Mais même si tu ranges pas plus et que tu laves pas souvent tes draps Elle changera pas tes habitudes, si elle t'aime, elle comprendra</t>
+          <t>Je voudrais vous parler dun endroit remarquable, absolument épatant Un lieu extraordinaire qui existe depuis longtemps On le trouve un peu partout mais il renferme bien des mystères Ce lieu mystique sappelle L'appartement de célibataire Le célibataire masculin, c'est quand même c'lui que j'connais le mieux C'est un peu toujours le même, qu'il soit jeune ou qu'il soit vieux Je sais de quoi je parle, suivez-moi, vous êtes sous bonne escorte L'appartement est là, il suffit d'ouvrir la porte Ce qu'on remarque tout de suite, sans être un enquêteur C'est que le sol mériterait un bon coup daspirateur C'est pas vraiment que c'est sale mais faut avouer qu'sous nos pieds Quand on marche, on a l'impression davancer sur du gravier Un autre truc flagrant, même si le mec habite là depuis deux ans C'est qu'on croit toujours qu'il vient de faire son déménagement Y a pas de rideaux aux fenêtres et, en gros, la décoration J'crois qu'faut admettre que cest pas sa passion Le célibataire est fier de ses meubles et pourtant tout ce qu'y a C'est un pauvre canapé clic-clac et une table basse Ikéa C'est souvent sur cette table que le courrier attend, bien sage A côté d'une cannette et dun bout d'pizza quatre fromages Bienvenue dans la cuisine, voici l'évier, il est nickel Bon, là, on le voit pas bien, il est sous la pile de vaisselle Je m'en fous, je la ferai demain la phrase est un peu classique Plus tard, le célibataire aura un lave-vaisselle, ou une meuf, les deux sont pratiques Hhhfff, vous reconnaissez ce bruit ? C'est quand on ouvre le frigidaire L'intérieur on dirait une plage de Normandie un soir d'hiver À part deux yaourts et une sauce bolognaise périmée C'est le grand désert, vas-y, referme vite, je suis déprimé! Pas mal la salle de bain et sympa la baignoire Mais, dis-moi, c'est sa vraie couleur là, le gris trottoir? Et l'lavabo c'est pareil, lave-le, ça prend deux s'condes! J'entends Jacob Delafon qui s'retourne au fond d'sa tombe Attention on attaque la chambre, et là, ça cartonne Regarde bien, le lit est fait... Non, je déconne! Par contre, si tu regardes en dessous, il se passe des trucs étonnants Y a tout un écosystème qui est en plein développement Il peut se passer un moment grave, comme un tremblement de terre C'est quand une femme prend ses quartiers dans l'appartement de célibataire Elle opère de p'tits changements, délicatement, sans gros sabots Et y a plein d'produits de beauté qui poussent le long du lavabo C'est toujours ton petit chez toi mais y a un nouveau parfum dans latmosphère Toi, tu aimes cette invasion, tu observes, tu laisses faire Mais même si tu ranges pas plus et que tu laves pas souvent tes draps Elle changera pas tes habitudes, si elle t'aime, elle comprendra</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Après l'époque du ballon, j'ai cherché un temps pas long Puis j'ai quitté mon salon pour bien voir c'que nous valons Alors j'ai posé des jalons dans l'son, j'ai pris du galon Parlons peu, slamons bien, des rimes jusque dans les talons Comme un gentil egotrip, j'ai trouvé comment commencer Plus de ballon, les bras ballants, mais des histoires à balancer Qu'on pense ou qu'on pense pas, j'ai mis des phrases en condensé Qu'on danse ou qu'on danse pas, j'ai fait tout ça pour compenser Alors une passion à pallier, c'est pas simple, on peut pas nier J'ai accepté par paliers de ne plus mettre des paniers Je n'suis plus derrière la ligne à trois points et sa tension Je suis devant les interlignes, j'y mets trois points de suspension J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai mis des shoots de verbes, des lancers-francs d'adjectifs J'y ai mis toute ma verve, tout ça est très addictif Je suis en phase offensive et la démarche évolue J'ai reçu des passes décisives de musiciens reconnus J'ai feinté les assonances et dribblé chaque terminaison J'ai réalisé ma chance, pourtant, je suis qu'à mi-saison J'ai pas eu peur du contre, et j'ai smashé en lévitant On dit bien slam dunk le parallèle est évident à la mi-temps, j'étais un statut d'intermittent Un tiers mytho, un tiers mutant, un tiers citant des vers chantant Le money time est excitant, j'y crois jusqu'au dernier quart-temps Un rien distant mais persistant, je joue la rime à chaque instant You might also like J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai voulu transposer pour que le match devienne ma scène La pression a explosé comme une drogue jamais malsaine Je me suis exposé pour qu'le public devienne jury C'est fort et c'est un danger, comme un shoot de Stephen Curry C'est au public, et à lui seul, que revient le droit de m'arbitrer Quand il kiffe, quand il gueule, y'a pas moyen de m'abriter Immobile ou bondissant, qu'il me clashe ou qu'il me donne C'est agile et c'est puissant, comme un smash de LeBron En moins d'vingt-quatre secondes, je dois tirer mon couplet Et, si jamais le coup plaît, le bonheur sera complet J'propose des vers un peu bizarres, j'ai le micro dans l'viseur Poseur de textes un peu bavard, j'ai mis un refrain au buzzeur J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond</t>
+          <t>Après l'époque du ballon, j'ai cherché un temps pas long Puis j'ai quitté mon salon pour bien voir c'que nous valons Alors j'ai posé des jalons dans l'son, j'ai pris du galon Parlons peu, slamons bien, des rimes jusque dans les talons Comme un gentil egotrip, j'ai trouvé comment commencer Plus de ballon, les bras ballants, mais des histoires à balancer Qu'on pense ou qu'on pense pas, j'ai mis des phrases en condensé Qu'on danse ou qu'on danse pas, j'ai fait tout ça pour compenser Alors une passion à pallier, c'est pas simple, on peut pas nier J'ai accepté par paliers de ne plus mettre des paniers Je n'suis plus derrière la ligne à trois points et sa tension Je suis devant les interlignes, j'y mets trois points de suspension J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai mis des shoots de verbes, des lancers-francs d'adjectifs J'y ai mis toute ma verve, tout ça est très addictif Je suis en phase offensive et la démarche évolue J'ai reçu des passes décisives de musiciens reconnus J'ai feinté les assonances et dribblé chaque terminaison J'ai réalisé ma chance, pourtant, je suis qu'à mi-saison J'ai pas eu peur du contre, et j'ai smashé en lévitant On dit bien slam dunk le parallèle est évident à la mi-temps, j'étais un statut d'intermittent Un tiers mytho, un tiers mutant, un tiers citant des vers chantant Le money time est excitant, j'y crois jusqu'au dernier quart-temps Un rien distant mais persistant, je joue la rime à chaque instant J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai voulu transposer pour que le match devienne ma scène La pression a explosé comme une drogue jamais malsaine Je me suis exposé pour qu'le public devienne jury C'est fort et c'est un danger, comme un shoot de Stephen Curry C'est au public, et à lui seul, que revient le droit de m'arbitrer Quand il kiffe, quand il gueule, y'a pas moyen de m'abriter Immobile ou bondissant, qu'il me clashe ou qu'il me donne C'est agile et c'est puissant, comme un smash de LeBron En moins d'vingt-quatre secondes, je dois tirer mon couplet Et, si jamais le coup plaît, le bonheur sera complet J'propose des vers un peu bizarres, j'ai le micro dans l'viseur Poseur de textes un peu bavard, j'ai mis un refrain au buzzeur J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cest moi qui tiens le ptit troquet de ce côté-ci de la place Jai des clients fidèles, des piliers de bar et de terrasse Je garde un mot et un sourire pour chacun deux, cest mon métier Mais je nai dyeux que pour elle, cest la plus jolie du quartier Assise, les jambes croisées, de grands yeux verts comme des calots Elle aime rester dehors et siroter sa menthe à leau Mais cest la fin daprès-midi et quand le soleil sétire Toute ma terrasse se met à lombre et je vois la belle partir Cest moi qui tiens le grand café De lautre coté de la place Quand vient la fin de la journée Jrécupère les clients den face Car le soleil de 18 heures Inonde mes tables et nos visages Imaginez mon bonheur Quand vient la plus belle du village Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher You might also like Je reste muet les pieds cloués, les bras ballants, la mort dans lâme Car comme chaque jour, le soleil a réorienté ses flammes Alors la belle ma laissé là, seul dans ma peine et ma pénombre Je vois sa silhouette rétrécir et séclairer dans lautre monde Je prends le soleil dans les yeux Celui qui dessine les contours De celle qui remplit tous mes vux Lamour sapproche à contre-jour Puis elle sassoie de toute sa classe Croise ses jambes interminables Elle est à moi sur ma terrasse Je toise au loin lautre minable Mes yeux la suivent nerveusement, elle a repris une menthe à leau Je vois le sourire arrogant du gars den face, le vieux salaud Tant qule soleil se couche à louest, je serai le perdant de ce jeu À moins quun jour jose le geste, au grand café mettre le feu Ombre contre soleil, cette traversée dure depuis la Rome antique Les belles femmes aiment la lumière Ny voyez pas de symbolique Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois, je la vois Je la vois</t>
+          <t>Cest moi qui tiens le ptit troquet de ce côté-ci de la place Jai des clients fidèles, des piliers de bar et de terrasse Je garde un mot et un sourire pour chacun deux, cest mon métier Mais je nai dyeux que pour elle, cest la plus jolie du quartier Assise, les jambes croisées, de grands yeux verts comme des calots Elle aime rester dehors et siroter sa menthe à leau Mais cest la fin daprès-midi et quand le soleil sétire Toute ma terrasse se met à lombre et je vois la belle partir Cest moi qui tiens le grand café De lautre coté de la place Quand vient la fin de la journée Jrécupère les clients den face Car le soleil de 18 heures Inonde mes tables et nos visages Imaginez mon bonheur Quand vient la plus belle du village Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Je reste muet les pieds cloués, les bras ballants, la mort dans lâme Car comme chaque jour, le soleil a réorienté ses flammes Alors la belle ma laissé là, seul dans ma peine et ma pénombre Je vois sa silhouette rétrécir et séclairer dans lautre monde Je prends le soleil dans les yeux Celui qui dessine les contours De celle qui remplit tous mes vux Lamour sapproche à contre-jour Puis elle sassoie de toute sa classe Croise ses jambes interminables Elle est à moi sur ma terrasse Je toise au loin lautre minable Mes yeux la suivent nerveusement, elle a repris une menthe à leau Je vois le sourire arrogant du gars den face, le vieux salaud Tant qule soleil se couche à louest, je serai le perdant de ce jeu À moins quun jour jose le geste, au grand café mettre le feu Ombre contre soleil, cette traversée dure depuis la Rome antique Les belles femmes aiment la lumière Ny voyez pas de symbolique Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois, je la vois Je la vois</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Je n'sais pas depuis combien de temps je suis assis sur ce banc Une bonne heure ou vingt minutes, le spectacle est absorbant J'observe les gens qui passent, moi je me sens à peine là J'écoute le vent qui trace dans son murmure acapela Rester assis sur un banc c'est tout un savoir faire C'est maîtriser les mouvements qu'il faut savoir taire C'est assumer et afficher son pouvoir de paresse Le sentir comme une caresse, chasser les crampes qui apparaissent Moi j'ai de bonnes capacités dans ma force d'inertie Il faut savoir en profiter, pouvoir lui dire merci Être assis sur un banc au beau milieu du décor C'est être au cur de la vie, mais surtout être en dehors C'est de cette cachette ouverte que j'observe mon petit monde Laissant agir à découvert la nonchalance qui m'inonde Je n'sais pas depuis combien de temps je suis assis sur ce banc Je regarde les gens pressés, et puis ceux qui font semblant Face à cette scène de théâtre, je n'peux plus m'arrêter Je savoure l'espèce humaine dans son immense variété J'aime les vieux, les gros, les moches, les grandes gueules et les discrets Les vénères, les beaux gosses, les précis et les distraits Un enfant apparaît au loin, agitant un p'tit bâton En plein combat féroce contre une bonne dizaine de dragons Il se moque bien des regards dans son délire d'innocence Et disparaît à toute allure, presque aussi vite que l'enfance Une belle femme entre à présent dans mon champ de vision De grands yeux clairs, un regard sûr, elle semble sourire sans raison Je l'a regarde quand elle s'approche, elle marche avec délicatesse Je l'a regarde quand elle s'éloigne pour admirer ses jolies tresses Une autre revient des courses, elle est chargée comme une mule Le visage fermé, le regard presque aussi triste que son pull Elle porte tout le poids de la routine dans chacun de ses mouvements À moins que ce soit l'poids des sacs, j'extrapole un peu surement Mais regarder les gens passer c'est ne les connaître que vingt secondes Il faut alors imaginer toute une histoire qui corresponde Comme ces deux jeunes qui parlent en slave, surement des espions russes Où peut-être juste deux étudiants en échange Erasmus Alors j'arrête une minute de pousser mon imagination Pour admirer le dernier style de la nouvelle génération Des jeans slims et des coiffures comme dans les clips tard le soir J'ai un peu d'mal à comprendre, j'crois que je suis en train de devenir ringard You might also like Il va falloir que j'me relève, il va être l'heure de se retirer Je jette un dernier regard panoramique pour m'inspirer Y'a un vieux qui regarde devant et son p'tit fils qui regarde derrière C'est peut-être un symbole d'un monde qui marche à l'envers Je reprends ma route et mes projets, c'est qu'il y'a du pain sur la planche On a des années à construire, des ambitions sur chaque branche Mais chaque fois qu'il y'en aura marre de se vouloir trop exigeant Il nous restera ça, un banc pour regarder les gens</t>
+          <t>Je n'sais pas depuis combien de temps je suis assis sur ce banc Une bonne heure ou vingt minutes, le spectacle est absorbant J'observe les gens qui passent, moi je me sens à peine là J'écoute le vent qui trace dans son murmure acapela Rester assis sur un banc c'est tout un savoir faire C'est maîtriser les mouvements qu'il faut savoir taire C'est assumer et afficher son pouvoir de paresse Le sentir comme une caresse, chasser les crampes qui apparaissent Moi j'ai de bonnes capacités dans ma force d'inertie Il faut savoir en profiter, pouvoir lui dire merci Être assis sur un banc au beau milieu du décor C'est être au cur de la vie, mais surtout être en dehors C'est de cette cachette ouverte que j'observe mon petit monde Laissant agir à découvert la nonchalance qui m'inonde Je n'sais pas depuis combien de temps je suis assis sur ce banc Je regarde les gens pressés, et puis ceux qui font semblant Face à cette scène de théâtre, je n'peux plus m'arrêter Je savoure l'espèce humaine dans son immense variété J'aime les vieux, les gros, les moches, les grandes gueules et les discrets Les vénères, les beaux gosses, les précis et les distraits Un enfant apparaît au loin, agitant un p'tit bâton En plein combat féroce contre une bonne dizaine de dragons Il se moque bien des regards dans son délire d'innocence Et disparaît à toute allure, presque aussi vite que l'enfance Une belle femme entre à présent dans mon champ de vision De grands yeux clairs, un regard sûr, elle semble sourire sans raison Je l'a regarde quand elle s'approche, elle marche avec délicatesse Je l'a regarde quand elle s'éloigne pour admirer ses jolies tresses Une autre revient des courses, elle est chargée comme une mule Le visage fermé, le regard presque aussi triste que son pull Elle porte tout le poids de la routine dans chacun de ses mouvements À moins que ce soit l'poids des sacs, j'extrapole un peu surement Mais regarder les gens passer c'est ne les connaître que vingt secondes Il faut alors imaginer toute une histoire qui corresponde Comme ces deux jeunes qui parlent en slave, surement des espions russes Où peut-être juste deux étudiants en échange Erasmus Alors j'arrête une minute de pousser mon imagination Pour admirer le dernier style de la nouvelle génération Des jeans slims et des coiffures comme dans les clips tard le soir J'ai un peu d'mal à comprendre, j'crois que je suis en train de devenir ringard Il va falloir que j'me relève, il va être l'heure de se retirer Je jette un dernier regard panoramique pour m'inspirer Y'a un vieux qui regarde devant et son p'tit fils qui regarde derrière C'est peut-être un symbole d'un monde qui marche à l'envers Je reprends ma route et mes projets, c'est qu'il y'a du pain sur la planche On a des années à construire, des ambitions sur chaque branche Mais chaque fois qu'il y'en aura marre de se vouloir trop exigeant Il nous restera ça, un banc pour regarder les gens</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Allez entrez les enfants et arrêtez de vous chamailler Avancez dans le calme je sais que vous en êtes capable Asseyez tranquillement, chacun sa place, ça y est Ecoutez-moi mais ce matin, n'ouvrez pas vos cartables On va pas faire de grammaire, de géométrie et de conjugaison On parlera pas de compléments d'objet et encore moins de Pythagore Ce matin pas de contrôle et personne n'aura raison Aujourd'hui aucunes notes et personne n'aura tort Les enfants écoutez-moi, je crois que je ne vais pas bien J'ai mal quand je vois le monde et les Hommes me font peur Les enfants expliquez-moi, moi je ne comprends plus rien Pourquoi tant d'injustice, de souffrance et de malheur Hier soir une fois de trop j'ai allumé la télévision Sur les coups de vingt heure, c'était les informations Et tout à coup dans la pièce s'est produit comme une invasion De pleurs et de douleurs, c'était pire qu'une agression Hier soir l'actualité comptait beaucoup plus de morts Que de cheveux sur le crâne de Patrick Poivre d'Arvor Et c'est comme ça tous les jours un peu partout sur Terre J'crois qu'il fait pas bon vivre au troisième millénaire Comme aux pires heures de l'Histoire, les hommes se font la guerre Des soldats sentre tuent sans même savoir pourquoi S'ils s'étaient mieux connus, ils pourraient être frères Mais leurs présidents se sentaient les plus forts c'est comme ça Et puis il y a toutes ces religions qui prônent chacune l'amour Et qui fabriquent de la haine, des assassins, des terroristes Pour telle ou telle croyance, des innocents meurent chaque jour Tout ça au nom de Dieu...On sait même pas s'il existe You might also likeLes enfants désolé, on vous laisse l'Humain en sale état Il faut que vous le sachiez alors aujourd'hui j'essaie Les certitudes des grandes personnes provoquent parfois des dégâts En fait l'adulte est un grand enfant qui croit qu'il sait J'ai mal au ventre les enfants quand je vois l'argent mis dans les armes Dans les fusées, les sous-marins et dans les porte-avions Pendant que des peuples entiers manquent d'eau, comme nos yeux manquent de larmes Et voient leur fils et leur filles mourir de malnutrition Apparemment la nature elle-même a du mal à se nourrir Les homme sont pollués l'air et même pourris la pluie Quand tu auras plus d'eau nul part, faudra garder le sourire Et même l'odeur des forêts sera tombée dans l'oubli Les enfants vous savez ce que c'est des ressources naturelles ? Si vous savez pas c'est pas grave de toute façon y'en a presque plus Les mots humain et gaspillage sont des synonymes éternels L'écologie à l'école serait pas une matière superflue Les enfants désolé on vous laisse la Terre en sale état Et bientôt sur notre planète on va se sentir à l'étroit Gardez vos doutes, vous seuls pourrez nous sortir de là L'enfant est un petit adulte qu'il sait qu'il croit Bah alors les enfants vous êtes bien sages tout à coup J'ai un peu cassé l'ambiance mais je voulais pas vous faire peur Ce que je veux vous faire comprendre c'est que je compte sur vous Ne suivez pas notre exemple et promettez moi un monde meilleur Allez les enfants c'est déjà l'heure de la récréation Allez courir dans la cour, défoulez-vous, profitez-en Criez même si vous le voulez vous avez ma permission Mais surtout couvrez-vous bien, dehors il y a du vent2</t>
+          <t>Allez entrez les enfants et arrêtez de vous chamailler Avancez dans le calme je sais que vous en êtes capable Asseyez tranquillement, chacun sa place, ça y est Ecoutez-moi mais ce matin, n'ouvrez pas vos cartables On va pas faire de grammaire, de géométrie et de conjugaison On parlera pas de compléments d'objet et encore moins de Pythagore Ce matin pas de contrôle et personne n'aura raison Aujourd'hui aucunes notes et personne n'aura tort Les enfants écoutez-moi, je crois que je ne vais pas bien J'ai mal quand je vois le monde et les Hommes me font peur Les enfants expliquez-moi, moi je ne comprends plus rien Pourquoi tant d'injustice, de souffrance et de malheur Hier soir une fois de trop j'ai allumé la télévision Sur les coups de vingt heure, c'était les informations Et tout à coup dans la pièce s'est produit comme une invasion De pleurs et de douleurs, c'était pire qu'une agression Hier soir l'actualité comptait beaucoup plus de morts Que de cheveux sur le crâne de Patrick Poivre d'Arvor Et c'est comme ça tous les jours un peu partout sur Terre J'crois qu'il fait pas bon vivre au troisième millénaire Comme aux pires heures de l'Histoire, les hommes se font la guerre Des soldats sentre tuent sans même savoir pourquoi S'ils s'étaient mieux connus, ils pourraient être frères Mais leurs présidents se sentaient les plus forts c'est comme ça Et puis il y a toutes ces religions qui prônent chacune l'amour Et qui fabriquent de la haine, des assassins, des terroristes Pour telle ou telle croyance, des innocents meurent chaque jour Tout ça au nom de Dieu...On sait même pas s'il existe Les enfants désolé, on vous laisse l'Humain en sale état Il faut que vous le sachiez alors aujourd'hui j'essaie Les certitudes des grandes personnes provoquent parfois des dégâts En fait l'adulte est un grand enfant qui croit qu'il sait J'ai mal au ventre les enfants quand je vois l'argent mis dans les armes Dans les fusées, les sous-marins et dans les porte-avions Pendant que des peuples entiers manquent d'eau, comme nos yeux manquent de larmes Et voient leur fils et leur filles mourir de malnutrition Apparemment la nature elle-même a du mal à se nourrir Les homme sont pollués l'air et même pourris la pluie Quand tu auras plus d'eau nul part, faudra garder le sourire Et même l'odeur des forêts sera tombée dans l'oubli Les enfants vous savez ce que c'est des ressources naturelles ? Si vous savez pas c'est pas grave de toute façon y'en a presque plus Les mots humain et gaspillage sont des synonymes éternels L'écologie à l'école serait pas une matière superflue Les enfants désolé on vous laisse la Terre en sale état Et bientôt sur notre planète on va se sentir à l'étroit Gardez vos doutes, vous seuls pourrez nous sortir de là L'enfant est un petit adulte qu'il sait qu'il croit Bah alors les enfants vous êtes bien sages tout à coup J'ai un peu cassé l'ambiance mais je voulais pas vous faire peur Ce que je veux vous faire comprendre c'est que je compte sur vous Ne suivez pas notre exemple et promettez moi un monde meilleur Allez les enfants c'est déjà l'heure de la récréation Allez courir dans la cour, défoulez-vous, profitez-en Criez même si vous le voulez vous avez ma permission Mais surtout couvrez-vous bien, dehors il y a du vent2</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Elle a neuf ans, pourtant, elle n'a plus une vie d'enfant Elle vit depuis des mois entre ces quatre murs blancs Elle sait bien ce qu'elle a et elle sait bien ce qu'elle veut Elle a perdu du poids, elle a perdu ses cheveux Elle enchaîne les soins, les traitements, ls protocoles Pendant qu'tous ses copains jount dans la cour d'école Elle donnerait tout pour les rejoindre quelques heures Parfois, elle en crie, souvent, elle en pleure Patience et courage, lui répètent ses parents Ils se le disent à eux aussi, le soir, en se séparant De la patience, elle en trouve et son courage et palpable Elle puise une force dont seuls les enfants sont capables Alors, elle rigole, elle s'invente des histoires Elle ne pense qu'à l'avenir, elle s'invente des espoirs La guerrière va guérir, la vraie vie est tout près Du haut de sa tour d'ivoire, elle regarde le jour d'après Vingt ans qu'il travaillait dans cette cuisine Viré du jour au lendemain par une lettre anonyme Rachetée par un grand groupe, une histoire d'actionnaires Ils sont plusieurs dans son cas, tragédie ordinaire Avec les traites à payer, les piles de factures Il a vite décidé de revendre sa voiture Mais sans elle et sans diplôme, loin des codes et loin de la ville À cinquante ans, retrouver du travail est difficile C'est l'escalade de la misère, spirale infernale Il est expulsé de son appart avant la trêve hivernale Les premières nuits dans la rue ont été les plus dures Mais ensuite, bizarrement, il n'a plus craint son futur Il puise une force que les rescapés connaissent bien Il se dit qu'on a plus peur dès lors qu'on a plus rien Il va bientôt s'en sortir, il le sent, il est prêt Il cherche une formation et regarde le jour d'après You might also like Il revient en scooter d'la soirée d'ses vingt ans La faute à un chauffard, la faute au mauvais temps Ça n'arrive pas qu'aux autres, ce n'est pas une légende Après son accident, on lui ampute les deux jambes Il passa un an à repenser à ce soir-là Puis cesse de ressasser ces histoires de karma Avec ses jambes en carbone, l'avenir devient concret Il veut même refaire du sport et regarde le jour d'après À tous les usés, les accidentés de parcours Les fragilisés, les malchanceux d'un jour Ceux qui n'ont pas le choix, les guerriers imposés Ceux qui portent leur croix, les héros obligés Ceux qui refusent leur sort et qui changent leur histoire Et ceux qui transforment l'envie de croire en victoire À ceux dont l'avenir est parfois en sursis Ceux qui voient le jour d'après Et ceux qui n'ont pas réussi</t>
+          <t>Elle a neuf ans, pourtant, elle n'a plus une vie d'enfant Elle vit depuis des mois entre ces quatre murs blancs Elle sait bien ce qu'elle a et elle sait bien ce qu'elle veut Elle a perdu du poids, elle a perdu ses cheveux Elle enchaîne les soins, les traitements, ls protocoles Pendant qu'tous ses copains jount dans la cour d'école Elle donnerait tout pour les rejoindre quelques heures Parfois, elle en crie, souvent, elle en pleure Patience et courage, lui répètent ses parents Ils se le disent à eux aussi, le soir, en se séparant De la patience, elle en trouve et son courage et palpable Elle puise une force dont seuls les enfants sont capables Alors, elle rigole, elle s'invente des histoires Elle ne pense qu'à l'avenir, elle s'invente des espoirs La guerrière va guérir, la vraie vie est tout près Du haut de sa tour d'ivoire, elle regarde le jour d'après Vingt ans qu'il travaillait dans cette cuisine Viré du jour au lendemain par une lettre anonyme Rachetée par un grand groupe, une histoire d'actionnaires Ils sont plusieurs dans son cas, tragédie ordinaire Avec les traites à payer, les piles de factures Il a vite décidé de revendre sa voiture Mais sans elle et sans diplôme, loin des codes et loin de la ville À cinquante ans, retrouver du travail est difficile C'est l'escalade de la misère, spirale infernale Il est expulsé de son appart avant la trêve hivernale Les premières nuits dans la rue ont été les plus dures Mais ensuite, bizarrement, il n'a plus craint son futur Il puise une force que les rescapés connaissent bien Il se dit qu'on a plus peur dès lors qu'on a plus rien Il va bientôt s'en sortir, il le sent, il est prêt Il cherche une formation et regarde le jour d'après Il revient en scooter d'la soirée d'ses vingt ans La faute à un chauffard, la faute au mauvais temps Ça n'arrive pas qu'aux autres, ce n'est pas une légende Après son accident, on lui ampute les deux jambes Il passa un an à repenser à ce soir-là Puis cesse de ressasser ces histoires de karma Avec ses jambes en carbone, l'avenir devient concret Il veut même refaire du sport et regarde le jour d'après À tous les usés, les accidentés de parcours Les fragilisés, les malchanceux d'un jour Ceux qui n'ont pas le choix, les guerriers imposés Ceux qui portent leur croix, les héros obligés Ceux qui refusent leur sort et qui changent leur histoire Et ceux qui transforment l'envie de croire en victoire À ceux dont l'avenir est parfois en sursis Ceux qui voient le jour d'après Et ceux qui n'ont pas réussi</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour D'assumer nos rêves, d'en récolter la sève pour les graver dans chaque mur de pierre Le jour se lève et même si ça brûle les yeux, on ouvrira grand nos paupières Il a fait nuit trop longtemps et avancer sans lumière nous a souvent fait tâtonner Personne à pardonner, si on est là aujourd'hui, c'est juste qu'on n'a pas abandonné On a cherché la lueur de l'aube en sachant qu'elle avait la couleur de l'espoir On s'est armé de nos stylos pour écrire nous-mêmes la suite de toute cette histoire Le jour se lève, sort de sa grève, c'est grave à quel point la nuit a été agitée On en a de belles à raconter, même si j'imagine que ça sera sûrement loin de tes JT Le soleil éclaire notre papier qu'on avait gratté dans l'ombre pendant toute la nuit La chaleur fait couler l'encre, nos mots quittent nos cahiers, nos voix sortent de l'ennui Alors nous allons prendre la parole, monter sur scène pour un moment, j'espère que t'en as conscience Finies la patience et la méfiance, on s'offre simplement avec l'écriture une renaissance Le jour se lève et son glaive de lave nous lave des peines et douleurs du passé Notre avenir est lancé... Tu nous écouteras et diras franchement ce que t'en as pensé Le jour se lève et la joie se livre, la soif se lit sur nos lèvres, tu devrais nous suivre Si notre heure est brève, nous allons quand même la vivre Nous ne sommes pas bons élèves, mais l'envie nous enivre Alors à ton tour ouvre les yeux, approche-toi et observe avec curiosité Le souffle et l'enthousiasme d'une brigade de poètes sortis tout droit de l'obscurité Ne prends pas ça pour de l'arrogance, mais on sent que c'est notre heure et ça fait du bien Notre passion va nous nourrir et je vais retrouver le sourire dans le regard de tous les miens Le jour se lève, on le doit peut-être qu'à nous et quand je dis ça, c'est pas juste une métaphore Le jour se lève et si ça se trouve, c'est uniquement parce qu'on l'a espéré assez fort You might also likeLe jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour Notre futur est incertain, c'est vrai que ces deux mots-là vont toujours de pair Mais notre jour s'est bien levé, dorénavant il sera difficile de nous faire taire</t>
+          <t>Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour D'assumer nos rêves, d'en récolter la sève pour les graver dans chaque mur de pierre Le jour se lève et même si ça brûle les yeux, on ouvrira grand nos paupières Il a fait nuit trop longtemps et avancer sans lumière nous a souvent fait tâtonner Personne à pardonner, si on est là aujourd'hui, c'est juste qu'on n'a pas abandonné On a cherché la lueur de l'aube en sachant qu'elle avait la couleur de l'espoir On s'est armé de nos stylos pour écrire nous-mêmes la suite de toute cette histoire Le jour se lève, sort de sa grève, c'est grave à quel point la nuit a été agitée On en a de belles à raconter, même si j'imagine que ça sera sûrement loin de tes JT Le soleil éclaire notre papier qu'on avait gratté dans l'ombre pendant toute la nuit La chaleur fait couler l'encre, nos mots quittent nos cahiers, nos voix sortent de l'ennui Alors nous allons prendre la parole, monter sur scène pour un moment, j'espère que t'en as conscience Finies la patience et la méfiance, on s'offre simplement avec l'écriture une renaissance Le jour se lève et son glaive de lave nous lave des peines et douleurs du passé Notre avenir est lancé... Tu nous écouteras et diras franchement ce que t'en as pensé Le jour se lève et la joie se livre, la soif se lit sur nos lèvres, tu devrais nous suivre Si notre heure est brève, nous allons quand même la vivre Nous ne sommes pas bons élèves, mais l'envie nous enivre Alors à ton tour ouvre les yeux, approche-toi et observe avec curiosité Le souffle et l'enthousiasme d'une brigade de poètes sortis tout droit de l'obscurité Ne prends pas ça pour de l'arrogance, mais on sent que c'est notre heure et ça fait du bien Notre passion va nous nourrir et je vais retrouver le sourire dans le regard de tous les miens Le jour se lève, on le doit peut-être qu'à nous et quand je dis ça, c'est pas juste une métaphore Le jour se lève et si ça se trouve, c'est uniquement parce qu'on l'a espéré assez fort Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour Notre futur est incertain, c'est vrai que ces deux mots-là vont toujours de pair Mais notre jour s'est bien levé, dorénavant il sera difficile de nous faire taire</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a la tête, le cur, les couilles ça, vous l'savez déjà Mais les autres parties du corps ont aussi leur mot à dire Chacun veut prendre le pouvoir, et le pire est à venir Il y a, bien sûr, la bouche qui a souvent une grande gueule Elle pense être la plus farouche mais s'met souvent l'doigt dans l'il Elle a la langue bien pendue pour jouer les chefs du corps humain Elle montre les dents, c'est connu, mais n'a pas l'cur sur la main Seulement, la main n'a pas forcément l'monopole du cur Elle aime bien serrer l'poing, elle aime jouer les terreurs Elle peut même faire un doigt, elle ne fait rien à moitié La main ne prend pas d'gant et nous prend vite à contre-pied Le pied n'a pas d'poil dans la main mais manque d'ambition Au pied levé, j'dirais, comme ça, que le pied n'a pas l'bras long Les bras, eux, font des grands gestes pour se donner l'beau rôle Ils tirent un peu la couverture mais gardent la tête sur les épaules On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps You might also like Quand la bouche en fait trop, la main veut marquer l'coup Pour pas prendre sa gifle, la bouche prend ses jambes à son cou La bouche n'a rien dans l'ventre, elle préfère tourner l'dos Et la main sait jouer des coudes, la tête lui tire son chapeau Mais lil n'est pas d'accord, il lui fait les gros yeux Ils sont pas plus gros qu'le ventre, mais lil sait c'qu'il veut Car l'il a la dent dure, le corps le sait, tout l'monde le voit À part, peut-être, la main qui pourrait bien s'en mordre les doigts Et, la jambe, dans tout ça, eh bien, elle s'en bat les reins Elle est droit dans sa botte et continue son chemin Personne ne lui arrive à la cheville quand il s'agit d'avancer Même avec son talon dAchille, elle trouve chaussure à son pied Les pieds travaillent main dans la main et continuent leur course Jamais les doigts en éventail, ils s'tournent rarement les pouces Ça leur fait une belle jambe, toutes ces querelles sans hauteur Les pieds se foutent bien d'tout ça, loin des yeux, loin du cur On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Pour raconter lcorps humain, rien n'est jamais évident J'me suis creusé la tête et même un peu cassé les dents Alors ne faites pas la fine bouche, j'espère que vous serez d'accord Que ctexte est tiré par les cheveux mais que, p'tit à p'tit, il prend corps Jn'ai pas eu froid aux yeux, mais je reste un peu inquiet Je croise les doigts pour qu'au final je retombe sur mes pieds Ne soyez pas mauvaise langue même si vous avez deviné Que, pour écrire ce poème, j'me suis tiré les vers du nez On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps</t>
+          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a la tête, le cur, les couilles ça, vous l'savez déjà Mais les autres parties du corps ont aussi leur mot à dire Chacun veut prendre le pouvoir, et le pire est à venir Il y a, bien sûr, la bouche qui a souvent une grande gueule Elle pense être la plus farouche mais s'met souvent l'doigt dans l'il Elle a la langue bien pendue pour jouer les chefs du corps humain Elle montre les dents, c'est connu, mais n'a pas l'cur sur la main Seulement, la main n'a pas forcément l'monopole du cur Elle aime bien serrer l'poing, elle aime jouer les terreurs Elle peut même faire un doigt, elle ne fait rien à moitié La main ne prend pas d'gant et nous prend vite à contre-pied Le pied n'a pas d'poil dans la main mais manque d'ambition Au pied levé, j'dirais, comme ça, que le pied n'a pas l'bras long Les bras, eux, font des grands gestes pour se donner l'beau rôle Ils tirent un peu la couverture mais gardent la tête sur les épaules On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Quand la bouche en fait trop, la main veut marquer l'coup Pour pas prendre sa gifle, la bouche prend ses jambes à son cou La bouche n'a rien dans l'ventre, elle préfère tourner l'dos Et la main sait jouer des coudes, la tête lui tire son chapeau Mais lil n'est pas d'accord, il lui fait les gros yeux Ils sont pas plus gros qu'le ventre, mais lil sait c'qu'il veut Car l'il a la dent dure, le corps le sait, tout l'monde le voit À part, peut-être, la main qui pourrait bien s'en mordre les doigts Et, la jambe, dans tout ça, eh bien, elle s'en bat les reins Elle est droit dans sa botte et continue son chemin Personne ne lui arrive à la cheville quand il s'agit d'avancer Même avec son talon dAchille, elle trouve chaussure à son pied Les pieds travaillent main dans la main et continuent leur course Jamais les doigts en éventail, ils s'tournent rarement les pouces Ça leur fait une belle jambe, toutes ces querelles sans hauteur Les pieds se foutent bien d'tout ça, loin des yeux, loin du cur On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Pour raconter lcorps humain, rien n'est jamais évident J'me suis creusé la tête et même un peu cassé les dents Alors ne faites pas la fine bouche, j'espère que vous serez d'accord Que ctexte est tiré par les cheveux mais que, p'tit à p'tit, il prend corps Jn'ai pas eu froid aux yeux, mais je reste un peu inquiet Je croise les doigts pour qu'au final je retombe sur mes pieds Ne soyez pas mauvaise langue même si vous avez deviné Que, pour écrire ce poème, j'me suis tiré les vers du nez On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Allez viens mon bonhomme, dehors il fait beau Je temmène au manège, ya pas meilleur cadeau Quest-ce que tu vas choisir, le cheval, léléphant Lavion ou lhélico qui monte et qui descend Tas toujours le même air, plutôt fier et sérieux Quand tu donnes toi-même le ticket au monsieur Et le manège démarre, en avant la musique Cest tout con, ça tourne en rond et pourtant cest magique Quand tu passes devant moi, tu me fais un sourire Ou un signe de la main, alors moi je transpire Car déjà tu téloignes et puis tu disparais Tu me manques pendant 10 secondes, cest normal à ce qui paraît Je te vois tamuser, je tobserve comme un fou Toi tes dans lhélico, tu tenvoles, tu ten fous De toute cette eau qui coule sans arrêt sous les ponts Du temps qui passe trop vite comme disent les vieux cons Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde You might also like Autour de nous il y a tous ces gens ordinaires La joie et la douceur dun décor populaire Je regarde lhéritage de notre banlieue rouge Qui vit ses dernières heures car même la banlieue bouge Mon petit café là-bas a fermé ya 2 ans Mon premier rancard avec ta mère, cétait juste devant Je vois la vie changer du haut de mon balcon Ouais cétait mieux avant comme disent les vieux cons Allez viens mon bonhomme, dehors il fait froid Je te regarde passer pour la huit millième fois Je suis devant ce manège depuis des années Tas pris 20 centimètres, le soleil a tourné Les semaines saccélèrent et tes mots sont plus clairs Chaque mois vient chasser lautre et on pense au petit frère On met une graine en terre et un arbre devient grand Les saisons se succèdent, mes cheveux deviennent blancs Allez viens mon bonhomme, dehors il est tard Avec toi le temps pousse, le temps passe et repart Depuis que tes là, tu cours plus vite que mes habitudes Je nentends que toi, tu parles plus fort que mes solitudes On rentre à la maison, la télé nous attend Je te prendrai sur mes genoux tant que tauras pas 20 ans On va regarder Babar dans notre petit cocon Tu grandis bien trop vite, jsuis déjà un vieux con x2</t>
+          <t>Allez viens mon bonhomme, dehors il fait beau Je temmène au manège, ya pas meilleur cadeau Quest-ce que tu vas choisir, le cheval, léléphant Lavion ou lhélico qui monte et qui descend Tas toujours le même air, plutôt fier et sérieux Quand tu donnes toi-même le ticket au monsieur Et le manège démarre, en avant la musique Cest tout con, ça tourne en rond et pourtant cest magique Quand tu passes devant moi, tu me fais un sourire Ou un signe de la main, alors moi je transpire Car déjà tu téloignes et puis tu disparais Tu me manques pendant 10 secondes, cest normal à ce qui paraît Je te vois tamuser, je tobserve comme un fou Toi tes dans lhélico, tu tenvoles, tu ten fous De toute cette eau qui coule sans arrêt sous les ponts Du temps qui passe trop vite comme disent les vieux cons Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Autour de nous il y a tous ces gens ordinaires La joie et la douceur dun décor populaire Je regarde lhéritage de notre banlieue rouge Qui vit ses dernières heures car même la banlieue bouge Mon petit café là-bas a fermé ya 2 ans Mon premier rancard avec ta mère, cétait juste devant Je vois la vie changer du haut de mon balcon Ouais cétait mieux avant comme disent les vieux cons Allez viens mon bonhomme, dehors il fait froid Je te regarde passer pour la huit millième fois Je suis devant ce manège depuis des années Tas pris 20 centimètres, le soleil a tourné Les semaines saccélèrent et tes mots sont plus clairs Chaque mois vient chasser lautre et on pense au petit frère On met une graine en terre et un arbre devient grand Les saisons se succèdent, mes cheveux deviennent blancs Allez viens mon bonhomme, dehors il est tard Avec toi le temps pousse, le temps passe et repart Depuis que tes là, tu cours plus vite que mes habitudes Je nentends que toi, tu parles plus fort que mes solitudes On rentre à la maison, la télé nous attend Je te prendrai sur mes genoux tant que tauras pas 20 ans On va regarder Babar dans notre petit cocon Tu grandis bien trop vite, jsuis déjà un vieux con x2</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Les 5 sens en éveil à l'approche de la Belle Les capteurs s'émerveillent, répondant à l'appel En un battement de cils, ils oscillent dociles Vulnérables et puissants, équilibre fragile Ça commence par la vue, rien n'est fait au hasard Comme elle ôte ses vêtements, il l'habille du regard Il la parcourt doucement, il n'a d'yeux que pour elle Elle le tient et il y tient, comme à leurs prunelles Elle n'a pas froid aux yeux, lui son oeil est rincé Comme il navigue à vue, il voudrait l'embrasser Elle approche fébrile pour amorcer le jeu Son visage et son corps, il en a plein les yeux Elle est tout près de lui, imposant son aura Comme un réflexe bestial se réveille l'odorat Les pupilles se dilatent, les paupières sont fermées Maintenant s'il la voit, c'est bien à vue de nez Il respire son parfum et l'odeur de sa peau Son arôme est si fin, c'est un nouveau cadeau Et puisqu'il a du flair, elle va lui en donner Il adore qu'elle le mène, par le bout du nez Leurs bouches se rejoignent, le baiser le plus doux Ses lèvres et puis sa langue, il aime déjà leur goût Comme elle goûte à son charme, ils iront jusqu'au bout C'est une femme de classe et un homme de goût On dépasse la tendresse, maintenant le temps presse Les pulsions apparaissent au départ des caresses Car le sens qui prend place est celui du toucher Ils étaient bien debout, ils seront mieux couchés Il l'effleure de ses doigts, de ses mains, de sa bouche Il sent bien que sa manière de la toucher la touche Comme c'est un touche-à-tout, bien sûr il n'oublie rien Elle n'est pas sainte-ni-touche, alors elle lui rend bien Pour être consentant, il est bon qu'on s'entende Cette écoute est mutuelle et les muscles se tendent Oui le dernier des 5 sens est celui de l'ouïe Il est proche de la transe quand elle susurre un oui Y a pas que les murs qu'ont des oreilles, les voisins vont comprendre Quand le jour se fait attendre, l'amour se fait entendre Car de bouche à oreille, j'entends dire aujourd'hui Que l'éveil des 5 sens a de beaux jours devant luiYou might also like</t>
+          <t>Les 5 sens en éveil à l'approche de la Belle Les capteurs s'émerveillent, répondant à l'appel En un battement de cils, ils oscillent dociles Vulnérables et puissants, équilibre fragile Ça commence par la vue, rien n'est fait au hasard Comme elle ôte ses vêtements, il l'habille du regard Il la parcourt doucement, il n'a d'yeux que pour elle Elle le tient et il y tient, comme à leurs prunelles Elle n'a pas froid aux yeux, lui son oeil est rincé Comme il navigue à vue, il voudrait l'embrasser Elle approche fébrile pour amorcer le jeu Son visage et son corps, il en a plein les yeux Elle est tout près de lui, imposant son aura Comme un réflexe bestial se réveille l'odorat Les pupilles se dilatent, les paupières sont fermées Maintenant s'il la voit, c'est bien à vue de nez Il respire son parfum et l'odeur de sa peau Son arôme est si fin, c'est un nouveau cadeau Et puisqu'il a du flair, elle va lui en donner Il adore qu'elle le mène, par le bout du nez Leurs bouches se rejoignent, le baiser le plus doux Ses lèvres et puis sa langue, il aime déjà leur goût Comme elle goûte à son charme, ils iront jusqu'au bout C'est une femme de classe et un homme de goût On dépasse la tendresse, maintenant le temps presse Les pulsions apparaissent au départ des caresses Car le sens qui prend place est celui du toucher Ils étaient bien debout, ils seront mieux couchés Il l'effleure de ses doigts, de ses mains, de sa bouche Il sent bien que sa manière de la toucher la touche Comme c'est un touche-à-tout, bien sûr il n'oublie rien Elle n'est pas sainte-ni-touche, alors elle lui rend bien Pour être consentant, il est bon qu'on s'entende Cette écoute est mutuelle et les muscles se tendent Oui le dernier des 5 sens est celui de l'ouïe Il est proche de la transe quand elle susurre un oui Y a pas que les murs qu'ont des oreilles, les voisins vont comprendre Quand le jour se fait attendre, l'amour se fait entendre Car de bouche à oreille, j'entends dire aujourd'hui Que l'éveil des 5 sens a de beaux jours devant lui</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal en fait, j'l'imagine pas du tout Ils sont mes repères, mes bases, mes compliments, mes reproches Sans eux je suis pas entière, je les veux pas loin, souvent, partout Avec eux on a pas peur du silence, on n'a rien à se prouver Une sorte d'équipe sans remplaçants, sans capitaine Dans ctte équipe tu ris, tu râles, tu progrsses, tu veux rester Très loin du star système, tu restes tard si t'aimes Si jamais je devais tout perdre, si la roue faisait demi-tour Je n'aurais besoin que de leur présence pour que la vie reste facile Peu importe ce qu'il y a sur la table, ce qui compte c'est qui il y a autour Ce que je ressens je veux leur dire je crois que j'ai le sens de la famille J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal, en fait j'l'imagine pas du tout C'est avec eux que j'avance, de la sérénité plein les poches S'ils ne le partagent pas avec moi, aucun bonheur ne vaut le coup Et à l'inverse il n'y a rien qui ne me fasse plus de peine Qu'imaginer leurs visages au moment où ils ont appris Que mes 20 ans seraient cruels, que mon avenir s'annonçait terne Le drame ça se partage, mais ça n'apaise pas l'esprit You might also likeIls m'ont transmit tout ce que j'aimerais transmettre à mon tour C'est grâce à eux si je suis en paix, que j'pars pas en vrille Leur humanité sans trompettes, leur bienveillance sans détour Ce que je leur dois je veux leur dire je crois que j'ai le sens de la famille Evidemment quand t'es maman ton cur explose et pour toujours On te confie le rôle ultime, celui qui te change viscéralement Tu savais pas que c'était possible de générer autant d'amour Je trouve pas de mots assez forts, c'est tellement.. tellement Evidemment quand t'es daron toutes les cartes sont redistribuées Ils sont dans ma tête, dans mon ventre, dans mon sang chaque secondes J'n'ai plus qu'eux comme certitudes, il va falloir m'habituer J'ai découvert les liens invisibles et les plus solides du monde Les enfants c'est des galères qu'on ne pouvait pas même pas concevoir Ils nous rendent complètement oufs, mais en un sourire on vacille T'as qu'une envie c'est qu'ils s'endorment et puis qu'ils dorment et tu veux les voir Et ouais, on est devenus ceux qu'on chambrait rires Je crois qu'on a le sens de la famille Et le sens de la famille c'est aussi le sens de l'amitié Je peux te présenter des frères et surs qui n'ont pas le même sang Frères d'espoir, surs de cur, frères de galère ou de quartiers Faire des projets d'adultes dans des cerveaux d'adolescents La famille c'est aussi ceux qui sont devenus essentiels Ceux qui te connaissent, te révèlent, te soutiennent et te protègent Ceux qui parlent la bouche fermée parce que le cur s'en mêle Si tu veux signer avec moi, faut signer avec tout le cortège D'abord un dessin animé ? Repose toi bien ma chérie, à bientôt Et ça que tu veux dire ? Sur, rappelle s'il te plait Bonjour parrain, merci pour le cadeau Tu vas manger, vas-y viens je t'attends Salut on est en voiture On arrive, bisous bisous Je suis trop heureuse pour toi ma sur C'est toi qui m'emmène au foot mercredi ? Rentre vite s'il te plait, j'ai trop envie de voir le dernier épisode Ouais frère, rappelle moi je crois que j'ai trouvé une bonne idée pour le clip Les sales cons passent mon reuf T'aime, tiens mon cur moi je t'aime, t'aime D'abord on va à la séance de 19h30 et après on mange Ma sur, t'es où ? Papa, on peut manger devant la télé ce soir ? Que... j'ai froid</t>
+          <t>J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal en fait, j'l'imagine pas du tout Ils sont mes repères, mes bases, mes compliments, mes reproches Sans eux je suis pas entière, je les veux pas loin, souvent, partout Avec eux on a pas peur du silence, on n'a rien à se prouver Une sorte d'équipe sans remplaçants, sans capitaine Dans ctte équipe tu ris, tu râles, tu progrsses, tu veux rester Très loin du star système, tu restes tard si t'aimes Si jamais je devais tout perdre, si la roue faisait demi-tour Je n'aurais besoin que de leur présence pour que la vie reste facile Peu importe ce qu'il y a sur la table, ce qui compte c'est qui il y a autour Ce que je ressens je veux leur dire je crois que j'ai le sens de la famille J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal, en fait j'l'imagine pas du tout C'est avec eux que j'avance, de la sérénité plein les poches S'ils ne le partagent pas avec moi, aucun bonheur ne vaut le coup Et à l'inverse il n'y a rien qui ne me fasse plus de peine Qu'imaginer leurs visages au moment où ils ont appris Que mes 20 ans seraient cruels, que mon avenir s'annonçait terne Le drame ça se partage, mais ça n'apaise pas l'esprit Ils m'ont transmit tout ce que j'aimerais transmettre à mon tour C'est grâce à eux si je suis en paix, que j'pars pas en vrille Leur humanité sans trompettes, leur bienveillance sans détour Ce que je leur dois je veux leur dire je crois que j'ai le sens de la famille Evidemment quand t'es maman ton cur explose et pour toujours On te confie le rôle ultime, celui qui te change viscéralement Tu savais pas que c'était possible de générer autant d'amour Je trouve pas de mots assez forts, c'est tellement.. tellement Evidemment quand t'es daron toutes les cartes sont redistribuées Ils sont dans ma tête, dans mon ventre, dans mon sang chaque secondes J'n'ai plus qu'eux comme certitudes, il va falloir m'habituer J'ai découvert les liens invisibles et les plus solides du monde Les enfants c'est des galères qu'on ne pouvait pas même pas concevoir Ils nous rendent complètement oufs, mais en un sourire on vacille T'as qu'une envie c'est qu'ils s'endorment et puis qu'ils dorment et tu veux les voir Et ouais, on est devenus ceux qu'on chambrait rires Je crois qu'on a le sens de la famille Et le sens de la famille c'est aussi le sens de l'amitié Je peux te présenter des frères et surs qui n'ont pas le même sang Frères d'espoir, surs de cur, frères de galère ou de quartiers Faire des projets d'adultes dans des cerveaux d'adolescents La famille c'est aussi ceux qui sont devenus essentiels Ceux qui te connaissent, te révèlent, te soutiennent et te protègent Ceux qui parlent la bouche fermée parce que le cur s'en mêle Si tu veux signer avec moi, faut signer avec tout le cortège D'abord un dessin animé ? Repose toi bien ma chérie, à bientôt Et ça que tu veux dire ? Sur, rappelle s'il te plait Bonjour parrain, merci pour le cadeau Tu vas manger, vas-y viens je t'attends Salut on est en voiture On arrive, bisous bisous Je suis trop heureuse pour toi ma sur C'est toi qui m'emmène au foot mercredi ? Rentre vite s'il te plait, j'ai trop envie de voir le dernier épisode Ouais frère, rappelle moi je crois que j'ai trouvé une bonne idée pour le clip Les sales cons passent mon reuf T'aime, tiens mon cur moi je t'aime, t'aime D'abord on va à la séance de 19h30 et après on mange Ma sur, t'es où ? Papa, on peut manger devant la télé ce soir ? Que... j'ai froid</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Un certain soir d'incertitude, je suis allé voir une voyante Prêt pour l'arnaque et l'inquiétude car la vision d'avenir est payante C'est mon coeur qui frappe quand je sonne à la porte, je me sens tout gamin Quand elle m'ouvre, me regarde, me sourit et m'escorte pour me lire les lignes de la main Elle prend son pied en prenant mes mains, ses mains tenant mes doigts sont balaises Elle est adroite, j'ai deux mains gauches, c'est maintenant mon malaise Elle a la main forte, elle a la main ferme, elle a la mainmise Moi, faut que je sorte, je veux revenir demain, mes deux mains sont prises Sa main est agile et ça m'indispose que sa main tripote Car sa main est curieuse et sa main est fouineuse et ça m'insupporte Mais ça m'intéresse quand sa main se calme car sa main est belle Oui, sa main est douce et sa main est chaude et ça m'interpelle Elle prend ma main gauche pour me lire les lignes, moi, j'ai un mauvais feeling Car elle veut être précise mais, moi, je lui propose de rester dans les grandes lignes Ses doigts glissent sur ma peau comme une piste de curling et elle vise la ligne de coeur C'est une ligne à haute tension, elle est en première ligne, une ligne à la hauteur Niveau coeur, pas besoin de savoir lire entre les lignes, elle voit que la ligne est occupée C'est une ligne droite magnifique, longiligne, rectiligne, la ligne printemps-été En revanche, la voyante ne trouve pas ma ligne de chance, j'ai vraiment pas de pot Elle l'avait en ligne de mire, moi, j'avais envie d'en rire, elle a ripé sur un bout de peau You might also likeMais en ligne de compte, elle a retrouvé ma chance, c'est une vraie pilote de lignes Ma ligne de chance aime bien faire des feintes, elle est maligne ma ligne C'est la dernière ligne droite, la voyante a décidé d'analyser ma ligne de vie Elle cherche la ligne d'arrivée, mais la voyante a souligné qu'apparemment ma ligne dévie Alors ma ligne de vie rage, ma ligne de vie perd, la voyante ne la voit pas bien Elle a un air inquiet car la ligne est coupée... alors, moi, j'entends plus rien Je lui demande si elle est sûre, elle scrute les interlignes, ce moment est inhumain Du coup, elle va s'faire une petite ligne, moi, j'ai perdu mon avenir quelque part au creux de ma main Ça a mis un bout de temps mais on a retrouvé ma vie, elle avait juste sauté une ligne Quand la séance fut finie, j'ai décidé de prendre soin de moi et de faire attention à ma ligne Avant de quitter la voyante, on s'est serré la main, on a mélangé nos lignes Une chose est sûre je ne reviendrai pas demain, elle s'est vraiment plantée sur toutes les lignes Depuis ma ligne de conduite est de viser la ligne d'horizon pour voir plus loin que le bout de mes lignes Fini de lire dans les mains, maintenant je préfère serrer le poing Point à la ligne</t>
+          <t>Un certain soir d'incertitude, je suis allé voir une voyante Prêt pour l'arnaque et l'inquiétude car la vision d'avenir est payante C'est mon coeur qui frappe quand je sonne à la porte, je me sens tout gamin Quand elle m'ouvre, me regarde, me sourit et m'escorte pour me lire les lignes de la main Elle prend son pied en prenant mes mains, ses mains tenant mes doigts sont balaises Elle est adroite, j'ai deux mains gauches, c'est maintenant mon malaise Elle a la main forte, elle a la main ferme, elle a la mainmise Moi, faut que je sorte, je veux revenir demain, mes deux mains sont prises Sa main est agile et ça m'indispose que sa main tripote Car sa main est curieuse et sa main est fouineuse et ça m'insupporte Mais ça m'intéresse quand sa main se calme car sa main est belle Oui, sa main est douce et sa main est chaude et ça m'interpelle Elle prend ma main gauche pour me lire les lignes, moi, j'ai un mauvais feeling Car elle veut être précise mais, moi, je lui propose de rester dans les grandes lignes Ses doigts glissent sur ma peau comme une piste de curling et elle vise la ligne de coeur C'est une ligne à haute tension, elle est en première ligne, une ligne à la hauteur Niveau coeur, pas besoin de savoir lire entre les lignes, elle voit que la ligne est occupée C'est une ligne droite magnifique, longiligne, rectiligne, la ligne printemps-été En revanche, la voyante ne trouve pas ma ligne de chance, j'ai vraiment pas de pot Elle l'avait en ligne de mire, moi, j'avais envie d'en rire, elle a ripé sur un bout de peau Mais en ligne de compte, elle a retrouvé ma chance, c'est une vraie pilote de lignes Ma ligne de chance aime bien faire des feintes, elle est maligne ma ligne C'est la dernière ligne droite, la voyante a décidé d'analyser ma ligne de vie Elle cherche la ligne d'arrivée, mais la voyante a souligné qu'apparemment ma ligne dévie Alors ma ligne de vie rage, ma ligne de vie perd, la voyante ne la voit pas bien Elle a un air inquiet car la ligne est coupée... alors, moi, j'entends plus rien Je lui demande si elle est sûre, elle scrute les interlignes, ce moment est inhumain Du coup, elle va s'faire une petite ligne, moi, j'ai perdu mon avenir quelque part au creux de ma main Ça a mis un bout de temps mais on a retrouvé ma vie, elle avait juste sauté une ligne Quand la séance fut finie, j'ai décidé de prendre soin de moi et de faire attention à ma ligne Avant de quitter la voyante, on s'est serré la main, on a mélangé nos lignes Une chose est sûre je ne reviendrai pas demain, elle s'est vraiment plantée sur toutes les lignes Depuis ma ligne de conduite est de viser la ligne d'horizon pour voir plus loin que le bout de mes lignes Fini de lire dans les mains, maintenant je préfère serrer le poing Point à la ligne</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard You might also like À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
+          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ecoute, yo, hun, Black Kent fuit le vent J'veux pas grandir, et j'reste fly comme Peter Pan C'est c'que j'disais y a quelques mois, c'est c'que j'me dis encore J'suis au-dessus, ils m'entendent pas, donc Blacky crie encore J'ai trouvé l'moyen d'planer, j'suis sur ma bonne étoile et Les coups d'soleil sont bien plus forts quand c'est ton voisin d'palier J'l'avoue, et d'là-haut je fais c'qui m'chante Et si j'le chante pas, dis moi, qui le chante ? Ma 'sique vient d'où ? Elle vient d'là où les ados s'vantent Moi j'dors à l'heure où les oiseaux s'plantent Comme ça j'suis seul dans le ciel, ouais, j'rêve d'apesanteur Et si t'es comme moi, tu sais qu'le reste a peu d'ampleur Je plane... Moi je plane... Ouais, je plane... Moi je plane... Monte sur l'Everest si tu espères apercevoir ma semelle Mais n'oublie pas le télescope, jette moi vite ces jumelles Car j'ai des colombes et des corbeaux en guise de voisinage Dites à la petite souris de mettre une grosse liasse sous mon nuage J'ai pris le large à l'age des dents de lait, quitté les barbelés Du monde réel, regarde les imiter mes ailes Pour m'réveiller c'est pas un coq mais un aigle qui chante J'fais du T-Max sur le dos d'une étoile filante Tape mon adresse sur Google Earth, mais pas sur Mappy Quand j'ai mal et qu'j'lâche une larme sors le parapluie Les pieds sur Terre j'suis comme Grand Corps Malade sans sa canne Comme Kent, et plastique Bertrand, mec, je plane You might also like Je rêve de voir les choses en grand depuis tout petit Et comme j'suis tout là-haut, eh bin j'vois tout en petit Si quand t'écoutes tu planes pas c'est qu'tu t'es trompé d'click Car même les instruments volent, Ritchi fait tomber l'kick Bref, on a pas peur des mots, loin de là Donc ma musique j'la fais saigner, huh les règles de l'art J'écris en rouge quand les feux sont verts J't'emmène sur un nuage gris, j'deviens faible quand les yeux sont clairs Obscures sont mes pensées quand d'l'altitude je perds Si j'te regarde de haut, c'est qu't'as trop les pieds sur Terre Et ça j't'ai déjà dit Mon grand a jeté les dés jadis Et ils sont toujours pas tombés, ouais, je plane Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Ecoute, yo, hun, Black Kent fuit le vent J'veux pas grandir, et j'reste fly comme Peter Pan C'est c'que j'disais y a quelques mois, c'est c'que j'me dis encore J'suis au-dessus, ils m'entendent pas, donc Blacky crie encore J'ai trouvé l'moyen d'planer, j'suis sur ma bonne étoile et Les coups d'soleil sont bien plus forts quand c'est ton voisin d'palier J'l'avoue, et d'là-haut je fais c'qui m'chante Et si j'le chante pas, dis moi, qui le chante ? Ma 'sique vient d'où ? Elle vient d'là où les ados s'vantent Moi j'dors à l'heure où les oiseaux s'plantent Comme ça j'suis seul dans le ciel, ouais, j'rêve d'apesanteur Et si t'es comme moi, tu sais qu'le reste a peu d'ampleur Je plane... Moi je plane... Ouais, je plane... Moi je plane... Monte sur l'Everest si tu espères apercevoir ma semelle Mais n'oublie pas le télescope, jette moi vite ces jumelles Car j'ai des colombes et des corbeaux en guise de voisinage Dites à la petite souris de mettre une grosse liasse sous mon nuage J'ai pris le large à l'age des dents de lait, quitté les barbelés Du monde réel, regarde les imiter mes ailes Pour m'réveiller c'est pas un coq mais un aigle qui chante J'fais du T-Max sur le dos d'une étoile filante Tape mon adresse sur Google Earth, mais pas sur Mappy Quand j'ai mal et qu'j'lâche une larme sors le parapluie Les pieds sur Terre j'suis comme Grand Corps Malade sans sa canne Comme Kent, et plastique Bertrand, mec, je plane Je rêve de voir les choses en grand depuis tout petit Et comme j'suis tout là-haut, eh bin j'vois tout en petit Si quand t'écoutes tu planes pas c'est qu'tu t'es trompé d'click Car même les instruments volent, Ritchi fait tomber l'kick Bref, on a pas peur des mots, loin de là Donc ma musique j'la fais saigner, huh les règles de l'art J'écris en rouge quand les feux sont verts J't'emmène sur un nuage gris, j'deviens faible quand les yeux sont clairs Obscures sont mes pensées quand d'l'altitude je perds Si j'te regarde de haut, c'est qu't'as trop les pieds sur Terre Et ça j't'ai déjà dit Mon grand a jeté les dés jadis Et ils sont toujours pas tombés, ouais, je plane Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yo, vous avez vu son battle avec le Québécois ? Yo, pour moi, t'as battu le roux Franchement Dony, c'est un vol Mais ça tue que t'aies proposé le duel Vous avez vu ? Ça se rend les coups comme au Colisée à Rome Justesse, propos, gestuelle Mais faut pas des couilles pour sodomiser un homme, faut juste être homosexuel ! Après, chacun son truc, j'ai des trip des mecs des îles Toi tu suces avec zèle, tu cueilles des folles en ville Moi j'colle des feuilles en L Mais tu passes pour le type qui préfère les ils avec la voix affolée mec J'passe pour le flic de Beverly Hills avec la voix d'Foley mec Tu rêves de t'épanouir à la chapelle Fistine dans une discipline poing-pieds Fister des culs, boire du jus d'orifice de pompier Pour nous conter l'histoire dans une soirée plutôt chic où t'es convié Mais tu t'appelles Ludovic et t'es plombier Bon, parlons plomberie, sérieux c'est une compétence de fou, tiens sérieux l'histoire est assez marrante Faudrait que tu dépannes Fauriss... un mec qui a des doutes sur une vieille installation de douches des années 40 J'voulais pas l'dire, quoi aujourd'hui tu peux enculer des homos légalement Moi on me critique pour une langue comme un petit me l'a fait remarquer En 2015, j'peux pas aduler les allemands, mais je signe toujours mes crimes d'un petit cantique de la Wehrmacht Hey hi.. Hey ho.. On rentre du complot ! Mais, vous savez, j'suis pas négationniste Non, non ! Ce soir je suis méga-sionniste ! Je viens taper super-fisteur, oh oui ! Je pense pas que tes petits poings vont aller loin, d'autres oui ! Mais c'est comme si tous tes orifices étaient déjà huilés avec soin face à mes poings Godwin ! Dans ton battle avec Gram t'as fais des phases racistes sur les juifs Dis ! Hé, tu sais donc pas que c'est pas bien d'être raciste, que c'est mal ? Petite merde ! Il y a des baffes qui se perdent ! Ce soir pour battre méga-sionniste il te faudrait fister un vampire juif avec de l'ail Hitler ! Non, c'est des personnages, c'est un truc tranquille Du coup, ça va me saouler de répéter que ton stock de trucs dans le fion il faut que tu le bouge à l'occas' Ou que les groupes LGBT vont stop les subventions pour les Tous Salopards T'aimes dire que c'est de l'irrespect de faire ton fêlé dans des fausses partouzes Mais, même si t'étais pédé les pédés diraient que t'es qu'une grosse tarlouze, mec ! Hé oui ! En plus, quand on sait que t'es l'heureux papa d'une fille on se dit que tout ce que tu fais c'est une blague Sans rire, niveau éducatif tu risques d'y laisser une trace, je parle pas d'une fessée, d'une claque Non juste qu'un jour en classe elle arrive, elle crie qu'ici c'est la seule qui ait la schnek de lécher une chatte Mais c'est horrible, c'est horrible mais c'est lui, je t'imagine chez toi avec un petit Do Mac t'sais dans un canapé deux places Trip trop crade ! Tu commences à tripoter ta fille avant de te dire Oh non ! C'est dégueulasse, les frites sont froides ! Tu dis que ma fille va devenir lesbienne Dis moi ce que tu comptes faire ? Tu dis que ma fille va devenir lesbienne Mais c'est mon plus grand rêve Je me suis peut-être fait opérer des yeux, mais j'reste le même obsédé sérieux Le genre de pédé dégueu qui aime observer les vieux Mais sincèrement j'me fous de ce que t'écris dans tes jolis sons Ce battle c'est un peu comme une évidente opposition et même s'il change de position Moi j'ai un coup d'avance sur toi, car je doute même de l'existence de Faurisson À chaque fois tu composes Tes battles à base de théories du complot Révisionnisme, lobby, sionisme... Tu t'es perdu mon pauvre Je sais que c'est ta technique de base, mais Cheef Tout le monde sait que les juifs ça n'existe pas Et puis, on pourra pas éviter la chute, on tombera pas de chance ! Je sais que pour toi dénoncer le complot c'est ta lutte, ton combat Mein Kampf ! Les gens les plus obscènes me veulent, mais toi le nazillon Tu sais comment on prendre ta pauvre mère ? Double ! Ça t'apprendra à te faire jouir sur des posters de Joseph Goebbels T'es tellement nostalgique du régime d'Heinrich Himmler Que tu défiles dans Paris avec une Jeep militaire Et t'avais déjà une petite moustache, dans le ventre de ta mère Puis t'as appris à faire du rap sur des samples de Wagner J'vais peut-être passé pour un pauvre mec ou un fou Mais t'as des phases qui pourraient faire passer Wojtek pour un rouge Des saluts nazis, des SS, une centaine, une armée Yo T'as des phases sorties tout droit des pires documentaires sur Arte Tu cites des grands génies comme Pétain, Hitler Mais pour moi tes origines restent un mystère Ta mère devait être une croisée malgache qui s'est faite sautée par trois gars dans une soirée de malade au Guatemala pendant ses vacances La vérité c'est que t'es noir et arabe, bah quoi c'est pas grave Mais noir et arabe, franchement c'est pas de chance Remarque, il faut voir le bon côté de la chose, tu passe d'une identité à l'autre Noir et arabe, j'suis sûr qu'il y a moyen de cumuler les allocs Quand même, noir et arabe, fils tu déconnes C'est quoi ? Tu grimpes aux arbres, puis tu les voles ? Un jour tu t'accroches au train d'atterissage Un jour tu fais peur quand t'es assis dans l'avion Tu vends même des petites tour Eiffel Mais dans une alimentation Noir et arabe, t'es une sorte de prototype Mais y a moyen de te mettre d'accord Car d'un côté tu pues, et de l'autre aussi C'est pas que j'mennuie ou que j'veuille juste donner une bonne image d'Hitler Mais maintenu en vie à cette-heure ta mère le suce dans mon complot imaginaire Vous en avez marre des vannes de nazis ? Chez moi c'est systématique, j'vais m'lancer dans un truc plus technique, une rime mathématique du genre 31, 32, 33, 34, 35, 36, 37, 38, 39... 45 ! 46, 47, 48, 49, 50, 51, 52, 53, 54... bon... Hermano a pas fini de me l'écrire celle-là... Ta mère est une pute ! Mais pas l'insulte, le métier Au début tu t'es pas méfié, mais elle a fait ça fort ! Te donner la passion de la plomberie sans que t'aies compris ses métaphores Plus jeune, tu stress à mort, afin d'éléver sa vie de ton niveau de rime Tu lui demandes ce qu'est la pression elle te dit que chez elle c'est la force qui agit sur les tuyauteries Véridique, j'mens pas, précise au point de te dire que ça s'exprime en bar Aujourd'hui c'est pas dur plombier tous les jours la pression tu la mesures à l'aide d'un manomètre Bon j'ai pas les belles images de ta mère mais j'dirais que selon elle, ça se mesure d'après le mal aux fesses Mais maintenant tu le sais en rap, avec le bon texte, le bon débit, tu mets une p'tite claque au son Plus jeune, lui demandant de s'exprimer sur ton débit elle te dit que chez elle ça s'exprime en litres par seconde Véridique, j'mens pas, c'était ton délire mais pas sa vive passion attends faut l'admettre Précise quand même au point d'te dire que le débit des canalisations dépend de leur diamètre Après c'est la famille, les origines, moi ça a gêné ta logique quand je t'ai parlé des miennes J'avoue, j'avoue ça a gêné ta logique de savoir que chez moi branches et racines s'feinent et puis s'croisent à l'arbre Ca t'gêne peut-être que j'en descende car t'as déjà vu ta mère grimper avec 3 arabes Il passait devant le bois en rigolant et lâchait des imitation de bledard tu les croyais dyslexiques ? mais c'qu'ils t'disaient clairement c'est ça oh oui, elle payera pas l'crédit Plus tard tu t'imaginais le pire en les entendant crier One, Two, Three, viva l'Algérie Ca m'dérangerait pas de continuer sur ta maman ça m'poserait absolument pas de soucis Mais j'crois que j'vais arrêter parce que dans les coulisses y a encore la mère à Smoothy Baaah, ma mère est une pute, ma mère est une pute... tu radotes ! Ma mère est une pute, la tienne, une salope ! Au fait, j'vous ai dit que j'étais fou, étrange Que j'enculais des hommes ou des chiens, que j'fistais l'trou des gens Bah en fait c'est pas vrai, oups pardon, j'ai dû niquer tous tes angles ! On va peut-être m'accuser de remixer des rimes ou de recycler des lignes Mais quand tu rap, on dirait que tu te prends un doigt dans l'cul, devine c'était qui ? Tu dégaines, rengaines, me gifles, tu te prends pour Terence Hill Moi j'suis l'autre, beaucoup moins fûté mais beaucoup plus sur la défensive Mon pied dans l'pif j'vais t'péter les gencives Tu espères me faire peur ? Alors j'te cogne, j'te cogne, j'te cogne, j'te cogne BudSpencer J'lâche mes phases sans regarder le timing, j'ai une bar sur chaque film Et j'suis carrément fou, plus rien ne m'arrête quand j'cours après ta femme j'y passe ma tête dans l'trou, comme Jack dans Shining La Bouillabaisse est sortie, si on échappe de l'asile c'est pour partir à la pêche, comme Jack dans un autre film Et tu risques pas de me blesser, avec tes très insuffisantes punchlines J'repars d'ici sans coupures, c'est mon seul et unique plan Birdman Tes battles c'est de la branlette intellectuelle, des moments insoutenables Si tu continues, tu vas jouïr des oreilles, comme dans Intouchables Et j'sais que ma réputation précède FistFuck Mais ta meuf, j'la fais crier dans la douche Hitchcock C'est une question d'honneur faut que j'la fourre C'est une bombe j'fais du rodéo sur elle comme dans Docteur Folamour Est-ce estimable ? Espèce d'ignard, tes références au Reich j'avoue c'est suspect Et puis t'as ton signe de gang tatoué sur le pec DerekVinyard En vrai, tu passes ton temps à checker des Western et dénoncer des juifs T'es obsédé par l'étoile jaune, normal, vu que ton prénom c'est Shérif Shérif ?! T'as vraiment un blase à tenir une épicerie... de nuit, où il y a toujours ce qu'il faut Spécialisée dans le demi-gros, un blase à porter une grosse moustache et se déplacer en vieux cyclo Et vu que tout le monde te comparait à Bob Marley, à cause de tes tifs BANG ! I shot the Sheriff ! Et quand j'suis des fois seul, mon rêve c'est d'être pris en sandwich au milieu de tes 3 soeurs Tu vas filer à l'anglaise moi c'est à l'anglaise que j'te file Mayweather Celle-ci c'est la plus importante de mes lignes Equateur J'en ai fini, maintenant c'est à ton tour Sherif, fais moi peur ! Hey Ludo, tu veux que j'te dise ? T'es pas le plus gros dégeulasse que la Terre ait jamais porté Pas le fruit de 2 êtres dont le coït survient après une suite de 2 e-mail Mais faut que je revoie tout ton parcours vu que ta mère t'a jamais porté T'es pas un fils de pute nan t'es le fils de 2 shemale Mais ouais, ta vie, tes trip sont osés mais ça fait pas rêver c'est zéro Bon allez reviens Ludo, t'sais on s'y fait à une vie de pédé d'hétero Nan, la différence entre toi et moi c'est une histoire de centimètres Toi et ta meuf, quand vos corps s'confondent, elle s'emmerde, simule, moi, faudrait un Human Centipede pour taper une gorge profonde jusqu'à mes testicules Moi quand j'marche dans Paris, j'fais gaffe ou j'risque de marcher sur ma bite, oh oui ! Toi, quand tu marches dans Paris, fais gaffe, ou tu risques de marcher sur ma bite, aussi ! T'sais, j'suis un salopard ! Si j'étais un personnage dans tes amis, j'serais l'rappeur J'ai l'air clean comme ça mais j'ai plus d'un fait d'arme qui pourrait flatter tes admirateurs Genre, m'laisse pas garder ta fille ou j'attendrai qu'elle soit assez crade pour la laver avec l'aspriateur Naaan, on aurait des jolis rapports, ça t'semble louche, comme un genre d'miracle ? On jouerait à tu me shootes du mirador, à l'envers, tu joues à j'te touche quand tu dormiras Mec c'est chaud ! J'ai fait un cours d'affection, sa fille, j'lui ai baisé la joue, baisé l'front Bref, une bête d'émo, le mec me jette ses mots ouais lâche ma ptite espèce de noir de merde de merde, Ludo, pèse tes mots, pendant que j'baise tes mômes ! C'était un jeu de mots, il a pas compris, moi pire, lui tu veux que j'te fist ?! sale rebeu, ouais y a que moi qui encule ou qui excite mes filles Fichtre, sacrebleu, mais que diantre essaie-t-il de me dire ? T'aimerais qu'on t'voit fou, malade, mais y a un truc bête que j'note rapide Tu diras sans doute que t'es pas raciste parce que t'as quelques amis noirs ou arabes ? Mais tu le serais j'm'en fous, j'suis noir et arabe pis j'ai quelques potes racistes ! Avec ta fille dans nos soirées, c'est pas mon genre qu'on tente l'action J'tire au sort dans mes films les plus racistes Le dernier qu'on a vu c'était un juif qui l'a fait sur un camp de concentration de dinosaure du jurassic j'sais pas si tu l'as vu celui là en pleurant c'pas grave c'était cool hein t'façon... T'as envie de me demander pourquoi tu pleures, là maintenant ? Mais ta mère vient de faire jouïr le Führer à l'instant ! Car nan, c'est bien une pute dans mon complot, qui fout ses collègues au chômage puis qu'elle leur vole tous les clients Dans tes battles tu manques jamais de lui rendre hommage, mais dans le travail, ça serait brillant Car elle bosse, quand tu fais le taré ! Empoche ! des paies tarées Donc bosse, et paie ta raie ! t'sais quand tu boss et que vous êtes comme ça Tu parles de la longueur de ta bite ? Mais franchement La mienne est tellement grande que j'nique ta mère pendant que j'nique ta soeur pendant que j'nique ta fille pendant que j'me branle T'avais une brillante idée, d'après mes battles, t'as cru m'identifier Mais si mon crew et moi on fait toujours la même merde, c'est qu'on a ce petit truc si amplifié Ce petit truc que t'as toujours voulu avoir comme j'sais pas moi, une identité ? J'éviterais de parler de fist, de viol, de lui de sa femme J'vais pas critiquer ton flow, puisqu'il est bon, normal, c'est celui de Saïan Manque de pot, si tu cherches à imiter, au moins fais le bien J'ai ptet un manque de flow, mais mon manque de flow, au moins, c'est le mien Et vu que j'ai l'impression d'te faire chier, question conne Tu penses que c'est parce que tes phases sont recherchées, qu'elles sont bonnes ? Au fond, tes phases recherchées c'est juste pour feinter les gens Tu rajoutes du style inutile et futile, il a espoir que ça l'aide Rien ne sert de faire des phases intelligentes, le public est stupide il suffit de leur faire croire que ça l'est Et t'es de plus en plus ridicule, va au diable, toi et tes stupides patterns Technique parfaite quand l'inspi diminue salopard, le pire c'est que tu le dis toi même ! Parce que c'est vrai que reprendre le style d'Hermano pour battle Hermano, c'est de la folie, un génie ! Reprendre le style d'Hermano pour battle Louvar, c'est de la copie, un délit ! Et t'as bouclé une boucle, c'est bizarre vois-tu T'as battu Hermano qui a battu Louvar qui t'a battu, fils ça va plus Mais le battle c'est ça, c'est souvent grave abstrait Regarde moi j'ai bien battu Chilly Chill qui pourtant a gagné Si tu veux qu'ils t'aplaudissent comme des otaries T'avais à juste à venir avec un maillot d'Paris Mais moi, j'préfère encore me faire mettre par 3 gros africains, et puis même me taper un travelo brasilien, me nourrir exclusivement de terre genre des gâteaux Haïtiens, me faire racketter par 3 pédés ou un informaticien, quitte à me faire traiter de faggot autant me prendre un coup de baguette comme un châpeau de magicien, me faire humilier et pisser dessus par 4 soldats ricains, fumer l'équivalent d'un cargo de crack costaricain, me faire torturer à vie par un sadomaso-praticien, devenir une idole pour les ados à petits seins, faire 3 fois le tour du monde sur un radeau malien, que de porter ne serait-ce qu'une seconde votre foutu maillot parisien !You might also like5</t>
+          <t>Yo, vous avez vu son battle avec le Québécois ? Yo, pour moi, t'as battu le roux Franchement Dony, c'est un vol Mais ça tue que t'aies proposé le duel Vous avez vu ? Ça se rend les coups comme au Colisée à Rome Justesse, propos, gestuelle Mais faut pas des couilles pour sodomiser un homme, faut juste être homosexuel ! Après, chacun son truc, j'ai des trip des mecs des îles Toi tu suces avec zèle, tu cueilles des folles en ville Moi j'colle des feuilles en L Mais tu passes pour le type qui préfère les ils avec la voix affolée mec J'passe pour le flic de Beverly Hills avec la voix d'Foley mec Tu rêves de t'épanouir à la chapelle Fistine dans une discipline poing-pieds Fister des culs, boire du jus d'orifice de pompier Pour nous conter l'histoire dans une soirée plutôt chic où t'es convié Mais tu t'appelles Ludovic et t'es plombier Bon, parlons plomberie, sérieux c'est une compétence de fou, tiens sérieux l'histoire est assez marrante Faudrait que tu dépannes Fauriss... un mec qui a des doutes sur une vieille installation de douches des années 40 J'voulais pas l'dire, quoi aujourd'hui tu peux enculer des homos légalement Moi on me critique pour une langue comme un petit me l'a fait remarquer En 2015, j'peux pas aduler les allemands, mais je signe toujours mes crimes d'un petit cantique de la Wehrmacht Hey hi.. Hey ho.. On rentre du complot ! Mais, vous savez, j'suis pas négationniste Non, non ! Ce soir je suis méga-sionniste ! Je viens taper super-fisteur, oh oui ! Je pense pas que tes petits poings vont aller loin, d'autres oui ! Mais c'est comme si tous tes orifices étaient déjà huilés avec soin face à mes poings Godwin ! Dans ton battle avec Gram t'as fais des phases racistes sur les juifs Dis ! Hé, tu sais donc pas que c'est pas bien d'être raciste, que c'est mal ? Petite merde ! Il y a des baffes qui se perdent ! Ce soir pour battre méga-sionniste il te faudrait fister un vampire juif avec de l'ail Hitler ! Non, c'est des personnages, c'est un truc tranquille Du coup, ça va me saouler de répéter que ton stock de trucs dans le fion il faut que tu le bouge à l'occas' Ou que les groupes LGBT vont stop les subventions pour les Tous Salopards T'aimes dire que c'est de l'irrespect de faire ton fêlé dans des fausses partouzes Mais, même si t'étais pédé les pédés diraient que t'es qu'une grosse tarlouze, mec ! Hé oui ! En plus, quand on sait que t'es l'heureux papa d'une fille on se dit que tout ce que tu fais c'est une blague Sans rire, niveau éducatif tu risques d'y laisser une trace, je parle pas d'une fessée, d'une claque Non juste qu'un jour en classe elle arrive, elle crie qu'ici c'est la seule qui ait la schnek de lécher une chatte Mais c'est horrible, c'est horrible mais c'est lui, je t'imagine chez toi avec un petit Do Mac t'sais dans un canapé deux places Trip trop crade ! Tu commences à tripoter ta fille avant de te dire Oh non ! C'est dégueulasse, les frites sont froides ! Tu dis que ma fille va devenir lesbienne Dis moi ce que tu comptes faire ? Tu dis que ma fille va devenir lesbienne Mais c'est mon plus grand rêve Je me suis peut-être fait opérer des yeux, mais j'reste le même obsédé sérieux Le genre de pédé dégueu qui aime observer les vieux Mais sincèrement j'me fous de ce que t'écris dans tes jolis sons Ce battle c'est un peu comme une évidente opposition et même s'il change de position Moi j'ai un coup d'avance sur toi, car je doute même de l'existence de Faurisson À chaque fois tu composes Tes battles à base de théories du complot Révisionnisme, lobby, sionisme... Tu t'es perdu mon pauvre Je sais que c'est ta technique de base, mais Cheef Tout le monde sait que les juifs ça n'existe pas Et puis, on pourra pas éviter la chute, on tombera pas de chance ! Je sais que pour toi dénoncer le complot c'est ta lutte, ton combat Mein Kampf ! Les gens les plus obscènes me veulent, mais toi le nazillon Tu sais comment on prendre ta pauvre mère ? Double ! Ça t'apprendra à te faire jouir sur des posters de Joseph Goebbels T'es tellement nostalgique du régime d'Heinrich Himmler Que tu défiles dans Paris avec une Jeep militaire Et t'avais déjà une petite moustache, dans le ventre de ta mère Puis t'as appris à faire du rap sur des samples de Wagner J'vais peut-être passé pour un pauvre mec ou un fou Mais t'as des phases qui pourraient faire passer Wojtek pour un rouge Des saluts nazis, des SS, une centaine, une armée Yo T'as des phases sorties tout droit des pires documentaires sur Arte Tu cites des grands génies comme Pétain, Hitler Mais pour moi tes origines restent un mystère Ta mère devait être une croisée malgache qui s'est faite sautée par trois gars dans une soirée de malade au Guatemala pendant ses vacances La vérité c'est que t'es noir et arabe, bah quoi c'est pas grave Mais noir et arabe, franchement c'est pas de chance Remarque, il faut voir le bon côté de la chose, tu passe d'une identité à l'autre Noir et arabe, j'suis sûr qu'il y a moyen de cumuler les allocs Quand même, noir et arabe, fils tu déconnes C'est quoi ? Tu grimpes aux arbres, puis tu les voles ? Un jour tu t'accroches au train d'atterissage Un jour tu fais peur quand t'es assis dans l'avion Tu vends même des petites tour Eiffel Mais dans une alimentation Noir et arabe, t'es une sorte de prototype Mais y a moyen de te mettre d'accord Car d'un côté tu pues, et de l'autre aussi C'est pas que j'mennuie ou que j'veuille juste donner une bonne image d'Hitler Mais maintenu en vie à cette-heure ta mère le suce dans mon complot imaginaire Vous en avez marre des vannes de nazis ? Chez moi c'est systématique, j'vais m'lancer dans un truc plus technique, une rime mathématique du genre 31, 32, 33, 34, 35, 36, 37, 38, 39... 45 ! 46, 47, 48, 49, 50, 51, 52, 53, 54... bon... Hermano a pas fini de me l'écrire celle-là... Ta mère est une pute ! Mais pas l'insulte, le métier Au début tu t'es pas méfié, mais elle a fait ça fort ! Te donner la passion de la plomberie sans que t'aies compris ses métaphores Plus jeune, tu stress à mort, afin d'éléver sa vie de ton niveau de rime Tu lui demandes ce qu'est la pression elle te dit que chez elle c'est la force qui agit sur les tuyauteries Véridique, j'mens pas, précise au point de te dire que ça s'exprime en bar Aujourd'hui c'est pas dur plombier tous les jours la pression tu la mesures à l'aide d'un manomètre Bon j'ai pas les belles images de ta mère mais j'dirais que selon elle, ça se mesure d'après le mal aux fesses Mais maintenant tu le sais en rap, avec le bon texte, le bon débit, tu mets une p'tite claque au son Plus jeune, lui demandant de s'exprimer sur ton débit elle te dit que chez elle ça s'exprime en litres par seconde Véridique, j'mens pas, c'était ton délire mais pas sa vive passion attends faut l'admettre Précise quand même au point d'te dire que le débit des canalisations dépend de leur diamètre Après c'est la famille, les origines, moi ça a gêné ta logique quand je t'ai parlé des miennes J'avoue, j'avoue ça a gêné ta logique de savoir que chez moi branches et racines s'feinent et puis s'croisent à l'arbre Ca t'gêne peut-être que j'en descende car t'as déjà vu ta mère grimper avec 3 arabes Il passait devant le bois en rigolant et lâchait des imitation de bledard tu les croyais dyslexiques ? mais c'qu'ils t'disaient clairement c'est ça oh oui, elle payera pas l'crédit Plus tard tu t'imaginais le pire en les entendant crier One, Two, Three, viva l'Algérie Ca m'dérangerait pas de continuer sur ta maman ça m'poserait absolument pas de soucis Mais j'crois que j'vais arrêter parce que dans les coulisses y a encore la mère à Smoothy Baaah, ma mère est une pute, ma mère est une pute... tu radotes ! Ma mère est une pute, la tienne, une salope ! Au fait, j'vous ai dit que j'étais fou, étrange Que j'enculais des hommes ou des chiens, que j'fistais l'trou des gens Bah en fait c'est pas vrai, oups pardon, j'ai dû niquer tous tes angles ! On va peut-être m'accuser de remixer des rimes ou de recycler des lignes Mais quand tu rap, on dirait que tu te prends un doigt dans l'cul, devine c'était qui ? Tu dégaines, rengaines, me gifles, tu te prends pour Terence Hill Moi j'suis l'autre, beaucoup moins fûté mais beaucoup plus sur la défensive Mon pied dans l'pif j'vais t'péter les gencives Tu espères me faire peur ? Alors j'te cogne, j'te cogne, j'te cogne, j'te cogne BudSpencer J'lâche mes phases sans regarder le timing, j'ai une bar sur chaque film Et j'suis carrément fou, plus rien ne m'arrête quand j'cours après ta femme j'y passe ma tête dans l'trou, comme Jack dans Shining La Bouillabaisse est sortie, si on échappe de l'asile c'est pour partir à la pêche, comme Jack dans un autre film Et tu risques pas de me blesser, avec tes très insuffisantes punchlines J'repars d'ici sans coupures, c'est mon seul et unique plan Birdman Tes battles c'est de la branlette intellectuelle, des moments insoutenables Si tu continues, tu vas jouïr des oreilles, comme dans Intouchables Et j'sais que ma réputation précède FistFuck Mais ta meuf, j'la fais crier dans la douche Hitchcock C'est une question d'honneur faut que j'la fourre C'est une bombe j'fais du rodéo sur elle comme dans Docteur Folamour Est-ce estimable ? Espèce d'ignard, tes références au Reich j'avoue c'est suspect Et puis t'as ton signe de gang tatoué sur le pec DerekVinyard En vrai, tu passes ton temps à checker des Western et dénoncer des juifs T'es obsédé par l'étoile jaune, normal, vu que ton prénom c'est Shérif Shérif ?! T'as vraiment un blase à tenir une épicerie... de nuit, où il y a toujours ce qu'il faut Spécialisée dans le demi-gros, un blase à porter une grosse moustache et se déplacer en vieux cyclo Et vu que tout le monde te comparait à Bob Marley, à cause de tes tifs BANG ! I shot the Sheriff ! Et quand j'suis des fois seul, mon rêve c'est d'être pris en sandwich au milieu de tes 3 soeurs Tu vas filer à l'anglaise moi c'est à l'anglaise que j'te file Mayweather Celle-ci c'est la plus importante de mes lignes Equateur J'en ai fini, maintenant c'est à ton tour Sherif, fais moi peur ! Hey Ludo, tu veux que j'te dise ? T'es pas le plus gros dégeulasse que la Terre ait jamais porté Pas le fruit de 2 êtres dont le coït survient après une suite de 2 e-mail Mais faut que je revoie tout ton parcours vu que ta mère t'a jamais porté T'es pas un fils de pute nan t'es le fils de 2 shemale Mais ouais, ta vie, tes trip sont osés mais ça fait pas rêver c'est zéro Bon allez reviens Ludo, t'sais on s'y fait à une vie de pédé d'hétero Nan, la différence entre toi et moi c'est une histoire de centimètres Toi et ta meuf, quand vos corps s'confondent, elle s'emmerde, simule, moi, faudrait un Human Centipede pour taper une gorge profonde jusqu'à mes testicules Moi quand j'marche dans Paris, j'fais gaffe ou j'risque de marcher sur ma bite, oh oui ! Toi, quand tu marches dans Paris, fais gaffe, ou tu risques de marcher sur ma bite, aussi ! T'sais, j'suis un salopard ! Si j'étais un personnage dans tes amis, j'serais l'rappeur J'ai l'air clean comme ça mais j'ai plus d'un fait d'arme qui pourrait flatter tes admirateurs Genre, m'laisse pas garder ta fille ou j'attendrai qu'elle soit assez crade pour la laver avec l'aspriateur Naaan, on aurait des jolis rapports, ça t'semble louche, comme un genre d'miracle ? On jouerait à tu me shootes du mirador, à l'envers, tu joues à j'te touche quand tu dormiras Mec c'est chaud ! J'ai fait un cours d'affection, sa fille, j'lui ai baisé la joue, baisé l'front Bref, une bête d'émo, le mec me jette ses mots ouais lâche ma ptite espèce de noir de merde de merde, Ludo, pèse tes mots, pendant que j'baise tes mômes ! C'était un jeu de mots, il a pas compris, moi pire, lui tu veux que j'te fist ?! sale rebeu, ouais y a que moi qui encule ou qui excite mes filles Fichtre, sacrebleu, mais que diantre essaie-t-il de me dire ? T'aimerais qu'on t'voit fou, malade, mais y a un truc bête que j'note rapide Tu diras sans doute que t'es pas raciste parce que t'as quelques amis noirs ou arabes ? Mais tu le serais j'm'en fous, j'suis noir et arabe pis j'ai quelques potes racistes ! Avec ta fille dans nos soirées, c'est pas mon genre qu'on tente l'action J'tire au sort dans mes films les plus racistes Le dernier qu'on a vu c'était un juif qui l'a fait sur un camp de concentration de dinosaure du jurassic j'sais pas si tu l'as vu celui là en pleurant c'pas grave c'était cool hein t'façon... T'as envie de me demander pourquoi tu pleures, là maintenant ? Mais ta mère vient de faire jouïr le Führer à l'instant ! Car nan, c'est bien une pute dans mon complot, qui fout ses collègues au chômage puis qu'elle leur vole tous les clients Dans tes battles tu manques jamais de lui rendre hommage, mais dans le travail, ça serait brillant Car elle bosse, quand tu fais le taré ! Empoche ! des paies tarées Donc bosse, et paie ta raie ! t'sais quand tu boss et que vous êtes comme ça Tu parles de la longueur de ta bite ? Mais franchement La mienne est tellement grande que j'nique ta mère pendant que j'nique ta soeur pendant que j'nique ta fille pendant que j'me branle T'avais une brillante idée, d'après mes battles, t'as cru m'identifier Mais si mon crew et moi on fait toujours la même merde, c'est qu'on a ce petit truc si amplifié Ce petit truc que t'as toujours voulu avoir comme j'sais pas moi, une identité ? J'éviterais de parler de fist, de viol, de lui de sa femme J'vais pas critiquer ton flow, puisqu'il est bon, normal, c'est celui de Saïan Manque de pot, si tu cherches à imiter, au moins fais le bien J'ai ptet un manque de flow, mais mon manque de flow, au moins, c'est le mien Et vu que j'ai l'impression d'te faire chier, question conne Tu penses que c'est parce que tes phases sont recherchées, qu'elles sont bonnes ? Au fond, tes phases recherchées c'est juste pour feinter les gens Tu rajoutes du style inutile et futile, il a espoir que ça l'aide Rien ne sert de faire des phases intelligentes, le public est stupide il suffit de leur faire croire que ça l'est Et t'es de plus en plus ridicule, va au diable, toi et tes stupides patterns Technique parfaite quand l'inspi diminue salopard, le pire c'est que tu le dis toi même ! Parce que c'est vrai que reprendre le style d'Hermano pour battle Hermano, c'est de la folie, un génie ! Reprendre le style d'Hermano pour battle Louvar, c'est de la copie, un délit ! Et t'as bouclé une boucle, c'est bizarre vois-tu T'as battu Hermano qui a battu Louvar qui t'a battu, fils ça va plus Mais le battle c'est ça, c'est souvent grave abstrait Regarde moi j'ai bien battu Chilly Chill qui pourtant a gagné Si tu veux qu'ils t'aplaudissent comme des otaries T'avais à juste à venir avec un maillot d'Paris Mais moi, j'préfère encore me faire mettre par 3 gros africains, et puis même me taper un travelo brasilien, me nourrir exclusivement de terre genre des gâteaux Haïtiens, me faire racketter par 3 pédés ou un informaticien, quitte à me faire traiter de faggot autant me prendre un coup de baguette comme un châpeau de magicien, me faire humilier et pisser dessus par 4 soldats ricains, fumer l'équivalent d'un cargo de crack costaricain, me faire torturer à vie par un sadomaso-praticien, devenir une idole pour les ados à petits seins, faire 3 fois le tour du monde sur un radeau malien, que de porter ne serait-ce qu'une seconde votre foutu maillot parisien !5</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>On a déclaré que je suis un poète, moi, je fais des chansons. Je ne sais pas si je suis poète, il est possible que je l'sois un p'tit peu, m'enfin, peu m'importe je mélange des paroles et d'la musique... Au réveil, c'est du Brassens quand j'émerge encore loin des gens Ça met trois claques au sommeil, puis ça démarre intelligent Parce que, Brassens, c'est du pain chaud sur lequel tu mets du miel Ça sent l'café expresso comme un XXX essentiel Une fois les neurones bien secoués, c'est l'heure du réveil musculaire Après la douche, c'est NTM qui fait bouger mes maxillaires C'est l'heure de s'remplir d'énergie pour la journée et ses coups bas C'est l'heure du flow et des gros bras, et s'rappeler aussi que je viens d'là Quand j'prends l'volant sur l'périph', faut que j'continue la série Du gros son sur chaque texte, alors c'est l'heure de Kery Car c'est la bande originale du paysage tout autour Le bitume prend l'micro quand j'suis à Porte de Clignancourt À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Midi c'est l'repos du guerrier, la pause du dragon Et la lumière qui s'épaissit, et Ferrat qui chante Aragon Des mots tranchant et la voix chaude, quand le feu rejoint l'eau Le soleil est juste au-d'ssus, y'a aucune ombre au tableau À l'heure du dessert, c'est évident, c'est Aznavour Les p'tits plats sont dans les grands, y'a l'gâteau qui sort du four Un repas sans dessert, c'est une compil' sans La Bohème L'institution dans l'élégance, des profiteroles avec la crème Quinze heure trente plein soleil, j'veux du solide, pas du frêle C'est bien l'heure du grandiose, du spacieux, c'est du Brel La poésie qui s'envole et t'emporte en un instant À Vesoul, à Amsterdam, avec Mathilde et à mille temps You might also like À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Quand le soleil part à reculons, c'est p't-être mon moment préféré Une atmosphère comme du coton, et la lumière un peu biaisée C'est l'heure de tous les états d'âme où je ressens le poids de chaque mot C'est l'bon climat, messieurs-dames, pour pouvoir écouter Renaud Renaud, c'est la tempête dans la douleur du crépuscule C'est un cur de moineau dans la poitrine d'Hercule C'est la rage et la tendresse, il y a trente ans, il a écrit Des trucs qui, chaque jour, m'aident à comprendre c'que j'fous ici Et, lors du règne de la nuit, quand la lumière s'habille en noir Et pour trouver l'accord parfait entre quiétude et cafard Il nous restera ça, le corps caché sous les draps Une enceinte au bout des doigts qui fait chanter Barbara À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes</t>
+          <t>On a déclaré que je suis un poète, moi, je fais des chansons. Je ne sais pas si je suis poète, il est possible que je l'sois un p'tit peu, m'enfin, peu m'importe je mélange des paroles et d'la musique... Au réveil, c'est du Brassens quand j'émerge encore loin des gens Ça met trois claques au sommeil, puis ça démarre intelligent Parce que, Brassens, c'est du pain chaud sur lequel tu mets du miel Ça sent l'café expresso comme un XXX essentiel Une fois les neurones bien secoués, c'est l'heure du réveil musculaire Après la douche, c'est NTM qui fait bouger mes maxillaires C'est l'heure de s'remplir d'énergie pour la journée et ses coups bas C'est l'heure du flow et des gros bras, et s'rappeler aussi que je viens d'là Quand j'prends l'volant sur l'périph', faut que j'continue la série Du gros son sur chaque texte, alors c'est l'heure de Kery Car c'est la bande originale du paysage tout autour Le bitume prend l'micro quand j'suis à Porte de Clignancourt À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Midi c'est l'repos du guerrier, la pause du dragon Et la lumière qui s'épaissit, et Ferrat qui chante Aragon Des mots tranchant et la voix chaude, quand le feu rejoint l'eau Le soleil est juste au-d'ssus, y'a aucune ombre au tableau À l'heure du dessert, c'est évident, c'est Aznavour Les p'tits plats sont dans les grands, y'a l'gâteau qui sort du four Un repas sans dessert, c'est une compil' sans La Bohème L'institution dans l'élégance, des profiteroles avec la crème Quinze heure trente plein soleil, j'veux du solide, pas du frêle C'est bien l'heure du grandiose, du spacieux, c'est du Brel La poésie qui s'envole et t'emporte en un instant À Vesoul, à Amsterdam, avec Mathilde et à mille temps À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Quand le soleil part à reculons, c'est p't-être mon moment préféré Une atmosphère comme du coton, et la lumière un peu biaisée C'est l'heure de tous les états d'âme où je ressens le poids de chaque mot C'est l'bon climat, messieurs-dames, pour pouvoir écouter Renaud Renaud, c'est la tempête dans la douleur du crépuscule C'est un cur de moineau dans la poitrine d'Hercule C'est la rage et la tendresse, il y a trente ans, il a écrit Des trucs qui, chaque jour, m'aident à comprendre c'que j'fous ici Et, lors du règne de la nuit, quand la lumière s'habille en noir Et pour trouver l'accord parfait entre quiétude et cafard Il nous restera ça, le corps caché sous les draps Une enceinte au bout des doigts qui fait chanter Barbara À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Est-ce que c'est de la patience ou est-ce qu'on sait faire le dos rond Est-ce que c'est l'expérience que nous ont enseigné nos darons Mais ce qu'on a tous compris c'est que la vie repose toujours Sur l'enchaînement des opposés, après chaque nuit il va faire jour Partant de cette évidence ou d'une volontaire naïveté On sait qu'après chaque inquiétude viendra l'instant de sérénité Comme si à l'échelle d'une vie les choses devaient s'équilibrer Après l'orage les éclaircies, aucun ciel ne reste encombré Alors on s'est imprégné de cette capacité d'adaptation Pour encaisser les coups on a su entrer en mode mission On sait que les tunnels ont une fin dans chaque moment de lucidité Et que nos efforts ne sont pas vains quand la vie passe à l'heure d'été Summertime and the living is easy Fish are jumping and the cotton is high Oh, your daddy's rich and your ma' is good looking So hush little baby, don't you cry J'ai eu pas mal de patience et j'ai dû faire le dos rond Pour traverser en silence toutes mes journées peintes en marron J'ai gardé l'envie de croire ou j'ai toujours cru à l'envie J'ai refusé de concevoir un présent cruel à vie You might also likeComme le destin doit être aidé, j'ai avancé l'aiguille d'un tour Je suis passé à l'heure d'été pour aller rejouer dans la cour Comme le boxeur après le gong et le taulard après dix ans Comme le civil après les bombes, après la lutte on est vivant Vivant pour sentir le soleil, la nuit tombe de plus en plus tard Et y a de la lumière de plus en plus longtemps dans nos espoirs C'est vrai qu'on a passé l'hiver à donner des grands coups d'épée Dorénavant la route est claire, on est passé à l'heure d'été One of these mornings, you're gonna rise up singing Then you'll spread your wings and you'll take to the sky But till that morning there's nothing can harm you With daddy and mommy standing by With daddy and mommy standing by</t>
+          <t>Est-ce que c'est de la patience ou est-ce qu'on sait faire le dos rond Est-ce que c'est l'expérience que nous ont enseigné nos darons Mais ce qu'on a tous compris c'est que la vie repose toujours Sur l'enchaînement des opposés, après chaque nuit il va faire jour Partant de cette évidence ou d'une volontaire naïveté On sait qu'après chaque inquiétude viendra l'instant de sérénité Comme si à l'échelle d'une vie les choses devaient s'équilibrer Après l'orage les éclaircies, aucun ciel ne reste encombré Alors on s'est imprégné de cette capacité d'adaptation Pour encaisser les coups on a su entrer en mode mission On sait que les tunnels ont une fin dans chaque moment de lucidité Et que nos efforts ne sont pas vains quand la vie passe à l'heure d'été Summertime and the living is easy Fish are jumping and the cotton is high Oh, your daddy's rich and your ma' is good looking So hush little baby, don't you cry J'ai eu pas mal de patience et j'ai dû faire le dos rond Pour traverser en silence toutes mes journées peintes en marron J'ai gardé l'envie de croire ou j'ai toujours cru à l'envie J'ai refusé de concevoir un présent cruel à vie Comme le destin doit être aidé, j'ai avancé l'aiguille d'un tour Je suis passé à l'heure d'été pour aller rejouer dans la cour Comme le boxeur après le gong et le taulard après dix ans Comme le civil après les bombes, après la lutte on est vivant Vivant pour sentir le soleil, la nuit tombe de plus en plus tard Et y a de la lumière de plus en plus longtemps dans nos espoirs C'est vrai qu'on a passé l'hiver à donner des grands coups d'épée Dorénavant la route est claire, on est passé à l'heure d'été One of these mornings, you're gonna rise up singing Then you'll spread your wings and you'll take to the sky But till that morning there's nothing can harm you With daddy and mommy standing by With daddy and mommy standing by</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Elle coule des larmes, elle fait des heureux Ecris en gros sont nos valeurs Elle brise les femmes, elle fauche les hommes On garde espoir, y a pire ailleurs Et depuis peu, elle est en deuil Elle se fait rare, jamais à l'heure Et les problèmes ne viennent pas seuls Perdue de vue, elle a pris peur Plus d'une fois, on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on la maquillée Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Tous les plus grands poètes ont écrit son nom Les hommes ont cherché la lumière en suivant son ombre Certains sont morts pour la sauver, combien de tombes fleuries Certains attendent de la retrouver dans une cellule à Fleury On a aimé l'honorer, la chanter et la peindre On croit toujours en manquer, j'entends trop de monde se plaindre Ceux qui l'ont vraiment perdue attendent le compte à rebours As-tu déjà entendu parler du peuple ouïghour Avec ses petites surs, égalité, fraternité Elle chante parmi les cris pour rester une réalité Pour rester vibrante et espérer un avenir triomphant Pour rester vivante à l'avenir pour nos enfants You might also likeLibérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté Je vois ses bras qui s'ouvrent Ses charmes et ses promesses nous ont rendus naïfs Elle nous a rendus oufs Que pour un peu d'amour, ça se change en manif Dis-moi ce que tu lui trouves Certains lui font la cour ou bien d'autres la sifflent Frérot si tu la retrouves C'est tout simple s'il te plaît, dis-lui jusqu'qu'on la kiffe Plus d'une fois on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on l'a maquillée Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté</t>
+          <t>Elle coule des larmes, elle fait des heureux Ecris en gros sont nos valeurs Elle brise les femmes, elle fauche les hommes On garde espoir, y a pire ailleurs Et depuis peu, elle est en deuil Elle se fait rare, jamais à l'heure Et les problèmes ne viennent pas seuls Perdue de vue, elle a pris peur Plus d'une fois, on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on la maquillée Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Tous les plus grands poètes ont écrit son nom Les hommes ont cherché la lumière en suivant son ombre Certains sont morts pour la sauver, combien de tombes fleuries Certains attendent de la retrouver dans une cellule à Fleury On a aimé l'honorer, la chanter et la peindre On croit toujours en manquer, j'entends trop de monde se plaindre Ceux qui l'ont vraiment perdue attendent le compte à rebours As-tu déjà entendu parler du peuple ouïghour Avec ses petites surs, égalité, fraternité Elle chante parmi les cris pour rester une réalité Pour rester vibrante et espérer un avenir triomphant Pour rester vivante à l'avenir pour nos enfants Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté Je vois ses bras qui s'ouvrent Ses charmes et ses promesses nous ont rendus naïfs Elle nous a rendus oufs Que pour un peu d'amour, ça se change en manif Dis-moi ce que tu lui trouves Certains lui font la cour ou bien d'autres la sifflent Frérot si tu la retrouves C'est tout simple s'il te plaît, dis-lui jusqu'qu'on la kiffe Plus d'une fois on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on l'a maquillée Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Été mille huit cent soixante-huit, quelque part dans l'Grand Ouest Il a sauté sur son cheval pour disparaître en un geste La porte du saloon claque encore dehors, le vent fouette la poussière Lui, il galope vers son sort sans jamais regarder derrière Est-ce qu'il cherche ou est-ce qu'il fuit ? Est-il sûr ou incertain ? Est-ce qu'il tente de rattraper ou d'échapper à son destin ? A quoi ressemble son avenir ? Une évidence ou un mystère ? Il se fabrique un empire, il est fait d'ombre ou de lumière De l'ombre ou de la lumière Lequel des deux nous éclaire ? Je marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers C'est l'hiver en deux mille huit, quelque part à Paris J'ai démarré la voiture pour échapper à ce temps pourri La porte du café tremble encore dehors, la pluie fouette le bitume A chacun sa ruée vers l'or, j'accélère à travers la brume Puisque mon temps est limité, mes choix doivent être à la hauteur C'est une course contre la montre ou une course contre la peur C'est toujours la même chevauchée, on vise la lueur droit devant Même si cette quête est insensée, je cours pour me sentir vivant You might also like De l'ombre ou de la lumière Lequel des deux nous éclaire ? On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers On court à travers les siècles, mais c'est toujours la même chevauchée As-tu peur que la route s'achève ? Mais cette course est insensée As-tu mis un nom sur toutes les lèvres... les lèvres ? De l'ombre ou de la lumière Des astres qui nous éclairent On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps qu'on espère Retrouver dans un sourire Toutes les lois de l'univers Retrouver dans un sourire Toutes les lois de l'univers</t>
+          <t>Été mille huit cent soixante-huit, quelque part dans l'Grand Ouest Il a sauté sur son cheval pour disparaître en un geste La porte du saloon claque encore dehors, le vent fouette la poussière Lui, il galope vers son sort sans jamais regarder derrière Est-ce qu'il cherche ou est-ce qu'il fuit ? Est-il sûr ou incertain ? Est-ce qu'il tente de rattraper ou d'échapper à son destin ? A quoi ressemble son avenir ? Une évidence ou un mystère ? Il se fabrique un empire, il est fait d'ombre ou de lumière De l'ombre ou de la lumière Lequel des deux nous éclaire ? Je marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers C'est l'hiver en deux mille huit, quelque part à Paris J'ai démarré la voiture pour échapper à ce temps pourri La porte du café tremble encore dehors, la pluie fouette le bitume A chacun sa ruée vers l'or, j'accélère à travers la brume Puisque mon temps est limité, mes choix doivent être à la hauteur C'est une course contre la montre ou une course contre la peur C'est toujours la même chevauchée, on vise la lueur droit devant Même si cette quête est insensée, je cours pour me sentir vivant De l'ombre ou de la lumière Lequel des deux nous éclaire ? On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers On court à travers les siècles, mais c'est toujours la même chevauchée As-tu peur que la route s'achève ? Mais cette course est insensée As-tu mis un nom sur toutes les lèvres... les lèvres ? De l'ombre ou de la lumière Des astres qui nous éclairent On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps qu'on espère Retrouver dans un sourire Toutes les lois de l'univers Retrouver dans un sourire Toutes les lois de l'univers</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Monsieur le président ou madame la présidente À l'heure ou je vous écris d'une main impatiente Je n'connais pas votre nom, je n'connais pas votre camp Mais permettez-moi ce message ça ne prendra pas longtemps Je veux d'abord vous adresser toutes mes félicitations Vous venez de remporter la plus belle des élections Vous avez du batailler dur pour en arriver là Donnez quelques mauvais coup et encaisser les coups bas Mais si vous avez atteint la plus haute des fonctions J'espère que ce n'est pas pour votre unique ambition Mais bien pour essayer et par tous les moyens De rendre une vie meilleure pour tout vos citoyens Car vous l'savez mieux que moi le plus dur est à venir Vous avez fait des promesse Il va falloir les tenir Des gens ont voté pour vous une belle majorité Ne pas les décevoir sera la priorité C'est que malgré tous ce qu'on dit notre pays on l'aime On oublie pas la chance qu'on a mais on voit bien les problèmes Et c'est parce qu'on aime la France qu'on se doit d'être exigeant Si vous voulez notre confiance on ne pourra pas être indulgent Bien sur on vous attend pour que vous vous penchiez sur le cas De ceux qui souffrent, de ceux qui luttent De tous ces gens qu'on entend pas Si vous vous montrez solidaire c'est tout le pays qui va vous suivre Un pays qui tend la main est tellement plus beau à vivre You might also likeEt si vous construisez l'avenir en vous occupant des enfants On fera tous le même espoir de devenir fort en devenant grand Il parait que sur le drapeau il y a le mot égalité C'est peut-être avec ce mot que vous gagnerez notre respect On vous demande aussi de la franchise et un peu de sincérité Tans pis s'il y a moins de rêve au moins il y aura de la vérité Ce serait bien que pour une fois on prenne le peuple au sérieux Là-dessus vu vos prédécesseurs vous n'pourrez faire que mieux Et si vous pouviez aussi agir sur l'ambiance générale Moins de regard de travers et une France plus conviviale Toutes nos petites différences est une richesse à sauvegarder Un pays multicolore est tellement plus beau à regarder Ayez la culture de l'humain plutôt que la culture du chiffre Ayez la culture de demain en misant sur l'altruisme Il parait que sur le drapeau il y a le mot fraternité C'est peut-être avec ce mot que vous ferez notre fierté Écrire au président ça pourrait paraitre pompeux Mais c'est pour que vous sachiez qu'on a envie d'y croire un peu Croire que ça peut marcher même si souvent on a des doutes Croire que ça peut changer parce que là on fait fausse route Monsieur le président ou madame la présidente Si je vous écris cette lettre d'une main exigeante C'est que vous êtes au sommet et franchement c'est la classe Mais laissez-moi vous dire que j'aimerais pas être à votre place Ça doit chaud c'est juste du stress et de la pression à haute dose Et tous ces gens qui vous écrivent alors qu'ils connaissent pas grand chose Quoi qu'il en soit moi je suis sincère dans ces remarques que je vous lance Maintenant c'est à vous de faire, la France vous regarde Alors bonne chance</t>
+          <t>Monsieur le président ou madame la présidente À l'heure ou je vous écris d'une main impatiente Je n'connais pas votre nom, je n'connais pas votre camp Mais permettez-moi ce message ça ne prendra pas longtemps Je veux d'abord vous adresser toutes mes félicitations Vous venez de remporter la plus belle des élections Vous avez du batailler dur pour en arriver là Donnez quelques mauvais coup et encaisser les coups bas Mais si vous avez atteint la plus haute des fonctions J'espère que ce n'est pas pour votre unique ambition Mais bien pour essayer et par tous les moyens De rendre une vie meilleure pour tout vos citoyens Car vous l'savez mieux que moi le plus dur est à venir Vous avez fait des promesse Il va falloir les tenir Des gens ont voté pour vous une belle majorité Ne pas les décevoir sera la priorité C'est que malgré tous ce qu'on dit notre pays on l'aime On oublie pas la chance qu'on a mais on voit bien les problèmes Et c'est parce qu'on aime la France qu'on se doit d'être exigeant Si vous voulez notre confiance on ne pourra pas être indulgent Bien sur on vous attend pour que vous vous penchiez sur le cas De ceux qui souffrent, de ceux qui luttent De tous ces gens qu'on entend pas Si vous vous montrez solidaire c'est tout le pays qui va vous suivre Un pays qui tend la main est tellement plus beau à vivre Et si vous construisez l'avenir en vous occupant des enfants On fera tous le même espoir de devenir fort en devenant grand Il parait que sur le drapeau il y a le mot égalité C'est peut-être avec ce mot que vous gagnerez notre respect On vous demande aussi de la franchise et un peu de sincérité Tans pis s'il y a moins de rêve au moins il y aura de la vérité Ce serait bien que pour une fois on prenne le peuple au sérieux Là-dessus vu vos prédécesseurs vous n'pourrez faire que mieux Et si vous pouviez aussi agir sur l'ambiance générale Moins de regard de travers et une France plus conviviale Toutes nos petites différences est une richesse à sauvegarder Un pays multicolore est tellement plus beau à regarder Ayez la culture de l'humain plutôt que la culture du chiffre Ayez la culture de demain en misant sur l'altruisme Il parait que sur le drapeau il y a le mot fraternité C'est peut-être avec ce mot que vous ferez notre fierté Écrire au président ça pourrait paraitre pompeux Mais c'est pour que vous sachiez qu'on a envie d'y croire un peu Croire que ça peut marcher même si souvent on a des doutes Croire que ça peut changer parce que là on fait fausse route Monsieur le président ou madame la présidente Si je vous écris cette lettre d'une main exigeante C'est que vous êtes au sommet et franchement c'est la classe Mais laissez-moi vous dire que j'aimerais pas être à votre place Ça doit chaud c'est juste du stress et de la pression à haute dose Et tous ces gens qui vous écrivent alors qu'ils connaissent pas grand chose Quoi qu'il en soit moi je suis sincère dans ces remarques que je vous lance Maintenant c'est à vous de faire, la France vous regarde Alors bonne chance</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Le corps humain est un royaume ou chaque organe veut être le roi Il y a chez l'homme 3 leaders qui essayent d'imposer leur loi Cette lutte permanente est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le coeur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si un jour on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le coeur, les couilles discutent mais ils sont jamais d'accords Mon coeur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien pé-cho cette brune Mais y'en a une qui veut pas, putain ma tête me casse les burnes Ma tête a dit a mon coeur qu'elle s'en battait les couilles Si mes couilles avaient mal au coeur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'coeur Et comme mon coeur n'a pas d'couilles, ma tête n'est pas prête d'avoir peur Moi mes couilles sont têtes en l'air et ont un coeur d'artichot Et quand mon coeur perd la tête, mes couilles restent bien au chaud Et si ma tête part en couilles, pour mon coeur c'est la défaite J'connais cette histoire par coeur, elle n'a ni queue ni tête Moi les femmes j'les crains, autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi chez moi c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterais sous l'contrôle d'ma tête, mon coeur et mes couillesYou might also like</t>
+          <t>Le corps humain est un royaume ou chaque organe veut être le roi Il y a chez l'homme 3 leaders qui essayent d'imposer leur loi Cette lutte permanente est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le coeur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si un jour on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le coeur, les couilles discutent mais ils sont jamais d'accords Mon coeur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien pé-cho cette brune Mais y'en a une qui veut pas, putain ma tête me casse les burnes Ma tête a dit a mon coeur qu'elle s'en battait les couilles Si mes couilles avaient mal au coeur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'coeur Et comme mon coeur n'a pas d'couilles, ma tête n'est pas prête d'avoir peur Moi mes couilles sont têtes en l'air et ont un coeur d'artichot Et quand mon coeur perd la tête, mes couilles restent bien au chaud Et si ma tête part en couilles, pour mon coeur c'est la défaite J'connais cette histoire par coeur, elle n'a ni queue ni tête Moi les femmes j'les crains, autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi chez moi c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterais sous l'contrôle d'ma tête, mon coeur et mes couilles</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L'album est presque bouclé, c'est l'dernier jour de mix J'arrive au studio pressé, fredonne quelques lyrics Derrière la console Johnny l'ingé son prit par son absence On a kidnappé XXX tout ça n'a pas de sens Le mec du studio en sueur me dit qu'il a tout vu 3 gars cagoulés viennent de s'enfuir dans la rue Ils ont relâché XXX ils voulaient pas prendre de risques Mais ils ont volé les bandes, ils ont gardé mon disque J'remonte dans ma caisse direct, je dois les retrouver Mais ma voiture est fané, les quatre roues sont crevées Quelqu'un m'en veux c'est trop fort, j'vais pas courber l'échine J'ai besoin d'un peu de renfort et j'appelle Jean-Rachid Puis j'appelle d'autres potos, Fad et son taxi-moto Un texto a presto car il nous faut du costaud Mais mon forfait peut respirer, pas le temps de le consommer J'reçois un coup derrière la tête et je tombe assommé C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve You might also like J'me réveil attaché à l'arrière d'une grosse voiture J'ai un mal de crâne digne de ma plus belle biture J'essai de voir où on est par les vitres de la Merco Et sur les murs les signatures de mon ami Marko On est donc en banlieue nord, j'ai vu plusieurs indices Et sur les joues du chauffeur y a une grande cicatrice C'est qui ces types, qu'es-ce qu'ils veulent ? Des ennemies j'm'en connais pas A part éventuellement des journalistes de Télérama J'saute de la voiture en marche au niveau d'Porte de Paris Roulé-boulé sur six cents mètres jusqu'à la gendarmerie J'rentre en trombe dans le comico faut qu'j'parle à la police Mais sur la joue de l'inspecteur y a une grande cicatrice J'suis piégé dans la matrice, moi qui croyait les semer J'reçois un coup derrière la tête et je tombe assommé J'écoute encore un peu c'qui se passe dans mon esprit zombie Et d'un coup les derniers mots qu'je capte, ça parle de Colombie C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve Aéroport de Bogota pas très au top, les yeux qui piquent J'émerge en dix minutes et je découvre que j'suis dans le cockpit J'comprend rien y a trop de phases, trop d'bruits, trop d'mots J'ai l'impression d'être plongé dans un vieux délire d'Oxmo Le mec à la cicatrice me dit de passer devant En bas des marches de l'avion une voiture nous attend Escobar n'est pas mort, c'est ce que le gars m'explique Et le cartel de Medellín veut se mettre à la musique On arrive dans une grande tour, je suis pas le seul otage Y a Kery James et Cabrel qui vivent à mon étage Calogero, Aznavour, j'sais pas qui sera le prochain Y a même un cachot caché ou vit Olivier Cachin Soudain XXX entre dans ma loge et j'me réveille en sueur Y me dit que le concert commence dans un quart-d'heure Tout ça n'était qu'un cauchemar, ça y est je rentre en piste Mais y a un mec au premier rang qui a une grande cicatrice C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve</t>
+          <t>L'album est presque bouclé, c'est l'dernier jour de mix J'arrive au studio pressé, fredonne quelques lyrics Derrière la console Johnny l'ingé son prit par son absence On a kidnappé XXX tout ça n'a pas de sens Le mec du studio en sueur me dit qu'il a tout vu 3 gars cagoulés viennent de s'enfuir dans la rue Ils ont relâché XXX ils voulaient pas prendre de risques Mais ils ont volé les bandes, ils ont gardé mon disque J'remonte dans ma caisse direct, je dois les retrouver Mais ma voiture est fané, les quatre roues sont crevées Quelqu'un m'en veux c'est trop fort, j'vais pas courber l'échine J'ai besoin d'un peu de renfort et j'appelle Jean-Rachid Puis j'appelle d'autres potos, Fad et son taxi-moto Un texto a presto car il nous faut du costaud Mais mon forfait peut respirer, pas le temps de le consommer J'reçois un coup derrière la tête et je tombe assommé C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve J'me réveil attaché à l'arrière d'une grosse voiture J'ai un mal de crâne digne de ma plus belle biture J'essai de voir où on est par les vitres de la Merco Et sur les murs les signatures de mon ami Marko On est donc en banlieue nord, j'ai vu plusieurs indices Et sur les joues du chauffeur y a une grande cicatrice C'est qui ces types, qu'es-ce qu'ils veulent ? Des ennemies j'm'en connais pas A part éventuellement des journalistes de Télérama J'saute de la voiture en marche au niveau d'Porte de Paris Roulé-boulé sur six cents mètres jusqu'à la gendarmerie J'rentre en trombe dans le comico faut qu'j'parle à la police Mais sur la joue de l'inspecteur y a une grande cicatrice J'suis piégé dans la matrice, moi qui croyait les semer J'reçois un coup derrière la tête et je tombe assommé J'écoute encore un peu c'qui se passe dans mon esprit zombie Et d'un coup les derniers mots qu'je capte, ça parle de Colombie C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve Aéroport de Bogota pas très au top, les yeux qui piquent J'émerge en dix minutes et je découvre que j'suis dans le cockpit J'comprend rien y a trop de phases, trop d'bruits, trop d'mots J'ai l'impression d'être plongé dans un vieux délire d'Oxmo Le mec à la cicatrice me dit de passer devant En bas des marches de l'avion une voiture nous attend Escobar n'est pas mort, c'est ce que le gars m'explique Et le cartel de Medellín veut se mettre à la musique On arrive dans une grande tour, je suis pas le seul otage Y a Kery James et Cabrel qui vivent à mon étage Calogero, Aznavour, j'sais pas qui sera le prochain Y a même un cachot caché ou vit Olivier Cachin Soudain XXX entre dans ma loge et j'me réveille en sueur Y me dit que le concert commence dans un quart-d'heure Tout ça n'était qu'un cauchemar, ça y est je rentre en piste Mais y a un mec au premier rang qui a une grande cicatrice C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>S'il y a bien une idée qui rassemble, une pensée qu'est pas toute neuve C'est que quel que soit ton parcours, tu rencontres de belles épreuves La vie c'est Mister Hyde, pas seulement Docteur Jekyll J'ai vu le film depuis longtemps, la vie n'est pas un long fleuve tranquille T'as qu'à voir les réactions d'un nouveau né à l'hôpital S'il chiale si fort c'est qu'il comprend que souvent la vie va lui faire mal Y'a des rires, y'a des pleurs, y'a des bas, y'a des hauts Y'a des soleils et des orages et je te parle pas que de météo On vit dans un labyrinthe et y a des pièges à chaque virage À nous de les esquiver et de pas calculer les mirages Mais le destin est un farceur, on peut tomber à chaque instant Pour l'affronter, faut du cur, et, un mental de résistant J'ai des cicatrices plein la peau, et quelques unes dans mes souvenirs Y'a des rescapés partout, j'suis un exemple, ça va sans dire Ca doit se sentir, faut pas se mentir, la vie c'est aussi la guérison Après la foudre, prends toi en main et redessine ton horizon Y'a des tempêtes sans visage où on doit se battre contre le pire Personne n'y échappe Rouda c'est pas toi qui vas me contredire C'est l'ultime épreuve où tu affrontes la pire souffrance morale Quand la peine rejoint l'impuissance pour la plus triste des chorales J'ai vu des drames à cur ouvert j'ai vu des gens qui s'accrochent Ce qui est bien avec le drame, c'est que tu le partages avec tes proches Pour les miens il est peut-être l'heure de m'arrêter un court instant Pour les remercier d'avoir du cur et un mental de résistant You might also like La vie est aussi perverse, ce que tu désires elle l'a caché Elle te le donnera pas tout cuit il va falloir aller le chercher Du coup ce qu'on a, on le mérite, au hasard on a rien piqué Et si t'as pas compris, va voir mes potes ils vont t'expliquer Jacky, tu m'as dit que l'ascenseur social était bloqué Toi t'es allé chez Otis et le réparateur tu l'as braqué Sans craquer, sans rémission, t'as affronté de vraies missions Tu m'as montré qu'avoir du mental c'est aussi avoir de l'ambition Y'a pas de chemin facile, Brahim t'as rien demandé à personne T'as tout construit de tes mains et y'a pas que moi que tu impressionnes Toi Sami t'es notre moteur parce que tu sais depuis longtemps Que pour que ça chémar il faut du cur et un mental de résistant Je crois qu'on a tous une bonne étoile sauf que des fois elle est bien planquée Certaines même plus que d'autres, il faut aller les débusquer Parfois ça prend du temps quand tu fais trois fois le tour du ciel Mais si tu cherches c'est que tu avances, à mon avis c'est l'essentiel Je fais partie de ceux qui pensent qu'y a pas de barrière infranchissable Il faut y croire un peu, y'a bien des fleurs qui poussent dans le sable Et c'est quand tu te bats qu'il y a de belles victoires que tu peux arracher Comme se relever avec une moelle épinière en papier mâché Je n'apprends rien à personne, tu es vivant tu sais ce que c'est Vivre c'est accepter la douleur, les échecs et les décès Mais c'est aussi plein de bonheur, on va le trouver en insistant Et pour ça, faut du cur et un mental de résistant1</t>
+          <t>S'il y a bien une idée qui rassemble, une pensée qu'est pas toute neuve C'est que quel que soit ton parcours, tu rencontres de belles épreuves La vie c'est Mister Hyde, pas seulement Docteur Jekyll J'ai vu le film depuis longtemps, la vie n'est pas un long fleuve tranquille T'as qu'à voir les réactions d'un nouveau né à l'hôpital S'il chiale si fort c'est qu'il comprend que souvent la vie va lui faire mal Y'a des rires, y'a des pleurs, y'a des bas, y'a des hauts Y'a des soleils et des orages et je te parle pas que de météo On vit dans un labyrinthe et y a des pièges à chaque virage À nous de les esquiver et de pas calculer les mirages Mais le destin est un farceur, on peut tomber à chaque instant Pour l'affronter, faut du cur, et, un mental de résistant J'ai des cicatrices plein la peau, et quelques unes dans mes souvenirs Y'a des rescapés partout, j'suis un exemple, ça va sans dire Ca doit se sentir, faut pas se mentir, la vie c'est aussi la guérison Après la foudre, prends toi en main et redessine ton horizon Y'a des tempêtes sans visage où on doit se battre contre le pire Personne n'y échappe Rouda c'est pas toi qui vas me contredire C'est l'ultime épreuve où tu affrontes la pire souffrance morale Quand la peine rejoint l'impuissance pour la plus triste des chorales J'ai vu des drames à cur ouvert j'ai vu des gens qui s'accrochent Ce qui est bien avec le drame, c'est que tu le partages avec tes proches Pour les miens il est peut-être l'heure de m'arrêter un court instant Pour les remercier d'avoir du cur et un mental de résistant La vie est aussi perverse, ce que tu désires elle l'a caché Elle te le donnera pas tout cuit il va falloir aller le chercher Du coup ce qu'on a, on le mérite, au hasard on a rien piqué Et si t'as pas compris, va voir mes potes ils vont t'expliquer Jacky, tu m'as dit que l'ascenseur social était bloqué Toi t'es allé chez Otis et le réparateur tu l'as braqué Sans craquer, sans rémission, t'as affronté de vraies missions Tu m'as montré qu'avoir du mental c'est aussi avoir de l'ambition Y'a pas de chemin facile, Brahim t'as rien demandé à personne T'as tout construit de tes mains et y'a pas que moi que tu impressionnes Toi Sami t'es notre moteur parce que tu sais depuis longtemps Que pour que ça chémar il faut du cur et un mental de résistant Je crois qu'on a tous une bonne étoile sauf que des fois elle est bien planquée Certaines même plus que d'autres, il faut aller les débusquer Parfois ça prend du temps quand tu fais trois fois le tour du ciel Mais si tu cherches c'est que tu avances, à mon avis c'est l'essentiel Je fais partie de ceux qui pensent qu'y a pas de barrière infranchissable Il faut y croire un peu, y'a bien des fleurs qui poussent dans le sable Et c'est quand tu te bats qu'il y a de belles victoires que tu peux arracher Comme se relever avec une moelle épinière en papier mâché Je n'apprends rien à personne, tu es vivant tu sais ce que c'est Vivre c'est accepter la douleur, les échecs et les décès Mais c'est aussi plein de bonheur, on va le trouver en insistant Et pour ça, faut du cur et un mental de résistant1</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Même si c'est tentant De fuir le présent S'il te plaît, ouvre les yeux Regarde devant Va où va le vent Et après, fais de ton mieux Prisonnier du doute, pas vraiment du passé Trop d'ombre sur la route, je vois plus les tracés Et j'me rappelle en folie mon panel de prolos J'ai la mélancolie du bordel en colo' Rire de tous nos sens, et des heures à vanner Insolente innocence de mes plus belles années Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Un passé composé d'évènements imparfaits Un passé pas si simple, des sourires en trophées Puis, la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur You might also like Oh, oh, pour rire droit devant Y croire sans faire semblant Dessiner d'après autrement Je rêve de nos étreintes De la lumière sur ces sourires éteints Se retrouver plus fort, ne faire qu'un Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend J'ai peaufiné l'histoire, déconfiné l'espoir Pour continuer d'y croire, je t'envoie un faire-part Le faire-part du mariage entre nostalgie et destin Quand l'un nourrit l'autre, faire du futur un festin Je veux retrouver l'attrait de notre vie d'après Il est temps d'entamer Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir... Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Où sont passées ? Où sont passées ? Où sont passées ? Puis la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur</t>
+          <t>Même si c'est tentant De fuir le présent S'il te plaît, ouvre les yeux Regarde devant Va où va le vent Et après, fais de ton mieux Prisonnier du doute, pas vraiment du passé Trop d'ombre sur la route, je vois plus les tracés Et j'me rappelle en folie mon panel de prolos J'ai la mélancolie du bordel en colo' Rire de tous nos sens, et des heures à vanner Insolente innocence de mes plus belles années Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Un passé composé d'évènements imparfaits Un passé pas si simple, des sourires en trophées Puis, la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur Oh, oh, pour rire droit devant Y croire sans faire semblant Dessiner d'après autrement Je rêve de nos étreintes De la lumière sur ces sourires éteints Se retrouver plus fort, ne faire qu'un Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend J'ai peaufiné l'histoire, déconfiné l'espoir Pour continuer d'y croire, je t'envoie un faire-part Le faire-part du mariage entre nostalgie et destin Quand l'un nourrit l'autre, faire du futur un festin Je veux retrouver l'attrait de notre vie d'après Il est temps d'entamer Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir... Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Où sont passées ? Où sont passées ? Où sont passées ? Puis la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche You might also like Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
+          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé Cette histoire, je donnerais tout pour connaître son origine exacteT'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10 ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! You might also like J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au cur des quartiers historiques J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là-bas avaient étrangement perdu la mémoire Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains mais en vain J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
+          <t>Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé Cette histoire, je donnerais tout pour connaître son origine exacteT'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10 ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au cur des quartiers historiques J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là-bas avaient étrangement perdu la mémoire Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains mais en vain J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rouda Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte GCM C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage Rouda C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral GCM C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Rouda Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé GCM Cette histoire, je donnerais tout pour connaître son origine exacte T'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte You might also likeRouda Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère GCM Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! Rouda J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au coeur des quartiers historiques GCM J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là -bas avaient étrangement perdu la mémoire Rouda Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours GCM J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains... mais en vain GCM Rouda J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
+          <t>Rouda Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte GCM C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage Rouda C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral GCM C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Rouda Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé GCM Cette histoire, je donnerais tout pour connaître son origine exacte T'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Rouda Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère GCM Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! Rouda J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au coeur des quartiers historiques GCM J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là -bas avaient étrangement perdu la mémoire Rouda Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours GCM J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains... mais en vain GCM Rouda J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>J'vais sortir de chez moi et marcher dehors M'arrêter un instant, regarder l'ciel Le soleil, sur les toits, posera ses reflets d'or J'vais kiffer voir ça, vu qu'c'est pas essentiel J'vais m'asseoir sur un banc, cinq minutes avec moi Regarder les gens, renaître au pluriel J'vais parler en silence et sourire à haute voix J'peux faire ça longtemps, vu qu'c'est pas ssentiel J'aurais envi d'une B.O. sur mon film du jour Alors j'vais mettre du son dans mes deux oreilles J'ai les poches pleines de mains et les yeux pleins d'amour C'est un moment important, vu qu'c'est pas essentiel Pas essentiel Pas essentiel Pas essentiel ... Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... You might also like Pas essentiel Pas essentiel Pas essentiel ... Après quelques mois sans beaucoup d'couleurs Confinement noir et blanc, délivrance arc-en-ciel J'vais offrir des chansons, des sourires et des fleurs J'en aurai plein les mains, vu qu'c'est pas essentiel J'vais aller trinquer avec les premiers v'nus Si, pour faire la fête, j'sens un bon potentiel Avec la famille, les potes et des inconnus On va lever notre verre à c'qu'est non-essentiel Puisque la vie est succession de superflus Soyons super fous et superficiels Protégeons l'futile et, sur ce, je conclus N'écoutez pas cette chanson, elle est pas essentielle Pas essentiel Pas essentiel Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Pas essentiel Pas essentiel Pas essentiel Pas essentiel</t>
+          <t>J'vais sortir de chez moi et marcher dehors M'arrêter un instant, regarder l'ciel Le soleil, sur les toits, posera ses reflets d'or J'vais kiffer voir ça, vu qu'c'est pas essentiel J'vais m'asseoir sur un banc, cinq minutes avec moi Regarder les gens, renaître au pluriel J'vais parler en silence et sourire à haute voix J'peux faire ça longtemps, vu qu'c'est pas ssentiel J'aurais envi d'une B.O. sur mon film du jour Alors j'vais mettre du son dans mes deux oreilles J'ai les poches pleines de mains et les yeux pleins d'amour C'est un moment important, vu qu'c'est pas essentiel Pas essentiel Pas essentiel Pas essentiel ... Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Après quelques mois sans beaucoup d'couleurs Confinement noir et blanc, délivrance arc-en-ciel J'vais offrir des chansons, des sourires et des fleurs J'en aurai plein les mains, vu qu'c'est pas essentiel J'vais aller trinquer avec les premiers v'nus Si, pour faire la fête, j'sens un bon potentiel Avec la famille, les potes et des inconnus On va lever notre verre à c'qu'est non-essentiel Puisque la vie est succession de superflus Soyons super fous et superficiels Protégeons l'futile et, sur ce, je conclus N'écoutez pas cette chanson, elle est pas essentielle Pas essentiel Pas essentiel Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Pas essentiel Pas essentiel Pas essentiel Pas essentiel</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>- Met du sourire - J'met du sourire ? D't'façons j'pensent le mieux c'est d'la faire une fois comme ça - Vas-y, vas-y - Avec le cur quoi - Avec le cur, pour toi - Pour Patrick Je t'admire intensément, je suis ton parcours en secret Je veux t'écrire depuis longtemps et, cette année, je me sens prêt C'est pas facile, tu m'impressionnes par ton charisme et ton talent Tu parles fort, t'en fais des tonnes pour moi, c'est bien toi le plus grand Tu marches fièrement dans ta ville où tout l'monde te voit comme un roi Tu as rendu la vie plus belle pour ceux qui habitent Levallois Les entreprises viennent à la pelle, mais pas trop les logements sociaux Du coup, ta ville est bien plus belle c'est vrai que, les pauvres, c'est pas beau Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Depuis longtemps, tu sais très bien que la morale et la décence C'est pour les faibles, ça sert à rien toi, loin des scrupules, tu avances C'est prouvé c'est toi l'meilleur, t'as sur le dos et sur les bras Plus de mises en examen que ton ami Nicolas Blanchiment de fraude fiscale, et déclaration mensongère Corruption, Panama papers, j'oublie sûrement quelques affaires Toi, tu restes droit dans tes bottes, tête haute et grande gueule Tous ces juges, toi et tes potes, tu sais même pas ce qu'ils vous veulent You might also like Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Pour servir ton clientélisme, rien n'pourra jamais t'arrêter Tu t'en fous si, de toute la France, c'est ta ville la plus endettée J'me demande parfois qui sont ceux que tu tiens par les couilles Pour être encore en liberté après avoir mis tant de douilles Y'a plein de p'tits frères en prison pour des conneries, des p'tits trafics Toi, tu croules sous les affaires, mais t'es élu d'la république C'est bien grâce à des gens comme toi que j'ai confiance en mon pays En sa justice et en ses droits, vive la France et son mépris Et, si tu m'invites à chanter dans ton royaume, je veux bien venir J'prends pas d'cash j'veux être déclaré tu sais même pas c'que ça veut dire Mais je chanterai avec bonheur, avec ardeur à chaque instant Je chanterai pour toi, Patrick, car, pour moi, tu es le plus grand Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand - Si ça s'trouve on va le laisser comme ça - Hmm, c'est bien ça - On va le mettre comme ça ?</t>
+          <t>- Met du sourire - J'met du sourire ? D't'façons j'pensent le mieux c'est d'la faire une fois comme ça - Vas-y, vas-y - Avec le cur quoi - Avec le cur, pour toi - Pour Patrick Je t'admire intensément, je suis ton parcours en secret Je veux t'écrire depuis longtemps et, cette année, je me sens prêt C'est pas facile, tu m'impressionnes par ton charisme et ton talent Tu parles fort, t'en fais des tonnes pour moi, c'est bien toi le plus grand Tu marches fièrement dans ta ville où tout l'monde te voit comme un roi Tu as rendu la vie plus belle pour ceux qui habitent Levallois Les entreprises viennent à la pelle, mais pas trop les logements sociaux Du coup, ta ville est bien plus belle c'est vrai que, les pauvres, c'est pas beau Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Depuis longtemps, tu sais très bien que la morale et la décence C'est pour les faibles, ça sert à rien toi, loin des scrupules, tu avances C'est prouvé c'est toi l'meilleur, t'as sur le dos et sur les bras Plus de mises en examen que ton ami Nicolas Blanchiment de fraude fiscale, et déclaration mensongère Corruption, Panama papers, j'oublie sûrement quelques affaires Toi, tu restes droit dans tes bottes, tête haute et grande gueule Tous ces juges, toi et tes potes, tu sais même pas ce qu'ils vous veulent Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Pour servir ton clientélisme, rien n'pourra jamais t'arrêter Tu t'en fous si, de toute la France, c'est ta ville la plus endettée J'me demande parfois qui sont ceux que tu tiens par les couilles Pour être encore en liberté après avoir mis tant de douilles Y'a plein de p'tits frères en prison pour des conneries, des p'tits trafics Toi, tu croules sous les affaires, mais t'es élu d'la république C'est bien grâce à des gens comme toi que j'ai confiance en mon pays En sa justice et en ses droits, vive la France et son mépris Et, si tu m'invites à chanter dans ton royaume, je veux bien venir J'prends pas d'cash j'veux être déclaré tu sais même pas c'que ça veut dire Mais je chanterai avec bonheur, avec ardeur à chaque instant Je chanterai pour toi, Patrick, car, pour moi, tu es le plus grand Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand - Si ça s'trouve on va le laisser comme ça - Hmm, c'est bien ça - On va le mettre comme ça ?</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Jaime bien la terrasse des cafés quand le soleil sourit Jaime bien aussi la table du fond dans un petit bar pourri Jaime bien lever mon verre juste en lhonneur de linstant Trinquer avec des inconnus quand personne ne mattend Jaime bien conduire le soir au moment où la nuit samorce Jaime bien les paysages quand le soleil perd de la force Létrange humeur maussade, le crépuscule dans le ventre Observer les détails quand chaque minute se réinvente Jaime bien linstant précis où gentiment la pluie sarrête Où léclaircie sapprête, où on peut relever la tête Regarder devant soi et sétonner de voir plus loin Imaginer lavenir au moins jusquà demain matin Jaime bien regarder la vue, prendre un peu de hauteur Prendre le temps, prendre du recul, prendre les choses moins à cur Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Pause Jaime bien me souvenir, jaime bien parler davant Jaime bien la nostalgie, ça me fait me sentir vivant Jaime bien sentir le froid, jaime bien ouvrir les vitres Jaime bien le temps qui passe quand il ne passe pas trop vite Jaime voir vivre les gens, les sereins et les stressés Ceux qui prennent tout leur temps et ceux qui jouent les pressés Jaime appartenir à tous ces mouvements dhumeur Être au cur de la foule et me sentir à lextérieur Jaime bien la ville la nuit, quand tu crois quelle est belle Voir le monde à la merci de sa réalité parallèle Toute la foule des fantasmes et des rencontres pas nettes Jaime bien les faces B, effleurer lautre planète Jaime bien rêver dautres vies et mavancer vers elles Y repenser pour comprendre ce que rêver révèle Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir You might also like Jaime les a priori pour quils soient vite dépassés Jaime bien les convictions quand elles se sentent menacées Jaime sentir la fragilité dans certaines attitudes Jaime bien les êtres humains qui nont pas trop de certitudes Jaime bien garder le silence face à ceux qui parlent fort Jaime la nonchalance, jaime gérer mes efforts Jaime bien écrire la nuit, au cur de son ventre mou Jaime bien parler tout seul mais ça, ça reste entre nous Jaime bien ces soirées qui nont plus envie de sarrêter Quelques âmes autour dune table à bavarder et profiter De senfoncer dans la nuit, sans retenue, sans excès On oublie presque quon est bien, on refait le monde sans succès Jaime bien voir le soir, le sentir entre chien et loup Flirter avec le cafard, me sentir entre rien et tout Jaime bien aussi faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir1</t>
+          <t>Jaime bien la terrasse des cafés quand le soleil sourit Jaime bien aussi la table du fond dans un petit bar pourri Jaime bien lever mon verre juste en lhonneur de linstant Trinquer avec des inconnus quand personne ne mattend Jaime bien conduire le soir au moment où la nuit samorce Jaime bien les paysages quand le soleil perd de la force Létrange humeur maussade, le crépuscule dans le ventre Observer les détails quand chaque minute se réinvente Jaime bien linstant précis où gentiment la pluie sarrête Où léclaircie sapprête, où on peut relever la tête Regarder devant soi et sétonner de voir plus loin Imaginer lavenir au moins jusquà demain matin Jaime bien regarder la vue, prendre un peu de hauteur Prendre le temps, prendre du recul, prendre les choses moins à cur Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Pause Jaime bien me souvenir, jaime bien parler davant Jaime bien la nostalgie, ça me fait me sentir vivant Jaime bien sentir le froid, jaime bien ouvrir les vitres Jaime bien le temps qui passe quand il ne passe pas trop vite Jaime voir vivre les gens, les sereins et les stressés Ceux qui prennent tout leur temps et ceux qui jouent les pressés Jaime appartenir à tous ces mouvements dhumeur Être au cur de la foule et me sentir à lextérieur Jaime bien la ville la nuit, quand tu crois quelle est belle Voir le monde à la merci de sa réalité parallèle Toute la foule des fantasmes et des rencontres pas nettes Jaime bien les faces B, effleurer lautre planète Jaime bien rêver dautres vies et mavancer vers elles Y repenser pour comprendre ce que rêver révèle Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Jaime les a priori pour quils soient vite dépassés Jaime bien les convictions quand elles se sentent menacées Jaime sentir la fragilité dans certaines attitudes Jaime bien les êtres humains qui nont pas trop de certitudes Jaime bien garder le silence face à ceux qui parlent fort Jaime la nonchalance, jaime gérer mes efforts Jaime bien écrire la nuit, au cur de son ventre mou Jaime bien parler tout seul mais ça, ça reste entre nous Jaime bien ces soirées qui nont plus envie de sarrêter Quelques âmes autour dune table à bavarder et profiter De senfoncer dans la nuit, sans retenue, sans excès On oublie presque quon est bien, on refait le monde sans succès Jaime bien voir le soir, le sentir entre chien et loup Flirter avec le cafard, me sentir entre rien et tout Jaime bien aussi faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir1</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jenverrai un mail au taf en f'sant les courses à Carrefour Jaiderai les enfants aux devoirs en sortant la quiche du four Avec eux je serai joyeuse, avec mon mec, femme fatale Vingt-quatre heures dans la peau dune femme, je comprendrai la charge mentale À seize heures trente-cinq pile, jarrêterai d'travailler Vu quaprès quand tes une femme, et ben tes plus payée Je sortirai en jupe quelques instants dans les transports Pour comprendre lessence même du hashtag Balance ton porc Jboirai du whisky pour me mettre à laise Sans coca, sans glaçon, comme les mecs balaises Jirai draguer une fille mais yaura pas d'malaise Jenverrai pas d'texto qui dit Cest quand quon baise ? Je serai romantique avec les meufs sur Tinder Pas de dick pics, des curs de toutes les couleurs Jirai marcher la nuit, je prendrai pas de Uber Si je croise un autre mec, plus besoin davoir peur You might also likeMais j'veux aussi kiffer, connaître enfin leur vrai pouvoir Critiquer les gens avec mes copines du matin au soir Et dès quelles sont parties, les critiquer elles aussi Fanny est vraiment chiante, Solène elle a grossi Je veux découvrir enfin le singulier bonheur De réussir à faire un créneau en une demi-heure Comprendre enfin la passion sincère, sans censure De regarder sur internet pendant, des heures, des chaussures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jmettrai la main au cul à un pote un peu lourd Pour quil comprenne enfin que cest pas très glamour J'pourrai prendre tout mon temps, pas dhorloge biologique Si je veux pas denfant, personne en fera tout un cirque Je testerai tout d'suite, ces p'tites galères au féminin Lépilation, le maquillage, perdre ses clefs dans l'sac à main Les talons hauts, le vernis à ongles et les rappels mensuels du corps Dêtre une femme, je veux découvrir lenfer du décor Jpourrai ne plus m'raser, personne dira qu'cest dégeu' Jaurai plus mal au ventre, ragnagna de mes deux J'dirai Bonjour, patron sans quil me dévore des yeux Dealer laugmentation, sans dîner amoureux Devant ma PS4, pendant qu'ma meuf se plie en quatre Je mettrai pas la table, cest pas la fin du match Jpisserai sur le trottoir comme le ptit chien de la voisine Cest lavantage de la physiologie masculine Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures1</t>
+          <t>Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jenverrai un mail au taf en f'sant les courses à Carrefour Jaiderai les enfants aux devoirs en sortant la quiche du four Avec eux je serai joyeuse, avec mon mec, femme fatale Vingt-quatre heures dans la peau dune femme, je comprendrai la charge mentale À seize heures trente-cinq pile, jarrêterai d'travailler Vu quaprès quand tes une femme, et ben tes plus payée Je sortirai en jupe quelques instants dans les transports Pour comprendre lessence même du hashtag Balance ton porc Jboirai du whisky pour me mettre à laise Sans coca, sans glaçon, comme les mecs balaises Jirai draguer une fille mais yaura pas d'malaise Jenverrai pas d'texto qui dit Cest quand quon baise ? Je serai romantique avec les meufs sur Tinder Pas de dick pics, des curs de toutes les couleurs Jirai marcher la nuit, je prendrai pas de Uber Si je croise un autre mec, plus besoin davoir peur Mais j'veux aussi kiffer, connaître enfin leur vrai pouvoir Critiquer les gens avec mes copines du matin au soir Et dès quelles sont parties, les critiquer elles aussi Fanny est vraiment chiante, Solène elle a grossi Je veux découvrir enfin le singulier bonheur De réussir à faire un créneau en une demi-heure Comprendre enfin la passion sincère, sans censure De regarder sur internet pendant, des heures, des chaussures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jmettrai la main au cul à un pote un peu lourd Pour quil comprenne enfin que cest pas très glamour J'pourrai prendre tout mon temps, pas dhorloge biologique Si je veux pas denfant, personne en fera tout un cirque Je testerai tout d'suite, ces p'tites galères au féminin Lépilation, le maquillage, perdre ses clefs dans l'sac à main Les talons hauts, le vernis à ongles et les rappels mensuels du corps Dêtre une femme, je veux découvrir lenfer du décor Jpourrai ne plus m'raser, personne dira qu'cest dégeu' Jaurai plus mal au ventre, ragnagna de mes deux J'dirai Bonjour, patron sans quil me dévore des yeux Dealer laugmentation, sans dîner amoureux Devant ma PS4, pendant qu'ma meuf se plie en quatre Je mettrai pas la table, cest pas la fin du match Jpisserai sur le trottoir comme le ptit chien de la voisine Cest lavantage de la physiologie masculine Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures1</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Quand, pour ton sixième album, tu veux sortir en indé' Pour la thune et pour la com', il faut trouver des plans B Quand tu fais un mètre soixante et qu'tu veux jouer en NBA Peut-être que ça s'tente, mais prévois quand même un plan B Quand tu veux de belles vacances mais qu'en jouant t'as tout flamber Tu vas squatter l'Île de France, puis tu vas chercher un plan B Quand tu veux être homme politique mais qu'tu sais dire qu'la vérité Ça va pas être très pratique, mieux vaut trouver un plan B Quand tu rêves d'une carrière sportive mais qu't'es déjà en seniors Quand tu veux créer ton site d'infos en Corée du Nord Quand tu veux être président mais qu'tu n'aimes pas les coups bas Quand tu veux avoir d'la classe mais qu'tu fais de la zumba Quand t'es Noir et musulman et qu'tu veux habiter Béziers Quand, dans un discours d'Ménard, tu cherches de l'humanité Quand t'es docteur dans ton pays et qu'en France t'es en clandé' C'est à l'échelle de ta vie qu'tu dois passer au plan B Quand tu voulais faire du sport mais qu'tu t'es bien planté Un stylo, des métaphores, ça peut faire un beau plan B Quand tu aimes faire des grasses mat' et qu'tu veux être boulanger Une conciliation délicate, prévois plutôt un plan B Quand, ta meuf, c'est Kardashian et qu'tu rêves d'une vie planquée J'te préviens ça va être chiant, prévois plutôt un plan B Si tu veux être un artiste et qu'tu n'aimes pas t'tromper Il faut pas qu'tu insistes, tu peux passer au plan B Quand tu veux faire du naturisme en Afganhistan Quand tu rêves de gifler quelqu'un mais qu't'es son assistant Quand tu veux être élégant avec des mocassins à glands Quand tu veux qu'tes parents aiment leur gendre mais qu'il est rasta blanc Parce que, la vie, c'est une obligation d's'adapter sans trembler Que c'est l'art des seconds choix, des autres options et des plans B Parce que, pour le nom d'ton nouveau disque, tu émets une nouvelle idée Originale et poétique, vu qu't'as choisi Plan BYou might also like1</t>
+          <t>Quand, pour ton sixième album, tu veux sortir en indé' Pour la thune et pour la com', il faut trouver des plans B Quand tu fais un mètre soixante et qu'tu veux jouer en NBA Peut-être que ça s'tente, mais prévois quand même un plan B Quand tu veux de belles vacances mais qu'en jouant t'as tout flamber Tu vas squatter l'Île de France, puis tu vas chercher un plan B Quand tu veux être homme politique mais qu'tu sais dire qu'la vérité Ça va pas être très pratique, mieux vaut trouver un plan B Quand tu rêves d'une carrière sportive mais qu't'es déjà en seniors Quand tu veux créer ton site d'infos en Corée du Nord Quand tu veux être président mais qu'tu n'aimes pas les coups bas Quand tu veux avoir d'la classe mais qu'tu fais de la zumba Quand t'es Noir et musulman et qu'tu veux habiter Béziers Quand, dans un discours d'Ménard, tu cherches de l'humanité Quand t'es docteur dans ton pays et qu'en France t'es en clandé' C'est à l'échelle de ta vie qu'tu dois passer au plan B Quand tu voulais faire du sport mais qu'tu t'es bien planté Un stylo, des métaphores, ça peut faire un beau plan B Quand tu aimes faire des grasses mat' et qu'tu veux être boulanger Une conciliation délicate, prévois plutôt un plan B Quand, ta meuf, c'est Kardashian et qu'tu rêves d'une vie planquée J'te préviens ça va être chiant, prévois plutôt un plan B Si tu veux être un artiste et qu'tu n'aimes pas t'tromper Il faut pas qu'tu insistes, tu peux passer au plan B Quand tu veux faire du naturisme en Afganhistan Quand tu rêves de gifler quelqu'un mais qu't'es son assistant Quand tu veux être élégant avec des mocassins à glands Quand tu veux qu'tes parents aiment leur gendre mais qu'il est rasta blanc Parce que, la vie, c'est une obligation d's'adapter sans trembler Que c'est l'art des seconds choix, des autres options et des plans B Parce que, pour le nom d'ton nouveau disque, tu émets une nouvelle idée Originale et poétique, vu qu't'as choisi Plan B1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait You might also like On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse Ah-ih yeah, ah-ih yeah, ah-ih yeah, ah-ih yeah On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, trousse qui déborde de stylos Et puis il y aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait</t>
+          <t>On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse Ah-ih yeah, ah-ih yeah, ah-ih yeah, ah-ih yeah On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, trousse qui déborde de stylos Et puis il y aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Qui sest déjà perdu ? Qui sest déjà perdu ? Madame Rouge a eu un bon feeling quand il lui a offert ce verre Il avait l'air entreprenant, elle a choisi de le laisser faire Monsieur Bleu a eu du désir, quand elle a trinqué en souriant Et il la sent complice ça ne lui arrive pas si souvent Le trouble est réciproque, leur premier verre est déjà vide Naturellement, leur corps s'approchent, ils ne sont plus timides Ils partageront les prochaines heures et les pulsions en avalanche Madame Rouge et monsieur Bleu se souviendront de cette nuit blanche Mais les jours s'enchaînent avec le tout comme emblème Ils ont envie de se revoir et c'est peut-être ça leur problème Ils ne savent pas sur quoi miser, se dévoiler paraît dangereux Ils commencent une étrange partie de poker amoureux Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Monsieur Bleu pense qu'il faut qu'elle pense quil ne pense pas trop à elle Madame Rouge croit qu'il croit qu'elle se croit un peu trop belle Monsieur Bleu a senti qu'elle sentait qu'il se sentait trop bien Madame Rouge a voulu qu'il la veuille mais sans vouloir aller trop loin Mais de quoi ont-ils peur dès qu'il faut regarder devant eux ? La rencontre est si claire et le futur si venteux Est-ce qu'il leur faut cacher leur jeu ou mettre cartes sur table ? Doivent-ils bluffer leurs sentiments pour se sentir moins vulnérables ? Doivent-ils miser le minimum pour se protéger ? Ou prendre des risques pour pousser l'autre à s'engager ? Les non-dits les faux-semblants remplissent la partie de contraintes Le naturel s'est égaré leur amour est un labyrinthe You might also like Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Quand il ne restera qu'une seule carte à retourner Sera-t-il en toujours temps de nous dévoiler ? Pour nous raccorder nos couleurs y aura t-il assez de place ? Derrière les carreaux dans mon cur je crois encore au carré d'as Depuis le lendemain de leur rencontre ils marchent sur des oeufs Ils découvrent progressivement les règles de leur propre jeu Mais ce soir monsieur Bleu et madame Rouge ferment les volets Pour une fois sans se poser de question ils repeignent la nuit en violet Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ?</t>
+          <t>Qui sest déjà perdu ? Qui sest déjà perdu ? Madame Rouge a eu un bon feeling quand il lui a offert ce verre Il avait l'air entreprenant, elle a choisi de le laisser faire Monsieur Bleu a eu du désir, quand elle a trinqué en souriant Et il la sent complice ça ne lui arrive pas si souvent Le trouble est réciproque, leur premier verre est déjà vide Naturellement, leur corps s'approchent, ils ne sont plus timides Ils partageront les prochaines heures et les pulsions en avalanche Madame Rouge et monsieur Bleu se souviendront de cette nuit blanche Mais les jours s'enchaînent avec le tout comme emblème Ils ont envie de se revoir et c'est peut-être ça leur problème Ils ne savent pas sur quoi miser, se dévoiler paraît dangereux Ils commencent une étrange partie de poker amoureux Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Monsieur Bleu pense qu'il faut qu'elle pense quil ne pense pas trop à elle Madame Rouge croit qu'il croit qu'elle se croit un peu trop belle Monsieur Bleu a senti qu'elle sentait qu'il se sentait trop bien Madame Rouge a voulu qu'il la veuille mais sans vouloir aller trop loin Mais de quoi ont-ils peur dès qu'il faut regarder devant eux ? La rencontre est si claire et le futur si venteux Est-ce qu'il leur faut cacher leur jeu ou mettre cartes sur table ? Doivent-ils bluffer leurs sentiments pour se sentir moins vulnérables ? Doivent-ils miser le minimum pour se protéger ? Ou prendre des risques pour pousser l'autre à s'engager ? Les non-dits les faux-semblants remplissent la partie de contraintes Le naturel s'est égaré leur amour est un labyrinthe Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Quand il ne restera qu'une seule carte à retourner Sera-t-il en toujours temps de nous dévoiler ? Pour nous raccorder nos couleurs y aura t-il assez de place ? Derrière les carreaux dans mon cur je crois encore au carré d'as Depuis le lendemain de leur rencontre ils marchent sur des oeufs Ils découvrent progressivement les règles de leur propre jeu Mais ce soir monsieur Bleu et madame Rouge ferment les volets Pour une fois sans se poser de question ils repeignent la nuit en violet Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ?</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade You might also like On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay You might also like- Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Il est toujours à l'heure à chacun de nos rencards Et il m'engueule même pas trop quand j'arrive un peu en retard Je monte dans sa voiture et je m'assois à côté de lui Pour qu'il m'emmène à la gare, à Roissy, à Orly Rachid il est taxi depuis quinze longues années En banlieue ou à Paris, il fait rarement la même tournée Comme j'suis amené à voyager, je le vois souvent et on discute Rachid il est bavard et avec lui, j'apprends plein d'trucs Sa voiture elle est grande et puis elle est toujours nickel Rachid Taxi il est serviable c'est un grand professionnel Il fait jamais la moindre infraction au code de la route Mais pour l'itinéraire le plus rapide des fois, j'ai des doutes Dans la voiture de Rachid, y a toujours un peu les mêmes disques Chanteurs français, chansons à texte avec des mélodies tristes Rachid il a quelques certitudes impossibles à déranger Il dit qu'un bon chanteur, ça doit être un artiste engagé Rachid il aime la politique et il en fait c'est toute sa vie Et vu ses opinions, il aime pas que j'écrive pour Johnny Moi, j'lui dis que ça n'a rien à voir et qu'il faut pas tout mélanger Mais Rachid il est têtu et c'est pas moi qui vais l'changer Rachid Taxi quand il s'énerve il lâche l'accélérateur Pendant une bonne embrouille, on roule à dix kilomètres-heure Et si t'as pas envie de louper ton train ou ton avion Vaut mieux pas trop le titiller et lui dire qu'il a raison Rachid il a une opinion sur chaque sujet dactualité Il sort des bonnes chambrettes, un peu cyniques mais méritées Rachid cest un sensible, un écorché et un vanneur Et y a de lémotion dans le rétro quand il raconte la marche des Beurs You might also like Il connaît bien les paroles et il sait même jouer de la guitare Rachid taxi parisien et chansonnier banlieusard Rachid il aime écrire dans des journaux militants Ou simplement quelques petits mots quil laisse traîner pour ses enfants Ça il aime sa famille ça transpire dans chaque discussion Et tant quson fils devient pas flic, il en parlera avec passion Rachid Taxi il déteste prendre le périphérique Y a pas de décor, y a que des voitures et des radars automatiques Il préfère traverser Paris et mettre le coude à la fenêtre Pouvoir regarder les gens et allumer sa cigarette Il connaît toutes les astuces et cest vivant, Paris ça bouge Il prend les couloirs de bus en observant le feu est rouge Il connaît bien Paris le matin et démarre souvent avant le soleil Cest lheure où moi je vais me coucher il est cinq heures, Paris séveille Ça met du cur dans lhabitacle et du vécu dans latmosphère Il est pilote, il est DJ, j'me laisse porter le feu est vert Parfois, quand on a le temps, on sarrête prendre un p'tit plat Avec le verre de rouge qui va bien pour accompagner un bon repas Ben ouais Rachid il boit du vin et il fait pas le ramadan Bien sûr il est croyant il est musulman, pratiquement Rachid il a un regard particulier qui crée du lien Un regard de grand frère, le regard dun mec bien Un regard de tendresse, un regard un peu mouillé Un regard concerné et des rêves un peu rouillés Rachid il a un regard, un regard sur la vie Un avis sur le monde et du monde dans son taxi Si jen fais une chanson elle sera pas très engagée cest sûr Mais si la mélodie est triste, elle passera peut-être dans sa voiture</t>
+          <t>Il est toujours à l'heure à chacun de nos rencards Et il m'engueule même pas trop quand j'arrive un peu en retard Je monte dans sa voiture et je m'assois à côté de lui Pour qu'il m'emmène à la gare, à Roissy, à Orly Rachid il est taxi depuis quinze longues années En banlieue ou à Paris, il fait rarement la même tournée Comme j'suis amené à voyager, je le vois souvent et on discute Rachid il est bavard et avec lui, j'apprends plein d'trucs Sa voiture elle est grande et puis elle est toujours nickel Rachid Taxi il est serviable c'est un grand professionnel Il fait jamais la moindre infraction au code de la route Mais pour l'itinéraire le plus rapide des fois, j'ai des doutes Dans la voiture de Rachid, y a toujours un peu les mêmes disques Chanteurs français, chansons à texte avec des mélodies tristes Rachid il a quelques certitudes impossibles à déranger Il dit qu'un bon chanteur, ça doit être un artiste engagé Rachid il aime la politique et il en fait c'est toute sa vie Et vu ses opinions, il aime pas que j'écrive pour Johnny Moi, j'lui dis que ça n'a rien à voir et qu'il faut pas tout mélanger Mais Rachid il est têtu et c'est pas moi qui vais l'changer Rachid Taxi quand il s'énerve il lâche l'accélérateur Pendant une bonne embrouille, on roule à dix kilomètres-heure Et si t'as pas envie de louper ton train ou ton avion Vaut mieux pas trop le titiller et lui dire qu'il a raison Rachid il a une opinion sur chaque sujet dactualité Il sort des bonnes chambrettes, un peu cyniques mais méritées Rachid cest un sensible, un écorché et un vanneur Et y a de lémotion dans le rétro quand il raconte la marche des Beurs Il connaît bien les paroles et il sait même jouer de la guitare Rachid taxi parisien et chansonnier banlieusard Rachid il aime écrire dans des journaux militants Ou simplement quelques petits mots quil laisse traîner pour ses enfants Ça il aime sa famille ça transpire dans chaque discussion Et tant quson fils devient pas flic, il en parlera avec passion Rachid Taxi il déteste prendre le périphérique Y a pas de décor, y a que des voitures et des radars automatiques Il préfère traverser Paris et mettre le coude à la fenêtre Pouvoir regarder les gens et allumer sa cigarette Il connaît toutes les astuces et cest vivant, Paris ça bouge Il prend les couloirs de bus en observant le feu est rouge Il connaît bien Paris le matin et démarre souvent avant le soleil Cest lheure où moi je vais me coucher il est cinq heures, Paris séveille Ça met du cur dans lhabitacle et du vécu dans latmosphère Il est pilote, il est DJ, j'me laisse porter le feu est vert Parfois, quand on a le temps, on sarrête prendre un p'tit plat Avec le verre de rouge qui va bien pour accompagner un bon repas Ben ouais Rachid il boit du vin et il fait pas le ramadan Bien sûr il est croyant il est musulman, pratiquement Rachid il a un regard particulier qui crée du lien Un regard de grand frère, le regard dun mec bien Un regard de tendresse, un regard un peu mouillé Un regard concerné et des rêves un peu rouillés Rachid il a un regard, un regard sur la vie Un avis sur le monde et du monde dans son taxi Si jen fais une chanson elle sera pas très engagée cest sûr Mais si la mélodie est triste, elle passera peut-être dans sa voiture</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>J'ai rêvé C'était une soirée d'hiver, j'étais rentré pas trop tard J'ai regardé L'atmosphère était légère, vous faisiez vos devoirs J'ai aimé Vous m'avez regardé d'un air qui était content de me voir J'vous ai trouvés plein de lumière, dehors, il faisait tout noir J'vous ai pas dit qu'j'étais fier, j'vous ai souri sans le savoir J'ai rêvé C'était une soirée d'été, on revenait d'votre entraînement J'ai regardé Vos mines un peu fatiguées, vos yeux bleus inspirants J'ai aimé Dans la radio, ça kickait, vos rappeurs du moment Dans la voiture, on chantait, comment serait-ce autrement ? L'solil voulait pas s'coucher, profiter d'notre instant J'ai rêvé Est-c que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait You might also like J'ai rêvé C'était l'hiver, tôt, le matin, juste avant qu'le jour se lève J'ai regardé Vos yeux endormis, sereins, autour d'la table du p'tit déj' J'ai aimé Y avait l'odeur du grille-pain et vous m'racontiez vos rêves De drôles d'histoires de requins et de marins qu'on enlève C'était un matin commun, mais comme un privilège J'ai rêvé C'était l'été, à la campagne, y avait de belles éclaircies J'ai regardé C'était peut-être à la montagne, les rêves, c'est pas très précis J'ai aimé Vous m'disiez qu'c'était relou, cette crème solaire à s'enduire Y avait du bonheur partout et vous vouliez vous resservir J'restais tout le temps avec vous, pour pas vous sentir grandir J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait Quand ils apprennent à lire, nous, on vieillit sans défense J'crois qu'on était des enfants, tant qu'on en avait pas Et si les aider à grandir nous fait perdre un peu d'innocence J'veux bien devenir adulte si c'est pour être papa J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait</t>
+          <t>J'ai rêvé C'était une soirée d'hiver, j'étais rentré pas trop tard J'ai regardé L'atmosphère était légère, vous faisiez vos devoirs J'ai aimé Vous m'avez regardé d'un air qui était content de me voir J'vous ai trouvés plein de lumière, dehors, il faisait tout noir J'vous ai pas dit qu'j'étais fier, j'vous ai souri sans le savoir J'ai rêvé C'était une soirée d'été, on revenait d'votre entraînement J'ai regardé Vos mines un peu fatiguées, vos yeux bleus inspirants J'ai aimé Dans la radio, ça kickait, vos rappeurs du moment Dans la voiture, on chantait, comment serait-ce autrement ? L'solil voulait pas s'coucher, profiter d'notre instant J'ai rêvé Est-c que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé C'était l'hiver, tôt, le matin, juste avant qu'le jour se lève J'ai regardé Vos yeux endormis, sereins, autour d'la table du p'tit déj' J'ai aimé Y avait l'odeur du grille-pain et vous m'racontiez vos rêves De drôles d'histoires de requins et de marins qu'on enlève C'était un matin commun, mais comme un privilège J'ai rêvé C'était l'été, à la campagne, y avait de belles éclaircies J'ai regardé C'était peut-être à la montagne, les rêves, c'est pas très précis J'ai aimé Vous m'disiez qu'c'était relou, cette crème solaire à s'enduire Y avait du bonheur partout et vous vouliez vous resservir J'restais tout le temps avec vous, pour pas vous sentir grandir J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait Quand ils apprennent à lire, nous, on vieillit sans défense J'crois qu'on était des enfants, tant qu'on en avait pas Et si les aider à grandir nous fait perdre un peu d'innocence J'veux bien devenir adulte si c'est pour être papa J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>J'ai le souvenir tenace, et la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette enfance, un môme casse-cou pas trop casse-couilles Nostalgique ce cette innocence, un début d'vie sans grosse embrouille A l'école j'avais d'bonnes notes, mais on peut pas dire que j'étais très sage Insolent avec les profs, le corps enseignant avait la rage C'est vrai que j'devais être relou, mais mon attention était réduite Et j'osais pas rentrer chez moi, les jours d'avertissement d'conduite Avec mes potes on s'cachait dans les chiottes, pour rapper sur un magnéto On faisait un beat en tapant sur des portes, on était vraiment des mytho A la cantine c'était pas un repas, c'était carrément un carnage Ça gueulait, ça s'insultait, et on s'battait à coups de fromage Putain j'envie cette vie ravie que j'revis d'temps en temps Quand jme laisse aller, que j'matte dans le rétroviseur du temps Et ça y'est j'me revois déjà dans l'bus qui part en colo Avec tous mes paquots, avec des types go et mon gros sac à dos Jsais pas comment on a fait pour passer tant de temps à rire Y'a peut-être aussi qu'à cette époque, c'est vrai je pouvais courir Mais t'inquiète je suis pas là pour pleurer, juste revivre avec vous La joie des premiers re-soi, l'émotion des premiers rendez vous D'ailleurs ça m'rappelle cette meuf, j'crois qu'elle s'appelait Gaëlle C'était en rentrant d'une teuf, j'lui dois mon premier roulage de pèle J'revois aussi ces parties de foot, où on jouait pendant des heures On rentrait chez nous que quand il faisait nuit et ça j'te jure c'était le bonheur You might also likeC'était les années où dans mon walkman, y'avait tout le temps authentique Premier album des NTM dont j'étais vraiment fanatique C'est vrai que j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette adolescence,Des années consacrées au sport Nostalgique de cette ambiance, plus on est fou plus on est fort Avec mon équipe de basket, on allait monter en Nationale Et on a perdu le titre lors d'une énième bagarre générale Jordan était notre idole, notre modèle, notre moteur Et on travaillait notre détente pour défier les lois de la pesanteur C'est génial ces petits détails auxquels j'repense avec envie Ces p'tits bouts d'innocence qui m'sourient dans l'rétroviseur de la vie C'est vrai que j'étais sportif, et plein d'fois j'ai prouvé ma valeur Car j'me suis fait jamais serré quand j'me faisais courser par les contrôleurs Cette époque j'passais la moitié d'ma vie dans les transports et les jours de grève Croyez moi ça aussi c'était du sport J'étais pas trop bagarreur, sauf quand j'savais que j'allais gagner Contre un p'tit vieux, ou une p'tite sur, peu de chance de m'faire aligner La belle époque des p'tites magouilles, des crises de rire toute la journée J'ai des souvenirs par packs de 12, construits au fil des années C'est un truc de fou, toutes ces images qui reviennent en force Et qui font que tu n'y peux rien, ton cur se serre au fond d'ton torse Y'a des trucs qui m'manquent, que j'retrouverais pas, c'est sûr Car on les vit que quand on est inconscients innocents et purs Y'a des moments un peu sombres, des journées sans lumière Où j'me dis que le meilleur est peut-être déjà derrière Pourtant je suis bien dans mes pompes et j'ai confiance en l'avenir Y'a quelque chose que je dois avouer, que je suis obligé d'vous dire j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique</t>
+          <t>J'ai le souvenir tenace, et la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette enfance, un môme casse-cou pas trop casse-couilles Nostalgique ce cette innocence, un début d'vie sans grosse embrouille A l'école j'avais d'bonnes notes, mais on peut pas dire que j'étais très sage Insolent avec les profs, le corps enseignant avait la rage C'est vrai que j'devais être relou, mais mon attention était réduite Et j'osais pas rentrer chez moi, les jours d'avertissement d'conduite Avec mes potes on s'cachait dans les chiottes, pour rapper sur un magnéto On faisait un beat en tapant sur des portes, on était vraiment des mytho A la cantine c'était pas un repas, c'était carrément un carnage Ça gueulait, ça s'insultait, et on s'battait à coups de fromage Putain j'envie cette vie ravie que j'revis d'temps en temps Quand jme laisse aller, que j'matte dans le rétroviseur du temps Et ça y'est j'me revois déjà dans l'bus qui part en colo Avec tous mes paquots, avec des types go et mon gros sac à dos Jsais pas comment on a fait pour passer tant de temps à rire Y'a peut-être aussi qu'à cette époque, c'est vrai je pouvais courir Mais t'inquiète je suis pas là pour pleurer, juste revivre avec vous La joie des premiers re-soi, l'émotion des premiers rendez vous D'ailleurs ça m'rappelle cette meuf, j'crois qu'elle s'appelait Gaëlle C'était en rentrant d'une teuf, j'lui dois mon premier roulage de pèle J'revois aussi ces parties de foot, où on jouait pendant des heures On rentrait chez nous que quand il faisait nuit et ça j'te jure c'était le bonheur C'était les années où dans mon walkman, y'avait tout le temps authentique Premier album des NTM dont j'étais vraiment fanatique C'est vrai que j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette adolescence,Des années consacrées au sport Nostalgique de cette ambiance, plus on est fou plus on est fort Avec mon équipe de basket, on allait monter en Nationale Et on a perdu le titre lors d'une énième bagarre générale Jordan était notre idole, notre modèle, notre moteur Et on travaillait notre détente pour défier les lois de la pesanteur C'est génial ces petits détails auxquels j'repense avec envie Ces p'tits bouts d'innocence qui m'sourient dans l'rétroviseur de la vie C'est vrai que j'étais sportif, et plein d'fois j'ai prouvé ma valeur Car j'me suis fait jamais serré quand j'me faisais courser par les contrôleurs Cette époque j'passais la moitié d'ma vie dans les transports et les jours de grève Croyez moi ça aussi c'était du sport J'étais pas trop bagarreur, sauf quand j'savais que j'allais gagner Contre un p'tit vieux, ou une p'tite sur, peu de chance de m'faire aligner La belle époque des p'tites magouilles, des crises de rire toute la journée J'ai des souvenirs par packs de 12, construits au fil des années C'est un truc de fou, toutes ces images qui reviennent en force Et qui font que tu n'y peux rien, ton cur se serre au fond d'ton torse Y'a des trucs qui m'manquent, que j'retrouverais pas, c'est sûr Car on les vit que quand on est inconscients innocents et purs Y'a des moments un peu sombres, des journées sans lumière Où j'me dis que le meilleur est peut-être déjà derrière Pourtant je suis bien dans mes pompes et j'ai confiance en l'avenir Y'a quelque chose que je dois avouer, que je suis obligé d'vous dire j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Le texte qui vient c'est pas vraiment un texte en fait, c'est plutôt une conversation Et en fait, pour tout vous dire, je ne l'ai pas écrit tout seul, et celui qui a co-écrit ce texte avec moi, en fait il est pas au courant maintenant que je le fais en concert comme ça face à des gens Ourtant je vous assure que toutes ces phrases sont vraiment de lui, mais bon j'pense qu'il va pas m'en vouloir il va pas m'attaquer... De toute façon il a quatre ans... alors ça fait comme ça - Papa, pourquoi le monsieur il dort dehors ? - Bah parce que il a pas de maison - Mais pourquoi il a pas de maison ? - Bah parce que il a pas assez d'argent - Mais pourquoi il a pas assez d'argent ? - Bah je sais pas moi je le connais pas - On peut lui demander pourquoi il a pas assez d'argent ? - Bah non non ça se fait pas - Pourquoi ça se fait pas ? - Bah parce que c'est... c'est ces histoires, il a pas envie d'en parler - Pourquoi il a pas envie d'en parler ? - Bah j'sais pas moi - Papa on peut lui demander pourquoi il a pas envie d'en parler ? - Non non ça va le monsieur il a envie d'être tranquille - Pourquoi il a envie d'être tran... - Bon ça suffit, ça suffit. Laisse le monsieur on rentre à la maison on va regarder Robin des bois voilà ça va - Papa, mais nous on est des êtres humains ? - Bah ouais - Alors pourquoi nous on mange des animaux ? - Pf... bah écoute euh voilà c'est comme ça, faut bien manger euh, faut bien se nourrir et puis parce que c'est bon, le buf c'est bon, le poulet c'est bon, le lapin c'est bon... - Papa, pourquoi on mange pas le chat ? - Non mais le chat c'est pas pareil, le chat il est sympa, c'est notre copain c'est... - Le lapin il est pas sympa ? - Non mais ça n'a rien à voir, puis le lapin c'est super bon t'sais avec de la moutarde... - Et le chat c'est pas bon avec de la moutarde ? - Non non, le chat c'est pas bon, fin euh... je sais pas d'ailleurs j'ai jamais mangé de chat... ou alors dans les nems mais j'étais pas au courant - Papa c'est quoi les nems ? - Bon ça va ça suffit on arrête avec les animaux voilà, on va mettre le DVD de Robin des bois ça va - Papa, pourquoi on fait des cauchemars ? - Pf... alors, bah parce que tu vois en fait la journée on vit et on voit plein de truc donc du coup la nuit la tête elle continue de travailler un peu toute seule, alors elle s'raconte ses propres histoires alors des fois c'est bien puis des fois c'est pas très bien ça fait un peu peur - Ouais mais papa comment ils viennent les cauchemars ? - Comment ils viennent hum... écoute je sais pas comment ils viennent moi j'ai séché la philo quand ils faisaient Freud voilà je sais pas comment ils... - Papa, moi je crois y a des gens y m'aiment pas bah ils m'achètent des rêves qui font peur - J'vais p't'être relire un peu Freud moi je... écoute te prend pas la tête avec ça vient on met le DVD de Robin des bois tranquille - Papa, pourquoi les feuilles, les plantes tout ça elles tombent puis elles repoussent, puis elle re-tombent... - Bon ça c'est facile, euh c'est parce que tu vois les, les, les plantes tout ça les feuilles c'est vivant en fait tu vois c'est la nature donc du coup ça suit les saisons elles tombent à l'automne et elles repoussent au printemps - Papa, mais nous on est vivant ? - ... Ouais ? - Alors pourquoi nous nos cheveux y poussent tout le temps et y tombent pas à l'automne ? - Bah tu demandera à maman, voilà tu... Maman elle adore les plantes tout ça elle connaît bien et puis elle adore les cheveux voilà tu lui demandera et puis enlève tes chaussures pour monter sur... enlève tes chaussures pour monter sur le canapé on va regarder le DVD de Rob... - Papa, pourquoi... - Non mais y a pas de Papa, pourquoi ? et puis tu enlèves ces chaussures pour monter sur le canapé - Et mais vous vous êtes vraiment fous les adultes, vous aimez trop gronder les enfants Il m'a vraiment dit ça Pourquoi vous voulez toujours gronder les enfants ? - Non mais on veut pas toujours les gronder, on les gronde quand ils écoutent pas ou quand ils font des bétises... - Mais pourquoi vous voulez toujours décider ? - Bah justement parce qu'on est adulte on a plus d'expérience donc nous on sait les choses qu'il faut pas faire - Papa, mais vous les adultes vous faites jamais des choses qu'il faut pas faire ? - ...Robin des bois ! You might also likeJ'voulais quand même te remercier depuis que tu parles c'est la fête Même si tes interrogations m'donnent mal à la tête En fait plus ça avance et plus j'ai l'impression Que j'ai jamais autant appris depuis que j'écoute tes questions J'ai compris que de toute façon j'aurais jamais réponse à tout Et que même si j'essayais tu finirais par me rendre fou J'ai compris que y avait rien de mieux que de t'écouter et de t'entendre Que c'est toi qui allait grandir, que c'est moi qui allait apprendre J'ai compris que t'observais la vie déjà bien plus vite que moi J'ai compris pourquoi tu connaissais par coeur Robin des bois J'ai compris que t'avais pas forcément tord toutes ses petites fois ou je te dispute Et que y a bien un truc ou t'as raison, on est vraiment fous les adultes...</t>
+          <t>Le texte qui vient c'est pas vraiment un texte en fait, c'est plutôt une conversation Et en fait, pour tout vous dire, je ne l'ai pas écrit tout seul, et celui qui a co-écrit ce texte avec moi, en fait il est pas au courant maintenant que je le fais en concert comme ça face à des gens Ourtant je vous assure que toutes ces phrases sont vraiment de lui, mais bon j'pense qu'il va pas m'en vouloir il va pas m'attaquer... De toute façon il a quatre ans... alors ça fait comme ça - Papa, pourquoi le monsieur il dort dehors ? - Bah parce que il a pas de maison - Mais pourquoi il a pas de maison ? - Bah parce que il a pas assez d'argent - Mais pourquoi il a pas assez d'argent ? - Bah je sais pas moi je le connais pas - On peut lui demander pourquoi il a pas assez d'argent ? - Bah non non ça se fait pas - Pourquoi ça se fait pas ? - Bah parce que c'est... c'est ces histoires, il a pas envie d'en parler - Pourquoi il a pas envie d'en parler ? - Bah j'sais pas moi - Papa on peut lui demander pourquoi il a pas envie d'en parler ? - Non non ça va le monsieur il a envie d'être tranquille - Pourquoi il a envie d'être tran... - Bon ça suffit, ça suffit. Laisse le monsieur on rentre à la maison on va regarder Robin des bois voilà ça va - Papa, mais nous on est des êtres humains ? - Bah ouais - Alors pourquoi nous on mange des animaux ? - Pf... bah écoute euh voilà c'est comme ça, faut bien manger euh, faut bien se nourrir et puis parce que c'est bon, le buf c'est bon, le poulet c'est bon, le lapin c'est bon... - Papa, pourquoi on mange pas le chat ? - Non mais le chat c'est pas pareil, le chat il est sympa, c'est notre copain c'est... - Le lapin il est pas sympa ? - Non mais ça n'a rien à voir, puis le lapin c'est super bon t'sais avec de la moutarde... - Et le chat c'est pas bon avec de la moutarde ? - Non non, le chat c'est pas bon, fin euh... je sais pas d'ailleurs j'ai jamais mangé de chat... ou alors dans les nems mais j'étais pas au courant - Papa c'est quoi les nems ? - Bon ça va ça suffit on arrête avec les animaux voilà, on va mettre le DVD de Robin des bois ça va - Papa, pourquoi on fait des cauchemars ? - Pf... alors, bah parce que tu vois en fait la journée on vit et on voit plein de truc donc du coup la nuit la tête elle continue de travailler un peu toute seule, alors elle s'raconte ses propres histoires alors des fois c'est bien puis des fois c'est pas très bien ça fait un peu peur - Ouais mais papa comment ils viennent les cauchemars ? - Comment ils viennent hum... écoute je sais pas comment ils viennent moi j'ai séché la philo quand ils faisaient Freud voilà je sais pas comment ils... - Papa, moi je crois y a des gens y m'aiment pas bah ils m'achètent des rêves qui font peur - J'vais p't'être relire un peu Freud moi je... écoute te prend pas la tête avec ça vient on met le DVD de Robin des bois tranquille - Papa, pourquoi les feuilles, les plantes tout ça elles tombent puis elles repoussent, puis elle re-tombent... - Bon ça c'est facile, euh c'est parce que tu vois les, les, les plantes tout ça les feuilles c'est vivant en fait tu vois c'est la nature donc du coup ça suit les saisons elles tombent à l'automne et elles repoussent au printemps - Papa, mais nous on est vivant ? - ... Ouais ? - Alors pourquoi nous nos cheveux y poussent tout le temps et y tombent pas à l'automne ? - Bah tu demandera à maman, voilà tu... Maman elle adore les plantes tout ça elle connaît bien et puis elle adore les cheveux voilà tu lui demandera et puis enlève tes chaussures pour monter sur... enlève tes chaussures pour monter sur le canapé on va regarder le DVD de Rob... - Papa, pourquoi... - Non mais y a pas de Papa, pourquoi ? et puis tu enlèves ces chaussures pour monter sur le canapé - Et mais vous vous êtes vraiment fous les adultes, vous aimez trop gronder les enfants Il m'a vraiment dit ça Pourquoi vous voulez toujours gronder les enfants ? - Non mais on veut pas toujours les gronder, on les gronde quand ils écoutent pas ou quand ils font des bétises... - Mais pourquoi vous voulez toujours décider ? - Bah justement parce qu'on est adulte on a plus d'expérience donc nous on sait les choses qu'il faut pas faire - Papa, mais vous les adultes vous faites jamais des choses qu'il faut pas faire ? - ...Robin des bois ! J'voulais quand même te remercier depuis que tu parles c'est la fête Même si tes interrogations m'donnent mal à la tête En fait plus ça avance et plus j'ai l'impression Que j'ai jamais autant appris depuis que j'écoute tes questions J'ai compris que de toute façon j'aurais jamais réponse à tout Et que même si j'essayais tu finirais par me rendre fou J'ai compris que y avait rien de mieux que de t'écouter et de t'entendre Que c'est toi qui allait grandir, que c'est moi qui allait apprendre J'ai compris que t'observais la vie déjà bien plus vite que moi J'ai compris pourquoi tu connaissais par coeur Robin des bois J'ai compris que t'avais pas forcément tord toutes ses petites fois ou je te dispute Et que y a bien un truc ou t'as raison, on est vraiment fous les adultes...</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>C'était en soixante-dix-sept Je slammais pour la première fois de ma carrière Sur un texte qui s'appelait Peauaime P-e-a-u-a-i-m-e J'étais en quelque sorte un précurseur Ouais je sais, je me la pète un p'tit peu Pour l'ami Karim et Fabien dit Grand Corps Malade Tous deux grands slammeurs devant l'éternel J'ai écrit un texte que j'ai récité pour la première fois Au café culturel de Saint Denis Dans une soirée qui s'intitulait Slamalekoum Du 14 décembre 2007, soit trente ans après Peauaime Pour Karim Pour Fabien Les détrousseurs de rime Défricheurs de quatrains Sans dictionnaire de frime Pour ces p'tits frangins Déjà bien plus grands qu'moi Qui m'enterreront demain Si c'n'est pas fait déjà J'voudrais offrir ce slam Un peu ripoux, bancal Rigole pas ma p'tite dame Ou j'te slam une mandale You might also likeCe sera mon tout premier J'vous vois venir les tapettes Vaut mieux qu'ce soit le dernier Que vous vous dites en cachette Pour Fabien, pour Karim Et pour tous vos potos J'ai torché ces pauvres rimes Ce matin au bistrot J'vais vous les balancer A capela vaut mieux J'vais pas vous imposer En plus ma 'sique de vieux Ce sera pas un hommage Plein de clichés, de lieux communs Style putain j'ai la rage Vous écrivez trop bien Comme j'suis un poil pudique J'vais pas vous sucer Et puis surtout pas en public On n'est pas chez Cauet Pour Karim, pour Fabien Qui parfois me citez Au milieu de quelques-uns Dont vous vous prétendez Un p'tit peu les enfants Voir les héritiers J'voulais vous retourner le compliment De manière détournée J'vais chercher la p'tite bête Dans vos slams, dans vos bouches Même si j'adore vos textes J'aime enculer les mouches Alors je vous dirai Que malgré tout l'amour Que j'ai pour vos couplets Ça manque un peu d'humour Et malgré la passion Que m'inspire votre vécu Ça manque un peu d'nichons Ça manque un p'tit peu d'cul Pour Fabien, pour Karim Porte-voix des cités Quand j'analyse vos rimes Je m'dis un peu Fais chier Il n'y a pas d'autre mots Que périphérique ou keuf ? Pour décrire vos ghettos Parlez-moi de vos meuf Au lieu d'vous répandre Sur les banlieues d'embrouilles Dites-moi si vos femmes bandent Quand elles pensent à vos couilles Plutôt qu'poétiser Fraternité, marmots Dites-nous quand vous niquez Si elles crient Renaud ! Pour Karim, pour Fabien Qui ont qu'le mot Police À longueur de quatrain Quand j'attends clitoris Qui disent quatre-vingt-treize Pour parler d'leur pays Quand j'attends eh ça baise Comme des dieux à Saint-Denis Vous parlez de la lutte Pour des vies moins tragiques Mais jamais des turluttes Derrière la basilique Des gamins qui ont la frite Leurs histoires sans vie Mais jamais des coups d'bite Dont ils sont tous sortis Pour Fabien, pour Karim Quand l'premier rime en sein Et l'second en pine Je vais conclure enfin Sans rajouter d'couplet Sans hymne à la sodo Sans les culs à bouffer Qui manquent à vos brûlots Je termine mon poème Mon slam un peu vulgos Plein de mouille et de sperme Qui n'choquera que les craignos J'vous autorise quand même Si vous m'trouvez trop nul Quand j'vous dit je vous aime À m'répondre on t'encule</t>
+          <t>C'était en soixante-dix-sept Je slammais pour la première fois de ma carrière Sur un texte qui s'appelait Peauaime P-e-a-u-a-i-m-e J'étais en quelque sorte un précurseur Ouais je sais, je me la pète un p'tit peu Pour l'ami Karim et Fabien dit Grand Corps Malade Tous deux grands slammeurs devant l'éternel J'ai écrit un texte que j'ai récité pour la première fois Au café culturel de Saint Denis Dans une soirée qui s'intitulait Slamalekoum Du 14 décembre 2007, soit trente ans après Peauaime Pour Karim Pour Fabien Les détrousseurs de rime Défricheurs de quatrains Sans dictionnaire de frime Pour ces p'tits frangins Déjà bien plus grands qu'moi Qui m'enterreront demain Si c'n'est pas fait déjà J'voudrais offrir ce slam Un peu ripoux, bancal Rigole pas ma p'tite dame Ou j'te slam une mandale Ce sera mon tout premier J'vous vois venir les tapettes Vaut mieux qu'ce soit le dernier Que vous vous dites en cachette Pour Fabien, pour Karim Et pour tous vos potos J'ai torché ces pauvres rimes Ce matin au bistrot J'vais vous les balancer A capela vaut mieux J'vais pas vous imposer En plus ma 'sique de vieux Ce sera pas un hommage Plein de clichés, de lieux communs Style putain j'ai la rage Vous écrivez trop bien Comme j'suis un poil pudique J'vais pas vous sucer Et puis surtout pas en public On n'est pas chez Cauet Pour Karim, pour Fabien Qui parfois me citez Au milieu de quelques-uns Dont vous vous prétendez Un p'tit peu les enfants Voir les héritiers J'voulais vous retourner le compliment De manière détournée J'vais chercher la p'tite bête Dans vos slams, dans vos bouches Même si j'adore vos textes J'aime enculer les mouches Alors je vous dirai Que malgré tout l'amour Que j'ai pour vos couplets Ça manque un peu d'humour Et malgré la passion Que m'inspire votre vécu Ça manque un peu d'nichons Ça manque un p'tit peu d'cul Pour Fabien, pour Karim Porte-voix des cités Quand j'analyse vos rimes Je m'dis un peu Fais chier Il n'y a pas d'autre mots Que périphérique ou keuf ? Pour décrire vos ghettos Parlez-moi de vos meuf Au lieu d'vous répandre Sur les banlieues d'embrouilles Dites-moi si vos femmes bandent Quand elles pensent à vos couilles Plutôt qu'poétiser Fraternité, marmots Dites-nous quand vous niquez Si elles crient Renaud ! Pour Karim, pour Fabien Qui ont qu'le mot Police À longueur de quatrain Quand j'attends clitoris Qui disent quatre-vingt-treize Pour parler d'leur pays Quand j'attends eh ça baise Comme des dieux à Saint-Denis Vous parlez de la lutte Pour des vies moins tragiques Mais jamais des turluttes Derrière la basilique Des gamins qui ont la frite Leurs histoires sans vie Mais jamais des coups d'bite Dont ils sont tous sortis Pour Fabien, pour Karim Quand l'premier rime en sein Et l'second en pine Je vais conclure enfin Sans rajouter d'couplet Sans hymne à la sodo Sans les culs à bouffer Qui manquent à vos brûlots Je termine mon poème Mon slam un peu vulgos Plein de mouille et de sperme Qui n'choquera que les craignos J'vous autorise quand même Si vous m'trouvez trop nul Quand j'vous dit je vous aime À m'répondre on t'encule</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jeune, j'y croyais Aujourd'hui je ne sais plus si c'est vrai Les temps changent la vie passe Emporte la voix des anges Et les entassent dans une impasse Alors on fonce on se tasse Puis on pousse et ça casse C'est la nouvelle théorie de l'évolution Survit aux poubelles avant la révolution Plus je grandis plus j'ai des frissons Je perds mes envies quand s'enchaînent les saisons J'ai l'impression de perdre la vie quand je n'écris plus sur des sons Trop de pression fait gicler l'encre sur la feuille flasque J'imprègne ma vison à l'intérieur de ces quelques flaques Je dessine des fresques sur poum poum tchak À chaque boum boum de mon cur J'insiste sur le temps fort de mon humeur Entre l'humour et l'amour La mort et l'erreur Je rap sans peur Car ces murs sont imprimés sur papier brouillon Et même si mes mots viennent du cur C'est juste quelques ratures d'un souillon Ce sont toujours les mêmes visions Qui sont vissées sur son En regardant à la télévision J'ai remarqué que j'étais sur la bonne voie pour percer Car ce n'est que du réchauffé Au ciné comme dans les émissions Je partirais en mission si j'avais la bonne voix Mais je ne suis qu'un bourge qui n'a pas la foi Je réussirai pas dans le rap et le sport à la fois You might also likePourtant jeune, j'y croyais Aujourd'hui je pense plus que ce soit vrai J'ai nommé slam mes délires Alors que je venais juste de découvrir Par hasard ce que c'était Tu penses à grand corps malade et tu t'es pas trompé Mais c'est bien avant son album que je le connais Je me suis connecté à Internet J'ai donné mes textes je me suis fait incendier encensé et interné Des réactions insensées Et ça me vexe qu'on me dise que c'est bien ce que je fais Sans me donner les raisons bien fondées! Trouvez vous cela si parfait ? Je ne crois pas Mais répondez Quand je vous demande pourquoi ce texte manque de beauté Jeune, je croyais Que quand on parlait on était écouté ! Mais quand on l'ouvre c'est souvent écourté ! La vie est aussi trafiquée Que les émissions de Fogiel ou Ruquier Je les mettrai à la rue les De la rue et Cauet etc... De ces rats on en retire rien de concret Si ce n'est que ce sont des cons créés Par la télévision pour raviver L'appétit glouton du peuple français Jusqu'à la crise de mauvaise foi Ma foi encore une fois bien digérée Je dis gérer sur papier mais ce n'est pas sur ! J'écris avec le pu qui sort de mes plaies J'écrirais encore plus si ça te déplaît Je signe Kévin t'as compris J'en peux plus de l'épeler ? Je me sens seul dans le froid à rapper dans le vide J'en peux plus de me les peler Alors je lance à la mer encore une fois une unième bouteille vide Emplit de liquide je crois voler Même si c'est mon avenir que je suis entrain de couler Clouer au sol depuis ma naissance Mis à terre dans mon adolescence J'essais de me relever Mais je sais que je finirai mis en terre Mis en pièce par la poussière l'histoire se réitère Je n'ai pas encore fixé mes critères Mais dans les critiques ou dans les mystères Je veux ma place au fond d'un cratère Jeune je croyais qu'il y avait Un but à notre vie dans cette ère Je pensais que ma venue allait être légendaire Alléchante, allégée et pleine d'air Mais à 7 ans les gendarmes m'ont arrêté Et m'ont dit qu'on ne peut pas tout faire Dès lors j'ai étouffé Je n'ai vu que de la grisaille quand j'ai débarqué Dans le sud de la France les pieds dans la méditerranée Il m'a fallut plusieurs années d'errance Pour que je comble mon ignorance Dans mon passé sur les îles tout semblait si parfait La mer était clair et les poissons colorés J'ai mal tout le long de mon âme Et si je pleure c'est pour soulager le fond de mon crâne Mon crime est d'avoir ouvert les yeux sur le monde Voila le pouvoir de la vérité J'essai de l'oublier à chaque seconde Mais jamais je ne pourrai m'y résoudre JAMAIS! J'ai été damné on m'a ôté Le titre de paladin de la vérité Quand j'ai omis de manière réfléchie De dire à celle que j'aimais ce que je savais Le monde est noir et comment le cacher Je le vois encore en un regard Et rien n'est prêt de changer Ce serait illusoire Mais jeune je nageais encore les yeux fermés Et je ne savais pas qu'on pouvait les ouvrir À 17 ans c'est triste à dire Qu'on vient d'éclore en même temps que de mourir Alors que mon cur avait partagé son empire Continue de lire tu es peut être jeune Mais tes paupières sont entrain de frémir J'arrête de gémir et parler de c'qui gène Je suis encore jeune et si ma plume prend de l'age Je prendrai de l'altitude pour un peu d'oxygène Je crois encore qu'on puisse dissiper les nuages</t>
+          <t>Jeune, j'y croyais Aujourd'hui je ne sais plus si c'est vrai Les temps changent la vie passe Emporte la voix des anges Et les entassent dans une impasse Alors on fonce on se tasse Puis on pousse et ça casse C'est la nouvelle théorie de l'évolution Survit aux poubelles avant la révolution Plus je grandis plus j'ai des frissons Je perds mes envies quand s'enchaînent les saisons J'ai l'impression de perdre la vie quand je n'écris plus sur des sons Trop de pression fait gicler l'encre sur la feuille flasque J'imprègne ma vison à l'intérieur de ces quelques flaques Je dessine des fresques sur poum poum tchak À chaque boum boum de mon cur J'insiste sur le temps fort de mon humeur Entre l'humour et l'amour La mort et l'erreur Je rap sans peur Car ces murs sont imprimés sur papier brouillon Et même si mes mots viennent du cur C'est juste quelques ratures d'un souillon Ce sont toujours les mêmes visions Qui sont vissées sur son En regardant à la télévision J'ai remarqué que j'étais sur la bonne voie pour percer Car ce n'est que du réchauffé Au ciné comme dans les émissions Je partirais en mission si j'avais la bonne voix Mais je ne suis qu'un bourge qui n'a pas la foi Je réussirai pas dans le rap et le sport à la fois Pourtant jeune, j'y croyais Aujourd'hui je pense plus que ce soit vrai J'ai nommé slam mes délires Alors que je venais juste de découvrir Par hasard ce que c'était Tu penses à grand corps malade et tu t'es pas trompé Mais c'est bien avant son album que je le connais Je me suis connecté à Internet J'ai donné mes textes je me suis fait incendier encensé et interné Des réactions insensées Et ça me vexe qu'on me dise que c'est bien ce que je fais Sans me donner les raisons bien fondées! Trouvez vous cela si parfait ? Je ne crois pas Mais répondez Quand je vous demande pourquoi ce texte manque de beauté Jeune, je croyais Que quand on parlait on était écouté ! Mais quand on l'ouvre c'est souvent écourté ! La vie est aussi trafiquée Que les émissions de Fogiel ou Ruquier Je les mettrai à la rue les De la rue et Cauet etc... De ces rats on en retire rien de concret Si ce n'est que ce sont des cons créés Par la télévision pour raviver L'appétit glouton du peuple français Jusqu'à la crise de mauvaise foi Ma foi encore une fois bien digérée Je dis gérer sur papier mais ce n'est pas sur ! J'écris avec le pu qui sort de mes plaies J'écrirais encore plus si ça te déplaît Je signe Kévin t'as compris J'en peux plus de l'épeler ? Je me sens seul dans le froid à rapper dans le vide J'en peux plus de me les peler Alors je lance à la mer encore une fois une unième bouteille vide Emplit de liquide je crois voler Même si c'est mon avenir que je suis entrain de couler Clouer au sol depuis ma naissance Mis à terre dans mon adolescence J'essais de me relever Mais je sais que je finirai mis en terre Mis en pièce par la poussière l'histoire se réitère Je n'ai pas encore fixé mes critères Mais dans les critiques ou dans les mystères Je veux ma place au fond d'un cratère Jeune je croyais qu'il y avait Un but à notre vie dans cette ère Je pensais que ma venue allait être légendaire Alléchante, allégée et pleine d'air Mais à 7 ans les gendarmes m'ont arrêté Et m'ont dit qu'on ne peut pas tout faire Dès lors j'ai étouffé Je n'ai vu que de la grisaille quand j'ai débarqué Dans le sud de la France les pieds dans la méditerranée Il m'a fallut plusieurs années d'errance Pour que je comble mon ignorance Dans mon passé sur les îles tout semblait si parfait La mer était clair et les poissons colorés J'ai mal tout le long de mon âme Et si je pleure c'est pour soulager le fond de mon crâne Mon crime est d'avoir ouvert les yeux sur le monde Voila le pouvoir de la vérité J'essai de l'oublier à chaque seconde Mais jamais je ne pourrai m'y résoudre JAMAIS! J'ai été damné on m'a ôté Le titre de paladin de la vérité Quand j'ai omis de manière réfléchie De dire à celle que j'aimais ce que je savais Le monde est noir et comment le cacher Je le vois encore en un regard Et rien n'est prêt de changer Ce serait illusoire Mais jeune je nageais encore les yeux fermés Et je ne savais pas qu'on pouvait les ouvrir À 17 ans c'est triste à dire Qu'on vient d'éclore en même temps que de mourir Alors que mon cur avait partagé son empire Continue de lire tu es peut être jeune Mais tes paupières sont entrain de frémir J'arrête de gémir et parler de c'qui gène Je suis encore jeune et si ma plume prend de l'age Je prendrai de l'altitude pour un peu d'oxygène Je crois encore qu'on puisse dissiper les nuages</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment là, hors du temps, que la réalité a choisi Pour montrer qu'elle décide et que si elle vut elle nous malmène Ell a injecté dans nos joies comme une anesthésie Souviens-toi de ces sourires, ce sera plus jamais les mêmes Le temps s'est accéléré d'un coup et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs, dans ma tête y'a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde mais ses ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle et un moment banal peut être une très bonne occupation Ce monde là respire le même air mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain You might also likeAlors pourquoi tant d'embarras face à un mec en fauteuil roulant Ou face à une aveugle, vas-y tu peux leur parler normalement C'est pas contagieux pourtant avant de refaire mes premiers pas Certains savent comme moi qu'y a des regards qu'on oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage Une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout, sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
+          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment là, hors du temps, que la réalité a choisi Pour montrer qu'elle décide et que si elle vut elle nous malmène Ell a injecté dans nos joies comme une anesthésie Souviens-toi de ces sourires, ce sera plus jamais les mêmes Le temps s'est accéléré d'un coup et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs, dans ma tête y'a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde mais ses ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle et un moment banal peut être une très bonne occupation Ce monde là respire le même air mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain Alors pourquoi tant d'embarras face à un mec en fauteuil roulant Ou face à une aveugle, vas-y tu peux leur parler normalement C'est pas contagieux pourtant avant de refaire mes premiers pas Certains savent comme moi qu'y a des regards qu'on oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage Une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout, sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Au matin je me rappelle, je t'ai dit je te rappelle Tu m'as laissé ton numéro d'un air solennel Mais quand ça a sonné et que j'ai entendu ta voix Tu m'as parlé comme si je te parlais pour la première fois Tu m'as demandé C'est qui? j'ai répondu C'est moi! J'ai vite compris que dans ta voix il faisait froid Je t'ai rappelé mon nom, les détails, la soirée Je me suis dit quel con, je t'ai entendu te marrer Si toi tu te souviens, tant mieux pour toi! Moi je n'ai rien qu de blablabla C'est quoi ton nom? C'est quoi c jeu? I don't know why you call me baby coz I can't remember you Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués Ta mémoire te fait défaut, la mienne sur-réagit Tu ne te rappelles de rien, je croule sous la nostalgie Tu voudrais plus de souvenirs, j'aimerai manquer un peu Difficile d'être un étranger à tes yeux J'me souviens de ton rire, du trottoir, du taxi Des étoiles, des clins d'oeil de la galaxie De nos gestes, et enfin de nos corps en vie Et du reste à la fin j'ai encore envie You might also like Envie de quoi? Envie de qui? Mais de quels corps? Mais de quelle nuit? Comment tu crois tout ce que tu disais? Si oh .. Franchement j'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués -C'est qui? -Bah c'est moi le mec de la soirée! -Alors? -Du coup, on peut s'voir? -Comment? -Oula je te dérange -Je dors -On s'était dit qu'on allait s'revoir -Mais quand? -Mais tu vois qui j'suis ou pas -Aucune idée -Mais tu m'avais dit de te rappeler -Ah bon? -Pourtant l'autre nuit -J'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués J'ai oublié J'ai oublié</t>
+          <t>Au matin je me rappelle, je t'ai dit je te rappelle Tu m'as laissé ton numéro d'un air solennel Mais quand ça a sonné et que j'ai entendu ta voix Tu m'as parlé comme si je te parlais pour la première fois Tu m'as demandé C'est qui? j'ai répondu C'est moi! J'ai vite compris que dans ta voix il faisait froid Je t'ai rappelé mon nom, les détails, la soirée Je me suis dit quel con, je t'ai entendu te marrer Si toi tu te souviens, tant mieux pour toi! Moi je n'ai rien qu de blablabla C'est quoi ton nom? C'est quoi c jeu? I don't know why you call me baby coz I can't remember you Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués Ta mémoire te fait défaut, la mienne sur-réagit Tu ne te rappelles de rien, je croule sous la nostalgie Tu voudrais plus de souvenirs, j'aimerai manquer un peu Difficile d'être un étranger à tes yeux J'me souviens de ton rire, du trottoir, du taxi Des étoiles, des clins d'oeil de la galaxie De nos gestes, et enfin de nos corps en vie Et du reste à la fin j'ai encore envie Envie de quoi? Envie de qui? Mais de quels corps? Mais de quelle nuit? Comment tu crois tout ce que tu disais? Si oh .. Franchement j'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués -C'est qui? -Bah c'est moi le mec de la soirée! -Alors? -Du coup, on peut s'voir? -Comment? -Oula je te dérange -Je dors -On s'était dit qu'on allait s'revoir -Mais quand? -Mais tu vois qui j'suis ou pas -Aucune idée -Mais tu m'avais dit de te rappeler -Ah bon? -Pourtant l'autre nuit -J'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués J'ai oublié J'ai oublié</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>5 continents, des océans pour faire son terrain de jeu Il a parfois été grand, parfois très courageux Pour sadapter il a construit, il sest montré inventif Pour développer il a produit sans être très attentif 5 continents, des océans pour fortifier son empire Parfois il a tout fait foiré, et parfois il a fait pire En quête permanente dévolution il sest créer des dilemmes À chercher trop de solutions, il sest trouvé des problèmes Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes Jai vu sur un même trottoir la bienveillance et lhorreur Jentends des gens tous les soirs, Jean qui rit et Jean qui pleure Et sur la route du progrès, Jean qui fonce et Jean qui freine Je suis fasciné par notre espèce schizophrène Fabuleux être vivant au cerveau double tranchant Souvent tourné vers le haut mais tiré par ses penchants Dualité fascinante, qui crée des ponts et des ravages Capable du meilleur, et capable du plus sauvage Côté pile et côté face, côté style et côté crasse En fabricant les belles avenues, il a créé des impasses Tant dintelligence si mal mise à profit De dérive en excès, cest lui-même quil sacrifie You might also likePourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes 5 continents des océans pour courir à sa perte Il a créé des armes capables de tout faire disparaître Il est venu, il a vu, il a vaincu la couche dozone Il scie la branche sur laquelle il avait posé son trône Pour aller toujours plus vite et pour produire plus fort Il a abîmé la vie et accéléré la mort Il a rasé les forêts, pourri la mer et la terre Transformé les climats et capturé les panthères Il a créé des vaccins mais a créé des cancers Il a créé limprimerie mais créé larme nucléaire Il a créé la peinture et les plus belles symphonies Mais il a créé Trump, Zemmour et Loft Story Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes</t>
+          <t>5 continents, des océans pour faire son terrain de jeu Il a parfois été grand, parfois très courageux Pour sadapter il a construit, il sest montré inventif Pour développer il a produit sans être très attentif 5 continents, des océans pour fortifier son empire Parfois il a tout fait foiré, et parfois il a fait pire En quête permanente dévolution il sest créer des dilemmes À chercher trop de solutions, il sest trouvé des problèmes Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes Jai vu sur un même trottoir la bienveillance et lhorreur Jentends des gens tous les soirs, Jean qui rit et Jean qui pleure Et sur la route du progrès, Jean qui fonce et Jean qui freine Je suis fasciné par notre espèce schizophrène Fabuleux être vivant au cerveau double tranchant Souvent tourné vers le haut mais tiré par ses penchants Dualité fascinante, qui crée des ponts et des ravages Capable du meilleur, et capable du plus sauvage Côté pile et côté face, côté style et côté crasse En fabricant les belles avenues, il a créé des impasses Tant dintelligence si mal mise à profit De dérive en excès, cest lui-même quil sacrifie Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes 5 continents des océans pour courir à sa perte Il a créé des armes capables de tout faire disparaître Il est venu, il a vu, il a vaincu la couche dozone Il scie la branche sur laquelle il avait posé son trône Pour aller toujours plus vite et pour produire plus fort Il a abîmé la vie et accéléré la mort Il a rasé les forêts, pourri la mer et la terre Transformé les climats et capturé les panthères Il a créé des vaccins mais a créé des cancers Il a créé limprimerie mais créé larme nucléaire Il a créé la peinture et les plus belles symphonies Mais il a créé Trump, Zemmour et Loft Story Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela You might also like On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
+          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Au temps jadis, fis, il fallait pour faire la cour Sortir sa plus belle plume et tenter quelques mots d'amours Transmettre la lettre, si possible loin des regards Ajouter du parfum sur le papier pour les ringards Aujourd'hui ça va plus vite, c'est la drague en digital Le smartphone pour pécho est devenu quasi vital Texto et Facebook sont les alliés de Cupidon Sans eux, t'es célibataire, t'es rien, t'es un bidon TKT j'te kiff c'est trop LOL MDR Abréviations, fautes d'orthographe, ouvriers de la langue de Molière Il suffit de mettre trois petits points derrière les mots à bientôt Et on comprends tout de suite que tu veux jouer recto-verso Ça manque un peu de recherche et d'un brin de poésie Mais c'est plus efficace, merci à la technologie Car si tout va plus vite et qu'on se rencontre sans détour On ne peut que se réjouir, tant que les gens font l'amour Céline voulait Medhy, mais Medhy voulait Jennifer Séverine voulait Teddy, et Teddy préférait son frère Son frère lui ne désirait que les cougars athlétiques Aux lèvres gonflées, figées, la chirurgie est statique Katty a encore trompé son mari la semaine dernière Il a rien vu en séminaire avec ses deux jeunes secrétaires Ils étaient content de se retrouver après leur petites affaires C'est ladultère salutaire, quand père et mère savent se taire Patrice aime bien les petite jeunes, qui aime bien les petits vieux Alice aime jouer avec les hommes, qui aiment bien ses petits jeux Marie aime les galipettes avec plusieurs amis Puis Annie aime les sucettes, les sucettes à l'anis Ça manque un peu de sentiment, puis d'un brin de passion Mais ne soyons pas moralistes, acceptons toutes les infractions Car tant que les gens se font plus de bien, que de mal en retour On doit pouvoir s'en réjouir, tant que les gens font l'amour You might also like Le jour de son mariage Laurent avait bu trop de whisky Il se rappelait qu'il était marier, mais ne savait plus contre qui Steve et Fabienne ont tout quitté pour s'aimer toute leur vie Et ils vécurent peu heureux et eurent beaucoup d'ennuis La vanne, le jeu de mot, et la petite dose de cynisme Accompagnent bien les situations qui manquent un peu dhéroïsme Les belles histoires existent mais je les chanterai un autre jour Elle peuvent bien attendre leur tour tant que les gens font l'amour</t>
+          <t>Au temps jadis, fis, il fallait pour faire la cour Sortir sa plus belle plume et tenter quelques mots d'amours Transmettre la lettre, si possible loin des regards Ajouter du parfum sur le papier pour les ringards Aujourd'hui ça va plus vite, c'est la drague en digital Le smartphone pour pécho est devenu quasi vital Texto et Facebook sont les alliés de Cupidon Sans eux, t'es célibataire, t'es rien, t'es un bidon TKT j'te kiff c'est trop LOL MDR Abréviations, fautes d'orthographe, ouvriers de la langue de Molière Il suffit de mettre trois petits points derrière les mots à bientôt Et on comprends tout de suite que tu veux jouer recto-verso Ça manque un peu de recherche et d'un brin de poésie Mais c'est plus efficace, merci à la technologie Car si tout va plus vite et qu'on se rencontre sans détour On ne peut que se réjouir, tant que les gens font l'amour Céline voulait Medhy, mais Medhy voulait Jennifer Séverine voulait Teddy, et Teddy préférait son frère Son frère lui ne désirait que les cougars athlétiques Aux lèvres gonflées, figées, la chirurgie est statique Katty a encore trompé son mari la semaine dernière Il a rien vu en séminaire avec ses deux jeunes secrétaires Ils étaient content de se retrouver après leur petites affaires C'est ladultère salutaire, quand père et mère savent se taire Patrice aime bien les petite jeunes, qui aime bien les petits vieux Alice aime jouer avec les hommes, qui aiment bien ses petits jeux Marie aime les galipettes avec plusieurs amis Puis Annie aime les sucettes, les sucettes à l'anis Ça manque un peu de sentiment, puis d'un brin de passion Mais ne soyons pas moralistes, acceptons toutes les infractions Car tant que les gens se font plus de bien, que de mal en retour On doit pouvoir s'en réjouir, tant que les gens font l'amour Le jour de son mariage Laurent avait bu trop de whisky Il se rappelait qu'il était marier, mais ne savait plus contre qui Steve et Fabienne ont tout quitté pour s'aimer toute leur vie Et ils vécurent peu heureux et eurent beaucoup d'ennuis La vanne, le jeu de mot, et la petite dose de cynisme Accompagnent bien les situations qui manquent un peu dhéroïsme Les belles histoires existent mais je les chanterai un autre jour Elle peuvent bien attendre leur tour tant que les gens font l'amour</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie Il existe paraît-il, un instant dans l'écriture Qui oublie la page blanche et efface les ratures Un véritable état second, une espèce de transe Qui apparaît mystérieusement et s'envole en silence Que l'on rape ou que l'on slame, on recherche ce moment Il allume une flamme qui nous éclaire brièvement Cette flamme est la preuve, laisse moi t'en faire une démo Qu'il est possible de combattre le mal par les mots C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moment rares et irréels que la quiétude inonde Rouda, n'oublie jamais notre parole du bout du monde On ressent comme une coupure dans la vie, comme un rêve On oublie les coups durs de la vie, comme une trêve C'est un phénomène puissant, je ne te parle pas d'inspiration Mais d'un souffle plus profond comme une seconde respiration On voit et on entend l'encre devenir vivante On goûte et on sent la saveur d'une rime errante On touche du doigt l'instant qui nous enveloppe de sa puissance C'est sans cesse la renaissance de l'essence même de nos cinq sens C'est le moment où on passe de l'autre côté des paysages On sympathise avec le vent et on tutoie les nuages Il fait jour en pleine nuit et il fait nuit en plein jour Profite de cet instant, il ne durera pas toujours C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Le moment où le voile se lève et la magie s'élance Là où j'ai croisé Souleymane au bout du sixième silence Si on a pas atteint le Nirvana, on doit en être au seuil Pourtant je suis simplement assis là devant ma feuille Peut-être que cet instant n'existe que dans mon esprit Et que je suis complètement mythomane lorsque j'écris Mais laisse moi mon stylo, y'a pas moyen que je m'arrête J'ai une envie d'écrire comme t'as une envie de cigarette Et pour m'enlever ce désir je te demanderais de repasser Car tant que je pourrais écrire je continuerai de penser Que c'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moments que l'on redécouvre, que l'on connaît plus ou moins Tu l'as déjà touché Jacky, j'en suis témoin On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésieYou might also like</t>
+          <t>On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie Il existe paraît-il, un instant dans l'écriture Qui oublie la page blanche et efface les ratures Un véritable état second, une espèce de transe Qui apparaît mystérieusement et s'envole en silence Que l'on rape ou que l'on slame, on recherche ce moment Il allume une flamme qui nous éclaire brièvement Cette flamme est la preuve, laisse moi t'en faire une démo Qu'il est possible de combattre le mal par les mots C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moment rares et irréels que la quiétude inonde Rouda, n'oublie jamais notre parole du bout du monde On ressent comme une coupure dans la vie, comme un rêve On oublie les coups durs de la vie, comme une trêve C'est un phénomène puissant, je ne te parle pas d'inspiration Mais d'un souffle plus profond comme une seconde respiration On voit et on entend l'encre devenir vivante On goûte et on sent la saveur d'une rime errante On touche du doigt l'instant qui nous enveloppe de sa puissance C'est sans cesse la renaissance de l'essence même de nos cinq sens C'est le moment où on passe de l'autre côté des paysages On sympathise avec le vent et on tutoie les nuages Il fait jour en pleine nuit et il fait nuit en plein jour Profite de cet instant, il ne durera pas toujours C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Le moment où le voile se lève et la magie s'élance Là où j'ai croisé Souleymane au bout du sixième silence Si on a pas atteint le Nirvana, on doit en être au seuil Pourtant je suis simplement assis là devant ma feuille Peut-être que cet instant n'existe que dans mon esprit Et que je suis complètement mythomane lorsque j'écris Mais laisse moi mon stylo, y'a pas moyen que je m'arrête J'ai une envie d'écrire comme t'as une envie de cigarette Et pour m'enlever ce désir je te demanderais de repasser Car tant que je pourrais écrire je continuerai de penser Que c'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moments que l'on redécouvre, que l'on connaît plus ou moins Tu l'as déjà touché Jacky, j'en suis témoin On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>J'étais assis sur un banc, cinq minutes avec moi Perdu dans mes pensées qui me parlaient sans voix Dans un parc un peu désert, sous un ciel sans couleur Un moment un peu d'air, dans une bulle sans humeur Un vieil homme approcha fermant ainsi cette parenthèse Il s'assit à côté de moi et me regarda l'air à l'aise Avec un regard confiant il me dit cette phrase sans astuce Quel dommage que les gens ne se parlent pas plus Jeune homme croyez-moi, j'ai un peu d'expérience Je ne vous connais pas, je m'assois près de vous Si les gens se parlaient, les choses auraient un sens Je vous parle et pourtant, je suis tout sauf un fou C'est juste que je sais, privilège de l'âge Que l'humain est moins sot, s'il est un peu curieux Que l'humain est plus fort quand il croit au partage Qu'il devient plus beau quand il ouvre les yeux L'homme est un solitaire, l'homme est un solitaire Qui a besoin des autres, l'homme est un solitaire Et plus il est ouvert et plus il devient grand Découvrez ma culture, découvrez ma culture J'apprendrai la vôtre Je pense, donc je suis Et tu es, donc j'apprends You might also like Nous avons pris le temps de voir nos différences De mélanges et rencontres, il faut franchir le seuil Parlons aux inconnus, parlons aux inconnues Sortons de l'ignorance, sortons de l'ignorance Faisons de notre monde un terrain sans orgueil Comme on croise nos voix, croisons nos habitudes Nous quitterons ce parc plus riches qu'en entrant Cessons de voir petit, prenons de l'altitude Partageons nos idées, nos valeurs, notre temps Je pense, donc je suis Et tu es, donc j'apprends</t>
+          <t>J'étais assis sur un banc, cinq minutes avec moi Perdu dans mes pensées qui me parlaient sans voix Dans un parc un peu désert, sous un ciel sans couleur Un moment un peu d'air, dans une bulle sans humeur Un vieil homme approcha fermant ainsi cette parenthèse Il s'assit à côté de moi et me regarda l'air à l'aise Avec un regard confiant il me dit cette phrase sans astuce Quel dommage que les gens ne se parlent pas plus Jeune homme croyez-moi, j'ai un peu d'expérience Je ne vous connais pas, je m'assois près de vous Si les gens se parlaient, les choses auraient un sens Je vous parle et pourtant, je suis tout sauf un fou C'est juste que je sais, privilège de l'âge Que l'humain est moins sot, s'il est un peu curieux Que l'humain est plus fort quand il croit au partage Qu'il devient plus beau quand il ouvre les yeux L'homme est un solitaire, l'homme est un solitaire Qui a besoin des autres, l'homme est un solitaire Et plus il est ouvert et plus il devient grand Découvrez ma culture, découvrez ma culture J'apprendrai la vôtre Je pense, donc je suis Et tu es, donc j'apprends Nous avons pris le temps de voir nos différences De mélanges et rencontres, il faut franchir le seuil Parlons aux inconnus, parlons aux inconnues Sortons de l'ignorance, sortons de l'ignorance Faisons de notre monde un terrain sans orgueil Comme on croise nos voix, croisons nos habitudes Nous quitterons ce parc plus riches qu'en entrant Cessons de voir petit, prenons de l'altitude Partageons nos idées, nos valeurs, notre temps Je pense, donc je suis Et tu es, donc j'apprends</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>La deuxième fois ça fout encore les mêmes frissons J'ai vu ta mère qui pleurait de la même façon La deuxième fois c'est toujours autant d'émotions La deuxième fois c'est la deuxième révolution Tu peux déjà rire chanter et bavarder Mais on ne peut pas s'empêcher de te regarder Tobserves le monde avec ton petit air sérieux Et là tu vois ce que va être ton prochain jeu Depuis que tu es là évidemment tout s'accélère D'ailleurs souvent pour ce matin tu dis hier Tu es entré dans la famille sans faire de bruit Et avec toi notre équilibre est plus joli Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu es pas tout seul là tu es tranquille faut pas t'en faire Tu peux déjà piquer des jouets à ton grand frère Tu me racontes des histoires un peu décousues J'ai tout suivi mais j'ai compris que le début Tu as tes mots que tu remies à ta manière Combien de temps encore voudras-tu réveiller ta mère ? Ces petites choses quon aimerait vivre encore un peu Tu peux déjà nous rendre sacrément gâteux Tu peux déjà avoir tes petits moments d'orgueil Et quand tu perds au memory, tu fais la gueule Jte laisse bouder je joue au papa insensible Mais à ce moment là tes encore plus irrésistible You might also like Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu peux déjà faire tellement de choses bien mieux que moi Danser, courir et puis rêver ça va de soi Un ptit bonhomme avec les plus gros yeux du monde Tellement bleus qu'on peut se noyer chaque seconde Tout est si simple que même ton rêve paraît normal C'est de voler dans l'espace avec les étoiles Tu peux déjà te moquer de moi je te vanter D'être le premier à m'avoir vraiment fait chanter x2 Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi</t>
+          <t>La deuxième fois ça fout encore les mêmes frissons J'ai vu ta mère qui pleurait de la même façon La deuxième fois c'est toujours autant d'émotions La deuxième fois c'est la deuxième révolution Tu peux déjà rire chanter et bavarder Mais on ne peut pas s'empêcher de te regarder Tobserves le monde avec ton petit air sérieux Et là tu vois ce que va être ton prochain jeu Depuis que tu es là évidemment tout s'accélère D'ailleurs souvent pour ce matin tu dis hier Tu es entré dans la famille sans faire de bruit Et avec toi notre équilibre est plus joli Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu es pas tout seul là tu es tranquille faut pas t'en faire Tu peux déjà piquer des jouets à ton grand frère Tu me racontes des histoires un peu décousues J'ai tout suivi mais j'ai compris que le début Tu as tes mots que tu remies à ta manière Combien de temps encore voudras-tu réveiller ta mère ? Ces petites choses quon aimerait vivre encore un peu Tu peux déjà nous rendre sacrément gâteux Tu peux déjà avoir tes petits moments d'orgueil Et quand tu perds au memory, tu fais la gueule Jte laisse bouder je joue au papa insensible Mais à ce moment là tes encore plus irrésistible Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu peux déjà faire tellement de choses bien mieux que moi Danser, courir et puis rêver ça va de soi Un ptit bonhomme avec les plus gros yeux du monde Tellement bleus qu'on peut se noyer chaque seconde Tout est si simple que même ton rêve paraît normal C'est de voler dans l'espace avec les étoiles Tu peux déjà te moquer de moi je te vanter D'être le premier à m'avoir vraiment fait chanter x2 Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bien sûr que non j'ai rien changé à mes habitudes Pas de nouvelles attitude, même degré, même latitude Toujours les mêmes envies, les mêmes délires, les même valeurs Toujours pas de montre à mon poignet, rarement pressé, jamais à l'heure Bon c'est vrai que depuis un moment, j'prends plus le métro Trop galère, trop perte de temps, des rendez-vous j'en ai trop Et puis j'avoue dans la voiture, ce n'est plus moi qui conduis J'ai un chauffeur, enfin deux, un pour le jour et un la nuit J'ai toujours les mêmes potes mais je les vois que deux fois par an Et une fois tous les semestres je passe un coup de fil à mes parents C'est juste un problème de planning, ne croyez pas que je me la pète Rassurez-vous je reste underground, parce qu'underground c'est dans la tête J'ai pas changé de numéro de phone, mais je réponds pas, j'ai pas le temps Sauf pour un week-end dans les îles, là je suis toujours partant Je suis pas devenu trop parano mais je fais confiance qu'aux gens blindés Et j'ai acheté deux dobermans qui surveille mon lecteur DVD Je vais bouffer au restaurant dès que dans le frigo y a plus de caviar J'ai des jeans en peau de serpent et des Stan Smith en lézard Je n'arrive à m'endormir qu'après deux bouteilles de champ' Et en guise de réveil, un violoniste vient dans ma chambre J'ai remplacé ma vieille télé par un plasma de 20 mètres carrés J'ai 500 chaînes que je vois jamais car je préfère me barrer Dans des soirées bien branchées où tous les soirs je fais la fête Mais je reste underground, parce qu'underground c'est dans la tête You might also like Avant chaque concert, je parle à personne pendant 2heures Je reste dans ma loge tamisée et pour chaque pied j'ai un masseur J'annule une partie de la tournée dès que j'ai le moindre souci Et après chaque représentation, je mange du foie gras et des sushis Pour les séances de dédicaces, je veux que les gens soient sélectionnés J'en veux des droits et bien élevés, je supporte plus les gens paumés Bien sûr je veux des belles filles qui me disent qu'elles m'adorent Je veux qu'on crie, qu'on m'applaudisse, je ne supporte plus qu'on m'ignore Je connais plein de monde mais mes vrais amis sont tous des gens de télé Si tu peux rien m'apporter, sois cool, arrête de m'appeler Je fais la bise à tout le monde comme on le fait dans la jet-set Mais je reste underground, parce qu'underground c'est dans la tête Bien sûr que non j'ai pas changé, c'est simplement que c'est plus pratique De voyager en jet privé et de me reposer dans des suites Bien sûr que oui je suis resté le même, c'est simplement que c'est normal De n'accepter de slamer que si le ministre est dans la salle J'ai une panthère sur mon balcon et un requin dans ma baignoire Ma voiture a des vitres tintées et je sors qu'avec des lunettes noires J'ai un jacuzzi dans ma Clio et des diamants dans le moteur Et désormais je vais au marché de Saint-Denis en chaise à porteur Je continue de slamer dans des bars mais je veux venir avec mes sponsors Puis faut me fournir un costard et un manche de micro en or Si j'ai changé c'est dans le regard des autres car moi je vous le répète Je suis resté underground, parce qu'underground c'est dans la tête</t>
+          <t>Bien sûr que non j'ai rien changé à mes habitudes Pas de nouvelles attitude, même degré, même latitude Toujours les mêmes envies, les mêmes délires, les même valeurs Toujours pas de montre à mon poignet, rarement pressé, jamais à l'heure Bon c'est vrai que depuis un moment, j'prends plus le métro Trop galère, trop perte de temps, des rendez-vous j'en ai trop Et puis j'avoue dans la voiture, ce n'est plus moi qui conduis J'ai un chauffeur, enfin deux, un pour le jour et un la nuit J'ai toujours les mêmes potes mais je les vois que deux fois par an Et une fois tous les semestres je passe un coup de fil à mes parents C'est juste un problème de planning, ne croyez pas que je me la pète Rassurez-vous je reste underground, parce qu'underground c'est dans la tête J'ai pas changé de numéro de phone, mais je réponds pas, j'ai pas le temps Sauf pour un week-end dans les îles, là je suis toujours partant Je suis pas devenu trop parano mais je fais confiance qu'aux gens blindés Et j'ai acheté deux dobermans qui surveille mon lecteur DVD Je vais bouffer au restaurant dès que dans le frigo y a plus de caviar J'ai des jeans en peau de serpent et des Stan Smith en lézard Je n'arrive à m'endormir qu'après deux bouteilles de champ' Et en guise de réveil, un violoniste vient dans ma chambre J'ai remplacé ma vieille télé par un plasma de 20 mètres carrés J'ai 500 chaînes que je vois jamais car je préfère me barrer Dans des soirées bien branchées où tous les soirs je fais la fête Mais je reste underground, parce qu'underground c'est dans la tête Avant chaque concert, je parle à personne pendant 2heures Je reste dans ma loge tamisée et pour chaque pied j'ai un masseur J'annule une partie de la tournée dès que j'ai le moindre souci Et après chaque représentation, je mange du foie gras et des sushis Pour les séances de dédicaces, je veux que les gens soient sélectionnés J'en veux des droits et bien élevés, je supporte plus les gens paumés Bien sûr je veux des belles filles qui me disent qu'elles m'adorent Je veux qu'on crie, qu'on m'applaudisse, je ne supporte plus qu'on m'ignore Je connais plein de monde mais mes vrais amis sont tous des gens de télé Si tu peux rien m'apporter, sois cool, arrête de m'appeler Je fais la bise à tout le monde comme on le fait dans la jet-set Mais je reste underground, parce qu'underground c'est dans la tête Bien sûr que non j'ai pas changé, c'est simplement que c'est plus pratique De voyager en jet privé et de me reposer dans des suites Bien sûr que oui je suis resté le même, c'est simplement que c'est normal De n'accepter de slamer que si le ministre est dans la salle J'ai une panthère sur mon balcon et un requin dans ma baignoire Ma voiture a des vitres tintées et je sors qu'avec des lunettes noires J'ai un jacuzzi dans ma Clio et des diamants dans le moteur Et désormais je vais au marché de Saint-Denis en chaise à porteur Je continue de slamer dans des bars mais je veux venir avec mes sponsors Puis faut me fournir un costard et un manche de micro en or Si j'ai changé c'est dans le regard des autres car moi je vous le répète Je suis resté underground, parce qu'underground c'est dans la tête</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur On a grandi dans la même chambre et on a écouté les mêmes histoires Comme les plus lointains souvenirs s'assemblent, je croise forcément son regard Elle m'a appris à jouer aux dames et à écrire mon prénom en attaché Beaucoup plus de rires que de larmes, on s'est même jamais vraiment fâchés J'ai assisté de loin à ses toutes premières histoires d'amours Si jamais les parents voulaient savoir moi j'étais muet et j'étais sourd Face aux galères on a tenu l'coup et à chaque fois l'autre était là en soutien Dans la famille on parle pas beaucoup et on s'aime, solides, l'air de rien Elle est celle qui me soutien, celle qui me réconforte Sur mon épaule, sa main, je la sens tellement forte Tout dans la discrétion, derrière les projecteurs Je sens son attention, son regard protecteur You might also like On n'peut pas dire de beaucoup d'gens qu'ils te connaissent depuis la naissance Y a peu d'monde qui te permette de donner au mot famille un vrai sens Elle était là à chaque victoire, et bien sûr à chaque coup dur de chaque époque Elle peut raconter mon histoire, elle me connait bien avant mes meilleurs potes Avec elle on a inventé des jeux avec des décors invisibles Elle est près du cur, même loin des yeux, il y a des liens indestructibles Il parait qu'on n'choisit pas sa famille, moi je la choisirai elle sans hésitation Et comme elle écoute parfois mes disques, elle entendra p't-être cette déclaration Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Avec elle on a déterré des coquillages enfouis dans le sable On est issu des mêmes paysages, il y a des liens indéfinissables Entre élégance, intelligence, elle sait même être forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Une sur Une sur Une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur</t>
+          <t>Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur On a grandi dans la même chambre et on a écouté les mêmes histoires Comme les plus lointains souvenirs s'assemblent, je croise forcément son regard Elle m'a appris à jouer aux dames et à écrire mon prénom en attaché Beaucoup plus de rires que de larmes, on s'est même jamais vraiment fâchés J'ai assisté de loin à ses toutes premières histoires d'amours Si jamais les parents voulaient savoir moi j'étais muet et j'étais sourd Face aux galères on a tenu l'coup et à chaque fois l'autre était là en soutien Dans la famille on parle pas beaucoup et on s'aime, solides, l'air de rien Elle est celle qui me soutien, celle qui me réconforte Sur mon épaule, sa main, je la sens tellement forte Tout dans la discrétion, derrière les projecteurs Je sens son attention, son regard protecteur On n'peut pas dire de beaucoup d'gens qu'ils te connaissent depuis la naissance Y a peu d'monde qui te permette de donner au mot famille un vrai sens Elle était là à chaque victoire, et bien sûr à chaque coup dur de chaque époque Elle peut raconter mon histoire, elle me connait bien avant mes meilleurs potes Avec elle on a inventé des jeux avec des décors invisibles Elle est près du cur, même loin des yeux, il y a des liens indestructibles Il parait qu'on n'choisit pas sa famille, moi je la choisirai elle sans hésitation Et comme elle écoute parfois mes disques, elle entendra p't-être cette déclaration Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Avec elle on a déterré des coquillages enfouis dans le sable On est issu des mêmes paysages, il y a des liens indéfinissables Entre élégance, intelligence, elle sait même être forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Une sur Une sur Une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Un regard, une rencontre, un été, un sourire Un numéro, un mail, une attente, un souvenir Un appel, une voix, un début, un rencard Un horaire, un endroit, une venue, un espoir Une terrasse, un café, un dialogue, un moment Un soleil, une lumière, un cur, un battement Une seconde, une minute, une heure, un plaisir Un au-revoir, une prochaine, une promesse, un désir Un après, une durée, une patience, un silence Un doute, un pourquoi, un regret, une distance Un retour, une surprise, un déluge, une marée Une suite, une envie, un projet, une soirée Une pleine lune, une virée, un instant, une pulsion Un frôlement, un baiser, une magie, un frisson Un accord, un avenir, une force, une destinée Une étoile, un poème et un verbe aimerYou might also like</t>
+          <t>Un regard, une rencontre, un été, un sourire Un numéro, un mail, une attente, un souvenir Un appel, une voix, un début, un rencard Un horaire, un endroit, une venue, un espoir Une terrasse, un café, un dialogue, un moment Un soleil, une lumière, un cur, un battement Une seconde, une minute, une heure, un plaisir Un au-revoir, une prochaine, une promesse, un désir Un après, une durée, une patience, un silence Un doute, un pourquoi, un regret, une distance Un retour, une surprise, un déluge, une marée Une suite, une envie, un projet, une soirée Une pleine lune, une virée, un instant, une pulsion Un frôlement, un baiser, une magie, un frisson Un accord, un avenir, une force, une destinée Une étoile, un poème et un verbe aimer</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Javais été invité et je pensais navoir rien à gagner Cétait lors dun soiré et je nétais pas venu accompagné Et puis jai vu la connaissance dun ami éloigné Elle était lélégance des chevilles aux poignets Elle parlait peu, elle observait, elle ma regardé sans me voir Les deux personnes avec elle me paressait des faire valoirs Elle semblait seule dans la foule je lai aperçue de loin Elle écoutait le bruit du monde un verre à la main La musique devenait forte et couvrait les bavardages La lumière devenait faible, quand elle caressait son visage Elle a traversé la salle tout droit dans ma direction Elle a frôlé mon épaule sans y porter attention Et soudain dun pas léger, elle sest mise à danser Comme si mes yeux désormais devraient être récompensés Elle a éclipsé tout être humain a présent sur son chemin Elle a retourné mon esprit, un verre à la main Il y avait trop dmonde ce soir-là, javais la flemme de parler Et pour poser mon verre, je nsavais pas où aller Alors mon cocktail à la main, j'ai rejoins la piste de danse Jai fait exprès de frôler cet homme, ami lointain dune connaissance Depuis quil est arrivé, il me regarde fixement Je faisais mine de ne pas le voir, ça mamusait énormément S'il décidait de maborder, je lui laisserai serment une chance Son regard me troublait, ça devenait une évidence Elle semblait danser au ralenti, et ses cheveux attachés Dévoilait sa nuque à laquelle mes yeux restaient accrochés Pour savoir comment l'aborder, je devais me remettre à penser Je cherchais mes phrases en attendant quelle arrête de danser Il était derrière moi, mais je sentais sa présence Je gardais ce verre à la main pour me redonner une contenance J'ai arrêté de danser pour qu'il vienne à ma rencontre Je me retournais vers lui, je savais quil allait se rendre compte Elle s'est retournée d'un seul coup, imaginer mon émotion Quand jai saisi son regard tout droit dans ma direction Il mfallait agir vite, loccasion nallait pas séterniser Je cherchais une approche, mais mon cerveau semblait tétanisé Jai bien pensé à lui offrir du champagne ou du vin Mais on offre pas à boire à celle qui a déjà un verre à la main Alors jai trouvé une autre idée, une option tout indiquée Je vais moi aussi chercher un verre et revenir pour trinquer Nous étions enfin face à face, mon regard dans son regard Mais au lieu de sapprocher, il est parti vers le bar N'était-ce pas moi quil regardait ? Jcomprenais plus rien Je restais seule désorientée, un verre à la main Jvoulais en avoir le cur net comprendre sa disgrâce Jai décidé de le suivre au bar, mais je ne retrouvais pas sa trace Y avait tellement dmonde, allais-je à nouveau le rencontrer ? Ou allais-je poser mon verre et me décider à rentrer ? Je n'suis pas allé jusquau bar, un serveur ambulant que jai croisé ma proposé de disposer dune flûte de champagne rosé Le temps de le remercier puis de rejoindre la belle Je préparais le bon sourire pour enfin trinquer avec elle Mais lorsque je suis revenu, elle avait disparu Je lai cherché, jai attendu, je ne l'ai jamais revu Je ne connaîtrais jamais sa voie ni lodeur de son parfum Je restais seul, un verre à la main, un rêve à la fin You might also like Pour toute une vie, où jusquà demain À quoi ça tient ? À quoi ça tient ? Une danse un geste, un verre à la main Ça tient à rien, ça tient à rien Pour toute une vie, où jusquà demain À quoi sattendre ? À quoi sattendre ?</t>
+          <t>Javais été invité et je pensais navoir rien à gagner Cétait lors dun soiré et je nétais pas venu accompagné Et puis jai vu la connaissance dun ami éloigné Elle était lélégance des chevilles aux poignets Elle parlait peu, elle observait, elle ma regardé sans me voir Les deux personnes avec elle me paressait des faire valoirs Elle semblait seule dans la foule je lai aperçue de loin Elle écoutait le bruit du monde un verre à la main La musique devenait forte et couvrait les bavardages La lumière devenait faible, quand elle caressait son visage Elle a traversé la salle tout droit dans ma direction Elle a frôlé mon épaule sans y porter attention Et soudain dun pas léger, elle sest mise à danser Comme si mes yeux désormais devraient être récompensés Elle a éclipsé tout être humain a présent sur son chemin Elle a retourné mon esprit, un verre à la main Il y avait trop dmonde ce soir-là, javais la flemme de parler Et pour poser mon verre, je nsavais pas où aller Alors mon cocktail à la main, j'ai rejoins la piste de danse Jai fait exprès de frôler cet homme, ami lointain dune connaissance Depuis quil est arrivé, il me regarde fixement Je faisais mine de ne pas le voir, ça mamusait énormément S'il décidait de maborder, je lui laisserai serment une chance Son regard me troublait, ça devenait une évidence Elle semblait danser au ralenti, et ses cheveux attachés Dévoilait sa nuque à laquelle mes yeux restaient accrochés Pour savoir comment l'aborder, je devais me remettre à penser Je cherchais mes phrases en attendant quelle arrête de danser Il était derrière moi, mais je sentais sa présence Je gardais ce verre à la main pour me redonner une contenance J'ai arrêté de danser pour qu'il vienne à ma rencontre Je me retournais vers lui, je savais quil allait se rendre compte Elle s'est retournée d'un seul coup, imaginer mon émotion Quand jai saisi son regard tout droit dans ma direction Il mfallait agir vite, loccasion nallait pas séterniser Je cherchais une approche, mais mon cerveau semblait tétanisé Jai bien pensé à lui offrir du champagne ou du vin Mais on offre pas à boire à celle qui a déjà un verre à la main Alors jai trouvé une autre idée, une option tout indiquée Je vais moi aussi chercher un verre et revenir pour trinquer Nous étions enfin face à face, mon regard dans son regard Mais au lieu de sapprocher, il est parti vers le bar N'était-ce pas moi quil regardait ? Jcomprenais plus rien Je restais seule désorientée, un verre à la main Jvoulais en avoir le cur net comprendre sa disgrâce Jai décidé de le suivre au bar, mais je ne retrouvais pas sa trace Y avait tellement dmonde, allais-je à nouveau le rencontrer ? Ou allais-je poser mon verre et me décider à rentrer ? Je n'suis pas allé jusquau bar, un serveur ambulant que jai croisé ma proposé de disposer dune flûte de champagne rosé Le temps de le remercier puis de rejoindre la belle Je préparais le bon sourire pour enfin trinquer avec elle Mais lorsque je suis revenu, elle avait disparu Je lai cherché, jai attendu, je ne l'ai jamais revu Je ne connaîtrais jamais sa voie ni lodeur de son parfum Je restais seul, un verre à la main, un rêve à la fin Pour toute une vie, où jusquà demain À quoi ça tient ? À quoi ça tient ? Une danse un geste, un verre à la main Ça tient à rien, ça tient à rien Pour toute une vie, où jusquà demain À quoi sattendre ? À quoi sattendre ?</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C'est pas grave, tu sais ma peau n'est pas si fragile C'est pas grave, c'est pas nos vies qu'on a rendu faciles C'est pas grave, on sera quand même les princes de la ville Leur dire C'est pas grave à découvert, même en terrain hostile L'histoire de l'amour et la haine qui co-habitent J'ai trouvé la formule mathématique pour le bohneur De la foie plus de l'espoir multiplié par de l'amour et de la sincérité ça donne beaucoup d'coeur Tout est grave, rien n'est grave, urbaine poésie J'ai perdu la maîtrise, j'ai les yeux qui brillent, ma plume est triste J'suis incompris, si on prie, qu'on partage des sourires des fous rires C'est comme si j'avais gagné tous les grands prix Cette impression d'être toujours en retard D'avoir d'l'agressivité dans le regard La défaite est un fruit amer, fini le temps des échecs Les expériences difficiles nous ont toutes éméchés Toutes les bonnes actions même les plus petites sont bonnes à prendre Construire pour nos petits nous rendra grands J'suis dans un combat social, j'ai des pensées spatiales Je sais c'que c'est d'être seul, et d'avoir les mains sales J'ai pas d'chance aux jeux, pas d'chance en amour Y'a pas de roses, ni de bleus Que du gris en bas des tours mais c'est pas grave Y'a le monde qui reste sourd et puis qui ferme les yeux Me tue un peu plus plus chaque jour, mais c'est pas grave On a pris de drôles de détour, il a fallu faire demi-tour Y'a comme des bouchons sur la route, mais c'est pas grave Y'a de l'écorce sur mon coeur, au pire j'espère des jours meilleurs Au mieux ne plus avoir peur peur You might also like J'ai eu les mains liés, une enclume sur le dos, le vent en face J'connais par coeur nos parcours, y'aura toujours des coups d'crasse Face aux galères j'suis prévenu, j'me suis construis une armure Moi j'prends tellement d'recul que j'suis souvent le dos contre le mur M'apitoyer c'est comme les baggys c'est pas vraiment mon style ! Et tu m'entendras m'plaindre une fois par année bissextile J'ai pas l'temps faut qu'j'avance, ça j'l'ai compris depuis le berceau Il faut qu'je laisse une empreinte, c'est c'que j'viens d'faire sur c'morceau</t>
+          <t>C'est pas grave, tu sais ma peau n'est pas si fragile C'est pas grave, c'est pas nos vies qu'on a rendu faciles C'est pas grave, on sera quand même les princes de la ville Leur dire C'est pas grave à découvert, même en terrain hostile L'histoire de l'amour et la haine qui co-habitent J'ai trouvé la formule mathématique pour le bohneur De la foie plus de l'espoir multiplié par de l'amour et de la sincérité ça donne beaucoup d'coeur Tout est grave, rien n'est grave, urbaine poésie J'ai perdu la maîtrise, j'ai les yeux qui brillent, ma plume est triste J'suis incompris, si on prie, qu'on partage des sourires des fous rires C'est comme si j'avais gagné tous les grands prix Cette impression d'être toujours en retard D'avoir d'l'agressivité dans le regard La défaite est un fruit amer, fini le temps des échecs Les expériences difficiles nous ont toutes éméchés Toutes les bonnes actions même les plus petites sont bonnes à prendre Construire pour nos petits nous rendra grands J'suis dans un combat social, j'ai des pensées spatiales Je sais c'que c'est d'être seul, et d'avoir les mains sales J'ai pas d'chance aux jeux, pas d'chance en amour Y'a pas de roses, ni de bleus Que du gris en bas des tours mais c'est pas grave Y'a le monde qui reste sourd et puis qui ferme les yeux Me tue un peu plus plus chaque jour, mais c'est pas grave On a pris de drôles de détour, il a fallu faire demi-tour Y'a comme des bouchons sur la route, mais c'est pas grave Y'a de l'écorce sur mon coeur, au pire j'espère des jours meilleurs Au mieux ne plus avoir peur peur J'ai eu les mains liés, une enclume sur le dos, le vent en face J'connais par coeur nos parcours, y'aura toujours des coups d'crasse Face aux galères j'suis prévenu, j'me suis construis une armure Moi j'prends tellement d'recul que j'suis souvent le dos contre le mur M'apitoyer c'est comme les baggys c'est pas vraiment mon style ! Et tu m'entendras m'plaindre une fois par année bissextile J'ai pas l'temps faut qu'j'avance, ça j'l'ai compris depuis le berceau Il faut qu'je laisse une empreinte, c'est c'que j'viens d'faire sur c'morceau</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Vu de ma fenêtre, y'a des petits qui font du skate, ça fait un bruit, t'as mal à la tête Et puis y'a des gars en bas qui galèrent Ils sont là, ils font rien, ils prennent l'air Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Vu de ma fenêtre, y'a vachement de passage, de Carrefour à la mairie je vois des gens de tout âge Du métro à la boulangerie, je vois toutes sortes du visages Et puis en face bien sûr, y'a Vidéo-Futur, toute la nuit, les mecs s'arrêtent devant en voiture Franchement le patron, il doit être blindé Moi aussi quand je serai grand, je veux vendre et louer des DVD Je suis aux premières loges pour les arrachages de portables, j'ai une vue très stratégique Si j'étais une poukave, je louerais mon appart comme planque aux flics Vu de ma fenêtre, y'a le café de France, juste en bas, à deux pas Il est tenu par des Rebeus, j'te jure, ça s'invente pas Y'a des meufs bien coiffées qui viennent prendre un café Y'a des petits couples sereins qui viennent boire un coup avant d'en tirer un Et y'a des gentils poivrots qui viennent oublier leurs galères dans la bière Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver You might also likeAux beaux jours, ils mettent même des tables en terrasse Vu de ma fenêtre, y'a plein de monde au soleil c'est ma classe Et comme je vois tout, de ma planque, comme un keuf Mes potes m'appellent avant de venir pour savoir s'il y a de la meuf Vu de ma fenêtre, celui que je vois le plus souvent c'est Ludo Il est gentil mais quand tu le croises c'est pas forcément un cadeau Si tu le supportes pendant une heure, j'te jure t'es costaud C'est le mec qu'on appelle la cerise sur le ghetto Vu de ma fenêtre, c'est pas de la télé-réalité, ni un sitcom d'AB Production Et je vois pas mal de gens qui triment et voient la vie comme une sanction Et même si face à la galère, ils préfèrent se taire Ils mettent pas de genoux à terre et le poing en l'air ils restent fiers Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Parce que oui, vu de ma fenêtre, je vois pas mal d'espoir Quand je vois le petit blond jouer au foot avec le petit noir Quand je vois des gens qui se bougent, quand je vois des gens qui se mettent des coups de pied au cul Pour sortir de la zone rouge, et pour que la vie vaille le coup d'être vécue Quand je vois ces deux hommes qui boivent un coup en riant, alors qu'ils sont soi-disant différents Parce que l'un dit Shalom et l'autre dit Salam Mais putain ils se serrent la main, c'est ça l'âme de mon slam Je prends ça comme un bon signe, c'est peut-être un espoir infime Mais je te jure que je l'ai vu, c'est pas pour la rime Bon c'est vrai que vu de ma fenêtre, je vois aussi la galère, la misère Les suicidaires, et les retours au pays en charter Mais je suis un putain de rêveur, un grand optimiste, c'est une philosophie qui me suit Alors je me dis que ça peut s'arranger. J'espère donc je suis Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Mais vas-y viens chez moi, on regardera par la fenêtre Tu comprendras pourquoi je rigole, pourquoi je crains, pourquoi je rêve, pourquoi j'espère Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver</t>
+          <t>Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Vu de ma fenêtre, y'a des petits qui font du skate, ça fait un bruit, t'as mal à la tête Et puis y'a des gars en bas qui galèrent Ils sont là, ils font rien, ils prennent l'air Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Vu de ma fenêtre, y'a vachement de passage, de Carrefour à la mairie je vois des gens de tout âge Du métro à la boulangerie, je vois toutes sortes du visages Et puis en face bien sûr, y'a Vidéo-Futur, toute la nuit, les mecs s'arrêtent devant en voiture Franchement le patron, il doit être blindé Moi aussi quand je serai grand, je veux vendre et louer des DVD Je suis aux premières loges pour les arrachages de portables, j'ai une vue très stratégique Si j'étais une poukave, je louerais mon appart comme planque aux flics Vu de ma fenêtre, y'a le café de France, juste en bas, à deux pas Il est tenu par des Rebeus, j'te jure, ça s'invente pas Y'a des meufs bien coiffées qui viennent prendre un café Y'a des petits couples sereins qui viennent boire un coup avant d'en tirer un Et y'a des gentils poivrots qui viennent oublier leurs galères dans la bière Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Aux beaux jours, ils mettent même des tables en terrasse Vu de ma fenêtre, y'a plein de monde au soleil c'est ma classe Et comme je vois tout, de ma planque, comme un keuf Mes potes m'appellent avant de venir pour savoir s'il y a de la meuf Vu de ma fenêtre, celui que je vois le plus souvent c'est Ludo Il est gentil mais quand tu le croises c'est pas forcément un cadeau Si tu le supportes pendant une heure, j'te jure t'es costaud C'est le mec qu'on appelle la cerise sur le ghetto Vu de ma fenêtre, c'est pas de la télé-réalité, ni un sitcom d'AB Production Et je vois pas mal de gens qui triment et voient la vie comme une sanction Et même si face à la galère, ils préfèrent se taire Ils mettent pas de genoux à terre et le poing en l'air ils restent fiers Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Parce que oui, vu de ma fenêtre, je vois pas mal d'espoir Quand je vois le petit blond jouer au foot avec le petit noir Quand je vois des gens qui se bougent, quand je vois des gens qui se mettent des coups de pied au cul Pour sortir de la zone rouge, et pour que la vie vaille le coup d'être vécue Quand je vois ces deux hommes qui boivent un coup en riant, alors qu'ils sont soi-disant différents Parce que l'un dit Shalom et l'autre dit Salam Mais putain ils se serrent la main, c'est ça l'âme de mon slam Je prends ça comme un bon signe, c'est peut-être un espoir infime Mais je te jure que je l'ai vu, c'est pas pour la rime Bon c'est vrai que vu de ma fenêtre, je vois aussi la galère, la misère Les suicidaires, et les retours au pays en charter Mais je suis un putain de rêveur, un grand optimiste, c'est une philosophie qui me suit Alors je me dis que ça peut s'arranger. J'espère donc je suis Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Mais vas-y viens chez moi, on regardera par la fenêtre Tu comprendras pourquoi je rigole, pourquoi je crains, pourquoi je rêve, pourquoi j'espère Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Grand_Corps_Malade_songs.xlsx
+++ b/data/02_intermediate/cleaned_Grand_Corps_Malade_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Demain encore</t>
+          <t>Des gens beaux</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0501 -M- - Rosy Bande originale du film-documentaire 1401 Marc Lavoine - Adulte jamais - 1401 Nej' - SOS Chapitre 2 2101 Alexia Gredy - Hors saison - 2101 LHéritage Goldman - L'Héritage Goldman, Vol. 1 2101 Pierre de Maere - Un jour, je 2801 Brasier - Boîte noire 2801 Grégoire - Live au studio 1719 2801 Les Tit' Nassels - À double tour, Vol. 2 - 2801 Lucas Lombard - Itinéraire 2801 Toulouse Contour - Le temps additionnel Février - 1102 Ariane Roy - medium plaisir 1102 Joe la Panic - Morphée - 1102 Sofiane Pamart - LETTER 1102 Tancrède - Lart de vivre 1802 Srge de York - Au Nord de null part 2402 Fishbach - Avec les yeux 2502 ÂA - Chemin acide - 2502 Fally Ipupa - Tokooos II - 2502 Lucill - Snake Eyes 2502 Rovski - La proie est reine Mars 0403 Stromae - Multitude 1603 Clea Vincent - Tropi-Cléa 3 - EP 1703 Deluxe - Moustache Gracias 1803 ELISA ERKA - Le bruit du monde 1803 Janie - Toujours des fleurs Version deluxe - 1803 Vendredi sur Mer - Métamorphose 2503 Emma Peters- Dimanche - 2503 Henri Dès - AUTREMENT - 2503 Kikesa - Rubi Avril 0104 Jérémie Kiefer - Exode 0104 Oscar les Vacances- Vroum - 0104 Muddy Monk - ULTRA DRAMATIC KID 0704 Charlie Pâle - Je vais où ? 0704 Félix- Elle Chapitre 1 1504 Mansfield.Tya - Twenty Years After 1504 Mathis Poulin - Allons de l'avant 2204 Bakel- Fier.e 2604 Chat Perdu - Chat perdu sans collier 2604 Gildas Thomas - La mousson et le crachin 2704 Sakia Adjafa - Les couleurs de mon âme Mai 0205 Yves Bay - Parallèle 0405 The Doug - Jeune The Doug - EP 0605 Etienne Lainé - Résiliences 0605 Lampion - S.M.T.F.E. - 0605 Miel de Montagne - Tout autour de nous 0605 MIELS - Lécher le ciel - 0605 Renaud - Métèque - 1305 Axel Bauer - Radio Londres 1305 Bernard Lavilliers - Sous un soleil énorme Version collector - 1305 Dadju - Culinnan 1305 Davy Kilembé - Visite Brassens - 1305 Eloi - Pyrale - EP 1305 Les hurlements d'Léo - Radio Léo 1305 L'oiseau Noir -Crépuscule - 1305 TESSÆ - Sérendipité 1905 Félix - c'était Chapitre 2 2005 Charlie Faron - Pensées 2005 La Caravane Passe - Nomadic Live 2005 O C'Est Nous - À chaque pas 2405 Marie Mathématique - Nos jours étranges - 2705 Les Fatals Picards - Le syndrome de Göteborg 2705 Loïc Toularastel, Hervé Lesvenan Anne Roturier - Heureusement Juin 0306 Délinquante - Délinquante - EP 0306 Izaïa - La vitesse 0306 Jean-Marc Sauvagnargues - Ton piano danse toujours Hommage à Michel Berger 0306 Joseph Kamel - Rendez-vous - EP - 0306 -M- - Rêvalité 1006 Catastrophe - 9 3 - EP 1006 Johnny Jane - JTM - EP 1006 Petit K - Une vie à la belle étoile 1006 Sttellla - Pas de sens 1006 Thomas Carbou Rachel Bonneau - Quelque chose de nous 1706 Coline Rio - Lourd et délicat 1706 Julien Granel - COOLEUR 1706 Melisa Pash - Les aurores - EP 1706 Tioma - Douce Escale Lofi Version 1706 Zaoui - MAUVAIS DÉMONS 2406 Dani Terreur - dani 2406 Hey Major - Feu intérieur - 2406 Ma cité va chanter - Ma cité va chanter 2406 Symon - Comme tout le monde 2906 Claude Sicre - Assaï En attendant l'album Juillet 0107 Mocke, Françoiz Breut Claire Vailler - Grand déménagement 0807 Chat Perché - KMGT 0807 Keen' V - Diamant 0807 Molitor - Molitor 3 2207 Melissmell - Les Enfants de Maldonne 2207 Mister Mat - Laventure continue... Août 0808 Molitor - Molitor 3 1908 Amir - R3SSOURCES 2208 Jacques Dutronc - En Voyage 2608 Marghe - Alefa 2608 Pomme - consolation 2608 Styleto - Carrousel Septembre 0209 Slimane - Chroniques dun cupidon 0909 Manset - MANSETLANDIA - Le crabe aux pinces d'homme 0909 Yvan Cassar Louis Chedid - En noires et blanches Parce que - La Collection 1609 Christophe Willem - Panorama - 1609 chien noir - Beaux - 1609 Dominique A - Le monde réel 1609 Grand Corps Malade, Ben Mazué Gaël Faye - Éphèmere 1609 Kent - Scherzando 1609 Seb Martel - Saturn 63 2309 Adé - Et alors ? 2309 Alexis HK - Bobo Playground 2309 blond - Pour la vie entière 2309 Bruno Brel - Lhéritage 2309 Jean-Jacques Goldman - Fredericks, Goldman, Jones Sur scène 2309 Keyzo - Projet K - 2309 Mathilda - Brutal - EP - 2309 Robin - Premier souffle 2309 Roméo Praly - La ballade du Tyran - 2309 Zazie - L'EP - EP 3009 Alain Souchon - mini collection 3009 Da Silva - Extrait d'une vie imparfaite - 3009 Natasha St-Pier - Jeanne - 3009 Poppy Fusée - La Lune - EP 3009 Silvàn Areg - Les 1désirables Octobre 0410 Pomme - jardin secret 0710 Aloïse Sauvage - SAUVAGE - 0710 Bilal Hassani - Théorème 0710 Ezéchiel Pailhès - Mélopée 0710 Foé - Paradis d'or 0710 Mathias Malzieu Daria Nelson - La symphonie du temps qui passe - 0710 Yves Jamait - LAutre 1410 La Féline - Tarbes 1410 Lénine Renaud - Le petit musée 1410 Les Wriggles - Quatre étoiles 1410 Mademoiselle K. - Mademoiselle K 1410 Ycare - Des millions d'années 2110 Allan Védé - Humanoïde 2110 Didier Barbelivien - Didier Barbelivien 2110 Jean-Pierre Kalfon - Méfistofélange 2110 La Grande Sophie - La vie moderne 2110 Les Ogres de Barback - Pitt Ocha et le vélo à propulsion phonique Pitt Ocha 4 2110 Malo' - PAUSE 2110 Mathias Malzieu Daria Nelson - La symphonie du temps qui passe 2110 Oete - Armes Paillettes 2110 Plastic Bertrand - Plastic Bertrand 2110 Siau - Superama 2110 Yannick Noah - La Marfée - 2210 Chilla - EGO 2710 Lestin - Hors série Vol. 1 2810 Alysce - Je veux savoir 2810 Aurélie Saada - Bomboloni 2810 Patrice Michaud - Petit voyage organisé 2810 Stéfi Celma - En oblique 2810 Stéphane Eicher - Ode 2810 Vincent Delerm - Comme une histoire 2810 Vincent Delerm - Sans paroles Version piano 3010 Alle - Noir Novembre 0411 Dorely - Demain sera meilleur 0411 Garou - Garou joue Dassin - 0411 Jenifer - n9 0411 Juliette Armanet - Brûler le Feu 2 0411 La petite culotte - Libertà Lolita ! 0411 Louise Attaque - Planète Terre - 0411 M. Pokora - Épicentre - 0411 Marius - Accroche-cur - EP 0411 Mélodie Lauret - le moment présent 0411 Suzanne - Caméo 0411 Tété - A la faveur des rencontres 0411 Thomas Dutronc Jacques Dutronc - Dutronc Dutronc 0911 Venus VNR - Anomalie 1111 SANTA - 999 - EP - 1111 Kendji Girac - L'école de la vie 1111 Tryo - Tout au Tour Live 1611 Raphaël - Victoria 1811 Camille Lelouche - A - RÉÉDITION 1811 Christophe - Confessionss 1964 - 1968 1811 Daniel Defilipi - Tu es là 1811 Halo Maud - Pesnopoïka - EP - 1811 Mentissa - La vingtaine - 1811 Michel Polnareff - Polnareff chante Polnareff 1811 Patrick Bruel - Encore une fois 1811 Yvon le Men Nicolas Repac - Lampe tempête - 1911 Angèle - Nonante-Cinq La Suite 2511 Alain Souchon - Ici là, en concert au Dôme de Paris Live, 2022 2511 Anne Sila - Madeleines 2511 Clara Luciani - Cur Encore 2511 Claudio Capéo - Rose des vents 2511 Dani Terreur - Session Cool Triste, Vol. 1 2511 Emma Peters - Live Home 2511 Les Cowboys Fringants - En concert avec l'Orchestre symphonique de Montréal Sous la direction du chef Simon Leclerc 2511 Mylène Farmer - L'Emprise 2511 Nej' - SOS Chapitre 3 2511 Thérèse de Lisieux - Thérèse - Vivre d'amour 2511 Trois Cafés Gourmands - La promesse 2511 -M- - Rêvalité Augmentée - 2911 Star Academy - Iconique Décembre - 0212 Jean-Baptiste Guégan - Toutes les larmes sèchent un jour 0212 L'Héritage Goldman - L'Héritage Goldman, Vol. 2 0212 Ludéal - Fifty Fifty Vol.1 - 0212 Roxaane - Vertige 0212 Yarol Poupaud - Fils de personne - 0212 Zazie - AILE-P - 0812 Louane - Sentiments 0812 Nka - La Lune 0912 Dani Terreur - Session Cool Triste, Vol. 2 0912 Saez - Telegram 1612 Fally Ipupa - Formule 7 - 1612 L.E.J - VOLUME II - 16 12 Wejdene - Glow Up</t>
+          <t>On a perdu cette notion aujourd'hui des beaux garçons. Quand est-ce qu'on va nous sortir des beaux mecs ou des filles sublimes ? Enfin, vous mettez un poster de Hoshi dans votre chambre, vous ? Mais elle est effrayante... Elle a du talent cette fille, vraiment ! Mais qu'elle donne ses chansons à des filles sublimes... Qu'est-ce que c'est qu'cette époque musicale Où on doit écouter ceux qui ont talent ? Qu'ont des tripes, qu'ont des couilles, qu'ont la dalle Ces p'tits auteurs, gratteurs de guitare accablants ? Nous, c'qu'on veut, c'est du beau, c'est du brillant C'est du propre, c'est du lisse, c'est du sublime Nous, c'qu'on veut, c'est l'retour des belles gueules Pour remplir le papier glacé des magazines Qu'est-ce que c'est qu'cette époque musicale Où on écoute les paroles des chansons ? On a perdu la notion des beaux mâles L'époque où on lançait de très beaux garçons Tu sais écrire des paroles, c'est très bien Mais, ton petit grain de voix, on s'en fiche S'il te plaît, va donner tes chansons À celui qui sera plus joli sur l'affiche Il faut des gens beaux... Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux On a négligé aujourd'hui le rôle du beau chanteur. Aujourd'hui, les gens qui réussissent, qui font carrière, c'est tous ceux qui grattent un peu d'guitare, qui jouent du piano... Eh, monsieur, toi qui veux retourner Au noir et blanc, aux belles heures du passé J'suis pas sûr qu'le grand Charles Aznavour Pouvait correspondre à tes critères de succès Je suis pas persuadé qu'Édith Piaf Possédait de belles jambes élancées Qu'elle allait défiler sur des beaux podiums Avec des grandes marques de talons compensés Eh, monsieur, toi qui es nostalgique Des chanteurs bien foutus, des bimbos Faut qu'tu saches un secret important C'est qu'Brassens n'avait pas de beaux abdominaux Les auteurs, compositeurs, chanteurs Ne sont pas forcément des imposteurs Tu sais monsieur, parfois, il faut s'taire Moi, j'veux voir Hoshi sur un poster Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Des très beaux garçons... Il faut des gens beaux...</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Des gens beaux</t>
+          <t>Du côté chance</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>On a perdu cette notion aujourd'hui des beaux garçons. Quand est-ce qu'on va nous sortir des beaux mecs ou des filles sublimes ? Enfin, vous mettez un poster de Hoshi dans votre chambre, vous ? Mais elle est effrayante... Elle a du talent cette fille, vraiment ! Mais qu'elle donne ses chansons à des filles sublimes... Qu'est-ce que c'est qu'cette époque musicale Où on doit écouter ceux qui ont talent ? Qu'ont des tripes, qu'ont des couilles, qu'ont la dalle Ces p'tits auteurs, gratteurs de guitare accablants ? Nous, c'qu'on veut, c'est du beau, c'est du brillant C'est du propre, c'est du lisse, c'est du sublime Nous, c'qu'on veut, c'est l'retour des belles gueules Pour remplir le papier glacé des magazines Qu'est-ce que c'est qu'cette époque musicale Où on écoute les paroles des chansons ? On a perdu la notion des beaux mâles L'époque où on lançait de très beaux garçons Tu sais écrire des paroles, c'est très bien Mais, ton petit grain de voix, on s'en fiche S'il te plaît, va donner tes chansons À celui qui sera plus joli sur l'affiche Il faut des gens beaux... Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux On a négligé aujourd'hui le rôle du beau chanteur. Aujourd'hui, les gens qui réussissent, qui font carrière, c'est tous ceux qui grattent un peu d'guitare, qui jouent du piano... Eh, monsieur, toi qui veux retourner Au noir et blanc, aux belles heures du passé J'suis pas sûr qu'le grand Charles Aznavour Pouvait correspondre à tes critères de succès Je suis pas persuadé qu'Édith Piaf Possédait de belles jambes élancées Qu'elle allait défiler sur des beaux podiums Avec des grandes marques de talons compensés Eh, monsieur, toi qui es nostalgique Des chanteurs bien foutus, des bimbos Faut qu'tu saches un secret important C'est qu'Brassens n'avait pas de beaux abdominaux Les auteurs, compositeurs, chanteurs Ne sont pas forcément des imposteurs Tu sais monsieur, parfois, il faut s'taire Moi, j'veux voir Hoshi sur un poster Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Il faut des gens beaux Des très beaux garçons... Il faut des gens beaux...</t>
+          <t>Je suis pas au bout de mes surprises, là-dessus, y a aucun doute Et tous les jours je continue d'apprendre les codes de ma route Les codes de ma route, les codes de ma route Les codes de ma route ont soudain été très surprenants Nouvelle signalisation, nouveaux panneaux, nouveaux tournants J'ai bien alerté mes rétines pour voir tout ce qu'y avait à voir Et j'ai marché en observant, du côté chance de l'histoire On a d'abord slamé dans des bars, c'étaient nos tours de Babel L'histoire est devenue aventure et l'aventure est devenue belle Avec un mélange de rencontres, d'envies et de prises de risques Qui aurait cru que c'était possible, on a même sorti un disque Comme tout est allé vite, là, je décide de me poser Quelques s'condes, me retourner pour essayer d'analyser Une année mouvementée pleine de surprises et d'actions Où, avec le public, on a échangé des émotions Alors, j'essaie de réaliser, de ressentir, de prendre conscience De tout ce que ça m'a apporté d' recevoir cette reconnaissance Je me souviens d'une farandole de sentiments même si Le plus fort, c'est quand quelqu'un du public me dit merci Ça réchauffe le ventre de savoir qu'on a fait du bien Juste pour un petit moment, modestement, on crée du lien Puis, je me dis que je me suis pas trop trompé quand j'ai misé Sur toutes ces heures fragilisées par un auditoire tamisé Y avait plein de gens qui m'écoutaient, j'ai vu des oreilles plein leurs yeux Un tas de curs bien intentionnés, y avait des jeunes et puis des vieux Ils étaient là, ils m'attendaient même à l'aut' bout d'la France Ils m'ont offert un bout d'histoire où j'ai marché du côté chance La belle aventure a pris de drôles de proportions Difficile de prévoir de pareilles mensurations Bien sûr, on y croyait mais personne ne pensait Qu'y aurait des textes de slam au programme du bac français Tant d'événements inattendus, parsemés, forcément Et j'ai slamé, slalomant entre surprises et étonnements Et si je reprends l'horloge de mon unique journée Il est midi 40 quand s'achève la tournée Cette première tournée m'a offert tant d'images De plaisirs, de voyages, de sourires, de visages Des témoignages qui ont gonflé mes poumons de gratitude Voir un public se lever, on n'en prend jamais l'habitude Alors merci pour votre écoute et pour vos applaudissements Ils résonnent pour notre équipe comme les plus beaux encouragements Merci Renaud et Gaétan, et merci à Timothée J'ai compris, dans vos yeux d'enfants, qu'mes mots avaient de l'utilité On en a fait des kilomètres, vu des péages et vu des gares Pour essayer de mieux s'connaître, à la recherche de vos regards Des patelins aux grandes villes, des petites salles aux festivals De mes envies à mon réel, de Saint-Denis à Montréal Cent vingt dates de concert, avec un public aux p'tits soins Ça laisse quelques souvenirs, t'as qu'à demander aux musiciens Et comme j'suis un gamin, bah j'ai envie d'recommencer Et quoi qu'y se passe demain, je me souviendrai de l'année passée Quelques dédicaces pour les acteurs de cette tournée Philippe, Jean, Florence, Nathalie, Hélène, Hervé Merci Hamid, Paco, Yannick et Rony J'oublie pas James, Djamel, Raf, Karim et Ouali Le noyau dur Yakeen, S Petit Nico et Feed Back Merci Jean-Phi et Jean-Rachid, on partage tous le même trac Comte de Bouderbala et John Pucc', c'est toujours un plaisir De vous avoir sur scène et rendez-vous à l'Amazir</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Du côté chance</t>
+          <t>Éducation nationale</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Je suis pas au bout de mes surprises, là-dessus, y a aucun doute Et tous les jours je continue d'apprendre les codes de ma route Les codes de ma route, les codes de ma route Les codes de ma route ont soudain été très surprenants Nouvelle signalisation, nouveaux panneaux, nouveaux tournants J'ai bien alerté mes rétines pour voir tout ce qu'y avait à voir Et j'ai marché en observant, du côté chance de l'histoire On a d'abord slamé dans des bars, c'étaient nos tours de Babel L'histoire est devenue aventure et l'aventure est devenue belle Avec un mélange de rencontres, d'envies et de prises de risques Qui aurait cru que c'était possible, on a même sorti un disque Comme tout est allé vite, là, je décide de me poser Quelques s'condes, me retourner pour essayer d'analyser Une année mouvementée pleine de surprises et d'actions Où, avec le public, on a échangé des émotions Alors, j'essaie de réaliser, de ressentir, de prendre conscience De tout ce que ça m'a apporté d' recevoir cette reconnaissance Je me souviens d'une farandole de sentiments même si Le plus fort, c'est quand quelqu'un du public me dit merci Ça réchauffe le ventre de savoir qu'on a fait du bien Juste pour un petit moment, modestement, on crée du lien Puis, je me dis que je me suis pas trop trompé quand j'ai misé Sur toutes ces heures fragilisées par un auditoire tamisé Y avait plein de gens qui m'écoutaient, j'ai vu des oreilles plein leurs yeux Un tas de curs bien intentionnés, y avait des jeunes et puis des vieux Ils étaient là, ils m'attendaient même à l'aut' bout d'la France Ils m'ont offert un bout d'histoire où j'ai marché du côté chance La belle aventure a pris de drôles de proportions Difficile de prévoir de pareilles mensurations Bien sûr, on y croyait mais personne ne pensait Qu'y aurait des textes de slam au programme du bac français Tant d'événements inattendus, parsemés, forcément Et j'ai slamé, slalomant entre surprises et étonnements Et si je reprends l'horloge de mon unique journée Il est midi 40 quand s'achève la tournée Cette première tournée m'a offert tant d'images De plaisirs, de voyages, de sourires, de visages Des témoignages qui ont gonflé mes poumons de gratitude Voir un public se lever, on n'en prend jamais l'habitude Alors merci pour votre écoute et pour vos applaudissements Ils résonnent pour notre équipe comme les plus beaux encouragements Merci Renaud et Gaétan, et merci à Timothée J'ai compris, dans vos yeux d'enfants, qu'mes mots avaient de l'utilité On en a fait des kilomètres, vu des péages et vu des gares Pour essayer de mieux s'connaître, à la recherche de vos regards Des patelins aux grandes villes, des petites salles aux festivals De mes envies à mon réel, de Saint-Denis à Montréal Cent vingt dates de concert, avec un public aux p'tits soins Ça laisse quelques souvenirs, t'as qu'à demander aux musiciens Et comme j'suis un gamin, bah j'ai envie d'recommencer Et quoi qu'y se passe demain, je me souviendrai de l'année passée Quelques dédicaces pour les acteurs de cette tournée Philippe, Jean, Florence, Nathalie, Hélène, Hervé Merci Hamid, Paco, Yannick et Rony J'oublie pas James, Djamel, Raf, Karim et Ouali Le noyau dur Yakeen, S Petit Nico et Feed Back Merci Jean-Phi et Jean-Rachid, on partage tous le même trac Comte de Bouderbala et John Pucc', c'est toujours un plaisir De vous avoir sur scène et rendez-vous à l'Amazir</t>
+          <t>J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né Mon école elle est mignonne même si les murs sont pas tous neufs Dans chaque salle y a plein de bruit moi dans ma classe on est 29 Y a pas beaucoup d'élèves modèles et puis on est un peu dissipés J'crois qu'nous sommes ce qu'on appelle des élèves en difficulté Moi en maths j'suis pas terrible mais c'est pas pire qu'en dictée C'que je préfère c'est 16h j'retrouve les grands dans mon quartier Pourtant ma maitresse j'l'aime bien elle peut être dure mais elle est patiente Et si jamais je comprends rien elle me réexplique elle est pas chiante Elle a toujours plein d'idées et de projets pour les sorties Mais on a que 2 cars par an qui sont prêtés par la mairie Je crois que mon école elle est pauvre, on n'a pas de salle informatique On n'a que la cour et le préau pour faire de la gymnastique A la télé j'ai vu que des classes faisaient du golf en EPS Nous on a que des tapis et des cerceaux et la détresse de nos maitresses Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fou dans des défaites spectaculaires L'enseignement en France va mal et personne peut nier la vérité Les zones d'éducation prioritaires ne sont pas des priorités Les classes sont surchargées pas comme la paye des profs minés Et on supprime des effectifs dans des écoles déjà en apnées Au contraire faut rajouter des profs et des autres métiers qui prennent la relève Dans des quartiers les plus en galère, créer des classes de 15 élèves Ajouter des postes d'assistants ou d'auxiliaires qui aident aux devoirs Qui connaissent les parents et accompagnent les enfants les plus en retard L'enseignement en France va mal, l'état ne met pas assez d'argent Quelques réformes à deux balles pour ne pas voir le plus urgent Un établissement scolaire sans vrais moyens est impuissant Comment peut on faire des économies sur l'avenir de nos enfants L'enseignement en France va mal car il rend pas les gens égaux Les plus fragiles tirent l'alarme mais on étouffe leur écho L'école publique va mal car elle a la tête sous l'eau Y a pas d'éducation nationale, y a que des moyens de survies locaux Alors continuons de dire aux p'tits frères que l'école est la solution Et donnons leur les bons outils pour leur avenir car attention La réussite scolaire dans certaines zones pourrait rester un mystère Et l'égalité des chances un concept de ministère Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours il y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fous dans des défaites spectaculaires J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né C'est pas d'ma faute à moi si j'ai moins de chance d'avoir le bac C'est simplement parce que j'vis là, que mon avenir est un cul de sac</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Éducation nationale</t>
+          <t>Effets secondaires</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né Mon école elle est mignonne même si les murs sont pas tous neufs Dans chaque salle y a plein de bruit moi dans ma classe on est 29 Y a pas beaucoup d'élèves modèles et puis on est un peu dissipés J'crois qu'nous sommes ce qu'on appelle des élèves en difficulté Moi en maths j'suis pas terrible mais c'est pas pire qu'en dictée C'que je préfère c'est 16h j'retrouve les grands dans mon quartier Pourtant ma maitresse j'l'aime bien elle peut être dure mais elle est patiente Et si jamais je comprends rien elle me réexplique elle est pas chiante Elle a toujours plein d'idées et de projets pour les sorties Mais on a que 2 cars par an qui sont prêtés par la mairie Je crois que mon école elle est pauvre, on n'a pas de salle informatique On n'a que la cour et le préau pour faire de la gymnastique A la télé j'ai vu que des classes faisaient du golf en EPS Nous on a que des tapis et des cerceaux et la détresse de nos maitresses Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fou dans des défaites spectaculaires L'enseignement en France va mal et personne peut nier la vérité Les zones d'éducation prioritaires ne sont pas des priorités Les classes sont surchargées pas comme la paye des profs minés Et on supprime des effectifs dans des écoles déjà en apnées Au contraire faut rajouter des profs et des autres métiers qui prennent la relève Dans des quartiers les plus en galère, créer des classes de 15 élèves Ajouter des postes d'assistants ou d'auxiliaires qui aident aux devoirs Qui connaissent les parents et accompagnent les enfants les plus en retard L'enseignement en France va mal, l'état ne met pas assez d'argent Quelques réformes à deux balles pour ne pas voir le plus urgent Un établissement scolaire sans vrais moyens est impuissant Comment peut on faire des économies sur l'avenir de nos enfants L'enseignement en France va mal car il rend pas les gens égaux Les plus fragiles tirent l'alarme mais on étouffe leur écho L'école publique va mal car elle a la tête sous l'eau Y a pas d'éducation nationale, y a que des moyens de survies locaux Alors continuons de dire aux p'tits frères que l'école est la solution Et donnons leur les bons outils pour leur avenir car attention La réussite scolaire dans certaines zones pourrait rester un mystère Et l'égalité des chances un concept de ministère Alors si tout s'joue à l'école, il est temps d'entendre le SOS Ne laissons pas s'creuser l'fossé d'un enseignement à deux vitesses Au milieu des tours il y a trop de pions dans le jeu d'échec scolaire Ne laissons pas nos rois devenir fous dans des défaites spectaculaires J'm'appelle Moussa, j'ai 10 ans, j'suis en CM2 à Epinay Ville du 93 où j'ai grandi et où j'suis né C'est pas d'ma faute à moi si j'ai moins de chance d'avoir le bac C'est simplement parce que j'vis là, que mon avenir est un cul de sac</t>
+          <t>En ces temps confinés, on s'est posé un peu Loin des courses effrénées, on a ouvert les yeux Sur cette époque troublée, ça fait du bien parfois Se remettre à penser même si c'est pas par choix Alors entre les cris d'enfants et le travail scolaire Entre les masques et les gants, entre peur et colère Voyant les dirigeants flipper dans leur confuse gestion En ces temps confinés, on se pose des questions Et maintenant... Et maintenant... Et si ce virus avait beaucoup d'autres vertus Que celle de s'attaquer à nos poumons vulnérables S'il essayait aussi de nous rendre la vue Sur nos modes de vie devenus préjudiciables Si on doit sauver nos vies en restant bien chez soi On laisse enfin la Terre récupérer c'qu'on lui a pris La nature fait sa loi en reprenant ses droits Se vengeant de notre arrogance et de notre mépris Et est-ce un hasard si ce virus immonde N'attaque pas les plus jeunes ? N'atteint pas les enfants Il s'en prend aux adultes responsables de ce monde Il condamne nos dérives et épargne les innocents Ce monde des adultes est devenu si fébrile L'ordre établi a explosé en éclats Les terriens se rappellent qu'ils sont humains et fragiles Et se sentent peut-être l'heure de remettre tout à plat Et si ce virus avait beaucoup d'autres pouvoirs Que celui d's'attaquer à notre respiration S'il essayait aussi de nous rendre la mémoire Sur les valeurs oubliées derrière nos ambitions On se découvre soudain semblables, solidaires Tous dans l'même bateau pour affronter l'virus C'était un peu moins l'cas pour combattre la misère On était moins unis pour accueillir l'Aquarius Et si ce virus avait le don énorme De rappeler c'qui nous est vraiment essentiel Les voyages, les sorties, l'argent ne sont plus la norme Et, de nos fenêtres, on réapprend à regarder le ciel On a du temps pour la famille, on ralentit l'travail Et, même avec l'extérieur, on renforce les liens On réinvente nos rituels, pleins d'idées, de trouvailles Et, chaque jour, on prend des nouvelles de nos anciens Et si ce virus nous montrait qui sont les vrais héros Ceux qui trimaient déjà dans nos pensées lointaines Ce n'est que maintenant qu'ils font la une des journaux Pendant qu'le CAC 40 est en quarantaine Bien avant l'Corona, l'hôpital suffoquait Il toussait la misère et la saturation Nos dirigeants découvrent qu'il y a lieu d'être inquiets Maintenant qu'il y a la queue en réanimation On reconnaît tout à coup ceux qui nous aident à vivre Quand l'État asphyxie tous nos services publics Ceux qui nettoient les rues, qui transportent et qui livrent On redécouvre les transparents d'la république Et maintenant... Et maintenant... Alors quand c'virus partira comme il est venu Que restera-t-il de tous ses effets secondaires ? Qu'est-ce qu'on aura gagné avec tout c'qu'on a perdu ? Est-ce que nos morts auront eu un destin salutaire ?</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Effets secondaires</t>
+          <t>Enfant de la ville</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>En ces temps confinés, on s'est posé un peu Loin des courses effrénées, on a ouvert les yeux Sur cette époque troublée, ça fait du bien parfois Se remettre à penser même si c'est pas par choix Alors entre les cris d'enfants et le travail scolaire Entre les masques et les gants, entre peur et colère Voyant les dirigeants flipper dans leur confuse gestion En ces temps confinés, on se pose des questions Et maintenant... Et maintenant... Et si ce virus avait beaucoup d'autres vertus Que celle de s'attaquer à nos poumons vulnérables S'il essayait aussi de nous rendre la vue Sur nos modes de vie devenus préjudiciables Si on doit sauver nos vies en restant bien chez soi On laisse enfin la Terre récupérer c'qu'on lui a pris La nature fait sa loi en reprenant ses droits Se vengeant de notre arrogance et de notre mépris Et est-ce un hasard si ce virus immonde N'attaque pas les plus jeunes ? N'atteint pas les enfants Il s'en prend aux adultes responsables de ce monde Il condamne nos dérives et épargne les innocents Ce monde des adultes est devenu si fébrile L'ordre établi a explosé en éclats Les terriens se rappellent qu'ils sont humains et fragiles Et se sentent peut-être l'heure de remettre tout à plat Et si ce virus avait beaucoup d'autres pouvoirs Que celui d's'attaquer à notre respiration S'il essayait aussi de nous rendre la mémoire Sur les valeurs oubliées derrière nos ambitions On se découvre soudain semblables, solidaires Tous dans l'même bateau pour affronter l'virus C'était un peu moins l'cas pour combattre la misère On était moins unis pour accueillir l'Aquarius Et si ce virus avait le don énorme De rappeler c'qui nous est vraiment essentiel Les voyages, les sorties, l'argent ne sont plus la norme Et, de nos fenêtres, on réapprend à regarder le ciel On a du temps pour la famille, on ralentit l'travail Et, même avec l'extérieur, on renforce les liens On réinvente nos rituels, pleins d'idées, de trouvailles Et, chaque jour, on prend des nouvelles de nos anciens Et si ce virus nous montrait qui sont les vrais héros Ceux qui trimaient déjà dans nos pensées lointaines Ce n'est que maintenant qu'ils font la une des journaux Pendant qu'le CAC 40 est en quarantaine Bien avant l'Corona, l'hôpital suffoquait Il toussait la misère et la saturation Nos dirigeants découvrent qu'il y a lieu d'être inquiets Maintenant qu'il y a la queue en réanimation On reconnaît tout à coup ceux qui nous aident à vivre Quand l'État asphyxie tous nos services publics Ceux qui nettoient les rues, qui transportent et qui livrent On redécouvre les transparents d'la république Et maintenant... Et maintenant... Alors quand c'virus partira comme il est venu Que restera-t-il de tous ses effets secondaires ? Qu'est-ce qu'on aura gagné avec tout c'qu'on a perdu ? Est-ce que nos morts auront eu un destin salutaire ?</t>
+          <t>J'avoue que c'est bon de se barrer à la mer ou à la campagne Quand tu ressens ce besoin, quand ton envie de verdure t'accompagne Nouvelles couleurs, nouvelles odeurs, ça rend les sens euphoriques Respirer un air meilleur ça change de mon bout de périphérique Est-ce que t'as déjà bien écouté le bruit du vent dans la forêt Est-ce que t'as déjà marché pieds nus dans l'herbe haute, je voudrais Surtout pas représenter l'écolo relou à 4 centimes Mais la nature nourrit l'homme et rien que pour ça faut qu'on l'estime Donc la nature je la respecte, c'est peut-être pour ça que j'écris en vers Mais c'est tout sauf mon ambiance, j'appartiens à un autre univers Si la campagne est côté face, je suis un produit du côté pile Là où les apparts s'empilent, je suis enfant de la ville Je sens le cur de la ville qui cogne dans ma poitrine J'entends les sirènes qui résonnent mais est-ce vraiment un crime D'aimer le murmure de la rue et l'odeur de l'essence J'ai besoin de cette atmosphère pour développer mes sens x2 Je suis un enfant de la ville, je suis un enfant du bruit J'aime la foule quand ça grouille, j'aime les rires et les cris J'écris mon envie de croiser du mouvement et des visages Je veux que ça claque et que ça sonne, je ne veux pas que des vies sages Je trempe ma plume dans l'asphalte, il est peut-être pas trop tard Pour voir un brin de poésie même sur nos bouts de trottoirs Le bitume est un shaker où tous les passants se mélangent Je ressens ça à chaque heure et jusqu'au bout de mes phalanges Je dis pas que le béton c'est beau, je dis que le béton c'est brut Ca sent le vrai, l'authentique, peut-être que c'est ça le truc Quand on le regarde dans les yeux, on voit bien que s'y reflètent nos vies Et on comprend que slam et hip-hop ne pouvaient naître qu'ici Difficile de traduire ce caractère d'urgence Qui se dégage et qu'on vit comme une accoutumance Besoin de cette agitation qui nous est bien familière Je t'offre une invitation pour cette grande fourmilière J'suis allé à New York, je me suis senti dans mon bain Ce carrefour des cultures est un dictionnaire urbain J'ai l'amour de ce désordre et je ris quand les gens se ruent Comme à l'angle de Broadway et de la 42ème rue x2 Je me sens chez moi à Saint-Denis, quand y'a plein de monde sur les quais Je me sens chez moi à Belleville ou dans le métro New-yorkais Pourtant j'ai bien conscience qu'il faut être sacrément taré Pour aimer dormir coincé dans 35 mètres carrés Mais j'ai des explications, y'a tout mon passé dans ce bordel Et face à cette folie, j'embarque mon futur à bord d'elle A bord de cette pagaille qui m'égaye depuis toujours C'est beau une ville la nuit, c'est chaud une ville le jour Moi dans toute cette cohue je promène ma nonchalance Je me ballade au ralenti et je souris à la chance D'être ce que je suis, d'être serein, d'éviter les coups de surin D'être sur un ou deux bons coups pour que demain sente pas le purin Je suis un enfant de la ville donc un fruit de mon époque Je vois des styles qui défilent, enfants du melting-pot Je suis un enfant tranquille avec les poches pleines d'espoir Je suis un enfant de la ville, ce n'est que le début de l'histoire</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Enfant de la ville</t>
+          <t>Enfants du désordre</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'avoue que c'est bon de se barrer à la mer ou à la campagne Quand tu ressens ce besoin, quand ton envie de verdure t'accompagne Nouvelles couleurs, nouvelles odeurs, ça rend les sens euphoriques Respirer un air meilleur ça change de mon bout de périphérique Est-ce que t'as déjà bien écouté le bruit du vent dans la forêt Est-ce que t'as déjà marché pieds nus dans l'herbe haute, je voudrais Surtout pas représenter l'écolo relou à 4 centimes Mais la nature nourrit l'homme et rien que pour ça faut qu'on l'estime Donc la nature je la respecte, c'est peut-être pour ça que j'écris en vers Mais c'est tout sauf mon ambiance, j'appartiens à un autre univers Si la campagne est côté face, je suis un produit du côté pile Là où les apparts s'empilent, je suis enfant de la ville Je sens le cur de la ville qui cogne dans ma poitrine J'entends les sirènes qui résonnent mais est-ce vraiment un crime D'aimer le murmure de la rue et l'odeur de l'essence J'ai besoin de cette atmosphère pour développer mes sens x2 Je suis un enfant de la ville, je suis un enfant du bruit J'aime la foule quand ça grouille, j'aime les rires et les cris J'écris mon envie de croiser du mouvement et des visages Je veux que ça claque et que ça sonne, je ne veux pas que des vies sages Je trempe ma plume dans l'asphalte, il est peut-être pas trop tard Pour voir un brin de poésie même sur nos bouts de trottoirs Le bitume est un shaker où tous les passants se mélangent Je ressens ça à chaque heure et jusqu'au bout de mes phalanges Je dis pas que le béton c'est beau, je dis que le béton c'est brut Ca sent le vrai, l'authentique, peut-être que c'est ça le truc Quand on le regarde dans les yeux, on voit bien que s'y reflètent nos vies Et on comprend que slam et hip-hop ne pouvaient naître qu'ici Difficile de traduire ce caractère d'urgence Qui se dégage et qu'on vit comme une accoutumance Besoin de cette agitation qui nous est bien familière Je t'offre une invitation pour cette grande fourmilière J'suis allé à New York, je me suis senti dans mon bain Ce carrefour des cultures est un dictionnaire urbain J'ai l'amour de ce désordre et je ris quand les gens se ruent Comme à l'angle de Broadway et de la 42ème rue x2 Je me sens chez moi à Saint-Denis, quand y'a plein de monde sur les quais Je me sens chez moi à Belleville ou dans le métro New-yorkais Pourtant j'ai bien conscience qu'il faut être sacrément taré Pour aimer dormir coincé dans 35 mètres carrés Mais j'ai des explications, y'a tout mon passé dans ce bordel Et face à cette folie, j'embarque mon futur à bord d'elle A bord de cette pagaille qui m'égaye depuis toujours C'est beau une ville la nuit, c'est chaud une ville le jour Moi dans toute cette cohue je promène ma nonchalance Je me ballade au ralenti et je souris à la chance D'être ce que je suis, d'être serein, d'éviter les coups de surin D'être sur un ou deux bons coups pour que demain sente pas le purin Je suis un enfant de la ville donc un fruit de mon époque Je vois des styles qui défilent, enfants du melting-pot Je suis un enfant tranquille avec les poches pleines d'espoir Je suis un enfant de la ville, ce n'est que le début de l'histoire</t>
+          <t>Il regarde son décor, s'enfoncer dans la nuit Il fait froid, il est tard mais il ne rentre pas chez lui Tout au fond d'son regard, il ne fait pas ses douze ans Alors de faire ses devoirs, il pense à faire de l'argent Sa vie est agressive alors il le lui rend bien Il s'est battu de nombreuses fois, il ne sait plus combien Il a grandi trop vite, loin des histoires à l'eau d'rose Il a vu son voisin se faire planter pour une dose On a enlevé l'innocence dans son propre logiciel Et au-dessus d'son immeuble, y a pas souvent d'arc-en-ciel À l'âge où les autres jouent, lui il se défend Au milieu du désordre, il n'a plus le temps d'être un enfant Sombre le monde quand on voit qu'une seule partie Il ne sait pas dire à quel point il souffre Sur le chemin, il a croisé des navires Qui sont tombés bien trop bas dans le gouffre Il compte plus les heures seul On lui a dit juste Tais-toi et bouffe Dans la cité rien ne lui glace le sang Pour lui il n'y a ni après ni avant Il n'a pas connu l'état d'être enfant Et il compte plus les heures, seul Oh-oh-oh-oh seul, seul Tais-toi et bouffe Il regarde son décor s'enfoncer dans la peur Y a des cris dehors, il connait ça par cur À vingts minutes de chez lui, les beaux quartiers s'allument Il n'a connu qu'la misère et ses reflets dans l'bitume Son espoir s'est usé dans une cage d'escalier Sa part d'ange s'est fanée au quatorzième palier À traîner avec les grands, il en perd son âge Il est presque né violent, c'est pas un personnage Son père est trop absent, sa mère est dépassée Il passe le temps à faire le gai devant le bâtiment C Avant d'apprendre à sourire, il a appris à mordre Il est parmi tant d'autres un enfant du désordre Enfant du désordre La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe Il regarde son avenir s'enfoncer dans l'impasse Aucun projet en vue, les questions qui s'entassent Il regarde la vie des autres pour oublier ses drames Sa vie à lui ne ressemble pas aux story d'Instagram Il n'est pas malheureux puisqu'il ne cherche pas l'bonheur À qui la faute s'il n'a pas les mêmes chances qu'ailleurs ? La faute à sa cité, la faute à pas d'chance La faute au manque d'argent, la faute à la France La faute au manque d'illusion, au fatalisme rampant La faute à l'état français qui ferme les yeux depuis trente ans La faute au manque d'horizon, la faute aux grilles tout autour Au manque de considération, la faute au manque d'amour Au manque d'amour La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Enfants du désordre</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Il regarde son décor, s'enfoncer dans la nuit Il fait froid, il est tard mais il ne rentre pas chez lui Tout au fond d'son regard, il ne fait pas ses douze ans Alors de faire ses devoirs, il pense à faire de l'argent Sa vie est agressive alors il le lui rend bien Il s'est battu de nombreuses fois, il ne sait plus combien Il a grandi trop vite, loin des histoires à l'eau d'rose Il a vu son voisin se faire planter pour une dose On a enlevé l'innocence dans son propre logiciel Et au-dessus d'son immeuble, y a pas souvent d'arc-en-ciel À l'âge où les autres jouent, lui il se défend Au milieu du désordre, il n'a plus le temps d'être un enfant Sombre le monde quand on voit qu'une seule partie Il ne sait pas dire à quel point il souffre Sur le chemin, il a croisé des navires Qui sont tombés bien trop bas dans le gouffre Il compte plus les heures seul On lui a dit juste Tais-toi et bouffe Dans la cité rien ne lui glace le sang Pour lui il n'y a ni après ni avant Il n'a pas connu l'état d'être enfant Et il compte plus les heures, seul Oh-oh-oh-oh seul, seul Tais-toi et bouffe Il regarde son décor s'enfoncer dans la peur Y a des cris dehors, il connait ça par cur À vingts minutes de chez lui, les beaux quartiers s'allument Il n'a connu qu'la misère et ses reflets dans l'bitume Son espoir s'est usé dans une cage d'escalier Sa part d'ange s'est fanée au quatorzième palier À traîner avec les grands, il en perd son âge Il est presque né violent, c'est pas un personnage Son père est trop absent, sa mère est dépassée Il passe le temps à faire le gai devant le bâtiment C Avant d'apprendre à sourire, il a appris à mordre Il est parmi tant d'autres un enfant du désordre Enfant du désordre La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe Il regarde son avenir s'enfoncer dans l'impasse Aucun projet en vue, les questions qui s'entassent Il regarde la vie des autres pour oublier ses drames Sa vie à lui ne ressemble pas aux story d'Instagram Il n'est pas malheureux puisqu'il ne cherche pas l'bonheur À qui la faute s'il n'a pas les mêmes chances qu'ailleurs ? La faute à sa cité, la faute à pas d'chance La faute au manque d'argent, la faute à la France La faute au manque d'illusion, au fatalisme rampant La faute à l'état français qui ferme les yeux depuis trente ans La faute au manque d'horizon, la faute aux grilles tout autour Au manque de considération, la faute au manque d'amour Au manque d'amour La violence est une rancur qu'on a laissé grandir Une colère prisonnière qui ne veut plus partir Oh-oh-oh Les enfants du désordre ne savent que se défendre La société les juge avant de les entendre Oh-oh-oh-oh Tais-toi et bouffe</t>
+          <t>A celui qui veut construire sa maison tout seul A celui qui pense que l'enfer c'est les autres A celui qui ne tend jamais la main par orgueil A celui qui préfère dire le mien que le nôtre A celui qui pense qu'on doit être seul pour être libre Qu'on n'est jamais mieux servi que par soi même Moi je dis que j'ai besoin des autres pour bien vivre J'affiche l'esprit d'équipe comme un emblème Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin L'homme est un animal qui est fait pour vivre en meute Tout seul il s'ennuie, il stagne, il se perd Il est pour son voisin le meilleur thérapeute Il est pour ses prochains le plus fiable des repères Parce que plus que jamais j'aime la force de l'équipe La puissance du collectif je l'ai vécu et j'y crois Et même si je suis toujours mauvais en mathématiques Je pense que chez l'homme un plus un égale trois Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Les hommes sont plus forts quand ils savent leurs faiblesses Chaque interaction est féconde, explique leur Que l'entraide et le partage c'est l'avenir de l'espèce Quand la vie est trop lourde, portons-la à plusieurs Tout seul je vais vite, ensemble on va loin Quand je fais ma partie, je peux passer le témoin Tout seule je résiste, ensemble on craint rien On progresse, on grandit et putain on rigole bien x2 Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>En Vers et Contre Tout</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A celui qui veut construire sa maison tout seul A celui qui pense que l'enfer c'est les autres A celui qui ne tend jamais la main par orgueil A celui qui préfère dire le mien que le nôtre A celui qui pense qu'on doit être seul pour être libre Qu'on n'est jamais mieux servi que par soi même Moi je dis que j'ai besoin des autres pour bien vivre J'affiche l'esprit d'équipe comme un emblème Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin L'homme est un animal qui est fait pour vivre en meute Tout seul il s'ennuie, il stagne, il se perd Il est pour son voisin le meilleur thérapeute Il est pour ses prochains le plus fiable des repères Parce que plus que jamais j'aime la force de l'équipe La puissance du collectif je l'ai vécu et j'y crois Et même si je suis toujours mauvais en mathématiques Je pense que chez l'homme un plus un égale trois Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Les hommes sont plus forts quand ils savent leurs faiblesses Chaque interaction est féconde, explique leur Que l'entraide et le partage c'est l'avenir de l'espèce Quand la vie est trop lourde, portons-la à plusieurs Tout seul je vais vite, ensemble on va loin Quand je fais ma partie, je peux passer le témoin Tout seule je résiste, ensemble on craint rien On progresse, on grandit et putain on rigole bien x2 Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin Tout seul je vais vite Ensemble on va loin L'esprit d'équipe Comme un besoin</t>
+          <t>C'est le calvaire sévère du poète et de ses vers Envers et contre tout le poète s'évertue à trouver des vers Sans tergiverser il reste ouvert été comme hiver Tout l'inspire Assis dans un verger verdâtre il observe l'air pervers D'un pivert picorant sans vergogne un ver de terre Il prend de la hauteur, et en auteur vertueux et averti il convertit seul la véracité de cette scène en vers Et contre tous L'écriture est son univers, sa perversion Il versifie sans se diversifier regardant les mots de face de travers Les posant à l'endroit à l'envers rimant en vers rapides ou en vers lents Vers l'an 2000 il doute il se dit qu'il est en train de passer au travers Ses parents l'avaient averti ils ont une aversion pour ses vers Ça il l'a découvert Des fois même il en perd ses vers Mais malgré un père sévère il persévère et décide de mettre fin au calvaire Il se tourne vers une maison de disques, véritable pari vers un nouvel univers Il fait confiance à la verve de son stylo et attend de voir ce que ses propres vers dictent Il s'avère qu'il obtient un rendez-vous le jour de son anniversaire Il s'est bien couvert car dehors il pleut à verse Notre poète est sagittaire, aujourd'hui Dame Nature est verseau Vers sept heures dans son blouson vermillon il arrive devant ce grand immeuble de verre Il appréhende Il se sent tout petit, rabougri comme une verge effarouchée L'hôtesse d'accueil lui dit qu'il est attendu au sixième étage bureau 666 Dans l'ascenseur il se dit qu'il va peut être enfin mettre fin à ce sale hiver Il a la gorge sèche, la pression bloque ses glandes salivaires Il arrive devant la bonne porte, pose la main sur la poignée C'est tout vert à l'intérieur la moquette est verte les rideaux sont verts la table et les chaises sont vertes Et lui il a le vertige Face à lui un homme, notre poète sent que c'est une vermine Il est habillé comme un ado mais doit avoir sa carte vermeil, ça l'émerveille Il a la peau vérolée et un il de verre Il dit à notre poète qu'il a lu ses vers, et qu'il pense qu'il a du talent mais qu'il n'est pas encore assez mûr, peut être trop vert Il l'invite à revenir vers l'hiver prochain pour l'instant miser sur lui serait perdre de l'argent Quand il a fini de déverser ses arguments renversants Notre poète se lève sans un mot pour sortir et quitter cet univers sale Il garde la tête haute, et le cou droit, mais il s'est prit un revers Et même si pour l'instant il rit jaune en fait il est vert Il est à deux doigts de se laisser pervertir à casser quelques vertèbres à cette vermine Mais finalement il décide de ne pas ajouter un nouveau fait divers glacé dans cet hiver déjà rude Ce soir, il troquera sa tasse de verveine contre un verre de vermouth Avant d'enlever son pull-over et de se remettre à ses vers Sa façon à lui de se mettre au vert C'est vrai qu'il n'est pas verni que son ascension n'est pas verticale Mais il sait qu'un jour il trouvera la clé de ce verrou Et il pourra alors courir même s'il ne sait pas encore vers où Il a confiance en l'avenir en sa plume en son style versatile, il faut qu'il s'évertue Même sans revolver, il faut que ses vers tuent Alors pour lui et pour ses vers, pour son calvaire sévère Ce soir je lève mon verre Malgré ces quelques heures noires, pourvu que ses vers durent</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>En Vers et Contre Tout</t>
+          <t>Éphémère</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C'est le calvaire sévère du poète et de ses vers Envers et contre tout le poète s'évertue à trouver des vers Sans tergiverser il reste ouvert été comme hiver Tout l'inspire Assis dans un verger verdâtre il observe l'air pervers D'un pivert picorant sans vergogne un ver de terre Il prend de la hauteur, et en auteur vertueux et averti il convertit seul la véracité de cette scène en vers Et contre tous L'écriture est son univers, sa perversion Il versifie sans se diversifier regardant les mots de face de travers Les posant à l'endroit à l'envers rimant en vers rapides ou en vers lents Vers l'an 2000 il doute il se dit qu'il est en train de passer au travers Ses parents l'avaient averti ils ont une aversion pour ses vers Ça il l'a découvert Des fois même il en perd ses vers Mais malgré un père sévère il persévère et décide de mettre fin au calvaire Il se tourne vers une maison de disques, véritable pari vers un nouvel univers Il fait confiance à la verve de son stylo et attend de voir ce que ses propres vers dictent Il s'avère qu'il obtient un rendez-vous le jour de son anniversaire Il s'est bien couvert car dehors il pleut à verse Notre poète est sagittaire, aujourd'hui Dame Nature est verseau Vers sept heures dans son blouson vermillon il arrive devant ce grand immeuble de verre Il appréhende Il se sent tout petit, rabougri comme une verge effarouchée L'hôtesse d'accueil lui dit qu'il est attendu au sixième étage bureau 666 Dans l'ascenseur il se dit qu'il va peut être enfin mettre fin à ce sale hiver Il a la gorge sèche, la pression bloque ses glandes salivaires Il arrive devant la bonne porte, pose la main sur la poignée C'est tout vert à l'intérieur la moquette est verte les rideaux sont verts la table et les chaises sont vertes Et lui il a le vertige Face à lui un homme, notre poète sent que c'est une vermine Il est habillé comme un ado mais doit avoir sa carte vermeil, ça l'émerveille Il a la peau vérolée et un il de verre Il dit à notre poète qu'il a lu ses vers, et qu'il pense qu'il a du talent mais qu'il n'est pas encore assez mûr, peut être trop vert Il l'invite à revenir vers l'hiver prochain pour l'instant miser sur lui serait perdre de l'argent Quand il a fini de déverser ses arguments renversants Notre poète se lève sans un mot pour sortir et quitter cet univers sale Il garde la tête haute, et le cou droit, mais il s'est prit un revers Et même si pour l'instant il rit jaune en fait il est vert Il est à deux doigts de se laisser pervertir à casser quelques vertèbres à cette vermine Mais finalement il décide de ne pas ajouter un nouveau fait divers glacé dans cet hiver déjà rude Ce soir, il troquera sa tasse de verveine contre un verre de vermouth Avant d'enlever son pull-over et de se remettre à ses vers Sa façon à lui de se mettre au vert C'est vrai qu'il n'est pas verni que son ascension n'est pas verticale Mais il sait qu'un jour il trouvera la clé de ce verrou Et il pourra alors courir même s'il ne sait pas encore vers où Il a confiance en l'avenir en sa plume en son style versatile, il faut qu'il s'évertue Même sans revolver, il faut que ses vers tuent Alors pour lui et pour ses vers, pour son calvaire sévère Ce soir je lève mon verre Malgré ces quelques heures noires, pourvu que ses vers durent</t>
+          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Éphémère</t>
+          <t>Funambule - Freestyle 25/12/13 Skyrock</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
+          <t>Lourdes sont les baloches, l'respect est obligatoire Quatre portables dans la sacoche sous commission rogatoire Les murs ont des oreilles, l'commissaire veut tout savoir Parfois les potes de la veille auraient besoin d'un bavoir Les parents désespèrent, les condés sont détestés La virginité s'perd aussi souvent que le respect Fuck tes belles promesses, j'me débrouille moi-même La seule fin heureuse que j'connaisse, c'est la fin d'la semaine Et nique sa race, j'ai plus l'temps d'être peace J'prends de la place comme une liasse en billet d'dix Et j'range mes sourires, j'apprends à être triste À croire qu't'es obligé d'chialer quand t'es un artiste Et l'amour du risque faire du hors-piste les yeux bandés Ce qui consiste à sortir un disque en indé' C'est Tunisan', ça s'passe le dix mars L'album c'est Marqué à vie, Grand corps Malade Tunisan', on est des funambules, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude, je suis un funambule On est, on est des, on est des On fait parler l'talent Rendez-vous au prochain cauchemar, qu'on parle de mes rêves Moi faut qu'j'marche la tête haute, j'rappe une part de mes rêves J'pense grand, on s'tue à chercher un but, finalement Moi j'réponds pas à leurs questions, juste au signalement , le style pue l'incident Si la monnaie parle, moi, j'veux être son confident J'plane et j'traque l'air pur, j'vous survole, j'atterris Sur l'track, j'ré-écris l'histoire sur mon bold blackberry Bon, par fierté on pêche, les yeux plus gros qu'le ventre On pratique pas c'qu'on prêche, donner du rêve plutôt qu'le vendre Le dos au vent, on fonce dans l'mur avec nos idées toutes faites La vie veut m'faire fumer, la mort m'a fait une soufflette Jamais loin des flingues grossiers, des heures à bicrave Des virages mal négociés, des erreurs d'arbitrage Pour c'que ça coûte, une petite heure de gloire m'empêchera pas d'foncer Ici les balles ont la mémoire courte, comme des auditeurs de Rap Français T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir c'est sur Skyrock, Lino, Tunisan, on a rendez-vous Tous ensemble et maintenant c'est à vous On n'est qu'au préambule Reste pas dans ta bulle Sors, bordel ! Tchh tchh</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Funambule - Freestyle 25/12/13 Skyrock</t>
+          <t>Il nous restera ça</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lourdes sont les baloches, l'respect est obligatoire Quatre portables dans la sacoche sous commission rogatoire Les murs ont des oreilles, l'commissaire veut tout savoir Parfois les potes de la veille auraient besoin d'un bavoir Les parents désespèrent, les condés sont détestés La virginité s'perd aussi souvent que le respect Fuck tes belles promesses, j'me débrouille moi-même La seule fin heureuse que j'connaisse, c'est la fin d'la semaine Et nique sa race, j'ai plus l'temps d'être peace J'prends de la place comme une liasse en billet d'dix Et j'range mes sourires, j'apprends à être triste À croire qu't'es obligé d'chialer quand t'es un artiste Et l'amour du risque faire du hors-piste les yeux bandés Ce qui consiste à sortir un disque en indé' C'est Tunisan', ça s'passe le dix mars L'album c'est Marqué à vie, Grand corps Malade Tunisan', on est des funambules, j'avance loin des certitudes Les pieds sur terre, l'air dans ma bulle L'équilibre est une attitude, je suis un funambule On est, on est des, on est des On fait parler l'talent Rendez-vous au prochain cauchemar, qu'on parle de mes rêves Moi faut qu'j'marche la tête haute, j'rappe une part de mes rêves J'pense grand, on s'tue à chercher un but, finalement Moi j'réponds pas à leurs questions, juste au signalement , le style pue l'incident Si la monnaie parle, moi, j'veux être son confident J'plane et j'traque l'air pur, j'vous survole, j'atterris Sur l'track, j'ré-écris l'histoire sur mon bold blackberry Bon, par fierté on pêche, les yeux plus gros qu'le ventre On pratique pas c'qu'on prêche, donner du rêve plutôt qu'le vendre Le dos au vent, on fonce dans l'mur avec nos idées toutes faites La vie veut m'faire fumer, la mort m'a fait une soufflette Jamais loin des flingues grossiers, des heures à bicrave Des virages mal négociés, des erreurs d'arbitrage Pour c'que ça coûte, une petite heure de gloire m'empêchera pas d'foncer Ici les balles ont la mémoire courte, comme des auditeurs de Rap Français T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir c'est sur Skyrock, Lino, Tunisan, on a rendez-vous Tous ensemble et maintenant c'est à vous On n'est qu'au préambule Reste pas dans ta bulle Sors, bordel ! Tchh tchh</t>
+          <t>Quand ce système brutal qu'on essaye d'apprivoiser Nous aura vidé d'nos âmes et de nos dernières bonnes idées Il nous restera ça Quand les mythos d'en haut auront fait élire les chiens Que la culture et l'ouverture seront des souvenirs lointains Il nous restera ça Quand on sera tous endormis par les discours des marchands de sable Et qu'on aura qu'nos utopies pour raconter nos propres fables Il nous restera ça Il nous restera ça Quelques papiers griffonnés, quelques rimes à enrichir A la face d'un monde hanté par un futur sans avenir On pourra dire qu'on a tenté d's'ouvrir un peu une veine Pour faire couler une encre honnête, avoir mal pour être soi-même On essayera de se souvenir pourquoi on a commencé ça Faut trouver l'urgence d'écrire, le plus important c'est ça Être soi même malgré tout, naïf, décidé, bavard On absorbera les mots en trop sur un bout d'papier buvard On essayera de se souvenir qu'on a fait ça sans calculer On a noirci sans rougir tout ce qu'on trouvait d'immaculé Comme un réflexe dérisoire, c'était bon quand j'y pense Et on a rempli des pages comme tu t'es rempli la panse Certains diront qu'ça sert à rien mais qui pourra nous raisonner ? On sera toujours plus d'un à continuer d'faire résonner Quelques cordes vocales têtues qui n'feront pas leur age Tels des poètes torses nus un peu perdus dans l'orage Dans la tempête où le chiffre a pris l'dessus sur le verbe On se sent bien à nos places un peu comme un poisson dans l'herbe Personne ne peut l'cacher on a la rime anachronique Dans ce monde de 4G on cherche des cabines téléphoniques Sans réseau, sans raison, comme le roseau nous plions Hors fuseau, hors saison, nos dernières forces nous trions Pour arroser encore la source qu'on n'laissera pas tarir Et même les deux pieds dans l'eau, on entendra encore nos rires On entendra encore nos joies, on entendra encore les cris Ceux des vrais, ceux des enfants qui nous font croire à l'envie L'envie d'regarder au-dessus voir qu'y'a encore des étages Et qu'ils pourront y grimper avec en poche cet héritage Ces quelques mots, ces quelques textes qui nous aident à penser Qu'on a pas fait tout ça pour rien, qu'y'aura une trace du passé Il leur restera ça, ces quelques moments choisis Dans ce monde de brutes, quelques grammes de poésie</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Génération Motivée</t>
+          <t>Inch’ Allah</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tale of King Omar Bin Al-Nu'uman and His Sons Sharrkan and Zau Al-Makan And What Befel Them of Things Seld-Seen and Peregrine. The King asked her, And what was their story? and she answered It hath reached me, O auspicious King, that there was in the City of Safety, Baghdad, before the Caliphate of Abd al-Malik bin Marwán, a King, Omar bin al-Nu'umán highs, who was of the mighty giants and had subjected the Chosroës of Persia and the Kaysars of Eastern Rome for none could warm himself at his fire nor could any avail to meet him in the field of foray and fray and, when he was angered, there came forth from his nostrils sparks of flame. He had made himself King over all quarters, and Allah had subjected to him all His creatures his word went forth to all great cities and his hosts had harried the farthest lands. East and West had come under his command with whatsoever regions lay interspersed between them, Hind and Sind and Sin, the Holy Land, Al-Hijaz, the rich mountains of Al-Yaman and the archipelagos of India and China. Moreover, he reigned supreme over the north country and Diyár Bakr, or Mesopotamia, and over Sudán, the Eastern Negro land and the Islands of the Ocean, and all the far famed rivers of the earth, Sayhún and Jayhún, Nile and Euphrates. He sent envoys and ambassadors to capitals the most remote, to provide him with true report and they would bring back tidings of justice and peace, with assurance of loyalty and obedience and of prayers in the pulpits for King Omar bin al-Nu'uman for he was, O Ruler of the Age, a right noble King and there came to him presents of rarities and toll and tribute from all lands of his governing. This mighty monarch had a son yclept Sharrkan, who was likest of all men to his father and who proved himself one of the prodigies of his time for subduing the brave and bringing his contemporaries to bane and ban. For this his father loved him with love so great none could be greater, and made him heir to the kingdom after himself. This Prince grew up till he reached man's estate and was twenty years old, and Allah subjected His servants to him, by reason of his great might and prowess in battle. Now his father, King Omar, had four wives legally married, but Allah had vouchsafed him no son by them, save Sharrkan, whom he had begotten upon one of them, and the rest were barren. Moreover he had three hundred and sixty concubines, after the number of days in the Coptic year, who were of all nations and he had furnished for each and every a private chamber within his own palace. For he had built twelve pavilions, after the number of the months, each containing thirty private chambers, which thus numbered three hundred and three score, wherein he lodged his handmaids and he appointed according to law for each one her night, when he lay with her and came not again to her for a full year and on this wise he abode for a length of time. Meanwhile his son Sharrkan was making himself renowned in all quarters of the world and his father was proud of him and his might waxed and grew mightier so that he passed all bounds and bore himself masterfully and took by storm castles and cities. Presently, by decree of the Decreer, a handmaid among the handmaids of Omar bin Nu'uman became pregnant and, her pregnancy being announced to the Harim, the King was informed thereof whereupon he rejoiced with exceeding joy and said, Haply it will be a son, and so all my offspring will be males! Then he documented the date of her conception and entreated her with all manner of kindness. But when the tidings came to Sharrkan, he was troubled and the matter seemed to him a sore one and a grievous and he said, Verily one cometh who shall dispute with me the sovereignty so quoth he to himself, If this concubine bear a male child I will kill it but he kept that intention hidden in his heart. Such was the case with Sharrkan but what happened in the matter of the damsel was as follows. She was a Roumiyah, a Greek girl, by name Sofiyah or Sophia, whom the King of Roum and Lord of Cæsarea had sent to King Omar as a present, together with great store of gifts and of rarities she was the fairest of favour and loveliest of all his handmaids and the most regardful of her honour and she was gifted with a wit as penetrating as her presence was fascinating. Now she had served the King on the night of his sleeping with her, saying to him, O King! I desire of the God of the Heavens that he bless thee this night with a male child by me, so I may bring him up with the best of rearing, and enable him to reach man's estate perfect in intelligence, good manners and prudent bearinga speech which much pleased the King. During her pregnancy she was instant in prayer, fervently supplicating the Lord to bless her with a goodly male child and make his birth easy to her and Allah heard her petition so that after her months were accomplished she sat safely upon the birth stool. Now the King had deputed a eunuch to let him know if the child she should bring forth were male or female and in like way his son Sharrkan had sent one to bring him tidings of the same. In due time Sophia was delivered of a child, which the midwives examined and found to be a girl with a face sheenier than the moon. So they announced this to all present in the room, whereupon the King's messenger carried the news to him and Sharrkan's eunuch did the like with his master who rejoiced with exceeding joy. But, after the two had departed, quoth Sophia to the midwives, Wait with me awhile, for I feel as if there were still somewhat in my womb. Then she cried out and the pains of child bed again took her and Allah made it easy to her and she gave birth to a second child. The wise women looked at it and found it a boy like the full moon, with forehead flower white, and cheek ruddy bright with rosy light whereupon the mother rejoiced, as did the eunuchs and attendants and all the company and Sophia was delivered of the after birth whilst all in the palace sent forth the trill of joy. The rest of the concubines heard it and envied her lot and the tidings reached Omar son of Al- Nu'uman, who was glad and rejoiced at the excellent news. Then he rose and went to her and kissed her head, after which he looked at the boy and, bending over him, kissed him, whilst the damsels struck the tabors and played on instruments of music and the King gave order that the boy should be named Zau al-Makán and his sister Nuzhat al-Zamán. They answered Hearing and obedience, and did his bidding so he appointed wet nurses and dry nurses and eunuchs and attendants to serve them and assigned them rations of sugar and diet drinks and unguents and else beside, beyond the power of tongue to rehearse. Moreover the people of Baghdad, hearing that Allah had blessed their King with issue, decorated the city and made proclamation of the glad tidings with drum and tom tom and the Emirs and Wazirs and high dignitaries came to the palace and wished King Omar bin al-Nu'uman joy of his son, Zau al-Makan, and of his daughter Nuzhat al-Zaman, wherefore he thanked them and bestowed on them dresses of honour and further favoured them with gifts, and dealt largesse to all, gentle and simple, who were present. After this fashion he did for four days full told, and he lavished upon Sophia raiment and ornaments and great store of wealth and, every few days he would send a messenger to ask after her and the new-borns. And when four years had gone by, he provided her with the wherewithal to rear the two children carefully and educate them with the best of instructions. All this while his son Sharrkan knew not that a male child had been born to his father, Omar son of Al-Nu'uman, having news only that he had been blessed with the birth of Nuzhat al-Zaman and they hid the intelligence from him, until days and years had sped by, whilst he was busied in battling with the brave and fighting single handed against the knights. One day, as King Omar was sitting in his palace, his Chamberlains came in to him and, kissing the ground before him, said, O King there be come Ambassadors from the King of Roum, Lord of Constantinople the Great, and they desire admission to thee and submission to thy decree if the King commend us to introduce them we will so do and, if not, there is no disputing his behest. He bade them enter and, when they came in, he turned to them and, courteously receiving them, asked them of their case, and what was the cause of their coming. They kissed the ground before him and said, O King glorious and strong! O lord of the arm that is long! know that he who despatched us to thee is King Afrídún, Lord of Ionia land and of the Nazarene armies, the sovereign who is firmly established in the empery of Constantinople, to acquaint thee that he is now waging fierce war and fell with a tyrant and a rebel, the Prince of Casarea and the cause of this war is as follows. One of the Kings of the Arabs in past time, during certain of his conquests, chanced upon a hoard of the time of Alexander, whence he removed wealth past compute and, amongst other things, three round jewels, big as ostrich eggs, from a mine of pure white gems whose like was never seen by man. Upon each were graven characts in Ionian characters, and they have many virtues and properties, amongst the rest that if one of these jewels be hung round the neck of a new-born child, no evil shall befal him and he shall neither wail, nor shall fever ail him as long as the jewel remain without fail. When the Arab King laid hands upon them and learned their secrets, he sent to King Afridun presents of certain rarities and amongst them the three jewels afore mentioned and he equipped for the mission two ships, one bearing the treasure and the other men of might to guard it from any who might offer hindrance on the high seas, albeit well assured that none would dare waylay his vessels, for that he was King of the Arabs, and more by token that their course lay over waters subject to the King of Constantinople and they were bound to his port nor were there on the shores of that sea any save the subjects of the Great King, Afridun. The two ships set out and voyaged till they drew near our city, when there sallied out on them certain corsairs from that country and amongst them troops from the Prince of Caesarea, who took all the treasures and rarities in the ships, together with the three jewels, and slew the crews. When our King heard of this, he sent an army against them, but they routed it then he marched a second and a stronger but they put this also to flight,whereupon the King waxed wroth and swore that he would not go forth against them save in his own person at the head of his whole army nor would he turn back from them till he had left Caesarea, of Armenia in ruins and had laid waste all the lands and cities over which her Prince held sway. So he sent us to the Lord of the age and the time, Sultan Omar bin al-Nu'uman, King of Baghdad and of Khorasan, desiring that he aid us with an army, so may honour and glory accrue to him and he hath also forwarded by us somewhat of various kinds of presents, and of the King's grace he beggeth their acceptance and the friendly boon of furtherance. Then the Ambassadors kissed the ground before him,And Shahrazad perceived the dawn of day and ceased to say her permitted say. When it was the Forty-sixth Night, She said, It hath reached me, O auspicious King, that, after the Ambassadors and retinue from the Constantinopolitan King had kissed the ground before Omar and had delivered their embassage, they brought out the presents, which were fifty damsels of the choicest from Graecia-land, and fifty Mamelukes in tunics of brocade, belted with girdles of gold and silver, each wearing in his ears hoops of gold with pendants of fine pearls costing a thousand ducats every one. The girls were adorned in like fashion and were clad in stuffs worth a treasury of money. When the King saw them, he rejoiced in them and accepted them then he bade the Ambassadors be honourably entreated and, summoning his Wazirs, took counsel with them of what he should do. Herewith rose up among them a Wazir, an ancient man, Dandan highs, who kissed the ground before Omar and said, O King, there is nothing better to do in this matter than equip an army valiant and victorious, and set over it thy son Sharrkan with us as his lieutenants and this rede commendeth itself to me on two counts first, because the King of Roum hath invoked thine assistance and hath sent thee gifts which thou hast accepted and, secondly, because while no enemy dareth attack our country, thine army may go forth safely and, should it succour the King of Graecia-land and defeat his foe, the glory will be thine. Moreover, the news of it will be noised abroad in all cities and countries and especially, when the tidings shall reach the Islands of the Ocean and the Kings of Mauritania shall hear it, they will send thee offerings of rarities and pay thee tribute of money. The King pleased by the Wazir's words and approving his rede, gave him a dress of honour and said to him, Of the like of thee should Kings ask counsel, and it seemeth fit that thou shouldst conduct the van of our army and our son Sharrkan command the main battle. Then he sent for his son who came and kissed ground before him and sat down and he expounded to him the matter, telling him what the Ambassadors and the Wazir Dandan had said, and he charged him to take arms and equip himself for the campaign, enjoining him not to gainsay Dandan in aught he should do. Moreover, he ordered him to pick out of his army ten thousand horsemen, armed cap-à-pie and inured to onset and stress of war. Accordingly, Sharrkan arose on the instant, and chose out a myriad of horsemen, after which he entered his palace and mustered his host and distributed largesse to them, saying, Ye have delay of three days. They kissed the earth before him in obedience to his commands and began at once to lay in munitions, and provide provisions for the occasion whilst Sharrkan repaired to the armouries and took therefrom whatsoever he required of arms and armour, and thence to the stable where he chose horses of choice blood and others. When the appointed three days were ended, the army drew out to the suburbs of Baghdad city and King Omar came forth to take leave of his son who kissed the ground before him and received from the King seven parcels of money. Then he turned to Danden and commended to his care the army of his son and the Wazir kissed the ground before him and answered, I hear and I obey and lastly he charged Sharrkan that he should consult the Wazir on all occasions, which he promised to do. After this, the King returned to his city and Sharrkan ordered the officers to muster their troops in battle array. So they mustered them and their number was ten thousand horsemen, besides footmen and camp followers. Then they loaded their baggage on their beasts and the war drums beat and the trumpets blared and the bannerols and standards were unfurled, whilst Sharrkan mounted horse, with the Wazir Dandan by his side, and the colours fluttering over their heads. So the host fared forth and stinted not faring, with the ambassadors preceding them, till day departed and night drew nigh, when they alighted and encamped for the night. And as soon as Allah caused the morn tomorrow, they mounted and tried on, guided by the Ambassadors, for a space of twenty days and by the night of the twenty first they came to a fine and spacious Wady well grown with trees and shrubbery. Here Sharrkan ordered them to alight and commanded a three days' halt, so they dismounted and pitched their tents, spreading their camp over the right and the left slopes of the extensive valley, whilst the Wazir Dandan and the Ambassadors of King Afridun pitched in the sole of the Wady. As for Sharrkan, he tarried behind them for awhile till all had dismounted and had dispersed themselves over the valley sides he then slacked the reins of his steed, being minded to explore the Wady and to mount guard in his own person, because of his father's charge and owing to the fact that they were on the frontier of Graecia land and in the enemy's country. So he rode out alone after ordering his armed slaves and his body guard to camp near the Wazir Dandan, and he fared on along the side of the valley till a fourth part of the night was passed, when he felt tired and drowsiness overcame him, so that he could no longer urge horse with heel. Now he was accustomed to take rest on horseback so when slumber overpowered him, he slept and the steed ceased not going on with him till half the night was spent and entered one of the thickets which was dense with growth but Sharrkan awoke not until his horse stumbled over wooded ground. Then he started from sleep and found himself among the trees, and the moon arose and shone brightly over the two horizons, Eastern and Western. He was startled when he found himself alone in this place and said the say which ne'er yet shamed its sayer, There is no Majesty and there is no Might save in Allah, the Glorious, the Great! But as he rode on, in fear of wild beasts, behold, the moon spread her glad light over a meadow as if it were of the meads of Paradise and he heard pleasant voices and a loud noise of talk and laughter captivating the senses of men. So King Sharrkan alighted and, tying his steed to one of the trees, went over a little way till he came upon a stream and heard a woman talking in Arabic and saying, Now by the crush of the Messiah, this is not well of you! but whose utters a word, I will throw her and truss her up with her own girdle! He kept walking in the direction of the sound and when he reached the further side he looked and behold, a stream was gushing and flowing, and antelopes at large were frisking and roving, and wild cattle amid the pasture moving, and birds expressed joy and gladness in their divers tongues, and that place was purfled with all manner flowers and green herbs, even as a poet described it in these couplets, Most beautiful is earth in budding bloom, When lucid waters course through plain and wood No work but His th' All great, th' All glorious, Giver of all gifts, Giver of all good! And as Sharrkan considered the place, he saw in it a Christian Monastery within whose enceinte a castle towered high in air catching the light of the moon. Through the midst of the convent passed a stream, the water flowing amongst its gardens and upon the bank sat the woman whose voice he had heard, while before her stood ten handmaids like moons and wearing various sorts of raiment and ornaments that dazed and dazzled the beholder, high bosomed virgins, as saith of them the poet in these couplets, The mead is bright with what is on't Of merry maidens debonnair Double its beauty and its grace Those trooping damsels slender- fair Virgins of graceful swimming gait Ready with eye and lip to ensnare And like the tendril'd vine they loose The rich profusion of their hair Shooting their shafts and arrows from Beautiful eyes beyond compare Overpowering and transpiercing Every froward adversaire. Sharrkan gazed upon the ten girls and saw in their midst a lady like the moon at fullest, with ringleted hair and forehead sheeny white, and eyes wondrous wide and black and bright, and temple locks like the scorpion's tail and she was perfect in essence and attributes, as the poet said of her in these couplets, She beamed on my sight with a wondrous glance, And her straight slender stature enshamed the lance She burst on my sight with cheeks rosy red, Where all manner of beauties have habitance And the locks on her forehead were lowering as night Whence issues a dawn tide of happiest chance. Then Sharrkan heard her say to the handmaids, Come ye on, that I may wrestle with you and gravel you, ere the moon set and the dawn break! So each came up to her in turn and she grounded them forthright, and pinioned them with their girdles, and ceased not wrestling and pitching them until she had overthrown one and all. Then there turned to her an old woman who was before her, and the beldam said as in wrath, O strumpet, cost thou glory in grounding these girls? Behold I am an old woman, yet have I thrown them forty times! So what hast thou to boast of? But if thou have the strength to wrestle with me, stand up that I may grip thee and set thy head between thy heels! The young lady smiled at her words, but she was filled with inward wrath, and she jumped up and asked, O my lady Zat al-Dawahi, by the truth of the Messiah, wilt thou wrestle with me in very deed, or dost thou jest with me? and she answered, Yea,And Shahrazad perceived the dawn of day and ceased saying her permitted say. When it was the Forty-seventh Night, She said, It hath reached me, O auspicious King, that when the young lady asked Zat al-Dawahi, By the truth of the Messiah, wilt wrestle with me or dost jest?, and she answered, Yea, I will wrestle with thee in very deed Sharrkan looking on the while, the damsel cried, Rise up for the fall an thou have spunk so to do. When the old woman heard this, she raged with exceeding rage, and her body hair stood on end like the bristles of a fretful hedgehog. Then she sprang to her feet, whilst the damsel stood up to her, and said, Now by the truth of the Messiah, I will not wrestle with thee unless I be naked, Mistress whore! So she loosed her petticoat trousers and, putting her hand under her clothes, tore them off her body then twisted up a silken kerchief into cord shape, girt it round her middle and became as she were a scald head If ritah or a spotted snake. With this she inclined towards the damsel and said, Do thou as I have done. All this time, Sharrkan was gazing at the twain, and laughing at the beldam's loathly semblance. So the damsel leisurely rose and, taking a sash of Yamani stuff, passed it twice round her waist, then she tucked up her trousers and displayed two calves of alabaster carrying a mound of crystal, smooth and rounded, and a stomach which exhaled musk from its dimples, as it were a bed of Nu'uman's anemones and breasts like double pomegranates. Then the old woman leant towards her, and the two laid hold either of each, while Sharrkan raised his head Heavenwards and prayed Allah that the belle might beat the beldam. Presently the young woman get beneath the old woman and, gripping her waist cloth with the left and circling her neck with the right hand, hoisted her off the ground with both whereupon the old woman strove to free herself and, in so doing fell on her back arsiversy, with her legs high in air and her hairy bush between them showed manifest in the moonshine furthermore she let fly two great farts one of which blew up the dust from the earth's face and the other steamed up to the gate of Heaven. Sharrkan laughed till he fell back upon the ground. Then he arose and, baring his brand looked right and left, but he saw no one save the old woman sprawling on her back, and said to himself, He lied not who named thee Lady of Calamities! Verily thou knewest her prowess by her performance upon the others. So he drew near them to hear what should pass between them. Then the young lady went up to the old one and, throwing a wrapper of thin silk upon her nakedness, helped her to don her clothes and made excuses saying, O my lady Zat al- Dawahi, I intended only to throw thee and not all this, but thou triedst to twist out of my hands so laud to Allah for safety! She returned her no answer, but rose in her shame and walked away till out of sight, leaving the handmaids prostrate and pinioned, with the fair damsel standing amongst them. Quoth Sharrkan to himself, Every luck hath its cause. Sleep did not fall upon me nor the war horse bear me hither save for my good fortune for doubtless this maid and what is with her shall become booty to me. So he made towards his steed and mounted and heeled him on, when he sped as the shaft speeds from the bow and in his hand he still hent his brand bare of sheath, which he brandished shouting the while his war cry, Allah is All mighty! When the damsel saw him she sprang to her feet and, taking firm stand on the bank of the stream, whose breadth was six ells, the normal cubits, made one bound and landed clear on the farther side, where she turned and cried out with a loud voice, Who art thou, O thou fellow, that breakest in upon our privacy and pastime, and that too hanger in hand as if charging a host? Whence camest thou and whither art thou going? Speak sooth, for truth will stand thee in good stead, and lie not, for lies come of villein breed Doubtless thou hast wandered this night from thy way, that thou chancedst upon this place whence escape were the greatest of mercies for thou art now in an open plain and, did we shout but a single shout, would come to our rescue four thousand knights. So tell me what thou wantest and if thou wouldst only have us set thee on the right road, we will do so. When Sharrkan heard her words he replied, I am a stranger of the Moslems, who fared forth this night single handed, seeking for spoil nor could this moonlight show me a fairer booty than these ten maidens so I shall seize them and rejoin my comrades with them. Quoth she, I would have thee know that as for the booty thou hast not come at it and, as for the handmaids, by Allah, they shall never be thy spoil. Have I not told thee that to lie is villein vile? Quoth he, The wise man is he who taketh warning by others. Thereupon quoth she, By the truth of the Messiah, did I not fear that thy death would be on my hands, I would shout a shout should fill the mead for thee with war steeds and with men of might, but I take pity upon the stranger. So, if thou seek booty, I require of thee that thou alight from thy steed and swear to me, by thy faith, that thou wilt not advance against me aught like arms in hand, and we will wrestle, I and thou. If thou throw me, set me on thy steed and take all of us to thy booty but if I throw thee, thou shalt become under my command. Swear this to me, for I fear thy treachery indeed it hath become a common saw, 'Where Perfidy is innate there Trust is a weakly mate.' Now an thou wilt swear I will return and draw near to thee and tackle thee. Answered Sharrkan and indeed he lusted to seize her and said in his soul, Truly she knoweth not that I am a champion of champions Swear me by what oath thou wilt and by what thou deemest most binding, and I will not approach thee with aught till thou hast made thy preparation and sayest, 'Draw near that I wrestle with thee.' If thou throw me, I have money where withal to ransom myself and if I throw thee, 'twill be booty and booty enough for me! Rejoined the damsel, I am content herewith! and Sharrkan was astounded at her words and said, And by the truth of the Apostle whom Allah bless and keep! I too am content on the other part! Then said she, Swear to me by Him who sprite in body dight and dealt laws to rule man kind aright, that thou wilt not offer me aught of violence save by way of wrestling else mayst thou die without the pale of Al- Islam. Sharrkan replied, By Allah! were a Kazi to swear me, even though he were a Kazi of the Kazis, he would not impose upon me such an oath as this! Then he sware to her by all she named and tied his steed to a tree but he was drowned in the sea of thought, saying in himself, Praise be to Him who fashioned her from dirty water! Then he girt himself and made ready for wrestling, and said to her, Cross the stream to me but she replied, It is not for me to come over to thee if thou wilt, pass thou over here to me. I cannot do that, quoth he, and quoth she, O boy, I will come across to thee. So she tucked up her skirts and, leaping, landed on the other side of the stream by his side whereupon he drew near to her and bent him forwards and clapped palms. But he was confounded by her beauty and loveliness for he saw a shape which the Hand of Power had tanned with the dye leaves of the Jann, which had been fostered by the Hand of Beneficence and fanned by the Zephyrs of fair fortune and whose birth a propitious ascendant had greeted. Then she called out to him, O Moslem, come on and let us wrestle ere the break of morning, and tucked up her sleeves from a forearm like fresh curd, which illumined the whole place with its whiteness and Sharrkan was dazzled by it. Then he bent forwards and clapped his palms by way of challenge, she doing the like, and caught hold of her, and the two grappled and gripped and interlocked hands and arms. Presently he shifted his hands to her slender waist, when his finger tips sank into the soft folds of her middle, breeding languishment, and he fell a trembling like the Persian reed in the roaring gale. So she lifted him up and, throwing him to the ground, sat upon his breast with hips and hinder cheeks like mounds of sand, for his soul had lost mastery over his senses. Then she asked him, O Moslem! the slaying of Nazarenes is lawful to you folk what then hast thou to say about being slain thyself? and he answered, O my lady, thy speech as regards slaying me is not other than unlawful for our prophet Mohammed whom Allah bless and preserve! prohibited the slaying of women and children, old men and monks! As it was thus revealed to your Prophet, she replied, it behoveth us to render the equivalent of his mercy so rise. I give thee thy life, for generosity is never lost upon the generous. Then she got off his breast and he rose and stood shaking the dust from his head against the owners of the curved rib, even women and she said to him, Be not ashamed but verily one who entereth the land of Roum in quest of booty, and cometh to assist Kings against Kings, how happeneth it that he hath not strength enough to defend himself from one made out of the curved rib? 'Twas not for lack of strength in me, he answered nor didst thou throw me by thy force it was thy loveliness overthrew me so if thou wilt grant me another bout, it will be of thy courtesy. She laughed and said, I grant thee thy request but these handmaids have long been pinioned and their arms and sides are weary, and it were only right I should loose them, for haply this next wrestling bout will be long. Then she went to the slave girls and, unbinding them, said to them in the tongue of Greece, Get ye to some safe place, till I foil this Moslem's lust and longing for you. So they went away, whilst Sharrkan kept gazing at them and they kept turning to look at the two. Then each approached the adversary and he set his breast against hers, but when he felt waist touch waist, his strength failed him and she, waxing ware of this, lifted him with her hands swiftlier than the blinding leven-flash, and threw him to the ground. He fell on his back, and then she said to him, Rise I give thee thy life a second time. I spared thee in the first count because of thy Prophet, for that he made unlawful the slaying of women and I do so on the second count because of thy weakliness and the greenness of thine years and thy strangerhood but I charge thee, if there be in the Moslem army sent by Omar bin al-Nu'uman to succour the King of Constantinople, a stronger than thou, send him hither and tell him of me for in wrestling there are shifts and trips, catches and holds, such as the feint or falsing and the snap or first grip, the hug, the feet-catch, the thigh Lite, the jostle and the leg-lock. By Allah, O my lady, quoth Sharrkan and indeed he was highly incensed against her, had I been Master al-Safdí, Master Mohammed Kimál or Ibn al-Saddí, as they were in their prime, I had kept no note of these shifts thou mentionest for O my mistress, by Allah, thou hast not grassed me by thy strength, but by the blandishments of thy back parts for we men of Mesopotamia so love a full formed thigh that nor sense was left me nor foresight. But now, an thou wish, thou shalt try a third fall with me while my wits are about me, and this last match is allowed me by the laws of the game which sayeth the best of three moreover I have regained my presence of mind. When she heard his words she said to him, Hast thou not had a belly full of this wrestling, O vanquished one? However come on, an thou wilt but know that this must be the last round. Then she bent forward and challenged him and Sharrkan did likewise, setting to it in real earnest and being right cautious about the throw so the two strove awhile and the damsel found in him a strength such as she had not observed before and said to him, O Moslem, thou art now on thy mettle. Yes, he replied, thou knowest that there remaineth to me but this one round, after which e</t>
+          <t>C'est un son plein de sourires dans un climat tendu Qui espère et respire dans cette époque tordue C'est le son qui propose des virages des voyages Des clameurs des visages, c'est le son des mariages Et si on chantait de toutes les couleurs Inch' Allah On va faire danser les corps et les coeurs Inch' Allah Si on est tous ensemble ça nous suffira Inch' Allah Si nos voix se rassemblent on nous entendra Inch' AllahX4 C'est le son qui éclaire qui partage et rassemble C'est les beaux quartiers qui dansent avec les grands ensembles Inch' Allah Ceux qui souhaitent un pays convivial Alors ils croient en une autre identité nationale Inch' Allah C'est le son qui rêve en réalité Et change les mentalités, tue la morosité Inch' Allah Il invente, imagine et renverse Les clichés établis et oublie leur tristesse Inch' Allah Tous les codes sont bannis et révisés On mettra des baggys jusqu'à lÉlysée Inch' Allah Plus de quotas dans le foot, ni ailleurs Peu importe la couleur on gardera les meilleurs Inch' Allah Les blaireaux, les fachos c'est la même C'est qu'en y en a beaucoup que ça pose des problèmes Inch' Allah On va marier Nassim Delphine Pas seulement pour la rime, un second tour sans Marine C'est le son qui réécrit l'histoire Sortez tous dans la rue on va chanter l'espoir Inch' Allah L'espoir que pourra changer ce monde On s'croisera forcément puisque la terre est ronde Inch' Allah L'espoir que les choses puissent avancer Qu'on aime tous les accents quand on parle en français Inch' Allah L'espoir qu'un jour se sera normal De voir des block party à l'Assemblée Nationale Inch' Allah Les képis policiers, les kippas Les chaddors, les casquettes à l'envers même combat Inch' Allah Les bobos, les prolos, les bourgeois Les perdus, les nantys, les patrons, les cailleras Inch' Allah Vous êtes tous invités sur la piste C'est la danse de demain quelque peu utopiste Inch' Allah Mais cette époque a besoin d'espoir Soyons un peu rêveur, faut y croire pour le voir X4 Ya habibi Ya nacibi Ya hayeti Inch' Allah</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Il nous restera ça</t>
+          <t>Interlude “Spectacle Vivant”</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Quand ce système brutal qu'on essaye d'apprivoiser Nous aura vidé d'nos âmes et de nos dernières bonnes idées Il nous restera ça Quand les mythos d'en haut auront fait élire les chiens Que la culture et l'ouverture seront des souvenirs lointains Il nous restera ça Quand on sera tous endormis par les discours des marchands de sable Et qu'on aura qu'nos utopies pour raconter nos propres fables Il nous restera ça Il nous restera ça Quelques papiers griffonnés, quelques rimes à enrichir A la face d'un monde hanté par un futur sans avenir On pourra dire qu'on a tenté d's'ouvrir un peu une veine Pour faire couler une encre honnête, avoir mal pour être soi-même On essayera de se souvenir pourquoi on a commencé ça Faut trouver l'urgence d'écrire, le plus important c'est ça Être soi même malgré tout, naïf, décidé, bavard On absorbera les mots en trop sur un bout d'papier buvard On essayera de se souvenir qu'on a fait ça sans calculer On a noirci sans rougir tout ce qu'on trouvait d'immaculé Comme un réflexe dérisoire, c'était bon quand j'y pense Et on a rempli des pages comme tu t'es rempli la panse Certains diront qu'ça sert à rien mais qui pourra nous raisonner ? On sera toujours plus d'un à continuer d'faire résonner Quelques cordes vocales têtues qui n'feront pas leur age Tels des poètes torses nus un peu perdus dans l'orage Dans la tempête où le chiffre a pris l'dessus sur le verbe On se sent bien à nos places un peu comme un poisson dans l'herbe Personne ne peut l'cacher on a la rime anachronique Dans ce monde de 4G on cherche des cabines téléphoniques Sans réseau, sans raison, comme le roseau nous plions Hors fuseau, hors saison, nos dernières forces nous trions Pour arroser encore la source qu'on n'laissera pas tarir Et même les deux pieds dans l'eau, on entendra encore nos rires On entendra encore nos joies, on entendra encore les cris Ceux des vrais, ceux des enfants qui nous font croire à l'envie L'envie d'regarder au-dessus voir qu'y'a encore des étages Et qu'ils pourront y grimper avec en poche cet héritage Ces quelques mots, ces quelques textes qui nous aident à penser Qu'on a pas fait tout ça pour rien, qu'y'aura une trace du passé Il leur restera ça, ces quelques moments choisis Dans ce monde de brutes, quelques grammes de poésie</t>
+          <t>T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir ces mots sont sur un disque mais dès demain, qui peut le nier ? Ils seront sur scène avec des postillons pour les accompagner</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Inch’ Allah</t>
+          <t>Intro “Écrire”</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C'est un son plein de sourires dans un climat tendu Qui espère et respire dans cette époque tordue C'est le son qui propose des virages des voyages Des clameurs des visages, c'est le son des mariages Et si on chantait de toutes les couleurs Inch' Allah On va faire danser les corps et les coeurs Inch' Allah Si on est tous ensemble ça nous suffira Inch' Allah Si nos voix se rassemblent on nous entendra Inch' AllahX4 C'est le son qui éclaire qui partage et rassemble C'est les beaux quartiers qui dansent avec les grands ensembles Inch' Allah Ceux qui souhaitent un pays convivial Alors ils croient en une autre identité nationale Inch' Allah C'est le son qui rêve en réalité Et change les mentalités, tue la morosité Inch' Allah Il invente, imagine et renverse Les clichés établis et oublie leur tristesse Inch' Allah Tous les codes sont bannis et révisés On mettra des baggys jusqu'à lÉlysée Inch' Allah Plus de quotas dans le foot, ni ailleurs Peu importe la couleur on gardera les meilleurs Inch' Allah Les blaireaux, les fachos c'est la même C'est qu'en y en a beaucoup que ça pose des problèmes Inch' Allah On va marier Nassim Delphine Pas seulement pour la rime, un second tour sans Marine C'est le son qui réécrit l'histoire Sortez tous dans la rue on va chanter l'espoir Inch' Allah L'espoir que pourra changer ce monde On s'croisera forcément puisque la terre est ronde Inch' Allah L'espoir que les choses puissent avancer Qu'on aime tous les accents quand on parle en français Inch' Allah L'espoir qu'un jour se sera normal De voir des block party à l'Assemblée Nationale Inch' Allah Les képis policiers, les kippas Les chaddors, les casquettes à l'envers même combat Inch' Allah Les bobos, les prolos, les bourgeois Les perdus, les nantys, les patrons, les cailleras Inch' Allah Vous êtes tous invités sur la piste C'est la danse de demain quelque peu utopiste Inch' Allah Mais cette époque a besoin d'espoir Soyons un peu rêveur, faut y croire pour le voir X4 Ya habibi Ya nacibi Ya hayeti Inch' Allah</t>
+          <t>Et si l'art était juste un moment d'absence ? Où la lucidité perd contre l'inconscience Alors l'art mystique signera l'armistice Avec les arnaqueurs remplis d'artifices Et si l'art était juste un moment d'émotion ? Où l'aiguille de l'horloge suspend sa rotation Alors l'heure aura tort face à l'art oratoire Lorsque les créateurs raconteront leur histoire</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Interlude “Spectacle Vivant”</t>
+          <t>Issam</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>T'es arrivé, tu t'es assis, t'as entendu les premières notes T'as jeté un coup d'il par ici, j'étais venu avec deux-trois potes Une lumière des microphones qui sont reliés à des enceintes Qui sont reliés à vos oreilles, qui sont reliés à nos empreintes C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements C'est un moment entre nous pour échanger, donnant-donnant Des mots poussés mais impatients Des mots patients, des mots passants C'est du live et du direct, y'a pas deux soirs identiques Sans playback et en publique, même le trac est authentique C'est du 100 nous mêmes, notre énergie et nos erreurs Ça sent le vrai jusque sur scène, ça sent la vie, ça sent la sueur C'est du spectacle vivant, du respectable vibrant Un réceptacle évident pour tous vos encouragements Ce soir ces mots sont sur un disque mais dès demain, qui peut le nier ? Ils seront sur scène avec des postillons pour les accompagner</t>
+          <t>J'ai rencontré un enfant Au regard qui pétille Un air vif et brillant Dans chaque pupille Déjà mature mais innocent Gardant toujours sa fraîcheur Il a choisi de ne prendre que le meilleur J'ai rencontré un sourire Qui fait tomber tous les murs Qui fait craquer les esprits les plus durs Il réinventait l'avenir Toujours prêt à repartir Il transformait chaque défaite en souvenir J'ai rencontré un modèle Un exemple, l'air de rien L'esprit sain, le cur humble et serein Il savait foutre le bordel Mais toujours dans le bon sens Une aura qui savait mettre de l'ambiance J'ai rencontré un artiste Un acteur de la vie Un créateur d'enthousiasme et d'envie Il a dansé sur la piste Avec tellement de grâce De beauté, de bonté, la grande classe J'ai rencontré un guerrier Le plus fou, le plus fort Ceux qui l'ont connu sont d'accords Le plus grand aventurier Un brave parmi les braves Et tout ceux qui l'ont connu le savent J'ai rencontré un héros Pour définir le courage Dans le dictionnaire y'a ses yeux en pleine page Et je pèse chacun de mes mots Il fût noble et résistant Et je l'ai admiré à chaque instant J'ai rencontré un soleil Une énergie, une lumière De ceux qui brûlent aux croyances nos repères De ses rayons il balaye Tous nos doutes et nos réticences A nos combats il a donné un sens J'ai rencontré une belle âme Regard tendre et fier On a tous côtoyé un petit frère J'ai rencontré Issam Et puis j'ai fait connaissance J'ai rencontré Issam Et j'ai eu beaucoup de chance</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Intro “Écrire”</t>
+          <t>J’ai cru</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Et si l'art était juste un moment d'absence ? Où la lucidité perd contre l'inconscience Alors l'art mystique signera l'armistice Avec les arnaqueurs remplis d'artifices Et si l'art était juste un moment d'émotion ? Où l'aiguille de l'horloge suspend sa rotation Alors l'heure aura tort face à l'art oratoire Lorsque les créateurs raconteront leur histoire</t>
+          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Issam</t>
+          <t>J’ai mis des mots</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J'ai rencontré un enfant Au regard qui pétille Un air vif et brillant Dans chaque pupille Déjà mature mais innocent Gardant toujours sa fraîcheur Il a choisi de ne prendre que le meilleur J'ai rencontré un sourire Qui fait tomber tous les murs Qui fait craquer les esprits les plus durs Il réinventait l'avenir Toujours prêt à repartir Il transformait chaque défaite en souvenir J'ai rencontré un modèle Un exemple, l'air de rien L'esprit sain, le cur humble et serein Il savait foutre le bordel Mais toujours dans le bon sens Une aura qui savait mettre de l'ambiance J'ai rencontré un artiste Un acteur de la vie Un créateur d'enthousiasme et d'envie Il a dansé sur la piste Avec tellement de grâce De beauté, de bonté, la grande classe J'ai rencontré un guerrier Le plus fou, le plus fort Ceux qui l'ont connu sont d'accords Le plus grand aventurier Un brave parmi les braves Et tout ceux qui l'ont connu le savent J'ai rencontré un héros Pour définir le courage Dans le dictionnaire y'a ses yeux en pleine page Et je pèse chacun de mes mots Il fût noble et résistant Et je l'ai admiré à chaque instant J'ai rencontré un soleil Une énergie, une lumière De ceux qui brûlent aux croyances nos repères De ses rayons il balaye Tous nos doutes et nos réticences A nos combats il a donné un sens J'ai rencontré une belle âme Regard tendre et fier On a tous côtoyé un petit frère J'ai rencontré Issam Et puis j'ai fait connaissance J'ai rencontré Issam Et j'ai eu beaucoup de chance</t>
+          <t>J'ai mis des mots sur un cahier J'ai mis des mots que j'ai triés J'espérais bien me faire griller J'ai mis des mots que j'ai criés J'ai mis des mots dans vos oreilles Ou des émotions c'est pareil Dans vos théâtres et vos enceintes J'ai mis des mots comme une empreinte J'ai mis des mots un peu partout Redistribués au coup par coup Je sais même plus où je les ai mis J'ai mis des mots j'ai pas gémi J'ai mis des mots mais jamais trop Dans un métro dans un micro J'ai mis des mots j'ai eu les crocs Des mots nouveaux des mots rétros J'ai mis des mots pour compenser J'ai pas le destin qu'on pensait Mais en passant sur le passé On peut tracer sans effacer J'ai mis des mots j'ai pas médit J'ai mis des do j'émets des mi Des mots entiers pas des demi J'ai mis des mots de Saint-Denis J'ai mis des mots que j'ai couvés J'ai tenté de les faire groover Sans entrave et rien à prouver Sans en baver tout à trouver Les mots vont vite, faut qu'on s'accroche J'ai pris le tempo à la croche C'est pas pour me remplir les poches Car tous ces mots c'est pour mes proches Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica J'ai mis des mots, est-ce que t'y crois La première fois en 2003 J'ai oublié les médisants J'ai mis des mots c'est mes 10 ans J'ai mis des mots j'ai des raisons Coupable de combinaisons Et je crée sans comparaison Des horizons à chaque saison Dans plein de pays j'ai mis des mots Berlin Québec ou Bamako J'ai même trouvé des mots en route J'ai mis des mots jusqu'à Beyrouth J'ai mis des mots dans tous les sens À l'envers à l'effervescence Des mots sympas ou en colère Des mots bien droits ou en galère J'ai mis des mots c'est dérisoire Parfois tranchants c'est des rasoirs Mais bien placés c'est opportun J'ai mis des mots c'est important J'ai trouvé de l'inspiration Pour inspirer mes directions Pour continuer sans crispation Je reprends ma respiration... Tous ces mots ça fait des rencontres Je m'en rends compte je suis pas contre J'ai mis des mots à l'infini J'ai pas failli c'est pas fini J'ai mis des mots, j'émeus des gens J'émets des voeux jamais urgents J'ai mis de moi j'ai mis de vous Des émois de nos rendez-vous Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>J’ai cru</t>
+          <t>J’ai oublié</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
+          <t>J'ai oublié de commencer ce texte par une belle introduction J'ai oublié de vous préparer avant d'entrer en action J'ai oublié de vous prévenir que je m'aperçois que dans ma vie J'ai oublié pas mal de choses, si vous voulez mon avis J'ai oublié d'être sage, j'ai oublié d'être prudent J'ai oublié de me ménager et je me suis cassé les dents On m'a dit qu'on ne pouvait pas être et avoir été Moi j'ai oublié de faire attention à moi une nuit d'été J'ai oublié ce que c'est de courir derrière un ballon J'ai oublié d'être fort, comme Achille et son talon J'ai oublié de remercier mes parents pour tout ce qu'ils ont fait Mais je suis pas doué pour ce genre de trucs, c'est pas moi le fils parfait J'ai oublié de prendre des risques, dans l'ensemble de mon parcours Et quand je regarde derrière moi, parfois j'ai le souffle court J'ai traversé les années plus vite qu'on passe un péage J'ai oublié de prendre le temps de voir passer les nuages J'ai oublié d'écrire un texte sur la force de l'amitié Qui met l'amour à l'amende, dont la faiblesse me fait pitié Y a pas beaucoup de meufs qui m'ont vraiment fait me retourner J'ai oublié de tomber amoureux, depuis quelques années J'ai oublié d'imaginer de quoi seront faites les années prochaines Et quand on me parle de l'avenir, j'ai tendance à changer de chaîne J'ai oublié de payer mon amende pour m'être garé devant la station Tant pis pour moi, maintenant j'ai trente pour cent de majoration J'ai oublié de faire en sorte que ce texte soit structuré Ça part dans tous les sens, tant que ma feuille n'est pas saturée J'ai oublié de mettre des baggys et des ensembles en peau de pêche J'ai oublié d'avoir du style, et c'est comme ça depuis la crèche J'ai oublié de chialer depuis un sacré bout de temps Une sorte de sècheresse ophtalmique, c'en est presque inquiétant Je sais pas si c'est normal, mais c'est vrai que pour être franc La dernière fois que j'ai versé une larme, on achetait le pain avec des francs Dans ces vers, j'ai oublié d'arrêter de parler de moi J'ai oublié de m'oublier, comme un premier samedi du mois J'ai l'impression de me mettre à poil depuis bientôt un quart d'heure Sur ce coup-là j'ai oublié de garder pas mal de pudeur J'ai oublié de croire en l'existence d'un être supérieur J'aime pas les jeux de hasard, j'ai toujours été mauvais parieur Par ailleurs, tant mieux, car je ne pourrais pas m'empêcher De me dépêcher, de me sauver pour pas confesser mes péchés J'ai la pêche et à cette façade, faut pas forcément te fier J'ai pas oublié d'être un con fier, qua du mal à se confier J'ai oublié de me plaindre, quand ça en valait la peine J'ai oublié d'ouvrir les vannes, quand la coupe était pleine A ce putain de texte, j'ai oublié de trouver une chute Comme un cascadeur qui saute d'un avion sans parachute Mais chut faut que je me taise, car maintenant c'est la fin A vrai dire pas tout à fait car pour linstant j'ai encore faim J'ai oublié d'écrire ce que je crois et ce que je pense vraiment J'ai oublié de croire à ce que jécris machinalement Mais finalement c'est peut-être mieux car se rappeler c'est subir J'ai oublié de penser qu'il était préférable de se souvenir J'ai oublié mon flow, j'ai oublié mon stylo J'ai oublié mon micro et j'ai oublié tous les mots J'ai oublié des tas de sujets, vous avez compris le concept Alors pour pas trop vous saoulez je vais m'arrêter dun coup sec</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>J’ai mis des mots</t>
+          <t>J’ai vu de la lumière</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J'ai mis des mots sur un cahier J'ai mis des mots que j'ai triés J'espérais bien me faire griller J'ai mis des mots que j'ai criés J'ai mis des mots dans vos oreilles Ou des émotions c'est pareil Dans vos théâtres et vos enceintes J'ai mis des mots comme une empreinte J'ai mis des mots un peu partout Redistribués au coup par coup Je sais même plus où je les ai mis J'ai mis des mots j'ai pas gémi J'ai mis des mots mais jamais trop Dans un métro dans un micro J'ai mis des mots j'ai eu les crocs Des mots nouveaux des mots rétros J'ai mis des mots pour compenser J'ai pas le destin qu'on pensait Mais en passant sur le passé On peut tracer sans effacer J'ai mis des mots j'ai pas médit J'ai mis des do j'émets des mi Des mots entiers pas des demi J'ai mis des mots de Saint-Denis J'ai mis des mots que j'ai couvés J'ai tenté de les faire groover Sans entrave et rien à prouver Sans en baver tout à trouver Les mots vont vite, faut qu'on s'accroche J'ai pris le tempo à la croche C'est pas pour me remplir les poches Car tous ces mots c'est pour mes proches Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica J'ai mis des mots, est-ce que t'y crois La première fois en 2003 J'ai oublié les médisants J'ai mis des mots c'est mes 10 ans J'ai mis des mots j'ai des raisons Coupable de combinaisons Et je crée sans comparaison Des horizons à chaque saison Dans plein de pays j'ai mis des mots Berlin Québec ou Bamako J'ai même trouvé des mots en route J'ai mis des mots jusqu'à Beyrouth J'ai mis des mots dans tous les sens À l'envers à l'effervescence Des mots sympas ou en colère Des mots bien droits ou en galère J'ai mis des mots c'est dérisoire Parfois tranchants c'est des rasoirs Mais bien placés c'est opportun J'ai mis des mots c'est important J'ai trouvé de l'inspiration Pour inspirer mes directions Pour continuer sans crispation Je reprends ma respiration... Tous ces mots ça fait des rencontres Je m'en rends compte je suis pas contre J'ai mis des mots à l'infini J'ai pas failli c'est pas fini J'ai mis des mots, j'émeus des gens J'émets des voeux jamais urgents J'ai mis de moi j'ai mis de vous Des émois de nos rendez-vous Et quand la musique accompagne Les mots pétillent comme du champagne Et le meilleur ne le nie pas C'est sur un air d'harmonica</t>
+          <t>C'était une période de ma vie ni joyeuse et ni triste Où ma routine ne m'offrait que très peu de hors-piste Je suivais la route imposée par les événements Un automate souriant, sans débordements d'sentiments C'était l'automne parisien et l'automne de mes sensations Quand le hasard ou la chance me proposa une autre option Le slam faisait ses premiers pas dans quelqus bars populaires Des poètes n jeans, baskets, de la poésie spectaculaire J'connaissais l'principe de loin, j'avais jamais trop calculé J'me serais jamais douté que ma vie allait basculer J'passais par là, l'esprit ouvert, mais pas vraiment concentré Dans c'bar, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de ma vie où mon cur s'était replié Pas malheureux, tranquille, mais les sentiments recroquevillés Et ça m'allait très bien, je vivais tout sauf reclus C'est juste qu'je cherchais pas l'amour et qu'il me cherchait pas non plus C'était le printemps à Saint-Denis, mais pas vraiment dans mes passions Quand le hasard ou la chance me proposa une autre option Elle était là, à cette table, et je ne voyais plus rien autour Elle était belle et intense, comme peut l'être une histoire d'amour J'connaissais l'principe de loin, j'avais pas eu qu'des réussites Je me s'rais jamais douté de c'que me réservait la suite J'passais par là, l'esprit ouvert, sans m'attendre à la rencontrer Dans sa vie, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de la Terre où il y avait tout pour aller mal Le climat, la guerre, la misère faisaient la une du journal De mon p'tit côté, les quelques bonnes galères physiques Auraient pu m'enfermer dans une humeur catastrophique C'était l'hiver sur la France et l'hiver sur mes ambitions Quand le hasard ou la chance me proposa une autre option J'me baladais quand j'ai soudain croisé une vieille connaissance Elle ressemblait à l'optimisme, mais elle s'appelait la confiance J'connaissais l'principe de près, j'aimais ses différentes versions Confiance en toi, en moi, en notre pouvoir de réaction Je l'ai suivie, l'esprit ouvert, c'est devenu ma pote attitrée Dans l'avenir, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière J'ai vu de la lumière, alors je suis entré</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J’ai oublié</t>
+          <t>J’attends</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'ai oublié de commencer ce texte par une belle introduction J'ai oublié de vous préparer avant d'entrer en action J'ai oublié de vous prévenir que je m'aperçois que dans ma vie J'ai oublié pas mal de choses, si vous voulez mon avis J'ai oublié d'être sage, j'ai oublié d'être prudent J'ai oublié de me ménager et je me suis cassé les dents On m'a dit qu'on ne pouvait pas être et avoir été Moi j'ai oublié de faire attention à moi une nuit d'été J'ai oublié ce que c'est de courir derrière un ballon J'ai oublié d'être fort, comme Achille et son talon J'ai oublié de remercier mes parents pour tout ce qu'ils ont fait Mais je suis pas doué pour ce genre de trucs, c'est pas moi le fils parfait J'ai oublié de prendre des risques, dans l'ensemble de mon parcours Et quand je regarde derrière moi, parfois j'ai le souffle court J'ai traversé les années plus vite qu'on passe un péage J'ai oublié de prendre le temps de voir passer les nuages J'ai oublié d'écrire un texte sur la force de l'amitié Qui met l'amour à l'amende, dont la faiblesse me fait pitié Y a pas beaucoup de meufs qui m'ont vraiment fait me retourner J'ai oublié de tomber amoureux, depuis quelques années J'ai oublié d'imaginer de quoi seront faites les années prochaines Et quand on me parle de l'avenir, j'ai tendance à changer de chaîne J'ai oublié de payer mon amende pour m'être garé devant la station Tant pis pour moi, maintenant j'ai trente pour cent de majoration J'ai oublié de faire en sorte que ce texte soit structuré Ça part dans tous les sens, tant que ma feuille n'est pas saturée J'ai oublié de mettre des baggys et des ensembles en peau de pêche J'ai oublié d'avoir du style, et c'est comme ça depuis la crèche J'ai oublié de chialer depuis un sacré bout de temps Une sorte de sècheresse ophtalmique, c'en est presque inquiétant Je sais pas si c'est normal, mais c'est vrai que pour être franc La dernière fois que j'ai versé une larme, on achetait le pain avec des francs Dans ces vers, j'ai oublié d'arrêter de parler de moi J'ai oublié de m'oublier, comme un premier samedi du mois J'ai l'impression de me mettre à poil depuis bientôt un quart d'heure Sur ce coup-là j'ai oublié de garder pas mal de pudeur J'ai oublié de croire en l'existence d'un être supérieur J'aime pas les jeux de hasard, j'ai toujours été mauvais parieur Par ailleurs, tant mieux, car je ne pourrais pas m'empêcher De me dépêcher, de me sauver pour pas confesser mes péchés J'ai la pêche et à cette façade, faut pas forcément te fier J'ai pas oublié d'être un con fier, qua du mal à se confier J'ai oublié de me plaindre, quand ça en valait la peine J'ai oublié d'ouvrir les vannes, quand la coupe était pleine A ce putain de texte, j'ai oublié de trouver une chute Comme un cascadeur qui saute d'un avion sans parachute Mais chut faut que je me taise, car maintenant c'est la fin A vrai dire pas tout à fait car pour linstant j'ai encore faim J'ai oublié d'écrire ce que je crois et ce que je pense vraiment J'ai oublié de croire à ce que jécris machinalement Mais finalement c'est peut-être mieux car se rappeler c'est subir J'ai oublié de penser qu'il était préférable de se souvenir J'ai oublié mon flow, j'ai oublié mon stylo J'ai oublié mon micro et j'ai oublié tous les mots J'ai oublié des tas de sujets, vous avez compris le concept Alors pour pas trop vous saoulez je vais m'arrêter dun coup sec</t>
+          <t>J'attends un peu d'être en retard avant de me sortir du lit Pas de réveil en fanfare, c'est un état d'esprit J'attends que le lait dans le bol ait la couleur des céréales Et c'est réel en général, pas de réveil idéal J'attends que la journée m'attende avant de la démarrer J'aime bien tourner un peu en rond quand mon programme est carré J'attends que les infos dans le poste annoncent de bonnes nouvelles J'pourrais attendre longtemps, je préfère me faire la belle Alors j'attends l'ascenseur et puis j'attends les feux verts J'attends des sourires sincères et quelques esprits ouverts J'attends la fin des bouchons pour espérer être à l'heure Un rendez-vous à la con, j'attends d'être de bonne humeur J'attends que la journée avance pour me sentir avancer Nonchalance insensée et patience associée Insouciant des heures qui glissent, le temps restant relatif En fait j'attends concrètement de retrouver un objectif J'attends... J'attends que l'inspiration vienne frapper à ma feuille J'attends que le besoin d'écrire ait déjà bien passé le seuil Et quand j'attends, je regarde et parfois je désespère De voir ce monde autour de moi qui tourne la tête à l'envers J'attends qu'il y ait plus besoin en France du C.V. anonyme Pour embaucher des Français qui ont une autre origine J'attends la fin de l'hypocrisie et sans criser j'attends La fin d'un système qui avoue son racisme latent J'attends aussi bêtement la fin du pouvoir absolu Des actionnaires, des dividendes, des profits, c'est tendu Comme la vie des hommes dépend du mot rentabilité Derrière les chiffres se jouent des drames dans une étrange banalité Alors j'attends et j'observe et je me surprends à me taire D'une patience coupable j'attends et j'entends les charters J'attends et j'étends l'analyse sur l'ensemble de la période Et je constate que l'être humain n'est vraiment plus à la mode Le fait d'attendre, c'est bon signe, c'est que tu as du temps devant toi Peut-être plus devant que derrière, enfin, c'est ce que tu crois Car je sais pas ce que sera ma route dans les prochains jours Elle peut très bien s'arrêter net dès le prochain carrefour Alors j'attends plus d'être pressé mais je m'empresse de ne plus attendre Je dois me rendre compte que chaque seconde n'a aucun compte à me rendre Puisque le temps ne m'attend pas, moi, je l'attends de moins en moins Et je remets à aujourd'hui ce que j'ai envie de faire demain Alors, quand je peux, j'agis et quand je le sens je m'exprime Ça changera peut-être pas le monde mais si tu sais lire entre les rimes Tu comprendras ma pensée et mes façons d'avancer Avant qu'il soit trop tard je me prépare et j'essaie J'attends toujours l'ascenseur, j'attends toujours les feux verts Mais j'ai le sourire sincère et je garde l'esprit ouvert Alors je rentre chez moi enfin pour une soirée sabbatique Et j'attends le sommeil, serein, sur un vieux son de Lunatic Alors j'attends de moins en moins et parfois c'est pratique Quand c'est trop long, j'attends même pas la fin de la musique</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>J’ai vu de la lumière</t>
+          <t>Je connaissais pas Paris le matin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C'était une période de ma vie ni joyeuse et ni triste Où ma routine ne m'offrait que très peu de hors-piste Je suivais la route imposée par les événements Un automate souriant, sans débordements d'sentiments C'était l'automne parisien et l'automne de mes sensations Quand le hasard ou la chance me proposa une autre option Le slam faisait ses premiers pas dans quelqus bars populaires Des poètes n jeans, baskets, de la poésie spectaculaire J'connaissais l'principe de loin, j'avais jamais trop calculé J'me serais jamais douté que ma vie allait basculer J'passais par là, l'esprit ouvert, mais pas vraiment concentré Dans c'bar, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de ma vie où mon cur s'était replié Pas malheureux, tranquille, mais les sentiments recroquevillés Et ça m'allait très bien, je vivais tout sauf reclus C'est juste qu'je cherchais pas l'amour et qu'il me cherchait pas non plus C'était le printemps à Saint-Denis, mais pas vraiment dans mes passions Quand le hasard ou la chance me proposa une autre option Elle était là, à cette table, et je ne voyais plus rien autour Elle était belle et intense, comme peut l'être une histoire d'amour J'connaissais l'principe de loin, j'avais pas eu qu'des réussites Je me s'rais jamais douté de c'que me réservait la suite J'passais par là, l'esprit ouvert, sans m'attendre à la rencontrer Dans sa vie, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière C'était une période de la Terre où il y avait tout pour aller mal Le climat, la guerre, la misère faisaient la une du journal De mon p'tit côté, les quelques bonnes galères physiques Auraient pu m'enfermer dans une humeur catastrophique C'était l'hiver sur la France et l'hiver sur mes ambitions Quand le hasard ou la chance me proposa une autre option J'me baladais quand j'ai soudain croisé une vieille connaissance Elle ressemblait à l'optimisme, mais elle s'appelait la confiance J'connaissais l'principe de près, j'aimais ses différentes versions Confiance en toi, en moi, en notre pouvoir de réaction Je l'ai suivie, l'esprit ouvert, c'est devenu ma pote attitrée Dans l'avenir, j'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière, alors je suis entré J'ai vu de la lumière J'ai vu de la lumière, alors je suis entré</t>
+          <t>J'ai pris mon réveil de vitesse et ça c'est assez rare Je me suis levé sans lui, sans stress, pourtant je m'étais couché tard J'ai mis Morphée à l'amende, en plus dehors y a un pur temps Pas question que la vie m'attende, j'ai un rendez-vous important Ce matin mon tout petit déj' n'a pas vraiment la même odeur Ce matin mon parking tout gris n'a pas vraiment la même couleur Je sors pour une occasion spéciale que je ne dois pas rater Ce matin j'ai un rencard avec un moment de liberté Cest qu'après pas mal d'études et quatre ans de taf à plein temps Je me suis permis le luxe de m'offrir un peu de bon temps Plus d'horaires à respecter, finies les semaines de quarante heures Finies les journées enfermé, adieu la gueule des directeurs J'ai rendez-vous avec personne, à aucun endroit précis Et c'est bien ça qui cartonne écoute la suite de mon récit Aujourd'hui, j'ai rien à faire et pourtant je me suis levé tôt A mon ancienne vie daffaires, j'ai posé un droit de véto C'est un parcours fait de virages, de mirages, j'ai pris de l'âge Je nage vers dautres rivages, d'une vie tracée je serai pas un otage Un auteur de textes, après un point je tourne la page Pour apprécier demain et mettre les habitudes en cage Je sais pas où je vais aller je me laisse guider par mon instinct Fasciné par cette idée je kiffe tout seul c'est mon instant Le soleil me montre la direction, ne crois pas que j'enjolive C'est un moment plein d'émotion attends, j'avale ma salive Je veux checker les éboueurs et aux pervenches rouler des pelles Y a du bon son dans la voiture quand j'arrive Porte de La Chapelle Alors je m'enfonce dans Paris comme si c'était la première fois Je découvre des paysages que j'ai pourtant vus cinq cent fois Je crois que mon lieu de rendez-vous sera cette table en terrasse Café-croissant-stylo-papier, ça y est tout est en place Je vois plein de gens autour de moi qui accélèrent le pas Ils sont pressés et je souris car moi, je ne le suis pas Je connaissais pas Paris le matin et son printemps sur les pavés Ma vie redémarre pourtant on peut pas dire que jen ai bavé La route est sinueuse, je veux être l'acteur de ses tournants Cest mon moment de liberté, je laisserai pas passer mon tour, non Puis je vois passer une charmante dans un beau petit tailleur Elle me regarde comme on regarde un beau petit chômeur Quand je la vois elle esquive et fait celle qui ne m'a pas calculé Je réalise avec plaisir que socialement j'ai basculé Il est lundi dix heures et j'ai le droit de prendre mon temps Mon teint, mon ton sont du matin et y a personne qui m'attend Y a tellement de soleil qu'y a que le ciment qui fleurit pas Il est lundi onze heures et moi je traîne dans Ris-Pa Loin de moi l'envie de faire l'apologie de l'oisiveté Mais elle peut aider à se construire, laisse-moi cette naïveté Puis de toute façon j'ai mieux à faire que me balader dans Paname Dès demain je vois des enfants pour leur apprendre à faire du slam Je connaissais pas Paris le matin, voilà une chose de réparée Je sais pas trop ce qui m'attend, mais ce sera loin dune vie carrée Moi j'ai choisi une voie chelou, on dirait presque une vie de bohème Mais je suis sûr que ça vaut le coup, moi j'ai choisi une vie de poèmes</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J’attends</t>
+          <t>J’écris à l’oral</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'attends un peu d'être en retard avant de me sortir du lit Pas de réveil en fanfare, c'est un état d'esprit J'attends que le lait dans le bol ait la couleur des céréales Et c'est réel en général, pas de réveil idéal J'attends que la journée m'attende avant de la démarrer J'aime bien tourner un peu en rond quand mon programme est carré J'attends que les infos dans le poste annoncent de bonnes nouvelles J'pourrais attendre longtemps, je préfère me faire la belle Alors j'attends l'ascenseur et puis j'attends les feux verts J'attends des sourires sincères et quelques esprits ouverts J'attends la fin des bouchons pour espérer être à l'heure Un rendez-vous à la con, j'attends d'être de bonne humeur J'attends que la journée avance pour me sentir avancer Nonchalance insensée et patience associée Insouciant des heures qui glissent, le temps restant relatif En fait j'attends concrètement de retrouver un objectif J'attends... J'attends que l'inspiration vienne frapper à ma feuille J'attends que le besoin d'écrire ait déjà bien passé le seuil Et quand j'attends, je regarde et parfois je désespère De voir ce monde autour de moi qui tourne la tête à l'envers J'attends qu'il y ait plus besoin en France du C.V. anonyme Pour embaucher des Français qui ont une autre origine J'attends la fin de l'hypocrisie et sans criser j'attends La fin d'un système qui avoue son racisme latent J'attends aussi bêtement la fin du pouvoir absolu Des actionnaires, des dividendes, des profits, c'est tendu Comme la vie des hommes dépend du mot rentabilité Derrière les chiffres se jouent des drames dans une étrange banalité Alors j'attends et j'observe et je me surprends à me taire D'une patience coupable j'attends et j'entends les charters J'attends et j'étends l'analyse sur l'ensemble de la période Et je constate que l'être humain n'est vraiment plus à la mode Le fait d'attendre, c'est bon signe, c'est que tu as du temps devant toi Peut-être plus devant que derrière, enfin, c'est ce que tu crois Car je sais pas ce que sera ma route dans les prochains jours Elle peut très bien s'arrêter net dès le prochain carrefour Alors j'attends plus d'être pressé mais je m'empresse de ne plus attendre Je dois me rendre compte que chaque seconde n'a aucun compte à me rendre Puisque le temps ne m'attend pas, moi, je l'attends de moins en moins Et je remets à aujourd'hui ce que j'ai envie de faire demain Alors, quand je peux, j'agis et quand je le sens je m'exprime Ça changera peut-être pas le monde mais si tu sais lire entre les rimes Tu comprendras ma pensée et mes façons d'avancer Avant qu'il soit trop tard je me prépare et j'essaie J'attends toujours l'ascenseur, j'attends toujours les feux verts Mais j'ai le sourire sincère et je garde l'esprit ouvert Alors je rentre chez moi enfin pour une soirée sabbatique Et j'attends le sommeil, serein, sur un vieux son de Lunatic Alors j'attends de moins en moins et parfois c'est pratique Quand c'est trop long, j'attends même pas la fin de la musique</t>
+          <t>C'était un soir sans histoire, une fin de journée au destin sobre 21h sans espoir, un mercredi d'octobre Sur le macadam fatigué, trottoir en pente rue des Dames Très loin des drames agités c'est ma première soirée slam Des êtres humains dans un café sont regroupés pour s'écouter Ils prennent la parole un par un et mes oreilles sont envoûtées Des humains à égalité chacun est libre de se lancer Le principe est très simple encore fallait-il y penser Je suis d'abord resté passif mais j'ai tout de suite rêvé d'action Je suis d'abord resté pensif pour comprendre cette révélation J'ai pris une avalanche de rimes et une cascade de thèmes Si loin du star-system, tu restes tard si t'aimes Quelques instants après j'ai déterré l'encrier En créant sans prier Pour hurler sans crier Sans accroc sans vriller Dans la voix l'encre y est Pour recevoir sans briller Et donner sans trier Le slam a giflé mon esprit puis libère les passions Secouant mon envie créative restée en hibernation A la recherche des ces ambiances dans tout Paris je vais zoner C'est décidé ma voix est libre et son timbre va raisonner La poésie dans les bars a rendez-vous avec la vie Je l'ai vu et tu le vis Je l'avoue je l'ai suivi Elle prend forme elle grandit Elle rayonne et elle s'entend Elle t'enlace et une fois qu'elle te tient elle prend son temps La poésie dans les bars ne sort que dans nos voix Le concept même de ces soirées est un poème qui s'entrevoit La poésie se cache partout, sur le comptoir, dans ton demi Elle déborde sur le trottoir et se propage, l'épidémie Moi j'oublierai jamais l'année où j'ai choppé le virus Quand tu trébuches sur un hasard et que tu tombes sur un bonus Ces soirées où l'on se livre, ces moments où l'on se lève Des heures à user nos salives, croquer les mots jusqu'à la sève J'oublierai pas ces instants rares où la nuit sert de terrain A la recherche de l'éphémère moitié inquiet moitié serein J'sais pas si le bonheur se touche mais on l'a peut être frôlé 2-3 fois Dans cette atmosphère un peu louche se reflétant dans nos voix J'oublierai pas ces coeurs ouverts de toutes provenances et de tout âges Unie dans l'envie de découvrir dans l'écoute et le partage Ceux qui étaient là ne changeraient rien même si tout était à refaire Et puis en plus un texte dit c'était quand même un verre offert Ces soirées sont toujours là mais le mieux c'est quand tu fais connaissance Rien ne vaut le charme de l'inconnu la découverte et l'innocence Cette nostalgie me rappelle souvent que j'ai aussi serré des mains Des rencontres qui font que t'aimerais qu'hier déteigne sur demain J'suis toujours plein de motivation et je récidive sans façon Recherchant cette sensation qui vaut bien 700 passions De cette époque non révolue j'ai reçu un héritage viral Une manie qui ne me quitte plus c'est vrai, j'écris à l'oral C'était un soir sans histoire une fin de journée au destin sobre, 21h sans espoir un mercredi d'octobre J'ai entendu des voix qui touchent comme des chorales dans mon moral Depuis j'ai de l'encre plein la bouche, depuis j'écris à l'oral</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Je connaissais pas Paris le matin</t>
+          <t>Je dors sur mes 2 oreilles</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'ai pris mon réveil de vitesse et ça c'est assez rare Je me suis levé sans lui, sans stress, pourtant je m'étais couché tard J'ai mis Morphée à l'amende, en plus dehors y a un pur temps Pas question que la vie m'attende, j'ai un rendez-vous important Ce matin mon tout petit déj' n'a pas vraiment la même odeur Ce matin mon parking tout gris n'a pas vraiment la même couleur Je sors pour une occasion spéciale que je ne dois pas rater Ce matin j'ai un rencard avec un moment de liberté Cest qu'après pas mal d'études et quatre ans de taf à plein temps Je me suis permis le luxe de m'offrir un peu de bon temps Plus d'horaires à respecter, finies les semaines de quarante heures Finies les journées enfermé, adieu la gueule des directeurs J'ai rendez-vous avec personne, à aucun endroit précis Et c'est bien ça qui cartonne écoute la suite de mon récit Aujourd'hui, j'ai rien à faire et pourtant je me suis levé tôt A mon ancienne vie daffaires, j'ai posé un droit de véto C'est un parcours fait de virages, de mirages, j'ai pris de l'âge Je nage vers dautres rivages, d'une vie tracée je serai pas un otage Un auteur de textes, après un point je tourne la page Pour apprécier demain et mettre les habitudes en cage Je sais pas où je vais aller je me laisse guider par mon instinct Fasciné par cette idée je kiffe tout seul c'est mon instant Le soleil me montre la direction, ne crois pas que j'enjolive C'est un moment plein d'émotion attends, j'avale ma salive Je veux checker les éboueurs et aux pervenches rouler des pelles Y a du bon son dans la voiture quand j'arrive Porte de La Chapelle Alors je m'enfonce dans Paris comme si c'était la première fois Je découvre des paysages que j'ai pourtant vus cinq cent fois Je crois que mon lieu de rendez-vous sera cette table en terrasse Café-croissant-stylo-papier, ça y est tout est en place Je vois plein de gens autour de moi qui accélèrent le pas Ils sont pressés et je souris car moi, je ne le suis pas Je connaissais pas Paris le matin et son printemps sur les pavés Ma vie redémarre pourtant on peut pas dire que jen ai bavé La route est sinueuse, je veux être l'acteur de ses tournants Cest mon moment de liberté, je laisserai pas passer mon tour, non Puis je vois passer une charmante dans un beau petit tailleur Elle me regarde comme on regarde un beau petit chômeur Quand je la vois elle esquive et fait celle qui ne m'a pas calculé Je réalise avec plaisir que socialement j'ai basculé Il est lundi dix heures et j'ai le droit de prendre mon temps Mon teint, mon ton sont du matin et y a personne qui m'attend Y a tellement de soleil qu'y a que le ciment qui fleurit pas Il est lundi onze heures et moi je traîne dans Ris-Pa Loin de moi l'envie de faire l'apologie de l'oisiveté Mais elle peut aider à se construire, laisse-moi cette naïveté Puis de toute façon j'ai mieux à faire que me balader dans Paname Dès demain je vois des enfants pour leur apprendre à faire du slam Je connaissais pas Paris le matin, voilà une chose de réparée Je sais pas trop ce qui m'attend, mais ce sera loin dune vie carrée Moi j'ai choisi une voie chelou, on dirait presque une vie de bohème Mais je suis sûr que ça vaut le coup, moi j'ai choisi une vie de poèmes</t>
+          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être un texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Évidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera tout le temps pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>J’écris à l’oral</t>
+          <t>Je Dors Sur Mes Deux Oreilles</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C'était un soir sans histoire, une fin de journée au destin sobre 21h sans espoir, un mercredi d'octobre Sur le macadam fatigué, trottoir en pente rue des Dames Très loin des drames agités c'est ma première soirée slam Des êtres humains dans un café sont regroupés pour s'écouter Ils prennent la parole un par un et mes oreilles sont envoûtées Des humains à égalité chacun est libre de se lancer Le principe est très simple encore fallait-il y penser Je suis d'abord resté passif mais j'ai tout de suite rêvé d'action Je suis d'abord resté pensif pour comprendre cette révélation J'ai pris une avalanche de rimes et une cascade de thèmes Si loin du star-system, tu restes tard si t'aimes Quelques instants après j'ai déterré l'encrier En créant sans prier Pour hurler sans crier Sans accroc sans vriller Dans la voix l'encre y est Pour recevoir sans briller Et donner sans trier Le slam a giflé mon esprit puis libère les passions Secouant mon envie créative restée en hibernation A la recherche des ces ambiances dans tout Paris je vais zoner C'est décidé ma voix est libre et son timbre va raisonner La poésie dans les bars a rendez-vous avec la vie Je l'ai vu et tu le vis Je l'avoue je l'ai suivi Elle prend forme elle grandit Elle rayonne et elle s'entend Elle t'enlace et une fois qu'elle te tient elle prend son temps La poésie dans les bars ne sort que dans nos voix Le concept même de ces soirées est un poème qui s'entrevoit La poésie se cache partout, sur le comptoir, dans ton demi Elle déborde sur le trottoir et se propage, l'épidémie Moi j'oublierai jamais l'année où j'ai choppé le virus Quand tu trébuches sur un hasard et que tu tombes sur un bonus Ces soirées où l'on se livre, ces moments où l'on se lève Des heures à user nos salives, croquer les mots jusqu'à la sève J'oublierai pas ces instants rares où la nuit sert de terrain A la recherche de l'éphémère moitié inquiet moitié serein J'sais pas si le bonheur se touche mais on l'a peut être frôlé 2-3 fois Dans cette atmosphère un peu louche se reflétant dans nos voix J'oublierai pas ces coeurs ouverts de toutes provenances et de tout âges Unie dans l'envie de découvrir dans l'écoute et le partage Ceux qui étaient là ne changeraient rien même si tout était à refaire Et puis en plus un texte dit c'était quand même un verre offert Ces soirées sont toujours là mais le mieux c'est quand tu fais connaissance Rien ne vaut le charme de l'inconnu la découverte et l'innocence Cette nostalgie me rappelle souvent que j'ai aussi serré des mains Des rencontres qui font que t'aimerais qu'hier déteigne sur demain J'suis toujours plein de motivation et je récidive sans façon Recherchant cette sensation qui vaut bien 700 passions De cette époque non révolue j'ai reçu un héritage viral Une manie qui ne me quitte plus c'est vrai, j'écris à l'oral C'était un soir sans histoire une fin de journée au destin sobre, 21h sans espoir un mercredi d'octobre J'ai entendu des voix qui touchent comme des chorales dans mon moral Depuis j'ai de l'encre plein la bouche, depuis j'écris à l'oral</t>
+          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être une texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Evidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera toujours pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Je dors sur mes 2 oreilles</t>
+          <t>Je ne serai que de trop</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être un texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Évidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera tout le temps pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
+          <t>Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel C'était à Paris, il était déjà tard Peut-être à minuit dans une cité dortoir Le lieu, le moment à vrai dire ne comptent pas Ce dont j'me souviens, c'est l'odeur de tes draps Tout avait commencé lors d'une soirée d'plus On a trinqué dans les yeux jusqu'au terminus J'avais un grand sourire et t'avais un rictus J'en voulais beaucoup, t'en voulais beaucoup plus Tu m'as proposé ce que j'espérais bien Tu m'as pris par surprise, je t'ai prise par la main On a marché un peu ou longtemps, je n'sais pas Ce dont je m'souviens c'est le bruit de tes pas On est entré dans ta chambre pour l'ultime échange On a laissé s'mélanger nos démons et nos anges Demain matin surement tout nous semblera faux Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris, on était déjà fous À midi, à minuit, je n'sais plus, tout est flou Le lieu, le moment à vrai dire ne valent rien Ce dont j'me souviens, c'est la douceur de tes mains Tout avait commencé lors d'une soirée d'trop On a trinqué tous les deux, bien après l'angélus On a tout gagné en ratant l'dernier métro J'avais pleins d'idées, t'en avais beaucoup plus Tu m'as proposé c'que j'avais bien senti Je t'ai prise par la main, tu m'as pris par l'envie On a marché inconscients sous les néants jaunes Ce dont j'me souviens, c'est nos ombres de fantômes On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris il était déjà tard Le lieu, le moment à vrai dire ne comptent pas Ce dont je me souviens c'est la douceur de tes mains On a marché inconscients sous les néants jaunes Ce dont je me souviens c'est nos ombres de fantômes Tu m'as pris par surprise, je t'ai prise par la main Ce dont je me souviens c'est le bruit de tes pas On est entré dans ta chambre pour crier nos noms On a laissé se mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil nous ne serons que de trop</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Je Dors Sur Mes Deux Oreilles</t>
+          <t>#JeSuisCharlie</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jai constaté que la douleur était une bonne source dinspiration Et que les zones dombre du passé montrent au stylo la direction La colère et la galère sont des sentiments productifs Qui donnent des thèmes puissants, quoi quun peu trop répétitifs A croire quil est plus facile de livrer nos peines et nos cris Et quen un battement de cils un texte triste est écrit On se laisse aller sur le papier et on emploie trop de métaphores Pourtant je tai déjà dit que tout ce qui ne nous tue pas nous rend plus forts Cest pour ça quaujourdhui jai décidé de changer de thème Dembrasser le premier connard venu pour lui dire je taime Des lyrics pleins de vie avec des rimes pleines denvie Je vois, je veux, je vis, je vais, je viens, je suis ravi Cest peut-être une texte trop candide mais il est plein de sincérité Je lai écrit avec une copine, elle sappelle Sérénité Toi tu dis que la vie est dure et au fond de moi je pense pareil Mais je garde les idées pures et je dors sur mes 2 oreilles Evidemment on marche sur un fil, chaque destin est bancal Et lexistence est fragile comme une vertèbre cervicale On ta pas vraiment menti, cest vrai que parfois tu vas saigner Mais dans chaque putain de vie, ya tellement de choses à gagner Jaime entendre, raconter, jaime montrer et jaime voir Jaime apprendre, partager, tant quy a de léchange ya de lespoir Jaime les gens, jaime le vent, cest comme ça je joue pas un rôle Jai envie, jai chaud, jai soif, jai hâte, jai faim et jai la gaule Jespère que tu me suis, dans ce que je dis ya rien de tendancieux Quand je ferme les yeux, cest pour mieux ouvrir les cieux Cest pas une religion, cest juste un état desprit Ya tellement de choses à faire et ça maintenant je lai compris Chaque petit moment banal, je suis capable den profiter Dans la vie jai tellement de kifs que je pourrai pas tous les citer Moi en été je me sens vivre, mais en hiver cest pareil Jai tout le temps lil du tigre, et je dors sur mes 2 oreilles Cest pas moi le plus chanceux mais je me sens pas le plus à plaindre Et jai compris les règles du jeu, ma vie cest moi qui vais la peindre Alors je vais y mettre le feu en ajoutant plein de couleurs Moi quand je regarde par la fenêtre je vois que le béton est en fleur Jai envie dêtre au cur de la ville et envie dêtre au bord de la mer De voir le delta du Nil et jai envie dembrasser ma mère Jai envie dêtre avec les miens et jai envie de faire des rencontres Jai les moyens de me sentir bien et ça maintenant je men rends compte Je voulais pas écrire un texte petite maison dans la prairie Mais jétais de bonne humeur et même mon stylo ma souri Et puis je me suis demandé si javais le droit de pas être rebelle Décrire un texte de slam pour affirmer que la vie est belle Si tu me chambres je men bats les reins, parfois je me sens inattaquable Parce que je suis vraiment serein et je suis pas prêt de péter un câble La vie cest gratuit je vais me resservir et tu devrais faire pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles La vie cest gratuit je vais me resservir et ce sera toujours pareil Moi je me couche avec le sourire et je dors sur mes 2 oreilles</t>
+          <t>7 Janvier 2015, j'ai pas envie d'aller au lit Je préfère prendre un stylo car, ce soir, je suis Charlie Les artisans d'la liberté ont rencontré leur destinée Ce soir, j'écris pour eux parce que je n'sais pas dessiner Soyons soixante-six millions à avoir la même idée Pour que leurs cartouches dencre à eux ne soient plus jamais vidées Laissons des traces indélébiles pour que l'avenir puisse savoir Que leur talent et leur courage ne vivent pas que dans nos mémoires Écrivains, paroliers, dessinateurs, graffeurs Musiciens, poètes, peintres et sculpteurs Célébrités, anonymes, professionnels et amateurs Faisons en sorte que cet élan s'affiche plus loin que sur Twitter Des hommes sont morts pour défendre la liberté d'expression Mais leurs idées doivent rayonner, ne subir aucune pression Contre l'obscurantisme, avec honneur et insolence À nous d'prendre les crayons pour que leur combat ait un sens J'ai mal à l'être humain, comment en est-on arrivé là ? Perdu dans ce vacarme, la fraternité chante a cappella La barbarie grandit sans aucune trace de dignité En 2015, le monde a perdu toute humanité Je suis Charlie Je suis Charlie Je suis Charlie Si seulement les mois qui viennent pouvaient me faire mentir Si seulement ce drame abject pouvait nous faire grandir Puissions-nous nous réunir pour croire ensemble à l'embellie Quoi qu'il advienne, j'ai un stylo car, ce soir, je suis Charlie Je suis Charlie Je suis Charlie Je suis Charlie5</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Je ne serai que de trop</t>
+          <t>Je t’embrasserai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réel C'était à Paris, il était déjà tard Peut-être à minuit dans une cité dortoir Le lieu, le moment à vrai dire ne comptent pas Ce dont j'me souviens, c'est l'odeur de tes draps Tout avait commencé lors d'une soirée d'plus On a trinqué dans les yeux jusqu'au terminus J'avais un grand sourire et t'avais un rictus J'en voulais beaucoup, t'en voulais beaucoup plus Tu m'as proposé ce que j'espérais bien Tu m'as pris par surprise, je t'ai prise par la main On a marché un peu ou longtemps, je n'sais pas Ce dont je m'souviens c'est le bruit de tes pas On est entré dans ta chambre pour l'ultime échange On a laissé s'mélanger nos démons et nos anges Demain matin surement tout nous semblera faux Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris, on était déjà fous À midi, à minuit, je n'sais plus, tout est flou Le lieu, le moment à vrai dire ne valent rien Ce dont j'me souviens, c'est la douceur de tes mains Tout avait commencé lors d'une soirée d'trop On a trinqué tous les deux, bien après l'angélus On a tout gagné en ratant l'dernier métro J'avais pleins d'idées, t'en avais beaucoup plus Tu m'as proposé c'que j'avais bien senti Je t'ai prise par la main, tu m'as pris par l'envie On a marché inconscients sous les néants jaunes Ce dont j'me souviens, c'est nos ombres de fantômes On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil, je n'serai que de trop Je ne serai qu'un oiseau au-delà du réveil On est entré dans ta chambre pour crier nos noms On a laissé s'mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil Je ne serai qu'un oiseau au-delà du réveil Je ne serai que de trop au-delà du réveil C'était à Paris il était déjà tard Le lieu, le moment à vrai dire ne comptent pas Ce dont je me souviens c'est la douceur de tes mains On a marché inconscients sous les néants jaunes Ce dont je me souviens c'est nos ombres de fantômes Tu m'as pris par surprise, je t'ai prise par la main Ce dont je me souviens c'est le bruit de tes pas On est entré dans ta chambre pour crier nos noms On a laissé se mélanger nos anges et nos démons Au matin on n'échangera pas nos numéros Au-delà du réveil nous ne serons que de trop</t>
+          <t>A la sortie de l'école Un jour tu m'as souris On avait dix ans J'étais tellement amoureux Toi on aurait dit Laura Ingalls dans sa prairie Et j'ai tenté ma chance Quand tu as détourné les yeux Et j'ai tenté De t'embrasser Mais tu m'as même pas remarquer J'me suis pris un vent Car il a pris ta main celui qui a vingt en dictée Toujours au premier rang Le p'tit fi-fils à ses parents J'en croyais pas mes yeux Nan mais il s'prend pour qui Je t'ai vu partir avec lui Et mon cur se resserrait Avec son cartable T'as ton Tann's Et son t-shirt Waikiki Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh A la soirée de Kévin Je nous sentais tellement proche On avait seize ans Tu étais si belle quand j'y pense Au milieu de la piste de danse On aurait dit Brenda Walsh Je me suis avancé C'était l'heure de saisir ma chance J'ai tenté De t'embrasser Et j'me suis pris un vent J'ai rien compris sur le coup Car il m'a bousculé Avec ses épaules carrés Un grand re-noi balèze J'crois qu'il sappelait Mamadou Il t'as pris dans ses bras Et vous avez dansé un slow En regardant cette scène j'avais du mal à respirer Avec ses Stan Smith Et son pantalon à pince Célio Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Un soir après la fac je t'ai invité manger un grec Endroit qui paie pas de mine J'voulait pas te mettre la pression Je m'étais bien renseigner Je savais que t'avais pas d'mec Et après ma dernière bouchée Au goût salade, tomate, oignon J'ai tenté De t'embrasser Et j'me suis pris un vent Encore une fois j'ai rien su faire Ton portable a sonné Tu as tout de suite décroché Jusqu'à mon dernier souffle J'aurais la rage contre SFR T'es partis immédiatement car un amie t'appelait au secours J'ai repris trois sandwichs sauce harissa le ventre serré Ça m'a piqué les yeux Mais moins que ce chagrin d'amour Et j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai Oh Les années ont passé j'ai continué d'essayer Un soir dans la rue Je t'ai vu sortir d'une voiture blanche J'ai foncé vers toi mais le destin a bégayé T'es partis au bras d'un inconnu Mais ma revanche est arrivée Un jour d'été J'ai débarqué dans la salle Le jour de ton mariage Cette fois c'est décidé Tu vas enfin me remarquer Devant m'sieur le maire Cette fois je n'ai pas été sage J'ai poussé le jeune premier Au moment des alliances Dans ta robe dentelle Tu m'as laissé t'enlacer Devant tout les invités Cette fois j'ai saisi ma chance Tu étais tellement belle Doucement... Je t'ai embrassé J'y arriverai Je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#JeSuisCharlie</t>
+          <t>Jour de doute</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7 Janvier 2015, j'ai pas envie d'aller au lit Je préfère prendre un stylo car, ce soir, je suis Charlie Les artisans d'la liberté ont rencontré leur destinée Ce soir, j'écris pour eux parce que je n'sais pas dessiner Soyons soixante-six millions à avoir la même idée Pour que leurs cartouches dencre à eux ne soient plus jamais vidées Laissons des traces indélébiles pour que l'avenir puisse savoir Que leur talent et leur courage ne vivent pas que dans nos mémoires Écrivains, paroliers, dessinateurs, graffeurs Musiciens, poètes, peintres et sculpteurs Célébrités, anonymes, professionnels et amateurs Faisons en sorte que cet élan s'affiche plus loin que sur Twitter Des hommes sont morts pour défendre la liberté d'expression Mais leurs idées doivent rayonner, ne subir aucune pression Contre l'obscurantisme, avec honneur et insolence À nous d'prendre les crayons pour que leur combat ait un sens J'ai mal à l'être humain, comment en est-on arrivé là ? Perdu dans ce vacarme, la fraternité chante a cappella La barbarie grandit sans aucune trace de dignité En 2015, le monde a perdu toute humanité Je suis Charlie Je suis Charlie Je suis Charlie Si seulement les mois qui viennent pouvaient me faire mentir Si seulement ce drame abject pouvait nous faire grandir Puissions-nous nous réunir pour croire ensemble à l'embellie Quoi qu'il advienne, j'ai un stylo car, ce soir, je suis Charlie Je suis Charlie Je suis Charlie Je suis Charlie5</t>
+          <t>Y a des jours inévitables où la confiance s'évanouit Toutes ces heures vulnérables, y a des jours comme des nuits Les instants où je m'arrête au beau milieu de ma route Comme un lendemain de fête, c'est juste un jour de doute Les jours où même le temps, dehors, n'est pas sûr de lui Où le ciel est trempé sans une seule goutte de pluie Je regarde autour de moi, fui par ma sérénité Victime d'un moment de flou ou d'un trop-plein de lucidité J'ai trop d'attentes et trop de souvenirs qui font des tête-à-queue Y a beaucoup trop de pourquoi et pas assez de parce que Je choisis souvent le silence pour que les gens regardent ailleurs J' suis stoïque en apparence mais en tempête à l'intérieur Y a des envies qui me chuchotent et des regrets qui grondent C'est les jours où tu te sens seul, même entouré de plein de monde On connaît tous ces passages, un dernier vers pour la déroute Les certitudes prises en otage, c'est juste un jour de doute C'est juste un jour de doute, c'est un réveil sans appétit Comme une nuit sans sommeil et comme un rêve inabouti C'est la vie qui hésite et qui m'octroie une pause Mais pour mieux me laisser le temps de bien me remettre en cause Alors je regarde dans le miroir et je contemple mes erreurs Et tous ces regards sans espoir dans mon rétroviseur Ces quelques mains qui se tendaient que je n'ai jamais rattrapées Dans tout ce que j'ai tenté je ne revois que mes ratés Alors j'avance, mais à tâtons et puis en regardant derrière Je me sens coupable encore une fois et ce sera pas la dernière Coupable d'avoir juste essayé et de pas avoir réussi Coupable d'avoir fait de mon mieux et que ça n'ait pas suffi Alors je remets tout en question, est-ce que j'suis bien à ma place J'ai peut-être pris les mauvais pions, est-ce que je dois vraiment faire face J'connais cette histoire par cur, un dernier vers pour la déroute Parfois j'suis pas à la hauteur, c'est juste un jour de doute C'est juste un jour de doute, ça va pas durer longtemps C'est juste un jour qui s'ajoute, il n'est même pas inquiétant Mais s'il me laisse un goût amer, je dois y faire attention Je connais son mystère, il est l'automne des sensations Quand sa lumière est faible comme si elle luttait toute la journée La nuit revient comme si la Terre était pressée de se retourner Et quand le soleil refait surface, il apparaît presque déçu Et une pluie fine le chasse, comme si la vie nous crachait dessus Alors je me dis que j'ai trop dormi ou que j' suis parti en contresens Je sens que j'ai besoin de retrouver toute les odeurs de l'urgence Les odeurs de vertige, les odeurs de vérité Je sais bien que j'ai besoin de retrouver l'instabilité Je crois pas que je manque des repères, en fait je pense que j'en ai trop J'ai envie de me prouver que j'aurai toujours les crocs C'est peut-être ça, un jour de doute, c'est pas une chute de moral C'est le besoin de vérifier qu'on a encore bien la dalle En fait, ces journées à la con, ça te fait te sentir vivant Et ça me fait écrire des textes bien écorchés comme avant En fait les jours de doute, ça donne des jours de lutte Des réveils, des coups de poings, des envies d'uppercuts Alors je tombe et je me redresse, alors je m'enfonce et j'encaisse Alors je me trompe et je progresse, alors je compte mes faiblesses Alors j'échoue, comme tout le monde, mais je reste sincère Et comme la vie n'est pas longue, j'essaie juste de bien faire Et si je mets de la lumière sur certaines de mes zones d'ombre Et si je mets quelques mots sur mes silences les plus sombres C'est pour mieux les comprendre et reprendre ma route C'est pour foncer sans attendre le prochain jour de doute</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Je t’embrasserai</t>
+          <t>J’suis pas rentré</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A la sortie de l'école Un jour tu m'as souris On avait dix ans J'étais tellement amoureux Toi on aurait dit Laura Ingalls dans sa prairie Et j'ai tenté ma chance Quand tu as détourné les yeux Et j'ai tenté De t'embrasser Mais tu m'as même pas remarquer J'me suis pris un vent Car il a pris ta main celui qui a vingt en dictée Toujours au premier rang Le p'tit fi-fils à ses parents J'en croyais pas mes yeux Nan mais il s'prend pour qui Je t'ai vu partir avec lui Et mon cur se resserrait Avec son cartable T'as ton Tann's Et son t-shirt Waikiki Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh A la soirée de Kévin Je nous sentais tellement proche On avait seize ans Tu étais si belle quand j'y pense Au milieu de la piste de danse On aurait dit Brenda Walsh Je me suis avancé C'était l'heure de saisir ma chance J'ai tenté De t'embrasser Et j'me suis pris un vent J'ai rien compris sur le coup Car il m'a bousculé Avec ses épaules carrés Un grand re-noi balèze J'crois qu'il sappelait Mamadou Il t'as pris dans ses bras Et vous avez dansé un slow En regardant cette scène j'avais du mal à respirer Avec ses Stan Smith Et son pantalon à pince Célio Mais j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai Oh Un soir après la fac je t'ai invité manger un grec Endroit qui paie pas de mine J'voulait pas te mettre la pression Je m'étais bien renseigner Je savais que t'avais pas d'mec Et après ma dernière bouchée Au goût salade, tomate, oignon J'ai tenté De t'embrasser Et j'me suis pris un vent Encore une fois j'ai rien su faire Ton portable a sonné Tu as tout de suite décroché Jusqu'à mon dernier souffle J'aurais la rage contre SFR T'es partis immédiatement car un amie t'appelait au secours J'ai repris trois sandwichs sauce harissa le ventre serré Ça m'a piqué les yeux Mais moins que ce chagrin d'amour Et j'me le suis promis Un jour Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai Oh Les années ont passé j'ai continué d'essayer Un soir dans la rue Je t'ai vu sortir d'une voiture blanche J'ai foncé vers toi mais le destin a bégayé T'es partis au bras d'un inconnu Mais ma revanche est arrivée Un jour d'été J'ai débarqué dans la salle Le jour de ton mariage Cette fois c'est décidé Tu vas enfin me remarquer Devant m'sieur le maire Cette fois je n'ai pas été sage J'ai poussé le jeune premier Au moment des alliances Dans ta robe dentelle Tu m'as laissé t'enlacer Devant tout les invités Cette fois j'ai saisi ma chance Tu étais tellement belle Doucement... Je t'ai embrassé J'y arriverai Je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai J'y arriverai Je t'embrasserai, je t'embrasserai J'y arriverai Je t'embrasserai, oh je t'embrasserai</t>
+          <t>Maman tu n'aimes pas quand je rentre tard, tu n'sais pas à quelle heure je vais rev'nir Tu redoutes un peu ce genre de soir et tant qu'j'suis pas là, tu n'peux pas t'endormir Maman, tu écoutes les bruits dehors, tu attends celui d'la clé dans la serrure Quand tu es inquiètes, bien sûr, j'ai des remords mais c'est les heures qui passent trop vite, je te jure Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et c'est là qu'elle m'a souri Eh Yema, j'vais t'raconter J'vais t'raconter Maman, j'aime quand le soleil se couche, quand il bascule, il bouscule ma raison Et quand les ondes du crépuscule me touchent, j'ai du mal à rentrer à la maison Maman, je vais t'raconter ce soir là, je n'sais plus si c'est moi qui l'ai enlacé J'me souviens juste de la douceur de ses bras et de sa voix qui m'a dit Allons danser Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Je suis allé au café J'ai un peu stationné Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, j'ai découché Et là, je me suis amusé Eh Yema, j'vais t'raconter J'vais t'raconter Maman, il faut qu'tu m'comprennes, elle est si complexe et si légère à la fois J'aimerais déjà qu'elle m'emmène dans ses secrets, ses zones d'ombres, ses éclats Maman crois-moi, elle est incroyable, elle est une lumière, une musique, une diva J'nous vois déjà inséparable mais maman sûrement, tu la connais déjà Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré En marchant, j'l'ai observé Et j'l'ai laissé m'emporter Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'est la plus belle des folies Et elle s'appelle la vie Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et elle s'appelle la vie</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jour de doute</t>
+          <t>Juste de la poésie</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Y a des jours inévitables où la confiance s'évanouit Toutes ces heures vulnérables, y a des jours comme des nuits Les instants où je m'arrête au beau milieu de ma route Comme un lendemain de fête, c'est juste un jour de doute Les jours où même le temps, dehors, n'est pas sûr de lui Où le ciel est trempé sans une seule goutte de pluie Je regarde autour de moi, fui par ma sérénité Victime d'un moment de flou ou d'un trop-plein de lucidité J'ai trop d'attentes et trop de souvenirs qui font des tête-à-queue Y a beaucoup trop de pourquoi et pas assez de parce que Je choisis souvent le silence pour que les gens regardent ailleurs J' suis stoïque en apparence mais en tempête à l'intérieur Y a des envies qui me chuchotent et des regrets qui grondent C'est les jours où tu te sens seul, même entouré de plein de monde On connaît tous ces passages, un dernier vers pour la déroute Les certitudes prises en otage, c'est juste un jour de doute C'est juste un jour de doute, c'est un réveil sans appétit Comme une nuit sans sommeil et comme un rêve inabouti C'est la vie qui hésite et qui m'octroie une pause Mais pour mieux me laisser le temps de bien me remettre en cause Alors je regarde dans le miroir et je contemple mes erreurs Et tous ces regards sans espoir dans mon rétroviseur Ces quelques mains qui se tendaient que je n'ai jamais rattrapées Dans tout ce que j'ai tenté je ne revois que mes ratés Alors j'avance, mais à tâtons et puis en regardant derrière Je me sens coupable encore une fois et ce sera pas la dernière Coupable d'avoir juste essayé et de pas avoir réussi Coupable d'avoir fait de mon mieux et que ça n'ait pas suffi Alors je remets tout en question, est-ce que j'suis bien à ma place J'ai peut-être pris les mauvais pions, est-ce que je dois vraiment faire face J'connais cette histoire par cur, un dernier vers pour la déroute Parfois j'suis pas à la hauteur, c'est juste un jour de doute C'est juste un jour de doute, ça va pas durer longtemps C'est juste un jour qui s'ajoute, il n'est même pas inquiétant Mais s'il me laisse un goût amer, je dois y faire attention Je connais son mystère, il est l'automne des sensations Quand sa lumière est faible comme si elle luttait toute la journée La nuit revient comme si la Terre était pressée de se retourner Et quand le soleil refait surface, il apparaît presque déçu Et une pluie fine le chasse, comme si la vie nous crachait dessus Alors je me dis que j'ai trop dormi ou que j' suis parti en contresens Je sens que j'ai besoin de retrouver toute les odeurs de l'urgence Les odeurs de vertige, les odeurs de vérité Je sais bien que j'ai besoin de retrouver l'instabilité Je crois pas que je manque des repères, en fait je pense que j'en ai trop J'ai envie de me prouver que j'aurai toujours les crocs C'est peut-être ça, un jour de doute, c'est pas une chute de moral C'est le besoin de vérifier qu'on a encore bien la dalle En fait, ces journées à la con, ça te fait te sentir vivant Et ça me fait écrire des textes bien écorchés comme avant En fait les jours de doute, ça donne des jours de lutte Des réveils, des coups de poings, des envies d'uppercuts Alors je tombe et je me redresse, alors je m'enfonce et j'encaisse Alors je me trompe et je progresse, alors je compte mes faiblesses Alors j'échoue, comme tout le monde, mais je reste sincère Et comme la vie n'est pas longue, j'essaie juste de bien faire Et si je mets de la lumière sur certaines de mes zones d'ombre Et si je mets quelques mots sur mes silences les plus sombres C'est pour mieux les comprendre et reprendre ma route C'est pour foncer sans attendre le prochain jour de doute</t>
+          <t>REFRAIN Grand Corps Malade De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie David Goudreault Cest juste Tout ce qui brille nest pas de lor Tout ce qui coule nest pas de leau Dès lors, les flots charrient leurs lots de larmes De silences et déchos On ne naît pas tous sur le même bateau Mais les courants nous poussent Sur les mêmes rivages On sarrime aux mêmes images Quand lancre est le stylo Tout ce qui ne sexprime pas simprime Il y a des pertes de vie qui sévitent par la rime REFRAIN Grand Corps Malade, David Goudreault, Gaëlle De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie Grand Corps Malade Et si cette poésie était juste une petite trace Qui nous reste, quon voit toujours même quand elle sefface Comme un souvenir, une image Mais aussi comme une envie Un projet, une proposition, un bout despoir qui prend vie Et si lart était juste un moment démotion Où laiguille de lhorloge suspend sa rotation Alors lheure aura tort face à lart oratoire Et les curs en accord réécriront leur histoire Et si toute cette féérie nexistait que dans nos têtes Que la vie poursuivait son cour tranquillement derrière nos fenêtres On ne changera rien au monde Le croire serait une hérésie Ce nest quun moment entre nous Cest juste de la poésie REFRAIN Grand Corps Malade, David Goudreault, Gaëlle De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie David Goudreault Lire dans ma main À double interligne Y voir le signe Dun chemin littéraire Lever le pouce sans itinéraire Filer où la mine mène Au fil du courant Prendre mon temps Cest souvent le doute Loin des temples Qui mindique la route à suivre Entre les tempes</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J’suis pas rentré</t>
+          <t>Juste une période de ma vie</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Maman tu n'aimes pas quand je rentre tard, tu n'sais pas à quelle heure je vais rev'nir Tu redoutes un peu ce genre de soir et tant qu'j'suis pas là, tu n'peux pas t'endormir Maman, tu écoutes les bruits dehors, tu attends celui d'la clé dans la serrure Quand tu es inquiètes, bien sûr, j'ai des remords mais c'est les heures qui passent trop vite, je te jure Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et c'est là qu'elle m'a souri Eh Yema, j'vais t'raconter J'vais t'raconter Maman, j'aime quand le soleil se couche, quand il bascule, il bouscule ma raison Et quand les ondes du crépuscule me touchent, j'ai du mal à rentrer à la maison Maman, je vais t'raconter ce soir là, je n'sais plus si c'est moi qui l'ai enlacé J'me souviens juste de la douceur de ses bras et de sa voix qui m'a dit Allons danser Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Je suis allé au café J'ai un peu stationné Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré Sans faire exprès, j'ai découché Et là, je me suis amusé Eh Yema, j'vais t'raconter J'vais t'raconter Maman, il faut qu'tu m'comprennes, elle est si complexe et si légère à la fois J'aimerais déjà qu'elle m'emmène dans ses secrets, ses zones d'ombres, ses éclats Maman crois-moi, elle est incroyable, elle est une lumière, une musique, une diva J'nous vois déjà inséparable mais maman sûrement, tu la connais déjà Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré En marchant, j'l'ai observé Et j'l'ai laissé m'emporter Eh Yema, j'vais t'raconter Pourquoi un soir, j'suis pas rentré C'est la plus belle des folies Et elle s'appelle la vie Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré Sans faire exprès, je l'ai croisé Et moi, j'ai voulu toucher Eh Yema, maintenant tu sais Pourquoi un soir, j'suis pas rentré C'était un soir à Paris Et elle s'appelle la vie</t>
+          <t>Ça sest passé une nuit dété, et ce soir là il faisait chaud Jétais un lion en liberté avant dentrer dans un cachot Apprendre à vivre autrement, courir seulement dans mes pensées Accepter dêtre différent pour continuer davancer Pardonnez-moi Messieurs Mesdames pour ce début de texte un peu brutal Moi non plus j'nétais pas prêt, depuis jai travaillé mon mental Jai sué pour récupérer quelques gestes et pour retrouver lenvie J'noublierai jamais tout le reste mais cest juste une période de ma vie Ça sest passé une nuit dhiver, et ce soir là il faisait froid Mais dans la course des étoiles la Lune semblait nous dire à tous sil te plaît tais-toi Le caniveau charriait nos larmes et les échos de nos sanglots nous étouffaient Nous venions de déposer les armes, cest con, je pensais avoir tout fait Pardonnez-moi Messieurs Mesdames, peut-être que je manque de pudeur A dérouler le tapis de mes drames, de mes colères, de mes douleurs Mais le poète reste incompris comme le marin sans son navire Dans ces mystères faites le tri, cest juste une période de ma vie Ça sest passé dans un grand bureau dirigé par une bande de voleurs Pendant quatre ans ça a été chaud de faire l'grand écart avec mes valeurs Au début cétait marrant mais jamais vraiment passionnel Aujourdhui jai choisi entre aimer ma vie et une belle carrière professionnelle Vous moquez pas Messieurs Mesdames en mimaginant bien habillé Dans un univers marketing où les seules stars sont les billets En partant jai volé une agrafeuse, un bâton de colle et un préavis Jai encore des chemises dans un placard, mais cest juste une période de ma vie Ça sest passé dans un tout petit bureau avec des vieilles coincées du cul Et puis des cons à tête décrou emmêlés dans de vieux rideaux Je me la racontais avec mes potes et je leur disais Si si les gars, je vous jure, jai un super boulot Mais cette époque sest prise un stop le jour où on ma dit Rouda, tes convoqué chez la dirlo Vous moquez pas Messieurs Mesdames, cétait une première fois et mon dernier licenciement Mais il ma suffit dune fois pour voir que DRH ne rime pas avec le mot sentiment Ils voulaient voir ma rage, mais ce jour-là je crois qu'jai ri Et puis jai tourné la page, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle Ça sest passé un jour de printemps, mon cur a battu super vite Dès que je la voyais, mes yeux brillaient et il y avait de la buée sur les vitres Je voulais son bien-être plus que le mien, et ça javais pas lhabitude Celui qui la touche je lui brise les reins, cétait ça ma seule certitude Vous êtes émus Messieurs Mesdames en voyant un grand con amoureux Je voyais notre chemin tout tracé, jétais confiant, cest dangereux Car quand nos routes se sont séparées cest un coup de poignard que jai pris Et jai compris avec dépit qu'cest juste une période de ma vie Ça sest passé un jour dautomne et dans mon cur jai ressenti la fission des atomes Si javais été sourd jaurai jeté mon sonotone pour la musique de cette femme Et même laveugle aurait brisé sa cane pour voir cette beauté créée par les Hommes Quand dans ma rue on disait Elle fait mal au crâne de peur dêtre brûlé par la flamme Vous êtes émus Messieurs Mesdames mais cette histoire a nourri des sitcoms Et puis apaisé mes nuits blanches comme une pommade qui me calme Je vous le jure plein de chanteurs entonnent pour elle des mélodies Moi je la chante tous les jours, cest juste une période de ma vie Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ces mecs chelous qui viennent pour raconter leur vie ? Cest elle cest lui cest moi cest nous Fab, Fab, Fab! Quoi? Le thème! Ah OK pardon Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ? Jai regardé, jai écouté et je me suis pris une grande baffe Aujourdhui dans ma chaîne hi-fi jentends nos voix sortir des baffles Ce nest qu'du slam Messieurs Mesdames et jespère que vous appréciez La poésie du macadam, jy consacre des moments précieux Jai des rimes plein la gorge, mais si vous voulez mon avis Si ça se trouve cest comme tout le reste, cest juste une période de ma vie Ça sest passé dans un petit bar, le Côté Zèbre ou lUnion Bar On y était trois fois par semaine, il ny avait personne, il ny avait pas d'stars Il y avait que des poètes avec des phrases qui finissaient en Nénuphars? Ouais Cétait la joie et linsouciance et lencre débordait des buvards Ce nest qu'du slam Messieurs Mesdames, cest juste un moment entre nous Où les frontières deviennent instables entre les tables et ceux qui sont debout Et sur lestrade, y a deux poètes, cest quand même autre chose que Lorie Dans vos sourires jai vu mes cris, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Juste de la poésie</t>
+          <t>J’y pense, j’oublie</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>REFRAIN Grand Corps Malade De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie David Goudreault Cest juste Tout ce qui brille nest pas de lor Tout ce qui coule nest pas de leau Dès lors, les flots charrient leurs lots de larmes De silences et déchos On ne naît pas tous sur le même bateau Mais les courants nous poussent Sur les mêmes rivages On sarrime aux mêmes images Quand lancre est le stylo Tout ce qui ne sexprime pas simprime Il y a des pertes de vie qui sévitent par la rime REFRAIN Grand Corps Malade, David Goudreault, Gaëlle De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie Grand Corps Malade Et si cette poésie était juste une petite trace Qui nous reste, quon voit toujours même quand elle sefface Comme un souvenir, une image Mais aussi comme une envie Un projet, une proposition, un bout despoir qui prend vie Et si lart était juste un moment démotion Où laiguille de lhorloge suspend sa rotation Alors lheure aura tort face à lart oratoire Et les curs en accord réécriront leur histoire Et si toute cette féérie nexistait que dans nos têtes Que la vie poursuivait son cour tranquillement derrière nos fenêtres On ne changera rien au monde Le croire serait une hérésie Ce nest quun moment entre nous Cest juste de la poésie REFRAIN Grand Corps Malade, David Goudreault, Gaëlle De chaque côté de locéan La parole nous traverse Cest alors quon se rencontre Cest alors quon se rend compte Cest juste de la poésie David Goudreault Lire dans ma main À double interligne Y voir le signe Dun chemin littéraire Lever le pouce sans itinéraire Filer où la mine mène Au fil du courant Prendre mon temps Cest souvent le doute Loin des temples Qui mindique la route à suivre Entre les tempes</t>
+          <t>J'reviens d'l'enterrement d'un proche, j'me dis qu'la vie n'a pas d'sens L'humain a beau faire des progrès, notre existence n'a pas d'science Destin agit selon son gré, censés s'estimer chanceux Sur cette autoroute sinueuse, il m'reste encore du sens J'y pense là et après j'oublie Sur le moment en réflxion, et puis après j'roupille C'est fou commnt la vie est fourbe Quelqu'un de plus ou de moins, on est des millards, qu'est-ce qu'elle en a à foutre ? Pris entre les dettes, les factures, les victoires, défaites, les fêtes, un passé bourré d'ratures Perdu dans la fosse aux lions, j'me sens jeté en pâture Je m'efforce d'être quelqu'un de bon, je n'suis qu'une caricature Et la mon cerveau sature Pour dire vrai, ça fait un moment qu'ça dure Donc j'décompresse, j'appelle cette meuf et j'm'envoie sur Saturne M'ont dit qu'le paradis c'est pour les braves Et vu mes stats, dans l'meilleur des cas, j'passerai par la draft, ouais Quand j'y pense il est parti mon pote, ça fait bizarre, j'me dis qu'j'reverrai plus mon pote Ouais, il est parti mon pote Il est parti mon pote Quand j'y pense j'reverrai plus mon pote C'est c'qu'on disait tout de suite avec les potes On est des potes qui pleurent un pote et on est pleins de potes Mais quand j'y pense, les potes... La vie d'rue sans embrouille, c'est comme un match d'rugby sans mêlée Mes potes sont comme écouteurs iPhone, ils aiment bien s'emmêler Parmi cela, très peu sont venus m'aider Donc à mon tour, y'en à trop peu qu'j'ai aidé Pourtant on s'aime mais on s'baise, on est des PDs Mais on s'accepte, on s'chamaille, on s'critique On assume leurs faits et gestes, leurs caractères, leurs p'tits tics Mais dès qu'ça foire, on s'jette la pierre, si on garde pour soi, on crie Puis on s'reparle, qui entre moi et eux est hypocrite ? En vrai on reverra plus notre pote, quand j'y r'pense, y'avait qui à l'enterrement d'ce pote ? Et est-ce qu'ils seront là à mon enterrement ? C'jour là, j'fermerai ma gueule, j'pourrai pas faire autrement Bref, j'vois pas pourquoi j'réfléchis à tout ça, à croire que dans mon esprit tous les jours c'est la Toussaint L'union fait la force, du coup on est pas tous zins Diviser pour mieux régner du coup on est pas tous un J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense, j'oublie Encore un texte triste écrit sous un esprit nuageux J'ai perdu l'innocence, c'est vrai, depuis j'ai pris de l'âge Comme si j'sortais d'un enterrement, d'un pote ou bien d'un proche La joie a pris la fuite, c'est la lassitude qui s'accroche Encore un texte triste écrit dans un monde sans morale La peine et la terreur bien décidées rejoignent la chorale Même quand t'allumes la télé sur les nouvelles du monde Où sont passés les sourires ? C'est la colère qui gronde J'y pense et puis j'oublie, je préfère faire le tri Je passe à autre chose, souvent je tiens, parfois je plis Comme juste après la mort d'un bon pote ou d'un parent J'aurais dû écrire sous tease, j'aurais gratté un texte plus marrant</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Juste une période de ma vie</t>
+          <t>La cause</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ça sest passé une nuit dété, et ce soir là il faisait chaud Jétais un lion en liberté avant dentrer dans un cachot Apprendre à vivre autrement, courir seulement dans mes pensées Accepter dêtre différent pour continuer davancer Pardonnez-moi Messieurs Mesdames pour ce début de texte un peu brutal Moi non plus j'nétais pas prêt, depuis jai travaillé mon mental Jai sué pour récupérer quelques gestes et pour retrouver lenvie J'noublierai jamais tout le reste mais cest juste une période de ma vie Ça sest passé une nuit dhiver, et ce soir là il faisait froid Mais dans la course des étoiles la Lune semblait nous dire à tous sil te plaît tais-toi Le caniveau charriait nos larmes et les échos de nos sanglots nous étouffaient Nous venions de déposer les armes, cest con, je pensais avoir tout fait Pardonnez-moi Messieurs Mesdames, peut-être que je manque de pudeur A dérouler le tapis de mes drames, de mes colères, de mes douleurs Mais le poète reste incompris comme le marin sans son navire Dans ces mystères faites le tri, cest juste une période de ma vie Ça sest passé dans un grand bureau dirigé par une bande de voleurs Pendant quatre ans ça a été chaud de faire l'grand écart avec mes valeurs Au début cétait marrant mais jamais vraiment passionnel Aujourdhui jai choisi entre aimer ma vie et une belle carrière professionnelle Vous moquez pas Messieurs Mesdames en mimaginant bien habillé Dans un univers marketing où les seules stars sont les billets En partant jai volé une agrafeuse, un bâton de colle et un préavis Jai encore des chemises dans un placard, mais cest juste une période de ma vie Ça sest passé dans un tout petit bureau avec des vieilles coincées du cul Et puis des cons à tête décrou emmêlés dans de vieux rideaux Je me la racontais avec mes potes et je leur disais Si si les gars, je vous jure, jai un super boulot Mais cette époque sest prise un stop le jour où on ma dit Rouda, tes convoqué chez la dirlo Vous moquez pas Messieurs Mesdames, cétait une première fois et mon dernier licenciement Mais il ma suffit dune fois pour voir que DRH ne rime pas avec le mot sentiment Ils voulaient voir ma rage, mais ce jour-là je crois qu'jai ri Et puis jai tourné la page, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle Ça sest passé un jour de printemps, mon cur a battu super vite Dès que je la voyais, mes yeux brillaient et il y avait de la buée sur les vitres Je voulais son bien-être plus que le mien, et ça javais pas lhabitude Celui qui la touche je lui brise les reins, cétait ça ma seule certitude Vous êtes émus Messieurs Mesdames en voyant un grand con amoureux Je voyais notre chemin tout tracé, jétais confiant, cest dangereux Car quand nos routes se sont séparées cest un coup de poignard que jai pris Et jai compris avec dépit qu'cest juste une période de ma vie Ça sest passé un jour dautomne et dans mon cur jai ressenti la fission des atomes Si javais été sourd jaurai jeté mon sonotone pour la musique de cette femme Et même laveugle aurait brisé sa cane pour voir cette beauté créée par les Hommes Quand dans ma rue on disait Elle fait mal au crâne de peur dêtre brûlé par la flamme Vous êtes émus Messieurs Mesdames mais cette histoire a nourri des sitcoms Et puis apaisé mes nuits blanches comme une pommade qui me calme Je vous le jure plein de chanteurs entonnent pour elle des mélodies Moi je la chante tous les jours, cest juste une période de ma vie Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ces mecs chelous qui viennent pour raconter leur vie ? Cest elle cest lui cest moi cest nous Fab, Fab, Fab! Quoi? Le thème! Ah OK pardon Ça sest passé dans un petit bar, jétais venu avec Jacky Jai vu des gens poser des textes je lui ai demandé cest quoi, cest qui ? Jai regardé, jai écouté et je me suis pris une grande baffe Aujourdhui dans ma chaîne hi-fi jentends nos voix sortir des baffles Ce nest qu'du slam Messieurs Mesdames et jespère que vous appréciez La poésie du macadam, jy consacre des moments précieux Jai des rimes plein la gorge, mais si vous voulez mon avis Si ça se trouve cest comme tout le reste, cest juste une période de ma vie Ça sest passé dans un petit bar, le Côté Zèbre ou lUnion Bar On y était trois fois par semaine, il ny avait personne, il ny avait pas d'stars Il y avait que des poètes avec des phrases qui finissaient en Nénuphars? Ouais Cétait la joie et linsouciance et lencre débordait des buvards Ce nest qu'du slam Messieurs Mesdames, cest juste un moment entre nous Où les frontières deviennent instables entre les tables et ceux qui sont debout Et sur lestrade, y a deux poètes, cest quand même autre chose que Lorie Dans vos sourires jai vu mes cris, cest juste une période de ma vie Cest juste une période de ma vie, jy mets des joies, jy mets des peines Jy mets mes regrets mes envies et quelques milligrammes de haine Cest juste une période de ma vie, je sais même pas pourquoi je ten parle J'te connais depuis deux minutes et demi mais faut que je marrête, je te sens tout pâle</t>
+          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J’y pense, j’oublie</t>
+          <t>L’addition</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J'reviens d'l'enterrement d'un proche, j'me dis qu'la vie n'a pas d'sens L'humain a beau faire des progrès, notre existence n'a pas d'science Destin agit selon son gré, censés s'estimer chanceux Sur cette autoroute sinueuse, il m'reste encore du sens J'y pense là et après j'oublie Sur le moment en réflxion, et puis après j'roupille C'est fou commnt la vie est fourbe Quelqu'un de plus ou de moins, on est des millards, qu'est-ce qu'elle en a à foutre ? Pris entre les dettes, les factures, les victoires, défaites, les fêtes, un passé bourré d'ratures Perdu dans la fosse aux lions, j'me sens jeté en pâture Je m'efforce d'être quelqu'un de bon, je n'suis qu'une caricature Et la mon cerveau sature Pour dire vrai, ça fait un moment qu'ça dure Donc j'décompresse, j'appelle cette meuf et j'm'envoie sur Saturne M'ont dit qu'le paradis c'est pour les braves Et vu mes stats, dans l'meilleur des cas, j'passerai par la draft, ouais Quand j'y pense il est parti mon pote, ça fait bizarre, j'me dis qu'j'reverrai plus mon pote Ouais, il est parti mon pote Il est parti mon pote Quand j'y pense j'reverrai plus mon pote C'est c'qu'on disait tout de suite avec les potes On est des potes qui pleurent un pote et on est pleins de potes Mais quand j'y pense, les potes... La vie d'rue sans embrouille, c'est comme un match d'rugby sans mêlée Mes potes sont comme écouteurs iPhone, ils aiment bien s'emmêler Parmi cela, très peu sont venus m'aider Donc à mon tour, y'en à trop peu qu'j'ai aidé Pourtant on s'aime mais on s'baise, on est des PDs Mais on s'accepte, on s'chamaille, on s'critique On assume leurs faits et gestes, leurs caractères, leurs p'tits tics Mais dès qu'ça foire, on s'jette la pierre, si on garde pour soi, on crie Puis on s'reparle, qui entre moi et eux est hypocrite ? En vrai on reverra plus notre pote, quand j'y r'pense, y'avait qui à l'enterrement d'ce pote ? Et est-ce qu'ils seront là à mon enterrement ? C'jour là, j'fermerai ma gueule, j'pourrai pas faire autrement Bref, j'vois pas pourquoi j'réfléchis à tout ça, à croire que dans mon esprit tous les jours c'est la Toussaint L'union fait la force, du coup on est pas tous zins Diviser pour mieux régner du coup on est pas tous un J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense puis après j'oublie J'y pense, j'oublie Encore un texte triste écrit sous un esprit nuageux J'ai perdu l'innocence, c'est vrai, depuis j'ai pris de l'âge Comme si j'sortais d'un enterrement, d'un pote ou bien d'un proche La joie a pris la fuite, c'est la lassitude qui s'accroche Encore un texte triste écrit dans un monde sans morale La peine et la terreur bien décidées rejoignent la chorale Même quand t'allumes la télé sur les nouvelles du monde Où sont passés les sourires ? C'est la colère qui gronde J'y pense et puis j'oublie, je préfère faire le tri Je passe à autre chose, souvent je tiens, parfois je plis Comme juste après la mort d'un bon pote ou d'un parent J'aurais dû écrire sous tease, j'aurais gratté un texte plus marrant</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>La cause</t>
+          <t>La médaille</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
+          <t>Un pigeon est posé Sur l'épaule galonnée Du Maréchal de France Et il a décoré La statue dressée D'une gastrique offense Maréchaux aassins Sur vos bustes d'airain Vos poitrines superbes Vos médailles ne sont que fiente De pigeon d'la merde Un enfant est venu Aux pieds de la statue Du Maréchal de France Une envie naturelle L'a fait pisser contre elle Mais en toute innocence Maréchaux aassins Le môme mine de rien A joliment vengé Les enfants et les mères Que dans vos sales guerres Vous avez massacrés Un clodo s'est couché Une nuit juste aux pieds Du Maréchal de France Ivre mort au matin Il a vomi son vin Dans une gerbe immense Maréchaux aassins Vous ne méritez rien De mieux pour vos méfaits Que cet hommage immonde Pour tout le sang du monde Par vos sabres versé Un couple d'amoureux S'embrasse sous les yeux Du Maréchal de France Muet comme un vieux bonze Il restera de bronze Raide comme une lance Maréchaux aassins L'amour ne vous dit rien À part bien sûr celui De la Patrie hélas Cette idée est dégueulasse Qu'à mon tour je conchie</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>L’addition</t>
+          <t>La mer et l’enfant</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>Hébreux 111 Or la foi est une ferme assurance des choses quon espère, une démonstration de celles quon ne voit pas. Hébreux 112 Pour lavoir possédée, les anciens ont obtenu un témoignage favorable. Hébreux 113 Cest par la foi que nous reconnaissons que le monde a été formé par la parole de Dieu, en sorte que ce quon voit na pas été fait de choses visibles. Hébreux 114 Cest par la foi quAbel offrit à Dieu un sacrifice plus excellent que celui de Caïn cest par elle quil fut déclaré juste, Dieu approuvant ses offrandes et cest par elle quil parle encore, quoique mort. Hébreux 115 Cest par la foi quÉnoch fut enlevé pour quil ne vît point la mort, et quil ne parut plus parce Dieu lavait enlevé car, avant son enlèvement, il avait reçu le témoignage quil était agréable à Dieu. Hébreux 116 Or sans la foi il est impossible de lui être agréable car il faut que celui qui sapproche de Dieu croie que Dieu existe, et quil est le rémunérateur de ceux qui le cherchent. 117 Cest par la foi que Noé, divinement averti des choses quon ne voyait pas encore, et saisi dune crainte respectueuse, construisit une arche pour sauver sa famille cest par elle quil condamna le monde, et devint héritier de la justice qui sobtient par la foi. Hébreux 118 Cest par la foi quAbraham, lors de sa vocation, obéit et partit pour un lieu quil devait recevoir en héritage, et quil partit sans savoir où il allait. Hébreux 119 Cest par la foi quil vint sétablir dans la terre promise comme dans une terre étrangère, habitant sous des tentes, ainsi quIsaac et Jacob, les cohéritiers de la même promesse. Hébreux 1110 Car il attendait la cité qui a de solides fondements, celle dont Dieu est larchitecte et le constructeur. Hébreux 1111 Cest par la foi que Sara elle-même, malgré son âge avancé, fut rendue capable davoir une postérité, parce quelle crut à la fidélité de celui qui avait fait la promesse. Hébreux 1112 Cest pourquoi dun seul homme, déjà usé de corps, naquit une postérité nombreuse comme les étoiles du ciel, comme le sable qui est sur le bord de la mer et quon ne peut compter. Hébreux 1113 Cest dans la foi quils sont tous morts, sans avoir obtenu les choses promises mais ils les ont vues et saluées de loin, reconnaissant quils étaient étrangers et voyageurs sur la terre. Hébreux 1114 Ceux qui parlent ainsi montrent quils cherchent une patrie. Hébreux 1115 Sils avaient eu en vue celle doù ils étaient sortis, ils auraient eu le temps dy retourner. Hébreux 1116 Mais maintenant ils en désirent une meilleure, cest-à-dire une céleste. Cest pourquoi Dieu na pas honte dêtre appelé leur Dieu, car il leur a préparé une cité. Hébreux 1117 Cest par la foi quAbraham offrit Isaac, lorsquil fut mis à lépreuve, et quil offrit son fils unique, lui qui avait reçu les promesses, Hébreux 1118 et à qui il avait été dit En Isaac sera nommée pour toi une postérité. Hébreux 1119 Il pensait que Dieu est puissant, même pour ressusciter les morts aussi le recouvra-t-il par une sorte de résurrection. Hébreux 1120 Cest par la foi quIsaac bénit Jacob et Ésaü, en vue des choses à venir. Hébreux 1121 Cest par la foi que Jacob mourant bénit chacun des fils de Joseph, et quil adora, appuyé sur lextrémité de son bâton. Hébreux 1122 Cest par la foi que Joseph mourant fit mention de la sortie des fils dIsraël, et quil donna des ordres au sujet de ses os. Hébreux 1123 Cest par la foi que Moïse, à sa naissance, fut caché pendant trois mois par ses parents, parce quils virent que lenfant était beau, et quils ne craignirent pas lordre du roi. Hébreux 1124 Cest par la foi que Moïse, devenu grand, refusa dêtre appelé fils de la fille de Pharaon, Hébreux 1125 aimant mieux être maltraité avec le peuple de Dieu que davoir pour un temps la jouissance du péché, Hébreux 1126 regardant lopprobre de Christ comme une richesse plus grande que les trésors de lÉgypte, car il avait les yeux fixés sur la rémunération. Hébreux 1127 Cest par la foi quil quitta lÉgypte, sans être effrayé de la colère du roi car il se montra ferme, comme voyant celui qui est invisible. Hébreux 1128 Cest par la foi quil fit la Pâque et laspersion du sang, afin que lexterminateur ne touchât pas aux premiers-nés des Israélites. Hébreux 1129 Cest par la foi quils traversèrent la mer Rouge comme un lieu sec, tandis que les Égyptiens qui en firent la tentative furent engloutis. Hébreux 1130 Cest par la foi que les murailles de Jéricho tombèrent, après quon en eut fait le tour pendant sept jours. Hébreux 1131 Cest par la foi que Rahab la prostituée ne périt pas avec les rebelles, parce quelle avait reçu les espions avec bienveillance. Hébreux 1132 Et que dirai-je encore? Car le temps me manquerait pour parler de Gédéon, de Barak, de Samson, de Jephthé, de David, de Samuel, et des prophètes, Hébreux 1133 qui, par la foi, vainquirent des royaumes, exercèrent la justice, obtinrent des promesses, fermèrent la gueule des lions, Hébreux 1134 éteignirent la puissance du feu, échappèrent au tranchant de lépée, guérirent de leurs maladies, furent vaillants à la guerre, mirent en fuite des armées étrangères. Hébreux 1135 Des femmes recouvrèrent leurs morts par la résurrection dautres furent livrés aux tourments, et nacceptèrent point de délivrance, afin dobtenir une meilleure résurrection Hébreux 1136 dautres subirent les moqueries et le fouet, les chaînes et la prison Hébreux 1137 ils furent lapidés, sciés, torturés, ils moururent tués par lépée, ils allèrent çà et là vêtus de peaux de brebis et de peaux de chèvres, dénués de tout, persécutés, maltraités, Hébreux 1138 eux dont le monde nétait pas digne, errants dans les déserts et les montagnes, dans les cavernes et les antres de la terre. Hébreux 1139 Tous ceux-là, à la foi desquels il a été rendu témoignage, nont pas obtenu ce qui leur était promis, Hébreux 1140 Dieu ayant en vue quelque chose de meilleur pour nous, afin quils ne parvinssent pas sans nous à la perfection.</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>La France des couleurs</t>
+          <t>La nuit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Troisième Axe Revenons sur Abd Al Malik Abd Al Malik, Soufisme, Franc Maçonnerie Les connivences Un Homme Libre Un Homme asservi... J'ai lu ses biographies et ses interviews, il détruit l'islam non-soufi et les médias aiment particulièrement parler de soufisme avec lui. Pourquoi à votre avis ?? LA RÈGLE D'OR N'OUBLIEZ PAS... Le soufisme est à la base de beaucoup de sociétés occultes et existait avant l'islam... Les grands maîtres des confréries soufis pratiquent le chirk et conspirent contre nous, je le dis clairement. Certains soufis eux même ne le savent même pas, car ils pratiquent le retrait, la médiation et l'invocation en toute humilité sans se douter du vice caché. SOUFISME, UNE PORTE MUSULMANE VERS LA MODERNITÉ ? le titre est évocateur, la porte d'entrée vers la modernité ? Mais on sait tous ce que veut dire la modernité à ce jour... Lisez ce torchon, voyez par vous même Abd Al Malik nous sert toujours la même soupe !! -- httpwww.nouvellescles.comarticle.php3?idarticle662 LA RÈGLE D'OR, LES MÉDIAS SERVENT DES POLITIQUES QUI DÉTESTENT L'ISLAM, LE VRAI, QUI DÉFFENT LA JUSTICE ET L'ÉQUITÉ ET QUI BLÂME LES INJUSTES, ILS VEULENT QU'ON MÉDITE EN RETRAIT ET QU'ON SOIT DES BOUDDHISTES Lisez cette interview, il a un maître spirituel... il ne cite que des illuminés... et il y a trop de messages subliminaux httpwww.evene.frmusiqueactualiteabd-al-malik-gibraltar-nap-rap-444.php Et là, regardez bien, il est congolais, il a mis la chemise du colon belge.... J'espère que tout ça vous parle... Lasservi saffranchit en devenant le colon...Ça me rappelle Tintin au Congo...Un Homme asservi, donc adulé par le Grand Monde Règle Dor suite Alors là, c'est très simple, vous connaissez Eric Zemmour ? Il ny a pas plus manipulateur, conspirateur et sioniste que ce mec là en ce moment à la TV. Donc n'oubliez pas la règle d'or chers amis... et regardez plutôt ça... écoutez attentivement, mettez en relation tout ce qu'on a pu dire auparavant.. Première partie httpwww.dailymotion.comrelevancesearchabd2Bal2Bmalik2Bzemmourvideox7uqwnabd-al-malik-et-grand-corps-maladenews Seconde partie httpwww.dailymotion.commogiccovideox7uqtqabd-al-malik-et-grand-corps-maladenews En dautres termes ZEMMOUR FRACASSE GRAND CORPS MALADE ET GLORIFIE ABD AL MALIK !!! J'espère que vous allez comprendre, et pas dire mashAllah, même Zemmour il l'aime troop !!! . On peut comprendre surtout qu'Abd Al Malik est un pont vers le siècle des lumières comme montré précédemment, que Zemmour, qui est un illuminé connait très bien. Le siècle des lumières illuminatis et ses philosophes, poètes et héritiers qu'Abd Al Malik cite très souvent d'ailleurs représentent toute la ligne de pensé de notre cher état Français, rencardez vous un petit peu et vous comprendrez très vite.. Voici un lien, Abdel Malik un rappeur intello, sage et sans haine au journal de Claire Chazal à 13H - un rappeur intello sage sans haine signifie que les autres rappeurs sont cons, méchants et haineux... Regardez plutôt httpwww.dailymotion.comvideox79o5sabd-al-malik-interviewmusic Je cite Abd Al Malik, découvre lislam tolérant et ouvert après avoir connu lenfer des cités et les affres de la délinquance depuis, il écume les plateaux TV pour prêcher la bonne parole. Après avoir succombé à cet islam obscurantiste qui sévit dans les banlieues, il embrasse lislam des lumières. Alors le reportage qui va venir, il est incroyable mais vrai. Vous allez halluciner sur le niveau de naïveté du propos dAbd Al Malik. Monsieur est fier que Raffarin lappelle sur son téléphone. Il dit quil a été contacté par de hautes autorités... Ben quand on écrit un bouquin pareil, même Poutine il peut nous appeler pour aller éduquer les tchétchènes... Mais ce nest pas possible de tomber dans un panneau pareil !! Le jour ou Rafarin mappelle pour discuter dislam parce quon a des valeurs communes, je me poserai de sérieuses questions. Abd Al Malik, ne sait pas que cest des grands malades ces gens là ?? Ce nest pas possible une telle naïveté, enfin, je parle de naïveté mais ça peut être de la vénalité aussi.. Un sataniste illuminé lappelle pour parler dun plan dinstauration dun islam soumis à lÉtat Français et il est fier. Bref, je vous laisse regarder, ça spasse sur la 2M au Maroc.. httpwww.dailymotion.comvideox108ypabdelmalik-et-le-soufisme-en-islamevents ABD AL MALIK ne crée pas des ponts minés ? Vous êtes sûrs ? Écoutez bien cette interview, même Ruquier ne le trouve pas assez violent, il le compare à Lorie... httpwww.dailymotion.comvideox11pslabd-al-malik-chez-ruquiermusic Pas la peine d'en rajouter... là bas, il est chez lui, tout le monde l'aime et il y a des raisons. J'espère que vous savez qu'on ne rentre pas comme ça dans ce genre de milieu... Des bonnes paroles de bouddhiste qui aime les fleurs, et c'est la consécration.. Voilà le genre d'islam qu'ils aiment, l'islam des gens qui aiment tout le monde. C'est vrai que là, c'est plus facile à vivre tout de suite, pour eux comme pour nous, plus de confrontation, et les disciples de cheitane qui l'emportent parce qu'ils ne sont pas menacés. Voilà donc ce qui prouve la Règle dOr. Abd Al Malik accroche une nouvelle distinction à son riche palmarès. Après entre autres le prix Constantin en 2006, une Victoire de la musique pour son album Gibraltar en 2007 et sa décoration comme Chevalier des Arts et des Lettres par la ministre de la Culture en janvier 2008, le rappeur alsacien de 33 ans reçoit aujourd'hui le prix d'honneur de la Fond'Action Alsace qui récompense les talents de la région. Je suis un enfant du pays, et ce prix a une autre résonance que les récompenses ... A 33 ans, Il a tellement servi la France qu'il est plus décoré qu'un Général... Ne vous étonnez pas si Abd Al Malik, hasard ou pas, a vécu sa grande consécration l'année de ses 33 ans en rapport avec les 33 degrés de la FM ???... Début 2009, il a reçu sa 3ème victoire de la musique. Un Homme affilié à la franc maçonnerie ou à un soufisme paramaçonnique En rapport avec l'affiliation d'Abd Al Malik à une mystique franc maçonnique, revenons sur son site rapidement, nous avons vu précédemment les symboles et messages véhiculés par sa veste de colon drapeaux, lauriers, rouge ..., la pochette les cercles de l'enfer, le blasphème et miroir porteur de lumière Toujours sur httpwww.abdalmalik.fr regardez cette photo Regardez donc la troisième photo s'affichant, pourquoi une photo d'un pied avec une paire de Nike Jordan ??? On y voit écrit 23, mais en lisant dans le sens de la marche, c'est à dire, de droite à gauche, on peut lire 32, le 33ème degré écrasant les 32 autres, ce 33ème degré étant représenté par Abd Al Malik lui même en référence aux 33 de la maçonnerie !! Mais quel intérêt de mettre une photo de pied !! n'est-ce pas ?? VOUS NE ME CROYEZ PAS? VOUS CONNAISSEZ LE RITE ÉCOSSAIS DE LA FRANC MAÇONNERIE ?Tout à l'heure je vous ai parlé du chiffre 33, des 33 degrés de la Franc-Maçonnerie... VOICI UN LIEN AVEC UN SYMBOLE TRÈS CLAIR httpwww.nouvelordremondial.cc20070802degres-maconnique-du-rite-decosseCOMPAREZ LE LOGO BENI-SNASSEN À CETTE FRESQUE DE LA FRANC MAÇONNERIE...REGARDEZ LES DEUX COURONNES CI-DESSUS... LES FEUILLAGES SUR LES DEUX SYMBOLES RONDS... ET LE SYMBOLE 33 QUI CULMINE SUR LA FRESQUE DANS LA PYRAMIDE AU DESSUS DE LA COURONNE... ON RETROUVE AUSSI LES OISEAUX.. LA COLOMBE... LE GLAIVE... REGARDEZ AUSSI LA SIMILITUDE ENTRE LES RAYONNEMENTS DES BLASONS!! CA NE PEUT PAS ÊTRE DES COÏNCIDENCES !! Un regard sur le soufisme, Islam et sociétés secrètes... Je cite Au premier abord, il est surprenant qu'un penseur réformiste s'intéresse au soufisme et, surtout, qu'il lui consacre une part aussi importante dans son projet de modernisation des esprits en Orient. En fait, le soufisme connaît plusieurs dimensions et, d'une manière générale, ses formes populaires, imprégnées de superstitions et de pratiques magiques, sont rejetées par les réformistes alors que ces derniers font bon accueil, dans la mesure où celles-ci ne fuient pas leurs responsabilités politiques, à sa forme savante qui regroupe les confréries. Il y a donc, ainsi que certains d'entre eux l'ont écrit, un bon et un mauvais soufisme. D'un autre côté, le soufisme séduit les réformistes car il autorise une forme de liberté dans le commentaire du Coran. IbnArabi m. 1240, l'un des principaux représentants de ce courant, encourage, par exemple, la réouverture de la porte de l'ijtihâd, ce qui signifie commenter le Coran en faisant un usage indépendant de sa raison, un procédé interdit depuis plusieurs siècles par les écoles de droit musulmanes qui s'opposent à toute espèce d'innovation. Source - Secrets et sociétés secrètes en islam par Thierry Zarcone Nous sommes en plein dans l'Islam des droits de l'homme humaniste et Maçonnique... . Les Franc Maçons se disent humanistes, mais pas dans le sens que lon peut croire.. Pour eux, être humaniste, cest laisser le choix à lhumain dêtre le maître de lui-même et de ce monde. Un autre passage du même livre Ils existent des organisations para-maçonniques séduites et même fascinées par le cérémonial et la langue symbolique de la Franc-Maçonnerie, par son emblématique hermétique, dans laquelle elles reconnaissent la symbolique du soufisme et celle des corporations de métiers musulmanes. Voici un article très intéressant qui nous démontre que le soufisme est une sorte de société para-maçonnique, inspirées par le modèle maçonnique httpwww.histoiresdememoire.orgspip.php?article279 Toujours dans le but de vous informer, pour ceux qui le souhaitent, la curieuse histoire du monde... Quelle est l'origine des confréries en Islam.. httplacurieusehistoiredumonde.centerblog.net5847892-Quelle-est-l-origine-des-confreries-en-Islam- Toute cette histoire nous aura au moins permis d'apprendre des choses... Si les soufis se disent musulmans, pourquoi s'identifient-ils alors plus au Soufisme qu'à l'Islam. Ce mot Soufisme n'était pas familier à ceux qui vivaient dans les 3 meilleurs générations des Salaf-as-Salih pieux ancêtres. Les médias parlent toujours de soufisme à Abd Al Malik, c'est la porte d'entré du cheitane pour nous manipuler... Je ne parle pas d'un soufisme spirituel de recherche de soi même, de méditation et invocations, mais je parle bien du soufisme d'association avec symbolique et rites douteux... comme la franc-maçonnerie. Le guide spirituel dAbd Al Malik Je cite Aimez toutes les créatures, quelles que soient leur religion, leur race ou leurs opinions ! Chacun est à la place où Dieu l'a mis et il ne nous appartient pas d'en juger. Sidi Hamza al Qâdiri al Boutchichi, Madagh - , guide spirituel de la Tariqa Qadirriyya Boutchichiyya, Islam, Soufisme. Parole du Cheikh Sidi Hamza al Qâdiri al Boutchich guide spirituel du soufisme et dAbd Al Malik. Donc daprès ce cheikh, on doit aimer tout le monde, Bush, Sharon, Netanyahu, Bouteflika, Poutine, Mohamed 6, Sarkozy, Karzaï, Obama, Mugabe, Kabila etc etc.... Ne les juger surtout pas, on ne sait pas ce quils ont dans le cur ces gens là, on ne sait pas ce quils font, ce nest pas à nous dapporter justice pour nous même ni à notre prochain... Donc laissons le blâmable se propager à outrance sur la terre dAllah, la débauche, la conspiration satanique, linjustice etc... Vive la vie tout seul dans un coin du monde. Facile, moi je trouve que cest facile, je ne vois pas ou est lépreuve... Donc il ny a plus de communauté, une seule confrérie fermée, on oublie la oumma, on glorifie un cheikh... La vérité cest la logique, et là il n y a rien de logique, à part le fait quon laisse les injustes bousiller la terre et les gens, cest tout, on ne penses quà nous, on se replie et laisse notre prochain subir le tyran. On commence bien à comprendre létat desprit. Si Abd Al Malik était né en Palestine et recevait des bombes injustes à laube à peine réveillé... à ce moment là, il rêverait que des frères viennent le sauver... Et il maudirait le soufisme et son pacifisme irrationnel. Ce genre de phrases qui sont prises pour de la sagesse cest tellement flagrant de manipulation, cest incroyable quon puisse tomber dans le panneau. Ils aiment bien Abd Ak Malik à la 2M... Abd Al Malik aime le Maroc lumineux, le Maroc des lumières illuminatis. Abd Al Malik, la voix des lumières.... écoutez les messages et regardez les symboles pour les avertis. httpma-tvideo.france3.frvideoiLyROoaftWPm.html Vous avez vu la photo du cheikh sur le mur ? Bizarre vraiment bizarre tout ça. Le reportage est très bien fait parce quil laisse une belle image et une belle parole pour la fin, on a presque peur de rétorquer tellement les dernières paroles sont justes. Mais la belle image ne vient quà la fin, ce nest pas tout le reportage qui est beau, loin de là. Cest de la grande manipulation. Voici un article publié sur telquel-online.com, à lire absolument !!! La tariqa que fréquente Abd Al Malik..... Reportage. Soufisme ou idolâtrie ? Voyage au royaume du Cheikh Hamza -- httpwww.telquel-online.com268maroc4268.shtml -- Signes et Couleurs dans les interviews télévisés... Tout se rejoint, voici une troublante vidéo dune interview de TF1... En re-visionnant une vidéo que jai postée précédemment sur cet article, jai décelé quelques signes troublants daffiliation d Abd Al Malik à la mystique de la Franc-Maçonnerie. Accrochez-vous bien, voici le lien de la vidéo en question httpwww.dailymotion.comvideox79o5sabd-al-malik-interviewmusic Il est important que vous mettiez parfois la vidéo en plein écran pour pouvoir bien distinguer les détails dont je vous parlerai Le reportage commence à 21 secondes, avec des paroles patriotiques francophiles, une veste bleue blanc rouge, Coq Sportif, la marque au logo pyramidal... Un fond couleur sable... Linterview commence à 27 secondes sous un globe mystique, Abd Al Malik dit un artiste, un rappeur, cest une sorte dOracle, de pythie. Vous savez ce quest un Oracle ?Dans la Grèce antique, un oracle est une réponse d'une divinité à une personne venue la consulter par extension, le terme désigne aussi le lieu où la divinité donnait sa réponse. Il nous dit qu'il nous donne les réponses..Faites attention de ne pas limplorer quand même... httpfr.wikipedia.orgwikiOraclegrec Donc il se sent être un Oracle, une sorte de Pythie ...Cest quoi une Pythie ?? httpfeminaweb.free.frpythie.htm Ça devient très païen là... Il dit donc Un artiste, un rappeur, cest une sorte dOracle, de pythie qui dit des choses qui sont véritablement liés au mouvement de la société, au mouvement du monde... On en revient au nouvel ordre mondial, le nouveau monde... Regardez, quand Abd Al Malik parle du monde, il passe sous un globe. Mais ce n'est pas notre globe non, à qui est-il ? À la seconde 35, il va passer sous les 2 globes mystiques, mettez pause... Pourquoi ces 2 globes ? Pourquoi ces dessins sur le globe ?? Je narrive pas à les distinguer malheureusement donc jaurai du mal à vous dire ce quils représentent mais je vais vous prouver que rien nest anodin tout de même. Toujours est-il que normalement, un globe est un globe, cest la Terre ! Là ce ne sont pas des globes normaux... Ces globes symbolisent, luniversalité, la mondialisation, la globalisation, le nouvel ordre mondial. Figurez vous, quau moment du visionnage de cette vidéo, javais une page ouverte sur mon navigateur internet... la voici..httpcandide.over-blog.frarticle-23641417.html Ça ne vous trouble pas ?? Moi si... Jai remarqué que les couleurs du tablier de franc maçon que lon voit se trouvent être sur le globe en avant plan sur la partie inférieure, regardez le dessin sur le globe, C'est des couleurs qui respectent des codes symboliques chez les Franc Maçons.Pour exemple cette fresque représentant les 33 Degrés de la Franc Maçonnerie... On y retrouve également la lettre G en haut à droite...Regardez le tablier encore ... En voyant le tablier, je n'ai pas pu m'empêcher de penser à cette pochette et à ces couleurs. Mettez le tablier à coté de la pochette, et regardez la similitude avec les deux piliers verts. On dirait que Wallen a aussi deux piliers du même vert de chaque coté de la tête. Les tons sont exactement les mêmes. Son visage représente le temple rose... Wallen est ornée d'un bijoux avec 10 pièces, le tablier est orné d'étoiles aussi entre les deux piliers, et si l'on rejoint les étoiles aux extrémités du reste de l'ornement couleur rouge-rose, on a bien les 10 pièces 8 étoiles 2 extrémités.. Et souvenez vous maintenant des 10 étoiles du logo Beni-Snassen.. Revenons à la vidéo maintenant. Le globe au second plan porte moins de couleurs mais des tons similaires qui saccordent et il y a cette espèce de blanc-jaune couleur sable. Cest EXACTEMENT les mêmes couleurs.. Analysez maintenant les habits dAbd Al Malik.. Jeans bleu, veste beige, Keffieh couleur sable qui tire vers le jaune... On pourrait le fondre au globe tellement il est fashion, vous ne pensez pas ? Troublant non..?? Cest peut être encore une coïncidence.. ?? Jai fini par laisser couler la vidéo.. On enchaîne sur la bibliothèque nationale, ses grands plans larges et sa couleur spéciale qui saccorde parfaitement avec la veste et le keffieh dAbd Al Malik... À 1mn02s, on voit la veste dAbd Al Malik coq sportif bleu blanc rouge puis un enchaînement sur la divine comédie et sa couverture bleue blanc rouge. Arrivé à 1mn15 mettez pause, Abd Al Malik lit un livre, il est assis et regardez quel chiffre on voit derrière lui...Le 33 - représentant les 33 degrés de la Franc Maçonnerie... Et un détail encore, le logo de TF1 se perd dans des livres bleu blanc rouge en bas à gauche.. bizarre non...?? Vous pensez encore que les médias ne sont pas contrôlés par des confréries obscures ? Les journalistes, les monteurs vidéos vous manipulent et vous narguent constamment avec du subliminal, ceci nétait quun exemple qui me semble être bien plus que probant... Analyses de textes... Quels messages révèlent ces chansons ? Et fin Wallen feat Abd Al Malik - Ciao pantin Un morceau sur l'islam, l'islam que nous pratiquons en majorité en France et dans le monde et non pas le soufisme. En fait, elle explique que nous sommes des manipulateurs qui voulions la stopper dans ses rêves rapport music haramislam Alors elle dit qu'elle a coupé les ficelles et elle nous traite de pantins manipulés et manipulateurs...et dire que certaines de vos petites surs écoutent ces messages codés.... Elle dit, c'est ainsi que beaucoup d'entre nous ont fini déçus..., donc déçus de l'islam.. Mais maintenant que nous connaissons ces individus, je vous laisse le loisir de décortiquer le message arrogant. C'est un morceau sur l'islam que nous pratiquons, pas le soufisme, donc maintenant je le dis clairement, il faut boycotter ces gens là.. Wallen - O capitaine mon capitaine Maintenant, voici la présentation sur Dailymotion du morceau de Beni-Snassen, capitaine o capitaine. Wallen ne veut pas dire de quoi elle parle dans son texte, elle est mal à laise, Abdel Malik dit quil est un produit de léducation nationale avec fierté. httpwww.dailymotion.comrelevancesearchcapitaine2Bbenivideox3d25zo-capitaine-moncapitaine-httpbeni Wallen dit O CAPITAINE MON CAPITAINE, ENTRE LES LIGNES MON EXIL - Cela veut-il dire quelle fuit la ligne de front, la ligne de combat et non pas les lignes de feuille. O CAPITAINE MON CAPITAINE, AVANCEZ LE FAUT-IL..?? fuit-elle encore la ligne de front ?? Je me fais mon idée et je lexpose, vous avez bien évidemment votre libre arbitre, il peut arriver parfois que des paroles donnent des messages qui n'étaient pas souhaités... Bon, ce morceau est un gros plagiat déjà, suivez le lien qui suit. Regardez plutôt... httpfr.wikipedia.orgwikiOCaptain!MyCaptain! Pourquoi quand le journaliste pose la question, Wallen ne dit pas doù elle sest inspirée pour écrire ce morceau ? Aurait-t-elle quelque chose à se reprocher ? La-t-elle dit à ses amis du collectif que ce morceau est une reprise dun poème de Walt Whitman. Il fut composé en hommage au président des États-Unis Abraham Lincoln, assassiné en 1865. Un bel hommage à Abraham Lincoln ??? En plus cest pour une cause contre lillettrisme.. Et ils vont leur apprendre quoi aux gamins au Maroc ? Gilles Deleuze ? Lincoln ? Baudelaire ? Rousseau ? Dante ? Ça promet, je préfèrerais rester illettré à vie. Le projet sappelle Un engagement, on aime, on aide ? À faire quoi? À créer un pont entre loccident et le Maroc ? Cest ça aider ? Et une question, comment sinspirer dauteurs aussi minables et aussi dévoués à Abraham Lincoln ? Comment on peut faire un truc pareil ? On dirait le cheitane ce mec là... Abraham Lincoln bien quil fut assassiné faisait également partie de sociétés secrètes comme tous les présidents des États-Unis...Voici quelques pierres montés pour célébrer la grandeur dun des pharaons de notre civilisation.. Que de cultes païens..O CAPITAINE MON CAPITAINE, il y a une allégeance ça cest sur... À qui ? Cest un peu plus complexe à déceler.. Voici les paroles du rap de Wallen à la fin du morceau O capitaine mon capitaine de Béni-Snassen httpwww.dailymotion.comrelevancesearchbeni2Bsnassen2Bcapitainevideox4mn43benisnassen-o-capitaine-mon-capitaimusic Je trouverai la noblesse de mon blason perdu Dis Amen quand même je suis la descendance dAdam Lhorizon a osé sous-estimer la foulée de mon pas trop, trop peu docile Oh faut-il que je gagne ou perde en témérité Faut-il que laube me rappelle ce que jai démérité Jai grandi au milieu des noms doiseaux Le ciel me reviens de droit, conteste si tu loses. Lisez bien les deux dernières phrases et le message qui est envoyé Les noms doiseaux signifient les insultes, cest une expression française. Elle dit quelle a grandi au milieu des insultes, que le ciel lui revient de droit, et elle nous met en garde de contester contre ça. Alors, ce nest pas compliqué, je pense sincèrement que cest toujours du propos visant le musulman qui prêche et qui par la force des choses prévient que lenfer est proche de nous, de nos pêchés, ce qui est complètement logique sinon je ne vois pas lintérêt de prêcher et de faire le rappel si cest pour dire quon sera pardonnés. Ce qui retient lhomme du dérapage, cest la peur, et cest bien pour cela quil y aura un paradis, un enfer et une épreuve. Après en prêchant bien sur il faut savoir parler des deux et de la manière que cela impose en rapport toujours avec linterlocuteur, son niveau de foi, et la situation. Après il nappartient à personne de juger le niveau du pêché et la sentence, de la même manière quil nappartient à personne de juger de notre place dans lau-delà, cest Allah tout puissant qui décide. Elle dit quelle sest fait insulter, cest vrai ou faux, je ne sais pas, en tout cas, elle la ressenti cela comme ça, et elle dit clairement que le ciel lui revient de droit, conteste si tu loses. Alors là par contre, elle a quand même lair sûre delle, ce qui est tout de même grave, et elle met en garde quelquun de contester cela. Bon je conteste quand même, le ciel ne revient de droit à personne, ce nest pas à nous den juger. Voilà pourquoi lalbum sappelle Miséricorde... Miséricorde est un soi-disant message de paix que Wallen nous renvoie. Car Allah est le Miséricordieux, et elle s'accapare cette miséricorde sans savoir si miséricorde lui sera faite. Elle dit ça car elle se dit trop souvent jugée par les musulmans, elle est devenue soufie, c'était plus facile car on y prône à mon sens un respect de tout le monde et de nimporte quoi ou nimporte qui parfois... donc elle fait référence au Miséricordieux en sous-entendant allez y jugez, mais Allah n'est-il pas le Miséricordieux? . Hors qui a dit le contraire ? Nimporte quel musulman sait que Dieu est Miséricordieux. Mais il est très dangereux de brandir la religion sous cette bannière, la preuve, Wallen et Abd Al Malik aiment tout le monde et généralisent tout en pensant que presque tout sera pardonné. Leur message est exactement celui des bouddhistes ou du nouvel ordre mondial, paix, amour, universalisme, humanisme, on est tous pareil etc etc. La religion est bien trop vaste, bien plus que la vie et la mort de toutes créatures pour pouvoir la résumer sous une bannière telle que Miséricorde. C'est exactement les paroles de leur cheikh Sidi Hamza que je cite Aimez toutes les créatures, quelles que soient leur religion, leur race ou leurs opinions ! Chacun est à la place où Dieu l'a mis et il ne nous appartient pas d'en juger. Sidi Hamza al Qâdiri al Boutchichi, Madagh - , guide spirituel de la Tariqa Qadirriyya Boutchichiyya, Islam, Soufisme Si vous avez regardé les vidéos que j'ai postées, Abd Al Malik parle souvent des prêches qu'il faisait avant, en caricaturant les frères qui prêchent. Il dit qu'ils parlent trop de l'enfer, qu'ils font peur aux gens, que lui même partait prêcher à l'époque mais qu'il a compris aujourd'hui qu'il était dans l'égarement. Il dit que le soufisme est le cur de l'islam et qu'il a eu la chance de découvrir le soufisme. Une deuxième reconversion en fait... Donc il faut faire très attention aux frères et surs qui écoutent cela, aux gens susceptibles de se faire manipuler. Jarrête là avec lanalyse de textes de Wallen bien qu'en jetant une oreille avertie sur son album, j'ai bien compris le sens globale du message... Analyse importante du texte 12 Septembre dAbd Al Malik sur lalbum Gibraltar On arrive à un moment très important et à la fin de lanalyse. Redoublons dattention... Déjà, le titre signifie, le lendemain du 11 septembre... Donc chers musulmans apprêtez vous à en prendre plein la figure comme au 12 septembre 2001. Le morceau 12 septembre dAbd Al Malik est une pièce rare dans la lignée directe du siècle des lumières et de leurs pensées. Un morceau qui à mon humble avis na pas été perçu par tous comme il se doit. Maintenant que lanalyse est bien développée, lisez plutôt avec quelle aisance le musulman du monde se fait lyncher... Abd Al Malik - 12 Septembre 2001 OK, UN PEU PLUS DE SON DANS LCASQUE ! OUAIS COMME ÇA CEST BON Alors ça, cest du copiage de Jay-Z, cest Jay-Z qui dit tout le temps cela, et Jay Z est un Franc Maçon très puissant chargé dégarer la jeunesse des USA, ne soyez pas choqués, faites des toutes petites recherches et vous trouverez, je nai pas envie de parler de Jay-Z sinon on rentre dans un autre Da Vince Code... Là ce nest rien, je vous donne juste un détail, vous allez comprendre pourquoi... REFRAIN JAVAIS DÉJÀ UN FLOW DE TARÉ LORSQUE LES TOURS JUMELLES SE SONT EFFONDRÉES, ... JAVAIS DÉJÀ UN FLOW DE DINGUE, LORSQUE LES TOURS JUMELLES SE SONT ÉTEINTES, ... JE FUS CHOQUÉ DANS MON INTIME ET JE VOUS JURE, QUE SI JNAVAIS PAS EU LA FOI, JAURAI EU HONTE DÊTRE MUSLIM Là cest très grave, il est choqué du 11 septembre, il bave sur des musulmans, mais il aime Rafarin, Sarko ou Bush et tout les génocidaires du monde, son cheikh la dit, on est tous des créatures de Dieu, il ne faut pas juger les gens... La preuve... Par contre, il prend son temps pour juger les actes du World Trade Center liés aux musulmans, il caricature, il ne sais même pas qui a perpétré lattentat mais là il a des choses à dire sur les musulmans... Est-ce quon lentend parler sur tout ce que subissent les musulmans dans le monde ?? NON, lui cest sa confrérie et sa foi personnelle qui lui importe, pas plus, pas de communauté au sens large et mondial du terme. Vous voyez le paradoxe? Il est musulman, il est allié au siècle des lumières et à sa ligne de pensée, à des lucifériens, des grands malades, il parle partout où il va de Deleuze, de Dante ou de Derrida mais il ne veut pas sallier aux musulmans. Il divise les musulmans en faisant croire quil réuni les gens de toutes cultures et horizons, excusez-moi mais cest un grand menteur. Il veut nous décloisonner, nous sortir de notre cadre pour quon se mélange tous, avec nimporte qui, même avec des Voltaire ou des Abraham Lincoln. Bon on ne va pas rentrer dans la polémique du World Trade et Al Qaida, bien sûr, tout était manipulation mais ce nest pas le sujet.. On parlera pas du nombre de morts etc, les médias lont déjà trop fait pour nous, et si on parle de cela, on va être obligé de parler du nombre de mort chez les musulmans dans le monde chaque année. Bon cest vrai, ces musulmans qui meurent ne sont pas tous des soufis disciples de la même confrérie, mais bon.. Abd Al Malik pourrait quand même avoir compassion et empathie dans ses textes. Et s'il en a, alors il ne faut pas la cacher, parce quen revanche il ne cache pas son empathie envers les USA. APRÈS ÇA, FALLAIT QUON MONTRE AUX YEUX DU MONDE, QUE NOUS AUSSI NOUS NÉTIONS QUE DES HOMMES, Bon alors là, cest quand même dégueulasse, en gros, on est orgueilleux quand on se soulève contre le grand état bienfaiteur des États-Unis dAmérique. Bravo pour cette sage pensée. Jvais finir par croire quAbd Al Malik aime les soufis et les colons en premier, et les autres musulmans, ben il sen fout. Quand il dit cela, il sous-entend que le musulman qui se rebelle se prend pour Dieu en voulant faire justice lui même. Que de la caricature et de la généralisation... Vous savez donc pourquoi ce morceau était diffusé partout, on continue... QUE SI IL Y AVAIT DES FOUS, LA MAJORITÉ DENTRE NOUS NE MÉLANGEAIT PAS LA POLITIQUE AVEC LA FOI. Alors celle ci, elle est belle aussi... MANIPULATION ! Il parle pour la majorité des musulmans alors quil fonctionne pas en OUMMA, mais il fonctionne en CONFRÉRIE. Il ne va pas vers LES AUTRES, mais il retourne vers LUI MÊME et il appelle LES AUTRES à être comme LUI. Ensuite, lui son truc, cest dissocier la politique de la foi, alors là, cest complètement insensé. On voit dailleurs où tout cela nous mène, suffit dallumer la TV, sortir en ville etc... Le monde athéïsé politiquement parle de lui même. Athéïser le monde cest le Diaboliser, cest aussi simple que ça. La politique daujourdhui va complètement à lencontre du mode de vie des prophètes et de ce que Dieu nous demande dans les livres saints donc, faites votre choix... Mais je nai pas fini sur cette phrase... je re-cite QUE SI IL Y AVAIT DES FOUS, LA MAJORITÉ DENTRE NOUS NE MÉLANGEAIT PAS LA POLITIQUE AVEC LA FOI. Donc chères frères et surs musulmans et musulmanes qui vous intéressez à la politique, vous êtes FOU, voilà ce quil vous dit. Voilà lassociation qui est faite. Il y a des FOUS qui mélangent politique et foi. Donc quand il feront des lois anti-islam, fermez là, on a rien à dire, il ne faut pas mélanger politique et foi.. Sarko est au dessus de Dieu ?? Faut arrêter de dire des conneries pareil, la politique cest la politique de vie, donc cest en rapport direct avec la foi, cest aussi simple que ça. Par contre, quand on le voit sur les plateaux de France 2, TF1, la 2M etc.. Alors là, ça parle de soufisme à tout va.. Il na pas remarqué linstrumentalisation par les politiques ? Ce mec là est une machine de guerre, un appareil dÉtat, il fait de la politique partout où il va !!! Il est là pour ça !! Il la montré, il était heureux et satisfait quand Rafarin la appelé ! Rafarin ce nest pas de la politique ça ?????? LA MAJORITÉ DENTRE NOUS NE MÉLANGEAIT PAS LA POLITIQUE AVEC LA FOI. Il ment aux gens, il dit que la majorité d'entre nous ne mélangent pas politique et religion. Merci de parler pour nous Abd Al Malik ! On ne t'avait rien demandé à la base.. Cest faux ce que tu avances là... REFRAIN APRÈS CELA, ON A TOUS ÉTÉ POINTÉS DU DOIGT ILS SE SONT DEMANDÉS PTETE QUILS SONT TOUS COMME ÇA Un homme aimé de tous sur une terre aussi injuste ne peut être quun hypocrite. Cest impossible dêtre aimé de tous les hommes si on parle avec franchise, sans mensonge. Il parle beaucoup des gens qui nous juge. Mais on s'en fiche des gens qui nous jugent puisquils sont dans l'égarement, on cherche à être bon avec les gens en général mais on nira pas se vendre pour autant, enfin, quand je dis ON, je parle pour moi. Je ne cherche pas à plaire à l'homme égaré même si j'essaierai toujours le dialogue au cas où.. Je ne cherche que la vérité c'est tout. Alors qu'ils nous montrent du doigt, ça ne me dérange pas personnellement, le monde ce n'est pas le paradis, on le sait, on est pas là pour renifler des fleurs du matin jusqu'au soir. Le monde est ultra injuste, ultra violent, on gère comme on peut et le drame sera inévitable... Malheureusement c'est pour très bientôt, alors je le répète, le regard des gens bourrés par TF1, je m'en fous cher Abd Al Malik. DES CANONS SMIRENT À BOMBARDER BAGDAD ET DES CORPS SEFFONDRÈRENT EN ESPAGNE. Bon alors Abd Al Malik, ils arrivent quand les premiers morts musulmans dans ton texte ? Parce que là, les gens vont capter le vice à force.. DES CANONS SMIRENT À BOMBARDER BAGDAD ET DES CORPS SEFFONDRÈRENT EN ESPAGNE. Bagdad est bombardé, mais les morts, cest juste en Espagne les attentats de Madrid... Quand on connaît lindividu, on voit la manipulation. Il parle de bombardement à Bagdad mais pas des morts à Bagdad, et il y a tellement de phrases comme ça dans ses te</t>
+          <t>Ça commence par un moment de flottement quand le soleil recule Un parfum d'hésitation qu'on appelle le crépuscule Les dernières heures du jour sont avalées par l'horizon Pour que la nuit règne sans partage, elle a gagné, elle a raison En fait j'aime cette instant, j'vois le changement d'atmosphère Et si j'y pense un peu j'me demande comment ça peut se faire Ce miracle quotidien, le perpétuel mystère Qui fait qu'en quelques secondes on passe du coté obscur de la terre Voici une note pour la nuit, les nuits, les miennes les tiennes Je ne sais pas comment tu les vis moi mes nuits m'appartiennent Je les regarde je les visite c'est mon royaume mon château Je les aime et c'est tant mieux parce que j'aime pas me coucher tôt J'te parle pas des nuits parisiennes, des lumières et des décibels J'préfère celles du silence et d'la pénombre qui est si belle J'te parle pas des nuits en boite, celles des branleurs et celles des poufs Je préfère les trottoirs vides quand la ville reprend son souffle Comment exprimer ce que la nuit m'inspire Ce qu'elle nous suggère et ce qu elle respire Ce moment d'obscurité qui met en lumière nos fissures L'ambiguïté en manteau noir, la nuit fait peur, la nuit rassure En tout cas c'qui est sur c'est qu'elle influence nos cerveaux Prend pas de grandes décisions la nuit tu sais jamais ce que ça vaut Pourtant elle peut être parfois un moment d' extrême lucidité Et c'est souvent la nuit qu'tu crois détenir la vérité Chaque nuit la suspicion fête son anniversaire Et quand tu croises un mec dans la rue il te matte comme un adversaire Y'a des regards méfiants, menaçants ou pleins de panique En tout cas c'qui est bien la nuit c'est qu' y a personne sur le périphérique Et si t'as pas de voiture surtout loupe pas le dernier métro Sinon tu raques un taxi ou tu dors avec les char-clo Tu découvres alors que la lune n'est pas toujours blonde Tu découvres la vraie nuit, son vrai rythme et son vrai monde C'est vrai que la faune de la nuit est assez particulière Y'a ceux qui taffent ,y'a ceux qui sortent pour voir les putes ou boire une bière La police est là aussi alors on peut se manger quelques claques Quand on répond un peu trop fort lors d'un contrôle de la BAC Dans ta nuit la journée qui vient de finir se reflète Tu fais ton p'tit bilan, journée de galère ou jour de fête Si t'as peur du lendemain tu penses aux proverbes un peu balourds La nuit porte conseil ou bien demain il fera jour Voici une note pour la nuit, douce nuit d'été, ou longue nuit d'hiver Nuit calme et reposée ou nuit trop riche en faits divers Nuit blanche lors d'une nuit noire où même la lune s'est dérobée J' te propose juste quelques photos de notre monde, face B Voici une note pour la nuit qui nous a vu remplir tellement de pages Qu'à cet instant je la fixe sur ma feuille comme un hommage Elle offre au poète tellement d'heures sans bruit A c'qui parait la nuit tous les stylos sont pris1</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>La médaille</t>
+          <t>L’appartement</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Un pigeon est posé Sur l'épaule galonnée Du Maréchal de France Et il a décoré La statue dressée D'une gastrique offense Maréchaux aassins Sur vos bustes d'airain Vos poitrines superbes Vos médailles ne sont que fiente De pigeon d'la merde Un enfant est venu Aux pieds de la statue Du Maréchal de France Une envie naturelle L'a fait pisser contre elle Mais en toute innocence Maréchaux aassins Le môme mine de rien A joliment vengé Les enfants et les mères Que dans vos sales guerres Vous avez massacrés Un clodo s'est couché Une nuit juste aux pieds Du Maréchal de France Ivre mort au matin Il a vomi son vin Dans une gerbe immense Maréchaux aassins Vous ne méritez rien De mieux pour vos méfaits Que cet hommage immonde Pour tout le sang du monde Par vos sabres versé Un couple d'amoureux S'embrasse sous les yeux Du Maréchal de France Muet comme un vieux bonze Il restera de bronze Raide comme une lance Maréchaux aassins L'amour ne vous dit rien À part bien sûr celui De la Patrie hélas Cette idée est dégueulasse Qu'à mon tour je conchie</t>
+          <t>Je voudrais vous parler dun endroit remarquable, absolument épatant Un lieu extraordinaire qui existe depuis longtemps On le trouve un peu partout mais il renferme bien des mystères Ce lieu mystique sappelle L'appartement de célibataire Le célibataire masculin, c'est quand même c'lui que j'connais le mieux C'est un peu toujours le même, qu'il soit jeune ou qu'il soit vieux Je sais de quoi je parle, suivez-moi, vous êtes sous bonne escorte L'appartement est là, il suffit d'ouvrir la porte Ce qu'on remarque tout de suite, sans être un enquêteur C'est que le sol mériterait un bon coup daspirateur C'est pas vraiment que c'est sale mais faut avouer qu'sous nos pieds Quand on marche, on a l'impression davancer sur du gravier Un autre truc flagrant, même si le mec habite là depuis deux ans C'est qu'on croit toujours qu'il vient de faire son déménagement Y a pas de rideaux aux fenêtres et, en gros, la décoration J'crois qu'faut admettre que cest pas sa passion Le célibataire est fier de ses meubles et pourtant tout ce qu'y a C'est un pauvre canapé clic-clac et une table basse Ikéa C'est souvent sur cette table que le courrier attend, bien sage A côté d'une cannette et dun bout d'pizza quatre fromages Bienvenue dans la cuisine, voici l'évier, il est nickel Bon, là, on le voit pas bien, il est sous la pile de vaisselle Je m'en fous, je la ferai demain la phrase est un peu classique Plus tard, le célibataire aura un lave-vaisselle, ou une meuf, les deux sont pratiques Hhhfff, vous reconnaissez ce bruit ? C'est quand on ouvre le frigidaire L'intérieur on dirait une plage de Normandie un soir d'hiver À part deux yaourts et une sauce bolognaise périmée C'est le grand désert, vas-y, referme vite, je suis déprimé! Pas mal la salle de bain et sympa la baignoire Mais, dis-moi, c'est sa vraie couleur là, le gris trottoir? Et l'lavabo c'est pareil, lave-le, ça prend deux s'condes! J'entends Jacob Delafon qui s'retourne au fond d'sa tombe Attention on attaque la chambre, et là, ça cartonne Regarde bien, le lit est fait... Non, je déconne! Par contre, si tu regardes en dessous, il se passe des trucs étonnants Y a tout un écosystème qui est en plein développement Il peut se passer un moment grave, comme un tremblement de terre C'est quand une femme prend ses quartiers dans l'appartement de célibataire Elle opère de p'tits changements, délicatement, sans gros sabots Et y a plein d'produits de beauté qui poussent le long du lavabo C'est toujours ton petit chez toi mais y a un nouveau parfum dans latmosphère Toi, tu aimes cette invasion, tu observes, tu laisses faire Mais même si tu ranges pas plus et que tu laves pas souvent tes draps Elle changera pas tes habitudes, si elle t'aime, elle comprendra</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>La mer et l’enfant</t>
+          <t>La syllabe au rebond</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hébreux 111 Or la foi est une ferme assurance des choses quon espère, une démonstration de celles quon ne voit pas. Hébreux 112 Pour lavoir possédée, les anciens ont obtenu un témoignage favorable. Hébreux 113 Cest par la foi que nous reconnaissons que le monde a été formé par la parole de Dieu, en sorte que ce quon voit na pas été fait de choses visibles. Hébreux 114 Cest par la foi quAbel offrit à Dieu un sacrifice plus excellent que celui de Caïn cest par elle quil fut déclaré juste, Dieu approuvant ses offrandes et cest par elle quil parle encore, quoique mort. Hébreux 115 Cest par la foi quÉnoch fut enlevé pour quil ne vît point la mort, et quil ne parut plus parce Dieu lavait enlevé car, avant son enlèvement, il avait reçu le témoignage quil était agréable à Dieu. Hébreux 116 Or sans la foi il est impossible de lui être agréable car il faut que celui qui sapproche de Dieu croie que Dieu existe, et quil est le rémunérateur de ceux qui le cherchent. 117 Cest par la foi que Noé, divinement averti des choses quon ne voyait pas encore, et saisi dune crainte respectueuse, construisit une arche pour sauver sa famille cest par elle quil condamna le monde, et devint héritier de la justice qui sobtient par la foi. Hébreux 118 Cest par la foi quAbraham, lors de sa vocation, obéit et partit pour un lieu quil devait recevoir en héritage, et quil partit sans savoir où il allait. Hébreux 119 Cest par la foi quil vint sétablir dans la terre promise comme dans une terre étrangère, habitant sous des tentes, ainsi quIsaac et Jacob, les cohéritiers de la même promesse. Hébreux 1110 Car il attendait la cité qui a de solides fondements, celle dont Dieu est larchitecte et le constructeur. Hébreux 1111 Cest par la foi que Sara elle-même, malgré son âge avancé, fut rendue capable davoir une postérité, parce quelle crut à la fidélité de celui qui avait fait la promesse. Hébreux 1112 Cest pourquoi dun seul homme, déjà usé de corps, naquit une postérité nombreuse comme les étoiles du ciel, comme le sable qui est sur le bord de la mer et quon ne peut compter. Hébreux 1113 Cest dans la foi quils sont tous morts, sans avoir obtenu les choses promises mais ils les ont vues et saluées de loin, reconnaissant quils étaient étrangers et voyageurs sur la terre. Hébreux 1114 Ceux qui parlent ainsi montrent quils cherchent une patrie. Hébreux 1115 Sils avaient eu en vue celle doù ils étaient sortis, ils auraient eu le temps dy retourner. Hébreux 1116 Mais maintenant ils en désirent une meilleure, cest-à-dire une céleste. Cest pourquoi Dieu na pas honte dêtre appelé leur Dieu, car il leur a préparé une cité. Hébreux 1117 Cest par la foi quAbraham offrit Isaac, lorsquil fut mis à lépreuve, et quil offrit son fils unique, lui qui avait reçu les promesses, Hébreux 1118 et à qui il avait été dit En Isaac sera nommée pour toi une postérité. Hébreux 1119 Il pensait que Dieu est puissant, même pour ressusciter les morts aussi le recouvra-t-il par une sorte de résurrection. Hébreux 1120 Cest par la foi quIsaac bénit Jacob et Ésaü, en vue des choses à venir. Hébreux 1121 Cest par la foi que Jacob mourant bénit chacun des fils de Joseph, et quil adora, appuyé sur lextrémité de son bâton. Hébreux 1122 Cest par la foi que Joseph mourant fit mention de la sortie des fils dIsraël, et quil donna des ordres au sujet de ses os. Hébreux 1123 Cest par la foi que Moïse, à sa naissance, fut caché pendant trois mois par ses parents, parce quils virent que lenfant était beau, et quils ne craignirent pas lordre du roi. Hébreux 1124 Cest par la foi que Moïse, devenu grand, refusa dêtre appelé fils de la fille de Pharaon, Hébreux 1125 aimant mieux être maltraité avec le peuple de Dieu que davoir pour un temps la jouissance du péché, Hébreux 1126 regardant lopprobre de Christ comme une richesse plus grande que les trésors de lÉgypte, car il avait les yeux fixés sur la rémunération. Hébreux 1127 Cest par la foi quil quitta lÉgypte, sans être effrayé de la colère du roi car il se montra ferme, comme voyant celui qui est invisible. Hébreux 1128 Cest par la foi quil fit la Pâque et laspersion du sang, afin que lexterminateur ne touchât pas aux premiers-nés des Israélites. Hébreux 1129 Cest par la foi quils traversèrent la mer Rouge comme un lieu sec, tandis que les Égyptiens qui en firent la tentative furent engloutis. Hébreux 1130 Cest par la foi que les murailles de Jéricho tombèrent, après quon en eut fait le tour pendant sept jours. Hébreux 1131 Cest par la foi que Rahab la prostituée ne périt pas avec les rebelles, parce quelle avait reçu les espions avec bienveillance. Hébreux 1132 Et que dirai-je encore? Car le temps me manquerait pour parler de Gédéon, de Barak, de Samson, de Jephthé, de David, de Samuel, et des prophètes, Hébreux 1133 qui, par la foi, vainquirent des royaumes, exercèrent la justice, obtinrent des promesses, fermèrent la gueule des lions, Hébreux 1134 éteignirent la puissance du feu, échappèrent au tranchant de lépée, guérirent de leurs maladies, furent vaillants à la guerre, mirent en fuite des armées étrangères. Hébreux 1135 Des femmes recouvrèrent leurs morts par la résurrection dautres furent livrés aux tourments, et nacceptèrent point de délivrance, afin dobtenir une meilleure résurrection Hébreux 1136 dautres subirent les moqueries et le fouet, les chaînes et la prison Hébreux 1137 ils furent lapidés, sciés, torturés, ils moururent tués par lépée, ils allèrent çà et là vêtus de peaux de brebis et de peaux de chèvres, dénués de tout, persécutés, maltraités, Hébreux 1138 eux dont le monde nétait pas digne, errants dans les déserts et les montagnes, dans les cavernes et les antres de la terre. Hébreux 1139 Tous ceux-là, à la foi desquels il a été rendu témoignage, nont pas obtenu ce qui leur était promis, Hébreux 1140 Dieu ayant en vue quelque chose de meilleur pour nous, afin quils ne parvinssent pas sans nous à la perfection.</t>
+          <t>Après l'époque du ballon, j'ai cherché un temps pas long Puis j'ai quitté mon salon pour bien voir c'que nous valons Alors j'ai posé des jalons dans l'son, j'ai pris du galon Parlons peu, slamons bien, des rimes jusque dans les talons Comme un gentil egotrip, j'ai trouvé comment commencer Plus de ballon, les bras ballants, mais des histoires à balancer Qu'on pense ou qu'on pense pas, j'ai mis des phrases en condensé Qu'on danse ou qu'on danse pas, j'ai fait tout ça pour compenser Alors une passion à pallier, c'est pas simple, on peut pas nier J'ai accepté par paliers de ne plus mettre des paniers Je n'suis plus derrière la ligne à trois points et sa tension Je suis devant les interlignes, j'y mets trois points de suspension J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai mis des shoots de verbes, des lancers-francs d'adjectifs J'y ai mis toute ma verve, tout ça est très addictif Je suis en phase offensive et la démarche évolue J'ai reçu des passes décisives de musiciens reconnus J'ai feinté les assonances et dribblé chaque terminaison J'ai réalisé ma chance, pourtant, je suis qu'à mi-saison J'ai pas eu peur du contre, et j'ai smashé en lévitant On dit bien slam dunk le parallèle est évident à la mi-temps, j'étais un statut d'intermittent Un tiers mytho, un tiers mutant, un tiers citant des vers chantant Le money time est excitant, j'y crois jusqu'au dernier quart-temps Un rien distant mais persistant, je joue la rime à chaque instant J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai voulu transposer pour que le match devienne ma scène La pression a explosé comme une drogue jamais malsaine Je me suis exposé pour qu'le public devienne jury C'est fort et c'est un danger, comme un shoot de Stephen Curry C'est au public, et à lui seul, que revient le droit de m'arbitrer Quand il kiffe, quand il gueule, y'a pas moyen de m'abriter Immobile ou bondissant, qu'il me clashe ou qu'il me donne C'est agile et c'est puissant, comme un smash de LeBron En moins d'vingt-quatre secondes, je dois tirer mon couplet Et, si jamais le coup plaît, le bonheur sera complet J'propose des vers un peu bizarres, j'ai le micro dans l'viseur Poseur de textes un peu bavard, j'ai mis un refrain au buzzeur J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>La nuit</t>
+          <t>La traversée</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ça commence par un moment de flottement quand le soleil recule Un parfum d'hésitation qu'on appelle le crépuscule Les dernières heures du jour sont avalées par l'horizon Pour que la nuit règne sans partage, elle a gagné, elle a raison En fait j'aime cette instant, j'vois le changement d'atmosphère Et si j'y pense un peu j'me demande comment ça peut se faire Ce miracle quotidien, le perpétuel mystère Qui fait qu'en quelques secondes on passe du coté obscur de la terre Voici une note pour la nuit, les nuits, les miennes les tiennes Je ne sais pas comment tu les vis moi mes nuits m'appartiennent Je les regarde je les visite c'est mon royaume mon château Je les aime et c'est tant mieux parce que j'aime pas me coucher tôt J'te parle pas des nuits parisiennes, des lumières et des décibels J'préfère celles du silence et d'la pénombre qui est si belle J'te parle pas des nuits en boite, celles des branleurs et celles des poufs Je préfère les trottoirs vides quand la ville reprend son souffle Comment exprimer ce que la nuit m'inspire Ce qu'elle nous suggère et ce qu elle respire Ce moment d'obscurité qui met en lumière nos fissures L'ambiguïté en manteau noir, la nuit fait peur, la nuit rassure En tout cas c'qui est sur c'est qu'elle influence nos cerveaux Prend pas de grandes décisions la nuit tu sais jamais ce que ça vaut Pourtant elle peut être parfois un moment d' extrême lucidité Et c'est souvent la nuit qu'tu crois détenir la vérité Chaque nuit la suspicion fête son anniversaire Et quand tu croises un mec dans la rue il te matte comme un adversaire Y'a des regards méfiants, menaçants ou pleins de panique En tout cas c'qui est bien la nuit c'est qu' y a personne sur le périphérique Et si t'as pas de voiture surtout loupe pas le dernier métro Sinon tu raques un taxi ou tu dors avec les char-clo Tu découvres alors que la lune n'est pas toujours blonde Tu découvres la vraie nuit, son vrai rythme et son vrai monde C'est vrai que la faune de la nuit est assez particulière Y'a ceux qui taffent ,y'a ceux qui sortent pour voir les putes ou boire une bière La police est là aussi alors on peut se manger quelques claques Quand on répond un peu trop fort lors d'un contrôle de la BAC Dans ta nuit la journée qui vient de finir se reflète Tu fais ton p'tit bilan, journée de galère ou jour de fête Si t'as peur du lendemain tu penses aux proverbes un peu balourds La nuit porte conseil ou bien demain il fera jour Voici une note pour la nuit, douce nuit d'été, ou longue nuit d'hiver Nuit calme et reposée ou nuit trop riche en faits divers Nuit blanche lors d'une nuit noire où même la lune s'est dérobée J' te propose juste quelques photos de notre monde, face B Voici une note pour la nuit qui nous a vu remplir tellement de pages Qu'à cet instant je la fixe sur ma feuille comme un hommage Elle offre au poète tellement d'heures sans bruit A c'qui parait la nuit tous les stylos sont pris1</t>
+          <t>Cest moi qui tiens le ptit troquet de ce côté-ci de la place Jai des clients fidèles, des piliers de bar et de terrasse Je garde un mot et un sourire pour chacun deux, cest mon métier Mais je nai dyeux que pour elle, cest la plus jolie du quartier Assise, les jambes croisées, de grands yeux verts comme des calots Elle aime rester dehors et siroter sa menthe à leau Mais cest la fin daprès-midi et quand le soleil sétire Toute ma terrasse se met à lombre et je vois la belle partir Cest moi qui tiens le grand café De lautre coté de la place Quand vient la fin de la journée Jrécupère les clients den face Car le soleil de 18 heures Inonde mes tables et nos visages Imaginez mon bonheur Quand vient la plus belle du village Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Je reste muet les pieds cloués, les bras ballants, la mort dans lâme Car comme chaque jour, le soleil a réorienté ses flammes Alors la belle ma laissé là, seul dans ma peine et ma pénombre Je vois sa silhouette rétrécir et séclairer dans lautre monde Je prends le soleil dans les yeux Celui qui dessine les contours De celle qui remplit tous mes vux Lamour sapproche à contre-jour Puis elle sassoie de toute sa classe Croise ses jambes interminables Elle est à moi sur ma terrasse Je toise au loin lautre minable Mes yeux la suivent nerveusement, elle a repris une menthe à leau Je vois le sourire arrogant du gars den face, le vieux salaud Tant qule soleil se couche à louest, je serai le perdant de ce jeu À moins quun jour jose le geste, au grand café mettre le feu Ombre contre soleil, cette traversée dure depuis la Rome antique Les belles femmes aiment la lumière Ny voyez pas de symbolique Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois, je la vois Je la vois</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>L’appartement</t>
+          <t>Le banc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Je voudrais vous parler dun endroit remarquable, absolument épatant Un lieu extraordinaire qui existe depuis longtemps On le trouve un peu partout mais il renferme bien des mystères Ce lieu mystique sappelle L'appartement de célibataire Le célibataire masculin, c'est quand même c'lui que j'connais le mieux C'est un peu toujours le même, qu'il soit jeune ou qu'il soit vieux Je sais de quoi je parle, suivez-moi, vous êtes sous bonne escorte L'appartement est là, il suffit d'ouvrir la porte Ce qu'on remarque tout de suite, sans être un enquêteur C'est que le sol mériterait un bon coup daspirateur C'est pas vraiment que c'est sale mais faut avouer qu'sous nos pieds Quand on marche, on a l'impression davancer sur du gravier Un autre truc flagrant, même si le mec habite là depuis deux ans C'est qu'on croit toujours qu'il vient de faire son déménagement Y a pas de rideaux aux fenêtres et, en gros, la décoration J'crois qu'faut admettre que cest pas sa passion Le célibataire est fier de ses meubles et pourtant tout ce qu'y a C'est un pauvre canapé clic-clac et une table basse Ikéa C'est souvent sur cette table que le courrier attend, bien sage A côté d'une cannette et dun bout d'pizza quatre fromages Bienvenue dans la cuisine, voici l'évier, il est nickel Bon, là, on le voit pas bien, il est sous la pile de vaisselle Je m'en fous, je la ferai demain la phrase est un peu classique Plus tard, le célibataire aura un lave-vaisselle, ou une meuf, les deux sont pratiques Hhhfff, vous reconnaissez ce bruit ? C'est quand on ouvre le frigidaire L'intérieur on dirait une plage de Normandie un soir d'hiver À part deux yaourts et une sauce bolognaise périmée C'est le grand désert, vas-y, referme vite, je suis déprimé! Pas mal la salle de bain et sympa la baignoire Mais, dis-moi, c'est sa vraie couleur là, le gris trottoir? Et l'lavabo c'est pareil, lave-le, ça prend deux s'condes! J'entends Jacob Delafon qui s'retourne au fond d'sa tombe Attention on attaque la chambre, et là, ça cartonne Regarde bien, le lit est fait... Non, je déconne! Par contre, si tu regardes en dessous, il se passe des trucs étonnants Y a tout un écosystème qui est en plein développement Il peut se passer un moment grave, comme un tremblement de terre C'est quand une femme prend ses quartiers dans l'appartement de célibataire Elle opère de p'tits changements, délicatement, sans gros sabots Et y a plein d'produits de beauté qui poussent le long du lavabo C'est toujours ton petit chez toi mais y a un nouveau parfum dans latmosphère Toi, tu aimes cette invasion, tu observes, tu laisses faire Mais même si tu ranges pas plus et que tu laves pas souvent tes draps Elle changera pas tes habitudes, si elle t'aime, elle comprendra</t>
+          <t>Je n'sais pas depuis combien de temps je suis assis sur ce banc Une bonne heure ou vingt minutes, le spectacle est absorbant J'observe les gens qui passent, moi je me sens à peine là J'écoute le vent qui trace dans son murmure acapela Rester assis sur un banc c'est tout un savoir faire C'est maîtriser les mouvements qu'il faut savoir taire C'est assumer et afficher son pouvoir de paresse Le sentir comme une caresse, chasser les crampes qui apparaissent Moi j'ai de bonnes capacités dans ma force d'inertie Il faut savoir en profiter, pouvoir lui dire merci Être assis sur un banc au beau milieu du décor C'est être au cur de la vie, mais surtout être en dehors C'est de cette cachette ouverte que j'observe mon petit monde Laissant agir à découvert la nonchalance qui m'inonde Je n'sais pas depuis combien de temps je suis assis sur ce banc Je regarde les gens pressés, et puis ceux qui font semblant Face à cette scène de théâtre, je n'peux plus m'arrêter Je savoure l'espèce humaine dans son immense variété J'aime les vieux, les gros, les moches, les grandes gueules et les discrets Les vénères, les beaux gosses, les précis et les distraits Un enfant apparaît au loin, agitant un p'tit bâton En plein combat féroce contre une bonne dizaine de dragons Il se moque bien des regards dans son délire d'innocence Et disparaît à toute allure, presque aussi vite que l'enfance Une belle femme entre à présent dans mon champ de vision De grands yeux clairs, un regard sûr, elle semble sourire sans raison Je l'a regarde quand elle s'approche, elle marche avec délicatesse Je l'a regarde quand elle s'éloigne pour admirer ses jolies tresses Une autre revient des courses, elle est chargée comme une mule Le visage fermé, le regard presque aussi triste que son pull Elle porte tout le poids de la routine dans chacun de ses mouvements À moins que ce soit l'poids des sacs, j'extrapole un peu surement Mais regarder les gens passer c'est ne les connaître que vingt secondes Il faut alors imaginer toute une histoire qui corresponde Comme ces deux jeunes qui parlent en slave, surement des espions russes Où peut-être juste deux étudiants en échange Erasmus Alors j'arrête une minute de pousser mon imagination Pour admirer le dernier style de la nouvelle génération Des jeans slims et des coiffures comme dans les clips tard le soir J'ai un peu d'mal à comprendre, j'crois que je suis en train de devenir ringard Il va falloir que j'me relève, il va être l'heure de se retirer Je jette un dernier regard panoramique pour m'inspirer Y'a un vieux qui regarde devant et son p'tit fils qui regarde derrière C'est peut-être un symbole d'un monde qui marche à l'envers Je reprends ma route et mes projets, c'est qu'il y'a du pain sur la planche On a des années à construire, des ambitions sur chaque branche Mais chaque fois qu'il y'en aura marre de se vouloir trop exigeant Il nous restera ça, un banc pour regarder les gens</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>La syllabe au rebond</t>
+          <t>Le blues de l’instituteur</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Après l'époque du ballon, j'ai cherché un temps pas long Puis j'ai quitté mon salon pour bien voir c'que nous valons Alors j'ai posé des jalons dans l'son, j'ai pris du galon Parlons peu, slamons bien, des rimes jusque dans les talons Comme un gentil egotrip, j'ai trouvé comment commencer Plus de ballon, les bras ballants, mais des histoires à balancer Qu'on pense ou qu'on pense pas, j'ai mis des phrases en condensé Qu'on danse ou qu'on danse pas, j'ai fait tout ça pour compenser Alors une passion à pallier, c'est pas simple, on peut pas nier J'ai accepté par paliers de ne plus mettre des paniers Je n'suis plus derrière la ligne à trois points et sa tension Je suis devant les interlignes, j'y mets trois points de suspension J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai mis des shoots de verbes, des lancers-francs d'adjectifs J'y ai mis toute ma verve, tout ça est très addictif Je suis en phase offensive et la démarche évolue J'ai reçu des passes décisives de musiciens reconnus J'ai feinté les assonances et dribblé chaque terminaison J'ai réalisé ma chance, pourtant, je suis qu'à mi-saison J'ai pas eu peur du contre, et j'ai smashé en lévitant On dit bien slam dunk le parallèle est évident à la mi-temps, j'étais un statut d'intermittent Un tiers mytho, un tiers mutant, un tiers citant des vers chantant Le money time est excitant, j'y crois jusqu'au dernier quart-temps Un rien distant mais persistant, je joue la rime à chaque instant J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai voulu transposer pour que le match devienne ma scène La pression a explosé comme une drogue jamais malsaine Je me suis exposé pour qu'le public devienne jury C'est fort et c'est un danger, comme un shoot de Stephen Curry C'est au public, et à lui seul, que revient le droit de m'arbitrer Quand il kiffe, quand il gueule, y'a pas moyen de m'abriter Immobile ou bondissant, qu'il me clashe ou qu'il me donne C'est agile et c'est puissant, comme un smash de LeBron En moins d'vingt-quatre secondes, je dois tirer mon couplet Et, si jamais le coup plaît, le bonheur sera complet J'propose des vers un peu bizarres, j'ai le micro dans l'viseur Poseur de textes un peu bavard, j'ai mis un refrain au buzzeur J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond J'ai pris la syllabe au rebond</t>
+          <t>Allez entrez les enfants et arrêtez de vous chamailler Avancez dans le calme je sais que vous en êtes capable Asseyez tranquillement, chacun sa place, ça y est Ecoutez-moi mais ce matin, n'ouvrez pas vos cartables On va pas faire de grammaire, de géométrie et de conjugaison On parlera pas de compléments d'objet et encore moins de Pythagore Ce matin pas de contrôle et personne n'aura raison Aujourd'hui aucunes notes et personne n'aura tort Les enfants écoutez-moi, je crois que je ne vais pas bien J'ai mal quand je vois le monde et les Hommes me font peur Les enfants expliquez-moi, moi je ne comprends plus rien Pourquoi tant d'injustice, de souffrance et de malheur Hier soir une fois de trop j'ai allumé la télévision Sur les coups de vingt heure, c'était les informations Et tout à coup dans la pièce s'est produit comme une invasion De pleurs et de douleurs, c'était pire qu'une agression Hier soir l'actualité comptait beaucoup plus de morts Que de cheveux sur le crâne de Patrick Poivre d'Arvor Et c'est comme ça tous les jours un peu partout sur Terre J'crois qu'il fait pas bon vivre au troisième millénaire Comme aux pires heures de l'Histoire, les hommes se font la guerre Des soldats sentre tuent sans même savoir pourquoi S'ils s'étaient mieux connus, ils pourraient être frères Mais leurs présidents se sentaient les plus forts c'est comme ça Et puis il y a toutes ces religions qui prônent chacune l'amour Et qui fabriquent de la haine, des assassins, des terroristes Pour telle ou telle croyance, des innocents meurent chaque jour Tout ça au nom de Dieu...On sait même pas s'il existe Les enfants désolé, on vous laisse l'Humain en sale état Il faut que vous le sachiez alors aujourd'hui j'essaie Les certitudes des grandes personnes provoquent parfois des dégâts En fait l'adulte est un grand enfant qui croit qu'il sait J'ai mal au ventre les enfants quand je vois l'argent mis dans les armes Dans les fusées, les sous-marins et dans les porte-avions Pendant que des peuples entiers manquent d'eau, comme nos yeux manquent de larmes Et voient leur fils et leur filles mourir de malnutrition Apparemment la nature elle-même a du mal à se nourrir Les homme sont pollués l'air et même pourris la pluie Quand tu auras plus d'eau nul part, faudra garder le sourire Et même l'odeur des forêts sera tombée dans l'oubli Les enfants vous savez ce que c'est des ressources naturelles ? Si vous savez pas c'est pas grave de toute façon y'en a presque plus Les mots humain et gaspillage sont des synonymes éternels L'écologie à l'école serait pas une matière superflue Les enfants désolé on vous laisse la Terre en sale état Et bientôt sur notre planète on va se sentir à l'étroit Gardez vos doutes, vous seuls pourrez nous sortir de là L'enfant est un petit adulte qu'il sait qu'il croit Bah alors les enfants vous êtes bien sages tout à coup J'ai un peu cassé l'ambiance mais je voulais pas vous faire peur Ce que je veux vous faire comprendre c'est que je compte sur vous Ne suivez pas notre exemple et promettez moi un monde meilleur Allez les enfants c'est déjà l'heure de la récréation Allez courir dans la cour, défoulez-vous, profitez-en Criez même si vous le voulez vous avez ma permission Mais surtout couvrez-vous bien, dehors il y a du vent2</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>La traversée</t>
+          <t>Le jour d’après</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cest moi qui tiens le ptit troquet de ce côté-ci de la place Jai des clients fidèles, des piliers de bar et de terrasse Je garde un mot et un sourire pour chacun deux, cest mon métier Mais je nai dyeux que pour elle, cest la plus jolie du quartier Assise, les jambes croisées, de grands yeux verts comme des calots Elle aime rester dehors et siroter sa menthe à leau Mais cest la fin daprès-midi et quand le soleil sétire Toute ma terrasse se met à lombre et je vois la belle partir Cest moi qui tiens le grand café De lautre coté de la place Quand vient la fin de la journée Jrécupère les clients den face Car le soleil de 18 heures Inonde mes tables et nos visages Imaginez mon bonheur Quand vient la plus belle du village Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Je reste muet les pieds cloués, les bras ballants, la mort dans lâme Car comme chaque jour, le soleil a réorienté ses flammes Alors la belle ma laissé là, seul dans ma peine et ma pénombre Je vois sa silhouette rétrécir et séclairer dans lautre monde Je prends le soleil dans les yeux Celui qui dessine les contours De celle qui remplit tous mes vux Lamour sapproche à contre-jour Puis elle sassoie de toute sa classe Croise ses jambes interminables Elle est à moi sur ma terrasse Je toise au loin lautre minable Mes yeux la suivent nerveusement, elle a repris une menthe à leau Je vois le sourire arrogant du gars den face, le vieux salaud Tant qule soleil se couche à louest, je serai le perdant de ce jeu À moins quun jour jose le geste, au grand café mettre le feu Ombre contre soleil, cette traversée dure depuis la Rome antique Les belles femmes aiment la lumière Ny voyez pas de symbolique Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois sapprocher Oh, cest la traversée Oh, je la vois séloigner Oh, cest la traversée Oh, je la vois, je la vois Je la vois</t>
+          <t>Elle a neuf ans, pourtant, elle n'a plus une vie d'enfant Elle vit depuis des mois entre ces quatre murs blancs Elle sait bien ce qu'elle a et elle sait bien ce qu'elle veut Elle a perdu du poids, elle a perdu ses cheveux Elle enchaîne les soins, les traitements, ls protocoles Pendant qu'tous ses copains jount dans la cour d'école Elle donnerait tout pour les rejoindre quelques heures Parfois, elle en crie, souvent, elle en pleure Patience et courage, lui répètent ses parents Ils se le disent à eux aussi, le soir, en se séparant De la patience, elle en trouve et son courage et palpable Elle puise une force dont seuls les enfants sont capables Alors, elle rigole, elle s'invente des histoires Elle ne pense qu'à l'avenir, elle s'invente des espoirs La guerrière va guérir, la vraie vie est tout près Du haut de sa tour d'ivoire, elle regarde le jour d'après Vingt ans qu'il travaillait dans cette cuisine Viré du jour au lendemain par une lettre anonyme Rachetée par un grand groupe, une histoire d'actionnaires Ils sont plusieurs dans son cas, tragédie ordinaire Avec les traites à payer, les piles de factures Il a vite décidé de revendre sa voiture Mais sans elle et sans diplôme, loin des codes et loin de la ville À cinquante ans, retrouver du travail est difficile C'est l'escalade de la misère, spirale infernale Il est expulsé de son appart avant la trêve hivernale Les premières nuits dans la rue ont été les plus dures Mais ensuite, bizarrement, il n'a plus craint son futur Il puise une force que les rescapés connaissent bien Il se dit qu'on a plus peur dès lors qu'on a plus rien Il va bientôt s'en sortir, il le sent, il est prêt Il cherche une formation et regarde le jour d'après Il revient en scooter d'la soirée d'ses vingt ans La faute à un chauffard, la faute au mauvais temps Ça n'arrive pas qu'aux autres, ce n'est pas une légende Après son accident, on lui ampute les deux jambes Il passa un an à repenser à ce soir-là Puis cesse de ressasser ces histoires de karma Avec ses jambes en carbone, l'avenir devient concret Il veut même refaire du sport et regarde le jour d'après À tous les usés, les accidentés de parcours Les fragilisés, les malchanceux d'un jour Ceux qui n'ont pas le choix, les guerriers imposés Ceux qui portent leur croix, les héros obligés Ceux qui refusent leur sort et qui changent leur histoire Et ceux qui transforment l'envie de croire en victoire À ceux dont l'avenir est parfois en sursis Ceux qui voient le jour d'après Et ceux qui n'ont pas réussi</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Le banc</t>
+          <t>Le jour se lève</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Je n'sais pas depuis combien de temps je suis assis sur ce banc Une bonne heure ou vingt minutes, le spectacle est absorbant J'observe les gens qui passent, moi je me sens à peine là J'écoute le vent qui trace dans son murmure acapela Rester assis sur un banc c'est tout un savoir faire C'est maîtriser les mouvements qu'il faut savoir taire C'est assumer et afficher son pouvoir de paresse Le sentir comme une caresse, chasser les crampes qui apparaissent Moi j'ai de bonnes capacités dans ma force d'inertie Il faut savoir en profiter, pouvoir lui dire merci Être assis sur un banc au beau milieu du décor C'est être au cur de la vie, mais surtout être en dehors C'est de cette cachette ouverte que j'observe mon petit monde Laissant agir à découvert la nonchalance qui m'inonde Je n'sais pas depuis combien de temps je suis assis sur ce banc Je regarde les gens pressés, et puis ceux qui font semblant Face à cette scène de théâtre, je n'peux plus m'arrêter Je savoure l'espèce humaine dans son immense variété J'aime les vieux, les gros, les moches, les grandes gueules et les discrets Les vénères, les beaux gosses, les précis et les distraits Un enfant apparaît au loin, agitant un p'tit bâton En plein combat féroce contre une bonne dizaine de dragons Il se moque bien des regards dans son délire d'innocence Et disparaît à toute allure, presque aussi vite que l'enfance Une belle femme entre à présent dans mon champ de vision De grands yeux clairs, un regard sûr, elle semble sourire sans raison Je l'a regarde quand elle s'approche, elle marche avec délicatesse Je l'a regarde quand elle s'éloigne pour admirer ses jolies tresses Une autre revient des courses, elle est chargée comme une mule Le visage fermé, le regard presque aussi triste que son pull Elle porte tout le poids de la routine dans chacun de ses mouvements À moins que ce soit l'poids des sacs, j'extrapole un peu surement Mais regarder les gens passer c'est ne les connaître que vingt secondes Il faut alors imaginer toute une histoire qui corresponde Comme ces deux jeunes qui parlent en slave, surement des espions russes Où peut-être juste deux étudiants en échange Erasmus Alors j'arrête une minute de pousser mon imagination Pour admirer le dernier style de la nouvelle génération Des jeans slims et des coiffures comme dans les clips tard le soir J'ai un peu d'mal à comprendre, j'crois que je suis en train de devenir ringard Il va falloir que j'me relève, il va être l'heure de se retirer Je jette un dernier regard panoramique pour m'inspirer Y'a un vieux qui regarde devant et son p'tit fils qui regarde derrière C'est peut-être un symbole d'un monde qui marche à l'envers Je reprends ma route et mes projets, c'est qu'il y'a du pain sur la planche On a des années à construire, des ambitions sur chaque branche Mais chaque fois qu'il y'en aura marre de se vouloir trop exigeant Il nous restera ça, un banc pour regarder les gens</t>
+          <t>Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour D'assumer nos rêves, d'en récolter la sève pour les graver dans chaque mur de pierre Le jour se lève et même si ça brûle les yeux, on ouvrira grand nos paupières Il a fait nuit trop longtemps et avancer sans lumière nous a souvent fait tâtonner Personne à pardonner, si on est là aujourd'hui, c'est juste qu'on n'a pas abandonné On a cherché la lueur de l'aube en sachant qu'elle avait la couleur de l'espoir On s'est armé de nos stylos pour écrire nous-mêmes la suite de toute cette histoire Le jour se lève, sort de sa grève, c'est grave à quel point la nuit a été agitée On en a de belles à raconter, même si j'imagine que ça sera sûrement loin de tes JT Le soleil éclaire notre papier qu'on avait gratté dans l'ombre pendant toute la nuit La chaleur fait couler l'encre, nos mots quittent nos cahiers, nos voix sortent de l'ennui Alors nous allons prendre la parole, monter sur scène pour un moment, j'espère que t'en as conscience Finies la patience et la méfiance, on s'offre simplement avec l'écriture une renaissance Le jour se lève et son glaive de lave nous lave des peines et douleurs du passé Notre avenir est lancé... Tu nous écouteras et diras franchement ce que t'en as pensé Le jour se lève et la joie se livre, la soif se lit sur nos lèvres, tu devrais nous suivre Si notre heure est brève, nous allons quand même la vivre Nous ne sommes pas bons élèves, mais l'envie nous enivre Alors à ton tour ouvre les yeux, approche-toi et observe avec curiosité Le souffle et l'enthousiasme d'une brigade de poètes sortis tout droit de l'obscurité Ne prends pas ça pour de l'arrogance, mais on sent que c'est notre heure et ça fait du bien Notre passion va nous nourrir et je vais retrouver le sourire dans le regard de tous les miens Le jour se lève, on le doit peut-être qu'à nous et quand je dis ça, c'est pas juste une métaphore Le jour se lève et si ça se trouve, c'est uniquement parce qu'on l'a espéré assez fort Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour Notre futur est incertain, c'est vrai que ces deux mots-là vont toujours de pair Mais notre jour s'est bien levé, dorénavant il sera difficile de nous faire taire</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Le blues de l’instituteur</t>
+          <t>Le langage du corps</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Allez entrez les enfants et arrêtez de vous chamailler Avancez dans le calme je sais que vous en êtes capable Asseyez tranquillement, chacun sa place, ça y est Ecoutez-moi mais ce matin, n'ouvrez pas vos cartables On va pas faire de grammaire, de géométrie et de conjugaison On parlera pas de compléments d'objet et encore moins de Pythagore Ce matin pas de contrôle et personne n'aura raison Aujourd'hui aucunes notes et personne n'aura tort Les enfants écoutez-moi, je crois que je ne vais pas bien J'ai mal quand je vois le monde et les Hommes me font peur Les enfants expliquez-moi, moi je ne comprends plus rien Pourquoi tant d'injustice, de souffrance et de malheur Hier soir une fois de trop j'ai allumé la télévision Sur les coups de vingt heure, c'était les informations Et tout à coup dans la pièce s'est produit comme une invasion De pleurs et de douleurs, c'était pire qu'une agression Hier soir l'actualité comptait beaucoup plus de morts Que de cheveux sur le crâne de Patrick Poivre d'Arvor Et c'est comme ça tous les jours un peu partout sur Terre J'crois qu'il fait pas bon vivre au troisième millénaire Comme aux pires heures de l'Histoire, les hommes se font la guerre Des soldats sentre tuent sans même savoir pourquoi S'ils s'étaient mieux connus, ils pourraient être frères Mais leurs présidents se sentaient les plus forts c'est comme ça Et puis il y a toutes ces religions qui prônent chacune l'amour Et qui fabriquent de la haine, des assassins, des terroristes Pour telle ou telle croyance, des innocents meurent chaque jour Tout ça au nom de Dieu...On sait même pas s'il existe Les enfants désolé, on vous laisse l'Humain en sale état Il faut que vous le sachiez alors aujourd'hui j'essaie Les certitudes des grandes personnes provoquent parfois des dégâts En fait l'adulte est un grand enfant qui croit qu'il sait J'ai mal au ventre les enfants quand je vois l'argent mis dans les armes Dans les fusées, les sous-marins et dans les porte-avions Pendant que des peuples entiers manquent d'eau, comme nos yeux manquent de larmes Et voient leur fils et leur filles mourir de malnutrition Apparemment la nature elle-même a du mal à se nourrir Les homme sont pollués l'air et même pourris la pluie Quand tu auras plus d'eau nul part, faudra garder le sourire Et même l'odeur des forêts sera tombée dans l'oubli Les enfants vous savez ce que c'est des ressources naturelles ? Si vous savez pas c'est pas grave de toute façon y'en a presque plus Les mots humain et gaspillage sont des synonymes éternels L'écologie à l'école serait pas une matière superflue Les enfants désolé on vous laisse la Terre en sale état Et bientôt sur notre planète on va se sentir à l'étroit Gardez vos doutes, vous seuls pourrez nous sortir de là L'enfant est un petit adulte qu'il sait qu'il croit Bah alors les enfants vous êtes bien sages tout à coup J'ai un peu cassé l'ambiance mais je voulais pas vous faire peur Ce que je veux vous faire comprendre c'est que je compte sur vous Ne suivez pas notre exemple et promettez moi un monde meilleur Allez les enfants c'est déjà l'heure de la récréation Allez courir dans la cour, défoulez-vous, profitez-en Criez même si vous le voulez vous avez ma permission Mais surtout couvrez-vous bien, dehors il y a du vent2</t>
+          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a la tête, le cur, les couilles ça, vous l'savez déjà Mais les autres parties du corps ont aussi leur mot à dire Chacun veut prendre le pouvoir, et le pire est à venir Il y a, bien sûr, la bouche qui a souvent une grande gueule Elle pense être la plus farouche mais s'met souvent l'doigt dans l'il Elle a la langue bien pendue pour jouer les chefs du corps humain Elle montre les dents, c'est connu, mais n'a pas l'cur sur la main Seulement, la main n'a pas forcément l'monopole du cur Elle aime bien serrer l'poing, elle aime jouer les terreurs Elle peut même faire un doigt, elle ne fait rien à moitié La main ne prend pas d'gant et nous prend vite à contre-pied Le pied n'a pas d'poil dans la main mais manque d'ambition Au pied levé, j'dirais, comme ça, que le pied n'a pas l'bras long Les bras, eux, font des grands gestes pour se donner l'beau rôle Ils tirent un peu la couverture mais gardent la tête sur les épaules On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Quand la bouche en fait trop, la main veut marquer l'coup Pour pas prendre sa gifle, la bouche prend ses jambes à son cou La bouche n'a rien dans l'ventre, elle préfère tourner l'dos Et la main sait jouer des coudes, la tête lui tire son chapeau Mais lil n'est pas d'accord, il lui fait les gros yeux Ils sont pas plus gros qu'le ventre, mais lil sait c'qu'il veut Car l'il a la dent dure, le corps le sait, tout l'monde le voit À part, peut-être, la main qui pourrait bien s'en mordre les doigts Et, la jambe, dans tout ça, eh bien, elle s'en bat les reins Elle est droit dans sa botte et continue son chemin Personne ne lui arrive à la cheville quand il s'agit d'avancer Même avec son talon dAchille, elle trouve chaussure à son pied Les pieds travaillent main dans la main et continuent leur course Jamais les doigts en éventail, ils s'tournent rarement les pouces Ça leur fait une belle jambe, toutes ces querelles sans hauteur Les pieds se foutent bien d'tout ça, loin des yeux, loin du cur On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Pour raconter lcorps humain, rien n'est jamais évident J'me suis creusé la tête et même un peu cassé les dents Alors ne faites pas la fine bouche, j'espère que vous serez d'accord Que ctexte est tiré par les cheveux mais que, p'tit à p'tit, il prend corps Jn'ai pas eu froid aux yeux, mais je reste un peu inquiet Je croise les doigts pour qu'au final je retombe sur mes pieds Ne soyez pas mauvaise langue même si vous avez deviné Que, pour écrire ce poème, j'me suis tiré les vers du nez On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Le jour d’après</t>
+          <t>Le manège</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Elle a neuf ans, pourtant, elle n'a plus une vie d'enfant Elle vit depuis des mois entre ces quatre murs blancs Elle sait bien ce qu'elle a et elle sait bien ce qu'elle veut Elle a perdu du poids, elle a perdu ses cheveux Elle enchaîne les soins, les traitements, ls protocoles Pendant qu'tous ses copains jount dans la cour d'école Elle donnerait tout pour les rejoindre quelques heures Parfois, elle en crie, souvent, elle en pleure Patience et courage, lui répètent ses parents Ils se le disent à eux aussi, le soir, en se séparant De la patience, elle en trouve et son courage et palpable Elle puise une force dont seuls les enfants sont capables Alors, elle rigole, elle s'invente des histoires Elle ne pense qu'à l'avenir, elle s'invente des espoirs La guerrière va guérir, la vraie vie est tout près Du haut de sa tour d'ivoire, elle regarde le jour d'après Vingt ans qu'il travaillait dans cette cuisine Viré du jour au lendemain par une lettre anonyme Rachetée par un grand groupe, une histoire d'actionnaires Ils sont plusieurs dans son cas, tragédie ordinaire Avec les traites à payer, les piles de factures Il a vite décidé de revendre sa voiture Mais sans elle et sans diplôme, loin des codes et loin de la ville À cinquante ans, retrouver du travail est difficile C'est l'escalade de la misère, spirale infernale Il est expulsé de son appart avant la trêve hivernale Les premières nuits dans la rue ont été les plus dures Mais ensuite, bizarrement, il n'a plus craint son futur Il puise une force que les rescapés connaissent bien Il se dit qu'on a plus peur dès lors qu'on a plus rien Il va bientôt s'en sortir, il le sent, il est prêt Il cherche une formation et regarde le jour d'après Il revient en scooter d'la soirée d'ses vingt ans La faute à un chauffard, la faute au mauvais temps Ça n'arrive pas qu'aux autres, ce n'est pas une légende Après son accident, on lui ampute les deux jambes Il passa un an à repenser à ce soir-là Puis cesse de ressasser ces histoires de karma Avec ses jambes en carbone, l'avenir devient concret Il veut même refaire du sport et regarde le jour d'après À tous les usés, les accidentés de parcours Les fragilisés, les malchanceux d'un jour Ceux qui n'ont pas le choix, les guerriers imposés Ceux qui portent leur croix, les héros obligés Ceux qui refusent leur sort et qui changent leur histoire Et ceux qui transforment l'envie de croire en victoire À ceux dont l'avenir est parfois en sursis Ceux qui voient le jour d'après Et ceux qui n'ont pas réussi</t>
+          <t>Allez viens mon bonhomme, dehors il fait beau Je temmène au manège, ya pas meilleur cadeau Quest-ce que tu vas choisir, le cheval, léléphant Lavion ou lhélico qui monte et qui descend Tas toujours le même air, plutôt fier et sérieux Quand tu donnes toi-même le ticket au monsieur Et le manège démarre, en avant la musique Cest tout con, ça tourne en rond et pourtant cest magique Quand tu passes devant moi, tu me fais un sourire Ou un signe de la main, alors moi je transpire Car déjà tu téloignes et puis tu disparais Tu me manques pendant 10 secondes, cest normal à ce qui paraît Je te vois tamuser, je tobserve comme un fou Toi tes dans lhélico, tu tenvoles, tu ten fous De toute cette eau qui coule sans arrêt sous les ponts Du temps qui passe trop vite comme disent les vieux cons Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Autour de nous il y a tous ces gens ordinaires La joie et la douceur dun décor populaire Je regarde lhéritage de notre banlieue rouge Qui vit ses dernières heures car même la banlieue bouge Mon petit café là-bas a fermé ya 2 ans Mon premier rancard avec ta mère, cétait juste devant Je vois la vie changer du haut de mon balcon Ouais cétait mieux avant comme disent les vieux cons Allez viens mon bonhomme, dehors il fait froid Je te regarde passer pour la huit millième fois Je suis devant ce manège depuis des années Tas pris 20 centimètres, le soleil a tourné Les semaines saccélèrent et tes mots sont plus clairs Chaque mois vient chasser lautre et on pense au petit frère On met une graine en terre et un arbre devient grand Les saisons se succèdent, mes cheveux deviennent blancs Allez viens mon bonhomme, dehors il est tard Avec toi le temps pousse, le temps passe et repart Depuis que tes là, tu cours plus vite que mes habitudes Je nentends que toi, tu parles plus fort que mes solitudes On rentre à la maison, la télé nous attend Je te prendrai sur mes genoux tant que tauras pas 20 ans On va regarder Babar dans notre petit cocon Tu grandis bien trop vite, jsuis déjà un vieux con x2</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Le jour se lève</t>
+          <t>Les 5 sens</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour D'assumer nos rêves, d'en récolter la sève pour les graver dans chaque mur de pierre Le jour se lève et même si ça brûle les yeux, on ouvrira grand nos paupières Il a fait nuit trop longtemps et avancer sans lumière nous a souvent fait tâtonner Personne à pardonner, si on est là aujourd'hui, c'est juste qu'on n'a pas abandonné On a cherché la lueur de l'aube en sachant qu'elle avait la couleur de l'espoir On s'est armé de nos stylos pour écrire nous-mêmes la suite de toute cette histoire Le jour se lève, sort de sa grève, c'est grave à quel point la nuit a été agitée On en a de belles à raconter, même si j'imagine que ça sera sûrement loin de tes JT Le soleil éclaire notre papier qu'on avait gratté dans l'ombre pendant toute la nuit La chaleur fait couler l'encre, nos mots quittent nos cahiers, nos voix sortent de l'ennui Alors nous allons prendre la parole, monter sur scène pour un moment, j'espère que t'en as conscience Finies la patience et la méfiance, on s'offre simplement avec l'écriture une renaissance Le jour se lève et son glaive de lave nous lave des peines et douleurs du passé Notre avenir est lancé... Tu nous écouteras et diras franchement ce que t'en as pensé Le jour se lève et la joie se livre, la soif se lit sur nos lèvres, tu devrais nous suivre Si notre heure est brève, nous allons quand même la vivre Nous ne sommes pas bons élèves, mais l'envie nous enivre Alors à ton tour ouvre les yeux, approche-toi et observe avec curiosité Le souffle et l'enthousiasme d'une brigade de poètes sortis tout droit de l'obscurité Ne prends pas ça pour de l'arrogance, mais on sent que c'est notre heure et ça fait du bien Notre passion va nous nourrir et je vais retrouver le sourire dans le regard de tous les miens Le jour se lève, on le doit peut-être qu'à nous et quand je dis ça, c'est pas juste une métaphore Le jour se lève et si ça se trouve, c'est uniquement parce qu'on l'a espéré assez fort Le jour se lève sur notre grisaille, sur les trottoirs de nos ruelles et sur nos tours Le jour se lève sur notre envie de vous faire comprendre à tous que c'est à notre tour Notre futur est incertain, c'est vrai que ces deux mots-là vont toujours de pair Mais notre jour s'est bien levé, dorénavant il sera difficile de nous faire taire</t>
+          <t>Les 5 sens en éveil à l'approche de la Belle Les capteurs s'émerveillent, répondant à l'appel En un battement de cils, ils oscillent dociles Vulnérables et puissants, équilibre fragile Ça commence par la vue, rien n'est fait au hasard Comme elle ôte ses vêtements, il l'habille du regard Il la parcourt doucement, il n'a d'yeux que pour elle Elle le tient et il y tient, comme à leurs prunelles Elle n'a pas froid aux yeux, lui son oeil est rincé Comme il navigue à vue, il voudrait l'embrasser Elle approche fébrile pour amorcer le jeu Son visage et son corps, il en a plein les yeux Elle est tout près de lui, imposant son aura Comme un réflexe bestial se réveille l'odorat Les pupilles se dilatent, les paupières sont fermées Maintenant s'il la voit, c'est bien à vue de nez Il respire son parfum et l'odeur de sa peau Son arôme est si fin, c'est un nouveau cadeau Et puisqu'il a du flair, elle va lui en donner Il adore qu'elle le mène, par le bout du nez Leurs bouches se rejoignent, le baiser le plus doux Ses lèvres et puis sa langue, il aime déjà leur goût Comme elle goûte à son charme, ils iront jusqu'au bout C'est une femme de classe et un homme de goût On dépasse la tendresse, maintenant le temps presse Les pulsions apparaissent au départ des caresses Car le sens qui prend place est celui du toucher Ils étaient bien debout, ils seront mieux couchés Il l'effleure de ses doigts, de ses mains, de sa bouche Il sent bien que sa manière de la toucher la touche Comme c'est un touche-à-tout, bien sûr il n'oublie rien Elle n'est pas sainte-ni-touche, alors elle lui rend bien Pour être consentant, il est bon qu'on s'entende Cette écoute est mutuelle et les muscles se tendent Oui le dernier des 5 sens est celui de l'ouïe Il est proche de la transe quand elle susurre un oui Y a pas que les murs qu'ont des oreilles, les voisins vont comprendre Quand le jour se fait attendre, l'amour se fait entendre Car de bouche à oreille, j'entends dire aujourd'hui Que l'éveil des 5 sens a de beaux jours devant lui</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Le langage du corps</t>
+          <t>Le sens de la famille</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Le corps humain est un royaume où chaque organe veut être le roi Il y a la tête, le cur, les couilles ça, vous l'savez déjà Mais les autres parties du corps ont aussi leur mot à dire Chacun veut prendre le pouvoir, et le pire est à venir Il y a, bien sûr, la bouche qui a souvent une grande gueule Elle pense être la plus farouche mais s'met souvent l'doigt dans l'il Elle a la langue bien pendue pour jouer les chefs du corps humain Elle montre les dents, c'est connu, mais n'a pas l'cur sur la main Seulement, la main n'a pas forcément l'monopole du cur Elle aime bien serrer l'poing, elle aime jouer les terreurs Elle peut même faire un doigt, elle ne fait rien à moitié La main ne prend pas d'gant et nous prend vite à contre-pied Le pied n'a pas d'poil dans la main mais manque d'ambition Au pied levé, j'dirais, comme ça, que le pied n'a pas l'bras long Les bras, eux, font des grands gestes pour se donner l'beau rôle Ils tirent un peu la couverture mais gardent la tête sur les épaules On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Quand la bouche en fait trop, la main veut marquer l'coup Pour pas prendre sa gifle, la bouche prend ses jambes à son cou La bouche n'a rien dans l'ventre, elle préfère tourner l'dos Et la main sait jouer des coudes, la tête lui tire son chapeau Mais lil n'est pas d'accord, il lui fait les gros yeux Ils sont pas plus gros qu'le ventre, mais lil sait c'qu'il veut Car l'il a la dent dure, le corps le sait, tout l'monde le voit À part, peut-être, la main qui pourrait bien s'en mordre les doigts Et, la jambe, dans tout ça, eh bien, elle s'en bat les reins Elle est droit dans sa botte et continue son chemin Personne ne lui arrive à la cheville quand il s'agit d'avancer Même avec son talon dAchille, elle trouve chaussure à son pied Les pieds travaillent main dans la main et continuent leur course Jamais les doigts en éventail, ils s'tournent rarement les pouces Ça leur fait une belle jambe, toutes ces querelles sans hauteur Les pieds se foutent bien d'tout ça, loin des yeux, loin du cur On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps Pour raconter lcorps humain, rien n'est jamais évident J'me suis creusé la tête et même un peu cassé les dents Alors ne faites pas la fine bouche, j'espère que vous serez d'accord Que ctexte est tiré par les cheveux mais que, p'tit à p'tit, il prend corps Jn'ai pas eu froid aux yeux, mais je reste un peu inquiet Je croise les doigts pour qu'au final je retombe sur mes pieds Ne soyez pas mauvaise langue même si vous avez deviné Que, pour écrire ce poème, j'me suis tiré les vers du nez On peut être timide ou on peut parler fort D't'façons, ce qui décide, c'est le langage du corps On peut avoir l'esprit vide ou un cerveau comme un trésor Dt'façons, ce qui domine, c'est le langage du corps C'est le langage du corps C'est le langage du corps</t>
+          <t>J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal en fait, j'l'imagine pas du tout Ils sont mes repères, mes bases, mes compliments, mes reproches Sans eux je suis pas entière, je les veux pas loin, souvent, partout Avec eux on a pas peur du silence, on n'a rien à se prouver Une sorte d'équipe sans remplaçants, sans capitaine Dans ctte équipe tu ris, tu râles, tu progrsses, tu veux rester Très loin du star système, tu restes tard si t'aimes Si jamais je devais tout perdre, si la roue faisait demi-tour Je n'aurais besoin que de leur présence pour que la vie reste facile Peu importe ce qu'il y a sur la table, ce qui compte c'est qui il y a autour Ce que je ressens je veux leur dire je crois que j'ai le sens de la famille J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal, en fait j'l'imagine pas du tout C'est avec eux que j'avance, de la sérénité plein les poches S'ils ne le partagent pas avec moi, aucun bonheur ne vaut le coup Et à l'inverse il n'y a rien qui ne me fasse plus de peine Qu'imaginer leurs visages au moment où ils ont appris Que mes 20 ans seraient cruels, que mon avenir s'annonçait terne Le drame ça se partage, mais ça n'apaise pas l'esprit Ils m'ont transmit tout ce que j'aimerais transmettre à mon tour C'est grâce à eux si je suis en paix, que j'pars pas en vrille Leur humanité sans trompettes, leur bienveillance sans détour Ce que je leur dois je veux leur dire je crois que j'ai le sens de la famille Evidemment quand t'es maman ton cur explose et pour toujours On te confie le rôle ultime, celui qui te change viscéralement Tu savais pas que c'était possible de générer autant d'amour Je trouve pas de mots assez forts, c'est tellement.. tellement Evidemment quand t'es daron toutes les cartes sont redistribuées Ils sont dans ma tête, dans mon ventre, dans mon sang chaque secondes J'n'ai plus qu'eux comme certitudes, il va falloir m'habituer J'ai découvert les liens invisibles et les plus solides du monde Les enfants c'est des galères qu'on ne pouvait pas même pas concevoir Ils nous rendent complètement oufs, mais en un sourire on vacille T'as qu'une envie c'est qu'ils s'endorment et puis qu'ils dorment et tu veux les voir Et ouais, on est devenus ceux qu'on chambrait rires Je crois qu'on a le sens de la famille Et le sens de la famille c'est aussi le sens de l'amitié Je peux te présenter des frères et surs qui n'ont pas le même sang Frères d'espoir, surs de cur, frères de galère ou de quartiers Faire des projets d'adultes dans des cerveaux d'adolescents La famille c'est aussi ceux qui sont devenus essentiels Ceux qui te connaissent, te révèlent, te soutiennent et te protègent Ceux qui parlent la bouche fermée parce que le cur s'en mêle Si tu veux signer avec moi, faut signer avec tout le cortège D'abord un dessin animé ? Repose toi bien ma chérie, à bientôt Et ça que tu veux dire ? Sur, rappelle s'il te plait Bonjour parrain, merci pour le cadeau Tu vas manger, vas-y viens je t'attends Salut on est en voiture On arrive, bisous bisous Je suis trop heureuse pour toi ma sur C'est toi qui m'emmène au foot mercredi ? Rentre vite s'il te plait, j'ai trop envie de voir le dernier épisode Ouais frère, rappelle moi je crois que j'ai trouvé une bonne idée pour le clip Les sales cons passent mon reuf T'aime, tiens mon cur moi je t'aime, t'aime D'abord on va à la séance de 19h30 et après on mange Ma sur, t'es où ? Papa, on peut manger devant la télé ce soir ? Que... j'ai froid</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Le manège</t>
+          <t>Le slam de joe (jack et la mécanique du coeur (version courte)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Allez viens mon bonhomme, dehors il fait beau Je temmène au manège, ya pas meilleur cadeau Quest-ce que tu vas choisir, le cheval, léléphant Lavion ou lhélico qui monte et qui descend Tas toujours le même air, plutôt fier et sérieux Quand tu donnes toi-même le ticket au monsieur Et le manège démarre, en avant la musique Cest tout con, ça tourne en rond et pourtant cest magique Quand tu passes devant moi, tu me fais un sourire Ou un signe de la main, alors moi je transpire Car déjà tu téloignes et puis tu disparais Tu me manques pendant 10 secondes, cest normal à ce qui paraît Je te vois tamuser, je tobserve comme un fou Toi tes dans lhélico, tu tenvoles, tu ten fous De toute cette eau qui coule sans arrêt sous les ponts Du temps qui passe trop vite comme disent les vieux cons Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Allez tourne manège, tourne la tête et les secondes Tourne dans le sens des aiguilles du monde Autour de nous il y a tous ces gens ordinaires La joie et la douceur dun décor populaire Je regarde lhéritage de notre banlieue rouge Qui vit ses dernières heures car même la banlieue bouge Mon petit café là-bas a fermé ya 2 ans Mon premier rancard avec ta mère, cétait juste devant Je vois la vie changer du haut de mon balcon Ouais cétait mieux avant comme disent les vieux cons Allez viens mon bonhomme, dehors il fait froid Je te regarde passer pour la huit millième fois Je suis devant ce manège depuis des années Tas pris 20 centimètres, le soleil a tourné Les semaines saccélèrent et tes mots sont plus clairs Chaque mois vient chasser lautre et on pense au petit frère On met une graine en terre et un arbre devient grand Les saisons se succèdent, mes cheveux deviennent blancs Allez viens mon bonhomme, dehors il est tard Avec toi le temps pousse, le temps passe et repart Depuis que tes là, tu cours plus vite que mes habitudes Je nentends que toi, tu parles plus fort que mes solitudes On rentre à la maison, la télé nous attend Je te prendrai sur mes genoux tant que tauras pas 20 ans On va regarder Babar dans notre petit cocon Tu grandis bien trop vite, jsuis déjà un vieux con x2</t>
+          <t>Des années des années à repenser à ruminer Mais impossible d'accepter que cette aventure soit terminée Miss Acacia hante mon esprit quoique je fasse quoique je veuille Je vais la retrouver elle et celui qui m'a crevé l'oeil Alors oui je suis de retour et je viens pour bouleverser l'histoire Je ne resterai pas à Edimbourg me laisser croupir de désespoir Je ne peux plus me satisfaire de ne la voir que dans mes rêves Je suis venu pour la récupérer de toute façon si je n'essaye pas j'en crève Je vais revoir aussi mon pire ennemi Le petit nabot ce Little Jack Et en m'approchant de lui j'ai tout de suite réentendu le fameux tic tac Je l'ai regardé de mon seul oeil et j'ai tout de suite senti monter la pression J'ai vu la haine dans les yeux de Jack, il fallait qu'on ait une discussion Je lui expliquais que je n'étais plus le même et que le fait d'être borgne m'avait changé Moi aussi j'ai souffert d'être différent mais je ne suis pas venu là pour me venger</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Les 5 sens</t>
+          <t>Les Lignes de la main</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Les 5 sens en éveil à l'approche de la Belle Les capteurs s'émerveillent, répondant à l'appel En un battement de cils, ils oscillent dociles Vulnérables et puissants, équilibre fragile Ça commence par la vue, rien n'est fait au hasard Comme elle ôte ses vêtements, il l'habille du regard Il la parcourt doucement, il n'a d'yeux que pour elle Elle le tient et il y tient, comme à leurs prunelles Elle n'a pas froid aux yeux, lui son oeil est rincé Comme il navigue à vue, il voudrait l'embrasser Elle approche fébrile pour amorcer le jeu Son visage et son corps, il en a plein les yeux Elle est tout près de lui, imposant son aura Comme un réflexe bestial se réveille l'odorat Les pupilles se dilatent, les paupières sont fermées Maintenant s'il la voit, c'est bien à vue de nez Il respire son parfum et l'odeur de sa peau Son arôme est si fin, c'est un nouveau cadeau Et puisqu'il a du flair, elle va lui en donner Il adore qu'elle le mène, par le bout du nez Leurs bouches se rejoignent, le baiser le plus doux Ses lèvres et puis sa langue, il aime déjà leur goût Comme elle goûte à son charme, ils iront jusqu'au bout C'est une femme de classe et un homme de goût On dépasse la tendresse, maintenant le temps presse Les pulsions apparaissent au départ des caresses Car le sens qui prend place est celui du toucher Ils étaient bien debout, ils seront mieux couchés Il l'effleure de ses doigts, de ses mains, de sa bouche Il sent bien que sa manière de la toucher la touche Comme c'est un touche-à-tout, bien sûr il n'oublie rien Elle n'est pas sainte-ni-touche, alors elle lui rend bien Pour être consentant, il est bon qu'on s'entende Cette écoute est mutuelle et les muscles se tendent Oui le dernier des 5 sens est celui de l'ouïe Il est proche de la transe quand elle susurre un oui Y a pas que les murs qu'ont des oreilles, les voisins vont comprendre Quand le jour se fait attendre, l'amour se fait entendre Car de bouche à oreille, j'entends dire aujourd'hui Que l'éveil des 5 sens a de beaux jours devant lui</t>
+          <t>Un certain soir d'incertitude, je suis allé voir une voyante Prêt pour l'arnaque et l'inquiétude car la vision d'avenir est payante C'est mon coeur qui frappe quand je sonne à la porte, je me sens tout gamin Quand elle m'ouvre, me regarde, me sourit et m'escorte pour me lire les lignes de la main Elle prend son pied en prenant mes mains, ses mains tenant mes doigts sont balaises Elle est adroite, j'ai deux mains gauches, c'est maintenant mon malaise Elle a la main forte, elle a la main ferme, elle a la mainmise Moi, faut que je sorte, je veux revenir demain, mes deux mains sont prises Sa main est agile et ça m'indispose que sa main tripote Car sa main est curieuse et sa main est fouineuse et ça m'insupporte Mais ça m'intéresse quand sa main se calme car sa main est belle Oui, sa main est douce et sa main est chaude et ça m'interpelle Elle prend ma main gauche pour me lire les lignes, moi, j'ai un mauvais feeling Car elle veut être précise mais, moi, je lui propose de rester dans les grandes lignes Ses doigts glissent sur ma peau comme une piste de curling et elle vise la ligne de coeur C'est une ligne à haute tension, elle est en première ligne, une ligne à la hauteur Niveau coeur, pas besoin de savoir lire entre les lignes, elle voit que la ligne est occupée C'est une ligne droite magnifique, longiligne, rectiligne, la ligne printemps-été En revanche, la voyante ne trouve pas ma ligne de chance, j'ai vraiment pas de pot Elle l'avait en ligne de mire, moi, j'avais envie d'en rire, elle a ripé sur un bout de peau Mais en ligne de compte, elle a retrouvé ma chance, c'est une vraie pilote de lignes Ma ligne de chance aime bien faire des feintes, elle est maligne ma ligne C'est la dernière ligne droite, la voyante a décidé d'analyser ma ligne de vie Elle cherche la ligne d'arrivée, mais la voyante a souligné qu'apparemment ma ligne dévie Alors ma ligne de vie rage, ma ligne de vie perd, la voyante ne la voit pas bien Elle a un air inquiet car la ligne est coupée... alors, moi, j'entends plus rien Je lui demande si elle est sûre, elle scrute les interlignes, ce moment est inhumain Du coup, elle va s'faire une petite ligne, moi, j'ai perdu mon avenir quelque part au creux de ma main Ça a mis un bout de temps mais on a retrouvé ma vie, elle avait juste sauté une ligne Quand la séance fut finie, j'ai décidé de prendre soin de moi et de faire attention à ma ligne Avant de quitter la voyante, on s'est serré la main, on a mélangé nos lignes Une chose est sûre je ne reviendrai pas demain, elle s'est vraiment plantée sur toutes les lignes Depuis ma ligne de conduite est de viser la ligne d'horizon pour voir plus loin que le bout de mes lignes Fini de lire dans les mains, maintenant je préfère serrer le poing Point à la ligne</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Le sens de la famille</t>
+          <t>Les yeux au ciel</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal en fait, j'l'imagine pas du tout Ils sont mes repères, mes bases, mes compliments, mes reproches Sans eux je suis pas entière, je les veux pas loin, souvent, partout Avec eux on a pas peur du silence, on n'a rien à se prouver Une sorte d'équipe sans remplaçants, sans capitaine Dans ctte équipe tu ris, tu râles, tu progrsses, tu veux rester Très loin du star système, tu restes tard si t'aimes Si jamais je devais tout perdre, si la roue faisait demi-tour Je n'aurais besoin que de leur présence pour que la vie reste facile Peu importe ce qu'il y a sur la table, ce qui compte c'est qui il y a autour Ce que je ressens je veux leur dire je crois que j'ai le sens de la famille J'ai un peu de mal à imaginer la vie sans mes proches Quand je dis un peu de mal, en fait j'l'imagine pas du tout C'est avec eux que j'avance, de la sérénité plein les poches S'ils ne le partagent pas avec moi, aucun bonheur ne vaut le coup Et à l'inverse il n'y a rien qui ne me fasse plus de peine Qu'imaginer leurs visages au moment où ils ont appris Que mes 20 ans seraient cruels, que mon avenir s'annonçait terne Le drame ça se partage, mais ça n'apaise pas l'esprit Ils m'ont transmit tout ce que j'aimerais transmettre à mon tour C'est grâce à eux si je suis en paix, que j'pars pas en vrille Leur humanité sans trompettes, leur bienveillance sans détour Ce que je leur dois je veux leur dire je crois que j'ai le sens de la famille Evidemment quand t'es maman ton cur explose et pour toujours On te confie le rôle ultime, celui qui te change viscéralement Tu savais pas que c'était possible de générer autant d'amour Je trouve pas de mots assez forts, c'est tellement.. tellement Evidemment quand t'es daron toutes les cartes sont redistribuées Ils sont dans ma tête, dans mon ventre, dans mon sang chaque secondes J'n'ai plus qu'eux comme certitudes, il va falloir m'habituer J'ai découvert les liens invisibles et les plus solides du monde Les enfants c'est des galères qu'on ne pouvait pas même pas concevoir Ils nous rendent complètement oufs, mais en un sourire on vacille T'as qu'une envie c'est qu'ils s'endorment et puis qu'ils dorment et tu veux les voir Et ouais, on est devenus ceux qu'on chambrait rires Je crois qu'on a le sens de la famille Et le sens de la famille c'est aussi le sens de l'amitié Je peux te présenter des frères et surs qui n'ont pas le même sang Frères d'espoir, surs de cur, frères de galère ou de quartiers Faire des projets d'adultes dans des cerveaux d'adolescents La famille c'est aussi ceux qui sont devenus essentiels Ceux qui te connaissent, te révèlent, te soutiennent et te protègent Ceux qui parlent la bouche fermée parce que le cur s'en mêle Si tu veux signer avec moi, faut signer avec tout le cortège D'abord un dessin animé ? Repose toi bien ma chérie, à bientôt Et ça que tu veux dire ? Sur, rappelle s'il te plait Bonjour parrain, merci pour le cadeau Tu vas manger, vas-y viens je t'attends Salut on est en voiture On arrive, bisous bisous Je suis trop heureuse pour toi ma sur C'est toi qui m'emmène au foot mercredi ? Rentre vite s'il te plait, j'ai trop envie de voir le dernier épisode Ouais frère, rappelle moi je crois que j'ai trouvé une bonne idée pour le clip Les sales cons passent mon reuf T'aime, tiens mon cur moi je t'aime, t'aime D'abord on va à la séance de 19h30 et après on mange Ma sur, t'es où ? Papa, on peut manger devant la télé ce soir ? Que... j'ai froid</t>
+          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Le slam de joe (jack et la mécanique du coeur (version courte)</t>
+          <t>Les yeux au ciel (Instrumental)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Des années des années à repenser à ruminer Mais impossible d'accepter que cette aventure soit terminée Miss Acacia hante mon esprit quoique je fasse quoique je veuille Je vais la retrouver elle et celui qui m'a crevé l'oeil Alors oui je suis de retour et je viens pour bouleverser l'histoire Je ne resterai pas à Edimbourg me laisser croupir de désespoir Je ne peux plus me satisfaire de ne la voir que dans mes rêves Je suis venu pour la récupérer de toute façon si je n'essaye pas j'en crève Je vais revoir aussi mon pire ennemi Le petit nabot ce Little Jack Et en m'approchant de lui j'ai tout de suite réentendu le fameux tic tac Je l'ai regardé de mon seul oeil et j'ai tout de suite senti monter la pression J'ai vu la haine dans les yeux de Jack, il fallait qu'on ait une discussion Je lui expliquais que je n'étais plus le même et que le fait d'être borgne m'avait changé Moi aussi j'ai souffert d'être différent mais je ne suis pas venu là pour me venger</t>
+          <t>Ecoute, yo, hun, Black Kent fuit le vent J'veux pas grandir, et j'reste fly comme Peter Pan C'est c'que j'disais y a quelques mois, c'est c'que j'me dis encore J'suis au-dessus, ils m'entendent pas, donc Blacky crie encore J'ai trouvé l'moyen d'planer, j'suis sur ma bonne étoile et Les coups d'soleil sont bien plus forts quand c'est ton voisin d'palier J'l'avoue, et d'là-haut je fais c'qui m'chante Et si j'le chante pas, dis moi, qui le chante ? Ma 'sique vient d'où ? Elle vient d'là où les ados s'vantent Moi j'dors à l'heure où les oiseaux s'plantent Comme ça j'suis seul dans le ciel, ouais, j'rêve d'apesanteur Et si t'es comme moi, tu sais qu'le reste a peu d'ampleur Je plane... Moi je plane... Ouais, je plane... Moi je plane... Monte sur l'Everest si tu espères apercevoir ma semelle Mais n'oublie pas le télescope, jette moi vite ces jumelles Car j'ai des colombes et des corbeaux en guise de voisinage Dites à la petite souris de mettre une grosse liasse sous mon nuage J'ai pris le large à l'age des dents de lait, quitté les barbelés Du monde réel, regarde les imiter mes ailes Pour m'réveiller c'est pas un coq mais un aigle qui chante J'fais du T-Max sur le dos d'une étoile filante Tape mon adresse sur Google Earth, mais pas sur Mappy Quand j'ai mal et qu'j'lâche une larme sors le parapluie Les pieds sur Terre j'suis comme Grand Corps Malade sans sa canne Comme Kent, et plastique Bertrand, mec, je plane Je rêve de voir les choses en grand depuis tout petit Et comme j'suis tout là-haut, eh bin j'vois tout en petit Si quand t'écoutes tu planes pas c'est qu'tu t'es trompé d'click Car même les instruments volent, Ritchi fait tomber l'kick Bref, on a pas peur des mots, loin de là Donc ma musique j'la fais saigner, huh les règles de l'art J'écris en rouge quand les feux sont verts J't'emmène sur un nuage gris, j'deviens faible quand les yeux sont clairs Obscures sont mes pensées quand d'l'altitude je perds Si j'te regarde de haut, c'est qu't'as trop les pieds sur Terre Et ça j't'ai déjà dit Mon grand a jeté les dés jadis Et ils sont toujours pas tombés, ouais, je plane Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Les Lignes de la main</t>
+          <t>L’étoile</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Un certain soir d'incertitude, je suis allé voir une voyante Prêt pour l'arnaque et l'inquiétude car la vision d'avenir est payante C'est mon coeur qui frappe quand je sonne à la porte, je me sens tout gamin Quand elle m'ouvre, me regarde, me sourit et m'escorte pour me lire les lignes de la main Elle prend son pied en prenant mes mains, ses mains tenant mes doigts sont balaises Elle est adroite, j'ai deux mains gauches, c'est maintenant mon malaise Elle a la main forte, elle a la main ferme, elle a la mainmise Moi, faut que je sorte, je veux revenir demain, mes deux mains sont prises Sa main est agile et ça m'indispose que sa main tripote Car sa main est curieuse et sa main est fouineuse et ça m'insupporte Mais ça m'intéresse quand sa main se calme car sa main est belle Oui, sa main est douce et sa main est chaude et ça m'interpelle Elle prend ma main gauche pour me lire les lignes, moi, j'ai un mauvais feeling Car elle veut être précise mais, moi, je lui propose de rester dans les grandes lignes Ses doigts glissent sur ma peau comme une piste de curling et elle vise la ligne de coeur C'est une ligne à haute tension, elle est en première ligne, une ligne à la hauteur Niveau coeur, pas besoin de savoir lire entre les lignes, elle voit que la ligne est occupée C'est une ligne droite magnifique, longiligne, rectiligne, la ligne printemps-été En revanche, la voyante ne trouve pas ma ligne de chance, j'ai vraiment pas de pot Elle l'avait en ligne de mire, moi, j'avais envie d'en rire, elle a ripé sur un bout de peau Mais en ligne de compte, elle a retrouvé ma chance, c'est une vraie pilote de lignes Ma ligne de chance aime bien faire des feintes, elle est maligne ma ligne C'est la dernière ligne droite, la voyante a décidé d'analyser ma ligne de vie Elle cherche la ligne d'arrivée, mais la voyante a souligné qu'apparemment ma ligne dévie Alors ma ligne de vie rage, ma ligne de vie perd, la voyante ne la voit pas bien Elle a un air inquiet car la ligne est coupée... alors, moi, j'entends plus rien Je lui demande si elle est sûre, elle scrute les interlignes, ce moment est inhumain Du coup, elle va s'faire une petite ligne, moi, j'ai perdu mon avenir quelque part au creux de ma main Ça a mis un bout de temps mais on a retrouvé ma vie, elle avait juste sauté une ligne Quand la séance fut finie, j'ai décidé de prendre soin de moi et de faire attention à ma ligne Avant de quitter la voyante, on s'est serré la main, on a mélangé nos lignes Une chose est sûre je ne reviendrai pas demain, elle s'est vraiment plantée sur toutes les lignes Depuis ma ligne de conduite est de viser la ligne d'horizon pour voir plus loin que le bout de mes lignes Fini de lire dans les mains, maintenant je préfère serrer le poing Point à la ligne</t>
+          <t>Yo, vous avez vu son battle avec le Québécois ? Yo, pour moi, t'as battu le roux Franchement Dony, c'est un vol Mais ça tue que t'aies proposé le duel Vous avez vu ? Ça se rend les coups comme au Colisée à Rome Justesse, propos, gestuelle Mais faut pas des couilles pour sodomiser un homme, faut juste être homosexuel ! Après, chacun son truc, j'ai des trip des mecs des îles Toi tu suces avec zèle, tu cueilles des folles en ville Moi j'colle des feuilles en L Mais tu passes pour le type qui préfère les ils avec la voix affolée mec J'passe pour le flic de Beverly Hills avec la voix d'Foley mec Tu rêves de t'épanouir à la chapelle Fistine dans une discipline poing-pieds Fister des culs, boire du jus d'orifice de pompier Pour nous conter l'histoire dans une soirée plutôt chic où t'es convié Mais tu t'appelles Ludovic et t'es plombier Bon, parlons plomberie, sérieux c'est une compétence de fou, tiens sérieux l'histoire est assez marrante Faudrait que tu dépannes Fauriss... un mec qui a des doutes sur une vieille installation de douches des années 40 J'voulais pas l'dire, quoi aujourd'hui tu peux enculer des homos légalement Moi on me critique pour une langue comme un petit me l'a fait remarquer En 2015, j'peux pas aduler les allemands, mais je signe toujours mes crimes d'un petit cantique de la Wehrmacht Hey hi.. Hey ho.. On rentre du complot ! Mais, vous savez, j'suis pas négationniste Non, non ! Ce soir je suis méga-sionniste ! Je viens taper super-fisteur, oh oui ! Je pense pas que tes petits poings vont aller loin, d'autres oui ! Mais c'est comme si tous tes orifices étaient déjà huilés avec soin face à mes poings Godwin ! Dans ton battle avec Gram t'as fais des phases racistes sur les juifs Dis ! Hé, tu sais donc pas que c'est pas bien d'être raciste, que c'est mal ? Petite merde ! Il y a des baffes qui se perdent ! Ce soir pour battre méga-sionniste il te faudrait fister un vampire juif avec de l'ail Hitler ! Non, c'est des personnages, c'est un truc tranquille Du coup, ça va me saouler de répéter que ton stock de trucs dans le fion il faut que tu le bouge à l'occas' Ou que les groupes LGBT vont stop les subventions pour les Tous Salopards T'aimes dire que c'est de l'irrespect de faire ton fêlé dans des fausses partouzes Mais, même si t'étais pédé les pédés diraient que t'es qu'une grosse tarlouze, mec ! Hé oui ! En plus, quand on sait que t'es l'heureux papa d'une fille on se dit que tout ce que tu fais c'est une blague Sans rire, niveau éducatif tu risques d'y laisser une trace, je parle pas d'une fessée, d'une claque Non juste qu'un jour en classe elle arrive, elle crie qu'ici c'est la seule qui ait la schnek de lécher une chatte Mais c'est horrible, c'est horrible mais c'est lui, je t'imagine chez toi avec un petit Do Mac t'sais dans un canapé deux places Trip trop crade ! Tu commences à tripoter ta fille avant de te dire Oh non ! C'est dégueulasse, les frites sont froides ! Tu dis que ma fille va devenir lesbienne Dis moi ce que tu comptes faire ? Tu dis que ma fille va devenir lesbienne Mais c'est mon plus grand rêve Je me suis peut-être fait opérer des yeux, mais j'reste le même obsédé sérieux Le genre de pédé dégueu qui aime observer les vieux Mais sincèrement j'me fous de ce que t'écris dans tes jolis sons Ce battle c'est un peu comme une évidente opposition et même s'il change de position Moi j'ai un coup d'avance sur toi, car je doute même de l'existence de Faurisson À chaque fois tu composes Tes battles à base de théories du complot Révisionnisme, lobby, sionisme... Tu t'es perdu mon pauvre Je sais que c'est ta technique de base, mais Cheef Tout le monde sait que les juifs ça n'existe pas Et puis, on pourra pas éviter la chute, on tombera pas de chance ! Je sais que pour toi dénoncer le complot c'est ta lutte, ton combat Mein Kampf ! Les gens les plus obscènes me veulent, mais toi le nazillon Tu sais comment on prendre ta pauvre mère ? Double ! Ça t'apprendra à te faire jouir sur des posters de Joseph Goebbels T'es tellement nostalgique du régime d'Heinrich Himmler Que tu défiles dans Paris avec une Jeep militaire Et t'avais déjà une petite moustache, dans le ventre de ta mère Puis t'as appris à faire du rap sur des samples de Wagner J'vais peut-être passé pour un pauvre mec ou un fou Mais t'as des phases qui pourraient faire passer Wojtek pour un rouge Des saluts nazis, des SS, une centaine, une armée Yo T'as des phases sorties tout droit des pires documentaires sur Arte Tu cites des grands génies comme Pétain, Hitler Mais pour moi tes origines restent un mystère Ta mère devait être une croisée malgache qui s'est faite sautée par trois gars dans une soirée de malade au Guatemala pendant ses vacances La vérité c'est que t'es noir et arabe, bah quoi c'est pas grave Mais noir et arabe, franchement c'est pas de chance Remarque, il faut voir le bon côté de la chose, tu passe d'une identité à l'autre Noir et arabe, j'suis sûr qu'il y a moyen de cumuler les allocs Quand même, noir et arabe, fils tu déconnes C'est quoi ? Tu grimpes aux arbres, puis tu les voles ? Un jour tu t'accroches au train d'atterissage Un jour tu fais peur quand t'es assis dans l'avion Tu vends même des petites tour Eiffel Mais dans une alimentation Noir et arabe, t'es une sorte de prototype Mais y a moyen de te mettre d'accord Car d'un côté tu pues, et de l'autre aussi C'est pas que j'mennuie ou que j'veuille juste donner une bonne image d'Hitler Mais maintenu en vie à cette-heure ta mère le suce dans mon complot imaginaire Vous en avez marre des vannes de nazis ? Chez moi c'est systématique, j'vais m'lancer dans un truc plus technique, une rime mathématique du genre 31, 32, 33, 34, 35, 36, 37, 38, 39... 45 ! 46, 47, 48, 49, 50, 51, 52, 53, 54... bon... Hermano a pas fini de me l'écrire celle-là... Ta mère est une pute ! Mais pas l'insulte, le métier Au début tu t'es pas méfié, mais elle a fait ça fort ! Te donner la passion de la plomberie sans que t'aies compris ses métaphores Plus jeune, tu stress à mort, afin d'éléver sa vie de ton niveau de rime Tu lui demandes ce qu'est la pression elle te dit que chez elle c'est la force qui agit sur les tuyauteries Véridique, j'mens pas, précise au point de te dire que ça s'exprime en bar Aujourd'hui c'est pas dur plombier tous les jours la pression tu la mesures à l'aide d'un manomètre Bon j'ai pas les belles images de ta mère mais j'dirais que selon elle, ça se mesure d'après le mal aux fesses Mais maintenant tu le sais en rap, avec le bon texte, le bon débit, tu mets une p'tite claque au son Plus jeune, lui demandant de s'exprimer sur ton débit elle te dit que chez elle ça s'exprime en litres par seconde Véridique, j'mens pas, c'était ton délire mais pas sa vive passion attends faut l'admettre Précise quand même au point d'te dire que le débit des canalisations dépend de leur diamètre Après c'est la famille, les origines, moi ça a gêné ta logique quand je t'ai parlé des miennes J'avoue, j'avoue ça a gêné ta logique de savoir que chez moi branches et racines s'feinent et puis s'croisent à l'arbre Ca t'gêne peut-être que j'en descende car t'as déjà vu ta mère grimper avec 3 arabes Il passait devant le bois en rigolant et lâchait des imitation de bledard tu les croyais dyslexiques ? mais c'qu'ils t'disaient clairement c'est ça oh oui, elle payera pas l'crédit Plus tard tu t'imaginais le pire en les entendant crier One, Two, Three, viva l'Algérie Ca m'dérangerait pas de continuer sur ta maman ça m'poserait absolument pas de soucis Mais j'crois que j'vais arrêter parce que dans les coulisses y a encore la mère à Smoothy Baaah, ma mère est une pute, ma mère est une pute... tu radotes ! Ma mère est une pute, la tienne, une salope ! Au fait, j'vous ai dit que j'étais fou, étrange Que j'enculais des hommes ou des chiens, que j'fistais l'trou des gens Bah en fait c'est pas vrai, oups pardon, j'ai dû niquer tous tes angles ! On va peut-être m'accuser de remixer des rimes ou de recycler des lignes Mais quand tu rap, on dirait que tu te prends un doigt dans l'cul, devine c'était qui ? Tu dégaines, rengaines, me gifles, tu te prends pour Terence Hill Moi j'suis l'autre, beaucoup moins fûté mais beaucoup plus sur la défensive Mon pied dans l'pif j'vais t'péter les gencives Tu espères me faire peur ? Alors j'te cogne, j'te cogne, j'te cogne, j'te cogne BudSpencer J'lâche mes phases sans regarder le timing, j'ai une bar sur chaque film Et j'suis carrément fou, plus rien ne m'arrête quand j'cours après ta femme j'y passe ma tête dans l'trou, comme Jack dans Shining La Bouillabaisse est sortie, si on échappe de l'asile c'est pour partir à la pêche, comme Jack dans un autre film Et tu risques pas de me blesser, avec tes très insuffisantes punchlines J'repars d'ici sans coupures, c'est mon seul et unique plan Birdman Tes battles c'est de la branlette intellectuelle, des moments insoutenables Si tu continues, tu vas jouïr des oreilles, comme dans Intouchables Et j'sais que ma réputation précède FistFuck Mais ta meuf, j'la fais crier dans la douche Hitchcock C'est une question d'honneur faut que j'la fourre C'est une bombe j'fais du rodéo sur elle comme dans Docteur Folamour Est-ce estimable ? Espèce d'ignard, tes références au Reich j'avoue c'est suspect Et puis t'as ton signe de gang tatoué sur le pec DerekVinyard En vrai, tu passes ton temps à checker des Western et dénoncer des juifs T'es obsédé par l'étoile jaune, normal, vu que ton prénom c'est Shérif Shérif ?! T'as vraiment un blase à tenir une épicerie... de nuit, où il y a toujours ce qu'il faut Spécialisée dans le demi-gros, un blase à porter une grosse moustache et se déplacer en vieux cyclo Et vu que tout le monde te comparait à Bob Marley, à cause de tes tifs BANG ! I shot the Sheriff ! Et quand j'suis des fois seul, mon rêve c'est d'être pris en sandwich au milieu de tes 3 soeurs Tu vas filer à l'anglaise moi c'est à l'anglaise que j'te file Mayweather Celle-ci c'est la plus importante de mes lignes Equateur J'en ai fini, maintenant c'est à ton tour Sherif, fais moi peur ! Hey Ludo, tu veux que j'te dise ? T'es pas le plus gros dégeulasse que la Terre ait jamais porté Pas le fruit de 2 êtres dont le coït survient après une suite de 2 e-mail Mais faut que je revoie tout ton parcours vu que ta mère t'a jamais porté T'es pas un fils de pute nan t'es le fils de 2 shemale Mais ouais, ta vie, tes trip sont osés mais ça fait pas rêver c'est zéro Bon allez reviens Ludo, t'sais on s'y fait à une vie de pédé d'hétero Nan, la différence entre toi et moi c'est une histoire de centimètres Toi et ta meuf, quand vos corps s'confondent, elle s'emmerde, simule, moi, faudrait un Human Centipede pour taper une gorge profonde jusqu'à mes testicules Moi quand j'marche dans Paris, j'fais gaffe ou j'risque de marcher sur ma bite, oh oui ! Toi, quand tu marches dans Paris, fais gaffe, ou tu risques de marcher sur ma bite, aussi ! T'sais, j'suis un salopard ! Si j'étais un personnage dans tes amis, j'serais l'rappeur J'ai l'air clean comme ça mais j'ai plus d'un fait d'arme qui pourrait flatter tes admirateurs Genre, m'laisse pas garder ta fille ou j'attendrai qu'elle soit assez crade pour la laver avec l'aspriateur Naaan, on aurait des jolis rapports, ça t'semble louche, comme un genre d'miracle ? On jouerait à tu me shootes du mirador, à l'envers, tu joues à j'te touche quand tu dormiras Mec c'est chaud ! J'ai fait un cours d'affection, sa fille, j'lui ai baisé la joue, baisé l'front Bref, une bête d'émo, le mec me jette ses mots ouais lâche ma ptite espèce de noir de merde de merde, Ludo, pèse tes mots, pendant que j'baise tes mômes ! C'était un jeu de mots, il a pas compris, moi pire, lui tu veux que j'te fist ?! sale rebeu, ouais y a que moi qui encule ou qui excite mes filles Fichtre, sacrebleu, mais que diantre essaie-t-il de me dire ? T'aimerais qu'on t'voit fou, malade, mais y a un truc bête que j'note rapide Tu diras sans doute que t'es pas raciste parce que t'as quelques amis noirs ou arabes ? Mais tu le serais j'm'en fous, j'suis noir et arabe pis j'ai quelques potes racistes ! Avec ta fille dans nos soirées, c'est pas mon genre qu'on tente l'action J'tire au sort dans mes films les plus racistes Le dernier qu'on a vu c'était un juif qui l'a fait sur un camp de concentration de dinosaure du jurassic j'sais pas si tu l'as vu celui là en pleurant c'pas grave c'était cool hein t'façon... T'as envie de me demander pourquoi tu pleures, là maintenant ? Mais ta mère vient de faire jouïr le Führer à l'instant ! Car nan, c'est bien une pute dans mon complot, qui fout ses collègues au chômage puis qu'elle leur vole tous les clients Dans tes battles tu manques jamais de lui rendre hommage, mais dans le travail, ça serait brillant Car elle bosse, quand tu fais le taré ! Empoche ! des paies tarées Donc bosse, et paie ta raie ! t'sais quand tu boss et que vous êtes comme ça Tu parles de la longueur de ta bite ? Mais franchement La mienne est tellement grande que j'nique ta mère pendant que j'nique ta soeur pendant que j'nique ta fille pendant que j'me branle T'avais une brillante idée, d'après mes battles, t'as cru m'identifier Mais si mon crew et moi on fait toujours la même merde, c'est qu'on a ce petit truc si amplifié Ce petit truc que t'as toujours voulu avoir comme j'sais pas moi, une identité ? J'éviterais de parler de fist, de viol, de lui de sa femme J'vais pas critiquer ton flow, puisqu'il est bon, normal, c'est celui de Saïan Manque de pot, si tu cherches à imiter, au moins fais le bien J'ai ptet un manque de flow, mais mon manque de flow, au moins, c'est le mien Et vu que j'ai l'impression d'te faire chier, question conne Tu penses que c'est parce que tes phases sont recherchées, qu'elles sont bonnes ? Au fond, tes phases recherchées c'est juste pour feinter les gens Tu rajoutes du style inutile et futile, il a espoir que ça l'aide Rien ne sert de faire des phases intelligentes, le public est stupide il suffit de leur faire croire que ça l'est Et t'es de plus en plus ridicule, va au diable, toi et tes stupides patterns Technique parfaite quand l'inspi diminue salopard, le pire c'est que tu le dis toi même ! Parce que c'est vrai que reprendre le style d'Hermano pour battle Hermano, c'est de la folie, un génie ! Reprendre le style d'Hermano pour battle Louvar, c'est de la copie, un délit ! Et t'as bouclé une boucle, c'est bizarre vois-tu T'as battu Hermano qui a battu Louvar qui t'a battu, fils ça va plus Mais le battle c'est ça, c'est souvent grave abstrait Regarde moi j'ai bien battu Chilly Chill qui pourtant a gagné Si tu veux qu'ils t'aplaudissent comme des otaries T'avais à juste à venir avec un maillot d'Paris Mais moi, j'préfère encore me faire mettre par 3 gros africains, et puis même me taper un travelo brasilien, me nourrir exclusivement de terre genre des gâteaux Haïtiens, me faire racketter par 3 pédés ou un informaticien, quitte à me faire traiter de faggot autant me prendre un coup de baguette comme un châpeau de magicien, me faire humilier et pisser dessus par 4 soldats ricains, fumer l'équivalent d'un cargo de crack costaricain, me faire torturer à vie par un sadomaso-praticien, devenir une idole pour les ados à petits seins, faire 3 fois le tour du monde sur un radeau malien, que de porter ne serait-ce qu'une seconde votre foutu maillot parisien !5</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Les yeux au ciel</t>
+          <t>L’heure des poètes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>OK, c'est là ? Voiture 17... OK, j'me mets là... J'laisse, derrière moi la capitale Et dans deux heures et quart j'poserai un pied dans ma ville natale À chaque fois, j'passe en coup de vent et j'pense déjà à la prochaine Fois, où j'ferai tourner les éoliennes Sur le côté, les pylônes défilent et battent la mesure J'écris entre des lignes à haute tension et sur un ciel dazur J'laisse derrière moi les Abbesses et le 18ème Et droit devant Naoned dans deux heures à peine J'écris au dos d'un magazine, sur une pub de fringue Mon Bic n'aime pas l'papier glacé et ça, ça me rend dingue Le contrôleur m'interrompt en plein alexandrin Il poinçonne et on reprend notre train-train La place 56 rit, mais j'arrive pas à voir c'qu'elle lit La place 42 parle mais j'arrive pas à entendre c'qu'elle dit J'laisse derrière moi mon p'tit amour... Et on est déjà à mi-parcours... Il semble que les gens en train ne sont pas bien Pas un sourire, pas un regard, pas un contact entre voisins Une femme me dit Excusez-moi, j'crois que c'est ma place. La voiture est à moitié vide alors j'me lève Et m'assois en face.... de cette connasse J'vois défiler un tas de maison Et j'me dis qu'toutes les heures, un TGV traverse leur salon On a le droit à une version synthé de Vivaldi tous les quarts d'heure Car la place 70 ne connait pas le mode vibreur J'écoute Mayra Andrade, sa langue a des accents d'Afrique Et puis j'me dis qu'le Cap Vert, c'est pas très loin donc c'est plutôt logique L'album s'achève et jenchaîne avec Raul Midon J'imagine le punk de la place 40 écoutant Nina Simone La place 56 est absorbée dans sa lecture Et j'me demande si on s'ennuie autant dans les autres voitures J'me rappelle d'une fois où on a eu trois heures de retard Ils avaient retrouvé la moto mais... jamais le motard À la place 63 et 64 on est à deux doigts d'en venir aux mains J'ai cru comprendre que monsieur laisse trainer ses poils dans la salle de bain La place 62 a les yeux de quelqu'un qui n'a pas dormi Tous les quarts d'heure, il ferme l'il et l'ouvre au rythme de Vivaldi J'aimerais qu'le mioche de la place 50 dorme aussi profondément Que la place 63 qui ronfle comme un régiment J'me dis que Grand Corps Malade a déjà écrit Voyages en train Du coup, j'ai l'impression de plagier, la métaphore et la béquille en moins... Dans les wagons, des fois, on croise des stars... Une fois j'ai vu Laurent Boyer à la gare... Ouais mais, attends, Laurent Boyer c'est pas vraiment une star ? Il est plus, genre il interviewe des stars... Mais, c'est les autres les stars, nan ? À la place 54, cette fois, c'est passé vite j't'assure Plus d'espace sur la quatrième de couverture J'laisse derrière moi une vingtaine d'arrondissement Et une voix saturée dit Terminus, tout le monde descend !</t>
+          <t>On a déclaré que je suis un poète, moi, je fais des chansons. Je ne sais pas si je suis poète, il est possible que je l'sois un p'tit peu, m'enfin, peu m'importe je mélange des paroles et d'la musique... Au réveil, c'est du Brassens quand j'émerge encore loin des gens Ça met trois claques au sommeil, puis ça démarre intelligent Parce que, Brassens, c'est du pain chaud sur lequel tu mets du miel Ça sent l'café expresso comme un XXX essentiel Une fois les neurones bien secoués, c'est l'heure du réveil musculaire Après la douche, c'est NTM qui fait bouger mes maxillaires C'est l'heure de s'remplir d'énergie pour la journée et ses coups bas C'est l'heure du flow et des gros bras, et s'rappeler aussi que je viens d'là Quand j'prends l'volant sur l'périph', faut que j'continue la série Du gros son sur chaque texte, alors c'est l'heure de Kery Car c'est la bande originale du paysage tout autour Le bitume prend l'micro quand j'suis à Porte de Clignancourt À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Midi c'est l'repos du guerrier, la pause du dragon Et la lumière qui s'épaissit, et Ferrat qui chante Aragon Des mots tranchant et la voix chaude, quand le feu rejoint l'eau Le soleil est juste au-d'ssus, y'a aucune ombre au tableau À l'heure du dessert, c'est évident, c'est Aznavour Les p'tits plats sont dans les grands, y'a l'gâteau qui sort du four Un repas sans dessert, c'est une compil' sans La Bohème L'institution dans l'élégance, des profiteroles avec la crème Quinze heure trente plein soleil, j'veux du solide, pas du frêle C'est bien l'heure du grandiose, du spacieux, c'est du Brel La poésie qui s'envole et t'emporte en un instant À Vesoul, à Amsterdam, avec Mathilde et à mille temps À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Quand le soleil part à reculons, c'est p't-être mon moment préféré Une atmosphère comme du coton, et la lumière un peu biaisée C'est l'heure de tous les états d'âme où je ressens le poids de chaque mot C'est l'bon climat, messieurs-dames, pour pouvoir écouter Renaud Renaud, c'est la tempête dans la douleur du crépuscule C'est un cur de moineau dans la poitrine d'Hercule C'est la rage et la tendresse, il y a trente ans, il a écrit Des trucs qui, chaque jour, m'aident à comprendre c'que j'fous ici Et, lors du règne de la nuit, quand la lumière s'habille en noir Et pour trouver l'accord parfait entre quiétude et cafard Il nous restera ça, le corps caché sous les draps Une enceinte au bout des doigts qui fait chanter Barbara À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Les yeux au ciel (Instrumental)</t>
+          <t>L’heure d’été</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ecoute, yo, hun, Black Kent fuit le vent J'veux pas grandir, et j'reste fly comme Peter Pan C'est c'que j'disais y a quelques mois, c'est c'que j'me dis encore J'suis au-dessus, ils m'entendent pas, donc Blacky crie encore J'ai trouvé l'moyen d'planer, j'suis sur ma bonne étoile et Les coups d'soleil sont bien plus forts quand c'est ton voisin d'palier J'l'avoue, et d'là-haut je fais c'qui m'chante Et si j'le chante pas, dis moi, qui le chante ? Ma 'sique vient d'où ? Elle vient d'là où les ados s'vantent Moi j'dors à l'heure où les oiseaux s'plantent Comme ça j'suis seul dans le ciel, ouais, j'rêve d'apesanteur Et si t'es comme moi, tu sais qu'le reste a peu d'ampleur Je plane... Moi je plane... Ouais, je plane... Moi je plane... Monte sur l'Everest si tu espères apercevoir ma semelle Mais n'oublie pas le télescope, jette moi vite ces jumelles Car j'ai des colombes et des corbeaux en guise de voisinage Dites à la petite souris de mettre une grosse liasse sous mon nuage J'ai pris le large à l'age des dents de lait, quitté les barbelés Du monde réel, regarde les imiter mes ailes Pour m'réveiller c'est pas un coq mais un aigle qui chante J'fais du T-Max sur le dos d'une étoile filante Tape mon adresse sur Google Earth, mais pas sur Mappy Quand j'ai mal et qu'j'lâche une larme sors le parapluie Les pieds sur Terre j'suis comme Grand Corps Malade sans sa canne Comme Kent, et plastique Bertrand, mec, je plane Je rêve de voir les choses en grand depuis tout petit Et comme j'suis tout là-haut, eh bin j'vois tout en petit Si quand t'écoutes tu planes pas c'est qu'tu t'es trompé d'click Car même les instruments volent, Ritchi fait tomber l'kick Bref, on a pas peur des mots, loin de là Donc ma musique j'la fais saigner, huh les règles de l'art J'écris en rouge quand les feux sont verts J't'emmène sur un nuage gris, j'deviens faible quand les yeux sont clairs Obscures sont mes pensées quand d'l'altitude je perds Si j'te regarde de haut, c'est qu't'as trop les pieds sur Terre Et ça j't'ai déjà dit Mon grand a jeté les dés jadis Et ils sont toujours pas tombés, ouais, je plane Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Est-ce que c'est de la patience ou est-ce qu'on sait faire le dos rond Est-ce que c'est l'expérience que nous ont enseigné nos darons Mais ce qu'on a tous compris c'est que la vie repose toujours Sur l'enchaînement des opposés, après chaque nuit il va faire jour Partant de cette évidence ou d'une volontaire naïveté On sait qu'après chaque inquiétude viendra l'instant de sérénité Comme si à l'échelle d'une vie les choses devaient s'équilibrer Après l'orage les éclaircies, aucun ciel ne reste encombré Alors on s'est imprégné de cette capacité d'adaptation Pour encaisser les coups on a su entrer en mode mission On sait que les tunnels ont une fin dans chaque moment de lucidité Et que nos efforts ne sont pas vains quand la vie passe à l'heure d'été Summertime and the living is easy Fish are jumping and the cotton is high Oh, your daddy's rich and your ma' is good looking So hush little baby, don't you cry J'ai eu pas mal de patience et j'ai dû faire le dos rond Pour traverser en silence toutes mes journées peintes en marron J'ai gardé l'envie de croire ou j'ai toujours cru à l'envie J'ai refusé de concevoir un présent cruel à vie Comme le destin doit être aidé, j'ai avancé l'aiguille d'un tour Je suis passé à l'heure d'été pour aller rejouer dans la cour Comme le boxeur après le gong et le taulard après dix ans Comme le civil après les bombes, après la lutte on est vivant Vivant pour sentir le soleil, la nuit tombe de plus en plus tard Et y a de la lumière de plus en plus longtemps dans nos espoirs C'est vrai qu'on a passé l'hiver à donner des grands coups d'épée Dorénavant la route est claire, on est passé à l'heure d'été One of these mornings, you're gonna rise up singing Then you'll spread your wings and you'll take to the sky But till that morning there's nothing can harm you With daddy and mommy standing by With daddy and mommy standing by</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>L’étoile</t>
+          <t>Liberté</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yo, vous avez vu son battle avec le Québécois ? Yo, pour moi, t'as battu le roux Franchement Dony, c'est un vol Mais ça tue que t'aies proposé le duel Vous avez vu ? Ça se rend les coups comme au Colisée à Rome Justesse, propos, gestuelle Mais faut pas des couilles pour sodomiser un homme, faut juste être homosexuel ! Après, chacun son truc, j'ai des trip des mecs des îles Toi tu suces avec zèle, tu cueilles des folles en ville Moi j'colle des feuilles en L Mais tu passes pour le type qui préfère les ils avec la voix affolée mec J'passe pour le flic de Beverly Hills avec la voix d'Foley mec Tu rêves de t'épanouir à la chapelle Fistine dans une discipline poing-pieds Fister des culs, boire du jus d'orifice de pompier Pour nous conter l'histoire dans une soirée plutôt chic où t'es convié Mais tu t'appelles Ludovic et t'es plombier Bon, parlons plomberie, sérieux c'est une compétence de fou, tiens sérieux l'histoire est assez marrante Faudrait que tu dépannes Fauriss... un mec qui a des doutes sur une vieille installation de douches des années 40 J'voulais pas l'dire, quoi aujourd'hui tu peux enculer des homos légalement Moi on me critique pour une langue comme un petit me l'a fait remarquer En 2015, j'peux pas aduler les allemands, mais je signe toujours mes crimes d'un petit cantique de la Wehrmacht Hey hi.. Hey ho.. On rentre du complot ! Mais, vous savez, j'suis pas négationniste Non, non ! Ce soir je suis méga-sionniste ! Je viens taper super-fisteur, oh oui ! Je pense pas que tes petits poings vont aller loin, d'autres oui ! Mais c'est comme si tous tes orifices étaient déjà huilés avec soin face à mes poings Godwin ! Dans ton battle avec Gram t'as fais des phases racistes sur les juifs Dis ! Hé, tu sais donc pas que c'est pas bien d'être raciste, que c'est mal ? Petite merde ! Il y a des baffes qui se perdent ! Ce soir pour battre méga-sionniste il te faudrait fister un vampire juif avec de l'ail Hitler ! Non, c'est des personnages, c'est un truc tranquille Du coup, ça va me saouler de répéter que ton stock de trucs dans le fion il faut que tu le bouge à l'occas' Ou que les groupes LGBT vont stop les subventions pour les Tous Salopards T'aimes dire que c'est de l'irrespect de faire ton fêlé dans des fausses partouzes Mais, même si t'étais pédé les pédés diraient que t'es qu'une grosse tarlouze, mec ! Hé oui ! En plus, quand on sait que t'es l'heureux papa d'une fille on se dit que tout ce que tu fais c'est une blague Sans rire, niveau éducatif tu risques d'y laisser une trace, je parle pas d'une fessée, d'une claque Non juste qu'un jour en classe elle arrive, elle crie qu'ici c'est la seule qui ait la schnek de lécher une chatte Mais c'est horrible, c'est horrible mais c'est lui, je t'imagine chez toi avec un petit Do Mac t'sais dans un canapé deux places Trip trop crade ! Tu commences à tripoter ta fille avant de te dire Oh non ! C'est dégueulasse, les frites sont froides ! Tu dis que ma fille va devenir lesbienne Dis moi ce que tu comptes faire ? Tu dis que ma fille va devenir lesbienne Mais c'est mon plus grand rêve Je me suis peut-être fait opérer des yeux, mais j'reste le même obsédé sérieux Le genre de pédé dégueu qui aime observer les vieux Mais sincèrement j'me fous de ce que t'écris dans tes jolis sons Ce battle c'est un peu comme une évidente opposition et même s'il change de position Moi j'ai un coup d'avance sur toi, car je doute même de l'existence de Faurisson À chaque fois tu composes Tes battles à base de théories du complot Révisionnisme, lobby, sionisme... Tu t'es perdu mon pauvre Je sais que c'est ta technique de base, mais Cheef Tout le monde sait que les juifs ça n'existe pas Et puis, on pourra pas éviter la chute, on tombera pas de chance ! Je sais que pour toi dénoncer le complot c'est ta lutte, ton combat Mein Kampf ! Les gens les plus obscènes me veulent, mais toi le nazillon Tu sais comment on prendre ta pauvre mère ? Double ! Ça t'apprendra à te faire jouir sur des posters de Joseph Goebbels T'es tellement nostalgique du régime d'Heinrich Himmler Que tu défiles dans Paris avec une Jeep militaire Et t'avais déjà une petite moustache, dans le ventre de ta mère Puis t'as appris à faire du rap sur des samples de Wagner J'vais peut-être passé pour un pauvre mec ou un fou Mais t'as des phases qui pourraient faire passer Wojtek pour un rouge Des saluts nazis, des SS, une centaine, une armée Yo T'as des phases sorties tout droit des pires documentaires sur Arte Tu cites des grands génies comme Pétain, Hitler Mais pour moi tes origines restent un mystère Ta mère devait être une croisée malgache qui s'est faite sautée par trois gars dans une soirée de malade au Guatemala pendant ses vacances La vérité c'est que t'es noir et arabe, bah quoi c'est pas grave Mais noir et arabe, franchement c'est pas de chance Remarque, il faut voir le bon côté de la chose, tu passe d'une identité à l'autre Noir et arabe, j'suis sûr qu'il y a moyen de cumuler les allocs Quand même, noir et arabe, fils tu déconnes C'est quoi ? Tu grimpes aux arbres, puis tu les voles ? Un jour tu t'accroches au train d'atterissage Un jour tu fais peur quand t'es assis dans l'avion Tu vends même des petites tour Eiffel Mais dans une alimentation Noir et arabe, t'es une sorte de prototype Mais y a moyen de te mettre d'accord Car d'un côté tu pues, et de l'autre aussi C'est pas que j'mennuie ou que j'veuille juste donner une bonne image d'Hitler Mais maintenu en vie à cette-heure ta mère le suce dans mon complot imaginaire Vous en avez marre des vannes de nazis ? Chez moi c'est systématique, j'vais m'lancer dans un truc plus technique, une rime mathématique du genre 31, 32, 33, 34, 35, 36, 37, 38, 39... 45 ! 46, 47, 48, 49, 50, 51, 52, 53, 54... bon... Hermano a pas fini de me l'écrire celle-là... Ta mère est une pute ! Mais pas l'insulte, le métier Au début tu t'es pas méfié, mais elle a fait ça fort ! Te donner la passion de la plomberie sans que t'aies compris ses métaphores Plus jeune, tu stress à mort, afin d'éléver sa vie de ton niveau de rime Tu lui demandes ce qu'est la pression elle te dit que chez elle c'est la force qui agit sur les tuyauteries Véridique, j'mens pas, précise au point de te dire que ça s'exprime en bar Aujourd'hui c'est pas dur plombier tous les jours la pression tu la mesures à l'aide d'un manomètre Bon j'ai pas les belles images de ta mère mais j'dirais que selon elle, ça se mesure d'après le mal aux fesses Mais maintenant tu le sais en rap, avec le bon texte, le bon débit, tu mets une p'tite claque au son Plus jeune, lui demandant de s'exprimer sur ton débit elle te dit que chez elle ça s'exprime en litres par seconde Véridique, j'mens pas, c'était ton délire mais pas sa vive passion attends faut l'admettre Précise quand même au point d'te dire que le débit des canalisations dépend de leur diamètre Après c'est la famille, les origines, moi ça a gêné ta logique quand je t'ai parlé des miennes J'avoue, j'avoue ça a gêné ta logique de savoir que chez moi branches et racines s'feinent et puis s'croisent à l'arbre Ca t'gêne peut-être que j'en descende car t'as déjà vu ta mère grimper avec 3 arabes Il passait devant le bois en rigolant et lâchait des imitation de bledard tu les croyais dyslexiques ? mais c'qu'ils t'disaient clairement c'est ça oh oui, elle payera pas l'crédit Plus tard tu t'imaginais le pire en les entendant crier One, Two, Three, viva l'Algérie Ca m'dérangerait pas de continuer sur ta maman ça m'poserait absolument pas de soucis Mais j'crois que j'vais arrêter parce que dans les coulisses y a encore la mère à Smoothy Baaah, ma mère est une pute, ma mère est une pute... tu radotes ! Ma mère est une pute, la tienne, une salope ! Au fait, j'vous ai dit que j'étais fou, étrange Que j'enculais des hommes ou des chiens, que j'fistais l'trou des gens Bah en fait c'est pas vrai, oups pardon, j'ai dû niquer tous tes angles ! On va peut-être m'accuser de remixer des rimes ou de recycler des lignes Mais quand tu rap, on dirait que tu te prends un doigt dans l'cul, devine c'était qui ? Tu dégaines, rengaines, me gifles, tu te prends pour Terence Hill Moi j'suis l'autre, beaucoup moins fûté mais beaucoup plus sur la défensive Mon pied dans l'pif j'vais t'péter les gencives Tu espères me faire peur ? Alors j'te cogne, j'te cogne, j'te cogne, j'te cogne BudSpencer J'lâche mes phases sans regarder le timing, j'ai une bar sur chaque film Et j'suis carrément fou, plus rien ne m'arrête quand j'cours après ta femme j'y passe ma tête dans l'trou, comme Jack dans Shining La Bouillabaisse est sortie, si on échappe de l'asile c'est pour partir à la pêche, comme Jack dans un autre film Et tu risques pas de me blesser, avec tes très insuffisantes punchlines J'repars d'ici sans coupures, c'est mon seul et unique plan Birdman Tes battles c'est de la branlette intellectuelle, des moments insoutenables Si tu continues, tu vas jouïr des oreilles, comme dans Intouchables Et j'sais que ma réputation précède FistFuck Mais ta meuf, j'la fais crier dans la douche Hitchcock C'est une question d'honneur faut que j'la fourre C'est une bombe j'fais du rodéo sur elle comme dans Docteur Folamour Est-ce estimable ? Espèce d'ignard, tes références au Reich j'avoue c'est suspect Et puis t'as ton signe de gang tatoué sur le pec DerekVinyard En vrai, tu passes ton temps à checker des Western et dénoncer des juifs T'es obsédé par l'étoile jaune, normal, vu que ton prénom c'est Shérif Shérif ?! T'as vraiment un blase à tenir une épicerie... de nuit, où il y a toujours ce qu'il faut Spécialisée dans le demi-gros, un blase à porter une grosse moustache et se déplacer en vieux cyclo Et vu que tout le monde te comparait à Bob Marley, à cause de tes tifs BANG ! I shot the Sheriff ! Et quand j'suis des fois seul, mon rêve c'est d'être pris en sandwich au milieu de tes 3 soeurs Tu vas filer à l'anglaise moi c'est à l'anglaise que j'te file Mayweather Celle-ci c'est la plus importante de mes lignes Equateur J'en ai fini, maintenant c'est à ton tour Sherif, fais moi peur ! Hey Ludo, tu veux que j'te dise ? T'es pas le plus gros dégeulasse que la Terre ait jamais porté Pas le fruit de 2 êtres dont le coït survient après une suite de 2 e-mail Mais faut que je revoie tout ton parcours vu que ta mère t'a jamais porté T'es pas un fils de pute nan t'es le fils de 2 shemale Mais ouais, ta vie, tes trip sont osés mais ça fait pas rêver c'est zéro Bon allez reviens Ludo, t'sais on s'y fait à une vie de pédé d'hétero Nan, la différence entre toi et moi c'est une histoire de centimètres Toi et ta meuf, quand vos corps s'confondent, elle s'emmerde, simule, moi, faudrait un Human Centipede pour taper une gorge profonde jusqu'à mes testicules Moi quand j'marche dans Paris, j'fais gaffe ou j'risque de marcher sur ma bite, oh oui ! Toi, quand tu marches dans Paris, fais gaffe, ou tu risques de marcher sur ma bite, aussi ! T'sais, j'suis un salopard ! Si j'étais un personnage dans tes amis, j'serais l'rappeur J'ai l'air clean comme ça mais j'ai plus d'un fait d'arme qui pourrait flatter tes admirateurs Genre, m'laisse pas garder ta fille ou j'attendrai qu'elle soit assez crade pour la laver avec l'aspriateur Naaan, on aurait des jolis rapports, ça t'semble louche, comme un genre d'miracle ? On jouerait à tu me shootes du mirador, à l'envers, tu joues à j'te touche quand tu dormiras Mec c'est chaud ! J'ai fait un cours d'affection, sa fille, j'lui ai baisé la joue, baisé l'front Bref, une bête d'émo, le mec me jette ses mots ouais lâche ma ptite espèce de noir de merde de merde, Ludo, pèse tes mots, pendant que j'baise tes mômes ! C'était un jeu de mots, il a pas compris, moi pire, lui tu veux que j'te fist ?! sale rebeu, ouais y a que moi qui encule ou qui excite mes filles Fichtre, sacrebleu, mais que diantre essaie-t-il de me dire ? T'aimerais qu'on t'voit fou, malade, mais y a un truc bête que j'note rapide Tu diras sans doute que t'es pas raciste parce que t'as quelques amis noirs ou arabes ? Mais tu le serais j'm'en fous, j'suis noir et arabe pis j'ai quelques potes racistes ! Avec ta fille dans nos soirées, c'est pas mon genre qu'on tente l'action J'tire au sort dans mes films les plus racistes Le dernier qu'on a vu c'était un juif qui l'a fait sur un camp de concentration de dinosaure du jurassic j'sais pas si tu l'as vu celui là en pleurant c'pas grave c'était cool hein t'façon... T'as envie de me demander pourquoi tu pleures, là maintenant ? Mais ta mère vient de faire jouïr le Führer à l'instant ! Car nan, c'est bien une pute dans mon complot, qui fout ses collègues au chômage puis qu'elle leur vole tous les clients Dans tes battles tu manques jamais de lui rendre hommage, mais dans le travail, ça serait brillant Car elle bosse, quand tu fais le taré ! Empoche ! des paies tarées Donc bosse, et paie ta raie ! t'sais quand tu boss et que vous êtes comme ça Tu parles de la longueur de ta bite ? Mais franchement La mienne est tellement grande que j'nique ta mère pendant que j'nique ta soeur pendant que j'nique ta fille pendant que j'me branle T'avais une brillante idée, d'après mes battles, t'as cru m'identifier Mais si mon crew et moi on fait toujours la même merde, c'est qu'on a ce petit truc si amplifié Ce petit truc que t'as toujours voulu avoir comme j'sais pas moi, une identité ? J'éviterais de parler de fist, de viol, de lui de sa femme J'vais pas critiquer ton flow, puisqu'il est bon, normal, c'est celui de Saïan Manque de pot, si tu cherches à imiter, au moins fais le bien J'ai ptet un manque de flow, mais mon manque de flow, au moins, c'est le mien Et vu que j'ai l'impression d'te faire chier, question conne Tu penses que c'est parce que tes phases sont recherchées, qu'elles sont bonnes ? Au fond, tes phases recherchées c'est juste pour feinter les gens Tu rajoutes du style inutile et futile, il a espoir que ça l'aide Rien ne sert de faire des phases intelligentes, le public est stupide il suffit de leur faire croire que ça l'est Et t'es de plus en plus ridicule, va au diable, toi et tes stupides patterns Technique parfaite quand l'inspi diminue salopard, le pire c'est que tu le dis toi même ! Parce que c'est vrai que reprendre le style d'Hermano pour battle Hermano, c'est de la folie, un génie ! Reprendre le style d'Hermano pour battle Louvar, c'est de la copie, un délit ! Et t'as bouclé une boucle, c'est bizarre vois-tu T'as battu Hermano qui a battu Louvar qui t'a battu, fils ça va plus Mais le battle c'est ça, c'est souvent grave abstrait Regarde moi j'ai bien battu Chilly Chill qui pourtant a gagné Si tu veux qu'ils t'aplaudissent comme des otaries T'avais à juste à venir avec un maillot d'Paris Mais moi, j'préfère encore me faire mettre par 3 gros africains, et puis même me taper un travelo brasilien, me nourrir exclusivement de terre genre des gâteaux Haïtiens, me faire racketter par 3 pédés ou un informaticien, quitte à me faire traiter de faggot autant me prendre un coup de baguette comme un châpeau de magicien, me faire humilier et pisser dessus par 4 soldats ricains, fumer l'équivalent d'un cargo de crack costaricain, me faire torturer à vie par un sadomaso-praticien, devenir une idole pour les ados à petits seins, faire 3 fois le tour du monde sur un radeau malien, que de porter ne serait-ce qu'une seconde votre foutu maillot parisien !5</t>
+          <t>Elle coule des larmes, elle fait des heureux Ecris en gros sont nos valeurs Elle brise les femmes, elle fauche les hommes On garde espoir, y a pire ailleurs Et depuis peu, elle est en deuil Elle se fait rare, jamais à l'heure Et les problèmes ne viennent pas seuls Perdue de vue, elle a pris peur Plus d'une fois, on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on la maquillée Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Tous les plus grands poètes ont écrit son nom Les hommes ont cherché la lumière en suivant son ombre Certains sont morts pour la sauver, combien de tombes fleuries Certains attendent de la retrouver dans une cellule à Fleury On a aimé l'honorer, la chanter et la peindre On croit toujours en manquer, j'entends trop de monde se plaindre Ceux qui l'ont vraiment perdue attendent le compte à rebours As-tu déjà entendu parler du peuple ouïghour Avec ses petites surs, égalité, fraternité Elle chante parmi les cris pour rester une réalité Pour rester vibrante et espérer un avenir triomphant Pour rester vivante à l'avenir pour nos enfants Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté Je vois ses bras qui s'ouvrent Ses charmes et ses promesses nous ont rendus naïfs Elle nous a rendus oufs Que pour un peu d'amour, ça se change en manif Dis-moi ce que tu lui trouves Certains lui font la cour ou bien d'autres la sifflent Frérot si tu la retrouves C'est tout simple s'il te plaît, dis-lui jusqu'qu'on la kiffe Plus d'une fois on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on l'a maquillée Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lettre à ma fille</t>
+          <t>L’ombre et la lumière</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>La lune était en son plein, le ciel était découvert, et neuf heures du soir étaient sonnées lorsque nous revenions dune maison proche de Paris, quatre de mes amis et moi. Les diverses pensées que nous donna la vue de cette boule de safran nous défrayèrent sur le chemin. Les yeux noyés dans ce grand astre, tantôt lun le prenait pour une lucarne du ciel par où lon entrevoyait la gloire des bienheureux tantôt lautre protestait que cétait la platine où Diane dresse les rabats dApollon tantôt un autre sécriait que ce pourrait bien être le soleil lui-même, qui sétant au soir dépouillé de ses rayons regardait par un trou ce quon faisait au monde quand il ny était plus. Et moi, dis-je, qui souhaite mêler mes enthousiasmes aux vôtres, je crois sans mamuser aux imaginations pointues dont vous chatouillez le temps pour le faire marcher plus vite, que la lune est un monde comme celui-ci, à qui le nôtre sert de lune. La compagnie me régala dun grand éclat de rire. Ainsi peut-être, leur dis-je, se moque-t-on maintenant dans la lune, de quelque autre, qui soutient que ce globe-ci est un monde. Mais jeus beau leur alléguer que Pythagore, Epicure, Démocrite et, de notre âge, Copernic et Kepler, avaient été de cette opinion, je ne les obligeai quà ségosiller de plus belle. Cette pensée, dont la hardiesse biaisait en mon humeur, affermie par la contradiction, se plongea si profondément chez moi que, pendant tout le reste du chemin, je demeurai gros de mille définitions de lune, dont je ne pouvais accoucher et à force dappuyer cette créance burlesque par des raisonnements sérieux, je me le persuadai quasi, mais, écoute, lecteur, le miracle ou laccident dont la Providence ou la fortune se servirent pour me le confirmer. Jétais de retour à mon logis et, pour me délasser de la promenade, jétais à peine entré dans ma chambre quand sur ma table je trouvai un livre ouvert que je ny avais point mis. Cétait les oeuvres de Cardan et quoique je neusse pas dessein dy lire, je tombai de la vue, comme par force, justement dans une histoire que raconte ce philosophe il écrit quétudiant un soir à la chandelle, il aperçut entrer, à travers les portes fermées de sa chambre, deux grands vieillards, lesquels, après beaucoup dinterrogations quil leur fit, répondirent quils étaient habitants de la lune, et cela dit, ils disparurent. Je demeurai si surpris, tant de voir un livre qui sétait apporté là tout seul, que du temps et de la feuille où il sétait rencontré ouvert, que je pris toute cette enchaînure dincidents pour une inspiration de Dieu qui me poussait à faire connaître aux hommes que la lune est un monde. Quoi ! disais-je en moi-même, après avoir tout aujourdhui parlé dune chose, un livre qui peut-être est le seul au monde où cette matière se traite voler de ma bibliothèque sur ma table, devenir capable de raison, pour souvrir justement à lendroit dune aventure si merveilleuse et fournir ensuite à ma fantaisie les réflexions et à ma volonté les desseins que je fais !... Sans doute, continuais-je, les deux vieillards qui apparurent à ce grand homme sont ceux-là mêmes qui ont dérangé mon livre, et qui lont ouvert sur cette page, pour sépargner la peine de me faire cette harangue quils ont faite à Cardan. Mais, ajoutais-je, je ne saurais méclaircir de ce doute, si je ne monte jusque-là ? Et pourquoi non ? me répondais-je aussitôt. Prométhée fut bien autrefois au ciel dérober du feu. À ces boutades de fièvres chaudes, succéda lespérance de faire réussir un si beau voyage. Je menfermai, pour en venir à bout, dans une maison de campagne assez écartée, où après avoir flatté mes rêveries de quelques moyens capables de my porter, voici comme je me donnai au ciel. Je métais attaché autour de moi quantité de fioles pleines de rosée, et la chaleur du soleil qui les attirait méleva si haut, quà la fin je me trouvai au-dessus des plus hautes nuées. Mais comme cette attraction me faisait monter avec trop de rapidité, et quau lieu de mapprocher de la lune, comme je prétendais, elle me paraissait plus éloignée quà mon partement, je cassai plusieurs de mes fioles, jusquà ce que je sentis que ma pesanteur surmontait lattraction et que je descendais vers la terre. Mon opinion ne fut point fausse, car jy retombai quelque temps après, et à compter lheure que jen étais parti, il devait être minuit. Cependant je reconnus que le soleil était alors au plus haut de lhorizon, et quil était midi. Je vous laisse à penser combien je fus étonné certes je le fus de si bonne sorte que, ne sachant à quoi attribuer ce miracle, jeus linsolence de mimaginer quen faveur de ma hardiesse, Dieu avait encore une fois recloué le soleil aux cieux, afin déclairer une si généreuse entreprise. Ce qui accrut mon ébahissement, ce fut de ne point connaître le pays où jétais, vu quil me semblait quétant monté droit, je devais être descendu au même lieu doù jétais parti. Equipé comme jétais, je macheminai vers une chaumière, où japerçus de la fumée et jen étais à peine à une portée de pistolet, que je me vis entouré dun grand nombre de sauvages. Ils parurent fort surpris de ma rencontre car jétais le premier, à ce que je pense, quils eussent jamais vu habillé de bouteilles. Et pour renverser encore toutes les interprétations quils auraient pu donner à cet équipage, ils voyaient quen marchant je ne touchais presque point à la terre aussi ne savaient-ils pas quau premier branle que je donnais à mon corps, lardeur des rayons de midi me soulevait avec ma rosée, et sans que mes fioles nétaient plus en assez grand nombre, jeusse été, possible, à leur vue enlevé dans les airs. Je les voulus aborder mais comme si la frayeur les eût changés en oiseaux, un moment les vit perdre dans la forêt prochaine. Jen attrapai toutefois un, dont les jambes sans doute avaient trahi le coeur. Je lui demandai avec bien de la peine car jétais essoufflé, combien on comptait de là à Paris, depuis quand en France le monde allait tout nu, et pourquoi ils me fuyaient avec tant dépouvante. Cet homme à qui je parlais était un vieillard olivâtre, qui dabord se jeta à mes genoux et joignant les mains en haut derrière la tête, ouvrit la bouche et ferma les yeux. Il marmotta longtemps, mais je ne discernai point quil articulât rien de façon que je pris son langage pour le gazouillement enroué dun muet. À quelque temps de là, je vis arriver une compagnie de soldats tambour battant, et jen remarquai deux se séparer du gros pour me reconnaître. Quand ils furent assez proche pour être entendu, je leur demandai où jétais. Vous êtes en France, me répondirent-ils mais qui diable vous a mis dans cet état ? et doù vient que nous ne vous connaissons point ? Est-ce que les vaisseaux sont arrivés ? En allez-vous donner avis à M. le Gouverneur ? Et pourquoi avez-vous divisé votre eau-de-vie en tant de bouteilles ? À tout cela, je leur repartis que le diable ne mavait point mis en cet état quils ne me connaissaient pas, à cause quils ne pouvaient pas connaître tous les hommes que je ne savais point que la Seine portât des navires que je navais point davis à donner à M. de Montbazon et que je nétais point chargé deau-de-vie. Ho, ho, me dirent-ils, me prenant par le bras, vous faites le gaillard ? M. le Gouverneur vous connaîtra bien, lui ! Ils me menèrent vers leur gros, me disant ces paroles, et jappris deux que jétais en France et nétais point en Europe, car jétais en la Nouvelle France. Je fus présenté à M. de Montmagny, qui en est le vice-roi. Il me demanda mon pays, mon nom et ma qualité et après que je leus satisfait, en lui racontant lagréable succès de mon voyage, soit quil le crût, soit quil feignît de le croire, il eut la bonté de me faire donner une chambre dans son appartement. Mon bonheur fut grand de rencontrer un homme capable de hautes opinions, et qui ne sétonna point quand je lui dis quil fallait que la terre eût tourné pendant mon élévation puisque ayant commencé de monter à deux lieues de Paris, jétais tombé par une ligne quasi perpendiculaire en Canada. Le soir, comme je mallais coucher, je le vis entrer dans ma chambre Je ne serais pas venu, me dit-il, interrompre votre repos, si je navais cru quune personne qui a pu faire neuf cents lieues en demi-journée les a pu faire sans se lasser. Mais vous ne savez pas, ajouta-t-il, la plaisante querelle que je viens davoir pour vous avec nos Pères jésuites ? Ils veulent absolument que vous soyez magicien et la plus grande grâce que vous puissiez obtenir deux, cest de ne passer que pour imposteur. Et en vérité, ce mouvement que vous attribuez à la terre nest-ce point un beau paradoxe ce qui fait que je ne suis pas bien fort de votre opinion, cest quencore quhier vous fussiez parti de Paris, vous pouvez être arrivé aujourdhui en cette contrée, sans que la terre ait tourné car le soleil vous ayant enlevé par le moyen de vos bouteilles, ne doit-il pas vous avoir amené ici, puisque, selon Ptolémée, Tyco-Brahé, et les philosophes modernes, il chemine du biais que vous faites marcher la terre ? Et puis quelles grandes vraisemblances avez-vous pour vous figurer que le soleil soit immobile, quand nous le voyons marcher ? et que la terre tourne autour de son centre avec tant de rapidité, quand nous la sentons ferme dessous nous ? Monsieur, lui répliquai-je, voici les raisons qui nous obligent à le préjuger. Premièrement, il est du sens commun de croire que le soleil a pris place au centre de lunivers, puisque tous les corps qui sont dans la nature ont besoin de ce feu radical qui habite au coeur du royaume pour être en état de satisfaire promptement à leurs nécessités et que la cause des générations soit placée également entre les corps, où elle agit, de même que la sage nature a placé les parties génitales dans lhomme, les pépins dans le centre des pommes, les noyaux au milieu de leur fruit et de même que loignon conserve à labri de cent écorces qui lenvironnent le précieux germe où dix millions dautres ont à puiser leur essence. Car cette pomme est un petit univers à soi-même, dont le pépin plus chaud que les autres parties est le soleil, qui répand autour de soi la chaleur, conservatrice de son globe et ce germe, dans cet oignon, est le petit soleil de ce petit monde, qui réchauffe et nourrit le sel végétatif de cette masse. Cela donc supposé, je dis que la terre ayant besoin de la lumière, de la chaleur, et de linfluence de ce grand feu, elle se tourne autour de lui pour recevoir également en toutes ses parties cette vertu qui la conserve. Car il serait aussi ridicule de croire que ce grand corps lumineux tournât autour dun point dont il na que faire, que de simaginer quand nous voyons une alouette rôtie, quon a, pour la cuire, tourné la cheminée à lentour. Autrement si cétait au soleil à faire cette corvée, il semblerait que la médecine eût besoin du malade que le fort dût plier sous le faible, le grand servir au petit et quau lieu quun vaisseau cingle le long des côtes dune province, on dût faire promener la province autour du vaisseau. Que si vous avez de la peine à comprendre comme une masse si lourde se peut mouvoir, dites-moi, je vous prie, les astres et les cieux que vous faites si solides, sont-ils plus légers ? Encore nous, qui sommes assurés de la rondeur de la terre, il nous est aisé de conclure son mouvement par sa figure. Mais pourquoi supposer le ciel rond, puisque vous ne le sauriez savoir, et que de toutes les figures, sil na pas celle-ci, il est certain quil ne se peut pas mouvoir ? Je ne vous reproche point vos excentriques, vos concentriques ni vos épicycles tous lesquels vous ne sauriez expliquer que très confusément, et dont je sauve mon système. Parlons seulement des causes naturelles de ce mouvement. Vous êtes contraints vous autres de recourir aux intelligences qui remuent et gouvernent vos globes. Mais moi, sans interrompre le repos du Souverain Etre, qui sans doute a créé la nature toute parfaite, et de la sagesse duquel il est de lavoir achevée, de telle sorte que, layant accomplie pour une chose, il ne lait pas rendue défectueuse pour une autre moi, dis-je, je trouve dans la terre les vertus qui la font mouvoir. Je dis donc que les rayons du soleil, avec ses influences, venant à frapper dessus par leur circulation, la font tourner comme nous faisons tourner un globe en le frappant de la main ou que les fumées qui sévaporent continuellement de son sein du côté que le soleil la regarde, répercutées par le froid de la moyenne région, rejaillissent dessus, et de nécessité ne la pouvant frapper que de biais, la font ainsi pirouetter. Lexplication des deux autres mouvements est encore moins embrouillée, considérez, je vous prie... À ces mots, M. de Montmagny minterrompit et Jaime mieux, dit-il, vous dispenser de cette peine aussi bien ai-je lu sur ce sujet quelques livres de Gassendi, à la charge que vous écouterez ce que me répondit un jour lun de nos Pères qui soutenait votre opinion En effet, disait-il, je mimagine que la terre tourne, non point pour les raisons quallègue Coprins, mais pour ce que le feu denfer, ainsi que nous apprend la Sainte Ecriture, étant enclos au centre de la terre, les damnés qui veulent fuir lardeur de la flamme, gravissent pour sen éloigner contre la voûte, et font ainsi tourner la terre, comme un chien fait tourner une roue, lorsquil court enfermé dedans. Nous louâmes quelque temps le zèle du bon Père et son panégyrique étant achevé, M. de Montmagny me dit quil sétonnait fort, vu que le système de Ptolémée était si peu probable, quil eût été si généralement reçu. Monsieur, lui répondis-je, la plupart des hommes, qui ne jugent que par les sens, se sont laissé persuader à leurs yeux et de même que celui dont le vaisseau navigue terre à terre croit demeurer immobile, et que le rivage chemine, ainsi les hommes tournant avec la terre autour du ciel, ont cru que cétait le ciel lui-même qui tournait autour deux. Ajoutez à cela lorgueil insupportable des humains, qui leur persuade que la nature na été faite que pour eux comme sil était vraisemblable que le soleil, un grand corps, quatre cent trente-quatre fois plus vaste que la terre, neût été allumé que pour mûrir ses nèfles, et pommer ses choux. Quant à moi, bien loin de consentir à linsolence de ces brutaux, je crois que les planètes sont des mondes autour du soleil, et que les étoiles fixes sont aussi des soleils qui ont des planètes autour deux, cest-à-dire des mondes que nous ne voyons pas dici à cause de leur petitesse, et parce que leur lumière empruntée ne saurait venir jusquà nous. Car comment, en bonne foi, simaginer que ces globes si spacieux ne soient que de grandes campagnes désertes, et que le nôtre, à cause que nous y rampons, une douzaine de glorieux coquins, ait été bâti pour commander à tous ? Quoi ! parce que le soleil compasse nos jours et nos années, est-ce à dire pour cela quil nait été construit quafin que nous ne cognions pas de la tête contre les murs ? Non, non, si ce Dieu visible éclaire lhomme, cest par accident, comme le flambeau du roi éclaire par accident au crocheteur qui passe par la rue. Mais, me dit-il, si comme vous assurez, les étoiles fixes sont autant de soleils, on pourrait conclure de là que le monde serait infini, puisquil est vraisemblable que les peuples de ces mondes qui sont autour dune étoile fixe que vous prenez pour un soleil découvrent encore au-dessus deux dautres étoiles fixes que nous ne saurions apercevoir dici, et quil en va éternellement de cette sorte. Nen doutez point, lui répliquai-je comme Dieu a pu faire lâme immortelle, il a pu faire le monde infini, sil est vrai que léternité nest rien autre chose quune durée sans bornes, et linfini une étendue sans limites. Et puis Dieu serait fini lui-même, supposé que le monde ne fût pas infini, puisquil ne pourrait pas être où il ny aurait rien, et quil ne pourrait accroître la grandeur du monde, quil najoutât quelque chose à sa propre étendue, commençant dêtre où il nétait pas auparavant. Il faut donc croire que comme nous voyons dici Saturne et Jupiter, si nous étions dans lun ou dans lautre, nous découvririons beaucoup de mondes que nous napercevons pas dici, et que lunivers est éternellement construit de cette sorte. Ma foi ! me répliqua-t-il, vous avez beau dire, je ne saurais du tout comprendre cet infini. Hé ! dites-moi, lui dis-je, comprenez-vous mieux le rien qui est au delà ? Point du tout. Quand vous songez à ce néant, vous vous limaginez tout au moins comme du vent, comme de lair, et cela est quelque chose mais linfini, si vous ne le comprenez en général, vous le concevez au moins par parties, car il nest pas difficile de se figurer de la terre, du feu, de leau, de lair, des astres, des cieux. Or, linfini nest rien quune tissure sans bornes de tout cela. Que si vous me demandez de quelle façon ces mondes ont été faits, vu que la Sainte Ecriture parle seulement dun que Dieu créa, je réponds quelle ne parle que du nôtre à cause quil est le seul que Dieu ait voulu prendre la peine de faire de sa propre main, mais tous les autres quon voit ou quon ne voit pas, suspendus parmi lazur de lunivers, ne sont rien que lécume des soleils qui se purgent. Car comment ces grands feux pourraient-ils subsister, sils nétaient attachés à quelque matière qui les nourrit ? Or comme le feu pousse loin de chez soi la cendre dont il est étouffé de même que lor dans le creuset, se détache en saffinant du marcassite qui affaiblit son carat, et de même que notre coeur se dégage par le vomissement des humeurs indigestes qui lattaquent ainsi le soleil dégorge tous les jours et se purge des restes de la matière qui nourrit son feu. Mais lorsquil aura tout à fait consommé cette matière qui lentretient, vous ne devez point douter quil ne se répande de tous côtés pour chercher une autre pâture, et quil ne sattache à tous les mondes quil aura construits autrefois, à ceux particulièrement quil rencontrera les plus proches alors ce grand feu, rebrouillant tous les corps, les rechassera pêle-mêle de toutes parts comme auparavant, et sétant peu à peu purifié, il commencera de servir de soleil à ces petits mondes quil engendrera en les poussant hors de sa sphère. Cest ce qui a fait sans doute prédire aux pythagoriciens lembrasement universel. Ceci nest pas une imagination ridicule la Nouvelle-France, ou nous sommes, en produit un exemple bien convaincant. Ce vaste continent de lAmérique est une moitié de la terre, laquelle en dépit de nos prédécesseurs qui avaient mille fois cinglé lOcéan, navait point encore été découverte aussi ny était-elle pas encore non plus que beaucoup dîles, de péninsules, et de montagnes, qui se sont soulevées sur notre globe, quand les rouillures du soleil qui se nettoie ont été poussées assez loin, et condensées en pelotons assez pesants pour être attirées par le centre de notre monde, possible peu à peu en particules menues, peut-être aussi tout à coup en une masse. Cela nest pas si déraisonnable, que saint Augustin ny eût applaudi, si la découverte de ce pays eût été faite de son âge, puisque ce grand personnage, dont le génie était éclairé du Saint-Esprit, assure que de son temps la terre était plate comme un four, et quelle nageait sur leau comme la moitié dune orange coupée. Mais si jai jamais lhonneur de vous voir en France, je vous ferai observer par le moyen dune lunette fort excellente que jai que certaines obscurités qui dici paraissent des taches sont des mondes qui se construisent. Mes yeux qui se fermaient en achevant ce discours obligèrent M. de Montmagny à me souhaiter le bonsoir. Nous eûmes, le lendemain et les jours suivants, des entretiens de pareille nature. Mais comme quelque temps après lembarras des affaires de la province accrocha notre philosophie, je retombai de plus belle au dessein de monter à la lune. Je men allais dés quelle était levée, parmi les bois, à la conduite et au réussit de mon entreprise. Enfin, un jour, la veille de Saint-Jean, quon tenait conseil dans le fort pour déterminer si on donnerait secours aux sauvages du pays contre les Iroquois, je men fus tout seul derrière notre habitation au coupeau dune petite montagne, où voici ce que jexécutai Avec une machine que je construisis et que je mimaginais être capable de mélever autant que je voudrais, je me précipitai en lair du faîte dune roche. Mais parce que je navais pas bien pris mes mesures, je culbutai rudement dans la vallée. Tout froissé que jétais, je men retournai dans ma chambre sans pourtant me décourager. Je pris de la moelle de boeuf, dont je moignis tout le corps, car il était meurtri depuis la tête jusquaux pieds et après mêtre fortifié le coeur dune bouteille dessence cordiale, je men retournai chercher ma machine. Mais je ne la retrouvai point, car certains soldats, quon avait envoyés dans la forêt couper du bois pour faire léchafaudage du feu de la Saint-Jean quon devait allumer le soir, layant rencontrée par hasard, lavaient apportée au fort. Après plusieurs explications de ce que ce pouvait être, quand on eut découvert linvention du ressort, quelques-uns avaient dit quil fallait attacher autour quantité de fusées volantes, pour ce que, leur rapidité layant enlevée bien haut, et le ressort agitant ses grandes ailes, i1 ny aurait personne qui ne prît cette machine pour un dragon de feu. Je la cherchai longtemps, mais enfin je la trouvai au milieu de la place de Québec, comme on y mettait le feu. La douleur de rencontrer louvrage de mes mains en un si grand péril me transporta tellement que je courus saisir le bras du soldat qui allumait le feu. Je lui arrachai sa mèche, et me jetai tout furieux dans ma machine pour briser lartifice dont elle était environnée mais jarrivai trop tard, car à peine y eus-je les deux pieds que me voilà enlevé dans la nue. Lépouvantable horreur dont je fus consterné ne renversa point tellement les facultés de mon âme, que je ne me sois souvenu depuis de tout ce qui marriva dans cet instant. Vous saurez donc que la flamme ayant dévoré un rang de fusées car on les avait disposées six à six, par le moyen dune amorce qui bordait chaque demi-douzaine un autre étage sembrasait, puis un autre, en sorte que le salpêtre embrasé éloignait le péril en le croissant. La matière toutefois étant usée fit que lartifice manqua et lorsque je ne songeais plus quà laisser ma tête sur celle de quelque montagne, je sentis sans que je remuasse aucunement mon élévation continuer, et ma machine prenant congé de moi, je la vis retomber vers la terre. Cette aventure extraordinaire me gonfla dune joie si peu commune que, ravi de me voir délivré dun danger assuré, jeus limpudence de philosopher dessus. Comme donc je cherchais des yeux et de la pensée ce qui pouvait être la cause de ce miracle, japerçus ma chair boursouflée, et grasse encore de la moelle dont je métais enduit pour les meurtrissures de mon trébuchement je connus quétant alors en décours, et la lune pendant ce quartier ayant accoutumé de sucer la moelle des animaux, elle buvait celle dont je métais enduit avec dautant plus de force que son globe était plus proche de moi, et que linterposition des nuées nen affaiblissait point la vigueur. Quand jeus percé, selon le calcul que jai fait depuis, beaucoup plus des trois quarts du chemin qui sépare la terre davec la lune, je me vis tout dun coup choir les pieds en haut, sans avoir culbuté en aucune façon. Encore ne men fus-je pas aperçu, si je neusse senti ma tête chargée du poids de mon corps. Je connus bien à la vérité que je ne retombais pas vers notre monde car encore que je me trouvasse entre deux lunes, et que je remarquasse fort bien que je méloignais de lune à mesure que je mapprochais de lautre, jétais très assuré que la plus grande était notre terre pour ce quau bout dun jour ou deux de voyage, les réfractions éloignées du soleil venant à confondre la diversité des corps et des climats, il ne mavait plus paru que comme une grande plaque dor ainsi que lautre cela me fit imaginer que jabaissais vers la lune, et je me confirmai dans cette opinion, quand je vins à me souvenir que je navais commencé de choir quaprès les trois quarts du chemin. Car, disais-je en moi-même, cette masse étant moindre que la nôtre, il faut que la sphère de son activité soit aussi moins étendue, et que, par conséquent, jaie senti plus tard la force de son centre. Après avoir été fort longtemps à tomber, à ce que je préjuge car la violence du précipice doit mavoir empêché de le remarquer, le plus loin dont je me souviens est que je me trouvai sous un arbre embarrassé avec trois ou quatre branches assez grosses que javais éclatées par ma chute, et le visage mouillé dune pomme qui sétait écachée contre. Par bonheur, ce lieu-là était, comme vous le saurez bientôt, le Paradis terrestre, et larbre sur lequel je tombai se trouva justement lArbre de Vie. Ainsi vous pouvez bien juger que sans ce miraculeux hasard, jétais mille fois mort. Jai souvent depuis fait réflexion sur ce que le vulgaire assure quen se précipitant dun lieu fort haut, on est étouffé auparavant de toucher la terre et jai conclu de mon aventure quil en avait menti, ou bien quil fallait que le jus énergique de ce fruit qui mavait coulé dans la bouche eût rappelé mon âme qui nétait pas loin dans mon cadavre encore tout tiède et encore disposé aux fonctions de la vie. En effet, sitôt que je fus à terre ma douleur sen alla auparavant même de se peindre en ma mémoire et la faim, dont pendant mon voyage javais été beaucoup travaillé, ne me fit trouver en sa place quun léger souvenir de lavoir perdue. À peine, quand je fus relevé, eus-je remarqué les bords de la plus large de quatre grandes rivières qui forment un lac en la bouchant, que lesprit ou lâme invisible des simples qui sexhalent sur cette contrée me vint réjouir lodorat les petits cailloux nétaient raboteux ni durs quà la vue ils avaient soin de samollir quand on marchait dessus. Je rencontrai dabord une étoile de cinq avenues, dont les chênes qui la composent semblaient par leur excessive hauteur porter au ciel un parterre de haute futaie. En promenant mes yeux de la racine jusquau sommet, puis les précipitant du faîte jusquau pied, je doutais si la terre les portait, ou si eux-mêmes ne portaient point la terre pendue à leur racine, on dirait que leur front superbement élevé pliait comme par force sous la pesanteur des globes célestes dont ils ne soutiennent la charge quen gémissant leurs bras étendus vers le ciel semblent en lembrassant demander aux astres la bénignité toute pure de leurs influences, et la recevoir, auparavant quelles aient rien perdu de leur innocence, au lit des éléments. Là, de tous côtés, les fleurs, sans avoir eu dautres jardiniers que la nature, respirent une haleine sauvage, qui réveille et satisfait lodorat là lincarnat dune rose sur léglantier, et lazur éclatant dune violette sous des ronces, ne laissant point de liberté pour le choix, vous font juger quelles sont toutes deux plus belles lune que lautre là le printemps compose toutes les saisons là ne germe point de plante vénéneuse que sa naissance ne trahisse sa conservation là les ruisseaux racontent leurs voyages aux cailloux là mille petites voix emplumées font retentir la forêt au bruit de leurs chansons et la trémoussante assemblée de ces gosiers mélodieux est si générale quil semble que chaque feuille dans le bois ait pris la langue et la figure dun rossignol écho prend tant de plaisir à leurs airs quon dirait à les lui entendre répéter quelle ait envie de les apprendre. À côté de ce bois se voient deux prairies, dont le vert gai continu fait une émeraude à perte de vue. Le mélange confus des peintures que le printemps attache à cent petites fleurs égare les nuances lune dans lautre et ces fleurs agitées semblent courir après elles-mêmes pour échapper aux caresses du vent. On prendrait cette prairie pour un océan, mais parce que cest une mer qui noffre point de rivage, mon oeil, épouvanté davoir couru si loin sans découvrir le bord, y envoyait vitement ma pensée et ma pensée doutant que ce fût la fin du monde, se voulait persuader que des lieux si charmants avaient peut-être forcé le ciel de se joindre à la terre. Au milieu dun tapis si vaste et si parfait, court à bouillons dargent une fontaine rustique qui couronne ses bords dun gazon émaillé de pâquerettes, de bassinets, de violettes, et ces fleurs qui se pressent tout à lentour font croire quelles se pressent à qui se mirera la première elle est encore au berceau, car elle ne fait que de naître, et sa face jeune et polie ne montre pas seulement une ride. Les grands cercles quelle promène, en revenant mille fois sur soi-même, montrent que cest bien à regret quelle sort de son pays natal et comme si elle eût été honteuse de se voir caressée auprès de sa mère, elle repoussa toujours en murmurant ma main folâtre qui la voulait toucher. Les animaux qui sy venaient désaltérer, plus raisonnables que ceux de notre monde, témoignaient être surpris de voir quil faisait grand jour sur lhorizon, pendant quils regardaient le soleil aux antipodes, et nosaient quasi se pencher sur le bord, de crainte quils avaient de tomber au firmament. Il faut que je vous avoue quà la vue de tant de belles choses je me sentis chatouillé de ces agréables douleurs, où on dit que lembryon se trouve à linfusion de son âme. Le vieux poil me tomba pour faire place à dautres cheveux plus épais et plus déliés. Je sentis ma jeunesse se rallumer, mon visage devenir vermeil, ma chaleur naturelle se remêler doucement à mon humide radical enfin je reculai sur mon âge environ quatorze ans. Javais cheminé demi-lieue à travers une forêt de jasmins et de myrtes, quand japerçus couché à lombre je ne sais quoi qui remuait cétait un jeune adolescent, dont la majestueuse beauté me força presque à ladoration. Il se leva pour men empêcher Et ce nest pas à moi, sécria-t-il fortement, cest à Dieu que tu dois ces humilités ! Vous voyez une personne, lui répondis-je, consternée de tant de miracles, que je ne sais par lequel débuter mes admirations car, en premier lieu, venant dun monde que vous prenez sans doute ici pour une lune, je pensais être abordé dans un autre que ceux de mon pays appellent la lune aussi et voilà que je me trouve en paradis, aux pieds dun dieu qui ne veut pas être adoré, et dun étranger qui parle ma langue. Hormis la qualité de dieu, me répliqua-t-il, ce que vous dites est véritable cette terre-ci est la lune que vous voyez de votre globe et ce lieu-ci où vous marchez est le paradis, mais cest le paradis terrestre où nont jamais entré que six personnes Adam, Eve, Enoch, moi qui suis le vieil Elie, saint Jean lEvangéliste, et vous. Vous savez bien comment les deux premiers en furent bannis, mais vous ne savez pas comme ils arrivèrent en votre monde. Sachez donc quaprès avoir tâté tous deux de la pomme défendue, Adam, qui craignait que Dieu, irrité par sa présence, ne rengrégeât sa punition, considéra la lune, votre terre, comme le seul refuge où il se pouvait mettre à labri des poursuites de son Créateur. Or, en ce temps-là, limagination chez lhomme était si forte, pour navoir point encore été corrompue, ni par les débauches, ni par la crudité des aliments, ni par laltération des maladies, quétant alors excité du violent désir daborder cet asile, et que toute sa masse étant devenue légère par le feu de cet enthousiasme, il y fut enlevé de la même sorte quil sest vu des philosophes, leur imagination fortement tendue à quelque chose, être emportés en lair par des ravissements que vous appelez extatiques. Eve, que linfirmité de son sexe rendait plus faible et moins chaude, naurait pas eu sans doute limaginative assez vigoureuse pour vaincre par la contention de sa volonté le poids de la matière, mais parce quil y avait très peu quelle avait été tirée du corps de son mari, la sympathie dont cette moitié était encore liée à son tout, la porta vers lui à mesure quil montait, comme lambre se fait suivre de la paille, comme laimant se tourne au septentrion doù il a été arraché, et Adam attira louvrage de sa côte comme la mer attire les fleuves qui sont sortis delle. Arrivés quils furent en votre terre, ils shabituèrent entre la Mésopotamie et lArabie les Hébreux lont connu sous le nom dAdam, et les idolâtres sous le nom de Prométhée, que leurs poètes feignirent avoir dérobé le feu du ciel, à cause de ses descendants quil engendra pourvus dune âme aussi parfaite que celle dont Dieu lavait rempli. Ainsi pour habiter votre monde, le premier homme laissa celui-ci désert mais le Tout-Sage ne voulut pas quune demeure si heureuse restât sans habitants il permit peu de siècles après quEnoch, ennuyé de la compagnie des hommes, dont linnocence se corrompait, eût envie de les abandonner. Mais ce saint personnage ne jugea point de retraite assurée contre lambition de ses parents qui ségorgeaient déjà pour le partage d</t>
+          <t>Été mille huit cent soixante-huit, quelque part dans l'Grand Ouest Il a sauté sur son cheval pour disparaître en un geste La porte du saloon claque encore dehors, le vent fouette la poussière Lui, il galope vers son sort sans jamais regarder derrière Est-ce qu'il cherche ou est-ce qu'il fuit ? Est-il sûr ou incertain ? Est-ce qu'il tente de rattraper ou d'échapper à son destin ? A quoi ressemble son avenir ? Une évidence ou un mystère ? Il se fabrique un empire, il est fait d'ombre ou de lumière De l'ombre ou de la lumière Lequel des deux nous éclaire ? Je marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers C'est l'hiver en deux mille huit, quelque part à Paris J'ai démarré la voiture pour échapper à ce temps pourri La porte du café tremble encore dehors, la pluie fouette le bitume A chacun sa ruée vers l'or, j'accélère à travers la brume Puisque mon temps est limité, mes choix doivent être à la hauteur C'est une course contre la montre ou une course contre la peur C'est toujours la même chevauchée, on vise la lueur droit devant Même si cette quête est insensée, je cours pour me sentir vivant De l'ombre ou de la lumière Lequel des deux nous éclaire ? On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers On court à travers les siècles, mais c'est toujours la même chevauchée As-tu peur que la route s'achève ? Mais cette course est insensée As-tu mis un nom sur toutes les lèvres... les lèvres ? De l'ombre ou de la lumière Des astres qui nous éclairent On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps qu'on espère Retrouver dans un sourire Toutes les lois de l'univers Retrouver dans un sourire Toutes les lois de l'univers</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>L’heure des poètes</t>
+          <t>Mai 2012</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>On a déclaré que je suis un poète, moi, je fais des chansons. Je ne sais pas si je suis poète, il est possible que je l'sois un p'tit peu, m'enfin, peu m'importe je mélange des paroles et d'la musique... Au réveil, c'est du Brassens quand j'émerge encore loin des gens Ça met trois claques au sommeil, puis ça démarre intelligent Parce que, Brassens, c'est du pain chaud sur lequel tu mets du miel Ça sent l'café expresso comme un XXX essentiel Une fois les neurones bien secoués, c'est l'heure du réveil musculaire Après la douche, c'est NTM qui fait bouger mes maxillaires C'est l'heure de s'remplir d'énergie pour la journée et ses coups bas C'est l'heure du flow et des gros bras, et s'rappeler aussi que je viens d'là Quand j'prends l'volant sur l'périph', faut que j'continue la série Du gros son sur chaque texte, alors c'est l'heure de Kery Car c'est la bande originale du paysage tout autour Le bitume prend l'micro quand j'suis à Porte de Clignancourt À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Midi c'est l'repos du guerrier, la pause du dragon Et la lumière qui s'épaissit, et Ferrat qui chante Aragon Des mots tranchant et la voix chaude, quand le feu rejoint l'eau Le soleil est juste au-d'ssus, y'a aucune ombre au tableau À l'heure du dessert, c'est évident, c'est Aznavour Les p'tits plats sont dans les grands, y'a l'gâteau qui sort du four Un repas sans dessert, c'est une compil' sans La Bohème L'institution dans l'élégance, des profiteroles avec la crème Quinze heure trente plein soleil, j'veux du solide, pas du frêle C'est bien l'heure du grandiose, du spacieux, c'est du Brel La poésie qui s'envole et t'emporte en un instant À Vesoul, à Amsterdam, avec Mathilde et à mille temps À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes Quand le soleil part à reculons, c'est p't-être mon moment préféré Une atmosphère comme du coton, et la lumière un peu biaisée C'est l'heure de tous les états d'âme où je ressens le poids de chaque mot C'est l'bon climat, messieurs-dames, pour pouvoir écouter Renaud Renaud, c'est la tempête dans la douleur du crépuscule C'est un cur de moineau dans la poitrine d'Hercule C'est la rage et la tendresse, il y a trente ans, il a écrit Des trucs qui, chaque jour, m'aident à comprendre c'que j'fous ici Et, lors du règne de la nuit, quand la lumière s'habille en noir Et pour trouver l'accord parfait entre quiétude et cafard Il nous restera ça, le corps caché sous les draps Une enceinte au bout des doigts qui fait chanter Barbara À chaque saison, la césure a ses airs de fête Elle a raison, ça rassure, c'est bien l'heure des poètes</t>
+          <t>Monsieur le président ou madame la présidente À l'heure ou je vous écris d'une main impatiente Je n'connais pas votre nom, je n'connais pas votre camp Mais permettez-moi ce message ça ne prendra pas longtemps Je veux d'abord vous adresser toutes mes félicitations Vous venez de remporter la plus belle des élections Vous avez du batailler dur pour en arriver là Donnez quelques mauvais coup et encaisser les coups bas Mais si vous avez atteint la plus haute des fonctions J'espère que ce n'est pas pour votre unique ambition Mais bien pour essayer et par tous les moyens De rendre une vie meilleure pour tout vos citoyens Car vous l'savez mieux que moi le plus dur est à venir Vous avez fait des promesse Il va falloir les tenir Des gens ont voté pour vous une belle majorité Ne pas les décevoir sera la priorité C'est que malgré tous ce qu'on dit notre pays on l'aime On oublie pas la chance qu'on a mais on voit bien les problèmes Et c'est parce qu'on aime la France qu'on se doit d'être exigeant Si vous voulez notre confiance on ne pourra pas être indulgent Bien sur on vous attend pour que vous vous penchiez sur le cas De ceux qui souffrent, de ceux qui luttent De tous ces gens qu'on entend pas Si vous vous montrez solidaire c'est tout le pays qui va vous suivre Un pays qui tend la main est tellement plus beau à vivre Et si vous construisez l'avenir en vous occupant des enfants On fera tous le même espoir de devenir fort en devenant grand Il parait que sur le drapeau il y a le mot égalité C'est peut-être avec ce mot que vous gagnerez notre respect On vous demande aussi de la franchise et un peu de sincérité Tans pis s'il y a moins de rêve au moins il y aura de la vérité Ce serait bien que pour une fois on prenne le peuple au sérieux Là-dessus vu vos prédécesseurs vous n'pourrez faire que mieux Et si vous pouviez aussi agir sur l'ambiance générale Moins de regard de travers et une France plus conviviale Toutes nos petites différences est une richesse à sauvegarder Un pays multicolore est tellement plus beau à regarder Ayez la culture de l'humain plutôt que la culture du chiffre Ayez la culture de demain en misant sur l'altruisme Il parait que sur le drapeau il y a le mot fraternité C'est peut-être avec ce mot que vous ferez notre fierté Écrire au président ça pourrait paraitre pompeux Mais c'est pour que vous sachiez qu'on a envie d'y croire un peu Croire que ça peut marcher même si souvent on a des doutes Croire que ça peut changer parce que là on fait fausse route Monsieur le président ou madame la présidente Si je vous écris cette lettre d'une main exigeante C'est que vous êtes au sommet et franchement c'est la classe Mais laissez-moi vous dire que j'aimerais pas être à votre place Ça doit chaud c'est juste du stress et de la pression à haute dose Et tous ces gens qui vous écrivent alors qu'ils connaissent pas grand chose Quoi qu'il en soit moi je suis sincère dans ces remarques que je vous lance Maintenant c'est à vous de faire, la France vous regarde Alors bonne chance</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>L’heure d’été</t>
+          <t>Ma Tête, Mon Coeur</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Est-ce que c'est de la patience ou est-ce qu'on sait faire le dos rond Est-ce que c'est l'expérience que nous ont enseigné nos darons Mais ce qu'on a tous compris c'est que la vie repose toujours Sur l'enchaînement des opposés, après chaque nuit il va faire jour Partant de cette évidence ou d'une volontaire naïveté On sait qu'après chaque inquiétude viendra l'instant de sérénité Comme si à l'échelle d'une vie les choses devaient s'équilibrer Après l'orage les éclaircies, aucun ciel ne reste encombré Alors on s'est imprégné de cette capacité d'adaptation Pour encaisser les coups on a su entrer en mode mission On sait que les tunnels ont une fin dans chaque moment de lucidité Et que nos efforts ne sont pas vains quand la vie passe à l'heure d'été Summertime and the living is easy Fish are jumping and the cotton is high Oh, your daddy's rich and your ma' is good looking So hush little baby, don't you cry J'ai eu pas mal de patience et j'ai dû faire le dos rond Pour traverser en silence toutes mes journées peintes en marron J'ai gardé l'envie de croire ou j'ai toujours cru à l'envie J'ai refusé de concevoir un présent cruel à vie Comme le destin doit être aidé, j'ai avancé l'aiguille d'un tour Je suis passé à l'heure d'été pour aller rejouer dans la cour Comme le boxeur après le gong et le taulard après dix ans Comme le civil après les bombes, après la lutte on est vivant Vivant pour sentir le soleil, la nuit tombe de plus en plus tard Et y a de la lumière de plus en plus longtemps dans nos espoirs C'est vrai qu'on a passé l'hiver à donner des grands coups d'épée Dorénavant la route est claire, on est passé à l'heure d'été One of these mornings, you're gonna rise up singing Then you'll spread your wings and you'll take to the sky But till that morning there's nothing can harm you With daddy and mommy standing by With daddy and mommy standing by</t>
+          <t>Le corps humain est un royaume ou chaque organe veut être le roi Il y a chez l'homme 3 leaders qui essayent d'imposer leur loi Cette lutte permanente est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le coeur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si un jour on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le coeur, les couilles discutent mais ils sont jamais d'accords Mon coeur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien pé-cho cette brune Mais y'en a une qui veut pas, putain ma tête me casse les burnes Ma tête a dit a mon coeur qu'elle s'en battait les couilles Si mes couilles avaient mal au coeur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'coeur Et comme mon coeur n'a pas d'couilles, ma tête n'est pas prête d'avoir peur Moi mes couilles sont têtes en l'air et ont un coeur d'artichot Et quand mon coeur perd la tête, mes couilles restent bien au chaud Et si ma tête part en couilles, pour mon coeur c'est la défaite J'connais cette histoire par coeur, elle n'a ni queue ni tête Moi les femmes j'les crains, autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi chez moi c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterais sous l'contrôle d'ma tête, mon coeur et mes couilles</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Liberté</t>
+          <t>Mauvais rêve</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Elle coule des larmes, elle fait des heureux Ecris en gros sont nos valeurs Elle brise les femmes, elle fauche les hommes On garde espoir, y a pire ailleurs Et depuis peu, elle est en deuil Elle se fait rare, jamais à l'heure Et les problèmes ne viennent pas seuls Perdue de vue, elle a pris peur Plus d'une fois, on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on la maquillée Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Libérez la liberté Tous les plus grands poètes ont écrit son nom Les hommes ont cherché la lumière en suivant son ombre Certains sont morts pour la sauver, combien de tombes fleuries Certains attendent de la retrouver dans une cellule à Fleury On a aimé l'honorer, la chanter et la peindre On croit toujours en manquer, j'entends trop de monde se plaindre Ceux qui l'ont vraiment perdue attendent le compte à rebours As-tu déjà entendu parler du peuple ouïghour Avec ses petites surs, égalité, fraternité Elle chante parmi les cris pour rester une réalité Pour rester vibrante et espérer un avenir triomphant Pour rester vivante à l'avenir pour nos enfants Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté Je vois ses bras qui s'ouvrent Ses charmes et ses promesses nous ont rendus naïfs Elle nous a rendus oufs Que pour un peu d'amour, ça se change en manif Dis-moi ce que tu lui trouves Certains lui font la cour ou bien d'autres la sifflent Frérot si tu la retrouves C'est tout simple s'il te plaît, dis-lui jusqu'qu'on la kiffe Plus d'une fois on l'a abîmée Elle a pris froid, on l'a rhabillée Petite mine, on l'a maquillée Libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté libérez Libérez la liberté</t>
+          <t>L'album est presque bouclé, c'est l'dernier jour de mix J'arrive au studio pressé, fredonne quelques lyrics Derrière la console Johnny l'ingé son prit par son absence On a kidnappé XXX tout ça n'a pas de sens Le mec du studio en sueur me dit qu'il a tout vu 3 gars cagoulés viennent de s'enfuir dans la rue Ils ont relâché XXX ils voulaient pas prendre de risques Mais ils ont volé les bandes, ils ont gardé mon disque J'remonte dans ma caisse direct, je dois les retrouver Mais ma voiture est fané, les quatre roues sont crevées Quelqu'un m'en veux c'est trop fort, j'vais pas courber l'échine J'ai besoin d'un peu de renfort et j'appelle Jean-Rachid Puis j'appelle d'autres potos, Fad et son taxi-moto Un texto a presto car il nous faut du costaud Mais mon forfait peut respirer, pas le temps de le consommer J'reçois un coup derrière la tête et je tombe assommé C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve J'me réveil attaché à l'arrière d'une grosse voiture J'ai un mal de crâne digne de ma plus belle biture J'essai de voir où on est par les vitres de la Merco Et sur les murs les signatures de mon ami Marko On est donc en banlieue nord, j'ai vu plusieurs indices Et sur les joues du chauffeur y a une grande cicatrice C'est qui ces types, qu'es-ce qu'ils veulent ? Des ennemies j'm'en connais pas A part éventuellement des journalistes de Télérama J'saute de la voiture en marche au niveau d'Porte de Paris Roulé-boulé sur six cents mètres jusqu'à la gendarmerie J'rentre en trombe dans le comico faut qu'j'parle à la police Mais sur la joue de l'inspecteur y a une grande cicatrice J'suis piégé dans la matrice, moi qui croyait les semer J'reçois un coup derrière la tête et je tombe assommé J'écoute encore un peu c'qui se passe dans mon esprit zombie Et d'un coup les derniers mots qu'je capte, ça parle de Colombie C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve Aéroport de Bogota pas très au top, les yeux qui piquent J'émerge en dix minutes et je découvre que j'suis dans le cockpit J'comprend rien y a trop de phases, trop d'bruits, trop d'mots J'ai l'impression d'être plongé dans un vieux délire d'Oxmo Le mec à la cicatrice me dit de passer devant En bas des marches de l'avion une voiture nous attend Escobar n'est pas mort, c'est ce que le gars m'explique Et le cartel de Medellín veut se mettre à la musique On arrive dans une grande tour, je suis pas le seul otage Y a Kery James et Cabrel qui vivent à mon étage Calogero, Aznavour, j'sais pas qui sera le prochain Y a même un cachot caché ou vit Olivier Cachin Soudain XXX entre dans ma loge et j'me réveille en sueur Y me dit que le concert commence dans un quart-d'heure Tout ça n'était qu'un cauchemar, ça y est je rentre en piste Mais y a un mec au premier rang qui a une grande cicatrice C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>L’ombre et la lumière</t>
+          <t>Mental</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Été mille huit cent soixante-huit, quelque part dans l'Grand Ouest Il a sauté sur son cheval pour disparaître en un geste La porte du saloon claque encore dehors, le vent fouette la poussière Lui, il galope vers son sort sans jamais regarder derrière Est-ce qu'il cherche ou est-ce qu'il fuit ? Est-il sûr ou incertain ? Est-ce qu'il tente de rattraper ou d'échapper à son destin ? A quoi ressemble son avenir ? Une évidence ou un mystère ? Il se fabrique un empire, il est fait d'ombre ou de lumière De l'ombre ou de la lumière Lequel des deux nous éclaire ? Je marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers C'est l'hiver en deux mille huit, quelque part à Paris J'ai démarré la voiture pour échapper à ce temps pourri La porte du café tremble encore dehors, la pluie fouette le bitume A chacun sa ruée vers l'or, j'accélère à travers la brume Puisque mon temps est limité, mes choix doivent être à la hauteur C'est une course contre la montre ou une course contre la peur C'est toujours la même chevauchée, on vise la lueur droit devant Même si cette quête est insensée, je cours pour me sentir vivant De l'ombre ou de la lumière Lequel des deux nous éclaire ? On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps que j'espère Retrouver dans un sourire Toutes les lois de l'univers On court à travers les siècles, mais c'est toujours la même chevauchée As-tu peur que la route s'achève ? Mais cette course est insensée As-tu mis un nom sur toutes les lèvres... les lèvres ? De l'ombre ou de la lumière Des astres qui nous éclairent On marche vers le soleil Dans les couleurs de l'hiver De l'ombre ou de la lumière Depuis le temps qu'on espère Retrouver dans un sourire Toutes les lois de l'univers Retrouver dans un sourire Toutes les lois de l'univers</t>
+          <t>S'il y a bien une idée qui rassemble, une pensée qu'est pas toute neuve C'est que quel que soit ton parcours, tu rencontres de belles épreuves La vie c'est Mister Hyde, pas seulement Docteur Jekyll J'ai vu le film depuis longtemps, la vie n'est pas un long fleuve tranquille T'as qu'à voir les réactions d'un nouveau né à l'hôpital S'il chiale si fort c'est qu'il comprend que souvent la vie va lui faire mal Y'a des rires, y'a des pleurs, y'a des bas, y'a des hauts Y'a des soleils et des orages et je te parle pas que de météo On vit dans un labyrinthe et y a des pièges à chaque virage À nous de les esquiver et de pas calculer les mirages Mais le destin est un farceur, on peut tomber à chaque instant Pour l'affronter, faut du cur, et, un mental de résistant J'ai des cicatrices plein la peau, et quelques unes dans mes souvenirs Y'a des rescapés partout, j'suis un exemple, ça va sans dire Ca doit se sentir, faut pas se mentir, la vie c'est aussi la guérison Après la foudre, prends toi en main et redessine ton horizon Y'a des tempêtes sans visage où on doit se battre contre le pire Personne n'y échappe Rouda c'est pas toi qui vas me contredire C'est l'ultime épreuve où tu affrontes la pire souffrance morale Quand la peine rejoint l'impuissance pour la plus triste des chorales J'ai vu des drames à cur ouvert j'ai vu des gens qui s'accrochent Ce qui est bien avec le drame, c'est que tu le partages avec tes proches Pour les miens il est peut-être l'heure de m'arrêter un court instant Pour les remercier d'avoir du cur et un mental de résistant La vie est aussi perverse, ce que tu désires elle l'a caché Elle te le donnera pas tout cuit il va falloir aller le chercher Du coup ce qu'on a, on le mérite, au hasard on a rien piqué Et si t'as pas compris, va voir mes potes ils vont t'expliquer Jacky, tu m'as dit que l'ascenseur social était bloqué Toi t'es allé chez Otis et le réparateur tu l'as braqué Sans craquer, sans rémission, t'as affronté de vraies missions Tu m'as montré qu'avoir du mental c'est aussi avoir de l'ambition Y'a pas de chemin facile, Brahim t'as rien demandé à personne T'as tout construit de tes mains et y'a pas que moi que tu impressionnes Toi Sami t'es notre moteur parce que tu sais depuis longtemps Que pour que ça chémar il faut du cur et un mental de résistant Je crois qu'on a tous une bonne étoile sauf que des fois elle est bien planquée Certaines même plus que d'autres, il faut aller les débusquer Parfois ça prend du temps quand tu fais trois fois le tour du ciel Mais si tu cherches c'est que tu avances, à mon avis c'est l'essentiel Je fais partie de ceux qui pensent qu'y a pas de barrière infranchissable Il faut y croire un peu, y'a bien des fleurs qui poussent dans le sable Et c'est quand tu te bats qu'il y a de belles victoires que tu peux arracher Comme se relever avec une moelle épinière en papier mâché Je n'apprends rien à personne, tu es vivant tu sais ce que c'est Vivre c'est accepter la douleur, les échecs et les décès Mais c'est aussi plein de bonheur, on va le trouver en insistant Et pour ça, faut du cur et un mental de résistant1</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mai 2012</t>
+          <t>Nos plus belles années</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Monsieur le président ou madame la présidente À l'heure ou je vous écris d'une main impatiente Je n'connais pas votre nom, je n'connais pas votre camp Mais permettez-moi ce message ça ne prendra pas longtemps Je veux d'abord vous adresser toutes mes félicitations Vous venez de remporter la plus belle des élections Vous avez du batailler dur pour en arriver là Donnez quelques mauvais coup et encaisser les coups bas Mais si vous avez atteint la plus haute des fonctions J'espère que ce n'est pas pour votre unique ambition Mais bien pour essayer et par tous les moyens De rendre une vie meilleure pour tout vos citoyens Car vous l'savez mieux que moi le plus dur est à venir Vous avez fait des promesse Il va falloir les tenir Des gens ont voté pour vous une belle majorité Ne pas les décevoir sera la priorité C'est que malgré tous ce qu'on dit notre pays on l'aime On oublie pas la chance qu'on a mais on voit bien les problèmes Et c'est parce qu'on aime la France qu'on se doit d'être exigeant Si vous voulez notre confiance on ne pourra pas être indulgent Bien sur on vous attend pour que vous vous penchiez sur le cas De ceux qui souffrent, de ceux qui luttent De tous ces gens qu'on entend pas Si vous vous montrez solidaire c'est tout le pays qui va vous suivre Un pays qui tend la main est tellement plus beau à vivre Et si vous construisez l'avenir en vous occupant des enfants On fera tous le même espoir de devenir fort en devenant grand Il parait que sur le drapeau il y a le mot égalité C'est peut-être avec ce mot que vous gagnerez notre respect On vous demande aussi de la franchise et un peu de sincérité Tans pis s'il y a moins de rêve au moins il y aura de la vérité Ce serait bien que pour une fois on prenne le peuple au sérieux Là-dessus vu vos prédécesseurs vous n'pourrez faire que mieux Et si vous pouviez aussi agir sur l'ambiance générale Moins de regard de travers et une France plus conviviale Toutes nos petites différences est une richesse à sauvegarder Un pays multicolore est tellement plus beau à regarder Ayez la culture de l'humain plutôt que la culture du chiffre Ayez la culture de demain en misant sur l'altruisme Il parait que sur le drapeau il y a le mot fraternité C'est peut-être avec ce mot que vous ferez notre fierté Écrire au président ça pourrait paraitre pompeux Mais c'est pour que vous sachiez qu'on a envie d'y croire un peu Croire que ça peut marcher même si souvent on a des doutes Croire que ça peut changer parce que là on fait fausse route Monsieur le président ou madame la présidente Si je vous écris cette lettre d'une main exigeante C'est que vous êtes au sommet et franchement c'est la classe Mais laissez-moi vous dire que j'aimerais pas être à votre place Ça doit chaud c'est juste du stress et de la pression à haute dose Et tous ces gens qui vous écrivent alors qu'ils connaissent pas grand chose Quoi qu'il en soit moi je suis sincère dans ces remarques que je vous lance Maintenant c'est à vous de faire, la France vous regarde Alors bonne chance</t>
+          <t>Même si c'est tentant De fuir le présent S'il te plaît, ouvre les yeux Regarde devant Va où va le vent Et après, fais de ton mieux Prisonnier du doute, pas vraiment du passé Trop d'ombre sur la route, je vois plus les tracés Et j'me rappelle en folie mon panel de prolos J'ai la mélancolie du bordel en colo' Rire de tous nos sens, et des heures à vanner Insolente innocence de mes plus belles années Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Un passé composé d'évènements imparfaits Un passé pas si simple, des sourires en trophées Puis, la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur Oh, oh, pour rire droit devant Y croire sans faire semblant Dessiner d'après autrement Je rêve de nos étreintes De la lumière sur ces sourires éteints Se retrouver plus fort, ne faire qu'un Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend J'ai peaufiné l'histoire, déconfiné l'espoir Pour continuer d'y croire, je t'envoie un faire-part Le faire-part du mariage entre nostalgie et destin Quand l'un nourrit l'autre, faire du futur un festin Je veux retrouver l'attrait de notre vie d'après Il est temps d'entamer Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir... Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Où sont passées ? Où sont passées ? Où sont passées ? Puis la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ma Tête, Mon Coeur</t>
+          <t>On a pris le temps</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Le corps humain est un royaume ou chaque organe veut être le roi Il y a chez l'homme 3 leaders qui essayent d'imposer leur loi Cette lutte permanente est la plus grosse source d'embrouille Elle oppose depuis toujours la tête, le coeur et les couilles Que les demoiselles nous excusent si on fait des trucs chelous Si un jour on est des agneaux et qu'le lendemain on est des loups C'est à cause de c'combat qui s'agite dans notre corps La tête, le coeur, les couilles discutent mais ils sont jamais d'accords Mon coeur est une vraie éponge, toujours prêt à s'ouvrir Mais ma tête est un soldat qui s'laisse rarement attendrir Mes couilles sont motivées, elles aimeraient bien pé-cho cette brune Mais y'en a une qui veut pas, putain ma tête me casse les burnes Ma tête a dit a mon coeur qu'elle s'en battait les couilles Si mes couilles avaient mal au coeur et qu'ça créait des embrouilles Mais mes couilles ont entendu et disent à ma tête qu'elle a pas d'coeur Et comme mon coeur n'a pas d'couilles, ma tête n'est pas prête d'avoir peur Moi mes couilles sont têtes en l'air et ont un coeur d'artichot Et quand mon coeur perd la tête, mes couilles restent bien au chaud Et si ma tête part en couilles, pour mon coeur c'est la défaite J'connais cette histoire par coeur, elle n'a ni queue ni tête Moi les femmes j'les crains, autant qu'je suis fou d'elles Vous comprenez maintenant pourquoi chez moi c'est un sacré bordel J'ai pas trouvé la solution, ça fait un moment qu'je fouille Je resterais sous l'contrôle d'ma tête, mon coeur et mes couilles</t>
+          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mauvais rêve</t>
+          <t>Parole du bout du monde</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L'album est presque bouclé, c'est l'dernier jour de mix J'arrive au studio pressé, fredonne quelques lyrics Derrière la console Johnny l'ingé son prit par son absence On a kidnappé XXX tout ça n'a pas de sens Le mec du studio en sueur me dit qu'il a tout vu 3 gars cagoulés viennent de s'enfuir dans la rue Ils ont relâché XXX ils voulaient pas prendre de risques Mais ils ont volé les bandes, ils ont gardé mon disque J'remonte dans ma caisse direct, je dois les retrouver Mais ma voiture est fané, les quatre roues sont crevées Quelqu'un m'en veux c'est trop fort, j'vais pas courber l'échine J'ai besoin d'un peu de renfort et j'appelle Jean-Rachid Puis j'appelle d'autres potos, Fad et son taxi-moto Un texto a presto car il nous faut du costaud Mais mon forfait peut respirer, pas le temps de le consommer J'reçois un coup derrière la tête et je tombe assommé C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve J'me réveil attaché à l'arrière d'une grosse voiture J'ai un mal de crâne digne de ma plus belle biture J'essai de voir où on est par les vitres de la Merco Et sur les murs les signatures de mon ami Marko On est donc en banlieue nord, j'ai vu plusieurs indices Et sur les joues du chauffeur y a une grande cicatrice C'est qui ces types, qu'es-ce qu'ils veulent ? Des ennemies j'm'en connais pas A part éventuellement des journalistes de Télérama J'saute de la voiture en marche au niveau d'Porte de Paris Roulé-boulé sur six cents mètres jusqu'à la gendarmerie J'rentre en trombe dans le comico faut qu'j'parle à la police Mais sur la joue de l'inspecteur y a une grande cicatrice J'suis piégé dans la matrice, moi qui croyait les semer J'reçois un coup derrière la tête et je tombe assommé J'écoute encore un peu c'qui se passe dans mon esprit zombie Et d'un coup les derniers mots qu'je capte, ça parle de Colombie C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve Aéroport de Bogota pas très au top, les yeux qui piquent J'émerge en dix minutes et je découvre que j'suis dans le cockpit J'comprend rien y a trop de phases, trop d'bruits, trop d'mots J'ai l'impression d'être plongé dans un vieux délire d'Oxmo Le mec à la cicatrice me dit de passer devant En bas des marches de l'avion une voiture nous attend Escobar n'est pas mort, c'est ce que le gars m'explique Et le cartel de Medellín veut se mettre à la musique On arrive dans une grande tour, je suis pas le seul otage Y a Kery James et Cabrel qui vivent à mon étage Calogero, Aznavour, j'sais pas qui sera le prochain Y a même un cachot caché ou vit Olivier Cachin Soudain XXX entre dans ma loge et j'me réveille en sueur Y me dit que le concert commence dans un quart-d'heure Tout ça n'était qu'un cauchemar, ça y est je rentre en piste Mais y a un mec au premier rang qui a une grande cicatrice C'est un mauvais rêve, scénar de série B Une histoire imbibé de clichés et d'idées ridées C'est un mauvais rêve, scénar de seconde zone Une histoire un peu stone dans le clin dil du cyclone C'est un mauvais rêve... mauvais rêve C'est un mauvais rêve... mauvais rêve</t>
+          <t>Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé Cette histoire, je donnerais tout pour connaître son origine exacteT'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10 ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au cur des quartiers historiques J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là-bas avaient étrangement perdu la mémoire Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains mais en vain J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mental</t>
+          <t>Paroles du bout du monde</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>S'il y a bien une idée qui rassemble, une pensée qu'est pas toute neuve C'est que quel que soit ton parcours, tu rencontres de belles épreuves La vie c'est Mister Hyde, pas seulement Docteur Jekyll J'ai vu le film depuis longtemps, la vie n'est pas un long fleuve tranquille T'as qu'à voir les réactions d'un nouveau né à l'hôpital S'il chiale si fort c'est qu'il comprend que souvent la vie va lui faire mal Y'a des rires, y'a des pleurs, y'a des bas, y'a des hauts Y'a des soleils et des orages et je te parle pas que de météo On vit dans un labyrinthe et y a des pièges à chaque virage À nous de les esquiver et de pas calculer les mirages Mais le destin est un farceur, on peut tomber à chaque instant Pour l'affronter, faut du cur, et, un mental de résistant J'ai des cicatrices plein la peau, et quelques unes dans mes souvenirs Y'a des rescapés partout, j'suis un exemple, ça va sans dire Ca doit se sentir, faut pas se mentir, la vie c'est aussi la guérison Après la foudre, prends toi en main et redessine ton horizon Y'a des tempêtes sans visage où on doit se battre contre le pire Personne n'y échappe Rouda c'est pas toi qui vas me contredire C'est l'ultime épreuve où tu affrontes la pire souffrance morale Quand la peine rejoint l'impuissance pour la plus triste des chorales J'ai vu des drames à cur ouvert j'ai vu des gens qui s'accrochent Ce qui est bien avec le drame, c'est que tu le partages avec tes proches Pour les miens il est peut-être l'heure de m'arrêter un court instant Pour les remercier d'avoir du cur et un mental de résistant La vie est aussi perverse, ce que tu désires elle l'a caché Elle te le donnera pas tout cuit il va falloir aller le chercher Du coup ce qu'on a, on le mérite, au hasard on a rien piqué Et si t'as pas compris, va voir mes potes ils vont t'expliquer Jacky, tu m'as dit que l'ascenseur social était bloqué Toi t'es allé chez Otis et le réparateur tu l'as braqué Sans craquer, sans rémission, t'as affronté de vraies missions Tu m'as montré qu'avoir du mental c'est aussi avoir de l'ambition Y'a pas de chemin facile, Brahim t'as rien demandé à personne T'as tout construit de tes mains et y'a pas que moi que tu impressionnes Toi Sami t'es notre moteur parce que tu sais depuis longtemps Que pour que ça chémar il faut du cur et un mental de résistant Je crois qu'on a tous une bonne étoile sauf que des fois elle est bien planquée Certaines même plus que d'autres, il faut aller les débusquer Parfois ça prend du temps quand tu fais trois fois le tour du ciel Mais si tu cherches c'est que tu avances, à mon avis c'est l'essentiel Je fais partie de ceux qui pensent qu'y a pas de barrière infranchissable Il faut y croire un peu, y'a bien des fleurs qui poussent dans le sable Et c'est quand tu te bats qu'il y a de belles victoires que tu peux arracher Comme se relever avec une moelle épinière en papier mâché Je n'apprends rien à personne, tu es vivant tu sais ce que c'est Vivre c'est accepter la douleur, les échecs et les décès Mais c'est aussi plein de bonheur, on va le trouver en insistant Et pour ça, faut du cur et un mental de résistant1</t>
+          <t>Rouda Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte GCM C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage Rouda C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral GCM C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Rouda Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé GCM Cette histoire, je donnerais tout pour connaître son origine exacte T'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Rouda Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère GCM Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! Rouda J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au coeur des quartiers historiques GCM J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là -bas avaient étrangement perdu la mémoire Rouda Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours GCM J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains... mais en vain GCM Rouda J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nos plus belles années</t>
+          <t>Pas essentiel</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Même si c'est tentant De fuir le présent S'il te plaît, ouvre les yeux Regarde devant Va où va le vent Et après, fais de ton mieux Prisonnier du doute, pas vraiment du passé Trop d'ombre sur la route, je vois plus les tracés Et j'me rappelle en folie mon panel de prolos J'ai la mélancolie du bordel en colo' Rire de tous nos sens, et des heures à vanner Insolente innocence de mes plus belles années Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Un passé composé d'évènements imparfaits Un passé pas si simple, des sourires en trophées Puis, la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur Oh, oh, pour rire droit devant Y croire sans faire semblant Dessiner d'après autrement Je rêve de nos étreintes De la lumière sur ces sourires éteints Se retrouver plus fort, ne faire qu'un Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend J'ai peaufiné l'histoire, déconfiné l'espoir Pour continuer d'y croire, je t'envoie un faire-part Le faire-part du mariage entre nostalgie et destin Quand l'un nourrit l'autre, faire du futur un festin Je veux retrouver l'attrait de notre vie d'après Il est temps d'entamer Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir... Oh, où sont passées nos plus belles années ? Elles s'éloignent lentement Où sont passées nos plus belles années ? L'avenir nous les rend Où sont passées ? Où sont passées ? Où sont passées ? Puis la mélancolie, je la mêle au présent C'est la belle embellie des souvenirs apaisants Et les belles années, même en point de suture Je vais les amener visiter mon futur</t>
+          <t>J'vais sortir de chez moi et marcher dehors M'arrêter un instant, regarder l'ciel Le soleil, sur les toits, posera ses reflets d'or J'vais kiffer voir ça, vu qu'c'est pas essentiel J'vais m'asseoir sur un banc, cinq minutes avec moi Regarder les gens, renaître au pluriel J'vais parler en silence et sourire à haute voix J'peux faire ça longtemps, vu qu'c'est pas ssentiel J'aurais envi d'une B.O. sur mon film du jour Alors j'vais mettre du son dans mes deux oreilles J'ai les poches pleines de mains et les yeux pleins d'amour C'est un moment important, vu qu'c'est pas essentiel Pas essentiel Pas essentiel Pas essentiel ... Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Après quelques mois sans beaucoup d'couleurs Confinement noir et blanc, délivrance arc-en-ciel J'vais offrir des chansons, des sourires et des fleurs J'en aurai plein les mains, vu qu'c'est pas essentiel J'vais aller trinquer avec les premiers v'nus Si, pour faire la fête, j'sens un bon potentiel Avec la famille, les potes et des inconnus On va lever notre verre à c'qu'est non-essentiel Puisque la vie est succession de superflus Soyons super fous et superficiels Protégeons l'futile et, sur ce, je conclus N'écoutez pas cette chanson, elle est pas essentielle Pas essentiel Pas essentiel Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Pas essentiel Pas essentiel Pas essentiel Pas essentiel</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>On a pris le temps</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
+          <t>- Met du sourire - J'met du sourire ? D't'façons j'pensent le mieux c'est d'la faire une fois comme ça - Vas-y, vas-y - Avec le cur quoi - Avec le cur, pour toi - Pour Patrick Je t'admire intensément, je suis ton parcours en secret Je veux t'écrire depuis longtemps et, cette année, je me sens prêt C'est pas facile, tu m'impressionnes par ton charisme et ton talent Tu parles fort, t'en fais des tonnes pour moi, c'est bien toi le plus grand Tu marches fièrement dans ta ville où tout l'monde te voit comme un roi Tu as rendu la vie plus belle pour ceux qui habitent Levallois Les entreprises viennent à la pelle, mais pas trop les logements sociaux Du coup, ta ville est bien plus belle c'est vrai que, les pauvres, c'est pas beau Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Depuis longtemps, tu sais très bien que la morale et la décence C'est pour les faibles, ça sert à rien toi, loin des scrupules, tu avances C'est prouvé c'est toi l'meilleur, t'as sur le dos et sur les bras Plus de mises en examen que ton ami Nicolas Blanchiment de fraude fiscale, et déclaration mensongère Corruption, Panama papers, j'oublie sûrement quelques affaires Toi, tu restes droit dans tes bottes, tête haute et grande gueule Tous ces juges, toi et tes potes, tu sais même pas ce qu'ils vous veulent Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Pour servir ton clientélisme, rien n'pourra jamais t'arrêter Tu t'en fous si, de toute la France, c'est ta ville la plus endettée J'me demande parfois qui sont ceux que tu tiens par les couilles Pour être encore en liberté après avoir mis tant de douilles Y'a plein de p'tits frères en prison pour des conneries, des p'tits trafics Toi, tu croules sous les affaires, mais t'es élu d'la république C'est bien grâce à des gens comme toi que j'ai confiance en mon pays En sa justice et en ses droits, vive la France et son mépris Et, si tu m'invites à chanter dans ton royaume, je veux bien venir J'prends pas d'cash j'veux être déclaré tu sais même pas c'que ça veut dire Mais je chanterai avec bonheur, avec ardeur à chaque instant Je chanterai pour toi, Patrick, car, pour moi, tu es le plus grand Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand - Si ça s'trouve on va le laisser comme ça - Hmm, c'est bien ça - On va le mettre comme ça ?</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Parole du bout du monde</t>
+          <t>Pause</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé Cette histoire, je donnerais tout pour connaître son origine exacteT'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10 ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au cur des quartiers historiques J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là-bas avaient étrangement perdu la mémoire Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains mais en vain J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
+          <t>Jaime bien la terrasse des cafés quand le soleil sourit Jaime bien aussi la table du fond dans un petit bar pourri Jaime bien lever mon verre juste en lhonneur de linstant Trinquer avec des inconnus quand personne ne mattend Jaime bien conduire le soir au moment où la nuit samorce Jaime bien les paysages quand le soleil perd de la force Létrange humeur maussade, le crépuscule dans le ventre Observer les détails quand chaque minute se réinvente Jaime bien linstant précis où gentiment la pluie sarrête Où léclaircie sapprête, où on peut relever la tête Regarder devant soi et sétonner de voir plus loin Imaginer lavenir au moins jusquà demain matin Jaime bien regarder la vue, prendre un peu de hauteur Prendre le temps, prendre du recul, prendre les choses moins à cur Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Pause Jaime bien me souvenir, jaime bien parler davant Jaime bien la nostalgie, ça me fait me sentir vivant Jaime bien sentir le froid, jaime bien ouvrir les vitres Jaime bien le temps qui passe quand il ne passe pas trop vite Jaime voir vivre les gens, les sereins et les stressés Ceux qui prennent tout leur temps et ceux qui jouent les pressés Jaime appartenir à tous ces mouvements dhumeur Être au cur de la foule et me sentir à lextérieur Jaime bien la ville la nuit, quand tu crois quelle est belle Voir le monde à la merci de sa réalité parallèle Toute la foule des fantasmes et des rencontres pas nettes Jaime bien les faces B, effleurer lautre planète Jaime bien rêver dautres vies et mavancer vers elles Y repenser pour comprendre ce que rêver révèle Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Jaime les a priori pour quils soient vite dépassés Jaime bien les convictions quand elles se sentent menacées Jaime sentir la fragilité dans certaines attitudes Jaime bien les êtres humains qui nont pas trop de certitudes Jaime bien garder le silence face à ceux qui parlent fort Jaime la nonchalance, jaime gérer mes efforts Jaime bien écrire la nuit, au cur de son ventre mou Jaime bien parler tout seul mais ça, ça reste entre nous Jaime bien ces soirées qui nont plus envie de sarrêter Quelques âmes autour dune table à bavarder et profiter De senfoncer dans la nuit, sans retenue, sans excès On oublie presque quon est bien, on refait le monde sans succès Jaime bien voir le soir, le sentir entre chien et loup Flirter avec le cafard, me sentir entre rien et tout Jaime bien aussi faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir1</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Paroles du bout du monde</t>
+          <t>Pendant 24h</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rouda Qui a dit un jour que les paroles s'envolent et que les écrits restent Et qui dira que cette histoire ne fut qu'une parabole de deux poètes à la plume trop leste Des montagnes de l'Est elle traverse les rivières du grand Ouest Puis serpente et s'entête jusqu'à se fondre dans l'asphalte GCM C'est l'histoire d'un récit qui traverse le monde comme tu tournes les pages de ton atlas On m'a dit qu'il était conté par un mec très vieux, je parle pas du Père Fouras Mais d'un ancien respecté à la voix aussi profonde que les rides de son visage Je te parle de son récit qui pendant des décennies a traversé plus d'un paysage Rouda C'est l'histoire d'un tour du monde d'une course autour de la planisphère Un moment hors de l'espace-temps où les secondes se comptent en millénaires Ce n'est pas un conte mais un poème mi-phénomène paranormal Mi-parole libre qui se promène forcément ça se passe à l'oral GCM C'est l'histoire d'un voyage fantastique auquel ont participé plus d'un élément Qui, lors d'une existence classique, ne se croisent pas forcément Ce voyage un peu magique, comme tout le monde tu en as entendu parler Moi je l'ai connu un soir de pleine lune devant un grand ciel étoilé Rouda Moi je crois bien que c'est le vent qui est venu me la souffler Et ça m'a fait l'effet d'un sédatif car à vrai dire ça m'a troublé GCM Cette histoire, je donnerais tout pour connaître son origine exacte T'sais quoi Rouda on va remonter à sa source chacun de son côté, tel est notre pacte Rouda Ok Grand Corps Malade je te souhaite une balade planétaire Je te laisse donner le top départ et le choix dans l'hémisphère GCM Tu devras fouiller dans 2 continents, moi 3, s'il faut on se retrouve dans 10ans Mais comme j'ai plus de terres que toi, tu te taperas aussi le fond des océans Bon voyage ! Que le meilleur gagne ! Rouda J'ai commencé à observer les territoires les plus classiques Le tableau noir des facultés aux discours très académiques J'ai entendu les cris d'une parole qui s'endort dans des débats soporifiques Des conférences, des galeries d'art et même des visites guidées au coeur des quartiers historiques GCM J'ai commencé ma quête en questionnant mon voisin de palier Il est tellement vieux qu'à un bout de cette histoire il est forcément lié Il m'a conseillé d'enquêter dans un petit village montagnard Mais les gens que j'ai croisés là -bas avaient étrangement perdu la mémoire Rouda Sur mon itinéraire j'avais quelques antiquaires Je n'y ai trouvé que des mots en vieux français et des paroles pleines de poussière J'ai rencontré deux trois coiffeurs et leurs récits légendaires A la racine j'ai tout compris de la théorie de la pesanteur J'ai donc pris de la hauteur j'ai fait pas mal d'aller-retours J'ai été rapide ou plein de lenteur mais la durée de mon parcours S'étale sur le Maghreb et ses conteurs jusqu'aux tavernes de Singapour Des tribus nomades d'orateurs aux temples de Kuala Lumpur J'ai vu des mots d'absence des mots laissés sur une porte et même des mots d'amour J'ai parfois pris le mauvais sens et plus j'ai fait la connaissance des nouveaux troubadours GCM J'ai compris que c'que je cherchais avait quelque chose de secret Et que cette histoire était fragile comme un mot écrit à la craie Je scrutais la nuit dans des ruelles sombres aux odeurs de pisse Quand un vieux clochard me lança enfin sur une bonne piste Il m'a dit d'aller interroger un scientifique, j'étais d'accord Mais celui-ci m'a rien appris, j'ai juste révisé le théorème de Pythagore Alors je suis allé voir les plus grands philosophes du continent Mais ils m'ont saoulé, j'préfèrais encore mon vieux voisin incontinent J'ai rencontré des tas de personnes, de Reykjavik à Pékin Des groupes de jeunes rappeurs aux vieux griots africains... mais en vain GCM Rouda J'ai vu des mots tendres, j'ai vu des mots d'excuse, j'ai vu des gros mots J'ai vu des mots à prendre des mots qui accusent et même des mots en trop J'ai vu des mots passants, j'ai vu des mots vexants, j'ai vu des mots tranchants comme un pieux J'ai vu des mots qui immobilisent des mots sans mobile et même des mots creux J'ai vu des Mohammed, j'ai vu des Mauricette J'ai surtout vu que j'avais fait ce voyage pour rien J'ai vu de mauvais mots, j'ai vu des bons moments Et que finalement la source n'était pas si loin Cette histoire, c'est la tienne, c'est la mienne, elle est bien réelle C'est l'histoire du langage universel faîtes qu'elle soit éternelle J'sais pas pour toi Grand Corps Malade mais notre fin de texte me semble un peu trop solennelle C'est vrai Rouda mais l'important c'est peut-être juste qu'elle soit belle Ca leur paraîtra peut-être bête encore plus con que deux poètes Mais j'ai encore envie de la dire que vive la parole libre ! En tout cas c'qui est net, c'est que cette histoire vit dans toutes nos têtes Et qu'on continueras à la vivre jusqu'aux toutes dernières pages de notre propre livre Bon voyage ! Que le meilleur gagne !</t>
+          <t>Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jenverrai un mail au taf en f'sant les courses à Carrefour Jaiderai les enfants aux devoirs en sortant la quiche du four Avec eux je serai joyeuse, avec mon mec, femme fatale Vingt-quatre heures dans la peau dune femme, je comprendrai la charge mentale À seize heures trente-cinq pile, jarrêterai d'travailler Vu quaprès quand tes une femme, et ben tes plus payée Je sortirai en jupe quelques instants dans les transports Pour comprendre lessence même du hashtag Balance ton porc Jboirai du whisky pour me mettre à laise Sans coca, sans glaçon, comme les mecs balaises Jirai draguer une fille mais yaura pas d'malaise Jenverrai pas d'texto qui dit Cest quand quon baise ? Je serai romantique avec les meufs sur Tinder Pas de dick pics, des curs de toutes les couleurs Jirai marcher la nuit, je prendrai pas de Uber Si je croise un autre mec, plus besoin davoir peur Mais j'veux aussi kiffer, connaître enfin leur vrai pouvoir Critiquer les gens avec mes copines du matin au soir Et dès quelles sont parties, les critiquer elles aussi Fanny est vraiment chiante, Solène elle a grossi Je veux découvrir enfin le singulier bonheur De réussir à faire un créneau en une demi-heure Comprendre enfin la passion sincère, sans censure De regarder sur internet pendant, des heures, des chaussures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jmettrai la main au cul à un pote un peu lourd Pour quil comprenne enfin que cest pas très glamour J'pourrai prendre tout mon temps, pas dhorloge biologique Si je veux pas denfant, personne en fera tout un cirque Je testerai tout d'suite, ces p'tites galères au féminin Lépilation, le maquillage, perdre ses clefs dans l'sac à main Les talons hauts, le vernis à ongles et les rappels mensuels du corps Dêtre une femme, je veux découvrir lenfer du décor Jpourrai ne plus m'raser, personne dira qu'cest dégeu' Jaurai plus mal au ventre, ragnagna de mes deux J'dirai Bonjour, patron sans quil me dévore des yeux Dealer laugmentation, sans dîner amoureux Devant ma PS4, pendant qu'ma meuf se plie en quatre Je mettrai pas la table, cest pas la fin du match Jpisserai sur le trottoir comme le ptit chien de la voisine Cest lavantage de la physiologie masculine Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures1</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pas essentiel</t>
+          <t>Plan B</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>J'vais sortir de chez moi et marcher dehors M'arrêter un instant, regarder l'ciel Le soleil, sur les toits, posera ses reflets d'or J'vais kiffer voir ça, vu qu'c'est pas essentiel J'vais m'asseoir sur un banc, cinq minutes avec moi Regarder les gens, renaître au pluriel J'vais parler en silence et sourire à haute voix J'peux faire ça longtemps, vu qu'c'est pas ssentiel J'aurais envi d'une B.O. sur mon film du jour Alors j'vais mettre du son dans mes deux oreilles J'ai les poches pleines de mains et les yeux pleins d'amour C'est un moment important, vu qu'c'est pas essentiel Pas essentiel Pas essentiel Pas essentiel ... Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Après quelques mois sans beaucoup d'couleurs Confinement noir et blanc, délivrance arc-en-ciel J'vais offrir des chansons, des sourires et des fleurs J'en aurai plein les mains, vu qu'c'est pas essentiel J'vais aller trinquer avec les premiers v'nus Si, pour faire la fête, j'sens un bon potentiel Avec la famille, les potes et des inconnus On va lever notre verre à c'qu'est non-essentiel Puisque la vie est succession de superflus Soyons super fous et superficiels Protégeons l'futile et, sur ce, je conclus N'écoutez pas cette chanson, elle est pas essentielle Pas essentiel Pas essentiel Embrasser quelqu'un pas essentiel Ouvrir un bouquin pas essentiel Sourire sincère pas essentiel Aller aux concerts pas essentiel Se prom'ner en forêt pas essentiel Danser en soirée pas essentiel Retrouver les gens pas essentiel Spectacle vivant... Pas essentiel Pas essentiel Pas essentiel ... Pas essentiel Pas essentiel Pas essentiel Pas essentiel</t>
+          <t>Quand, pour ton sixième album, tu veux sortir en indé' Pour la thune et pour la com', il faut trouver des plans B Quand tu fais un mètre soixante et qu'tu veux jouer en NBA Peut-être que ça s'tente, mais prévois quand même un plan B Quand tu veux de belles vacances mais qu'en jouant t'as tout flamber Tu vas squatter l'Île de France, puis tu vas chercher un plan B Quand tu veux être homme politique mais qu'tu sais dire qu'la vérité Ça va pas être très pratique, mieux vaut trouver un plan B Quand tu rêves d'une carrière sportive mais qu't'es déjà en seniors Quand tu veux créer ton site d'infos en Corée du Nord Quand tu veux être président mais qu'tu n'aimes pas les coups bas Quand tu veux avoir d'la classe mais qu'tu fais de la zumba Quand t'es Noir et musulman et qu'tu veux habiter Béziers Quand, dans un discours d'Ménard, tu cherches de l'humanité Quand t'es docteur dans ton pays et qu'en France t'es en clandé' C'est à l'échelle de ta vie qu'tu dois passer au plan B Quand tu voulais faire du sport mais qu'tu t'es bien planté Un stylo, des métaphores, ça peut faire un beau plan B Quand tu aimes faire des grasses mat' et qu'tu veux être boulanger Une conciliation délicate, prévois plutôt un plan B Quand, ta meuf, c'est Kardashian et qu'tu rêves d'une vie planquée J'te préviens ça va être chiant, prévois plutôt un plan B Si tu veux être un artiste et qu'tu n'aimes pas t'tromper Il faut pas qu'tu insistes, tu peux passer au plan B Quand tu veux faire du naturisme en Afganhistan Quand tu rêves de gifler quelqu'un mais qu't'es son assistant Quand tu veux être élégant avec des mocassins à glands Quand tu veux qu'tes parents aiment leur gendre mais qu'il est rasta blanc Parce que, la vie, c'est une obligation d's'adapter sans trembler Que c'est l'art des seconds choix, des autres options et des plans B Parce que, pour le nom d'ton nouveau disque, tu émets une nouvelle idée Originale et poétique, vu qu't'as choisi Plan B1</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Pocahontas Remix</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>- Met du sourire - J'met du sourire ? D't'façons j'pensent le mieux c'est d'la faire une fois comme ça - Vas-y, vas-y - Avec le cur quoi - Avec le cur, pour toi - Pour Patrick Je t'admire intensément, je suis ton parcours en secret Je veux t'écrire depuis longtemps et, cette année, je me sens prêt C'est pas facile, tu m'impressionnes par ton charisme et ton talent Tu parles fort, t'en fais des tonnes pour moi, c'est bien toi le plus grand Tu marches fièrement dans ta ville où tout l'monde te voit comme un roi Tu as rendu la vie plus belle pour ceux qui habitent Levallois Les entreprises viennent à la pelle, mais pas trop les logements sociaux Du coup, ta ville est bien plus belle c'est vrai que, les pauvres, c'est pas beau Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Depuis longtemps, tu sais très bien que la morale et la décence C'est pour les faibles, ça sert à rien toi, loin des scrupules, tu avances C'est prouvé c'est toi l'meilleur, t'as sur le dos et sur les bras Plus de mises en examen que ton ami Nicolas Blanchiment de fraude fiscale, et déclaration mensongère Corruption, Panama papers, j'oublie sûrement quelques affaires Toi, tu restes droit dans tes bottes, tête haute et grande gueule Tous ces juges, toi et tes potes, tu sais même pas ce qu'ils vous veulent Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand Pour servir ton clientélisme, rien n'pourra jamais t'arrêter Tu t'en fous si, de toute la France, c'est ta ville la plus endettée J'me demande parfois qui sont ceux que tu tiens par les couilles Pour être encore en liberté après avoir mis tant de douilles Y'a plein de p'tits frères en prison pour des conneries, des p'tits trafics Toi, tu croules sous les affaires, mais t'es élu d'la république C'est bien grâce à des gens comme toi que j'ai confiance en mon pays En sa justice et en ses droits, vive la France et son mépris Et, si tu m'invites à chanter dans ton royaume, je veux bien venir J'prends pas d'cash j'veux être déclaré tu sais même pas c'que ça veut dire Mais je chanterai avec bonheur, avec ardeur à chaque instant Je chanterai pour toi, Patrick, car, pour moi, tu es le plus grand Patrick, Patrick, les juges sont des méchants T'inquiète, Patrick, personne ne les entend Patrick, Patrick, tu es fort, fier et franc Merci Patrick, c'est bien toi le plus grand - Si ça s'trouve on va le laisser comme ça - Hmm, c'est bien ça - On va le mettre comme ça ?</t>
+          <t>On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse Ah-ih yeah, ah-ih yeah, ah-ih yeah, ah-ih yeah On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, trousse qui déborde de stylos Et puis il y aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pause</t>
+          <t>Poker</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Jaime bien la terrasse des cafés quand le soleil sourit Jaime bien aussi la table du fond dans un petit bar pourri Jaime bien lever mon verre juste en lhonneur de linstant Trinquer avec des inconnus quand personne ne mattend Jaime bien conduire le soir au moment où la nuit samorce Jaime bien les paysages quand le soleil perd de la force Létrange humeur maussade, le crépuscule dans le ventre Observer les détails quand chaque minute se réinvente Jaime bien linstant précis où gentiment la pluie sarrête Où léclaircie sapprête, où on peut relever la tête Regarder devant soi et sétonner de voir plus loin Imaginer lavenir au moins jusquà demain matin Jaime bien regarder la vue, prendre un peu de hauteur Prendre le temps, prendre du recul, prendre les choses moins à cur Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Pause Jaime bien me souvenir, jaime bien parler davant Jaime bien la nostalgie, ça me fait me sentir vivant Jaime bien sentir le froid, jaime bien ouvrir les vitres Jaime bien le temps qui passe quand il ne passe pas trop vite Jaime voir vivre les gens, les sereins et les stressés Ceux qui prennent tout leur temps et ceux qui jouent les pressés Jaime appartenir à tous ces mouvements dhumeur Être au cur de la foule et me sentir à lextérieur Jaime bien la ville la nuit, quand tu crois quelle est belle Voir le monde à la merci de sa réalité parallèle Toute la foule des fantasmes et des rencontres pas nettes Jaime bien les faces B, effleurer lautre planète Jaime bien rêver dautres vies et mavancer vers elles Y repenser pour comprendre ce que rêver révèle Jaime bien faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir Jaime les a priori pour quils soient vite dépassés Jaime bien les convictions quand elles se sentent menacées Jaime sentir la fragilité dans certaines attitudes Jaime bien les êtres humains qui nont pas trop de certitudes Jaime bien garder le silence face à ceux qui parlent fort Jaime la nonchalance, jaime gérer mes efforts Jaime bien écrire la nuit, au cur de son ventre mou Jaime bien parler tout seul mais ça, ça reste entre nous Jaime bien ces soirées qui nont plus envie de sarrêter Quelques âmes autour dune table à bavarder et profiter De senfoncer dans la nuit, sans retenue, sans excès On oublie presque quon est bien, on refait le monde sans succès Jaime bien voir le soir, le sentir entre chien et loup Flirter avec le cafard, me sentir entre rien et tout Jaime bien aussi faire une pause, penser à toi et sourire Te sentir près de moi et te regarder dormir1</t>
+          <t>Qui sest déjà perdu ? Qui sest déjà perdu ? Madame Rouge a eu un bon feeling quand il lui a offert ce verre Il avait l'air entreprenant, elle a choisi de le laisser faire Monsieur Bleu a eu du désir, quand elle a trinqué en souriant Et il la sent complice ça ne lui arrive pas si souvent Le trouble est réciproque, leur premier verre est déjà vide Naturellement, leur corps s'approchent, ils ne sont plus timides Ils partageront les prochaines heures et les pulsions en avalanche Madame Rouge et monsieur Bleu se souviendront de cette nuit blanche Mais les jours s'enchaînent avec le tout comme emblème Ils ont envie de se revoir et c'est peut-être ça leur problème Ils ne savent pas sur quoi miser, se dévoiler paraît dangereux Ils commencent une étrange partie de poker amoureux Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Monsieur Bleu pense qu'il faut qu'elle pense quil ne pense pas trop à elle Madame Rouge croit qu'il croit qu'elle se croit un peu trop belle Monsieur Bleu a senti qu'elle sentait qu'il se sentait trop bien Madame Rouge a voulu qu'il la veuille mais sans vouloir aller trop loin Mais de quoi ont-ils peur dès qu'il faut regarder devant eux ? La rencontre est si claire et le futur si venteux Est-ce qu'il leur faut cacher leur jeu ou mettre cartes sur table ? Doivent-ils bluffer leurs sentiments pour se sentir moins vulnérables ? Doivent-ils miser le minimum pour se protéger ? Ou prendre des risques pour pousser l'autre à s'engager ? Les non-dits les faux-semblants remplissent la partie de contraintes Le naturel s'est égaré leur amour est un labyrinthe Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Quand il ne restera qu'une seule carte à retourner Sera-t-il en toujours temps de nous dévoiler ? Pour nous raccorder nos couleurs y aura t-il assez de place ? Derrière les carreaux dans mon cur je crois encore au carré d'as Depuis le lendemain de leur rencontre ils marchent sur des oeufs Ils découvrent progressivement les règles de leur propre jeu Mais ce soir monsieur Bleu et madame Rouge ferment les volets Pour une fois sans se poser de question ils repeignent la nuit en violet Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ?</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pendant 24h</t>
+          <t>Pour un sourire</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jenverrai un mail au taf en f'sant les courses à Carrefour Jaiderai les enfants aux devoirs en sortant la quiche du four Avec eux je serai joyeuse, avec mon mec, femme fatale Vingt-quatre heures dans la peau dune femme, je comprendrai la charge mentale À seize heures trente-cinq pile, jarrêterai d'travailler Vu quaprès quand tes une femme, et ben tes plus payée Je sortirai en jupe quelques instants dans les transports Pour comprendre lessence même du hashtag Balance ton porc Jboirai du whisky pour me mettre à laise Sans coca, sans glaçon, comme les mecs balaises Jirai draguer une fille mais yaura pas d'malaise Jenverrai pas d'texto qui dit Cest quand quon baise ? Je serai romantique avec les meufs sur Tinder Pas de dick pics, des curs de toutes les couleurs Jirai marcher la nuit, je prendrai pas de Uber Si je croise un autre mec, plus besoin davoir peur Mais j'veux aussi kiffer, connaître enfin leur vrai pouvoir Critiquer les gens avec mes copines du matin au soir Et dès quelles sont parties, les critiquer elles aussi Fanny est vraiment chiante, Solène elle a grossi Je veux découvrir enfin le singulier bonheur De réussir à faire un créneau en une demi-heure Comprendre enfin la passion sincère, sans censure De regarder sur internet pendant, des heures, des chaussures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Jmettrai la main au cul à un pote un peu lourd Pour quil comprenne enfin que cest pas très glamour J'pourrai prendre tout mon temps, pas dhorloge biologique Si je veux pas denfant, personne en fera tout un cirque Je testerai tout d'suite, ces p'tites galères au féminin Lépilation, le maquillage, perdre ses clefs dans l'sac à main Les talons hauts, le vernis à ongles et les rappels mensuels du corps Dêtre une femme, je veux découvrir lenfer du décor Jpourrai ne plus m'raser, personne dira qu'cest dégeu' Jaurai plus mal au ventre, ragnagna de mes deux J'dirai Bonjour, patron sans quil me dévore des yeux Dealer laugmentation, sans dîner amoureux Devant ma PS4, pendant qu'ma meuf se plie en quatre Je mettrai pas la table, cest pas la fin du match Jpisserai sur le trottoir comme le ptit chien de la voisine Cest lavantage de la physiologie masculine Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures Lultime nuance Vue de lintérieur Vivre cette chance Pendant vingt-quatre heures1</t>
+          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plan B</t>
+          <t>Qui a kidnappé Benjamin Biolay !</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Quand, pour ton sixième album, tu veux sortir en indé' Pour la thune et pour la com', il faut trouver des plans B Quand tu fais un mètre soixante et qu'tu veux jouer en NBA Peut-être que ça s'tente, mais prévois quand même un plan B Quand tu veux de belles vacances mais qu'en jouant t'as tout flamber Tu vas squatter l'Île de France, puis tu vas chercher un plan B Quand tu veux être homme politique mais qu'tu sais dire qu'la vérité Ça va pas être très pratique, mieux vaut trouver un plan B Quand tu rêves d'une carrière sportive mais qu't'es déjà en seniors Quand tu veux créer ton site d'infos en Corée du Nord Quand tu veux être président mais qu'tu n'aimes pas les coups bas Quand tu veux avoir d'la classe mais qu'tu fais de la zumba Quand t'es Noir et musulman et qu'tu veux habiter Béziers Quand, dans un discours d'Ménard, tu cherches de l'humanité Quand t'es docteur dans ton pays et qu'en France t'es en clandé' C'est à l'échelle de ta vie qu'tu dois passer au plan B Quand tu voulais faire du sport mais qu'tu t'es bien planté Un stylo, des métaphores, ça peut faire un beau plan B Quand tu aimes faire des grasses mat' et qu'tu veux être boulanger Une conciliation délicate, prévois plutôt un plan B Quand, ta meuf, c'est Kardashian et qu'tu rêves d'une vie planquée J'te préviens ça va être chiant, prévois plutôt un plan B Si tu veux être un artiste et qu'tu n'aimes pas t'tromper Il faut pas qu'tu insistes, tu peux passer au plan B Quand tu veux faire du naturisme en Afganhistan Quand tu rêves de gifler quelqu'un mais qu't'es son assistant Quand tu veux être élégant avec des mocassins à glands Quand tu veux qu'tes parents aiment leur gendre mais qu'il est rasta blanc Parce que, la vie, c'est une obligation d's'adapter sans trembler Que c'est l'art des seconds choix, des autres options et des plans B Parce que, pour le nom d'ton nouveau disque, tu émets une nouvelle idée Originale et poétique, vu qu't'as choisi Plan B1</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pocahontas Remix</t>
+          <t>Rachid Taxi</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a déjà eu les premiers mots, les premiers rires déclenchés Les premiers pas, les premières courses, les premiers genoux écorchés Les premières photos à quatre, les premières crises de cauchemar Les premières nuits pointillées, les premiers vices de couche-tard On a encore les Memory et les parties de dominos Les jouets qui font trop d'musique et les matins trop matinaux Les journées de taff' raccourcies, l'ultimatum de 16h30 Et les promenades au parc, tous les jours où ça leur tente On a eu les premiers hostos, les inquiétudes, les premières peurs Les premières grosses engueulades et les punitions à contre cur Les premiers cadeaux débiles avec leur nom sur leur tasse Les siestes dun il sur lcanapé en regardant Pocahontas On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On attend sans impatience, les premiers devoirs à la maison Les premiers stress de contrôle, les boules au ventre à lhorizon Les premiers mots dans le carnet pour les tarés quand ils samusent Les premières mauvaises notes, pour les carrés de lhypoténuse Ah-ih yeah, ah-ih yeah, ah-ih yeah, ah-ih yeah On redoute un peu quand même le cartable de 20 kilos Cahiers à spirales, trousse qui déborde de stylos Et puis il y aura premier portable, les premières boums, premières soirées Les premières peines de cur, premier rencard un peu foiré Ce sera un peu lmoment de toutes les premières fois Les premières cuites, les premières nuits quon ne nous racontera pas On les regardera agir avec un pincement au cur Car de leur vie on deviendra de plus en plus spectateur On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait Il nous restera ça je lespère, ce sentiment essentiel De les avoir bien préparé à cet immense bordel Il nous restera ça jen suis sur, cette indicible joie De les voir courageux, bien épanouis dans leurs choix Il nous restera une maison avec une ou deux chambres en trop Retrouvant le statut de jeune couple en perdant celui de parents pro Il nous restera à regarder devant en appréciant ce qu'il y'a derrière Prendre pleins de photos de demain, pour compléter celles d'hier Et puis les chambres en trop seront à nouveau amochées Par la nouvelle génération des premiers jouets écorchés Le cycle jouera son rôle implacable et fatidique Et on retrouvera des jouets modernes qui feront toujours trop de musique Au milieu des nouveaux cris on s'dira qu'on a réussi À fabriquer ce manteau, qui nous protège la vie Ce confort impalpable, ce tremplin, cette béquille Ce miracle anodin, on a fait une famille On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait On a, on a fait On a, on a fait On a, on a fait eh On a, on a fait</t>
+          <t>Il est toujours à l'heure à chacun de nos rencards Et il m'engueule même pas trop quand j'arrive un peu en retard Je monte dans sa voiture et je m'assois à côté de lui Pour qu'il m'emmène à la gare, à Roissy, à Orly Rachid il est taxi depuis quinze longues années En banlieue ou à Paris, il fait rarement la même tournée Comme j'suis amené à voyager, je le vois souvent et on discute Rachid il est bavard et avec lui, j'apprends plein d'trucs Sa voiture elle est grande et puis elle est toujours nickel Rachid Taxi il est serviable c'est un grand professionnel Il fait jamais la moindre infraction au code de la route Mais pour l'itinéraire le plus rapide des fois, j'ai des doutes Dans la voiture de Rachid, y a toujours un peu les mêmes disques Chanteurs français, chansons à texte avec des mélodies tristes Rachid il a quelques certitudes impossibles à déranger Il dit qu'un bon chanteur, ça doit être un artiste engagé Rachid il aime la politique et il en fait c'est toute sa vie Et vu ses opinions, il aime pas que j'écrive pour Johnny Moi, j'lui dis que ça n'a rien à voir et qu'il faut pas tout mélanger Mais Rachid il est têtu et c'est pas moi qui vais l'changer Rachid Taxi quand il s'énerve il lâche l'accélérateur Pendant une bonne embrouille, on roule à dix kilomètres-heure Et si t'as pas envie de louper ton train ou ton avion Vaut mieux pas trop le titiller et lui dire qu'il a raison Rachid il a une opinion sur chaque sujet dactualité Il sort des bonnes chambrettes, un peu cyniques mais méritées Rachid cest un sensible, un écorché et un vanneur Et y a de lémotion dans le rétro quand il raconte la marche des Beurs Il connaît bien les paroles et il sait même jouer de la guitare Rachid taxi parisien et chansonnier banlieusard Rachid il aime écrire dans des journaux militants Ou simplement quelques petits mots quil laisse traîner pour ses enfants Ça il aime sa famille ça transpire dans chaque discussion Et tant quson fils devient pas flic, il en parlera avec passion Rachid Taxi il déteste prendre le périphérique Y a pas de décor, y a que des voitures et des radars automatiques Il préfère traverser Paris et mettre le coude à la fenêtre Pouvoir regarder les gens et allumer sa cigarette Il connaît toutes les astuces et cest vivant, Paris ça bouge Il prend les couloirs de bus en observant le feu est rouge Il connaît bien Paris le matin et démarre souvent avant le soleil Cest lheure où moi je vais me coucher il est cinq heures, Paris séveille Ça met du cur dans lhabitacle et du vécu dans latmosphère Il est pilote, il est DJ, j'me laisse porter le feu est vert Parfois, quand on a le temps, on sarrête prendre un p'tit plat Avec le verre de rouge qui va bien pour accompagner un bon repas Ben ouais Rachid il boit du vin et il fait pas le ramadan Bien sûr il est croyant il est musulman, pratiquement Rachid il a un regard particulier qui crée du lien Un regard de grand frère, le regard dun mec bien Un regard de tendresse, un regard un peu mouillé Un regard concerné et des rêves un peu rouillés Rachid il a un regard, un regard sur la vie Un avis sur le monde et du monde dans son taxi Si jen fais une chanson elle sera pas très engagée cest sûr Mais si la mélodie est triste, elle passera peut-être dans sa voiture</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Poker</t>
+          <t>Retiens les rêves</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Qui sest déjà perdu ? Qui sest déjà perdu ? Madame Rouge a eu un bon feeling quand il lui a offert ce verre Il avait l'air entreprenant, elle a choisi de le laisser faire Monsieur Bleu a eu du désir, quand elle a trinqué en souriant Et il la sent complice ça ne lui arrive pas si souvent Le trouble est réciproque, leur premier verre est déjà vide Naturellement, leur corps s'approchent, ils ne sont plus timides Ils partageront les prochaines heures et les pulsions en avalanche Madame Rouge et monsieur Bleu se souviendront de cette nuit blanche Mais les jours s'enchaînent avec le tout comme emblème Ils ont envie de se revoir et c'est peut-être ça leur problème Ils ne savent pas sur quoi miser, se dévoiler paraît dangereux Ils commencent une étrange partie de poker amoureux Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Monsieur Bleu pense qu'il faut qu'elle pense quil ne pense pas trop à elle Madame Rouge croit qu'il croit qu'elle se croit un peu trop belle Monsieur Bleu a senti qu'elle sentait qu'il se sentait trop bien Madame Rouge a voulu qu'il la veuille mais sans vouloir aller trop loin Mais de quoi ont-ils peur dès qu'il faut regarder devant eux ? La rencontre est si claire et le futur si venteux Est-ce qu'il leur faut cacher leur jeu ou mettre cartes sur table ? Doivent-ils bluffer leurs sentiments pour se sentir moins vulnérables ? Doivent-ils miser le minimum pour se protéger ? Ou prendre des risques pour pousser l'autre à s'engager ? Les non-dits les faux-semblants remplissent la partie de contraintes Le naturel s'est égaré leur amour est un labyrinthe Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Quand il ne restera qu'une seule carte à retourner Sera-t-il en toujours temps de nous dévoiler ? Pour nous raccorder nos couleurs y aura t-il assez de place ? Derrière les carreaux dans mon cur je crois encore au carré d'as Depuis le lendemain de leur rencontre ils marchent sur des oeufs Ils découvrent progressivement les règles de leur propre jeu Mais ce soir monsieur Bleu et madame Rouge ferment les volets Pour une fois sans se poser de question ils repeignent la nuit en violet Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ? Qui sest déjà perdu dans le poker des sentiments ? Qui se sentira courageux ? Qui pourra dévoiler son jeu ? Qui sest déjà perdu dans le poker des sentiments ? Qui s'effacera et qui voudra miser ? Qui mentira le premier ?</t>
+          <t>J'ai rêvé C'était une soirée d'hiver, j'étais rentré pas trop tard J'ai regardé L'atmosphère était légère, vous faisiez vos devoirs J'ai aimé Vous m'avez regardé d'un air qui était content de me voir J'vous ai trouvés plein de lumière, dehors, il faisait tout noir J'vous ai pas dit qu'j'étais fier, j'vous ai souri sans le savoir J'ai rêvé C'était une soirée d'été, on revenait d'votre entraînement J'ai regardé Vos mines un peu fatiguées, vos yeux bleus inspirants J'ai aimé Dans la radio, ça kickait, vos rappeurs du moment Dans la voiture, on chantait, comment serait-ce autrement ? L'solil voulait pas s'coucher, profiter d'notre instant J'ai rêvé Est-c que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé C'était l'hiver, tôt, le matin, juste avant qu'le jour se lève J'ai regardé Vos yeux endormis, sereins, autour d'la table du p'tit déj' J'ai aimé Y avait l'odeur du grille-pain et vous m'racontiez vos rêves De drôles d'histoires de requins et de marins qu'on enlève C'était un matin commun, mais comme un privilège J'ai rêvé C'était l'été, à la campagne, y avait de belles éclaircies J'ai regardé C'était peut-être à la montagne, les rêves, c'est pas très précis J'ai aimé Vous m'disiez qu'c'était relou, cette crème solaire à s'enduire Y avait du bonheur partout et vous vouliez vous resservir J'restais tout le temps avec vous, pour pas vous sentir grandir J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait Quand ils apprennent à lire, nous, on vieillit sans défense J'crois qu'on était des enfants, tant qu'on en avait pas Et si les aider à grandir nous fait perdre un peu d'innocence J'veux bien devenir adulte si c'est pour être papa J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pour un sourire</t>
+          <t>Rétroviseur</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Eh ben voilà, j'crois qu'une fois d'plus, Brassens avait raison Quand il a choisi cette ville pour y fonder sa dernière maison J'n'ai passsé qu'deux jours à Sète, moi et ma peau blème Et sans problème, j'peux vous affirmer qu'cette ville est un poème J'ai respiré l'air marin, senti l'odeur des coquillages J'ai vu qu'y avait une lumière jaune dans chacun d'ses paysages Et puis j'ai rencontré des gens qui avaient trois trucs importants Le sourire, l'air sincère, et surtout ils avaient du temps On a mangé sur le port, une table au bord du paradis Un des meilleurs restos du coin, on a tardé, on a gole-ri À cette table on était quatre mais on a mangé comme dix Pour l'même repas à Paris, on aurait dû emprunter chez Cofidis J'aime la région parisienne mais on y vit dans la démesure Ce jour-là, à cette table, on s'est dit qu'on en ferait trois fois seize mesures Car en face de moi, y avait c'rappeur de Sète qui tenait l'addition Ça a donné un beau moment et puis c'feat avec Demi Portion On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction C'était en août, comme d'hab, à saluer le Soleil Ce qui est sympa de chez moi, t'y fais le tour en Solex J'reçois l'appel de JR, d'une invitation concert C'est l'occasion de voir Fabien et d'se rencontrer à Sète Rien de mieux que de parler autour d'une très belle assiette On a pas vu le temps passer, ça aurait pu durer un siècle Parler de vraies valeurs, je sais, se reconnaître soi-même On a passé deux jours ensembles, on aurait dit une semaine Au sommaire, un chant, sourire et quelques photo à faire Si tu viens faire un tour chez moi, j'te montrerai aussi la mer De Paris à Sète, yeah, y a pas qu'les saisons qui changent On y recherche un peu de calme même si ça paraît étrange J'aime ma petite ville de Sète, c'est pas New York non plus À cette table on s'demandait la dernière fois qu'il a plu Et puis en face de moi cet homme qui se tenait à ma table Ça a donné ce beau partage avec Grand Corps Malade On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction Bon, Rachid, tu prends l'train à Sète, j'viens t'chercher à Gare de Lyon C'est l'match retour Mais cette fois c'est à moi d'payer, mais... à Paris c'est pas la même mon pote Si j'veux t'payer comme tu m'as sorti, là, homard, langoustines, coquillages... J'vais y laisser ma veste, mon frère, ça va être très très très cher Ah, sinon, viens on va chez moi directement, j'te fais un Deliveroo Ou alors j't'emmène, y a un MacDo à Jaurès Ah, vas-y s'te plaît On a payé l'addition sans problème Malgré la distance, on avance quand même Pas vraiment élevée, pas très lourde cette addition Elle a donné des idées, tu connais notre addiction</t>
+          <t>J'ai le souvenir tenace, et la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette enfance, un môme casse-cou pas trop casse-couilles Nostalgique ce cette innocence, un début d'vie sans grosse embrouille A l'école j'avais d'bonnes notes, mais on peut pas dire que j'étais très sage Insolent avec les profs, le corps enseignant avait la rage C'est vrai que j'devais être relou, mais mon attention était réduite Et j'osais pas rentrer chez moi, les jours d'avertissement d'conduite Avec mes potes on s'cachait dans les chiottes, pour rapper sur un magnéto On faisait un beat en tapant sur des portes, on était vraiment des mytho A la cantine c'était pas un repas, c'était carrément un carnage Ça gueulait, ça s'insultait, et on s'battait à coups de fromage Putain j'envie cette vie ravie que j'revis d'temps en temps Quand jme laisse aller, que j'matte dans le rétroviseur du temps Et ça y'est j'me revois déjà dans l'bus qui part en colo Avec tous mes paquots, avec des types go et mon gros sac à dos Jsais pas comment on a fait pour passer tant de temps à rire Y'a peut-être aussi qu'à cette époque, c'est vrai je pouvais courir Mais t'inquiète je suis pas là pour pleurer, juste revivre avec vous La joie des premiers re-soi, l'émotion des premiers rendez vous D'ailleurs ça m'rappelle cette meuf, j'crois qu'elle s'appelait Gaëlle C'était en rentrant d'une teuf, j'lui dois mon premier roulage de pèle J'revois aussi ces parties de foot, où on jouait pendant des heures On rentrait chez nous que quand il faisait nuit et ça j'te jure c'était le bonheur C'était les années où dans mon walkman, y'avait tout le temps authentique Premier album des NTM dont j'étais vraiment fanatique C'est vrai que j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette adolescence,Des années consacrées au sport Nostalgique de cette ambiance, plus on est fou plus on est fort Avec mon équipe de basket, on allait monter en Nationale Et on a perdu le titre lors d'une énième bagarre générale Jordan était notre idole, notre modèle, notre moteur Et on travaillait notre détente pour défier les lois de la pesanteur C'est génial ces petits détails auxquels j'repense avec envie Ces p'tits bouts d'innocence qui m'sourient dans l'rétroviseur de la vie C'est vrai que j'étais sportif, et plein d'fois j'ai prouvé ma valeur Car j'me suis fait jamais serré quand j'me faisais courser par les contrôleurs Cette époque j'passais la moitié d'ma vie dans les transports et les jours de grève Croyez moi ça aussi c'était du sport J'étais pas trop bagarreur, sauf quand j'savais que j'allais gagner Contre un p'tit vieux, ou une p'tite sur, peu de chance de m'faire aligner La belle époque des p'tites magouilles, des crises de rire toute la journée J'ai des souvenirs par packs de 12, construits au fil des années C'est un truc de fou, toutes ces images qui reviennent en force Et qui font que tu n'y peux rien, ton cur se serre au fond d'ton torse Y'a des trucs qui m'manquent, que j'retrouverais pas, c'est sûr Car on les vit que quand on est inconscients innocents et purs Y'a des moments un peu sombres, des journées sans lumière Où j'me dis que le meilleur est peut-être déjà derrière Pourtant je suis bien dans mes pompes et j'ai confiance en l'avenir Y'a quelque chose que je dois avouer, que je suis obligé d'vous dire j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Qui a kidnappé Benjamin Biolay !</t>
+          <t>Robin des bois</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>Le texte qui vient c'est pas vraiment un texte en fait, c'est plutôt une conversation Et en fait, pour tout vous dire, je ne l'ai pas écrit tout seul, et celui qui a co-écrit ce texte avec moi, en fait il est pas au courant maintenant que je le fais en concert comme ça face à des gens Ourtant je vous assure que toutes ces phrases sont vraiment de lui, mais bon j'pense qu'il va pas m'en vouloir il va pas m'attaquer... De toute façon il a quatre ans... alors ça fait comme ça - Papa, pourquoi le monsieur il dort dehors ? - Bah parce que il a pas de maison - Mais pourquoi il a pas de maison ? - Bah parce que il a pas assez d'argent - Mais pourquoi il a pas assez d'argent ? - Bah je sais pas moi je le connais pas - On peut lui demander pourquoi il a pas assez d'argent ? - Bah non non ça se fait pas - Pourquoi ça se fait pas ? - Bah parce que c'est... c'est ces histoires, il a pas envie d'en parler - Pourquoi il a pas envie d'en parler ? - Bah j'sais pas moi - Papa on peut lui demander pourquoi il a pas envie d'en parler ? - Non non ça va le monsieur il a envie d'être tranquille - Pourquoi il a envie d'être tran... - Bon ça suffit, ça suffit. Laisse le monsieur on rentre à la maison on va regarder Robin des bois voilà ça va - Papa, mais nous on est des êtres humains ? - Bah ouais - Alors pourquoi nous on mange des animaux ? - Pf... bah écoute euh voilà c'est comme ça, faut bien manger euh, faut bien se nourrir et puis parce que c'est bon, le buf c'est bon, le poulet c'est bon, le lapin c'est bon... - Papa, pourquoi on mange pas le chat ? - Non mais le chat c'est pas pareil, le chat il est sympa, c'est notre copain c'est... - Le lapin il est pas sympa ? - Non mais ça n'a rien à voir, puis le lapin c'est super bon t'sais avec de la moutarde... - Et le chat c'est pas bon avec de la moutarde ? - Non non, le chat c'est pas bon, fin euh... je sais pas d'ailleurs j'ai jamais mangé de chat... ou alors dans les nems mais j'étais pas au courant - Papa c'est quoi les nems ? - Bon ça va ça suffit on arrête avec les animaux voilà, on va mettre le DVD de Robin des bois ça va - Papa, pourquoi on fait des cauchemars ? - Pf... alors, bah parce que tu vois en fait la journée on vit et on voit plein de truc donc du coup la nuit la tête elle continue de travailler un peu toute seule, alors elle s'raconte ses propres histoires alors des fois c'est bien puis des fois c'est pas très bien ça fait un peu peur - Ouais mais papa comment ils viennent les cauchemars ? - Comment ils viennent hum... écoute je sais pas comment ils viennent moi j'ai séché la philo quand ils faisaient Freud voilà je sais pas comment ils... - Papa, moi je crois y a des gens y m'aiment pas bah ils m'achètent des rêves qui font peur - J'vais p't'être relire un peu Freud moi je... écoute te prend pas la tête avec ça vient on met le DVD de Robin des bois tranquille - Papa, pourquoi les feuilles, les plantes tout ça elles tombent puis elles repoussent, puis elle re-tombent... - Bon ça c'est facile, euh c'est parce que tu vois les, les, les plantes tout ça les feuilles c'est vivant en fait tu vois c'est la nature donc du coup ça suit les saisons elles tombent à l'automne et elles repoussent au printemps - Papa, mais nous on est vivant ? - ... Ouais ? - Alors pourquoi nous nos cheveux y poussent tout le temps et y tombent pas à l'automne ? - Bah tu demandera à maman, voilà tu... Maman elle adore les plantes tout ça elle connaît bien et puis elle adore les cheveux voilà tu lui demandera et puis enlève tes chaussures pour monter sur... enlève tes chaussures pour monter sur le canapé on va regarder le DVD de Rob... - Papa, pourquoi... - Non mais y a pas de Papa, pourquoi ? et puis tu enlèves ces chaussures pour monter sur le canapé - Et mais vous vous êtes vraiment fous les adultes, vous aimez trop gronder les enfants Il m'a vraiment dit ça Pourquoi vous voulez toujours gronder les enfants ? - Non mais on veut pas toujours les gronder, on les gronde quand ils écoutent pas ou quand ils font des bétises... - Mais pourquoi vous voulez toujours décider ? - Bah justement parce qu'on est adulte on a plus d'expérience donc nous on sait les choses qu'il faut pas faire - Papa, mais vous les adultes vous faites jamais des choses qu'il faut pas faire ? - ...Robin des bois ! J'voulais quand même te remercier depuis que tu parles c'est la fête Même si tes interrogations m'donnent mal à la tête En fait plus ça avance et plus j'ai l'impression Que j'ai jamais autant appris depuis que j'écoute tes questions J'ai compris que de toute façon j'aurais jamais réponse à tout Et que même si j'essayais tu finirais par me rendre fou J'ai compris que y avait rien de mieux que de t'écouter et de t'entendre Que c'est toi qui allait grandir, que c'est moi qui allait apprendre J'ai compris que t'observais la vie déjà bien plus vite que moi J'ai compris pourquoi tu connaissais par coeur Robin des bois J'ai compris que t'avais pas forcément tord toutes ses petites fois ou je te dispute Et que y a bien un truc ou t'as raison, on est vraiment fous les adultes...</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rachid Taxi</t>
+          <t>Seine Saint-Denis Style</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Il est toujours à l'heure à chacun de nos rencards Et il m'engueule même pas trop quand j'arrive un peu en retard Je monte dans sa voiture et je m'assois à côté de lui Pour qu'il m'emmène à la gare, à Roissy, à Orly Rachid il est taxi depuis quinze longues années En banlieue ou à Paris, il fait rarement la même tournée Comme j'suis amené à voyager, je le vois souvent et on discute Rachid il est bavard et avec lui, j'apprends plein d'trucs Sa voiture elle est grande et puis elle est toujours nickel Rachid Taxi il est serviable c'est un grand professionnel Il fait jamais la moindre infraction au code de la route Mais pour l'itinéraire le plus rapide des fois, j'ai des doutes Dans la voiture de Rachid, y a toujours un peu les mêmes disques Chanteurs français, chansons à texte avec des mélodies tristes Rachid il a quelques certitudes impossibles à déranger Il dit qu'un bon chanteur, ça doit être un artiste engagé Rachid il aime la politique et il en fait c'est toute sa vie Et vu ses opinions, il aime pas que j'écrive pour Johnny Moi, j'lui dis que ça n'a rien à voir et qu'il faut pas tout mélanger Mais Rachid il est têtu et c'est pas moi qui vais l'changer Rachid Taxi quand il s'énerve il lâche l'accélérateur Pendant une bonne embrouille, on roule à dix kilomètres-heure Et si t'as pas envie de louper ton train ou ton avion Vaut mieux pas trop le titiller et lui dire qu'il a raison Rachid il a une opinion sur chaque sujet dactualité Il sort des bonnes chambrettes, un peu cyniques mais méritées Rachid cest un sensible, un écorché et un vanneur Et y a de lémotion dans le rétro quand il raconte la marche des Beurs Il connaît bien les paroles et il sait même jouer de la guitare Rachid taxi parisien et chansonnier banlieusard Rachid il aime écrire dans des journaux militants Ou simplement quelques petits mots quil laisse traîner pour ses enfants Ça il aime sa famille ça transpire dans chaque discussion Et tant quson fils devient pas flic, il en parlera avec passion Rachid Taxi il déteste prendre le périphérique Y a pas de décor, y a que des voitures et des radars automatiques Il préfère traverser Paris et mettre le coude à la fenêtre Pouvoir regarder les gens et allumer sa cigarette Il connaît toutes les astuces et cest vivant, Paris ça bouge Il prend les couloirs de bus en observant le feu est rouge Il connaît bien Paris le matin et démarre souvent avant le soleil Cest lheure où moi je vais me coucher il est cinq heures, Paris séveille Ça met du cur dans lhabitacle et du vécu dans latmosphère Il est pilote, il est DJ, j'me laisse porter le feu est vert Parfois, quand on a le temps, on sarrête prendre un p'tit plat Avec le verre de rouge qui va bien pour accompagner un bon repas Ben ouais Rachid il boit du vin et il fait pas le ramadan Bien sûr il est croyant il est musulman, pratiquement Rachid il a un regard particulier qui crée du lien Un regard de grand frère, le regard dun mec bien Un regard de tendresse, un regard un peu mouillé Un regard concerné et des rêves un peu rouillés Rachid il a un regard, un regard sur la vie Un avis sur le monde et du monde dans son taxi Si jen fais une chanson elle sera pas très engagée cest sûr Mais si la mélodie est triste, elle passera peut-être dans sa voiture</t>
+          <t>C'était en soixante-dix-sept Je slammais pour la première fois de ma carrière Sur un texte qui s'appelait Peauaime P-e-a-u-a-i-m-e J'étais en quelque sorte un précurseur Ouais je sais, je me la pète un p'tit peu Pour l'ami Karim et Fabien dit Grand Corps Malade Tous deux grands slammeurs devant l'éternel J'ai écrit un texte que j'ai récité pour la première fois Au café culturel de Saint Denis Dans une soirée qui s'intitulait Slamalekoum Du 14 décembre 2007, soit trente ans après Peauaime Pour Karim Pour Fabien Les détrousseurs de rime Défricheurs de quatrains Sans dictionnaire de frime Pour ces p'tits frangins Déjà bien plus grands qu'moi Qui m'enterreront demain Si c'n'est pas fait déjà J'voudrais offrir ce slam Un peu ripoux, bancal Rigole pas ma p'tite dame Ou j'te slam une mandale Ce sera mon tout premier J'vous vois venir les tapettes Vaut mieux qu'ce soit le dernier Que vous vous dites en cachette Pour Fabien, pour Karim Et pour tous vos potos J'ai torché ces pauvres rimes Ce matin au bistrot J'vais vous les balancer A capela vaut mieux J'vais pas vous imposer En plus ma 'sique de vieux Ce sera pas un hommage Plein de clichés, de lieux communs Style putain j'ai la rage Vous écrivez trop bien Comme j'suis un poil pudique J'vais pas vous sucer Et puis surtout pas en public On n'est pas chez Cauet Pour Karim, pour Fabien Qui parfois me citez Au milieu de quelques-uns Dont vous vous prétendez Un p'tit peu les enfants Voir les héritiers J'voulais vous retourner le compliment De manière détournée J'vais chercher la p'tite bête Dans vos slams, dans vos bouches Même si j'adore vos textes J'aime enculer les mouches Alors je vous dirai Que malgré tout l'amour Que j'ai pour vos couplets Ça manque un peu d'humour Et malgré la passion Que m'inspire votre vécu Ça manque un peu d'nichons Ça manque un p'tit peu d'cul Pour Fabien, pour Karim Porte-voix des cités Quand j'analyse vos rimes Je m'dis un peu Fais chier Il n'y a pas d'autre mots Que périphérique ou keuf ? Pour décrire vos ghettos Parlez-moi de vos meuf Au lieu d'vous répandre Sur les banlieues d'embrouilles Dites-moi si vos femmes bandent Quand elles pensent à vos couilles Plutôt qu'poétiser Fraternité, marmots Dites-nous quand vous niquez Si elles crient Renaud ! Pour Karim, pour Fabien Qui ont qu'le mot Police À longueur de quatrain Quand j'attends clitoris Qui disent quatre-vingt-treize Pour parler d'leur pays Quand j'attends eh ça baise Comme des dieux à Saint-Denis Vous parlez de la lutte Pour des vies moins tragiques Mais jamais des turluttes Derrière la basilique Des gamins qui ont la frite Leurs histoires sans vie Mais jamais des coups d'bite Dont ils sont tous sortis Pour Fabien, pour Karim Quand l'premier rime en sein Et l'second en pine Je vais conclure enfin Sans rajouter d'couplet Sans hymne à la sodo Sans les culs à bouffer Qui manquent à vos brûlots Je termine mon poème Mon slam un peu vulgos Plein de mouille et de sperme Qui n'choquera que les craignos J'vous autorise quand même Si vous m'trouvez trop nul Quand j'vous dit je vous aime À m'répondre on t'encule</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Retiens les rêves</t>
+          <t>Si mon cœur</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>J'ai rêvé C'était une soirée d'hiver, j'étais rentré pas trop tard J'ai regardé L'atmosphère était légère, vous faisiez vos devoirs J'ai aimé Vous m'avez regardé d'un air qui était content de me voir J'vous ai trouvés plein de lumière, dehors, il faisait tout noir J'vous ai pas dit qu'j'étais fier, j'vous ai souri sans le savoir J'ai rêvé C'était une soirée d'été, on revenait d'votre entraînement J'ai regardé Vos mines un peu fatiguées, vos yeux bleus inspirants J'ai aimé Dans la radio, ça kickait, vos rappeurs du moment Dans la voiture, on chantait, comment serait-ce autrement ? L'solil voulait pas s'coucher, profiter d'notre instant J'ai rêvé Est-c que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé C'était l'hiver, tôt, le matin, juste avant qu'le jour se lève J'ai regardé Vos yeux endormis, sereins, autour d'la table du p'tit déj' J'ai aimé Y avait l'odeur du grille-pain et vous m'racontiez vos rêves De drôles d'histoires de requins et de marins qu'on enlève C'était un matin commun, mais comme un privilège J'ai rêvé C'était l'été, à la campagne, y avait de belles éclaircies J'ai regardé C'était peut-être à la montagne, les rêves, c'est pas très précis J'ai aimé Vous m'disiez qu'c'était relou, cette crème solaire à s'enduire Y avait du bonheur partout et vous vouliez vous resservir J'restais tout le temps avec vous, pour pas vous sentir grandir J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait Quand ils apprennent à lire, nous, on vieillit sans défense J'crois qu'on était des enfants, tant qu'on en avait pas Et si les aider à grandir nous fait perdre un peu d'innocence J'veux bien devenir adulte si c'est pour être papa J'ai rêvé Est-ce que c'était un rêve éveillé ? J'veux pas qu'la nuit s'achève J'veux garder Est-ce qu'on retient les rêves ? Si on voulait, si on voulait</t>
+          <t>Jeune, j'y croyais Aujourd'hui je ne sais plus si c'est vrai Les temps changent la vie passe Emporte la voix des anges Et les entassent dans une impasse Alors on fonce on se tasse Puis on pousse et ça casse C'est la nouvelle théorie de l'évolution Survit aux poubelles avant la révolution Plus je grandis plus j'ai des frissons Je perds mes envies quand s'enchaînent les saisons J'ai l'impression de perdre la vie quand je n'écris plus sur des sons Trop de pression fait gicler l'encre sur la feuille flasque J'imprègne ma vison à l'intérieur de ces quelques flaques Je dessine des fresques sur poum poum tchak À chaque boum boum de mon cur J'insiste sur le temps fort de mon humeur Entre l'humour et l'amour La mort et l'erreur Je rap sans peur Car ces murs sont imprimés sur papier brouillon Et même si mes mots viennent du cur C'est juste quelques ratures d'un souillon Ce sont toujours les mêmes visions Qui sont vissées sur son En regardant à la télévision J'ai remarqué que j'étais sur la bonne voie pour percer Car ce n'est que du réchauffé Au ciné comme dans les émissions Je partirais en mission si j'avais la bonne voix Mais je ne suis qu'un bourge qui n'a pas la foi Je réussirai pas dans le rap et le sport à la fois Pourtant jeune, j'y croyais Aujourd'hui je pense plus que ce soit vrai J'ai nommé slam mes délires Alors que je venais juste de découvrir Par hasard ce que c'était Tu penses à grand corps malade et tu t'es pas trompé Mais c'est bien avant son album que je le connais Je me suis connecté à Internet J'ai donné mes textes je me suis fait incendier encensé et interné Des réactions insensées Et ça me vexe qu'on me dise que c'est bien ce que je fais Sans me donner les raisons bien fondées! Trouvez vous cela si parfait ? Je ne crois pas Mais répondez Quand je vous demande pourquoi ce texte manque de beauté Jeune, je croyais Que quand on parlait on était écouté ! Mais quand on l'ouvre c'est souvent écourté ! La vie est aussi trafiquée Que les émissions de Fogiel ou Ruquier Je les mettrai à la rue les De la rue et Cauet etc... De ces rats on en retire rien de concret Si ce n'est que ce sont des cons créés Par la télévision pour raviver L'appétit glouton du peuple français Jusqu'à la crise de mauvaise foi Ma foi encore une fois bien digérée Je dis gérer sur papier mais ce n'est pas sur ! J'écris avec le pu qui sort de mes plaies J'écrirais encore plus si ça te déplaît Je signe Kévin t'as compris J'en peux plus de l'épeler ? Je me sens seul dans le froid à rapper dans le vide J'en peux plus de me les peler Alors je lance à la mer encore une fois une unième bouteille vide Emplit de liquide je crois voler Même si c'est mon avenir que je suis entrain de couler Clouer au sol depuis ma naissance Mis à terre dans mon adolescence J'essais de me relever Mais je sais que je finirai mis en terre Mis en pièce par la poussière l'histoire se réitère Je n'ai pas encore fixé mes critères Mais dans les critiques ou dans les mystères Je veux ma place au fond d'un cratère Jeune je croyais qu'il y avait Un but à notre vie dans cette ère Je pensais que ma venue allait être légendaire Alléchante, allégée et pleine d'air Mais à 7 ans les gendarmes m'ont arrêté Et m'ont dit qu'on ne peut pas tout faire Dès lors j'ai étouffé Je n'ai vu que de la grisaille quand j'ai débarqué Dans le sud de la France les pieds dans la méditerranée Il m'a fallut plusieurs années d'errance Pour que je comble mon ignorance Dans mon passé sur les îles tout semblait si parfait La mer était clair et les poissons colorés J'ai mal tout le long de mon âme Et si je pleure c'est pour soulager le fond de mon crâne Mon crime est d'avoir ouvert les yeux sur le monde Voila le pouvoir de la vérité J'essai de l'oublier à chaque seconde Mais jamais je ne pourrai m'y résoudre JAMAIS! J'ai été damné on m'a ôté Le titre de paladin de la vérité Quand j'ai omis de manière réfléchie De dire à celle que j'aimais ce que je savais Le monde est noir et comment le cacher Je le vois encore en un regard Et rien n'est prêt de changer Ce serait illusoire Mais jeune je nageais encore les yeux fermés Et je ne savais pas qu'on pouvait les ouvrir À 17 ans c'est triste à dire Qu'on vient d'éclore en même temps que de mourir Alors que mon cur avait partagé son empire Continue de lire tu es peut être jeune Mais tes paupières sont entrain de frémir J'arrête de gémir et parler de c'qui gène Je suis encore jeune et si ma plume prend de l'age Je prendrai de l'altitude pour un peu d'oxygène Je crois encore qu'on puisse dissiper les nuages</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Rétroviseur</t>
+          <t>Sixième sens</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>J'ai le souvenir tenace, et la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette enfance, un môme casse-cou pas trop casse-couilles Nostalgique ce cette innocence, un début d'vie sans grosse embrouille A l'école j'avais d'bonnes notes, mais on peut pas dire que j'étais très sage Insolent avec les profs, le corps enseignant avait la rage C'est vrai que j'devais être relou, mais mon attention était réduite Et j'osais pas rentrer chez moi, les jours d'avertissement d'conduite Avec mes potes on s'cachait dans les chiottes, pour rapper sur un magnéto On faisait un beat en tapant sur des portes, on était vraiment des mytho A la cantine c'était pas un repas, c'était carrément un carnage Ça gueulait, ça s'insultait, et on s'battait à coups de fromage Putain j'envie cette vie ravie que j'revis d'temps en temps Quand jme laisse aller, que j'matte dans le rétroviseur du temps Et ça y'est j'me revois déjà dans l'bus qui part en colo Avec tous mes paquots, avec des types go et mon gros sac à dos Jsais pas comment on a fait pour passer tant de temps à rire Y'a peut-être aussi qu'à cette époque, c'est vrai je pouvais courir Mais t'inquiète je suis pas là pour pleurer, juste revivre avec vous La joie des premiers re-soi, l'émotion des premiers rendez vous D'ailleurs ça m'rappelle cette meuf, j'crois qu'elle s'appelait Gaëlle C'était en rentrant d'une teuf, j'lui dois mon premier roulage de pèle J'revois aussi ces parties de foot, où on jouait pendant des heures On rentrait chez nous que quand il faisait nuit et ça j'te jure c'était le bonheur C'était les années où dans mon walkman, y'avait tout le temps authentique Premier album des NTM dont j'étais vraiment fanatique C'est vrai que j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique Nostalgique de cette adolescence,Des années consacrées au sport Nostalgique de cette ambiance, plus on est fou plus on est fort Avec mon équipe de basket, on allait monter en Nationale Et on a perdu le titre lors d'une énième bagarre générale Jordan était notre idole, notre modèle, notre moteur Et on travaillait notre détente pour défier les lois de la pesanteur C'est génial ces petits détails auxquels j'repense avec envie Ces p'tits bouts d'innocence qui m'sourient dans l'rétroviseur de la vie C'est vrai que j'étais sportif, et plein d'fois j'ai prouvé ma valeur Car j'me suis fait jamais serré quand j'me faisais courser par les contrôleurs Cette époque j'passais la moitié d'ma vie dans les transports et les jours de grève Croyez moi ça aussi c'était du sport J'étais pas trop bagarreur, sauf quand j'savais que j'allais gagner Contre un p'tit vieux, ou une p'tite sur, peu de chance de m'faire aligner La belle époque des p'tites magouilles, des crises de rire toute la journée J'ai des souvenirs par packs de 12, construits au fil des années C'est un truc de fou, toutes ces images qui reviennent en force Et qui font que tu n'y peux rien, ton cur se serre au fond d'ton torse Y'a des trucs qui m'manquent, que j'retrouverais pas, c'est sûr Car on les vit que quand on est inconscients innocents et purs Y'a des moments un peu sombres, des journées sans lumière Où j'me dis que le meilleur est peut-être déjà derrière Pourtant je suis bien dans mes pompes et j'ai confiance en l'avenir Y'a quelque chose que je dois avouer, que je suis obligé d'vous dire j'ai le souvenir tenace, la mémoire tonique De ces temps pas si lointains, de cette époque magique J'sais pas si c'est normal, on peut trouver ça tragique Putain j'ai pas 30 ans, et je suis déjà nostalgique</t>
+          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment là, hors du temps, que la réalité a choisi Pour montrer qu'elle décide et que si elle vut elle nous malmène Ell a injecté dans nos joies comme une anesthésie Souviens-toi de ces sourires, ce sera plus jamais les mêmes Le temps s'est accéléré d'un coup et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs, dans ma tête y'a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde mais ses ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle et un moment banal peut être une très bonne occupation Ce monde là respire le même air mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain Alors pourquoi tant d'embarras face à un mec en fauteuil roulant Ou face à une aveugle, vas-y tu peux leur parler normalement C'est pas contagieux pourtant avant de refaire mes premiers pas Certains savent comme moi qu'y a des regards qu'on oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage Une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout, sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Robin des bois</t>
+          <t>Souvenirs manqués</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Le texte qui vient c'est pas vraiment un texte en fait, c'est plutôt une conversation Et en fait, pour tout vous dire, je ne l'ai pas écrit tout seul, et celui qui a co-écrit ce texte avec moi, en fait il est pas au courant maintenant que je le fais en concert comme ça face à des gens Ourtant je vous assure que toutes ces phrases sont vraiment de lui, mais bon j'pense qu'il va pas m'en vouloir il va pas m'attaquer... De toute façon il a quatre ans... alors ça fait comme ça - Papa, pourquoi le monsieur il dort dehors ? - Bah parce que il a pas de maison - Mais pourquoi il a pas de maison ? - Bah parce que il a pas assez d'argent - Mais pourquoi il a pas assez d'argent ? - Bah je sais pas moi je le connais pas - On peut lui demander pourquoi il a pas assez d'argent ? - Bah non non ça se fait pas - Pourquoi ça se fait pas ? - Bah parce que c'est... c'est ces histoires, il a pas envie d'en parler - Pourquoi il a pas envie d'en parler ? - Bah j'sais pas moi - Papa on peut lui demander pourquoi il a pas envie d'en parler ? - Non non ça va le monsieur il a envie d'être tranquille - Pourquoi il a envie d'être tran... - Bon ça suffit, ça suffit. Laisse le monsieur on rentre à la maison on va regarder Robin des bois voilà ça va - Papa, mais nous on est des êtres humains ? - Bah ouais - Alors pourquoi nous on mange des animaux ? - Pf... bah écoute euh voilà c'est comme ça, faut bien manger euh, faut bien se nourrir et puis parce que c'est bon, le buf c'est bon, le poulet c'est bon, le lapin c'est bon... - Papa, pourquoi on mange pas le chat ? - Non mais le chat c'est pas pareil, le chat il est sympa, c'est notre copain c'est... - Le lapin il est pas sympa ? - Non mais ça n'a rien à voir, puis le lapin c'est super bon t'sais avec de la moutarde... - Et le chat c'est pas bon avec de la moutarde ? - Non non, le chat c'est pas bon, fin euh... je sais pas d'ailleurs j'ai jamais mangé de chat... ou alors dans les nems mais j'étais pas au courant - Papa c'est quoi les nems ? - Bon ça va ça suffit on arrête avec les animaux voilà, on va mettre le DVD de Robin des bois ça va - Papa, pourquoi on fait des cauchemars ? - Pf... alors, bah parce que tu vois en fait la journée on vit et on voit plein de truc donc du coup la nuit la tête elle continue de travailler un peu toute seule, alors elle s'raconte ses propres histoires alors des fois c'est bien puis des fois c'est pas très bien ça fait un peu peur - Ouais mais papa comment ils viennent les cauchemars ? - Comment ils viennent hum... écoute je sais pas comment ils viennent moi j'ai séché la philo quand ils faisaient Freud voilà je sais pas comment ils... - Papa, moi je crois y a des gens y m'aiment pas bah ils m'achètent des rêves qui font peur - J'vais p't'être relire un peu Freud moi je... écoute te prend pas la tête avec ça vient on met le DVD de Robin des bois tranquille - Papa, pourquoi les feuilles, les plantes tout ça elles tombent puis elles repoussent, puis elle re-tombent... - Bon ça c'est facile, euh c'est parce que tu vois les, les, les plantes tout ça les feuilles c'est vivant en fait tu vois c'est la nature donc du coup ça suit les saisons elles tombent à l'automne et elles repoussent au printemps - Papa, mais nous on est vivant ? - ... Ouais ? - Alors pourquoi nous nos cheveux y poussent tout le temps et y tombent pas à l'automne ? - Bah tu demandera à maman, voilà tu... Maman elle adore les plantes tout ça elle connaît bien et puis elle adore les cheveux voilà tu lui demandera et puis enlève tes chaussures pour monter sur... enlève tes chaussures pour monter sur le canapé on va regarder le DVD de Rob... - Papa, pourquoi... - Non mais y a pas de Papa, pourquoi ? et puis tu enlèves ces chaussures pour monter sur le canapé - Et mais vous vous êtes vraiment fous les adultes, vous aimez trop gronder les enfants Il m'a vraiment dit ça Pourquoi vous voulez toujours gronder les enfants ? - Non mais on veut pas toujours les gronder, on les gronde quand ils écoutent pas ou quand ils font des bétises... - Mais pourquoi vous voulez toujours décider ? - Bah justement parce qu'on est adulte on a plus d'expérience donc nous on sait les choses qu'il faut pas faire - Papa, mais vous les adultes vous faites jamais des choses qu'il faut pas faire ? - ...Robin des bois ! J'voulais quand même te remercier depuis que tu parles c'est la fête Même si tes interrogations m'donnent mal à la tête En fait plus ça avance et plus j'ai l'impression Que j'ai jamais autant appris depuis que j'écoute tes questions J'ai compris que de toute façon j'aurais jamais réponse à tout Et que même si j'essayais tu finirais par me rendre fou J'ai compris que y avait rien de mieux que de t'écouter et de t'entendre Que c'est toi qui allait grandir, que c'est moi qui allait apprendre J'ai compris que t'observais la vie déjà bien plus vite que moi J'ai compris pourquoi tu connaissais par coeur Robin des bois J'ai compris que t'avais pas forcément tord toutes ses petites fois ou je te dispute Et que y a bien un truc ou t'as raison, on est vraiment fous les adultes...</t>
+          <t>Au matin je me rappelle, je t'ai dit je te rappelle Tu m'as laissé ton numéro d'un air solennel Mais quand ça a sonné et que j'ai entendu ta voix Tu m'as parlé comme si je te parlais pour la première fois Tu m'as demandé C'est qui? j'ai répondu C'est moi! J'ai vite compris que dans ta voix il faisait froid Je t'ai rappelé mon nom, les détails, la soirée Je me suis dit quel con, je t'ai entendu te marrer Si toi tu te souviens, tant mieux pour toi! Moi je n'ai rien qu de blablabla C'est quoi ton nom? C'est quoi c jeu? I don't know why you call me baby coz I can't remember you Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués Ta mémoire te fait défaut, la mienne sur-réagit Tu ne te rappelles de rien, je croule sous la nostalgie Tu voudrais plus de souvenirs, j'aimerai manquer un peu Difficile d'être un étranger à tes yeux J'me souviens de ton rire, du trottoir, du taxi Des étoiles, des clins d'oeil de la galaxie De nos gestes, et enfin de nos corps en vie Et du reste à la fin j'ai encore envie Envie de quoi? Envie de qui? Mais de quels corps? Mais de quelle nuit? Comment tu crois tout ce que tu disais? Si oh .. Franchement j'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués -C'est qui? -Bah c'est moi le mec de la soirée! -Alors? -Du coup, on peut s'voir? -Comment? -Oula je te dérange -Je dors -On s'était dit qu'on allait s'revoir -Mais quand? -Mais tu vois qui j'suis ou pas -Aucune idée -Mais tu m'avais dit de te rappeler -Ah bon? -Pourtant l'autre nuit -J'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués J'ai oublié J'ai oublié</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Seine Saint-Denis Style</t>
+          <t>Sur La Lune</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>C'était en soixante-dix-sept Je slammais pour la première fois de ma carrière Sur un texte qui s'appelait Peauaime P-e-a-u-a-i-m-e J'étais en quelque sorte un précurseur Ouais je sais, je me la pète un p'tit peu Pour l'ami Karim et Fabien dit Grand Corps Malade Tous deux grands slammeurs devant l'éternel J'ai écrit un texte que j'ai récité pour la première fois Au café culturel de Saint Denis Dans une soirée qui s'intitulait Slamalekoum Du 14 décembre 2007, soit trente ans après Peauaime Pour Karim Pour Fabien Les détrousseurs de rime Défricheurs de quatrains Sans dictionnaire de frime Pour ces p'tits frangins Déjà bien plus grands qu'moi Qui m'enterreront demain Si c'n'est pas fait déjà J'voudrais offrir ce slam Un peu ripoux, bancal Rigole pas ma p'tite dame Ou j'te slam une mandale Ce sera mon tout premier J'vous vois venir les tapettes Vaut mieux qu'ce soit le dernier Que vous vous dites en cachette Pour Fabien, pour Karim Et pour tous vos potos J'ai torché ces pauvres rimes Ce matin au bistrot J'vais vous les balancer A capela vaut mieux J'vais pas vous imposer En plus ma 'sique de vieux Ce sera pas un hommage Plein de clichés, de lieux communs Style putain j'ai la rage Vous écrivez trop bien Comme j'suis un poil pudique J'vais pas vous sucer Et puis surtout pas en public On n'est pas chez Cauet Pour Karim, pour Fabien Qui parfois me citez Au milieu de quelques-uns Dont vous vous prétendez Un p'tit peu les enfants Voir les héritiers J'voulais vous retourner le compliment De manière détournée J'vais chercher la p'tite bête Dans vos slams, dans vos bouches Même si j'adore vos textes J'aime enculer les mouches Alors je vous dirai Que malgré tout l'amour Que j'ai pour vos couplets Ça manque un peu d'humour Et malgré la passion Que m'inspire votre vécu Ça manque un peu d'nichons Ça manque un p'tit peu d'cul Pour Fabien, pour Karim Porte-voix des cités Quand j'analyse vos rimes Je m'dis un peu Fais chier Il n'y a pas d'autre mots Que périphérique ou keuf ? Pour décrire vos ghettos Parlez-moi de vos meuf Au lieu d'vous répandre Sur les banlieues d'embrouilles Dites-moi si vos femmes bandent Quand elles pensent à vos couilles Plutôt qu'poétiser Fraternité, marmots Dites-nous quand vous niquez Si elles crient Renaud ! Pour Karim, pour Fabien Qui ont qu'le mot Police À longueur de quatrain Quand j'attends clitoris Qui disent quatre-vingt-treize Pour parler d'leur pays Quand j'attends eh ça baise Comme des dieux à Saint-Denis Vous parlez de la lutte Pour des vies moins tragiques Mais jamais des turluttes Derrière la basilique Des gamins qui ont la frite Leurs histoires sans vie Mais jamais des coups d'bite Dont ils sont tous sortis Pour Fabien, pour Karim Quand l'premier rime en sein Et l'second en pine Je vais conclure enfin Sans rajouter d'couplet Sans hymne à la sodo Sans les culs à bouffer Qui manquent à vos brûlots Je termine mon poème Mon slam un peu vulgos Plein de mouille et de sperme Qui n'choquera que les craignos J'vous autorise quand même Si vous m'trouvez trop nul Quand j'vous dit je vous aime À m'répondre on t'encule</t>
+          <t>5 continents, des océans pour faire son terrain de jeu Il a parfois été grand, parfois très courageux Pour sadapter il a construit, il sest montré inventif Pour développer il a produit sans être très attentif 5 continents, des océans pour fortifier son empire Parfois il a tout fait foiré, et parfois il a fait pire En quête permanente dévolution il sest créer des dilemmes À chercher trop de solutions, il sest trouvé des problèmes Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes Jai vu sur un même trottoir la bienveillance et lhorreur Jentends des gens tous les soirs, Jean qui rit et Jean qui pleure Et sur la route du progrès, Jean qui fonce et Jean qui freine Je suis fasciné par notre espèce schizophrène Fabuleux être vivant au cerveau double tranchant Souvent tourné vers le haut mais tiré par ses penchants Dualité fascinante, qui crée des ponts et des ravages Capable du meilleur, et capable du plus sauvage Côté pile et côté face, côté style et côté crasse En fabricant les belles avenues, il a créé des impasses Tant dintelligence si mal mise à profit De dérive en excès, cest lui-même quil sacrifie Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes 5 continents des océans pour courir à sa perte Il a créé des armes capables de tout faire disparaître Il est venu, il a vu, il a vaincu la couche dozone Il scie la branche sur laquelle il avait posé son trône Pour aller toujours plus vite et pour produire plus fort Il a abîmé la vie et accéléré la mort Il a rasé les forêts, pourri la mer et la terre Transformé les climats et capturé les panthères Il a créé des vaccins mais a créé des cancers Il a créé limprimerie mais créé larme nucléaire Il a créé la peinture et les plus belles symphonies Mais il a créé Trump, Zemmour et Loft Story Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Si mon cœur</t>
+          <t>Tailler la route</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jeune, j'y croyais Aujourd'hui je ne sais plus si c'est vrai Les temps changent la vie passe Emporte la voix des anges Et les entassent dans une impasse Alors on fonce on se tasse Puis on pousse et ça casse C'est la nouvelle théorie de l'évolution Survit aux poubelles avant la révolution Plus je grandis plus j'ai des frissons Je perds mes envies quand s'enchaînent les saisons J'ai l'impression de perdre la vie quand je n'écris plus sur des sons Trop de pression fait gicler l'encre sur la feuille flasque J'imprègne ma vison à l'intérieur de ces quelques flaques Je dessine des fresques sur poum poum tchak À chaque boum boum de mon cur J'insiste sur le temps fort de mon humeur Entre l'humour et l'amour La mort et l'erreur Je rap sans peur Car ces murs sont imprimés sur papier brouillon Et même si mes mots viennent du cur C'est juste quelques ratures d'un souillon Ce sont toujours les mêmes visions Qui sont vissées sur son En regardant à la télévision J'ai remarqué que j'étais sur la bonne voie pour percer Car ce n'est que du réchauffé Au ciné comme dans les émissions Je partirais en mission si j'avais la bonne voix Mais je ne suis qu'un bourge qui n'a pas la foi Je réussirai pas dans le rap et le sport à la fois Pourtant jeune, j'y croyais Aujourd'hui je pense plus que ce soit vrai J'ai nommé slam mes délires Alors que je venais juste de découvrir Par hasard ce que c'était Tu penses à grand corps malade et tu t'es pas trompé Mais c'est bien avant son album que je le connais Je me suis connecté à Internet J'ai donné mes textes je me suis fait incendier encensé et interné Des réactions insensées Et ça me vexe qu'on me dise que c'est bien ce que je fais Sans me donner les raisons bien fondées! Trouvez vous cela si parfait ? Je ne crois pas Mais répondez Quand je vous demande pourquoi ce texte manque de beauté Jeune, je croyais Que quand on parlait on était écouté ! Mais quand on l'ouvre c'est souvent écourté ! La vie est aussi trafiquée Que les émissions de Fogiel ou Ruquier Je les mettrai à la rue les De la rue et Cauet etc... De ces rats on en retire rien de concret Si ce n'est que ce sont des cons créés Par la télévision pour raviver L'appétit glouton du peuple français Jusqu'à la crise de mauvaise foi Ma foi encore une fois bien digérée Je dis gérer sur papier mais ce n'est pas sur ! J'écris avec le pu qui sort de mes plaies J'écrirais encore plus si ça te déplaît Je signe Kévin t'as compris J'en peux plus de l'épeler ? Je me sens seul dans le froid à rapper dans le vide J'en peux plus de me les peler Alors je lance à la mer encore une fois une unième bouteille vide Emplit de liquide je crois voler Même si c'est mon avenir que je suis entrain de couler Clouer au sol depuis ma naissance Mis à terre dans mon adolescence J'essais de me relever Mais je sais que je finirai mis en terre Mis en pièce par la poussière l'histoire se réitère Je n'ai pas encore fixé mes critères Mais dans les critiques ou dans les mystères Je veux ma place au fond d'un cratère Jeune je croyais qu'il y avait Un but à notre vie dans cette ère Je pensais que ma venue allait être légendaire Alléchante, allégée et pleine d'air Mais à 7 ans les gendarmes m'ont arrêté Et m'ont dit qu'on ne peut pas tout faire Dès lors j'ai étouffé Je n'ai vu que de la grisaille quand j'ai débarqué Dans le sud de la France les pieds dans la méditerranée Il m'a fallut plusieurs années d'errance Pour que je comble mon ignorance Dans mon passé sur les îles tout semblait si parfait La mer était clair et les poissons colorés J'ai mal tout le long de mon âme Et si je pleure c'est pour soulager le fond de mon crâne Mon crime est d'avoir ouvert les yeux sur le monde Voila le pouvoir de la vérité J'essai de l'oublier à chaque seconde Mais jamais je ne pourrai m'y résoudre JAMAIS! J'ai été damné on m'a ôté Le titre de paladin de la vérité Quand j'ai omis de manière réfléchie De dire à celle que j'aimais ce que je savais Le monde est noir et comment le cacher Je le vois encore en un regard Et rien n'est prêt de changer Ce serait illusoire Mais jeune je nageais encore les yeux fermés Et je ne savais pas qu'on pouvait les ouvrir À 17 ans c'est triste à dire Qu'on vient d'éclore en même temps que de mourir Alors que mon cur avait partagé son empire Continue de lire tu es peut être jeune Mais tes paupières sont entrain de frémir J'arrête de gémir et parler de c'qui gène Je suis encore jeune et si ma plume prend de l'age Je prendrai de l'altitude pour un peu d'oxygène Je crois encore qu'on puisse dissiper les nuages</t>
+          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sixième sens</t>
+          <t>Tant que les gens font l’amour</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>La nuit est belle, l'air est chaud et les étoiles nous matent Pendant qu'on kiffe et qu'on apprécie nos plus belles vacances La vie est calme, il fait beau, il est 2 heures du mat' On est quelques sourires à partager notre insouciance C'est ce moment là, hors du temps, que la réalité a choisi Pour montrer qu'elle décide et que si elle vut elle nous malmène Ell a injecté dans nos joies comme une anesthésie Souviens-toi de ces sourires, ce sera plus jamais les mêmes Le temps s'est accéléré d'un coup et c'est tout mon futur qui bascule Les envies, les projets, les souvenirs, dans ma tête y'a trop de pensées qui se bousculent Le choc n'a duré qu'une seconde mais ses ondes ne laissent personne indifférent Votre fils ne marchera plus , voilà ce qu'ils ont dit à mes parents Alors j'ai découvert de l'intérieur un monde parallèle Un monde où les gens te regardent avec gêne ou avec compassion Un monde où être autonome devient un objectif irréel Un monde qui existait sans que j'y fasse vraiment attention Ce monde-là vit à son propre rythme et n'a pas les mêmes préoccupations Les soucis ont une autre échelle et un moment banal peut être une très bonne occupation Ce monde là respire le même air mais pas tout le temps avec la même facilité Il porte un nom qui fait peur ou qui dérange les handicapés On met du temps à accepter ce mot, c'est lui qui finit par s'imposer La langue française a choisi ce terme, moi j'ai rien d'autre à proposer Rappelle-toi juste que c'est pas une insulte, on avance tous sur le même chemin Et tout le monde crie bien fort qu'un handicapé est d'abord un être humain Alors pourquoi tant d'embarras face à un mec en fauteuil roulant Ou face à une aveugle, vas-y tu peux leur parler normalement C'est pas contagieux pourtant avant de refaire mes premiers pas Certains savent comme moi qu'y a des regards qu'on oublie pas C'est peut-être un monde fait de décence, de silence, de résistance Un équilibre fragile, un oiseau dans l'orage Une frontière étroite entre souffrance et espérance Ouvre un peu les yeux, c'est surtout un monde de courage Quand la faiblesse physique devient une force mentale Quand c'est le plus vulnérable qui sait où, quand, pourquoi et comment Quand l'envie de sourire redevient un instinct vital Quand on comprend que l'énergie ne se lit pas seulement dans le mouvement Parfois la vie nous teste et met à l'épreuve notre capacité d'adaptation Les 5 sens des handicapés sont touchés mais c'est un 6ème qui les délivre Bien au-delà de la volonté, plus fort que tout, sans restriction Ce 6ème sens qui apparaît, c'est simplement l'envie de vivre</t>
+          <t>Au temps jadis, fis, il fallait pour faire la cour Sortir sa plus belle plume et tenter quelques mots d'amours Transmettre la lettre, si possible loin des regards Ajouter du parfum sur le papier pour les ringards Aujourd'hui ça va plus vite, c'est la drague en digital Le smartphone pour pécho est devenu quasi vital Texto et Facebook sont les alliés de Cupidon Sans eux, t'es célibataire, t'es rien, t'es un bidon TKT j'te kiff c'est trop LOL MDR Abréviations, fautes d'orthographe, ouvriers de la langue de Molière Il suffit de mettre trois petits points derrière les mots à bientôt Et on comprends tout de suite que tu veux jouer recto-verso Ça manque un peu de recherche et d'un brin de poésie Mais c'est plus efficace, merci à la technologie Car si tout va plus vite et qu'on se rencontre sans détour On ne peut que se réjouir, tant que les gens font l'amour Céline voulait Medhy, mais Medhy voulait Jennifer Séverine voulait Teddy, et Teddy préférait son frère Son frère lui ne désirait que les cougars athlétiques Aux lèvres gonflées, figées, la chirurgie est statique Katty a encore trompé son mari la semaine dernière Il a rien vu en séminaire avec ses deux jeunes secrétaires Ils étaient content de se retrouver après leur petites affaires C'est ladultère salutaire, quand père et mère savent se taire Patrice aime bien les petite jeunes, qui aime bien les petits vieux Alice aime jouer avec les hommes, qui aiment bien ses petits jeux Marie aime les galipettes avec plusieurs amis Puis Annie aime les sucettes, les sucettes à l'anis Ça manque un peu de sentiment, puis d'un brin de passion Mais ne soyons pas moralistes, acceptons toutes les infractions Car tant que les gens se font plus de bien, que de mal en retour On doit pouvoir s'en réjouir, tant que les gens font l'amour Le jour de son mariage Laurent avait bu trop de whisky Il se rappelait qu'il était marier, mais ne savait plus contre qui Steve et Fabienne ont tout quitté pour s'aimer toute leur vie Et ils vécurent peu heureux et eurent beaucoup d'ennuis La vanne, le jeu de mot, et la petite dose de cynisme Accompagnent bien les situations qui manquent un peu dhéroïsme Les belles histoires existent mais je les chanterai un autre jour Elle peuvent bien attendre leur tour tant que les gens font l'amour</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Souvenirs manqués</t>
+          <t>Toucher l’instant</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Au matin je me rappelle, je t'ai dit je te rappelle Tu m'as laissé ton numéro d'un air solennel Mais quand ça a sonné et que j'ai entendu ta voix Tu m'as parlé comme si je te parlais pour la première fois Tu m'as demandé C'est qui? j'ai répondu C'est moi! J'ai vite compris que dans ta voix il faisait froid Je t'ai rappelé mon nom, les détails, la soirée Je me suis dit quel con, je t'ai entendu te marrer Si toi tu te souviens, tant mieux pour toi! Moi je n'ai rien qu de blablabla C'est quoi ton nom? C'est quoi c jeu? I don't know why you call me baby coz I can't remember you Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués Ta mémoire te fait défaut, la mienne sur-réagit Tu ne te rappelles de rien, je croule sous la nostalgie Tu voudrais plus de souvenirs, j'aimerai manquer un peu Difficile d'être un étranger à tes yeux J'me souviens de ton rire, du trottoir, du taxi Des étoiles, des clins d'oeil de la galaxie De nos gestes, et enfin de nos corps en vie Et du reste à la fin j'ai encore envie Envie de quoi? Envie de qui? Mais de quels corps? Mais de quelle nuit? Comment tu crois tout ce que tu disais? Si oh .. Franchement j'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués -C'est qui? -Bah c'est moi le mec de la soirée! -Alors? -Du coup, on peut s'voir? -Comment? -Oula je te dérange -Je dors -On s'était dit qu'on allait s'revoir -Mais quand? -Mais tu vois qui j'suis ou pas -Aucune idée -Mais tu m'avais dit de te rappeler -Ah bon? -Pourtant l'autre nuit -J'ai oublié Les souvenirs manquent à l'appel Les souvenirs, pour toi tu te rappelles Les souvenirs je n'ai rien inventé Les souvenirs, les souvenirs manqués J'ai oublié J'ai oublié</t>
+          <t>On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie Il existe paraît-il, un instant dans l'écriture Qui oublie la page blanche et efface les ratures Un véritable état second, une espèce de transe Qui apparaît mystérieusement et s'envole en silence Que l'on rape ou que l'on slame, on recherche ce moment Il allume une flamme qui nous éclaire brièvement Cette flamme est la preuve, laisse moi t'en faire une démo Qu'il est possible de combattre le mal par les mots C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moment rares et irréels que la quiétude inonde Rouda, n'oublie jamais notre parole du bout du monde On ressent comme une coupure dans la vie, comme un rêve On oublie les coups durs de la vie, comme une trêve C'est un phénomène puissant, je ne te parle pas d'inspiration Mais d'un souffle plus profond comme une seconde respiration On voit et on entend l'encre devenir vivante On goûte et on sent la saveur d'une rime errante On touche du doigt l'instant qui nous enveloppe de sa puissance C'est sans cesse la renaissance de l'essence même de nos cinq sens C'est le moment où on passe de l'autre côté des paysages On sympathise avec le vent et on tutoie les nuages Il fait jour en pleine nuit et il fait nuit en plein jour Profite de cet instant, il ne durera pas toujours C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Le moment où le voile se lève et la magie s'élance Là où j'ai croisé Souleymane au bout du sixième silence Si on a pas atteint le Nirvana, on doit en être au seuil Pourtant je suis simplement assis là devant ma feuille Peut-être que cet instant n'existe que dans mon esprit Et que je suis complètement mythomane lorsque j'écris Mais laisse moi mon stylo, y'a pas moyen que je m'arrête J'ai une envie d'écrire comme t'as une envie de cigarette Et pour m'enlever ce désir je te demanderais de repasser Car tant que je pourrais écrire je continuerai de penser Que c'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moments que l'on redécouvre, que l'on connaît plus ou moins Tu l'as déjà touché Jacky, j'en suis témoin On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sur La Lune</t>
+          <t>Tu es donc j’apprends</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>5 continents, des océans pour faire son terrain de jeu Il a parfois été grand, parfois très courageux Pour sadapter il a construit, il sest montré inventif Pour développer il a produit sans être très attentif 5 continents, des océans pour fortifier son empire Parfois il a tout fait foiré, et parfois il a fait pire En quête permanente dévolution il sest créer des dilemmes À chercher trop de solutions, il sest trouvé des problèmes Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes Jai vu sur un même trottoir la bienveillance et lhorreur Jentends des gens tous les soirs, Jean qui rit et Jean qui pleure Et sur la route du progrès, Jean qui fonce et Jean qui freine Je suis fasciné par notre espèce schizophrène Fabuleux être vivant au cerveau double tranchant Souvent tourné vers le haut mais tiré par ses penchants Dualité fascinante, qui crée des ponts et des ravages Capable du meilleur, et capable du plus sauvage Côté pile et côté face, côté style et côté crasse En fabricant les belles avenues, il a créé des impasses Tant dintelligence si mal mise à profit De dérive en excès, cest lui-même quil sacrifie Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes 5 continents des océans pour courir à sa perte Il a créé des armes capables de tout faire disparaître Il est venu, il a vu, il a vaincu la couche dozone Il scie la branche sur laquelle il avait posé son trône Pour aller toujours plus vite et pour produire plus fort Il a abîmé la vie et accéléré la mort Il a rasé les forêts, pourri la mer et la terre Transformé les climats et capturé les panthères Il a créé des vaccins mais a créé des cancers Il a créé limprimerie mais créé larme nucléaire Il a créé la peinture et les plus belles symphonies Mais il a créé Trump, Zemmour et Loft Story Pourtant Il a marché sur la lune Pourtant Il a dansé sur les dunes</t>
+          <t>J'étais assis sur un banc, cinq minutes avec moi Perdu dans mes pensées qui me parlaient sans voix Dans un parc un peu désert, sous un ciel sans couleur Un moment un peu d'air, dans une bulle sans humeur Un vieil homme approcha fermant ainsi cette parenthèse Il s'assit à côté de moi et me regarda l'air à l'aise Avec un regard confiant il me dit cette phrase sans astuce Quel dommage que les gens ne se parlent pas plus Jeune homme croyez-moi, j'ai un peu d'expérience Je ne vous connais pas, je m'assois près de vous Si les gens se parlaient, les choses auraient un sens Je vous parle et pourtant, je suis tout sauf un fou C'est juste que je sais, privilège de l'âge Que l'humain est moins sot, s'il est un peu curieux Que l'humain est plus fort quand il croit au partage Qu'il devient plus beau quand il ouvre les yeux L'homme est un solitaire, l'homme est un solitaire Qui a besoin des autres, l'homme est un solitaire Et plus il est ouvert et plus il devient grand Découvrez ma culture, découvrez ma culture J'apprendrai la vôtre Je pense, donc je suis Et tu es, donc j'apprends Nous avons pris le temps de voir nos différences De mélanges et rencontres, il faut franchir le seuil Parlons aux inconnus, parlons aux inconnues Sortons de l'ignorance, sortons de l'ignorance Faisons de notre monde un terrain sans orgueil Comme on croise nos voix, croisons nos habitudes Nous quitterons ce parc plus riches qu'en entrant Cessons de voir petit, prenons de l'altitude Partageons nos idées, nos valeurs, notre temps Je pense, donc je suis Et tu es, donc j'apprends</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tailler la route</t>
+          <t>Tu peux déjà</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
+          <t>La deuxième fois ça fout encore les mêmes frissons J'ai vu ta mère qui pleurait de la même façon La deuxième fois c'est toujours autant d'émotions La deuxième fois c'est la deuxième révolution Tu peux déjà rire chanter et bavarder Mais on ne peut pas s'empêcher de te regarder Tobserves le monde avec ton petit air sérieux Et là tu vois ce que va être ton prochain jeu Depuis que tu es là évidemment tout s'accélère D'ailleurs souvent pour ce matin tu dis hier Tu es entré dans la famille sans faire de bruit Et avec toi notre équilibre est plus joli Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu es pas tout seul là tu es tranquille faut pas t'en faire Tu peux déjà piquer des jouets à ton grand frère Tu me racontes des histoires un peu décousues J'ai tout suivi mais j'ai compris que le début Tu as tes mots que tu remies à ta manière Combien de temps encore voudras-tu réveiller ta mère ? Ces petites choses quon aimerait vivre encore un peu Tu peux déjà nous rendre sacrément gâteux Tu peux déjà avoir tes petits moments d'orgueil Et quand tu perds au memory, tu fais la gueule Jte laisse bouder je joue au papa insensible Mais à ce moment là tes encore plus irrésistible Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu peux déjà faire tellement de choses bien mieux que moi Danser, courir et puis rêver ça va de soi Un ptit bonhomme avec les plus gros yeux du monde Tellement bleus qu'on peut se noyer chaque seconde Tout est si simple que même ton rêve paraît normal C'est de voler dans l'espace avec les étoiles Tu peux déjà te moquer de moi je te vanter D'être le premier à m'avoir vraiment fait chanter x2 Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tant que les gens font l’amour</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Au temps jadis, fis, il fallait pour faire la cour Sortir sa plus belle plume et tenter quelques mots d'amours Transmettre la lettre, si possible loin des regards Ajouter du parfum sur le papier pour les ringards Aujourd'hui ça va plus vite, c'est la drague en digital Le smartphone pour pécho est devenu quasi vital Texto et Facebook sont les alliés de Cupidon Sans eux, t'es célibataire, t'es rien, t'es un bidon TKT j'te kiff c'est trop LOL MDR Abréviations, fautes d'orthographe, ouvriers de la langue de Molière Il suffit de mettre trois petits points derrière les mots à bientôt Et on comprends tout de suite que tu veux jouer recto-verso Ça manque un peu de recherche et d'un brin de poésie Mais c'est plus efficace, merci à la technologie Car si tout va plus vite et qu'on se rencontre sans détour On ne peut que se réjouir, tant que les gens font l'amour Céline voulait Medhy, mais Medhy voulait Jennifer Séverine voulait Teddy, et Teddy préférait son frère Son frère lui ne désirait que les cougars athlétiques Aux lèvres gonflées, figées, la chirurgie est statique Katty a encore trompé son mari la semaine dernière Il a rien vu en séminaire avec ses deux jeunes secrétaires Ils étaient content de se retrouver après leur petites affaires C'est ladultère salutaire, quand père et mère savent se taire Patrice aime bien les petite jeunes, qui aime bien les petits vieux Alice aime jouer avec les hommes, qui aiment bien ses petits jeux Marie aime les galipettes avec plusieurs amis Puis Annie aime les sucettes, les sucettes à l'anis Ça manque un peu de sentiment, puis d'un brin de passion Mais ne soyons pas moralistes, acceptons toutes les infractions Car tant que les gens se font plus de bien, que de mal en retour On doit pouvoir s'en réjouir, tant que les gens font l'amour Le jour de son mariage Laurent avait bu trop de whisky Il se rappelait qu'il était marier, mais ne savait plus contre qui Steve et Fabienne ont tout quitté pour s'aimer toute leur vie Et ils vécurent peu heureux et eurent beaucoup d'ennuis La vanne, le jeu de mot, et la petite dose de cynisme Accompagnent bien les situations qui manquent un peu dhéroïsme Les belles histoires existent mais je les chanterai un autre jour Elle peuvent bien attendre leur tour tant que les gens font l'amour</t>
+          <t>Bien sûr que non j'ai rien changé à mes habitudes Pas de nouvelles attitude, même degré, même latitude Toujours les mêmes envies, les mêmes délires, les même valeurs Toujours pas de montre à mon poignet, rarement pressé, jamais à l'heure Bon c'est vrai que depuis un moment, j'prends plus le métro Trop galère, trop perte de temps, des rendez-vous j'en ai trop Et puis j'avoue dans la voiture, ce n'est plus moi qui conduis J'ai un chauffeur, enfin deux, un pour le jour et un la nuit J'ai toujours les mêmes potes mais je les vois que deux fois par an Et une fois tous les semestres je passe un coup de fil à mes parents C'est juste un problème de planning, ne croyez pas que je me la pète Rassurez-vous je reste underground, parce qu'underground c'est dans la tête J'ai pas changé de numéro de phone, mais je réponds pas, j'ai pas le temps Sauf pour un week-end dans les îles, là je suis toujours partant Je suis pas devenu trop parano mais je fais confiance qu'aux gens blindés Et j'ai acheté deux dobermans qui surveille mon lecteur DVD Je vais bouffer au restaurant dès que dans le frigo y a plus de caviar J'ai des jeans en peau de serpent et des Stan Smith en lézard Je n'arrive à m'endormir qu'après deux bouteilles de champ' Et en guise de réveil, un violoniste vient dans ma chambre J'ai remplacé ma vieille télé par un plasma de 20 mètres carrés J'ai 500 chaînes que je vois jamais car je préfère me barrer Dans des soirées bien branchées où tous les soirs je fais la fête Mais je reste underground, parce qu'underground c'est dans la tête Avant chaque concert, je parle à personne pendant 2heures Je reste dans ma loge tamisée et pour chaque pied j'ai un masseur J'annule une partie de la tournée dès que j'ai le moindre souci Et après chaque représentation, je mange du foie gras et des sushis Pour les séances de dédicaces, je veux que les gens soient sélectionnés J'en veux des droits et bien élevés, je supporte plus les gens paumés Bien sûr je veux des belles filles qui me disent qu'elles m'adorent Je veux qu'on crie, qu'on m'applaudisse, je ne supporte plus qu'on m'ignore Je connais plein de monde mais mes vrais amis sont tous des gens de télé Si tu peux rien m'apporter, sois cool, arrête de m'appeler Je fais la bise à tout le monde comme on le fait dans la jet-set Mais je reste underground, parce qu'underground c'est dans la tête Bien sûr que non j'ai pas changé, c'est simplement que c'est plus pratique De voyager en jet privé et de me reposer dans des suites Bien sûr que oui je suis resté le même, c'est simplement que c'est normal De n'accepter de slamer que si le ministre est dans la salle J'ai une panthère sur mon balcon et un requin dans ma baignoire Ma voiture a des vitres tintées et je sors qu'avec des lunettes noires J'ai un jacuzzi dans ma Clio et des diamants dans le moteur Et désormais je vais au marché de Saint-Denis en chaise à porteur Je continue de slamer dans des bars mais je veux venir avec mes sponsors Puis faut me fournir un costard et un manche de micro en or Si j'ai changé c'est dans le regard des autres car moi je vous le répète Je suis resté underground, parce qu'underground c'est dans la tête</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Toucher l’instant</t>
+          <t>Une sœur</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie Il existe paraît-il, un instant dans l'écriture Qui oublie la page blanche et efface les ratures Un véritable état second, une espèce de transe Qui apparaît mystérieusement et s'envole en silence Que l'on rape ou que l'on slame, on recherche ce moment Il allume une flamme qui nous éclaire brièvement Cette flamme est la preuve, laisse moi t'en faire une démo Qu'il est possible de combattre le mal par les mots C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moment rares et irréels que la quiétude inonde Rouda, n'oublie jamais notre parole du bout du monde On ressent comme une coupure dans la vie, comme un rêve On oublie les coups durs de la vie, comme une trêve C'est un phénomène puissant, je ne te parle pas d'inspiration Mais d'un souffle plus profond comme une seconde respiration On voit et on entend l'encre devenir vivante On goûte et on sent la saveur d'une rime errante On touche du doigt l'instant qui nous enveloppe de sa puissance C'est sans cesse la renaissance de l'essence même de nos cinq sens C'est le moment où on passe de l'autre côté des paysages On sympathise avec le vent et on tutoie les nuages Il fait jour en pleine nuit et il fait nuit en plein jour Profite de cet instant, il ne durera pas toujours C'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Le moment où le voile se lève et la magie s'élance Là où j'ai croisé Souleymane au bout du sixième silence Si on a pas atteint le Nirvana, on doit en être au seuil Pourtant je suis simplement assis là devant ma feuille Peut-être que cet instant n'existe que dans mon esprit Et que je suis complètement mythomane lorsque j'écris Mais laisse moi mon stylo, y'a pas moyen que je m'arrête J'ai une envie d'écrire comme t'as une envie de cigarette Et pour m'enlever ce désir je te demanderais de repasser Car tant que je pourrais écrire je continuerai de penser Que c'est tout sauf une légende, on espère juste toucher l'instant Les quelques secondes du poète qui échappent à l'espace-temps Les moments que l'on redécouvre, que l'on connaît plus ou moins Tu l'as déjà touché Jacky, j'en suis témoin On a trempé notre plume dans notre envie de changer de vision De prendre une route parallèle, comme une furtive évasion On a trempé notre plume et est-ce vraiment une hérésie De se dire qu'on assume et qu'on écrit de la poésie</t>
+          <t>Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur On a grandi dans la même chambre et on a écouté les mêmes histoires Comme les plus lointains souvenirs s'assemblent, je croise forcément son regard Elle m'a appris à jouer aux dames et à écrire mon prénom en attaché Beaucoup plus de rires que de larmes, on s'est même jamais vraiment fâchés J'ai assisté de loin à ses toutes premières histoires d'amours Si jamais les parents voulaient savoir moi j'étais muet et j'étais sourd Face aux galères on a tenu l'coup et à chaque fois l'autre était là en soutien Dans la famille on parle pas beaucoup et on s'aime, solides, l'air de rien Elle est celle qui me soutien, celle qui me réconforte Sur mon épaule, sa main, je la sens tellement forte Tout dans la discrétion, derrière les projecteurs Je sens son attention, son regard protecteur On n'peut pas dire de beaucoup d'gens qu'ils te connaissent depuis la naissance Y a peu d'monde qui te permette de donner au mot famille un vrai sens Elle était là à chaque victoire, et bien sûr à chaque coup dur de chaque époque Elle peut raconter mon histoire, elle me connait bien avant mes meilleurs potes Avec elle on a inventé des jeux avec des décors invisibles Elle est près du cur, même loin des yeux, il y a des liens indestructibles Il parait qu'on n'choisit pas sa famille, moi je la choisirai elle sans hésitation Et comme elle écoute parfois mes disques, elle entendra p't-être cette déclaration Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Avec elle on a déterré des coquillages enfouis dans le sable On est issu des mêmes paysages, il y a des liens indéfinissables Entre élégance, intelligence, elle sait même être forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Une sur Une sur Une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Triste mélodie</t>
+          <t>Un verbe</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0501 -M- - Rosy Bande originale du film-documentaire 1401 Marc Lavoine - Adulte jamais - 1401 Nej' - SOS Chapitre 2 2101 Alexia Gredy - Hors saison - 2101 LHéritage Goldman - L'Héritage Goldman, Vol. 1 2101 Pierre de Maere - Un jour, je 2801 Brasier - Boîte noire 2801 Grégoire - Live au studio 1719 2801 Les Tit' Nassels - À double tour, Vol. 2 - 2801 Lucas Lombard - Itinéraire 2801 Toulouse Contour - Le temps additionnel Février - 1102 Ariane Roy - medium plaisir 1102 Joe la Panic - Morphée - 1102 Sofiane Pamart - LETTER 1102 Tancrède - Lart de vivre 1802 Srge de York - Au Nord de null part 2402 Fishbach - Avec les yeux 2502 ÂA - Chemin acide - 2502 Fally Ipupa - Tokooos II - 2502 Lucill - Snake Eyes 2502 Rovski - La proie est reine Mars 0403 Stromae - Multitude 1603 Clea Vincent - Tropi-Cléa 3 - EP 1703 Deluxe - Moustache Gracias 1803 ELISA ERKA - Le bruit du monde 1803 Janie - Toujours des fleurs Version deluxe - 1803 Vendredi sur Mer - Métamorphose 2503 Emma Peters- Dimanche - 2503 Henri Dès - AUTREMENT - 2503 Kikesa - Rubi Avril 0104 Jérémie Kiefer - Exode 0104 Oscar les Vacances- Vroum - 0104 Muddy Monk - ULTRA DRAMATIC KID 0704 Charlie Pâle - Je vais où ? 0704 Félix- Elle Chapitre 1 1504 Mansfield.Tya - Twenty Years After 1504 Mathis Poulin - Allons de l'avant 2204 Bakel- Fier.e 2604 Chat Perdu - Chat perdu sans collier 2604 Gildas Thomas - La mousson et le crachin 2704 Sakia Adjafa - Les couleurs de mon âme Mai 0205 Yves Bay - Parallèle 0405 The Doug - Jeune The Doug - EP 0605 Etienne Lainé - Résiliences 0605 Lampion - S.M.T.F.E. - 0605 Miel de Montagne - Tout autour de nous 0605 MIELS - Lécher le ciel - 0605 Renaud - Métèque - 1305 Axel Bauer - Radio Londres 1305 Bernard Lavilliers - Sous un soleil énorme Version collector - 1305 Dadju - Culinnan 1305 Davy Kilembé - Visite Brassens - 1305 Eloi - Pyrale - EP 1305 Les hurlements d'Léo - Radio Léo 1305 L'oiseau Noir -Crépuscule - 1305 TESSÆ - Sérendipité 1905 Félix - c'était Chapitre 2 2005 Charlie Faron - Pensées 2005 La Caravane Passe - Nomadic Live 2005 O C'Est Nous - À chaque pas 2405 Marie Mathématique - Nos jours étranges - 2705 Les Fatals Picards - Le syndrome de Göteborg 2705 Loïc Toularastel, Hervé Lesvenan Anne Roturier - Heureusement Juin 0306 Délinquante - Délinquante - EP 0306 Izaïa - La vitesse 0306 Jean-Marc Sauvagnargues - Ton piano danse toujours Hommage à Michel Berger 0306 Joseph Kamel - Rendez-vous - EP - 0306 -M- - Rêvalité 1006 Catastrophe - 9 3 - EP 1006 Johnny Jane - JTM - EP 1006 Petit K - Une vie à la belle étoile 1006 Sttellla - Pas de sens 1006 Thomas Carbou Rachel Bonneau - Quelque chose de nous 1706 Coline Rio - Lourd et délicat 1706 Julien Granel - COOLEUR 1706 Melisa Pash - Les aurores - EP 1706 Tioma - Douce Escale Lofi Version 1706 Zaoui - MAUVAIS DÉMONS 2406 Dani Terreur - dani 2406 Hey Major - Feu intérieur - 2406 Ma cité va chanter - Ma cité va chanter 2406 Symon - Comme tout le monde 2906 Claude Sicre - Assaï En attendant l'album Juillet 0107 Mocke, Françoiz Breut Claire Vailler - Grand déménagement 0807 Chat Perché - KMGT 0807 Keen' V - Diamant 0807 Molitor - Molitor 3 2207 Melissmell - Les Enfants de Maldonne 2207 Mister Mat - Laventure continue... Août 0808 Molitor - Molitor 3 1908 Amir - R3SSOURCES 2208 Jacques Dutronc - En Voyage 2608 Marghe - Alefa 2608 Pomme - consolation 2608 Styleto - Carrousel Septembre 0209 Slimane - Chroniques dun cupidon 0909 Manset - MANSETLANDIA - Le crabe aux pinces d'homme 0909 Yvan Cassar Louis Chedid - En noires et blanches Parce que - La Collection 1609 Christophe Willem - Panorama - 1609 chien noir - Beaux - 1609 Dominique A - Le monde réel 1609 Grand Corps Malade, Ben Mazué Gaël Faye - Éphèmere 1609 Kent - Scherzando 1609 Seb Martel - Saturn 63 2309 Adé - Et alors ? 2309 Alexis HK - Bobo Playground 2309 blond - Pour la vie entière 2309 Bruno Brel - Lhéritage 2309 Jean-Jacques Goldman - Fredericks, Goldman, Jones Sur scène 2309 Keyzo - Projet K - 2309 Mathilda - Brutal - EP - 2309 Robin - Premier souffle 2309 Roméo Praly - La ballade du Tyran - 2309 Zazie - L'EP - EP 3009 Alain Souchon - mini collection 3009 Da Silva - Extrait d'une vie imparfaite - 3009 Natasha St-Pier - Jeanne - 3009 Poppy Fusée - La Lune - EP 3009 Silvàn Areg - Les 1désirables Octobre 0410 Pomme - jardin secret 0710 Aloïse Sauvage - SAUVAGE - 0710 Bilal Hassani - Théorème 0710 Ezéchiel Pailhès - Mélopée 0710 Foé - Paradis d'or 0710 Mathias Malzieu Daria Nelson - La symphonie du temps qui passe - 0710 Yves Jamait - LAutre 1410 La Féline - Tarbes 1410 Lénine Renaud - Le petit musée 1410 Les Wriggles - Quatre étoiles 1410 Mademoiselle K. - Mademoiselle K 1410 Ycare - Des millions d'années 2110 Allan Védé - Humanoïde 2110 Didier Barbelivien - Didier Barbelivien 2110 Jean-Pierre Kalfon - Méfistofélange 2110 La Grande Sophie - La vie moderne 2110 Les Ogres de Barback - Pitt Ocha et le vélo à propulsion phonique Pitt Ocha 4 2110 Malo' - PAUSE 2110 Mathias Malzieu Daria Nelson - La symphonie du temps qui passe 2110 Oete - Armes Paillettes 2110 Plastic Bertrand - Plastic Bertrand 2110 Siau - Superama 2110 Yannick Noah - La Marfée - 2210 Chilla - EGO 2710 Lestin - Hors série Vol. 1 2810 Alysce - Je veux savoir 2810 Aurélie Saada - Bomboloni 2810 Patrice Michaud - Petit voyage organisé 2810 Stéfi Celma - En oblique 2810 Stéphane Eicher - Ode 2810 Vincent Delerm - Comme une histoire 2810 Vincent Delerm - Sans paroles Version piano 3010 Alle - Noir Novembre 0411 Dorely - Demain sera meilleur 0411 Garou - Garou joue Dassin - 0411 Jenifer - n9 0411 Juliette Armanet - Brûler le Feu 2 0411 La petite culotte - Libertà Lolita ! 0411 Louise Attaque - Planète Terre - 0411 M. Pokora - Épicentre - 0411 Marius - Accroche-cur - EP 0411 Mélodie Lauret - le moment présent 0411 Suzanne - Caméo 0411 Tété - A la faveur des rencontres 0411 Thomas Dutronc Jacques Dutronc - Dutronc Dutronc 0911 Venus VNR - Anomalie 1111 SANTA - 999 - EP - 1111 Kendji Girac - L'école de la vie 1111 Tryo - Tout au Tour Live 1611 Raphaël - Victoria 1811 Camille Lelouche - A - RÉÉDITION 1811 Christophe - Confessionss 1964 - 1968 1811 Daniel Defilipi - Tu es là 1811 Halo Maud - Pesnopoïka - EP - 1811 Mentissa - La vingtaine - 1811 Michel Polnareff - Polnareff chante Polnareff 1811 Patrick Bruel - Encore une fois 1811 Yvon le Men Nicolas Repac - Lampe tempête - 1911 Angèle - Nonante-Cinq La Suite 2511 Alain Souchon - Ici là, en concert au Dôme de Paris Live, 2022 2511 Anne Sila - Madeleines 2511 Clara Luciani - Cur Encore 2511 Claudio Capéo - Rose des vents 2511 Dani Terreur - Session Cool Triste, Vol. 1 2511 Emma Peters - Live Home 2511 Les Cowboys Fringants - En concert avec l'Orchestre symphonique de Montréal Sous la direction du chef Simon Leclerc 2511 Mylène Farmer - L'Emprise 2511 Nej' - SOS Chapitre 3 2511 Thérèse de Lisieux - Thérèse - Vivre d'amour 2511 Trois Cafés Gourmands - La promesse 2511 -M- - Rêvalité Augmentée - 2911 Star Academy - Iconique Décembre - 0212 Jean-Baptiste Guégan - Toutes les larmes sèchent un jour 0212 L'Héritage Goldman - L'Héritage Goldman, Vol. 2 0212 Ludéal - Fifty Fifty Vol.1 - 0212 Roxaane - Vertige 0212 Yarol Poupaud - Fils de personne - 0212 Zazie - AILE-P - 0812 Louane - Sentiments 0812 Nka - La Lune 0912 Dani Terreur - Session Cool Triste, Vol. 2 0912 Saez - Telegram 1612 Fally Ipupa - Formule 7 - 1612 L.E.J - VOLUME II - 16 12 Wejdene - Glow Up</t>
+          <t>Un regard, une rencontre, un été, un sourire Un numéro, un mail, une attente, un souvenir Un appel, une voix, un début, un rencard Un horaire, un endroit, une venue, un espoir Une terrasse, un café, un dialogue, un moment Un soleil, une lumière, un cur, un battement Une seconde, une minute, une heure, un plaisir Un au-revoir, une prochaine, une promesse, un désir Un après, une durée, une patience, un silence Un doute, un pourquoi, un regret, une distance Un retour, une surprise, un déluge, une marée Une suite, une envie, un projet, une soirée Une pleine lune, une virée, un instant, une pulsion Un frôlement, un baiser, une magie, un frisson Un accord, un avenir, une force, une destinée Une étoile, un poème et un verbe aimer</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tu es donc j’apprends</t>
+          <t>Un verre à la main</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>J'étais assis sur un banc, cinq minutes avec moi Perdu dans mes pensées qui me parlaient sans voix Dans un parc un peu désert, sous un ciel sans couleur Un moment un peu d'air, dans une bulle sans humeur Un vieil homme approcha fermant ainsi cette parenthèse Il s'assit à côté de moi et me regarda l'air à l'aise Avec un regard confiant il me dit cette phrase sans astuce Quel dommage que les gens ne se parlent pas plus Jeune homme croyez-moi, j'ai un peu d'expérience Je ne vous connais pas, je m'assois près de vous Si les gens se parlaient, les choses auraient un sens Je vous parle et pourtant, je suis tout sauf un fou C'est juste que je sais, privilège de l'âge Que l'humain est moins sot, s'il est un peu curieux Que l'humain est plus fort quand il croit au partage Qu'il devient plus beau quand il ouvre les yeux L'homme est un solitaire, l'homme est un solitaire Qui a besoin des autres, l'homme est un solitaire Et plus il est ouvert et plus il devient grand Découvrez ma culture, découvrez ma culture J'apprendrai la vôtre Je pense, donc je suis Et tu es, donc j'apprends Nous avons pris le temps de voir nos différences De mélanges et rencontres, il faut franchir le seuil Parlons aux inconnus, parlons aux inconnues Sortons de l'ignorance, sortons de l'ignorance Faisons de notre monde un terrain sans orgueil Comme on croise nos voix, croisons nos habitudes Nous quitterons ce parc plus riches qu'en entrant Cessons de voir petit, prenons de l'altitude Partageons nos idées, nos valeurs, notre temps Je pense, donc je suis Et tu es, donc j'apprends</t>
+          <t>Javais été invité et je pensais navoir rien à gagner Cétait lors dun soiré et je nétais pas venu accompagné Et puis jai vu la connaissance dun ami éloigné Elle était lélégance des chevilles aux poignets Elle parlait peu, elle observait, elle ma regardé sans me voir Les deux personnes avec elle me paressait des faire valoirs Elle semblait seule dans la foule je lai aperçue de loin Elle écoutait le bruit du monde un verre à la main La musique devenait forte et couvrait les bavardages La lumière devenait faible, quand elle caressait son visage Elle a traversé la salle tout droit dans ma direction Elle a frôlé mon épaule sans y porter attention Et soudain dun pas léger, elle sest mise à danser Comme si mes yeux désormais devraient être récompensés Elle a éclipsé tout être humain a présent sur son chemin Elle a retourné mon esprit, un verre à la main Il y avait trop dmonde ce soir-là, javais la flemme de parler Et pour poser mon verre, je nsavais pas où aller Alors mon cocktail à la main, j'ai rejoins la piste de danse Jai fait exprès de frôler cet homme, ami lointain dune connaissance Depuis quil est arrivé, il me regarde fixement Je faisais mine de ne pas le voir, ça mamusait énormément S'il décidait de maborder, je lui laisserai serment une chance Son regard me troublait, ça devenait une évidence Elle semblait danser au ralenti, et ses cheveux attachés Dévoilait sa nuque à laquelle mes yeux restaient accrochés Pour savoir comment l'aborder, je devais me remettre à penser Je cherchais mes phrases en attendant quelle arrête de danser Il était derrière moi, mais je sentais sa présence Je gardais ce verre à la main pour me redonner une contenance J'ai arrêté de danser pour qu'il vienne à ma rencontre Je me retournais vers lui, je savais quil allait se rendre compte Elle s'est retournée d'un seul coup, imaginer mon émotion Quand jai saisi son regard tout droit dans ma direction Il mfallait agir vite, loccasion nallait pas séterniser Je cherchais une approche, mais mon cerveau semblait tétanisé Jai bien pensé à lui offrir du champagne ou du vin Mais on offre pas à boire à celle qui a déjà un verre à la main Alors jai trouvé une autre idée, une option tout indiquée Je vais moi aussi chercher un verre et revenir pour trinquer Nous étions enfin face à face, mon regard dans son regard Mais au lieu de sapprocher, il est parti vers le bar N'était-ce pas moi quil regardait ? Jcomprenais plus rien Je restais seule désorientée, un verre à la main Jvoulais en avoir le cur net comprendre sa disgrâce Jai décidé de le suivre au bar, mais je ne retrouvais pas sa trace Y avait tellement dmonde, allais-je à nouveau le rencontrer ? Ou allais-je poser mon verre et me décider à rentrer ? Je n'suis pas allé jusquau bar, un serveur ambulant que jai croisé ma proposé de disposer dune flûte de champagne rosé Le temps de le remercier puis de rejoindre la belle Je préparais le bon sourire pour enfin trinquer avec elle Mais lorsque je suis revenu, elle avait disparu Je lai cherché, jai attendu, je ne l'ai jamais revu Je ne connaîtrais jamais sa voie ni lodeur de son parfum Je restais seul, un verre à la main, un rêve à la fin Pour toute une vie, où jusquà demain À quoi ça tient ? À quoi ça tient ? Une danse un geste, un verre à la main Ça tient à rien, ça tient à rien Pour toute une vie, où jusquà demain À quoi sattendre ? À quoi sattendre ?</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tu peux déjà</t>
+          <t>Urbaine poésie</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>La deuxième fois ça fout encore les mêmes frissons J'ai vu ta mère qui pleurait de la même façon La deuxième fois c'est toujours autant d'émotions La deuxième fois c'est la deuxième révolution Tu peux déjà rire chanter et bavarder Mais on ne peut pas s'empêcher de te regarder Tobserves le monde avec ton petit air sérieux Et là tu vois ce que va être ton prochain jeu Depuis que tu es là évidemment tout s'accélère D'ailleurs souvent pour ce matin tu dis hier Tu es entré dans la famille sans faire de bruit Et avec toi notre équilibre est plus joli Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu es pas tout seul là tu es tranquille faut pas t'en faire Tu peux déjà piquer des jouets à ton grand frère Tu me racontes des histoires un peu décousues J'ai tout suivi mais j'ai compris que le début Tu as tes mots que tu remies à ta manière Combien de temps encore voudras-tu réveiller ta mère ? Ces petites choses quon aimerait vivre encore un peu Tu peux déjà nous rendre sacrément gâteux Tu peux déjà avoir tes petits moments d'orgueil Et quand tu perds au memory, tu fais la gueule Jte laisse bouder je joue au papa insensible Mais à ce moment là tes encore plus irrésistible Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi Tu peux déjà faire tellement de choses bien mieux que moi Danser, courir et puis rêver ça va de soi Un ptit bonhomme avec les plus gros yeux du monde Tellement bleus qu'on peut se noyer chaque seconde Tout est si simple que même ton rêve paraît normal C'est de voler dans l'espace avec les étoiles Tu peux déjà te moquer de moi je te vanter D'être le premier à m'avoir vraiment fait chanter x2 Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras compter sur moi et sur tes doigts Tu peux, tu peux, tu peux, tu peux déjà Et tu pourras chanter celle-là elle est pour toi</t>
+          <t>C'est pas grave, tu sais ma peau n'est pas si fragile C'est pas grave, c'est pas nos vies qu'on a rendu faciles C'est pas grave, on sera quand même les princes de la ville Leur dire C'est pas grave à découvert, même en terrain hostile L'histoire de l'amour et la haine qui co-habitent J'ai trouvé la formule mathématique pour le bohneur De la foie plus de l'espoir multiplié par de l'amour et de la sincérité ça donne beaucoup d'coeur Tout est grave, rien n'est grave, urbaine poésie J'ai perdu la maîtrise, j'ai les yeux qui brillent, ma plume est triste J'suis incompris, si on prie, qu'on partage des sourires des fous rires C'est comme si j'avais gagné tous les grands prix Cette impression d'être toujours en retard D'avoir d'l'agressivité dans le regard La défaite est un fruit amer, fini le temps des échecs Les expériences difficiles nous ont toutes éméchés Toutes les bonnes actions même les plus petites sont bonnes à prendre Construire pour nos petits nous rendra grands J'suis dans un combat social, j'ai des pensées spatiales Je sais c'que c'est d'être seul, et d'avoir les mains sales J'ai pas d'chance aux jeux, pas d'chance en amour Y'a pas de roses, ni de bleus Que du gris en bas des tours mais c'est pas grave Y'a le monde qui reste sourd et puis qui ferme les yeux Me tue un peu plus plus chaque jour, mais c'est pas grave On a pris de drôles de détour, il a fallu faire demi-tour Y'a comme des bouchons sur la route, mais c'est pas grave Y'a de l'écorce sur mon coeur, au pire j'espère des jours meilleurs Au mieux ne plus avoir peur peur J'ai eu les mains liés, une enclume sur le dos, le vent en face J'connais par coeur nos parcours, y'aura toujours des coups d'crasse Face aux galères j'suis prévenu, j'me suis construis une armure Moi j'prends tellement d'recul que j'suis souvent le dos contre le mur M'apitoyer c'est comme les baggys c'est pas vraiment mon style ! Et tu m'entendras m'plaindre une fois par année bissextile J'ai pas l'temps faut qu'j'avance, ça j'l'ai compris depuis le berceau Il faut qu'je laisse une empreinte, c'est c'que j'viens d'faire sur c'morceau</t>
         </is>
       </c>
     </row>
@@ -2872,95 +2872,10 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Vu de ma fenêtre</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
-        <is>
-          <t>Bien sûr que non j'ai rien changé à mes habitudes Pas de nouvelles attitude, même degré, même latitude Toujours les mêmes envies, les mêmes délires, les même valeurs Toujours pas de montre à mon poignet, rarement pressé, jamais à l'heure Bon c'est vrai que depuis un moment, j'prends plus le métro Trop galère, trop perte de temps, des rendez-vous j'en ai trop Et puis j'avoue dans la voiture, ce n'est plus moi qui conduis J'ai un chauffeur, enfin deux, un pour le jour et un la nuit J'ai toujours les mêmes potes mais je les vois que deux fois par an Et une fois tous les semestres je passe un coup de fil à mes parents C'est juste un problème de planning, ne croyez pas que je me la pète Rassurez-vous je reste underground, parce qu'underground c'est dans la tête J'ai pas changé de numéro de phone, mais je réponds pas, j'ai pas le temps Sauf pour un week-end dans les îles, là je suis toujours partant Je suis pas devenu trop parano mais je fais confiance qu'aux gens blindés Et j'ai acheté deux dobermans qui surveille mon lecteur DVD Je vais bouffer au restaurant dès que dans le frigo y a plus de caviar J'ai des jeans en peau de serpent et des Stan Smith en lézard Je n'arrive à m'endormir qu'après deux bouteilles de champ' Et en guise de réveil, un violoniste vient dans ma chambre J'ai remplacé ma vieille télé par un plasma de 20 mètres carrés J'ai 500 chaînes que je vois jamais car je préfère me barrer Dans des soirées bien branchées où tous les soirs je fais la fête Mais je reste underground, parce qu'underground c'est dans la tête Avant chaque concert, je parle à personne pendant 2heures Je reste dans ma loge tamisée et pour chaque pied j'ai un masseur J'annule une partie de la tournée dès que j'ai le moindre souci Et après chaque représentation, je mange du foie gras et des sushis Pour les séances de dédicaces, je veux que les gens soient sélectionnés J'en veux des droits et bien élevés, je supporte plus les gens paumés Bien sûr je veux des belles filles qui me disent qu'elles m'adorent Je veux qu'on crie, qu'on m'applaudisse, je ne supporte plus qu'on m'ignore Je connais plein de monde mais mes vrais amis sont tous des gens de télé Si tu peux rien m'apporter, sois cool, arrête de m'appeler Je fais la bise à tout le monde comme on le fait dans la jet-set Mais je reste underground, parce qu'underground c'est dans la tête Bien sûr que non j'ai pas changé, c'est simplement que c'est plus pratique De voyager en jet privé et de me reposer dans des suites Bien sûr que oui je suis resté le même, c'est simplement que c'est normal De n'accepter de slamer que si le ministre est dans la salle J'ai une panthère sur mon balcon et un requin dans ma baignoire Ma voiture a des vitres tintées et je sors qu'avec des lunettes noires J'ai un jacuzzi dans ma Clio et des diamants dans le moteur Et désormais je vais au marché de Saint-Denis en chaise à porteur Je continue de slamer dans des bars mais je veux venir avec mes sponsors Puis faut me fournir un costard et un manche de micro en or Si j'ai changé c'est dans le regard des autres car moi je vous le répète Je suis resté underground, parce qu'underground c'est dans la tête</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Grand Corps Malade</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Une sœur</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur On a grandi dans la même chambre et on a écouté les mêmes histoires Comme les plus lointains souvenirs s'assemblent, je croise forcément son regard Elle m'a appris à jouer aux dames et à écrire mon prénom en attaché Beaucoup plus de rires que de larmes, on s'est même jamais vraiment fâchés J'ai assisté de loin à ses toutes premières histoires d'amours Si jamais les parents voulaient savoir moi j'étais muet et j'étais sourd Face aux galères on a tenu l'coup et à chaque fois l'autre était là en soutien Dans la famille on parle pas beaucoup et on s'aime, solides, l'air de rien Elle est celle qui me soutien, celle qui me réconforte Sur mon épaule, sa main, je la sens tellement forte Tout dans la discrétion, derrière les projecteurs Je sens son attention, son regard protecteur On n'peut pas dire de beaucoup d'gens qu'ils te connaissent depuis la naissance Y a peu d'monde qui te permette de donner au mot famille un vrai sens Elle était là à chaque victoire, et bien sûr à chaque coup dur de chaque époque Elle peut raconter mon histoire, elle me connait bien avant mes meilleurs potes Avec elle on a inventé des jeux avec des décors invisibles Elle est près du cur, même loin des yeux, il y a des liens indestructibles Il parait qu'on n'choisit pas sa famille, moi je la choisirai elle sans hésitation Et comme elle écoute parfois mes disques, elle entendra p't-être cette déclaration Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Avec elle on a déterré des coquillages enfouis dans le sable On est issu des mêmes paysages, il y a des liens indéfinissables Entre élégance, intelligence, elle sait même être forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Une sur Une sur Une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur Plus qu'un repère, sans avoir l'air Elle est forte en douceur Plus qu'un repère, sans avoir l'air Plus qu'un frère, une sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Grand Corps Malade</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Un verbe</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Un regard, une rencontre, un été, un sourire Un numéro, un mail, une attente, un souvenir Un appel, une voix, un début, un rencard Un horaire, un endroit, une venue, un espoir Une terrasse, un café, un dialogue, un moment Un soleil, une lumière, un cur, un battement Une seconde, une minute, une heure, un plaisir Un au-revoir, une prochaine, une promesse, un désir Un après, une durée, une patience, un silence Un doute, un pourquoi, un regret, une distance Un retour, une surprise, un déluge, une marée Une suite, une envie, un projet, une soirée Une pleine lune, une virée, un instant, une pulsion Un frôlement, un baiser, une magie, un frisson Un accord, un avenir, une force, une destinée Une étoile, un poème et un verbe aimer</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Grand Corps Malade</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Un verre à la main</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Javais été invité et je pensais navoir rien à gagner Cétait lors dun soiré et je nétais pas venu accompagné Et puis jai vu la connaissance dun ami éloigné Elle était lélégance des chevilles aux poignets Elle parlait peu, elle observait, elle ma regardé sans me voir Les deux personnes avec elle me paressait des faire valoirs Elle semblait seule dans la foule je lai aperçue de loin Elle écoutait le bruit du monde un verre à la main La musique devenait forte et couvrait les bavardages La lumière devenait faible, quand elle caressait son visage Elle a traversé la salle tout droit dans ma direction Elle a frôlé mon épaule sans y porter attention Et soudain dun pas léger, elle sest mise à danser Comme si mes yeux désormais devraient être récompensés Elle a éclipsé tout être humain a présent sur son chemin Elle a retourné mon esprit, un verre à la main Il y avait trop dmonde ce soir-là, javais la flemme de parler Et pour poser mon verre, je nsavais pas où aller Alors mon cocktail à la main, j'ai rejoins la piste de danse Jai fait exprès de frôler cet homme, ami lointain dune connaissance Depuis quil est arrivé, il me regarde fixement Je faisais mine de ne pas le voir, ça mamusait énormément S'il décidait de maborder, je lui laisserai serment une chance Son regard me troublait, ça devenait une évidence Elle semblait danser au ralenti, et ses cheveux attachés Dévoilait sa nuque à laquelle mes yeux restaient accrochés Pour savoir comment l'aborder, je devais me remettre à penser Je cherchais mes phrases en attendant quelle arrête de danser Il était derrière moi, mais je sentais sa présence Je gardais ce verre à la main pour me redonner une contenance J'ai arrêté de danser pour qu'il vienne à ma rencontre Je me retournais vers lui, je savais quil allait se rendre compte Elle s'est retournée d'un seul coup, imaginer mon émotion Quand jai saisi son regard tout droit dans ma direction Il mfallait agir vite, loccasion nallait pas séterniser Je cherchais une approche, mais mon cerveau semblait tétanisé Jai bien pensé à lui offrir du champagne ou du vin Mais on offre pas à boire à celle qui a déjà un verre à la main Alors jai trouvé une autre idée, une option tout indiquée Je vais moi aussi chercher un verre et revenir pour trinquer Nous étions enfin face à face, mon regard dans son regard Mais au lieu de sapprocher, il est parti vers le bar N'était-ce pas moi quil regardait ? Jcomprenais plus rien Je restais seule désorientée, un verre à la main Jvoulais en avoir le cur net comprendre sa disgrâce Jai décidé de le suivre au bar, mais je ne retrouvais pas sa trace Y avait tellement dmonde, allais-je à nouveau le rencontrer ? Ou allais-je poser mon verre et me décider à rentrer ? Je n'suis pas allé jusquau bar, un serveur ambulant que jai croisé ma proposé de disposer dune flûte de champagne rosé Le temps de le remercier puis de rejoindre la belle Je préparais le bon sourire pour enfin trinquer avec elle Mais lorsque je suis revenu, elle avait disparu Je lai cherché, jai attendu, je ne l'ai jamais revu Je ne connaîtrais jamais sa voie ni lodeur de son parfum Je restais seul, un verre à la main, un rêve à la fin Pour toute une vie, où jusquà demain À quoi ça tient ? À quoi ça tient ? Une danse un geste, un verre à la main Ça tient à rien, ça tient à rien Pour toute une vie, où jusquà demain À quoi sattendre ? À quoi sattendre ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Grand Corps Malade</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Urbaine poésie</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>C'est pas grave, tu sais ma peau n'est pas si fragile C'est pas grave, c'est pas nos vies qu'on a rendu faciles C'est pas grave, on sera quand même les princes de la ville Leur dire C'est pas grave à découvert, même en terrain hostile L'histoire de l'amour et la haine qui co-habitent J'ai trouvé la formule mathématique pour le bohneur De la foie plus de l'espoir multiplié par de l'amour et de la sincérité ça donne beaucoup d'coeur Tout est grave, rien n'est grave, urbaine poésie J'ai perdu la maîtrise, j'ai les yeux qui brillent, ma plume est triste J'suis incompris, si on prie, qu'on partage des sourires des fous rires C'est comme si j'avais gagné tous les grands prix Cette impression d'être toujours en retard D'avoir d'l'agressivité dans le regard La défaite est un fruit amer, fini le temps des échecs Les expériences difficiles nous ont toutes éméchés Toutes les bonnes actions même les plus petites sont bonnes à prendre Construire pour nos petits nous rendra grands J'suis dans un combat social, j'ai des pensées spatiales Je sais c'que c'est d'être seul, et d'avoir les mains sales J'ai pas d'chance aux jeux, pas d'chance en amour Y'a pas de roses, ni de bleus Que du gris en bas des tours mais c'est pas grave Y'a le monde qui reste sourd et puis qui ferme les yeux Me tue un peu plus plus chaque jour, mais c'est pas grave On a pris de drôles de détour, il a fallu faire demi-tour Y'a comme des bouchons sur la route, mais c'est pas grave Y'a de l'écorce sur mon coeur, au pire j'espère des jours meilleurs Au mieux ne plus avoir peur peur J'ai eu les mains liés, une enclume sur le dos, le vent en face J'connais par coeur nos parcours, y'aura toujours des coups d'crasse Face aux galères j'suis prévenu, j'me suis construis une armure Moi j'prends tellement d'recul que j'suis souvent le dos contre le mur M'apitoyer c'est comme les baggys c'est pas vraiment mon style ! Et tu m'entendras m'plaindre une fois par année bissextile J'ai pas l'temps faut qu'j'avance, ça j'l'ai compris depuis le berceau Il faut qu'je laisse une empreinte, c'est c'que j'viens d'faire sur c'morceau</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Grand Corps Malade</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Vu de ma fenêtre</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
         <is>
           <t>Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Vu de ma fenêtre, y'a des petits qui font du skate, ça fait un bruit, t'as mal à la tête Et puis y'a des gars en bas qui galèrent Ils sont là, ils font rien, ils prennent l'air Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Vu de ma fenêtre, y'a vachement de passage, de Carrefour à la mairie je vois des gens de tout âge Du métro à la boulangerie, je vois toutes sortes du visages Et puis en face bien sûr, y'a Vidéo-Futur, toute la nuit, les mecs s'arrêtent devant en voiture Franchement le patron, il doit être blindé Moi aussi quand je serai grand, je veux vendre et louer des DVD Je suis aux premières loges pour les arrachages de portables, j'ai une vue très stratégique Si j'étais une poukave, je louerais mon appart comme planque aux flics Vu de ma fenêtre, y'a le café de France, juste en bas, à deux pas Il est tenu par des Rebeus, j'te jure, ça s'invente pas Y'a des meufs bien coiffées qui viennent prendre un café Y'a des petits couples sereins qui viennent boire un coup avant d'en tirer un Et y'a des gentils poivrots qui viennent oublier leurs galères dans la bière Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Aux beaux jours, ils mettent même des tables en terrasse Vu de ma fenêtre, y'a plein de monde au soleil c'est ma classe Et comme je vois tout, de ma planque, comme un keuf Mes potes m'appellent avant de venir pour savoir s'il y a de la meuf Vu de ma fenêtre, celui que je vois le plus souvent c'est Ludo Il est gentil mais quand tu le croises c'est pas forcément un cadeau Si tu le supportes pendant une heure, j'te jure t'es costaud C'est le mec qu'on appelle la cerise sur le ghetto Vu de ma fenêtre, c'est pas de la télé-réalité, ni un sitcom d'AB Production Et je vois pas mal de gens qui triment et voient la vie comme une sanction Et même si face à la galère, ils préfèrent se taire Ils mettent pas de genoux à terre et le poing en l'air ils restent fiers Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver Parce que oui, vu de ma fenêtre, je vois pas mal d'espoir Quand je vois le petit blond jouer au foot avec le petit noir Quand je vois des gens qui se bougent, quand je vois des gens qui se mettent des coups de pied au cul Pour sortir de la zone rouge, et pour que la vie vaille le coup d'être vécue Quand je vois ces deux hommes qui boivent un coup en riant, alors qu'ils sont soi-disant différents Parce que l'un dit Shalom et l'autre dit Salam Mais putain ils se serrent la main, c'est ça l'âme de mon slam Je prends ça comme un bon signe, c'est peut-être un espoir infime Mais je te jure que je l'ai vu, c'est pas pour la rime Bon c'est vrai que vu de ma fenêtre, je vois aussi la galère, la misère Les suicidaires, et les retours au pays en charter Mais je suis un putain de rêveur, un grand optimiste, c'est une philosophie qui me suit Alors je me dis que ça peut s'arranger. J'espère donc je suis Vu de ma fenêtre, y'a que des bâtiments Si j'te disais que je vois de la verdure, tu saurais que je mens Et puis pour voir un bout de ciel, faut se pencher franchement Mais vas-y viens chez moi, on regardera par la fenêtre Tu comprendras pourquoi je rigole, pourquoi je crains, pourquoi je rêve, pourquoi j'espère Surtout le printemps, surtout l'été, surtout l'automne, surtout l'hiver</t>
         </is>
